--- a/APF/RA006/RA006_APF0101_角色維護.xlsx
+++ b/APF/RA006/RA006_APF0101_角色維護.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="8475" windowHeight="4725" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="286">
   <si>
     <t>string</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -575,10 +575,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>『APF0101MM1』Form</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>APF0101MU1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -680,10 +676,6 @@
   <si>
     <t>0:預設角色 1:職稱角色 2:自定角色</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>『APF0101MA1』Form</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>系統提示「是否將所有欄位清除」，若選擇是，則清除所有欄位，若選擇否，則不做任何動作。</t>
@@ -1219,12 +1211,6 @@
   </si>
   <si>
     <t>APF0101MU1_Link</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-最大長度限制:英文10(控制項控制)
-必填欄位。若空白時，出現錯誤訊息"此欄位必需填寫"，並將cursor停留於該欄位且顏色反橘。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1400,6 +1386,24 @@
   <si>
     <t>1顯示●，0不顯示</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+最大長度限制:英文10(控制項控制)
+必填欄位。若空白時，出現錯誤訊息"此欄位必需填寫"，並將cursor停留於該欄位且顏色反橘。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入之角色代號不得存在於APF Core_Role資料表中，若已存在則出現錯誤訊息"新增資料失敗-輸入資料已存在"。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0101MA1Form</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0101MM1 Form</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2192,13 +2196,70 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2207,27 +2268,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2236,42 +2276,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2282,6 +2286,129 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2291,12 +2418,6 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2333,126 +2454,60 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2462,9 +2517,6 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2474,65 +2526,17 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8975,11 +8979,11 @@
         <v>99</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="36" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
@@ -8995,7 +8999,7 @@
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="93"/>
       <c r="B6" s="35" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="36" t="s">
@@ -9007,11 +9011,11 @@
         <v>100</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="36" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
@@ -9027,7 +9031,7 @@
     <row r="9" spans="1:4" ht="21" customHeight="1">
       <c r="A9" s="93"/>
       <c r="B9" s="35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="36" t="s">
@@ -9039,17 +9043,17 @@
         <v>101</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="36" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
       <c r="A11" s="93"/>
       <c r="B11" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="36" t="s">
@@ -9059,7 +9063,7 @@
     <row r="12" spans="1:4" ht="21" customHeight="1">
       <c r="A12" s="93"/>
       <c r="B12" s="35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="36" t="s">
@@ -9291,7 +9295,7 @@
         <v>41</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I7" s="43" t="s">
         <v>76</v>
@@ -9363,7 +9367,7 @@
         <v>41</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I11" s="43" t="s">
         <v>76</v>
@@ -9377,26 +9381,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="44" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J12" s="49"/>
     </row>
@@ -9405,26 +9409,26 @@
         <v>2</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D13" s="46" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="44" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J13" s="52"/>
     </row>
@@ -9433,26 +9437,26 @@
         <v>3</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E14" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="47" t="s">
-        <v>113</v>
-      </c>
       <c r="G14" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="44" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J14" s="49"/>
     </row>
@@ -9461,26 +9465,26 @@
         <v>4</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="44" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J15" s="49"/>
     </row>
@@ -9489,29 +9493,29 @@
         <v>5</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H16" s="50"/>
       <c r="I16" s="44" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J16" s="52" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -9619,490 +9623,490 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="56" customFormat="1">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="156" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="105"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="100"/>
     </row>
     <row r="6" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="106"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="108"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="1:17" s="57" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="155"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="158"/>
+      <c r="A7" s="157"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="160"/>
       <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:17" s="57" customFormat="1">
-      <c r="A8" s="155"/>
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="158"/>
+      <c r="A8" s="157"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="160"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:17" s="57" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="159"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="161"/>
+      <c r="A9" s="161"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="163"/>
     </row>
     <row r="10" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="154" t="s">
+      <c r="A10" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="105"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="100"/>
     </row>
     <row r="11" spans="1:17" s="59" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="162" t="s">
-        <v>278</v>
-      </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="95"/>
+      <c r="A11" s="164" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="103"/>
     </row>
     <row r="12" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="154" t="s">
+      <c r="A12" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="105"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="100"/>
     </row>
     <row r="13" spans="1:17" s="59" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="162" t="s">
+      <c r="A13" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="95"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="103"/>
     </row>
     <row r="14" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="154" t="s">
+      <c r="A14" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="105"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="100"/>
     </row>
     <row r="15" spans="1:17" s="57" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A15" s="166" t="s">
-        <v>279</v>
-      </c>
-      <c r="B15" s="167"/>
-      <c r="C15" s="167"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="168"/>
+      <c r="A15" s="140" t="s">
+        <v>276</v>
+      </c>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="144"/>
     </row>
     <row r="16" spans="1:17" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="60" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="C16" s="169" t="s">
-        <v>202</v>
-      </c>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="171"/>
+        <v>188</v>
+      </c>
+      <c r="C16" s="134" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="136"/>
     </row>
     <row r="17" spans="1:10" s="57" customFormat="1" ht="48.75" customHeight="1">
       <c r="A17" s="60">
         <v>1</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="172" t="s">
-        <v>259</v>
-      </c>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="174"/>
+        <v>186</v>
+      </c>
+      <c r="C17" s="145" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="139"/>
     </row>
     <row r="18" spans="1:10" s="57" customFormat="1" ht="47.25" customHeight="1">
       <c r="A18" s="60">
         <v>2</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="172" t="s">
-        <v>260</v>
-      </c>
-      <c r="D18" s="173"/>
-      <c r="E18" s="173"/>
-      <c r="F18" s="173"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="173"/>
-      <c r="I18" s="173"/>
-      <c r="J18" s="174"/>
+        <v>189</v>
+      </c>
+      <c r="C18" s="145" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="139"/>
     </row>
     <row r="19" spans="1:10" s="57" customFormat="1">
       <c r="A19" s="60">
         <v>3</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="C19" s="177" t="s">
-        <v>221</v>
-      </c>
-      <c r="D19" s="173"/>
-      <c r="E19" s="173"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="173"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="174"/>
+        <v>216</v>
+      </c>
+      <c r="C19" s="137" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="139"/>
     </row>
     <row r="20" spans="1:10" s="57" customFormat="1">
       <c r="A20" s="60">
         <v>4</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="C20" s="177" t="s">
-        <v>220</v>
-      </c>
-      <c r="D20" s="173"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="173"/>
-      <c r="I20" s="173"/>
-      <c r="J20" s="174"/>
+        <v>217</v>
+      </c>
+      <c r="C20" s="137" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="139"/>
     </row>
     <row r="21" spans="1:10" s="57" customFormat="1">
       <c r="A21" s="60">
         <v>5</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="C21" s="177" t="s">
-        <v>197</v>
-      </c>
-      <c r="D21" s="173"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="173"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="174"/>
+        <v>190</v>
+      </c>
+      <c r="C21" s="137" t="s">
+        <v>195</v>
+      </c>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="139"/>
     </row>
     <row r="22" spans="1:10" s="57" customFormat="1">
-      <c r="A22" s="129"/>
-      <c r="B22" s="146"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="130"/>
+      <c r="A22" s="131"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="133"/>
     </row>
     <row r="23" spans="1:10" s="57" customFormat="1">
-      <c r="A23" s="166" t="s">
-        <v>257</v>
-      </c>
-      <c r="B23" s="167"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="167"/>
-      <c r="I23" s="167"/>
-      <c r="J23" s="168"/>
+      <c r="A23" s="140" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23" s="143"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="144"/>
     </row>
     <row r="24" spans="1:10" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="A24" s="210" t="s">
-        <v>233</v>
-      </c>
-      <c r="B24" s="152"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="153"/>
+        <v>231</v>
+      </c>
+      <c r="B24" s="154"/>
+      <c r="C24" s="154"/>
+      <c r="D24" s="154"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="155"/>
     </row>
     <row r="25" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="163" t="s">
+      <c r="A25" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="164"/>
-      <c r="C25" s="164"/>
-      <c r="D25" s="164"/>
-      <c r="E25" s="164"/>
-      <c r="F25" s="164"/>
-      <c r="G25" s="164"/>
-      <c r="H25" s="164"/>
-      <c r="I25" s="164"/>
-      <c r="J25" s="165"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="166"/>
     </row>
     <row r="26" spans="1:10" s="57" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A26" s="166" t="s">
-        <v>279</v>
-      </c>
-      <c r="B26" s="167"/>
-      <c r="C26" s="167"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="167"/>
-      <c r="I26" s="167"/>
-      <c r="J26" s="168"/>
+      <c r="A26" s="140" t="s">
+        <v>276</v>
+      </c>
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="144"/>
     </row>
     <row r="27" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="60" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="C27" s="169" t="s">
-        <v>202</v>
-      </c>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="170"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="171"/>
+        <v>188</v>
+      </c>
+      <c r="C27" s="134" t="s">
+        <v>200</v>
+      </c>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="136"/>
     </row>
     <row r="28" spans="1:10" s="57" customFormat="1">
       <c r="A28" s="60">
         <v>1</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="C28" s="177" t="s">
-        <v>222</v>
-      </c>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="174"/>
+        <v>186</v>
+      </c>
+      <c r="C28" s="137" t="s">
+        <v>220</v>
+      </c>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="139"/>
     </row>
     <row r="29" spans="1:10" s="57" customFormat="1">
       <c r="A29" s="60">
         <v>2</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>191</v>
-      </c>
-      <c r="C29" s="177" t="s">
-        <v>223</v>
-      </c>
-      <c r="D29" s="173"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="173"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="173"/>
-      <c r="I29" s="173"/>
-      <c r="J29" s="174"/>
+        <v>189</v>
+      </c>
+      <c r="C29" s="137" t="s">
+        <v>221</v>
+      </c>
+      <c r="D29" s="138"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="139"/>
     </row>
     <row r="30" spans="1:10" s="57" customFormat="1">
       <c r="A30" s="60">
         <v>3</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="C30" s="177" t="s">
-        <v>221</v>
-      </c>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="174"/>
+        <v>216</v>
+      </c>
+      <c r="C30" s="137" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="139"/>
     </row>
     <row r="31" spans="1:10" s="57" customFormat="1">
       <c r="A31" s="60">
         <v>4</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="C31" s="177" t="s">
-        <v>220</v>
-      </c>
-      <c r="D31" s="173"/>
-      <c r="E31" s="173"/>
-      <c r="F31" s="173"/>
-      <c r="G31" s="173"/>
-      <c r="H31" s="173"/>
-      <c r="I31" s="173"/>
-      <c r="J31" s="174"/>
+        <v>217</v>
+      </c>
+      <c r="C31" s="137" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="139"/>
     </row>
     <row r="32" spans="1:10" s="57" customFormat="1">
       <c r="A32" s="60">
         <v>5</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="C32" s="177" t="s">
-        <v>197</v>
-      </c>
-      <c r="D32" s="173"/>
-      <c r="E32" s="173"/>
-      <c r="F32" s="173"/>
-      <c r="G32" s="173"/>
-      <c r="H32" s="173"/>
-      <c r="I32" s="173"/>
-      <c r="J32" s="174"/>
+        <v>190</v>
+      </c>
+      <c r="C32" s="137" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" s="138"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="138"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="139"/>
     </row>
     <row r="33" spans="1:12" s="57" customFormat="1">
-      <c r="A33" s="151"/>
-      <c r="B33" s="206"/>
-      <c r="C33" s="206"/>
-      <c r="D33" s="206"/>
-      <c r="E33" s="206"/>
-      <c r="F33" s="206"/>
-      <c r="G33" s="206"/>
-      <c r="H33" s="206"/>
-      <c r="I33" s="206"/>
-      <c r="J33" s="207"/>
+      <c r="A33" s="153"/>
+      <c r="B33" s="208"/>
+      <c r="C33" s="208"/>
+      <c r="D33" s="208"/>
+      <c r="E33" s="208"/>
+      <c r="F33" s="208"/>
+      <c r="G33" s="208"/>
+      <c r="H33" s="208"/>
+      <c r="I33" s="208"/>
+      <c r="J33" s="209"/>
     </row>
     <row r="34" spans="1:12" s="57" customFormat="1">
-      <c r="A34" s="166" t="s">
-        <v>232</v>
-      </c>
-      <c r="B34" s="167"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
-      <c r="E34" s="167"/>
-      <c r="F34" s="167"/>
-      <c r="G34" s="167"/>
-      <c r="H34" s="167"/>
-      <c r="I34" s="167"/>
-      <c r="J34" s="168"/>
+      <c r="A34" s="140" t="s">
+        <v>230</v>
+      </c>
+      <c r="B34" s="143"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="143"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="143"/>
+      <c r="I34" s="143"/>
+      <c r="J34" s="144"/>
     </row>
     <row r="35" spans="1:12" s="57" customFormat="1" ht="27" customHeight="1">
-      <c r="A35" s="118" t="s">
-        <v>233</v>
-      </c>
-      <c r="B35" s="102"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
-      <c r="H35" s="102"/>
-      <c r="I35" s="102"/>
-      <c r="J35" s="119"/>
+      <c r="A35" s="111" t="s">
+        <v>231</v>
+      </c>
+      <c r="B35" s="112"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="113"/>
     </row>
     <row r="36" spans="1:12" s="90" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="163" t="s">
+      <c r="A36" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="164"/>
-      <c r="C36" s="164"/>
-      <c r="D36" s="164"/>
-      <c r="E36" s="164"/>
-      <c r="F36" s="164"/>
-      <c r="G36" s="164"/>
-      <c r="H36" s="164"/>
-      <c r="I36" s="164"/>
-      <c r="J36" s="165"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="165"/>
+      <c r="F36" s="165"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="165"/>
+      <c r="I36" s="165"/>
+      <c r="J36" s="166"/>
       <c r="K36" s="57"/>
       <c r="L36" s="57"/>
     </row>
@@ -10119,300 +10123,300 @@
       <c r="D37" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="180" t="s">
+      <c r="E37" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="181"/>
-      <c r="G37" s="181"/>
-      <c r="H37" s="181"/>
-      <c r="I37" s="181"/>
-      <c r="J37" s="181"/>
+      <c r="F37" s="130"/>
+      <c r="G37" s="130"/>
+      <c r="H37" s="130"/>
+      <c r="I37" s="130"/>
+      <c r="J37" s="130"/>
     </row>
     <row r="38" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="64">
         <v>1</v>
       </c>
       <c r="B38" s="64" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C38" s="65" t="s">
         <v>31</v>
       </c>
       <c r="D38" s="66"/>
-      <c r="E38" s="139" t="s">
-        <v>235</v>
-      </c>
-      <c r="F38" s="102"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="102"/>
-      <c r="I38" s="102"/>
-      <c r="J38" s="102"/>
+      <c r="E38" s="178" t="s">
+        <v>233</v>
+      </c>
+      <c r="F38" s="112"/>
+      <c r="G38" s="112"/>
+      <c r="H38" s="112"/>
+      <c r="I38" s="112"/>
+      <c r="J38" s="112"/>
       <c r="K38" s="57"/>
       <c r="L38" s="57"/>
     </row>
     <row r="39" spans="1:12" s="57" customFormat="1">
-      <c r="A39" s="148" t="s">
-        <v>242</v>
-      </c>
-      <c r="B39" s="149"/>
-      <c r="C39" s="149"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="150"/>
+      <c r="A39" s="150" t="s">
+        <v>240</v>
+      </c>
+      <c r="B39" s="151"/>
+      <c r="C39" s="151"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
+      <c r="G39" s="151"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="152"/>
     </row>
     <row r="40" spans="1:12" s="57" customFormat="1" ht="25.5" customHeight="1">
       <c r="A40" s="60">
         <v>1</v>
       </c>
       <c r="B40" s="68" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C40" s="69" t="s">
         <v>32</v>
       </c>
       <c r="D40" s="70"/>
-      <c r="E40" s="139" t="s">
-        <v>170</v>
-      </c>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="102"/>
+      <c r="E40" s="178" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" s="112"/>
+      <c r="G40" s="112"/>
+      <c r="H40" s="112"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="112"/>
     </row>
     <row r="41" spans="1:12" s="57" customFormat="1" ht="87.75" customHeight="1">
       <c r="A41" s="71">
         <v>2</v>
       </c>
       <c r="B41" s="72" t="s">
+        <v>235</v>
+      </c>
+      <c r="C41" s="69" t="s">
         <v>237</v>
       </c>
-      <c r="C41" s="69" t="s">
-        <v>239</v>
-      </c>
       <c r="D41" s="73"/>
-      <c r="E41" s="143" t="s">
-        <v>281</v>
-      </c>
-      <c r="F41" s="144"/>
-      <c r="G41" s="144"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="144"/>
-      <c r="J41" s="145"/>
+      <c r="E41" s="147" t="s">
+        <v>278</v>
+      </c>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="149"/>
     </row>
     <row r="42" spans="1:12" s="59" customFormat="1" ht="33.75" customHeight="1">
       <c r="A42" s="74">
         <v>3</v>
       </c>
       <c r="B42" s="68" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C42" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42" s="75"/>
+      <c r="E42" s="167" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" s="102"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="103"/>
+    </row>
+    <row r="43" spans="1:12" s="59" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A43" s="167"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="168"/>
+      <c r="F43" s="168"/>
+      <c r="G43" s="168"/>
+      <c r="H43" s="168"/>
+      <c r="I43" s="168"/>
+      <c r="J43" s="169"/>
+    </row>
+    <row r="44" spans="1:12" s="57" customFormat="1">
+      <c r="A44" s="179" t="s">
         <v>239</v>
       </c>
-      <c r="D42" s="75"/>
-      <c r="E42" s="126" t="s">
-        <v>132</v>
-      </c>
-      <c r="F42" s="94"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="95"/>
-    </row>
-    <row r="43" spans="1:12" s="59" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A43" s="126"/>
-      <c r="B43" s="127"/>
-      <c r="C43" s="127"/>
-      <c r="D43" s="127"/>
-      <c r="E43" s="127"/>
-      <c r="F43" s="127"/>
-      <c r="G43" s="127"/>
-      <c r="H43" s="127"/>
-      <c r="I43" s="127"/>
-      <c r="J43" s="128"/>
-    </row>
-    <row r="44" spans="1:12" s="57" customFormat="1">
-      <c r="A44" s="140" t="s">
-        <v>241</v>
-      </c>
-      <c r="B44" s="141"/>
-      <c r="C44" s="141"/>
-      <c r="D44" s="141"/>
-      <c r="E44" s="141"/>
-      <c r="F44" s="141"/>
-      <c r="G44" s="141"/>
-      <c r="H44" s="141"/>
-      <c r="I44" s="141"/>
-      <c r="J44" s="142"/>
+      <c r="B44" s="180"/>
+      <c r="C44" s="180"/>
+      <c r="D44" s="180"/>
+      <c r="E44" s="180"/>
+      <c r="F44" s="180"/>
+      <c r="G44" s="180"/>
+      <c r="H44" s="180"/>
+      <c r="I44" s="180"/>
+      <c r="J44" s="181"/>
     </row>
     <row r="45" spans="1:12" s="57" customFormat="1" ht="26.25" customHeight="1">
       <c r="A45" s="60">
         <v>1</v>
       </c>
       <c r="B45" s="68" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C45" s="69" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D45" s="70"/>
-      <c r="E45" s="139" t="s">
-        <v>251</v>
-      </c>
-      <c r="F45" s="102"/>
-      <c r="G45" s="102"/>
-      <c r="H45" s="102"/>
-      <c r="I45" s="102"/>
-      <c r="J45" s="102"/>
+      <c r="E45" s="178" t="s">
+        <v>249</v>
+      </c>
+      <c r="F45" s="112"/>
+      <c r="G45" s="112"/>
+      <c r="H45" s="112"/>
+      <c r="I45" s="112"/>
+      <c r="J45" s="112"/>
     </row>
     <row r="46" spans="1:12" s="57" customFormat="1" ht="28.5" customHeight="1">
       <c r="A46" s="60">
         <v>2</v>
       </c>
       <c r="B46" s="68" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C46" s="69" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D46" s="70"/>
-      <c r="E46" s="139" t="s">
-        <v>184</v>
-      </c>
-      <c r="F46" s="102"/>
-      <c r="G46" s="102"/>
-      <c r="H46" s="102"/>
-      <c r="I46" s="102"/>
-      <c r="J46" s="102"/>
+      <c r="E46" s="178" t="s">
+        <v>182</v>
+      </c>
+      <c r="F46" s="112"/>
+      <c r="G46" s="112"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="112"/>
+      <c r="J46" s="112"/>
     </row>
     <row r="47" spans="1:12" s="57" customFormat="1" ht="30" customHeight="1">
       <c r="A47" s="60">
         <v>3</v>
       </c>
       <c r="B47" s="68" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C47" s="69" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D47" s="70"/>
-      <c r="E47" s="139" t="s">
-        <v>185</v>
-      </c>
-      <c r="F47" s="102"/>
-      <c r="G47" s="102"/>
-      <c r="H47" s="102"/>
-      <c r="I47" s="102"/>
-      <c r="J47" s="102"/>
+      <c r="E47" s="178" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" s="112"/>
+      <c r="G47" s="112"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="112"/>
+      <c r="J47" s="112"/>
     </row>
     <row r="48" spans="1:12" s="57" customFormat="1">
-      <c r="A48" s="129"/>
-      <c r="B48" s="146"/>
-      <c r="C48" s="146"/>
-      <c r="D48" s="146"/>
-      <c r="E48" s="146"/>
-      <c r="F48" s="146"/>
-      <c r="G48" s="146"/>
-      <c r="H48" s="146"/>
-      <c r="I48" s="146"/>
-      <c r="J48" s="130"/>
+      <c r="A48" s="131"/>
+      <c r="B48" s="132"/>
+      <c r="C48" s="132"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="132"/>
+      <c r="F48" s="132"/>
+      <c r="G48" s="132"/>
+      <c r="H48" s="132"/>
+      <c r="I48" s="132"/>
+      <c r="J48" s="133"/>
     </row>
     <row r="49" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A49" s="136" t="s">
+      <c r="A49" s="175" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="137"/>
-      <c r="C49" s="137"/>
-      <c r="D49" s="137"/>
-      <c r="E49" s="137"/>
-      <c r="F49" s="137"/>
-      <c r="G49" s="137"/>
-      <c r="H49" s="137"/>
-      <c r="I49" s="137"/>
-      <c r="J49" s="138"/>
+      <c r="B49" s="176"/>
+      <c r="C49" s="176"/>
+      <c r="D49" s="176"/>
+      <c r="E49" s="176"/>
+      <c r="F49" s="176"/>
+      <c r="G49" s="176"/>
+      <c r="H49" s="176"/>
+      <c r="I49" s="176"/>
+      <c r="J49" s="177"/>
     </row>
     <row r="50" spans="1:10" s="59" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="134" t="s">
+      <c r="B50" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="135"/>
-      <c r="D50" s="126" t="s">
+      <c r="C50" s="174"/>
+      <c r="D50" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="94"/>
-      <c r="F50" s="94"/>
-      <c r="G50" s="94"/>
-      <c r="H50" s="94"/>
-      <c r="I50" s="94"/>
-      <c r="J50" s="95"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="102"/>
+      <c r="I50" s="102"/>
+      <c r="J50" s="103"/>
     </row>
     <row r="51" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="131"/>
-      <c r="B51" s="208"/>
-      <c r="C51" s="208"/>
-      <c r="D51" s="208"/>
-      <c r="E51" s="208"/>
-      <c r="F51" s="208"/>
-      <c r="G51" s="208"/>
-      <c r="H51" s="208"/>
-      <c r="I51" s="208"/>
-      <c r="J51" s="209"/>
+      <c r="A51" s="170"/>
+      <c r="B51" s="206"/>
+      <c r="C51" s="206"/>
+      <c r="D51" s="206"/>
+      <c r="E51" s="206"/>
+      <c r="F51" s="206"/>
+      <c r="G51" s="206"/>
+      <c r="H51" s="206"/>
+      <c r="I51" s="206"/>
+      <c r="J51" s="207"/>
     </row>
     <row r="52" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="74"/>
-      <c r="B52" s="129"/>
-      <c r="C52" s="130"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="94"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="95"/>
+      <c r="B52" s="131"/>
+      <c r="C52" s="133"/>
+      <c r="D52" s="167"/>
+      <c r="E52" s="102"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="102"/>
+      <c r="H52" s="102"/>
+      <c r="I52" s="102"/>
+      <c r="J52" s="103"/>
     </row>
     <row r="53" spans="1:10" s="59" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="74"/>
-      <c r="B53" s="129"/>
-      <c r="C53" s="130"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="94"/>
-      <c r="H53" s="94"/>
-      <c r="I53" s="94"/>
-      <c r="J53" s="95"/>
+      <c r="B53" s="131"/>
+      <c r="C53" s="133"/>
+      <c r="D53" s="167"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="102"/>
+      <c r="H53" s="102"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="131"/>
-      <c r="B54" s="208"/>
-      <c r="C54" s="208"/>
-      <c r="D54" s="208"/>
-      <c r="E54" s="208"/>
-      <c r="F54" s="208"/>
-      <c r="G54" s="208"/>
-      <c r="H54" s="208"/>
-      <c r="I54" s="208"/>
-      <c r="J54" s="209"/>
+      <c r="A54" s="170"/>
+      <c r="B54" s="206"/>
+      <c r="C54" s="206"/>
+      <c r="D54" s="206"/>
+      <c r="E54" s="206"/>
+      <c r="F54" s="206"/>
+      <c r="G54" s="206"/>
+      <c r="H54" s="206"/>
+      <c r="I54" s="206"/>
+      <c r="J54" s="207"/>
     </row>
     <row r="55" spans="1:10" s="57" customFormat="1" ht="17.25" customHeight="1">
       <c r="A55" s="74"/>
-      <c r="B55" s="129"/>
-      <c r="C55" s="130"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="94"/>
-      <c r="F55" s="94"/>
-      <c r="G55" s="94"/>
-      <c r="H55" s="94"/>
-      <c r="I55" s="94"/>
-      <c r="J55" s="95"/>
+      <c r="B55" s="131"/>
+      <c r="C55" s="133"/>
+      <c r="D55" s="167"/>
+      <c r="E55" s="102"/>
+      <c r="F55" s="102"/>
+      <c r="G55" s="102"/>
+      <c r="H55" s="102"/>
+      <c r="I55" s="102"/>
+      <c r="J55" s="103"/>
     </row>
     <row r="56" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="78" t="s">
@@ -10435,14 +10439,14 @@
       <c r="B57" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="129"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="94"/>
-      <c r="F57" s="94"/>
-      <c r="G57" s="94"/>
-      <c r="H57" s="94"/>
-      <c r="I57" s="94"/>
-      <c r="J57" s="95"/>
+      <c r="C57" s="131"/>
+      <c r="D57" s="102"/>
+      <c r="E57" s="102"/>
+      <c r="F57" s="102"/>
+      <c r="G57" s="102"/>
+      <c r="H57" s="102"/>
+      <c r="I57" s="102"/>
+      <c r="J57" s="103"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="74">
@@ -10451,27 +10455,46 @@
       <c r="B58" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="147"/>
-      <c r="D58" s="147"/>
-      <c r="E58" s="147"/>
-      <c r="F58" s="147"/>
-      <c r="G58" s="147"/>
-      <c r="H58" s="147"/>
-      <c r="I58" s="147"/>
-      <c r="J58" s="147"/>
+      <c r="C58" s="146"/>
+      <c r="D58" s="146"/>
+      <c r="E58" s="146"/>
+      <c r="F58" s="146"/>
+      <c r="G58" s="146"/>
+      <c r="H58" s="146"/>
+      <c r="I58" s="146"/>
+      <c r="J58" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:J53"/>
+    <mergeCell ref="A54:J54"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="E46:J46"/>
     <mergeCell ref="B55:C55"/>
@@ -10488,35 +10511,16 @@
     <mergeCell ref="A44:J44"/>
     <mergeCell ref="E45:J45"/>
     <mergeCell ref="E47:J47"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:J52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:J53"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:J36"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -10619,75 +10623,75 @@
       <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="186" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="194" t="s">
+      <c r="B5" s="186"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="187" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
       <c r="G5" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="194" t="s">
+      <c r="H5" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="194"/>
+      <c r="I5" s="187"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="200" t="s">
+      <c r="A6" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="201"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="203" t="s">
+      <c r="B6" s="189"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="191" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="205"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="193"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="195" t="s">
+      <c r="B7" s="182" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="183"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="F7" s="185" t="s">
+        <v>268</v>
+      </c>
+      <c r="G7" s="185"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="85" t="s">
         <v>269</v>
-      </c>
-      <c r="C7" s="196"/>
-      <c r="D7" s="197"/>
-      <c r="E7" s="85" t="s">
-        <v>270</v>
-      </c>
-      <c r="F7" s="198" t="s">
-        <v>271</v>
-      </c>
-      <c r="G7" s="198"/>
-      <c r="H7" s="198"/>
-      <c r="I7" s="85" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="86">
         <v>1</v>
       </c>
-      <c r="B8" s="194" t="s">
+      <c r="B8" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
+      <c r="C8" s="187"/>
+      <c r="D8" s="187"/>
       <c r="E8" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
       <c r="I8" s="86" t="s">
         <v>37</v>
       </c>
@@ -10696,17 +10700,17 @@
       <c r="A9" s="86">
         <v>2</v>
       </c>
-      <c r="B9" s="194" t="s">
+      <c r="B9" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="187"/>
       <c r="E9" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
       <c r="I9" s="86" t="s">
         <v>37</v>
       </c>
@@ -10715,169 +10719,187 @@
       <c r="A10" s="86">
         <v>3</v>
       </c>
-      <c r="B10" s="194" t="s">
+      <c r="B10" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="194"/>
-      <c r="D10" s="194"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="187"/>
       <c r="E10" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="119" t="s">
+      <c r="F10" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
       <c r="I10" s="86" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="183" t="s">
-        <v>273</v>
-      </c>
-      <c r="B11" s="184"/>
-      <c r="C11" s="184"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="185"/>
+      <c r="A11" s="200" t="s">
+        <v>270</v>
+      </c>
+      <c r="B11" s="201"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="202"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="86">
         <v>1</v>
       </c>
-      <c r="B12" s="186" t="s">
+      <c r="B12" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="186"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="102" t="s">
+      <c r="C12" s="195"/>
+      <c r="D12" s="195"/>
+      <c r="E12" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="187"/>
-      <c r="G12" s="187"/>
-      <c r="H12" s="187"/>
-      <c r="I12" s="187"/>
+      <c r="F12" s="203"/>
+      <c r="G12" s="203"/>
+      <c r="H12" s="203"/>
+      <c r="I12" s="203"/>
     </row>
     <row r="13" spans="1:19" ht="189.75" customHeight="1">
       <c r="A13" s="86">
         <v>2</v>
       </c>
-      <c r="B13" s="186" t="s">
+      <c r="B13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="186"/>
-      <c r="D13" s="186"/>
-      <c r="E13" s="102" t="s">
+      <c r="C13" s="195"/>
+      <c r="D13" s="195"/>
+      <c r="E13" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="186">
+      <c r="A14" s="195">
         <v>3</v>
       </c>
-      <c r="B14" s="188" t="s">
+      <c r="B14" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="188"/>
-      <c r="D14" s="188"/>
-      <c r="E14" s="188" t="s">
+      <c r="C14" s="204"/>
+      <c r="D14" s="204"/>
+      <c r="E14" s="204" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="188"/>
-      <c r="G14" s="188"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="189"/>
+      <c r="F14" s="204"/>
+      <c r="G14" s="204"/>
+      <c r="H14" s="205"/>
+      <c r="I14" s="205"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="186"/>
-      <c r="B15" s="186" t="s">
+      <c r="A15" s="195"/>
+      <c r="B15" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="186"/>
-      <c r="D15" s="186"/>
+      <c r="C15" s="195"/>
+      <c r="D15" s="195"/>
       <c r="E15" s="74" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="126" t="s">
-        <v>274</v>
-      </c>
-      <c r="H15" s="95"/>
+      <c r="G15" s="167" t="s">
+        <v>271</v>
+      </c>
+      <c r="H15" s="103"/>
       <c r="I15" s="87"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="186"/>
-      <c r="B16" s="119" t="s">
+      <c r="A16" s="195"/>
+      <c r="B16" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
       <c r="E16" s="86"/>
       <c r="F16" s="52"/>
-      <c r="G16" s="182" t="s">
+      <c r="G16" s="194" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="95"/>
+      <c r="H16" s="103"/>
       <c r="I16" s="87"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="186"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
+      <c r="A17" s="195"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
       <c r="E17" s="86"/>
       <c r="F17" s="52"/>
-      <c r="G17" s="182"/>
-      <c r="H17" s="95"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="103"/>
       <c r="I17" s="88"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="186"/>
-      <c r="B18" s="190"/>
-      <c r="C18" s="191"/>
-      <c r="D18" s="192"/>
+      <c r="A18" s="195"/>
+      <c r="B18" s="197"/>
+      <c r="C18" s="198"/>
+      <c r="D18" s="199"/>
       <c r="E18" s="86"/>
       <c r="F18" s="52"/>
-      <c r="G18" s="182"/>
-      <c r="H18" s="95"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="103"/>
       <c r="I18" s="89"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="186"/>
-      <c r="B19" s="190"/>
-      <c r="C19" s="191"/>
-      <c r="D19" s="192"/>
+      <c r="A19" s="195"/>
+      <c r="B19" s="197"/>
+      <c r="C19" s="198"/>
+      <c r="D19" s="199"/>
       <c r="E19" s="86"/>
       <c r="F19" s="52"/>
-      <c r="G19" s="182"/>
-      <c r="H19" s="95"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="103"/>
       <c r="I19" s="89"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="186"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="186" t="s">
+      <c r="A20" s="195"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="195" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
-      <c r="H20" s="193"/>
-      <c r="I20" s="193"/>
+      <c r="F20" s="195"/>
+      <c r="G20" s="195"/>
+      <c r="H20" s="196"/>
+      <c r="I20" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
     <mergeCell ref="E20:I20"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="E14:I14"/>
@@ -10894,24 +10916,6 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:I6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -11186,15 +11190,15 @@
       <c r="A1" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="109" t="s">
+      <c r="M1" s="94" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="110"/>
+      <c r="M2" s="95"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="110"/>
+      <c r="M3" s="95"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -11211,243 +11215,250 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="98"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="117"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="108"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="120"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="103" t="s">
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="105"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="100"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="115" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="94" t="s">
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="95"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="103"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="103" t="s">
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="105"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="100"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="94" t="s">
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="95"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="103"/>
     </row>
     <row r="11" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="120" t="s">
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="105"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="100"/>
     </row>
     <row r="12" spans="1:13" s="24" customFormat="1" ht="16.5">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="95"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="103"/>
     </row>
     <row r="13" spans="1:13" s="23" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="120" t="s">
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="105"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="100"/>
     </row>
     <row r="14" spans="1:13" s="24" customFormat="1" ht="16.5">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="95"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="103"/>
     </row>
     <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="117"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="110"/>
     </row>
     <row r="16" spans="1:13" s="19" customFormat="1" ht="130.5" customHeight="1">
-      <c r="A16" s="118" t="s">
+      <c r="A16" s="111" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="119"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="113"/>
     </row>
     <row r="17" spans="1:12" ht="16.5">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="95"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="103"/>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="113" t="s">
+      <c r="A79" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="B79" s="114"/>
-      <c r="C79" s="114"/>
-      <c r="D79" s="114"/>
-      <c r="E79" s="114"/>
-      <c r="F79" s="114"/>
-      <c r="G79" s="114"/>
-      <c r="H79" s="114"/>
-      <c r="I79" s="114"/>
-      <c r="J79" s="114"/>
-      <c r="K79" s="114"/>
-      <c r="L79" s="115"/>
+      <c r="B79" s="105"/>
+      <c r="C79" s="105"/>
+      <c r="D79" s="105"/>
+      <c r="E79" s="105"/>
+      <c r="F79" s="105"/>
+      <c r="G79" s="105"/>
+      <c r="H79" s="105"/>
+      <c r="I79" s="105"/>
+      <c r="J79" s="105"/>
+      <c r="K79" s="105"/>
+      <c r="L79" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -11464,13 +11475,6 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -11541,7 +11545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -11703,7 +11707,7 @@
         <v>41</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I7" s="43" t="s">
         <v>76</v>
@@ -11740,7 +11744,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="123" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B10" s="124"/>
       <c r="C10" s="124"/>
@@ -11757,13 +11761,13 @@
         <v>30</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E11" s="43" t="s">
         <v>51</v>
@@ -11775,7 +11779,7 @@
         <v>41</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I11" s="43" t="s">
         <v>76</v>
@@ -11789,26 +11793,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="44" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J12" s="49"/>
     </row>
@@ -11817,26 +11821,26 @@
         <v>2</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="44" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J13" s="49"/>
     </row>
@@ -11845,34 +11849,34 @@
         <v>3</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F14" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G14" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H14" s="51">
         <v>2</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J14" s="52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="123" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B16" s="124"/>
       <c r="C16" s="124"/>
@@ -11907,7 +11911,7 @@
         <v>41</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I17" s="43" t="s">
         <v>76</v>
@@ -11921,24 +11925,24 @@
         <v>1</v>
       </c>
       <c r="B18" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H18" s="46"/>
       <c r="I18" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J18" s="49"/>
     </row>
@@ -11947,24 +11951,24 @@
         <v>2</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D19" s="46"/>
       <c r="E19" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="44" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J19" s="49"/>
     </row>
@@ -11973,27 +11977,27 @@
         <v>3</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="47" t="s">
-        <v>113</v>
-      </c>
       <c r="G20" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="44" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J20" s="91" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -12001,27 +12005,27 @@
         <v>4</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D21" s="50"/>
       <c r="E21" s="50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G21" s="50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H21" s="50"/>
       <c r="I21" s="44" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J21" s="52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -12064,8 +12068,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:J51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12144,594 +12148,594 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="56" customFormat="1">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="156" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="105"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="100"/>
     </row>
     <row r="6" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="106"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="108"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="1:17" s="57" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="155"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="158"/>
+      <c r="A7" s="157"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="160"/>
       <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:17" s="57" customFormat="1">
-      <c r="A8" s="155"/>
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="158"/>
+      <c r="A8" s="157"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="160"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:17" s="57" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="159"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="161"/>
+      <c r="A9" s="161"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="163"/>
     </row>
     <row r="10" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="154" t="s">
+      <c r="A10" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="105"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="100"/>
     </row>
     <row r="11" spans="1:17" s="59" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="162" t="s">
-        <v>266</v>
-      </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="95"/>
+      <c r="A11" s="164" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="103"/>
     </row>
     <row r="12" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="154" t="s">
+      <c r="A12" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="105"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="100"/>
     </row>
     <row r="13" spans="1:17" s="59" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="162" t="s">
+      <c r="A13" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="95"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="103"/>
     </row>
     <row r="14" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="154" t="s">
+      <c r="A14" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="105"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="100"/>
     </row>
     <row r="15" spans="1:17" s="57" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="166" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" s="167"/>
-      <c r="C15" s="167"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="168"/>
+      <c r="A15" s="140" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="144"/>
     </row>
     <row r="16" spans="1:17" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="60" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="C16" s="169" t="s">
-        <v>202</v>
-      </c>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="171"/>
+        <v>188</v>
+      </c>
+      <c r="C16" s="134" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="136"/>
     </row>
     <row r="17" spans="1:10" s="57" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="60">
         <v>1</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="172" t="s">
-        <v>254</v>
-      </c>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="174"/>
+        <v>186</v>
+      </c>
+      <c r="C17" s="145" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="139"/>
     </row>
     <row r="18" spans="1:10" s="57" customFormat="1" ht="30.75" customHeight="1">
       <c r="A18" s="60">
         <v>2</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="172" t="s">
-        <v>255</v>
-      </c>
-      <c r="D18" s="173"/>
-      <c r="E18" s="173"/>
-      <c r="F18" s="173"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="173"/>
-      <c r="I18" s="173"/>
-      <c r="J18" s="174"/>
+        <v>189</v>
+      </c>
+      <c r="C18" s="145" t="s">
+        <v>253</v>
+      </c>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="139"/>
     </row>
     <row r="19" spans="1:10" s="57" customFormat="1">
       <c r="A19" s="60">
         <v>3</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="C19" s="172" t="s">
-        <v>217</v>
-      </c>
-      <c r="D19" s="173"/>
-      <c r="E19" s="173"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="173"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="174"/>
+        <v>190</v>
+      </c>
+      <c r="C19" s="145" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="139"/>
     </row>
     <row r="20" spans="1:10" s="57" customFormat="1">
-      <c r="A20" s="129"/>
-      <c r="B20" s="146"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="130"/>
+      <c r="A20" s="131"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="132"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="133"/>
     </row>
     <row r="21" spans="1:10" s="57" customFormat="1">
-      <c r="A21" s="166" t="s">
-        <v>252</v>
-      </c>
-      <c r="B21" s="167"/>
-      <c r="C21" s="167"/>
-      <c r="D21" s="167"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="167"/>
-      <c r="I21" s="167"/>
-      <c r="J21" s="168"/>
+      <c r="A21" s="140" t="s">
+        <v>250</v>
+      </c>
+      <c r="B21" s="143"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="144"/>
     </row>
     <row r="22" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="60" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="C22" s="169" t="s">
-        <v>201</v>
-      </c>
-      <c r="D22" s="170"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="170"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="171"/>
+        <v>188</v>
+      </c>
+      <c r="C22" s="134" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="136"/>
     </row>
     <row r="23" spans="1:10" s="57" customFormat="1">
       <c r="A23" s="60">
         <v>1</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="177" t="s">
-        <v>199</v>
-      </c>
-      <c r="D23" s="173"/>
-      <c r="E23" s="173"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="174"/>
+        <v>186</v>
+      </c>
+      <c r="C23" s="137" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="138"/>
+      <c r="E23" s="138"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="139"/>
     </row>
     <row r="24" spans="1:10" s="57" customFormat="1">
       <c r="A24" s="60">
         <v>2</v>
       </c>
       <c r="B24" s="60" t="s">
-        <v>191</v>
-      </c>
-      <c r="C24" s="177" t="s">
-        <v>199</v>
-      </c>
-      <c r="D24" s="173"/>
-      <c r="E24" s="173"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="173"/>
-      <c r="I24" s="173"/>
-      <c r="J24" s="174"/>
+        <v>189</v>
+      </c>
+      <c r="C24" s="137" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="139"/>
     </row>
     <row r="25" spans="1:10" s="57" customFormat="1">
       <c r="A25" s="60">
         <v>3</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" s="177" t="s">
-        <v>199</v>
-      </c>
-      <c r="D25" s="173"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="173"/>
-      <c r="J25" s="174"/>
+        <v>196</v>
+      </c>
+      <c r="C25" s="137" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="138"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
+      <c r="J25" s="139"/>
     </row>
     <row r="26" spans="1:10" s="57" customFormat="1">
       <c r="A26" s="60">
         <v>4</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="C26" s="177" t="s">
-        <v>199</v>
-      </c>
-      <c r="D26" s="173"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="173"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="173"/>
-      <c r="I26" s="173"/>
-      <c r="J26" s="174"/>
+        <v>190</v>
+      </c>
+      <c r="C26" s="137" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="139"/>
     </row>
     <row r="27" spans="1:10" s="57" customFormat="1">
-      <c r="A27" s="151"/>
-      <c r="B27" s="152"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="153"/>
+      <c r="A27" s="153"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="155"/>
     </row>
     <row r="28" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="163" t="s">
+      <c r="A28" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="164"/>
-      <c r="C28" s="164"/>
-      <c r="D28" s="164"/>
-      <c r="E28" s="164"/>
-      <c r="F28" s="164"/>
-      <c r="G28" s="164"/>
-      <c r="H28" s="164"/>
-      <c r="I28" s="164"/>
-      <c r="J28" s="165"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="165"/>
+      <c r="D28" s="165"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="165"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="166"/>
     </row>
     <row r="29" spans="1:10" s="57" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="166" t="s">
-        <v>267</v>
-      </c>
-      <c r="B29" s="167"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="167"/>
-      <c r="H29" s="167"/>
-      <c r="I29" s="167"/>
-      <c r="J29" s="168"/>
+      <c r="A29" s="140" t="s">
+        <v>264</v>
+      </c>
+      <c r="B29" s="143"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="144"/>
     </row>
     <row r="30" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="60" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="C30" s="169" t="s">
-        <v>200</v>
-      </c>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="170"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="171"/>
+        <v>188</v>
+      </c>
+      <c r="C30" s="134" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" s="135"/>
+      <c r="E30" s="135"/>
+      <c r="F30" s="135"/>
+      <c r="G30" s="135"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="135"/>
+      <c r="J30" s="136"/>
     </row>
     <row r="31" spans="1:10" s="57" customFormat="1">
       <c r="A31" s="60">
         <v>1</v>
       </c>
       <c r="B31" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="C31" s="177" t="s">
-        <v>194</v>
-      </c>
-      <c r="D31" s="173"/>
-      <c r="E31" s="173"/>
-      <c r="F31" s="173"/>
-      <c r="G31" s="173"/>
-      <c r="H31" s="173"/>
-      <c r="I31" s="173"/>
-      <c r="J31" s="174"/>
+        <v>186</v>
+      </c>
+      <c r="C31" s="137" t="s">
+        <v>192</v>
+      </c>
+      <c r="D31" s="138"/>
+      <c r="E31" s="138"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="139"/>
     </row>
     <row r="32" spans="1:10" s="57" customFormat="1">
       <c r="A32" s="60">
         <v>2</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>191</v>
-      </c>
-      <c r="C32" s="177" t="s">
-        <v>195</v>
-      </c>
-      <c r="D32" s="173"/>
-      <c r="E32" s="173"/>
-      <c r="F32" s="173"/>
-      <c r="G32" s="173"/>
-      <c r="H32" s="173"/>
-      <c r="I32" s="173"/>
-      <c r="J32" s="174"/>
+        <v>189</v>
+      </c>
+      <c r="C32" s="137" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" s="138"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="138"/>
+      <c r="I32" s="138"/>
+      <c r="J32" s="139"/>
     </row>
     <row r="33" spans="1:12" s="57" customFormat="1">
       <c r="A33" s="60">
         <v>3</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="C33" s="177" t="s">
-        <v>193</v>
-      </c>
-      <c r="D33" s="173"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="173"/>
-      <c r="G33" s="173"/>
-      <c r="H33" s="173"/>
-      <c r="I33" s="173"/>
-      <c r="J33" s="174"/>
+        <v>190</v>
+      </c>
+      <c r="C33" s="137" t="s">
+        <v>191</v>
+      </c>
+      <c r="D33" s="138"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="138"/>
+      <c r="J33" s="139"/>
     </row>
     <row r="34" spans="1:12" s="57" customFormat="1">
-      <c r="A34" s="129"/>
-      <c r="B34" s="146"/>
-      <c r="C34" s="146"/>
-      <c r="D34" s="146"/>
-      <c r="E34" s="146"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="146"/>
-      <c r="I34" s="146"/>
-      <c r="J34" s="130"/>
+      <c r="A34" s="131"/>
+      <c r="B34" s="132"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="132"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="132"/>
+      <c r="I34" s="132"/>
+      <c r="J34" s="133"/>
     </row>
     <row r="35" spans="1:12" s="57" customFormat="1">
-      <c r="A35" s="166" t="s">
-        <v>196</v>
-      </c>
-      <c r="B35" s="175"/>
-      <c r="C35" s="175"/>
-      <c r="D35" s="175"/>
-      <c r="E35" s="175"/>
-      <c r="F35" s="175"/>
-      <c r="G35" s="175"/>
-      <c r="H35" s="175"/>
-      <c r="I35" s="175"/>
-      <c r="J35" s="176"/>
+      <c r="A35" s="140" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35" s="141"/>
+      <c r="C35" s="141"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="141"/>
+      <c r="F35" s="141"/>
+      <c r="G35" s="141"/>
+      <c r="H35" s="141"/>
+      <c r="I35" s="141"/>
+      <c r="J35" s="142"/>
     </row>
     <row r="36" spans="1:12" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="60" t="s">
         <v>21</v>
       </c>
       <c r="B36" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="C36" s="169" t="s">
-        <v>201</v>
-      </c>
-      <c r="D36" s="170"/>
-      <c r="E36" s="170"/>
-      <c r="F36" s="170"/>
-      <c r="G36" s="170"/>
-      <c r="H36" s="170"/>
-      <c r="I36" s="170"/>
-      <c r="J36" s="171"/>
+        <v>188</v>
+      </c>
+      <c r="C36" s="134" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" s="135"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="135"/>
+      <c r="H36" s="135"/>
+      <c r="I36" s="135"/>
+      <c r="J36" s="136"/>
     </row>
     <row r="37" spans="1:12" s="57" customFormat="1">
       <c r="A37" s="60">
         <v>1</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="C37" s="177" t="s">
-        <v>199</v>
-      </c>
-      <c r="D37" s="173"/>
-      <c r="E37" s="173"/>
-      <c r="F37" s="173"/>
-      <c r="G37" s="173"/>
-      <c r="H37" s="173"/>
-      <c r="I37" s="173"/>
-      <c r="J37" s="174"/>
+        <v>186</v>
+      </c>
+      <c r="C37" s="137" t="s">
+        <v>197</v>
+      </c>
+      <c r="D37" s="138"/>
+      <c r="E37" s="138"/>
+      <c r="F37" s="138"/>
+      <c r="G37" s="138"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="138"/>
+      <c r="J37" s="139"/>
     </row>
     <row r="38" spans="1:12" s="57" customFormat="1">
       <c r="A38" s="60">
         <v>2</v>
       </c>
       <c r="B38" s="60" t="s">
-        <v>191</v>
-      </c>
-      <c r="C38" s="177" t="s">
-        <v>199</v>
-      </c>
-      <c r="D38" s="173"/>
-      <c r="E38" s="173"/>
-      <c r="F38" s="173"/>
-      <c r="G38" s="173"/>
-      <c r="H38" s="173"/>
-      <c r="I38" s="173"/>
-      <c r="J38" s="174"/>
+        <v>189</v>
+      </c>
+      <c r="C38" s="137" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38" s="138"/>
+      <c r="E38" s="138"/>
+      <c r="F38" s="138"/>
+      <c r="G38" s="138"/>
+      <c r="H38" s="138"/>
+      <c r="I38" s="138"/>
+      <c r="J38" s="139"/>
     </row>
     <row r="39" spans="1:12" s="57" customFormat="1">
       <c r="A39" s="60">
         <v>3</v>
       </c>
       <c r="B39" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="C39" s="177" t="s">
-        <v>199</v>
-      </c>
-      <c r="D39" s="173"/>
-      <c r="E39" s="173"/>
-      <c r="F39" s="173"/>
-      <c r="G39" s="173"/>
-      <c r="H39" s="173"/>
-      <c r="I39" s="173"/>
-      <c r="J39" s="174"/>
+        <v>196</v>
+      </c>
+      <c r="C39" s="137" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" s="138"/>
+      <c r="E39" s="138"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="138"/>
+      <c r="H39" s="138"/>
+      <c r="I39" s="138"/>
+      <c r="J39" s="139"/>
     </row>
     <row r="40" spans="1:12" s="57" customFormat="1">
       <c r="A40" s="60">
         <v>4</v>
       </c>
       <c r="B40" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="C40" s="177" t="s">
-        <v>199</v>
-      </c>
-      <c r="D40" s="173"/>
-      <c r="E40" s="173"/>
-      <c r="F40" s="173"/>
-      <c r="G40" s="173"/>
-      <c r="H40" s="173"/>
-      <c r="I40" s="173"/>
-      <c r="J40" s="174"/>
+        <v>190</v>
+      </c>
+      <c r="C40" s="137" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" s="138"/>
+      <c r="E40" s="138"/>
+      <c r="F40" s="138"/>
+      <c r="G40" s="138"/>
+      <c r="H40" s="138"/>
+      <c r="I40" s="138"/>
+      <c r="J40" s="139"/>
     </row>
     <row r="41" spans="1:12" s="57" customFormat="1">
-      <c r="A41" s="129"/>
-      <c r="B41" s="146"/>
-      <c r="C41" s="146"/>
-      <c r="D41" s="146"/>
-      <c r="E41" s="146"/>
-      <c r="F41" s="146"/>
-      <c r="G41" s="146"/>
-      <c r="H41" s="146"/>
-      <c r="I41" s="146"/>
-      <c r="J41" s="130"/>
+      <c r="A41" s="131"/>
+      <c r="B41" s="132"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="132"/>
+      <c r="F41" s="132"/>
+      <c r="G41" s="132"/>
+      <c r="H41" s="132"/>
+      <c r="I41" s="132"/>
+      <c r="J41" s="133"/>
     </row>
     <row r="42" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="163" t="s">
+      <c r="A42" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="178"/>
-      <c r="C42" s="178"/>
-      <c r="D42" s="178"/>
-      <c r="E42" s="178"/>
-      <c r="F42" s="178"/>
-      <c r="G42" s="178"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
-      <c r="J42" s="179"/>
+      <c r="B42" s="127"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="127"/>
+      <c r="G42" s="127"/>
+      <c r="H42" s="127"/>
+      <c r="I42" s="127"/>
+      <c r="J42" s="128"/>
     </row>
     <row r="43" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="61" t="s">
@@ -12746,14 +12750,14 @@
       <c r="D43" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="E43" s="180" t="s">
+      <c r="E43" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="F43" s="181"/>
-      <c r="G43" s="181"/>
-      <c r="H43" s="181"/>
-      <c r="I43" s="181"/>
-      <c r="J43" s="181"/>
+      <c r="F43" s="130"/>
+      <c r="G43" s="130"/>
+      <c r="H43" s="130"/>
+      <c r="I43" s="130"/>
+      <c r="J43" s="130"/>
       <c r="K43" s="57"/>
       <c r="L43" s="57"/>
     </row>
@@ -12762,334 +12766,334 @@
         <v>1</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>104</v>
+        <v>285</v>
       </c>
       <c r="C44" s="65"/>
       <c r="D44" s="66"/>
-      <c r="E44" s="139" t="s">
-        <v>209</v>
-      </c>
-      <c r="F44" s="102"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="102"/>
-      <c r="I44" s="102"/>
-      <c r="J44" s="102"/>
+      <c r="E44" s="178" t="s">
+        <v>207</v>
+      </c>
+      <c r="F44" s="112"/>
+      <c r="G44" s="112"/>
+      <c r="H44" s="112"/>
+      <c r="I44" s="112"/>
+      <c r="J44" s="112"/>
     </row>
     <row r="45" spans="1:12" s="57" customFormat="1">
       <c r="A45" s="67"/>
-      <c r="B45" s="146"/>
-      <c r="C45" s="146"/>
-      <c r="D45" s="146"/>
-      <c r="E45" s="146"/>
-      <c r="F45" s="146"/>
-      <c r="G45" s="146"/>
-      <c r="H45" s="146"/>
-      <c r="I45" s="146"/>
-      <c r="J45" s="130"/>
+      <c r="B45" s="132"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="132"/>
+      <c r="F45" s="132"/>
+      <c r="G45" s="132"/>
+      <c r="H45" s="132"/>
+      <c r="I45" s="132"/>
+      <c r="J45" s="133"/>
     </row>
     <row r="46" spans="1:12" s="57" customFormat="1">
-      <c r="A46" s="148" t="s">
-        <v>227</v>
-      </c>
-      <c r="B46" s="149"/>
-      <c r="C46" s="149"/>
-      <c r="D46" s="149"/>
-      <c r="E46" s="149"/>
-      <c r="F46" s="149"/>
-      <c r="G46" s="149"/>
-      <c r="H46" s="149"/>
-      <c r="I46" s="149"/>
-      <c r="J46" s="150"/>
+      <c r="A46" s="150" t="s">
+        <v>225</v>
+      </c>
+      <c r="B46" s="151"/>
+      <c r="C46" s="151"/>
+      <c r="D46" s="151"/>
+      <c r="E46" s="151"/>
+      <c r="F46" s="151"/>
+      <c r="G46" s="151"/>
+      <c r="H46" s="151"/>
+      <c r="I46" s="151"/>
+      <c r="J46" s="152"/>
     </row>
     <row r="47" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="60">
         <v>1</v>
       </c>
       <c r="B47" s="68" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C47" s="69" t="s">
         <v>46</v>
       </c>
       <c r="D47" s="70"/>
-      <c r="E47" s="139" t="s">
-        <v>171</v>
-      </c>
-      <c r="F47" s="102"/>
-      <c r="G47" s="102"/>
-      <c r="H47" s="102"/>
-      <c r="I47" s="102"/>
-      <c r="J47" s="102"/>
+      <c r="E47" s="178" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="112"/>
+      <c r="G47" s="112"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="112"/>
+      <c r="J47" s="112"/>
     </row>
     <row r="48" spans="1:12" s="59" customFormat="1" ht="39" customHeight="1">
       <c r="A48" s="71">
         <v>2</v>
       </c>
       <c r="B48" s="72" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C48" s="69" t="s">
         <v>46</v>
       </c>
       <c r="D48" s="73"/>
-      <c r="E48" s="143" t="s">
-        <v>268</v>
-      </c>
-      <c r="F48" s="144"/>
-      <c r="G48" s="144"/>
-      <c r="H48" s="144"/>
-      <c r="I48" s="144"/>
-      <c r="J48" s="145"/>
+      <c r="E48" s="147" t="s">
+        <v>265</v>
+      </c>
+      <c r="F48" s="148"/>
+      <c r="G48" s="148"/>
+      <c r="H48" s="148"/>
+      <c r="I48" s="148"/>
+      <c r="J48" s="149"/>
     </row>
     <row r="49" spans="1:10" s="57" customFormat="1">
       <c r="A49" s="74">
         <v>3</v>
       </c>
       <c r="B49" s="68" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C49" s="69" t="s">
         <v>46</v>
       </c>
       <c r="D49" s="75"/>
-      <c r="E49" s="126" t="s">
-        <v>228</v>
-      </c>
-      <c r="F49" s="94"/>
-      <c r="G49" s="94"/>
-      <c r="H49" s="94"/>
-      <c r="I49" s="94"/>
-      <c r="J49" s="95"/>
+      <c r="E49" s="167" t="s">
+        <v>226</v>
+      </c>
+      <c r="F49" s="102"/>
+      <c r="G49" s="102"/>
+      <c r="H49" s="102"/>
+      <c r="I49" s="102"/>
+      <c r="J49" s="103"/>
     </row>
     <row r="50" spans="1:10" s="57" customFormat="1">
       <c r="A50" s="76"/>
-      <c r="B50" s="146"/>
-      <c r="C50" s="146"/>
-      <c r="D50" s="146"/>
-      <c r="E50" s="146"/>
-      <c r="F50" s="146"/>
-      <c r="G50" s="146"/>
-      <c r="H50" s="146"/>
-      <c r="I50" s="146"/>
-      <c r="J50" s="130"/>
+      <c r="B50" s="132"/>
+      <c r="C50" s="132"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="132"/>
+      <c r="F50" s="132"/>
+      <c r="G50" s="132"/>
+      <c r="H50" s="132"/>
+      <c r="I50" s="132"/>
+      <c r="J50" s="133"/>
     </row>
     <row r="51" spans="1:10" s="57" customFormat="1">
-      <c r="A51" s="140" t="s">
-        <v>277</v>
-      </c>
-      <c r="B51" s="141"/>
-      <c r="C51" s="141"/>
-      <c r="D51" s="141"/>
-      <c r="E51" s="141"/>
-      <c r="F51" s="141"/>
-      <c r="G51" s="141"/>
-      <c r="H51" s="141"/>
-      <c r="I51" s="141"/>
-      <c r="J51" s="142"/>
+      <c r="A51" s="179" t="s">
+        <v>274</v>
+      </c>
+      <c r="B51" s="180"/>
+      <c r="C51" s="180"/>
+      <c r="D51" s="180"/>
+      <c r="E51" s="180"/>
+      <c r="F51" s="180"/>
+      <c r="G51" s="180"/>
+      <c r="H51" s="180"/>
+      <c r="I51" s="180"/>
+      <c r="J51" s="181"/>
     </row>
     <row r="52" spans="1:10" s="57" customFormat="1">
       <c r="A52" s="60">
         <v>1</v>
       </c>
       <c r="B52" s="68" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C52" s="69" t="s">
         <v>46</v>
       </c>
       <c r="D52" s="70"/>
-      <c r="E52" s="139" t="s">
-        <v>206</v>
-      </c>
-      <c r="F52" s="102"/>
-      <c r="G52" s="102"/>
-      <c r="H52" s="102"/>
-      <c r="I52" s="102"/>
-      <c r="J52" s="102"/>
+      <c r="E52" s="178" t="s">
+        <v>204</v>
+      </c>
+      <c r="F52" s="112"/>
+      <c r="G52" s="112"/>
+      <c r="H52" s="112"/>
+      <c r="I52" s="112"/>
+      <c r="J52" s="112"/>
     </row>
     <row r="53" spans="1:10" s="57" customFormat="1">
       <c r="A53" s="60">
         <v>2</v>
       </c>
       <c r="B53" s="68" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C53" s="69" t="s">
         <v>46</v>
       </c>
       <c r="D53" s="73"/>
-      <c r="E53" s="143" t="s">
-        <v>207</v>
-      </c>
-      <c r="F53" s="144"/>
-      <c r="G53" s="144"/>
-      <c r="H53" s="144"/>
-      <c r="I53" s="144"/>
-      <c r="J53" s="145"/>
+      <c r="E53" s="147" t="s">
+        <v>205</v>
+      </c>
+      <c r="F53" s="148"/>
+      <c r="G53" s="148"/>
+      <c r="H53" s="148"/>
+      <c r="I53" s="148"/>
+      <c r="J53" s="149"/>
     </row>
     <row r="54" spans="1:10" s="57" customFormat="1">
       <c r="A54" s="60">
         <v>3</v>
       </c>
       <c r="B54" s="68" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C54" s="69" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="73"/>
-      <c r="E54" s="143" t="s">
-        <v>208</v>
-      </c>
-      <c r="F54" s="144"/>
-      <c r="G54" s="144"/>
-      <c r="H54" s="144"/>
-      <c r="I54" s="144"/>
-      <c r="J54" s="145"/>
+      <c r="E54" s="147" t="s">
+        <v>206</v>
+      </c>
+      <c r="F54" s="148"/>
+      <c r="G54" s="148"/>
+      <c r="H54" s="148"/>
+      <c r="I54" s="148"/>
+      <c r="J54" s="149"/>
     </row>
     <row r="55" spans="1:10" s="57" customFormat="1" ht="17.25" customHeight="1">
       <c r="A55" s="60">
         <v>4</v>
       </c>
       <c r="B55" s="68" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C55" s="69" t="s">
         <v>46</v>
       </c>
       <c r="D55" s="73"/>
-      <c r="E55" s="143" t="s">
-        <v>172</v>
-      </c>
-      <c r="F55" s="144"/>
-      <c r="G55" s="144"/>
-      <c r="H55" s="144"/>
-      <c r="I55" s="144"/>
-      <c r="J55" s="145"/>
+      <c r="E55" s="147" t="s">
+        <v>170</v>
+      </c>
+      <c r="F55" s="148"/>
+      <c r="G55" s="148"/>
+      <c r="H55" s="148"/>
+      <c r="I55" s="148"/>
+      <c r="J55" s="149"/>
     </row>
     <row r="56" spans="1:10" s="57" customFormat="1">
       <c r="A56" s="60">
         <v>5</v>
       </c>
       <c r="B56" s="68" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C56" s="69" t="s">
         <v>46</v>
       </c>
       <c r="D56" s="73"/>
-      <c r="E56" s="143" t="s">
-        <v>253</v>
-      </c>
-      <c r="F56" s="144"/>
-      <c r="G56" s="144"/>
-      <c r="H56" s="144"/>
-      <c r="I56" s="144"/>
-      <c r="J56" s="145"/>
+      <c r="E56" s="147" t="s">
+        <v>251</v>
+      </c>
+      <c r="F56" s="148"/>
+      <c r="G56" s="148"/>
+      <c r="H56" s="148"/>
+      <c r="I56" s="148"/>
+      <c r="J56" s="149"/>
     </row>
     <row r="57" spans="1:10" s="57" customFormat="1">
       <c r="A57" s="77"/>
-      <c r="B57" s="146"/>
-      <c r="C57" s="146"/>
-      <c r="D57" s="146"/>
-      <c r="E57" s="146"/>
-      <c r="F57" s="146"/>
-      <c r="G57" s="146"/>
-      <c r="H57" s="146"/>
-      <c r="I57" s="146"/>
-      <c r="J57" s="130"/>
+      <c r="B57" s="132"/>
+      <c r="C57" s="132"/>
+      <c r="D57" s="132"/>
+      <c r="E57" s="132"/>
+      <c r="F57" s="132"/>
+      <c r="G57" s="132"/>
+      <c r="H57" s="132"/>
+      <c r="I57" s="132"/>
+      <c r="J57" s="133"/>
     </row>
     <row r="58" spans="1:10" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="136" t="s">
+      <c r="A58" s="175" t="s">
         <v>22</v>
       </c>
-      <c r="B58" s="137"/>
-      <c r="C58" s="137"/>
-      <c r="D58" s="137"/>
-      <c r="E58" s="137"/>
-      <c r="F58" s="137"/>
-      <c r="G58" s="137"/>
-      <c r="H58" s="137"/>
-      <c r="I58" s="137"/>
-      <c r="J58" s="138"/>
+      <c r="B58" s="176"/>
+      <c r="C58" s="176"/>
+      <c r="D58" s="176"/>
+      <c r="E58" s="176"/>
+      <c r="F58" s="176"/>
+      <c r="G58" s="176"/>
+      <c r="H58" s="176"/>
+      <c r="I58" s="176"/>
+      <c r="J58" s="177"/>
     </row>
     <row r="59" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B59" s="134" t="s">
+      <c r="B59" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="135"/>
-      <c r="D59" s="126" t="s">
+      <c r="C59" s="174"/>
+      <c r="D59" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="E59" s="94"/>
-      <c r="F59" s="94"/>
-      <c r="G59" s="94"/>
-      <c r="H59" s="94"/>
-      <c r="I59" s="94"/>
-      <c r="J59" s="95"/>
+      <c r="E59" s="102"/>
+      <c r="F59" s="102"/>
+      <c r="G59" s="102"/>
+      <c r="H59" s="102"/>
+      <c r="I59" s="102"/>
+      <c r="J59" s="103"/>
     </row>
     <row r="60" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="131"/>
-      <c r="B60" s="132"/>
-      <c r="C60" s="132"/>
-      <c r="D60" s="132"/>
-      <c r="E60" s="132"/>
-      <c r="F60" s="132"/>
-      <c r="G60" s="132"/>
-      <c r="H60" s="132"/>
-      <c r="I60" s="132"/>
-      <c r="J60" s="133"/>
+      <c r="A60" s="170"/>
+      <c r="B60" s="171"/>
+      <c r="C60" s="171"/>
+      <c r="D60" s="171"/>
+      <c r="E60" s="171"/>
+      <c r="F60" s="171"/>
+      <c r="G60" s="171"/>
+      <c r="H60" s="171"/>
+      <c r="I60" s="171"/>
+      <c r="J60" s="172"/>
     </row>
     <row r="61" spans="1:10" s="59" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="74"/>
-      <c r="B61" s="129"/>
-      <c r="C61" s="130"/>
-      <c r="D61" s="126"/>
-      <c r="E61" s="127"/>
-      <c r="F61" s="127"/>
-      <c r="G61" s="127"/>
-      <c r="H61" s="127"/>
-      <c r="I61" s="127"/>
-      <c r="J61" s="128"/>
+      <c r="B61" s="131"/>
+      <c r="C61" s="133"/>
+      <c r="D61" s="167"/>
+      <c r="E61" s="168"/>
+      <c r="F61" s="168"/>
+      <c r="G61" s="168"/>
+      <c r="H61" s="168"/>
+      <c r="I61" s="168"/>
+      <c r="J61" s="169"/>
     </row>
     <row r="62" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="74"/>
-      <c r="B62" s="129"/>
-      <c r="C62" s="130"/>
-      <c r="D62" s="126"/>
-      <c r="E62" s="127"/>
-      <c r="F62" s="127"/>
-      <c r="G62" s="127"/>
-      <c r="H62" s="127"/>
-      <c r="I62" s="127"/>
-      <c r="J62" s="128"/>
+      <c r="B62" s="131"/>
+      <c r="C62" s="133"/>
+      <c r="D62" s="167"/>
+      <c r="E62" s="168"/>
+      <c r="F62" s="168"/>
+      <c r="G62" s="168"/>
+      <c r="H62" s="168"/>
+      <c r="I62" s="168"/>
+      <c r="J62" s="169"/>
     </row>
     <row r="63" spans="1:10" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A63" s="131"/>
-      <c r="B63" s="132"/>
-      <c r="C63" s="132"/>
-      <c r="D63" s="132"/>
-      <c r="E63" s="132"/>
-      <c r="F63" s="132"/>
-      <c r="G63" s="132"/>
-      <c r="H63" s="132"/>
-      <c r="I63" s="132"/>
-      <c r="J63" s="133"/>
+      <c r="A63" s="170"/>
+      <c r="B63" s="171"/>
+      <c r="C63" s="171"/>
+      <c r="D63" s="171"/>
+      <c r="E63" s="171"/>
+      <c r="F63" s="171"/>
+      <c r="G63" s="171"/>
+      <c r="H63" s="171"/>
+      <c r="I63" s="171"/>
+      <c r="J63" s="172"/>
     </row>
     <row r="64" spans="1:10" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="74"/>
-      <c r="B64" s="129"/>
-      <c r="C64" s="130"/>
-      <c r="D64" s="126"/>
-      <c r="E64" s="127"/>
-      <c r="F64" s="127"/>
-      <c r="G64" s="127"/>
-      <c r="H64" s="127"/>
-      <c r="I64" s="127"/>
-      <c r="J64" s="128"/>
+      <c r="B64" s="131"/>
+      <c r="C64" s="133"/>
+      <c r="D64" s="167"/>
+      <c r="E64" s="168"/>
+      <c r="F64" s="168"/>
+      <c r="G64" s="168"/>
+      <c r="H64" s="168"/>
+      <c r="I64" s="168"/>
+      <c r="J64" s="169"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="78" t="s">
@@ -13112,14 +13116,14 @@
       <c r="B66" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C66" s="129"/>
-      <c r="D66" s="94"/>
-      <c r="E66" s="94"/>
-      <c r="F66" s="94"/>
-      <c r="G66" s="94"/>
-      <c r="H66" s="94"/>
-      <c r="I66" s="94"/>
-      <c r="J66" s="95"/>
+      <c r="C66" s="131"/>
+      <c r="D66" s="102"/>
+      <c r="E66" s="102"/>
+      <c r="F66" s="102"/>
+      <c r="G66" s="102"/>
+      <c r="H66" s="102"/>
+      <c r="I66" s="102"/>
+      <c r="J66" s="103"/>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="74">
@@ -13128,44 +13132,38 @@
       <c r="B67" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C67" s="147"/>
-      <c r="D67" s="147"/>
-      <c r="E67" s="147"/>
-      <c r="F67" s="147"/>
-      <c r="G67" s="147"/>
-      <c r="H67" s="147"/>
-      <c r="I67" s="147"/>
-      <c r="J67" s="147"/>
+      <c r="C67" s="146"/>
+      <c r="D67" s="146"/>
+      <c r="E67" s="146"/>
+      <c r="F67" s="146"/>
+      <c r="G67" s="146"/>
+      <c r="H67" s="146"/>
+      <c r="I67" s="146"/>
+      <c r="J67" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="D64:J64"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="B57:J57"/>
     <mergeCell ref="C67:J67"/>
     <mergeCell ref="C66:J66"/>
     <mergeCell ref="K1:K3"/>
@@ -13182,27 +13180,33 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="D61:J61"/>
     <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="D64:J64"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -13935,283 +13939,265 @@
       <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="186" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="186"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="187" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="194" t="s">
+      <c r="H5" s="187" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="84" t="s">
+      <c r="I5" s="187"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="188" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="189"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="191" t="s">
         <v>142</v>
       </c>
-      <c r="H5" s="194" t="s">
-        <v>143</v>
-      </c>
-      <c r="I5" s="194"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="200" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="201"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="203" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="205"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="193"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="195" t="s">
+      <c r="B7" s="182" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="183"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="F7" s="185" t="s">
+        <v>268</v>
+      </c>
+      <c r="G7" s="185"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="85" t="s">
         <v>269</v>
-      </c>
-      <c r="C7" s="196"/>
-      <c r="D7" s="197"/>
-      <c r="E7" s="85" t="s">
-        <v>270</v>
-      </c>
-      <c r="F7" s="198" t="s">
-        <v>271</v>
-      </c>
-      <c r="G7" s="198"/>
-      <c r="H7" s="198"/>
-      <c r="I7" s="85" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="86">
         <v>1</v>
       </c>
-      <c r="B8" s="194" t="s">
+      <c r="B8" s="187" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="187"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="86" t="s">
         <v>145</v>
-      </c>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="86" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="86">
         <v>2</v>
       </c>
-      <c r="B9" s="194" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
+      <c r="B9" s="187" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="187"/>
+      <c r="D9" s="187"/>
       <c r="E9" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
+        <v>144</v>
+      </c>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
       <c r="I9" s="86" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="86">
         <v>3</v>
       </c>
-      <c r="B10" s="194" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="194"/>
-      <c r="D10" s="194"/>
+      <c r="B10" s="187" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="187"/>
+      <c r="D10" s="187"/>
       <c r="E10" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="119" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
+        <v>144</v>
+      </c>
+      <c r="F10" s="113" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
       <c r="I10" s="86" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="183" t="s">
-        <v>273</v>
-      </c>
-      <c r="B11" s="184"/>
-      <c r="C11" s="184"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="185"/>
+      <c r="A11" s="200" t="s">
+        <v>270</v>
+      </c>
+      <c r="B11" s="201"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="202"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="86">
         <v>1</v>
       </c>
-      <c r="B12" s="186" t="s">
+      <c r="B12" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="186"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="102" t="s">
-        <v>151</v>
-      </c>
-      <c r="F12" s="187"/>
-      <c r="G12" s="187"/>
-      <c r="H12" s="187"/>
-      <c r="I12" s="187"/>
+      <c r="C12" s="195"/>
+      <c r="D12" s="195"/>
+      <c r="E12" s="112" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="203"/>
+      <c r="G12" s="203"/>
+      <c r="H12" s="203"/>
+      <c r="I12" s="203"/>
     </row>
     <row r="13" spans="1:19" ht="189.75" customHeight="1">
       <c r="A13" s="86">
         <v>2</v>
       </c>
-      <c r="B13" s="186" t="s">
+      <c r="B13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="186"/>
-      <c r="D13" s="186"/>
-      <c r="E13" s="102" t="s">
-        <v>152</v>
-      </c>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
+      <c r="C13" s="195"/>
+      <c r="D13" s="195"/>
+      <c r="E13" s="112" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="186">
+      <c r="A14" s="195">
         <v>3</v>
       </c>
-      <c r="B14" s="188" t="s">
+      <c r="B14" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="188"/>
-      <c r="D14" s="188"/>
-      <c r="E14" s="188" t="s">
+      <c r="C14" s="204"/>
+      <c r="D14" s="204"/>
+      <c r="E14" s="204" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="188"/>
-      <c r="G14" s="188"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="189"/>
+      <c r="F14" s="204"/>
+      <c r="G14" s="204"/>
+      <c r="H14" s="205"/>
+      <c r="I14" s="205"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="186"/>
-      <c r="B15" s="186" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="186"/>
-      <c r="D15" s="186"/>
+      <c r="A15" s="195"/>
+      <c r="B15" s="195" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="195"/>
+      <c r="D15" s="195"/>
       <c r="E15" s="74" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="126" t="s">
-        <v>274</v>
-      </c>
-      <c r="H15" s="95"/>
+      <c r="G15" s="167" t="s">
+        <v>271</v>
+      </c>
+      <c r="H15" s="103"/>
       <c r="I15" s="87"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="186"/>
-      <c r="B16" s="119" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
+      <c r="A16" s="195"/>
+      <c r="B16" s="113" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
       <c r="E16" s="86"/>
       <c r="F16" s="52"/>
-      <c r="G16" s="182" t="s">
-        <v>155</v>
-      </c>
-      <c r="H16" s="95"/>
+      <c r="G16" s="194" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="103"/>
       <c r="I16" s="87"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="186"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
+      <c r="A17" s="195"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
       <c r="E17" s="86"/>
       <c r="F17" s="52"/>
-      <c r="G17" s="182"/>
-      <c r="H17" s="95"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="103"/>
       <c r="I17" s="88"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="186"/>
-      <c r="B18" s="190"/>
-      <c r="C18" s="191"/>
-      <c r="D18" s="192"/>
+      <c r="A18" s="195"/>
+      <c r="B18" s="197"/>
+      <c r="C18" s="198"/>
+      <c r="D18" s="199"/>
       <c r="E18" s="86"/>
       <c r="F18" s="52"/>
-      <c r="G18" s="182"/>
-      <c r="H18" s="95"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="103"/>
       <c r="I18" s="89"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="186"/>
-      <c r="B19" s="190"/>
-      <c r="C19" s="191"/>
-      <c r="D19" s="192"/>
+      <c r="A19" s="195"/>
+      <c r="B19" s="197"/>
+      <c r="C19" s="198"/>
+      <c r="D19" s="199"/>
       <c r="E19" s="86"/>
       <c r="F19" s="52"/>
-      <c r="G19" s="182"/>
-      <c r="H19" s="95"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="103"/>
       <c r="I19" s="89"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="186"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="186" t="s">
+      <c r="A20" s="195"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="195" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
-      <c r="H20" s="193"/>
-      <c r="I20" s="193"/>
+      <c r="F20" s="195"/>
+      <c r="G20" s="195"/>
+      <c r="H20" s="196"/>
+      <c r="I20" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="G18:H18"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="G16:H16"/>
@@ -14228,6 +14214,24 @@
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="B19:D19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:I6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -14411,7 +14415,7 @@
         <v>41</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I7" s="43" t="s">
         <v>76</v>
@@ -14448,7 +14452,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="123" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B10" s="124"/>
       <c r="C10" s="124"/>
@@ -14483,7 +14487,7 @@
         <v>41</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I11" s="43" t="s">
         <v>76</v>
@@ -14497,26 +14501,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="44" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J12" s="49"/>
     </row>
@@ -14525,26 +14529,26 @@
         <v>2</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D13" s="46" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="44" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J13" s="52"/>
     </row>
@@ -14553,28 +14557,28 @@
         <v>3</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E14" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="47" t="s">
-        <v>113</v>
-      </c>
       <c r="G14" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J14" s="49"/>
     </row>
@@ -14583,26 +14587,26 @@
         <v>4</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="44" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J15" s="49"/>
     </row>
@@ -14611,31 +14615,31 @@
         <v>5</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G16" s="50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H16" s="51">
         <v>2</v>
       </c>
       <c r="I16" s="44" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J16" s="52" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -14665,7 +14669,7 @@
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37:J37"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -14743,434 +14747,434 @@
       <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:17" s="56" customFormat="1">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="156" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="105"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="100"/>
     </row>
     <row r="6" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="106"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="108"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="120"/>
     </row>
     <row r="7" spans="1:17" s="57" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="155"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="158"/>
+      <c r="A7" s="157"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="160"/>
       <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:17" s="57" customFormat="1">
-      <c r="A8" s="155"/>
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="158"/>
+      <c r="A8" s="157"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="160"/>
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="1:17" s="57" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="159"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="161"/>
+      <c r="A9" s="161"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="163"/>
     </row>
     <row r="10" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="154" t="s">
+      <c r="A10" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="105"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="100"/>
     </row>
     <row r="11" spans="1:17" s="59" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="162" t="s">
-        <v>275</v>
-      </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="95"/>
+      <c r="A11" s="164" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="103"/>
     </row>
     <row r="12" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="154" t="s">
+      <c r="A12" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="105"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="100"/>
     </row>
     <row r="13" spans="1:17" s="59" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="162" t="s">
+      <c r="A13" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="95"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="103"/>
     </row>
     <row r="14" spans="1:17" s="57" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="154" t="s">
+      <c r="A14" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="105"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="100"/>
     </row>
     <row r="15" spans="1:17" s="57" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A15" s="166" t="s">
-        <v>276</v>
-      </c>
-      <c r="B15" s="167"/>
-      <c r="C15" s="167"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="168"/>
+      <c r="A15" s="140" t="s">
+        <v>273</v>
+      </c>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="144"/>
     </row>
     <row r="16" spans="1:17" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="60" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="C16" s="169" t="s">
-        <v>202</v>
-      </c>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="171"/>
+        <v>188</v>
+      </c>
+      <c r="C16" s="134" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="136"/>
     </row>
     <row r="17" spans="1:10" s="57" customFormat="1" ht="48.75" customHeight="1">
       <c r="A17" s="60">
         <v>1</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="172" t="s">
-        <v>258</v>
-      </c>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="174"/>
+        <v>186</v>
+      </c>
+      <c r="C17" s="145" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="139"/>
     </row>
     <row r="18" spans="1:10" s="57" customFormat="1" ht="53.25" customHeight="1">
       <c r="A18" s="60">
         <v>2</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>191</v>
-      </c>
-      <c r="C18" s="172" t="s">
-        <v>256</v>
-      </c>
-      <c r="D18" s="173"/>
-      <c r="E18" s="173"/>
-      <c r="F18" s="173"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="173"/>
-      <c r="I18" s="173"/>
-      <c r="J18" s="174"/>
+        <v>189</v>
+      </c>
+      <c r="C18" s="145" t="s">
+        <v>254</v>
+      </c>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="139"/>
     </row>
     <row r="19" spans="1:10" s="57" customFormat="1">
       <c r="A19" s="60">
         <v>3</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="C19" s="177" t="s">
-        <v>221</v>
-      </c>
-      <c r="D19" s="173"/>
-      <c r="E19" s="173"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="173"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="174"/>
+        <v>216</v>
+      </c>
+      <c r="C19" s="137" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="139"/>
     </row>
     <row r="20" spans="1:10" s="57" customFormat="1">
       <c r="A20" s="60">
         <v>4</v>
       </c>
       <c r="B20" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="C20" s="177" t="s">
-        <v>220</v>
-      </c>
-      <c r="D20" s="173"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="173"/>
-      <c r="I20" s="173"/>
-      <c r="J20" s="174"/>
+        <v>217</v>
+      </c>
+      <c r="C20" s="137" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="139"/>
     </row>
     <row r="21" spans="1:10" s="57" customFormat="1">
       <c r="A21" s="60">
         <v>5</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="C21" s="177" t="s">
-        <v>197</v>
-      </c>
-      <c r="D21" s="173"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="173"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="174"/>
+        <v>190</v>
+      </c>
+      <c r="C21" s="137" t="s">
+        <v>195</v>
+      </c>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="139"/>
     </row>
     <row r="22" spans="1:10" s="57" customFormat="1">
-      <c r="A22" s="151"/>
-      <c r="B22" s="152"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="A22" s="153"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="155"/>
     </row>
     <row r="23" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="163" t="s">
+      <c r="A23" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="164"/>
-      <c r="C23" s="164"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="164"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="164"/>
-      <c r="J23" s="165"/>
+      <c r="B23" s="165"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="166"/>
     </row>
     <row r="24" spans="1:10" s="57" customFormat="1" ht="36" customHeight="1">
-      <c r="A24" s="166" t="s">
-        <v>276</v>
-      </c>
-      <c r="B24" s="167"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="167"/>
-      <c r="I24" s="167"/>
-      <c r="J24" s="168"/>
+      <c r="A24" s="140" t="s">
+        <v>273</v>
+      </c>
+      <c r="B24" s="143"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="144"/>
     </row>
     <row r="25" spans="1:10" s="57" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="60" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="C25" s="169" t="s">
-        <v>202</v>
-      </c>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="170"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="171"/>
+        <v>188</v>
+      </c>
+      <c r="C25" s="134" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="136"/>
     </row>
     <row r="26" spans="1:10" s="57" customFormat="1">
       <c r="A26" s="60">
         <v>1</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="C26" s="177" t="s">
-        <v>222</v>
-      </c>
-      <c r="D26" s="173"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="173"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="173"/>
-      <c r="I26" s="173"/>
-      <c r="J26" s="174"/>
+        <v>186</v>
+      </c>
+      <c r="C26" s="137" t="s">
+        <v>283</v>
+      </c>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="139"/>
     </row>
     <row r="27" spans="1:10" s="57" customFormat="1">
       <c r="A27" s="60">
         <v>2</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>191</v>
-      </c>
-      <c r="C27" s="177" t="s">
-        <v>223</v>
-      </c>
-      <c r="D27" s="173"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="173"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="173"/>
-      <c r="I27" s="173"/>
-      <c r="J27" s="174"/>
+        <v>189</v>
+      </c>
+      <c r="C27" s="137" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="139"/>
     </row>
     <row r="28" spans="1:10" s="57" customFormat="1">
       <c r="A28" s="60">
         <v>3</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="C28" s="177" t="s">
-        <v>221</v>
-      </c>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="174"/>
+        <v>216</v>
+      </c>
+      <c r="C28" s="137" t="s">
+        <v>219</v>
+      </c>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="138"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="139"/>
     </row>
     <row r="29" spans="1:10" s="57" customFormat="1">
       <c r="A29" s="60">
         <v>4</v>
       </c>
       <c r="B29" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="C29" s="177" t="s">
-        <v>220</v>
-      </c>
-      <c r="D29" s="173"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="173"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="173"/>
-      <c r="I29" s="173"/>
-      <c r="J29" s="174"/>
+        <v>217</v>
+      </c>
+      <c r="C29" s="137" t="s">
+        <v>218</v>
+      </c>
+      <c r="D29" s="138"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="139"/>
     </row>
     <row r="30" spans="1:10" s="57" customFormat="1">
       <c r="A30" s="60">
         <v>5</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>192</v>
-      </c>
-      <c r="C30" s="177" t="s">
-        <v>197</v>
-      </c>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="174"/>
+        <v>190</v>
+      </c>
+      <c r="C30" s="137" t="s">
+        <v>195</v>
+      </c>
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="139"/>
     </row>
     <row r="31" spans="1:10" s="57" customFormat="1">
-      <c r="A31" s="151"/>
-      <c r="B31" s="206"/>
-      <c r="C31" s="206"/>
-      <c r="D31" s="206"/>
-      <c r="E31" s="206"/>
-      <c r="F31" s="206"/>
-      <c r="G31" s="206"/>
-      <c r="H31" s="206"/>
-      <c r="I31" s="206"/>
-      <c r="J31" s="207"/>
+      <c r="A31" s="153"/>
+      <c r="B31" s="208"/>
+      <c r="C31" s="208"/>
+      <c r="D31" s="208"/>
+      <c r="E31" s="208"/>
+      <c r="F31" s="208"/>
+      <c r="G31" s="208"/>
+      <c r="H31" s="208"/>
+      <c r="I31" s="208"/>
+      <c r="J31" s="209"/>
     </row>
     <row r="32" spans="1:10" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="163" t="s">
+      <c r="A32" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="164"/>
-      <c r="C32" s="164"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="164"/>
-      <c r="F32" s="164"/>
-      <c r="G32" s="164"/>
-      <c r="H32" s="164"/>
-      <c r="I32" s="164"/>
-      <c r="J32" s="165"/>
+      <c r="B32" s="165"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="165"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="166"/>
     </row>
     <row r="33" spans="1:12" s="90" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="61" t="s">
@@ -15185,14 +15189,14 @@
       <c r="D33" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="180" t="s">
+      <c r="E33" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="181"/>
-      <c r="G33" s="181"/>
-      <c r="H33" s="181"/>
-      <c r="I33" s="181"/>
-      <c r="J33" s="181"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="130"/>
       <c r="K33" s="57"/>
       <c r="L33" s="57"/>
     </row>
@@ -15201,30 +15205,30 @@
         <v>1</v>
       </c>
       <c r="B34" s="64" t="s">
-        <v>131</v>
+        <v>284</v>
       </c>
       <c r="C34" s="65"/>
       <c r="D34" s="66"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="102"/>
+      <c r="E34" s="178"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="112"/>
+      <c r="H34" s="112"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="112"/>
     </row>
     <row r="35" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="148" t="s">
-        <v>182</v>
-      </c>
-      <c r="B35" s="149"/>
-      <c r="C35" s="149"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="150"/>
+      <c r="A35" s="150" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="151"/>
+      <c r="C35" s="151"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="151"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="151"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="151"/>
+      <c r="J35" s="152"/>
       <c r="K35" s="57"/>
       <c r="L35" s="57"/>
     </row>
@@ -15233,152 +15237,152 @@
         <v>1</v>
       </c>
       <c r="B36" s="68" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C36" s="69" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="70"/>
-      <c r="E36" s="139" t="s">
-        <v>250</v>
-      </c>
-      <c r="F36" s="102"/>
-      <c r="G36" s="102"/>
-      <c r="H36" s="102"/>
-      <c r="I36" s="102"/>
-      <c r="J36" s="102"/>
+      <c r="E36" s="178" t="s">
+        <v>248</v>
+      </c>
+      <c r="F36" s="112"/>
+      <c r="G36" s="112"/>
+      <c r="H36" s="112"/>
+      <c r="I36" s="112"/>
+      <c r="J36" s="112"/>
     </row>
     <row r="37" spans="1:12" s="57" customFormat="1" ht="92.25" customHeight="1">
       <c r="A37" s="71">
         <v>2</v>
       </c>
       <c r="B37" s="72" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C37" s="69" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D37" s="73"/>
-      <c r="E37" s="143" t="s">
-        <v>280</v>
-      </c>
-      <c r="F37" s="144"/>
-      <c r="G37" s="144"/>
-      <c r="H37" s="144"/>
-      <c r="I37" s="144"/>
-      <c r="J37" s="145"/>
+      <c r="E37" s="147" t="s">
+        <v>277</v>
+      </c>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="149"/>
     </row>
     <row r="38" spans="1:12" s="57" customFormat="1" ht="37.5" customHeight="1">
       <c r="A38" s="74">
         <v>3</v>
       </c>
       <c r="B38" s="68" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C38" s="69" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D38" s="75"/>
-      <c r="E38" s="126" t="s">
-        <v>132</v>
-      </c>
-      <c r="F38" s="94"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="94"/>
-      <c r="I38" s="94"/>
-      <c r="J38" s="95"/>
+      <c r="E38" s="167" t="s">
+        <v>130</v>
+      </c>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="103"/>
     </row>
     <row r="39" spans="1:12" s="57" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A39" s="136" t="s">
+      <c r="A39" s="175" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="137"/>
-      <c r="C39" s="137"/>
-      <c r="D39" s="137"/>
-      <c r="E39" s="137"/>
-      <c r="F39" s="137"/>
-      <c r="G39" s="137"/>
-      <c r="H39" s="137"/>
-      <c r="I39" s="137"/>
-      <c r="J39" s="138"/>
+      <c r="B39" s="176"/>
+      <c r="C39" s="176"/>
+      <c r="D39" s="176"/>
+      <c r="E39" s="176"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
+      <c r="H39" s="176"/>
+      <c r="I39" s="176"/>
+      <c r="J39" s="177"/>
     </row>
     <row r="40" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="134" t="s">
+      <c r="B40" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="135"/>
-      <c r="D40" s="126" t="s">
+      <c r="C40" s="174"/>
+      <c r="D40" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="94"/>
-      <c r="J40" s="95"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="102"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="103"/>
     </row>
     <row r="41" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A41" s="131"/>
-      <c r="B41" s="208"/>
-      <c r="C41" s="208"/>
-      <c r="D41" s="208"/>
-      <c r="E41" s="208"/>
-      <c r="F41" s="208"/>
-      <c r="G41" s="208"/>
-      <c r="H41" s="208"/>
-      <c r="I41" s="208"/>
-      <c r="J41" s="209"/>
+      <c r="A41" s="170"/>
+      <c r="B41" s="206"/>
+      <c r="C41" s="206"/>
+      <c r="D41" s="206"/>
+      <c r="E41" s="206"/>
+      <c r="F41" s="206"/>
+      <c r="G41" s="206"/>
+      <c r="H41" s="206"/>
+      <c r="I41" s="206"/>
+      <c r="J41" s="207"/>
     </row>
     <row r="42" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="74"/>
-      <c r="B42" s="129"/>
-      <c r="C42" s="130"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="95"/>
+      <c r="B42" s="131"/>
+      <c r="C42" s="133"/>
+      <c r="D42" s="167"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="103"/>
     </row>
     <row r="43" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="74"/>
-      <c r="B43" s="129"/>
-      <c r="C43" s="130"/>
-      <c r="D43" s="126"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="94"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="94"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="95"/>
+      <c r="B43" s="131"/>
+      <c r="C43" s="133"/>
+      <c r="D43" s="167"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="103"/>
     </row>
     <row r="44" spans="1:12" s="59" customFormat="1" ht="15" customHeight="1">
-      <c r="A44" s="131"/>
-      <c r="B44" s="208"/>
-      <c r="C44" s="208"/>
-      <c r="D44" s="208"/>
-      <c r="E44" s="208"/>
-      <c r="F44" s="208"/>
-      <c r="G44" s="208"/>
-      <c r="H44" s="208"/>
-      <c r="I44" s="208"/>
-      <c r="J44" s="209"/>
+      <c r="A44" s="170"/>
+      <c r="B44" s="206"/>
+      <c r="C44" s="206"/>
+      <c r="D44" s="206"/>
+      <c r="E44" s="206"/>
+      <c r="F44" s="206"/>
+      <c r="G44" s="206"/>
+      <c r="H44" s="206"/>
+      <c r="I44" s="206"/>
+      <c r="J44" s="207"/>
     </row>
     <row r="45" spans="1:12" s="57" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="74"/>
-      <c r="B45" s="129"/>
-      <c r="C45" s="130"/>
-      <c r="D45" s="126"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="94"/>
-      <c r="G45" s="94"/>
-      <c r="H45" s="94"/>
-      <c r="I45" s="94"/>
-      <c r="J45" s="95"/>
+      <c r="B45" s="131"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="167"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="102"/>
+      <c r="J45" s="103"/>
     </row>
     <row r="46" spans="1:12" s="57" customFormat="1" ht="17.25" customHeight="1">
       <c r="A46" s="78" t="s">
@@ -15401,14 +15405,14 @@
       <c r="B47" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="129"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="94"/>
-      <c r="J47" s="95"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="102"/>
+      <c r="F47" s="102"/>
+      <c r="G47" s="102"/>
+      <c r="H47" s="102"/>
+      <c r="I47" s="102"/>
+      <c r="J47" s="103"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="74">
@@ -15417,24 +15421,39 @@
       <c r="B48" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="147"/>
-      <c r="D48" s="147"/>
-      <c r="E48" s="147"/>
-      <c r="F48" s="147"/>
-      <c r="G48" s="147"/>
-      <c r="H48" s="147"/>
-      <c r="I48" s="147"/>
-      <c r="J48" s="147"/>
+      <c r="C48" s="146"/>
+      <c r="D48" s="146"/>
+      <c r="E48" s="146"/>
+      <c r="F48" s="146"/>
+      <c r="G48" s="146"/>
+      <c r="H48" s="146"/>
+      <c r="I48" s="146"/>
+      <c r="J48" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:J45"/>
@@ -15451,28 +15470,13 @@
     <mergeCell ref="A39:J39"/>
     <mergeCell ref="E34:J34"/>
     <mergeCell ref="A35:J35"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -16205,284 +16209,265 @@
       <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="186" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="186"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="187" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="B5" s="199"/>
-      <c r="C5" s="199"/>
-      <c r="D5" s="194" t="s">
+      <c r="H5" s="187" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="84" t="s">
+      <c r="I5" s="187"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="188" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="189"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="191" t="s">
         <v>142</v>
       </c>
-      <c r="H5" s="194" t="s">
-        <v>143</v>
-      </c>
-      <c r="I5" s="194"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="200" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="201"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="203" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="204"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="204"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="205"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="193"/>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="195" t="s">
+      <c r="B7" s="182" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="183"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="F7" s="185" t="s">
+        <v>268</v>
+      </c>
+      <c r="G7" s="185"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="85" t="s">
         <v>269</v>
-      </c>
-      <c r="C7" s="196"/>
-      <c r="D7" s="197"/>
-      <c r="E7" s="85" t="s">
-        <v>270</v>
-      </c>
-      <c r="F7" s="198" t="s">
-        <v>271</v>
-      </c>
-      <c r="G7" s="198"/>
-      <c r="H7" s="198"/>
-      <c r="I7" s="85" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="86">
         <v>1</v>
       </c>
-      <c r="B8" s="194" t="s">
+      <c r="B8" s="187" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="187"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="86" t="s">
         <v>145</v>
-      </c>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="86" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="86">
         <v>2</v>
       </c>
-      <c r="B9" s="194" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
+      <c r="B9" s="187" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="187"/>
+      <c r="D9" s="187"/>
       <c r="E9" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
+        <v>144</v>
+      </c>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
       <c r="I9" s="86" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="86">
         <v>3</v>
       </c>
-      <c r="B10" s="194" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="194"/>
-      <c r="D10" s="194"/>
+      <c r="B10" s="187" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="187"/>
+      <c r="D10" s="187"/>
       <c r="E10" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="F10" s="119" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
+        <v>144</v>
+      </c>
+      <c r="F10" s="113" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
       <c r="I10" s="86" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="183" t="s">
-        <v>273</v>
-      </c>
-      <c r="B11" s="184"/>
-      <c r="C11" s="184"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="184"/>
-      <c r="I11" s="185"/>
+      <c r="A11" s="200" t="s">
+        <v>270</v>
+      </c>
+      <c r="B11" s="201"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="202"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="86">
         <v>1</v>
       </c>
-      <c r="B12" s="186" t="s">
+      <c r="B12" s="195" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="186"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="102" t="s">
-        <v>151</v>
-      </c>
-      <c r="F12" s="187"/>
-      <c r="G12" s="187"/>
-      <c r="H12" s="187"/>
-      <c r="I12" s="187"/>
+      <c r="C12" s="195"/>
+      <c r="D12" s="195"/>
+      <c r="E12" s="112" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="203"/>
+      <c r="G12" s="203"/>
+      <c r="H12" s="203"/>
+      <c r="I12" s="203"/>
     </row>
     <row r="13" spans="1:19" ht="189.75" customHeight="1">
       <c r="A13" s="86">
         <v>2</v>
       </c>
-      <c r="B13" s="186" t="s">
+      <c r="B13" s="195" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="186"/>
-      <c r="D13" s="186"/>
-      <c r="E13" s="102" t="s">
-        <v>152</v>
-      </c>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
+      <c r="C13" s="195"/>
+      <c r="D13" s="195"/>
+      <c r="E13" s="112" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="186">
+      <c r="A14" s="195">
         <v>3</v>
       </c>
-      <c r="B14" s="188" t="s">
+      <c r="B14" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="188"/>
-      <c r="D14" s="188"/>
-      <c r="E14" s="188" t="s">
+      <c r="C14" s="204"/>
+      <c r="D14" s="204"/>
+      <c r="E14" s="204" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="188"/>
-      <c r="G14" s="188"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="189"/>
+      <c r="F14" s="204"/>
+      <c r="G14" s="204"/>
+      <c r="H14" s="205"/>
+      <c r="I14" s="205"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="186"/>
-      <c r="B15" s="186" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="186"/>
-      <c r="D15" s="186"/>
+      <c r="A15" s="195"/>
+      <c r="B15" s="195" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="195"/>
+      <c r="D15" s="195"/>
       <c r="E15" s="74" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="126" t="s">
-        <v>274</v>
-      </c>
-      <c r="H15" s="95"/>
+      <c r="G15" s="167" t="s">
+        <v>271</v>
+      </c>
+      <c r="H15" s="103"/>
       <c r="I15" s="87"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="186"/>
-      <c r="B16" s="119" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
+      <c r="A16" s="195"/>
+      <c r="B16" s="113" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
       <c r="E16" s="86"/>
       <c r="F16" s="52"/>
-      <c r="G16" s="182" t="s">
-        <v>155</v>
-      </c>
-      <c r="H16" s="95"/>
+      <c r="G16" s="194" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="103"/>
       <c r="I16" s="87"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="186"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
+      <c r="A17" s="195"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
       <c r="E17" s="86"/>
       <c r="F17" s="52"/>
-      <c r="G17" s="182"/>
-      <c r="H17" s="95"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="103"/>
       <c r="I17" s="88"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="186"/>
-      <c r="B18" s="190"/>
-      <c r="C18" s="191"/>
-      <c r="D18" s="192"/>
+      <c r="A18" s="195"/>
+      <c r="B18" s="197"/>
+      <c r="C18" s="198"/>
+      <c r="D18" s="199"/>
       <c r="E18" s="86"/>
       <c r="F18" s="52"/>
-      <c r="G18" s="182"/>
-      <c r="H18" s="95"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="103"/>
       <c r="I18" s="89"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="186"/>
-      <c r="B19" s="190"/>
-      <c r="C19" s="191"/>
-      <c r="D19" s="192"/>
+      <c r="A19" s="195"/>
+      <c r="B19" s="197"/>
+      <c r="C19" s="198"/>
+      <c r="D19" s="199"/>
       <c r="E19" s="86"/>
       <c r="F19" s="52"/>
-      <c r="G19" s="182"/>
-      <c r="H19" s="95"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="103"/>
       <c r="I19" s="89"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="186"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="119"/>
-      <c r="E20" s="186" t="s">
+      <c r="A20" s="195"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="195" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
-      <c r="H20" s="193"/>
-      <c r="I20" s="193"/>
+      <c r="F20" s="195"/>
+      <c r="G20" s="195"/>
+      <c r="H20" s="196"/>
+      <c r="I20" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:I14"/>
@@ -16498,6 +16483,25 @@
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:I20"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:I6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>

--- a/APF/RA006/RA006_APF0101_角色維護.xlsx
+++ b/APF/RA006/RA006_APF0101_角色維護.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -1457,7 +1457,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="340">
   <si>
     <t>string</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -3542,14 +3542,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>輸入之角色代號必須存在於APF apf_roleprofile資料表中，若不存在則出現錯誤訊息"查詢資料失敗-無符合條件之資料"。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入之角色名稱必須存在於APF apf_roleprofile資料表中，若不存在則出現錯誤訊息"查詢資料失敗-無符合條件之資料"。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -3566,19 +3558,28 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>輸入之角色名稱不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息"新增資料失敗-輸入資料已存在"。</t>
+    <t>輸入之角色代號必須存在於APF apf_roleprofile資料表中，若不存在則出現錯誤訊息"查詢資料失敗-無符合條件之資料"。
+(請參考APF訊息表-系統功能=查詢資料，狀態=失敗)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>輸入之角色代號不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息"新增資料失敗-輸入資料已存在"。</t>
+    <t>輸入之角色名稱必須存在於APF apf_roleprofile資料表中，若不存在則出現錯誤訊息"查詢資料失敗-無符合條件之資料"。
+(請參考APF訊息表-系統功能=查詢資料，狀態=失敗)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>輸入之角色代號不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息"新增資料失敗-輸入資料已存在"。</t>
+    <t>輸入之角色代號不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息"新增資料失敗-輸入資料已存在"。
+(請參考APF訊息表-系統功能=新增資料，狀態=失敗)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>輸入之角色名稱不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息"新增資料失敗-輸入資料已存在"。</t>
+    <t>輸入之角色名稱不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息"新增資料失敗-輸入資料已存在"。
+(請參考APF訊息表-系統功能=新增資料，狀態=失敗)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入之角色代號不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息"新增資料失敗-輸入資料已存在"。
+(請參考APF訊息表-系統功能=新增資料，狀態=失敗)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -11198,7 +11199,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -11672,7 +11673,7 @@
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="44" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J12" s="49"/>
     </row>
@@ -11700,7 +11701,7 @@
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="44" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J13" s="52"/>
     </row>
@@ -11728,7 +11729,7 @@
       </c>
       <c r="H14" s="46"/>
       <c r="I14" s="44" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J14" s="49"/>
     </row>
@@ -11816,8 +11817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:J32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12236,14 +12237,14 @@
       <c r="I27" s="185"/>
       <c r="J27" s="186"/>
     </row>
-    <row r="28" spans="1:10" s="57" customFormat="1">
+    <row r="28" spans="1:10" s="57" customFormat="1" ht="33.75" customHeight="1">
       <c r="A28" s="60">
         <v>1</v>
       </c>
       <c r="B28" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="C28" s="192" t="s">
+      <c r="C28" s="187" t="s">
         <v>339</v>
       </c>
       <c r="D28" s="188"/>
@@ -12254,15 +12255,15 @@
       <c r="I28" s="188"/>
       <c r="J28" s="189"/>
     </row>
-    <row r="29" spans="1:10" s="57" customFormat="1">
+    <row r="29" spans="1:10" s="57" customFormat="1" ht="32.25" customHeight="1">
       <c r="A29" s="60">
         <v>2</v>
       </c>
       <c r="B29" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="C29" s="192" t="s">
-        <v>340</v>
+      <c r="C29" s="187" t="s">
+        <v>338</v>
       </c>
       <c r="D29" s="188"/>
       <c r="E29" s="188"/>
@@ -15153,7 +15154,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C31" sqref="C31:J31"/>
     </sheetView>
   </sheetViews>
@@ -15626,15 +15627,15 @@
       <c r="I30" s="185"/>
       <c r="J30" s="186"/>
     </row>
-    <row r="31" spans="1:10" s="57" customFormat="1">
+    <row r="31" spans="1:10" s="57" customFormat="1" ht="39" customHeight="1">
       <c r="A31" s="60">
         <v>1</v>
       </c>
       <c r="B31" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="C31" s="192" t="s">
-        <v>331</v>
+      <c r="C31" s="187" t="s">
+        <v>335</v>
       </c>
       <c r="D31" s="188"/>
       <c r="E31" s="188"/>
@@ -15644,15 +15645,15 @@
       <c r="I31" s="188"/>
       <c r="J31" s="189"/>
     </row>
-    <row r="32" spans="1:10" s="57" customFormat="1">
+    <row r="32" spans="1:10" s="57" customFormat="1" ht="35.25" customHeight="1">
       <c r="A32" s="60">
         <v>2</v>
       </c>
       <c r="B32" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="C32" s="192" t="s">
-        <v>332</v>
+      <c r="C32" s="187" t="s">
+        <v>336</v>
       </c>
       <c r="D32" s="188"/>
       <c r="E32" s="188"/>
@@ -16334,7 +16335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J3"/>
     </sheetView>
   </sheetViews>
@@ -17724,7 +17725,7 @@
       </c>
       <c r="H12" s="46"/>
       <c r="I12" s="44" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J12" s="49"/>
     </row>
@@ -17752,7 +17753,7 @@
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="44" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J13" s="52"/>
     </row>
@@ -17782,7 +17783,7 @@
         <v>203</v>
       </c>
       <c r="I14" s="44" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J14" s="49"/>
     </row>
@@ -17872,7 +17873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26:J26"/>
     </sheetView>
   </sheetViews>
@@ -18264,15 +18265,15 @@
       <c r="I25" s="185"/>
       <c r="J25" s="186"/>
     </row>
-    <row r="26" spans="1:10" s="57" customFormat="1">
+    <row r="26" spans="1:10" s="57" customFormat="1" ht="34.5" customHeight="1">
       <c r="A26" s="60">
         <v>1</v>
       </c>
       <c r="B26" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="C26" s="192" t="s">
-        <v>338</v>
+      <c r="C26" s="187" t="s">
+        <v>337</v>
       </c>
       <c r="D26" s="188"/>
       <c r="E26" s="188"/>
@@ -18282,15 +18283,15 @@
       <c r="I26" s="188"/>
       <c r="J26" s="189"/>
     </row>
-    <row r="27" spans="1:10" s="57" customFormat="1">
+    <row r="27" spans="1:10" s="57" customFormat="1" ht="33" customHeight="1">
       <c r="A27" s="60">
         <v>2</v>
       </c>
       <c r="B27" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="C27" s="192" t="s">
-        <v>337</v>
+      <c r="C27" s="187" t="s">
+        <v>338</v>
       </c>
       <c r="D27" s="188"/>
       <c r="E27" s="188"/>

--- a/APF/RA006/RA006_APF0101_角色維護.xlsx
+++ b/APF/RA006/RA006_APF0101_角色維護.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\RA006\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7710" tabRatio="797" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7710" tabRatio="797"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
     <sheet name="版本控管" sheetId="16" r:id="rId2"/>
     <sheet name="功能簡述" sheetId="32" r:id="rId3"/>
-    <sheet name="IPO" sheetId="46" r:id="rId4"/>
+    <sheet name="IPO" sheetId="47" r:id="rId4"/>
     <sheet name="畫面_APF0101MM1" sheetId="7" r:id="rId5"/>
     <sheet name="欄位_APF0101MM1" sheetId="14" r:id="rId6"/>
     <sheet name="畫面_APF0101MA1" sheetId="33" r:id="rId7"/>
@@ -59,7 +64,7 @@
     <author>林傳勝 a8910001</author>
   </authors>
   <commentList>
-    <comment ref="M16" authorId="0">
+    <comment ref="M16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M18" authorId="0">
+    <comment ref="M18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M19" authorId="0">
+    <comment ref="M19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M23" authorId="0">
+    <comment ref="M23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -243,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M24" authorId="0">
+    <comment ref="M24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -308,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M29" authorId="0">
+    <comment ref="M29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -353,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M38" authorId="0">
+    <comment ref="M38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -398,7 +403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M69" authorId="0">
+    <comment ref="M69" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -481,7 +486,7 @@
     <author>林傳勝 a8910001</author>
   </authors>
   <commentList>
-    <comment ref="E13" authorId="0">
+    <comment ref="E13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -531,7 +536,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="249">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -1754,10 +1759,6 @@
   <si>
     <t>IPO</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>回總表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2549,6 +2550,42 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2561,24 +2598,9 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2588,39 +2610,210 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2632,218 +2825,29 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2856,9 +2860,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3934,7 +3935,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3942,6 +3943,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3975,7 +3987,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3983,6 +3995,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4523,16 +4546,16 @@
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="40962" name="Object 2" hidden="1">
+            <xdr:cNvPr id="48129" name="Object 1" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s40962"/>
+                  <a14:compatExt spid="_x0000_s48129"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -4540,6 +4563,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4562,7 +4596,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="群組 11"/>
+        <xdr:cNvPr id="11" name="群組 10"/>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -4577,7 +4611,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Rectangle 25"/>
+          <xdr:cNvPr id="12" name="Rectangle 25"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4650,7 +4684,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="Rectangle 26"/>
+          <xdr:cNvPr id="13" name="Rectangle 26"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4731,7 +4765,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Rectangle 27"/>
+          <xdr:cNvPr id="14" name="Rectangle 27"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4812,7 +4846,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Rectangle 28"/>
+          <xdr:cNvPr id="15" name="Rectangle 28"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4884,7 +4918,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="Rectangle 29"/>
+          <xdr:cNvPr id="16" name="Rectangle 29"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4958,7 +4992,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="Rectangle 30"/>
+          <xdr:cNvPr id="17" name="Rectangle 30"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -5034,7 +5068,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="Line 31"/>
+          <xdr:cNvPr id="18" name="Line 31"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -8704,7 +8738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -9556,15 +9590,15 @@
       <c r="A1" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="93" t="s">
+      <c r="M1" s="105" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="94"/>
+      <c r="M2" s="106"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="94"/>
+      <c r="M3" s="106"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -9581,45 +9615,45 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="112"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="115"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="102" t="s">
         <v>214</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="115"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="104"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
       <c r="F7" s="97" t="s">
         <v>30</v>
       </c>
@@ -9631,31 +9665,31 @@
       <c r="L7" s="99"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="95" t="s">
         <v>205</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="101" t="s">
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="102"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="101"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="97" t="s">
         <v>32</v>
       </c>
@@ -9667,32 +9701,32 @@
       <c r="L9" s="99"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="101" t="s">
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="100" t="s">
         <v>234</v>
       </c>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="102"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="101"/>
     </row>
     <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="108" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="113" t="s">
         <v>34</v>
       </c>
       <c r="G11" s="98"/>
@@ -9703,30 +9737,30 @@
       <c r="L11" s="99"/>
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="102"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="101"/>
     </row>
     <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="108" t="s">
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="113" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="98"/>
@@ -9737,36 +9771,36 @@
       <c r="L13" s="99"/>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="102"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="101"/>
     </row>
     <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="100" t="s">
+      <c r="A15" s="109" t="s">
         <v>235</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="102"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="101"/>
     </row>
     <row r="16" spans="1:13"/>
     <row r="18" spans="13:13"/>
@@ -9777,28 +9811,23 @@
     <row r="38" spans="13:13"/>
     <row r="69" spans="1:13"/>
     <row r="77" spans="1:13">
-      <c r="A77" s="103" t="s">
+      <c r="A77" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="B77" s="104"/>
-      <c r="C77" s="104"/>
-      <c r="D77" s="104"/>
-      <c r="E77" s="104"/>
-      <c r="F77" s="104"/>
-      <c r="G77" s="104"/>
-      <c r="H77" s="104"/>
-      <c r="I77" s="104"/>
-      <c r="J77" s="104"/>
-      <c r="K77" s="104"/>
-      <c r="L77" s="105"/>
+      <c r="B77" s="111"/>
+      <c r="C77" s="111"/>
+      <c r="D77" s="111"/>
+      <c r="E77" s="111"/>
+      <c r="F77" s="111"/>
+      <c r="G77" s="111"/>
+      <c r="H77" s="111"/>
+      <c r="I77" s="111"/>
+      <c r="J77" s="111"/>
+      <c r="K77" s="111"/>
+      <c r="L77" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -9815,6 +9844,11 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -9885,22 +9919,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="93" t="s">
-        <v>249</v>
+      <c r="P1" s="105" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="94"/>
+      <c r="P2" s="106"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="94"/>
+      <c r="P3" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9918,7 +9952,7 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="40962" r:id="rId4">
+        <oleObject progId="Visio.Drawing.11" shapeId="48129" r:id="rId4">
           <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -9938,7 +9972,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="40962" r:id="rId4"/>
+        <oleObject progId="Visio.Drawing.11" shapeId="48129" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -10028,7 +10062,7 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="151" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="98"/>
@@ -10042,57 +10076,57 @@
       <c r="J5" s="99"/>
     </row>
     <row r="6" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="113"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="115"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:17" s="56" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="155"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="158"/>
+      <c r="A7" s="152"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="155"/>
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:17" s="56" customFormat="1">
-      <c r="A8" s="155"/>
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="158"/>
+      <c r="A8" s="152"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="155"/>
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:17" s="56" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="159"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="161"/>
+      <c r="A9" s="156"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="158"/>
     </row>
     <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="154" t="s">
+      <c r="A10" s="151" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="98"/>
@@ -10106,21 +10140,21 @@
       <c r="J10" s="99"/>
     </row>
     <row r="11" spans="1:17" s="58" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="162" t="s">
+      <c r="A11" s="159" t="s">
         <v>190</v>
       </c>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101"/>
     </row>
     <row r="12" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="154" t="s">
+      <c r="A12" s="151" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="98"/>
@@ -10134,21 +10168,21 @@
       <c r="J12" s="99"/>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="162" t="s">
+      <c r="A13" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="101"/>
     </row>
     <row r="14" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="154" t="s">
+      <c r="A14" s="151" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="98"/>
@@ -10162,18 +10196,18 @@
       <c r="J14" s="99"/>
     </row>
     <row r="15" spans="1:17" s="56" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="163" t="s">
         <v>191</v>
       </c>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="140"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="165"/>
     </row>
     <row r="16" spans="1:17" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="59" t="s">
@@ -10182,16 +10216,16 @@
       <c r="B16" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="124" t="s">
+      <c r="C16" s="166" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="126"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="168"/>
     </row>
     <row r="17" spans="1:10" s="56" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="59">
@@ -10200,16 +10234,16 @@
       <c r="B17" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="141" t="s">
+      <c r="C17" s="169" t="s">
         <v>187</v>
       </c>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="129"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="171"/>
     </row>
     <row r="18" spans="1:10" s="56" customFormat="1" ht="30.75" customHeight="1">
       <c r="A18" s="59">
@@ -10218,16 +10252,16 @@
       <c r="B18" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="141" t="s">
+      <c r="C18" s="169" t="s">
         <v>188</v>
       </c>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="129"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="171"/>
     </row>
     <row r="19" spans="1:10" s="56" customFormat="1">
       <c r="A19" s="59">
@@ -10236,42 +10270,42 @@
       <c r="B19" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="169" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="171"/>
     </row>
     <row r="20" spans="1:10" s="56" customFormat="1">
-      <c r="A20" s="121"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="123"/>
+      <c r="A20" s="127"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="128"/>
     </row>
     <row r="21" spans="1:10" s="56" customFormat="1">
-      <c r="A21" s="130" t="s">
+      <c r="A21" s="163" t="s">
         <v>185</v>
       </c>
-      <c r="B21" s="139"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="140"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="165"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="59" t="s">
@@ -10280,16 +10314,16 @@
       <c r="B22" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="124" t="s">
+      <c r="C22" s="166" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="126"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="167"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="168"/>
     </row>
     <row r="23" spans="1:10" s="56" customFormat="1">
       <c r="A23" s="59">
@@ -10298,16 +10332,16 @@
       <c r="B23" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="127" t="s">
+      <c r="C23" s="174" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="129"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="171"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1">
       <c r="A24" s="59">
@@ -10316,16 +10350,16 @@
       <c r="B24" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="127" t="s">
+      <c r="C24" s="174" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="129"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="170"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="171"/>
     </row>
     <row r="25" spans="1:10" s="56" customFormat="1">
       <c r="A25" s="59">
@@ -10334,16 +10368,16 @@
       <c r="B25" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="127" t="s">
+      <c r="C25" s="174" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="129"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="171"/>
     </row>
     <row r="26" spans="1:10" s="56" customFormat="1">
       <c r="A26" s="59">
@@ -10352,56 +10386,56 @@
       <c r="B26" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="127" t="s">
+      <c r="C26" s="174" t="s">
         <v>134</v>
       </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="129"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="171"/>
     </row>
     <row r="27" spans="1:10" s="56" customFormat="1">
-      <c r="A27" s="151"/>
-      <c r="B27" s="152"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="153"/>
+      <c r="A27" s="148"/>
+      <c r="B27" s="149"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="150"/>
     </row>
     <row r="28" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="116" t="s">
+      <c r="A28" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="163"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="164"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="161"/>
+      <c r="D28" s="161"/>
+      <c r="E28" s="161"/>
+      <c r="F28" s="161"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="161"/>
+      <c r="J28" s="162"/>
     </row>
     <row r="29" spans="1:10" s="56" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="130" t="s">
+      <c r="A29" s="163" t="s">
         <v>191</v>
       </c>
-      <c r="B29" s="139"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="140"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="164"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="165"/>
     </row>
     <row r="30" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="59" t="s">
@@ -10410,16 +10444,16 @@
       <c r="B30" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="124" t="s">
+      <c r="C30" s="166" t="s">
         <v>135</v>
       </c>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="126"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="168"/>
     </row>
     <row r="31" spans="1:10" s="56" customFormat="1">
       <c r="A31" s="59">
@@ -10428,16 +10462,16 @@
       <c r="B31" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="133" t="s">
+      <c r="C31" s="175" t="s">
         <v>238</v>
       </c>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="134"/>
-      <c r="J31" s="135"/>
+      <c r="D31" s="176"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="176"/>
+      <c r="H31" s="176"/>
+      <c r="I31" s="176"/>
+      <c r="J31" s="177"/>
     </row>
     <row r="32" spans="1:10" s="56" customFormat="1">
       <c r="A32" s="59">
@@ -10446,14 +10480,14 @@
       <c r="B32" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="136"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="137"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="137"/>
-      <c r="J32" s="138"/>
+      <c r="C32" s="178"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="179"/>
+      <c r="I32" s="179"/>
+      <c r="J32" s="180"/>
     </row>
     <row r="33" spans="1:12" s="56" customFormat="1">
       <c r="A33" s="59">
@@ -10462,42 +10496,42 @@
       <c r="B33" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="127" t="s">
+      <c r="C33" s="174" t="s">
         <v>130</v>
       </c>
-      <c r="D33" s="128"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="128"/>
-      <c r="I33" s="128"/>
-      <c r="J33" s="129"/>
+      <c r="D33" s="170"/>
+      <c r="E33" s="170"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="170"/>
+      <c r="H33" s="170"/>
+      <c r="I33" s="170"/>
+      <c r="J33" s="171"/>
     </row>
     <row r="34" spans="1:12" s="56" customFormat="1">
-      <c r="A34" s="121"/>
-      <c r="B34" s="122"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="122"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="123"/>
+      <c r="A34" s="127"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="136"/>
+      <c r="D34" s="136"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="136"/>
+      <c r="H34" s="136"/>
+      <c r="I34" s="136"/>
+      <c r="J34" s="128"/>
     </row>
     <row r="35" spans="1:12" s="56" customFormat="1">
-      <c r="A35" s="130" t="s">
+      <c r="A35" s="163" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="131"/>
-      <c r="C35" s="131"/>
-      <c r="D35" s="131"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="131"/>
-      <c r="G35" s="131"/>
-      <c r="H35" s="131"/>
-      <c r="I35" s="131"/>
-      <c r="J35" s="132"/>
+      <c r="B35" s="172"/>
+      <c r="C35" s="172"/>
+      <c r="D35" s="172"/>
+      <c r="E35" s="172"/>
+      <c r="F35" s="172"/>
+      <c r="G35" s="172"/>
+      <c r="H35" s="172"/>
+      <c r="I35" s="172"/>
+      <c r="J35" s="173"/>
     </row>
     <row r="36" spans="1:12" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="59" t="s">
@@ -10506,16 +10540,16 @@
       <c r="B36" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="124" t="s">
+      <c r="C36" s="166" t="s">
         <v>136</v>
       </c>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="125"/>
-      <c r="J36" s="126"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="167"/>
+      <c r="F36" s="167"/>
+      <c r="G36" s="167"/>
+      <c r="H36" s="167"/>
+      <c r="I36" s="167"/>
+      <c r="J36" s="168"/>
     </row>
     <row r="37" spans="1:12" s="56" customFormat="1">
       <c r="A37" s="59">
@@ -10524,16 +10558,16 @@
       <c r="B37" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="127" t="s">
+      <c r="C37" s="174" t="s">
         <v>134</v>
       </c>
-      <c r="D37" s="128"/>
-      <c r="E37" s="128"/>
-      <c r="F37" s="128"/>
-      <c r="G37" s="128"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="128"/>
-      <c r="J37" s="129"/>
+      <c r="D37" s="170"/>
+      <c r="E37" s="170"/>
+      <c r="F37" s="170"/>
+      <c r="G37" s="170"/>
+      <c r="H37" s="170"/>
+      <c r="I37" s="170"/>
+      <c r="J37" s="171"/>
     </row>
     <row r="38" spans="1:12" s="56" customFormat="1">
       <c r="A38" s="59">
@@ -10542,16 +10576,16 @@
       <c r="B38" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="C38" s="127" t="s">
+      <c r="C38" s="174" t="s">
         <v>134</v>
       </c>
-      <c r="D38" s="128"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="128"/>
-      <c r="J38" s="129"/>
+      <c r="D38" s="170"/>
+      <c r="E38" s="170"/>
+      <c r="F38" s="170"/>
+      <c r="G38" s="170"/>
+      <c r="H38" s="170"/>
+      <c r="I38" s="170"/>
+      <c r="J38" s="171"/>
     </row>
     <row r="39" spans="1:12" s="56" customFormat="1">
       <c r="A39" s="59">
@@ -10560,16 +10594,16 @@
       <c r="B39" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="C39" s="127" t="s">
+      <c r="C39" s="174" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="128"/>
-      <c r="E39" s="128"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="128"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="128"/>
-      <c r="J39" s="129"/>
+      <c r="D39" s="170"/>
+      <c r="E39" s="170"/>
+      <c r="F39" s="170"/>
+      <c r="G39" s="170"/>
+      <c r="H39" s="170"/>
+      <c r="I39" s="170"/>
+      <c r="J39" s="171"/>
     </row>
     <row r="40" spans="1:12" s="56" customFormat="1">
       <c r="A40" s="59">
@@ -10578,42 +10612,42 @@
       <c r="B40" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="127" t="s">
+      <c r="C40" s="174" t="s">
         <v>134</v>
       </c>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="128"/>
-      <c r="J40" s="129"/>
+      <c r="D40" s="170"/>
+      <c r="E40" s="170"/>
+      <c r="F40" s="170"/>
+      <c r="G40" s="170"/>
+      <c r="H40" s="170"/>
+      <c r="I40" s="170"/>
+      <c r="J40" s="171"/>
     </row>
     <row r="41" spans="1:12" s="56" customFormat="1">
-      <c r="A41" s="121"/>
-      <c r="B41" s="122"/>
-      <c r="C41" s="122"/>
-      <c r="D41" s="122"/>
-      <c r="E41" s="122"/>
-      <c r="F41" s="122"/>
-      <c r="G41" s="122"/>
-      <c r="H41" s="122"/>
-      <c r="I41" s="122"/>
-      <c r="J41" s="123"/>
+      <c r="A41" s="127"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="136"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="136"/>
+      <c r="H41" s="136"/>
+      <c r="I41" s="136"/>
+      <c r="J41" s="128"/>
     </row>
     <row r="42" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="116" t="s">
+      <c r="A42" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="117"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="117"/>
-      <c r="E42" s="117"/>
-      <c r="F42" s="117"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="117"/>
-      <c r="I42" s="117"/>
-      <c r="J42" s="118"/>
+      <c r="B42" s="181"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="181"/>
+      <c r="E42" s="181"/>
+      <c r="F42" s="181"/>
+      <c r="G42" s="181"/>
+      <c r="H42" s="181"/>
+      <c r="I42" s="181"/>
+      <c r="J42" s="182"/>
     </row>
     <row r="43" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="60" t="s">
@@ -10628,14 +10662,14 @@
       <c r="D43" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="119" t="s">
+      <c r="E43" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="120"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="120"/>
-      <c r="J43" s="120"/>
+      <c r="F43" s="184"/>
+      <c r="G43" s="184"/>
+      <c r="H43" s="184"/>
+      <c r="I43" s="184"/>
+      <c r="J43" s="184"/>
       <c r="K43" s="56"/>
       <c r="L43" s="56"/>
     </row>
@@ -10648,40 +10682,40 @@
       </c>
       <c r="C44" s="64"/>
       <c r="D44" s="65"/>
-      <c r="E44" s="168" t="s">
+      <c r="E44" s="129" t="s">
         <v>144</v>
       </c>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="110"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="96"/>
     </row>
     <row r="45" spans="1:12" s="56" customFormat="1">
       <c r="A45" s="66"/>
-      <c r="B45" s="122"/>
-      <c r="C45" s="122"/>
-      <c r="D45" s="122"/>
-      <c r="E45" s="122"/>
-      <c r="F45" s="122"/>
-      <c r="G45" s="122"/>
-      <c r="H45" s="122"/>
-      <c r="I45" s="122"/>
-      <c r="J45" s="123"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="136"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
+      <c r="J45" s="128"/>
     </row>
     <row r="46" spans="1:12" s="56" customFormat="1">
-      <c r="A46" s="148" t="s">
+      <c r="A46" s="145" t="s">
         <v>160</v>
       </c>
-      <c r="B46" s="149"/>
-      <c r="C46" s="149"/>
-      <c r="D46" s="149"/>
-      <c r="E46" s="149"/>
-      <c r="F46" s="149"/>
-      <c r="G46" s="149"/>
-      <c r="H46" s="149"/>
-      <c r="I46" s="149"/>
-      <c r="J46" s="150"/>
+      <c r="B46" s="146"/>
+      <c r="C46" s="146"/>
+      <c r="D46" s="146"/>
+      <c r="E46" s="146"/>
+      <c r="F46" s="146"/>
+      <c r="G46" s="146"/>
+      <c r="H46" s="146"/>
+      <c r="I46" s="146"/>
+      <c r="J46" s="147"/>
     </row>
     <row r="47" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="59">
@@ -10694,52 +10728,52 @@
         <v>19</v>
       </c>
       <c r="D47" s="69"/>
-      <c r="E47" s="168" t="s">
+      <c r="E47" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="F47" s="110"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="110"/>
-      <c r="I47" s="110"/>
-      <c r="J47" s="110"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="96"/>
     </row>
     <row r="48" spans="1:12" s="58" customFormat="1" ht="39" customHeight="1">
       <c r="A48" s="70">
         <v>2</v>
       </c>
-      <c r="B48" s="175" t="s">
+      <c r="B48" s="140" t="s">
         <v>139</v>
       </c>
       <c r="C48" s="84" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="85"/>
-      <c r="E48" s="145" t="s">
+      <c r="E48" s="137" t="s">
         <v>197</v>
       </c>
-      <c r="F48" s="146"/>
-      <c r="G48" s="146"/>
-      <c r="H48" s="146"/>
-      <c r="I48" s="146"/>
-      <c r="J48" s="147"/>
+      <c r="F48" s="138"/>
+      <c r="G48" s="138"/>
+      <c r="H48" s="138"/>
+      <c r="I48" s="138"/>
+      <c r="J48" s="139"/>
     </row>
     <row r="49" spans="1:10" s="58" customFormat="1" ht="66" customHeight="1">
       <c r="A49" s="70"/>
-      <c r="B49" s="176"/>
+      <c r="B49" s="141"/>
       <c r="C49" s="84" t="s">
         <v>199</v>
       </c>
       <c r="D49" s="85" t="s">
         <v>198</v>
       </c>
-      <c r="E49" s="145" t="s">
+      <c r="E49" s="137" t="s">
         <v>233</v>
       </c>
-      <c r="F49" s="146"/>
-      <c r="G49" s="146"/>
-      <c r="H49" s="146"/>
-      <c r="I49" s="146"/>
-      <c r="J49" s="147"/>
+      <c r="F49" s="138"/>
+      <c r="G49" s="138"/>
+      <c r="H49" s="138"/>
+      <c r="I49" s="138"/>
+      <c r="J49" s="139"/>
     </row>
     <row r="50" spans="1:10" s="56" customFormat="1">
       <c r="A50" s="73">
@@ -10752,40 +10786,40 @@
         <v>19</v>
       </c>
       <c r="D50" s="74"/>
-      <c r="E50" s="165" t="s">
+      <c r="E50" s="124" t="s">
         <v>161</v>
       </c>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="102"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="101"/>
     </row>
     <row r="51" spans="1:10" s="56" customFormat="1">
       <c r="A51" s="75"/>
-      <c r="B51" s="122"/>
-      <c r="C51" s="122"/>
-      <c r="D51" s="122"/>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122"/>
-      <c r="G51" s="122"/>
-      <c r="H51" s="122"/>
-      <c r="I51" s="122"/>
-      <c r="J51" s="123"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="136"/>
+      <c r="D51" s="136"/>
+      <c r="E51" s="136"/>
+      <c r="F51" s="136"/>
+      <c r="G51" s="136"/>
+      <c r="H51" s="136"/>
+      <c r="I51" s="136"/>
+      <c r="J51" s="128"/>
     </row>
     <row r="52" spans="1:10" s="56" customFormat="1">
-      <c r="A52" s="169" t="s">
+      <c r="A52" s="130" t="s">
         <v>194</v>
       </c>
-      <c r="B52" s="170"/>
-      <c r="C52" s="170"/>
-      <c r="D52" s="170"/>
-      <c r="E52" s="170"/>
-      <c r="F52" s="170"/>
-      <c r="G52" s="170"/>
-      <c r="H52" s="170"/>
-      <c r="I52" s="170"/>
-      <c r="J52" s="171"/>
+      <c r="B52" s="131"/>
+      <c r="C52" s="131"/>
+      <c r="D52" s="131"/>
+      <c r="E52" s="131"/>
+      <c r="F52" s="131"/>
+      <c r="G52" s="131"/>
+      <c r="H52" s="131"/>
+      <c r="I52" s="131"/>
+      <c r="J52" s="132"/>
     </row>
     <row r="53" spans="1:10" s="56" customFormat="1">
       <c r="A53" s="59">
@@ -10798,14 +10832,14 @@
         <v>19</v>
       </c>
       <c r="D53" s="69"/>
-      <c r="E53" s="168" t="s">
+      <c r="E53" s="129" t="s">
         <v>141</v>
       </c>
-      <c r="F53" s="110"/>
-      <c r="G53" s="110"/>
-      <c r="H53" s="110"/>
-      <c r="I53" s="110"/>
-      <c r="J53" s="110"/>
+      <c r="F53" s="96"/>
+      <c r="G53" s="96"/>
+      <c r="H53" s="96"/>
+      <c r="I53" s="96"/>
+      <c r="J53" s="96"/>
     </row>
     <row r="54" spans="1:10" s="56" customFormat="1">
       <c r="A54" s="59">
@@ -10818,14 +10852,14 @@
         <v>19</v>
       </c>
       <c r="D54" s="72"/>
-      <c r="E54" s="172" t="s">
+      <c r="E54" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="F54" s="173"/>
-      <c r="G54" s="173"/>
-      <c r="H54" s="173"/>
-      <c r="I54" s="173"/>
-      <c r="J54" s="174"/>
+      <c r="F54" s="134"/>
+      <c r="G54" s="134"/>
+      <c r="H54" s="134"/>
+      <c r="I54" s="134"/>
+      <c r="J54" s="135"/>
     </row>
     <row r="55" spans="1:10" s="56" customFormat="1">
       <c r="A55" s="59">
@@ -10838,14 +10872,14 @@
         <v>19</v>
       </c>
       <c r="D55" s="72"/>
-      <c r="E55" s="172" t="s">
+      <c r="E55" s="133" t="s">
         <v>143</v>
       </c>
-      <c r="F55" s="173"/>
-      <c r="G55" s="173"/>
-      <c r="H55" s="173"/>
-      <c r="I55" s="173"/>
-      <c r="J55" s="174"/>
+      <c r="F55" s="134"/>
+      <c r="G55" s="134"/>
+      <c r="H55" s="134"/>
+      <c r="I55" s="134"/>
+      <c r="J55" s="135"/>
     </row>
     <row r="56" spans="1:10" s="56" customFormat="1" ht="17.25" customHeight="1">
       <c r="A56" s="59">
@@ -10858,14 +10892,14 @@
         <v>19</v>
       </c>
       <c r="D56" s="72"/>
-      <c r="E56" s="172" t="s">
+      <c r="E56" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="F56" s="173"/>
-      <c r="G56" s="173"/>
-      <c r="H56" s="173"/>
-      <c r="I56" s="173"/>
-      <c r="J56" s="174"/>
+      <c r="F56" s="134"/>
+      <c r="G56" s="134"/>
+      <c r="H56" s="134"/>
+      <c r="I56" s="134"/>
+      <c r="J56" s="135"/>
     </row>
     <row r="57" spans="1:10" s="56" customFormat="1">
       <c r="A57" s="59">
@@ -10878,118 +10912,118 @@
         <v>19</v>
       </c>
       <c r="D57" s="72"/>
-      <c r="E57" s="172" t="s">
+      <c r="E57" s="133" t="s">
         <v>186</v>
       </c>
-      <c r="F57" s="173"/>
-      <c r="G57" s="173"/>
-      <c r="H57" s="173"/>
-      <c r="I57" s="173"/>
-      <c r="J57" s="174"/>
+      <c r="F57" s="134"/>
+      <c r="G57" s="134"/>
+      <c r="H57" s="134"/>
+      <c r="I57" s="134"/>
+      <c r="J57" s="135"/>
     </row>
     <row r="58" spans="1:10" s="56" customFormat="1">
       <c r="A58" s="76"/>
-      <c r="B58" s="122"/>
-      <c r="C58" s="122"/>
-      <c r="D58" s="122"/>
-      <c r="E58" s="122"/>
-      <c r="F58" s="122"/>
-      <c r="G58" s="122"/>
-      <c r="H58" s="122"/>
-      <c r="I58" s="122"/>
-      <c r="J58" s="123"/>
+      <c r="B58" s="136"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="136"/>
+      <c r="E58" s="136"/>
+      <c r="F58" s="136"/>
+      <c r="G58" s="136"/>
+      <c r="H58" s="136"/>
+      <c r="I58" s="136"/>
+      <c r="J58" s="128"/>
     </row>
     <row r="59" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="182" t="s">
+      <c r="A59" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="183"/>
-      <c r="C59" s="183"/>
-      <c r="D59" s="183"/>
-      <c r="E59" s="183"/>
-      <c r="F59" s="183"/>
-      <c r="G59" s="183"/>
-      <c r="H59" s="183"/>
-      <c r="I59" s="183"/>
-      <c r="J59" s="184"/>
+      <c r="B59" s="122"/>
+      <c r="C59" s="122"/>
+      <c r="D59" s="122"/>
+      <c r="E59" s="122"/>
+      <c r="F59" s="122"/>
+      <c r="G59" s="122"/>
+      <c r="H59" s="122"/>
+      <c r="I59" s="122"/>
+      <c r="J59" s="123"/>
     </row>
     <row r="60" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="180" t="s">
+      <c r="B60" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="181"/>
-      <c r="D60" s="165" t="s">
+      <c r="C60" s="120"/>
+      <c r="D60" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="101"/>
-      <c r="F60" s="101"/>
-      <c r="G60" s="101"/>
-      <c r="H60" s="101"/>
-      <c r="I60" s="101"/>
-      <c r="J60" s="102"/>
+      <c r="E60" s="100"/>
+      <c r="F60" s="100"/>
+      <c r="G60" s="100"/>
+      <c r="H60" s="100"/>
+      <c r="I60" s="100"/>
+      <c r="J60" s="101"/>
     </row>
     <row r="61" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="177"/>
-      <c r="B61" s="178"/>
-      <c r="C61" s="178"/>
-      <c r="D61" s="178"/>
-      <c r="E61" s="178"/>
-      <c r="F61" s="178"/>
-      <c r="G61" s="178"/>
-      <c r="H61" s="178"/>
-      <c r="I61" s="178"/>
-      <c r="J61" s="179"/>
+      <c r="A61" s="116"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="117"/>
+      <c r="E61" s="117"/>
+      <c r="F61" s="117"/>
+      <c r="G61" s="117"/>
+      <c r="H61" s="117"/>
+      <c r="I61" s="117"/>
+      <c r="J61" s="118"/>
     </row>
     <row r="62" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="73"/>
-      <c r="B62" s="121"/>
-      <c r="C62" s="123"/>
-      <c r="D62" s="165"/>
-      <c r="E62" s="166"/>
-      <c r="F62" s="166"/>
-      <c r="G62" s="166"/>
-      <c r="H62" s="166"/>
-      <c r="I62" s="166"/>
-      <c r="J62" s="167"/>
+      <c r="B62" s="127"/>
+      <c r="C62" s="128"/>
+      <c r="D62" s="124"/>
+      <c r="E62" s="125"/>
+      <c r="F62" s="125"/>
+      <c r="G62" s="125"/>
+      <c r="H62" s="125"/>
+      <c r="I62" s="125"/>
+      <c r="J62" s="126"/>
     </row>
     <row r="63" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="73"/>
-      <c r="B63" s="121"/>
-      <c r="C63" s="123"/>
-      <c r="D63" s="165"/>
-      <c r="E63" s="166"/>
-      <c r="F63" s="166"/>
-      <c r="G63" s="166"/>
-      <c r="H63" s="166"/>
-      <c r="I63" s="166"/>
-      <c r="J63" s="167"/>
+      <c r="B63" s="127"/>
+      <c r="C63" s="128"/>
+      <c r="D63" s="124"/>
+      <c r="E63" s="125"/>
+      <c r="F63" s="125"/>
+      <c r="G63" s="125"/>
+      <c r="H63" s="125"/>
+      <c r="I63" s="125"/>
+      <c r="J63" s="126"/>
     </row>
     <row r="64" spans="1:10" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A64" s="177"/>
-      <c r="B64" s="178"/>
-      <c r="C64" s="178"/>
-      <c r="D64" s="178"/>
-      <c r="E64" s="178"/>
-      <c r="F64" s="178"/>
-      <c r="G64" s="178"/>
-      <c r="H64" s="178"/>
-      <c r="I64" s="178"/>
-      <c r="J64" s="179"/>
+      <c r="A64" s="116"/>
+      <c r="B64" s="117"/>
+      <c r="C64" s="117"/>
+      <c r="D64" s="117"/>
+      <c r="E64" s="117"/>
+      <c r="F64" s="117"/>
+      <c r="G64" s="117"/>
+      <c r="H64" s="117"/>
+      <c r="I64" s="117"/>
+      <c r="J64" s="118"/>
     </row>
     <row r="65" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="73"/>
-      <c r="B65" s="121"/>
-      <c r="C65" s="123"/>
-      <c r="D65" s="165"/>
-      <c r="E65" s="166"/>
-      <c r="F65" s="166"/>
-      <c r="G65" s="166"/>
-      <c r="H65" s="166"/>
-      <c r="I65" s="166"/>
-      <c r="J65" s="167"/>
+      <c r="B65" s="127"/>
+      <c r="C65" s="128"/>
+      <c r="D65" s="124"/>
+      <c r="E65" s="125"/>
+      <c r="F65" s="125"/>
+      <c r="G65" s="125"/>
+      <c r="H65" s="125"/>
+      <c r="I65" s="125"/>
+      <c r="J65" s="126"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="77" t="s">
@@ -11012,14 +11046,14 @@
       <c r="B67" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="121"/>
-      <c r="D67" s="101"/>
-      <c r="E67" s="101"/>
-      <c r="F67" s="101"/>
-      <c r="G67" s="101"/>
-      <c r="H67" s="101"/>
-      <c r="I67" s="101"/>
-      <c r="J67" s="102"/>
+      <c r="C67" s="127"/>
+      <c r="D67" s="100"/>
+      <c r="E67" s="100"/>
+      <c r="F67" s="100"/>
+      <c r="G67" s="100"/>
+      <c r="H67" s="100"/>
+      <c r="I67" s="100"/>
+      <c r="J67" s="101"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="73">
@@ -11039,29 +11073,32 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="D65:J65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="D63:J63"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
     <mergeCell ref="C68:J68"/>
     <mergeCell ref="C67:J67"/>
     <mergeCell ref="K1:K3"/>
@@ -11078,32 +11115,29 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="D62:J62"/>
     <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B51:J51"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="D65:J65"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="D63:J63"/>
+    <mergeCell ref="B63:C63"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -11727,7 +11761,7 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="151" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="98"/>
@@ -11741,57 +11775,57 @@
       <c r="J5" s="99"/>
     </row>
     <row r="6" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="113"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="115"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:17" s="56" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="155"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="158"/>
+      <c r="A7" s="152"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="155"/>
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:17" s="56" customFormat="1">
-      <c r="A8" s="155"/>
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="158"/>
+      <c r="A8" s="152"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="155"/>
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:17" s="56" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="159"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="161"/>
+      <c r="A9" s="156"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="158"/>
     </row>
     <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="154" t="s">
+      <c r="A10" s="151" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="98"/>
@@ -11805,21 +11839,21 @@
       <c r="J10" s="99"/>
     </row>
     <row r="11" spans="1:17" s="58" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="162" t="s">
+      <c r="A11" s="159" t="s">
         <v>192</v>
       </c>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101"/>
     </row>
     <row r="12" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="154" t="s">
+      <c r="A12" s="151" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="98"/>
@@ -11833,21 +11867,21 @@
       <c r="J12" s="99"/>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="162" t="s">
+      <c r="A13" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="101"/>
     </row>
     <row r="14" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="154" t="s">
+      <c r="A14" s="151" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="98"/>
@@ -11861,18 +11895,18 @@
       <c r="J14" s="99"/>
     </row>
     <row r="15" spans="1:17" s="56" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="163" t="s">
         <v>193</v>
       </c>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="140"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="165"/>
     </row>
     <row r="16" spans="1:17" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="59" t="s">
@@ -11881,16 +11915,16 @@
       <c r="B16" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="124" t="s">
+      <c r="C16" s="166" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="126"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="168"/>
     </row>
     <row r="17" spans="1:10" s="56" customFormat="1" ht="53.25" customHeight="1">
       <c r="A17" s="59">
@@ -11899,16 +11933,16 @@
       <c r="B17" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="141" t="s">
+      <c r="C17" s="169" t="s">
         <v>241</v>
       </c>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="129"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="171"/>
     </row>
     <row r="18" spans="1:10" s="56" customFormat="1" ht="57.75" customHeight="1">
       <c r="A18" s="59">
@@ -11917,16 +11951,16 @@
       <c r="B18" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="141" t="s">
+      <c r="C18" s="169" t="s">
         <v>239</v>
       </c>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="129"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="171"/>
     </row>
     <row r="19" spans="1:10" s="56" customFormat="1">
       <c r="A19" s="59">
@@ -11935,16 +11969,16 @@
       <c r="B19" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="174" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="171"/>
     </row>
     <row r="20" spans="1:10" s="56" customFormat="1">
       <c r="A20" s="59">
@@ -11953,16 +11987,16 @@
       <c r="B20" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="127" t="s">
+      <c r="C20" s="174" t="s">
         <v>155</v>
       </c>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="129"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="171"/>
     </row>
     <row r="21" spans="1:10" s="56" customFormat="1">
       <c r="A21" s="59">
@@ -11971,56 +12005,56 @@
       <c r="B21" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="127" t="s">
+      <c r="C21" s="174" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="129"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="171"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1">
-      <c r="A22" s="151"/>
-      <c r="B22" s="152"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="A22" s="148"/>
+      <c r="B22" s="149"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="149"/>
+      <c r="J22" s="150"/>
     </row>
     <row r="23" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="116" t="s">
+      <c r="A23" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="163"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="164"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="162"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1" ht="36" customHeight="1">
-      <c r="A24" s="130" t="s">
+      <c r="A24" s="163" t="s">
         <v>193</v>
       </c>
-      <c r="B24" s="139"/>
-      <c r="C24" s="139"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="139"/>
-      <c r="J24" s="140"/>
+      <c r="B24" s="164"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="165"/>
     </row>
     <row r="25" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="59" t="s">
@@ -12029,16 +12063,16 @@
       <c r="B25" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="124" t="s">
+      <c r="C25" s="166" t="s">
         <v>137</v>
       </c>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="126"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="167"/>
+      <c r="H25" s="167"/>
+      <c r="I25" s="167"/>
+      <c r="J25" s="168"/>
     </row>
     <row r="26" spans="1:10" s="56" customFormat="1" ht="33" customHeight="1">
       <c r="A26" s="59">
@@ -12047,16 +12081,16 @@
       <c r="B26" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="141" t="s">
+      <c r="C26" s="169" t="s">
         <v>243</v>
       </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="129"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="171"/>
     </row>
     <row r="27" spans="1:10" s="56" customFormat="1" ht="32.25" customHeight="1">
       <c r="A27" s="59">
@@ -12065,16 +12099,16 @@
       <c r="B27" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="141" t="s">
+      <c r="C27" s="169" t="s">
         <v>240</v>
       </c>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="129"/>
+      <c r="D27" s="170"/>
+      <c r="E27" s="170"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="171"/>
     </row>
     <row r="28" spans="1:10" s="56" customFormat="1">
       <c r="A28" s="59">
@@ -12083,16 +12117,16 @@
       <c r="B28" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="C28" s="127" t="s">
+      <c r="C28" s="174" t="s">
         <v>156</v>
       </c>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="129"/>
+      <c r="D28" s="170"/>
+      <c r="E28" s="170"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="171"/>
     </row>
     <row r="29" spans="1:10" s="56" customFormat="1">
       <c r="A29" s="59">
@@ -12101,16 +12135,16 @@
       <c r="B29" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="127" t="s">
+      <c r="C29" s="174" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
-      <c r="I29" s="128"/>
-      <c r="J29" s="129"/>
+      <c r="D29" s="170"/>
+      <c r="E29" s="170"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="170"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="171"/>
     </row>
     <row r="30" spans="1:10" s="56" customFormat="1">
       <c r="A30" s="59">
@@ -12119,42 +12153,42 @@
       <c r="B30" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="127" t="s">
+      <c r="C30" s="174" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="129"/>
+      <c r="D30" s="170"/>
+      <c r="E30" s="170"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="170"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="171"/>
     </row>
     <row r="31" spans="1:10" s="56" customFormat="1">
-      <c r="A31" s="151"/>
-      <c r="B31" s="190"/>
-      <c r="C31" s="190"/>
-      <c r="D31" s="190"/>
-      <c r="E31" s="190"/>
-      <c r="F31" s="190"/>
-      <c r="G31" s="190"/>
-      <c r="H31" s="190"/>
-      <c r="I31" s="190"/>
-      <c r="J31" s="191"/>
+      <c r="A31" s="148"/>
+      <c r="B31" s="188"/>
+      <c r="C31" s="188"/>
+      <c r="D31" s="188"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="188"/>
+      <c r="H31" s="188"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="189"/>
     </row>
     <row r="32" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="116" t="s">
+      <c r="A32" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="163"/>
-      <c r="C32" s="163"/>
-      <c r="D32" s="163"/>
-      <c r="E32" s="163"/>
-      <c r="F32" s="163"/>
-      <c r="G32" s="163"/>
-      <c r="H32" s="163"/>
-      <c r="I32" s="163"/>
-      <c r="J32" s="164"/>
+      <c r="B32" s="161"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="161"/>
+      <c r="I32" s="161"/>
+      <c r="J32" s="162"/>
     </row>
     <row r="33" spans="1:12" s="82" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="60" t="s">
@@ -12169,14 +12203,14 @@
       <c r="D33" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="119" t="s">
+      <c r="E33" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="120"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="120"/>
-      <c r="I33" s="120"/>
-      <c r="J33" s="120"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="184"/>
       <c r="K33" s="56"/>
       <c r="L33" s="56"/>
     </row>
@@ -12189,26 +12223,26 @@
       </c>
       <c r="C34" s="64"/>
       <c r="D34" s="65"/>
-      <c r="E34" s="168"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="110"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
     </row>
     <row r="35" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="148" t="s">
+      <c r="A35" s="145" t="s">
         <v>119</v>
       </c>
-      <c r="B35" s="149"/>
-      <c r="C35" s="149"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="150"/>
+      <c r="B35" s="146"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="147"/>
       <c r="K35" s="56"/>
       <c r="L35" s="56"/>
     </row>
@@ -12223,14 +12257,14 @@
         <v>16</v>
       </c>
       <c r="D36" s="69"/>
-      <c r="E36" s="168" t="s">
+      <c r="E36" s="129" t="s">
         <v>183</v>
       </c>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="110"/>
-      <c r="J36" s="110"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="96"/>
     </row>
     <row r="37" spans="1:12" s="56" customFormat="1">
       <c r="A37" s="70">
@@ -12243,14 +12277,14 @@
         <v>123</v>
       </c>
       <c r="D37" s="86"/>
-      <c r="E37" s="145" t="s">
+      <c r="E37" s="137" t="s">
         <v>220</v>
       </c>
-      <c r="F37" s="146"/>
-      <c r="G37" s="146"/>
-      <c r="H37" s="146"/>
-      <c r="I37" s="146"/>
-      <c r="J37" s="147"/>
+      <c r="F37" s="138"/>
+      <c r="G37" s="138"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="138"/>
+      <c r="J37" s="139"/>
     </row>
     <row r="38" spans="1:12" s="56" customFormat="1" ht="92.25" customHeight="1">
       <c r="A38" s="70"/>
@@ -12261,14 +12295,14 @@
       <c r="D38" s="87" t="s">
         <v>200</v>
       </c>
-      <c r="E38" s="192" t="s">
+      <c r="E38" s="190" t="s">
         <v>221</v>
       </c>
-      <c r="F38" s="193"/>
-      <c r="G38" s="193"/>
-      <c r="H38" s="193"/>
-      <c r="I38" s="193"/>
-      <c r="J38" s="193"/>
+      <c r="F38" s="191"/>
+      <c r="G38" s="191"/>
+      <c r="H38" s="191"/>
+      <c r="I38" s="191"/>
+      <c r="J38" s="191"/>
     </row>
     <row r="39" spans="1:12" s="56" customFormat="1" ht="37.5" customHeight="1">
       <c r="A39" s="73">
@@ -12281,106 +12315,106 @@
         <v>124</v>
       </c>
       <c r="D39" s="74"/>
-      <c r="E39" s="165" t="s">
+      <c r="E39" s="124" t="s">
         <v>92</v>
       </c>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="102"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="101"/>
     </row>
     <row r="40" spans="1:12" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="182" t="s">
+      <c r="A40" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="183"/>
-      <c r="C40" s="183"/>
-      <c r="D40" s="183"/>
-      <c r="E40" s="183"/>
-      <c r="F40" s="183"/>
-      <c r="G40" s="183"/>
-      <c r="H40" s="183"/>
-      <c r="I40" s="183"/>
-      <c r="J40" s="184"/>
+      <c r="B40" s="122"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="122"/>
+      <c r="E40" s="122"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="122"/>
+      <c r="I40" s="122"/>
+      <c r="J40" s="123"/>
     </row>
     <row r="41" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="180" t="s">
+      <c r="B41" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="181"/>
-      <c r="D41" s="165" t="s">
+      <c r="C41" s="120"/>
+      <c r="D41" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
-      <c r="H41" s="101"/>
-      <c r="I41" s="101"/>
-      <c r="J41" s="102"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="101"/>
     </row>
     <row r="42" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="177"/>
-      <c r="B42" s="188"/>
-      <c r="C42" s="188"/>
-      <c r="D42" s="188"/>
-      <c r="E42" s="188"/>
-      <c r="F42" s="188"/>
-      <c r="G42" s="188"/>
-      <c r="H42" s="188"/>
-      <c r="I42" s="188"/>
-      <c r="J42" s="189"/>
+      <c r="A42" s="116"/>
+      <c r="B42" s="192"/>
+      <c r="C42" s="192"/>
+      <c r="D42" s="192"/>
+      <c r="E42" s="192"/>
+      <c r="F42" s="192"/>
+      <c r="G42" s="192"/>
+      <c r="H42" s="192"/>
+      <c r="I42" s="192"/>
+      <c r="J42" s="193"/>
     </row>
     <row r="43" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="73"/>
-      <c r="B43" s="121"/>
-      <c r="C43" s="123"/>
-      <c r="D43" s="165"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="101"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="101"/>
-      <c r="J43" s="102"/>
+      <c r="B43" s="127"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="101"/>
     </row>
     <row r="44" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="73"/>
-      <c r="B44" s="121"/>
-      <c r="C44" s="123"/>
-      <c r="D44" s="165"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="101"/>
-      <c r="J44" s="102"/>
+      <c r="B44" s="127"/>
+      <c r="C44" s="128"/>
+      <c r="D44" s="124"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="101"/>
     </row>
     <row r="45" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="177"/>
-      <c r="B45" s="188"/>
-      <c r="C45" s="188"/>
-      <c r="D45" s="188"/>
-      <c r="E45" s="188"/>
-      <c r="F45" s="188"/>
-      <c r="G45" s="188"/>
-      <c r="H45" s="188"/>
-      <c r="I45" s="188"/>
-      <c r="J45" s="189"/>
+      <c r="A45" s="116"/>
+      <c r="B45" s="192"/>
+      <c r="C45" s="192"/>
+      <c r="D45" s="192"/>
+      <c r="E45" s="192"/>
+      <c r="F45" s="192"/>
+      <c r="G45" s="192"/>
+      <c r="H45" s="192"/>
+      <c r="I45" s="192"/>
+      <c r="J45" s="193"/>
     </row>
     <row r="46" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="73"/>
-      <c r="B46" s="121"/>
-      <c r="C46" s="123"/>
-      <c r="D46" s="165"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="101"/>
-      <c r="J46" s="102"/>
+      <c r="B46" s="127"/>
+      <c r="C46" s="128"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="100"/>
+      <c r="J46" s="101"/>
     </row>
     <row r="47" spans="1:12" s="56" customFormat="1" ht="17.25" customHeight="1">
       <c r="A47" s="77" t="s">
@@ -12403,14 +12437,14 @@
       <c r="B48" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="121"/>
-      <c r="D48" s="101"/>
-      <c r="E48" s="101"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="101"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="101"/>
-      <c r="J48" s="102"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="100"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="100"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="100"/>
+      <c r="I48" s="100"/>
+      <c r="J48" s="101"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="73">
@@ -12430,12 +12464,30 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="A35:J35"/>
     <mergeCell ref="E39:J39"/>
     <mergeCell ref="E33:J33"/>
     <mergeCell ref="A14:J14"/>
@@ -12452,30 +12504,12 @@
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="E38:J38"/>
     <mergeCell ref="C29:J29"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -12990,7 +13024,7 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="151" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="98"/>
@@ -13004,57 +13038,57 @@
       <c r="J5" s="99"/>
     </row>
     <row r="6" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="113"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="115"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:17" s="56" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="155"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="158"/>
+      <c r="A7" s="152"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="155"/>
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:17" s="56" customFormat="1">
-      <c r="A8" s="155"/>
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="158"/>
+      <c r="A8" s="152"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="155"/>
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:17" s="56" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="159"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="161"/>
+      <c r="A9" s="156"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="158"/>
     </row>
     <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="154" t="s">
+      <c r="A10" s="151" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="98"/>
@@ -13068,21 +13102,21 @@
       <c r="J10" s="99"/>
     </row>
     <row r="11" spans="1:17" s="58" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="162" t="s">
+      <c r="A11" s="159" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101"/>
     </row>
     <row r="12" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="154" t="s">
+      <c r="A12" s="151" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="98"/>
@@ -13096,21 +13130,21 @@
       <c r="J12" s="99"/>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="162" t="s">
+      <c r="A13" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="101"/>
     </row>
     <row r="14" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="154" t="s">
+      <c r="A14" s="151" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="98"/>
@@ -13124,18 +13158,18 @@
       <c r="J14" s="99"/>
     </row>
     <row r="15" spans="1:17" s="56" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="163" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="140"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="165"/>
     </row>
     <row r="16" spans="1:17" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="59" t="s">
@@ -13144,16 +13178,16 @@
       <c r="B16" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="124" t="s">
+      <c r="C16" s="166" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="126"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="168"/>
     </row>
     <row r="17" spans="1:10" s="56" customFormat="1" ht="71.25" customHeight="1">
       <c r="A17" s="59">
@@ -13162,16 +13196,16 @@
       <c r="B17" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="141" t="s">
+      <c r="C17" s="169" t="s">
         <v>242</v>
       </c>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="129"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="171"/>
     </row>
     <row r="18" spans="1:10" s="56" customFormat="1" ht="63.75" customHeight="1">
       <c r="A18" s="59">
@@ -13180,16 +13214,16 @@
       <c r="B18" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="141" t="s">
+      <c r="C18" s="169" t="s">
         <v>242</v>
       </c>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="129"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="171"/>
     </row>
     <row r="19" spans="1:10" s="56" customFormat="1">
       <c r="A19" s="59">
@@ -13198,16 +13232,16 @@
       <c r="B19" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="174" t="s">
         <v>156</v>
       </c>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="171"/>
     </row>
     <row r="20" spans="1:10" s="56" customFormat="1">
       <c r="A20" s="59">
@@ -13216,16 +13250,16 @@
       <c r="B20" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="127" t="s">
+      <c r="C20" s="174" t="s">
         <v>155</v>
       </c>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="129"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="171"/>
     </row>
     <row r="21" spans="1:10" s="56" customFormat="1">
       <c r="A21" s="59">
@@ -13234,84 +13268,84 @@
       <c r="B21" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="127" t="s">
+      <c r="C21" s="174" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="129"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="171"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1">
-      <c r="A22" s="121"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="123"/>
+      <c r="A22" s="127"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="128"/>
     </row>
     <row r="23" spans="1:10" s="56" customFormat="1">
-      <c r="A23" s="130" t="s">
+      <c r="A23" s="163" t="s">
         <v>189</v>
       </c>
-      <c r="B23" s="139"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="140"/>
+      <c r="B23" s="164"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="165"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A24" s="198" t="s">
+      <c r="A24" s="194" t="s">
         <v>166</v>
       </c>
-      <c r="B24" s="152"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="153"/>
+      <c r="B24" s="149"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="149"/>
+      <c r="J24" s="150"/>
     </row>
     <row r="25" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="116" t="s">
+      <c r="A25" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="163"/>
-      <c r="C25" s="163"/>
-      <c r="D25" s="163"/>
-      <c r="E25" s="163"/>
-      <c r="F25" s="163"/>
-      <c r="G25" s="163"/>
-      <c r="H25" s="163"/>
-      <c r="I25" s="163"/>
-      <c r="J25" s="164"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="161"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="162"/>
     </row>
     <row r="26" spans="1:10" s="56" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A26" s="130" t="s">
+      <c r="A26" s="163" t="s">
         <v>196</v>
       </c>
-      <c r="B26" s="139"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="140"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="165"/>
     </row>
     <row r="27" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="59" t="s">
@@ -13320,16 +13354,16 @@
       <c r="B27" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="124" t="s">
+      <c r="C27" s="166" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="126"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="167"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="168"/>
     </row>
     <row r="28" spans="1:10" s="56" customFormat="1" ht="33" customHeight="1">
       <c r="A28" s="59">
@@ -13338,16 +13372,16 @@
       <c r="B28" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="141" t="s">
+      <c r="C28" s="169" t="s">
         <v>245</v>
       </c>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="129"/>
+      <c r="D28" s="170"/>
+      <c r="E28" s="170"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="171"/>
     </row>
     <row r="29" spans="1:10" s="56" customFormat="1" ht="32.25" customHeight="1">
       <c r="A29" s="59">
@@ -13356,16 +13390,16 @@
       <c r="B29" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="141" t="s">
+      <c r="C29" s="169" t="s">
         <v>244</v>
       </c>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
-      <c r="I29" s="128"/>
-      <c r="J29" s="129"/>
+      <c r="D29" s="170"/>
+      <c r="E29" s="170"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="170"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="171"/>
     </row>
     <row r="30" spans="1:10" s="56" customFormat="1">
       <c r="A30" s="59">
@@ -13374,16 +13408,16 @@
       <c r="B30" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="127" t="s">
+      <c r="C30" s="174" t="s">
         <v>156</v>
       </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="129"/>
+      <c r="D30" s="170"/>
+      <c r="E30" s="170"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="170"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="171"/>
     </row>
     <row r="31" spans="1:10" s="56" customFormat="1">
       <c r="A31" s="59">
@@ -13392,16 +13426,16 @@
       <c r="B31" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="C31" s="127" t="s">
+      <c r="C31" s="174" t="s">
         <v>155</v>
       </c>
-      <c r="D31" s="128"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="128"/>
-      <c r="J31" s="129"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="170"/>
+      <c r="H31" s="170"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="171"/>
     </row>
     <row r="32" spans="1:10" s="56" customFormat="1">
       <c r="A32" s="59">
@@ -13410,70 +13444,70 @@
       <c r="B32" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="127" t="s">
+      <c r="C32" s="174" t="s">
         <v>132</v>
       </c>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="128"/>
-      <c r="J32" s="129"/>
+      <c r="D32" s="170"/>
+      <c r="E32" s="170"/>
+      <c r="F32" s="170"/>
+      <c r="G32" s="170"/>
+      <c r="H32" s="170"/>
+      <c r="I32" s="170"/>
+      <c r="J32" s="171"/>
     </row>
     <row r="33" spans="1:12" s="56" customFormat="1">
-      <c r="A33" s="151"/>
-      <c r="B33" s="190"/>
-      <c r="C33" s="190"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="190"/>
-      <c r="F33" s="190"/>
-      <c r="G33" s="190"/>
-      <c r="H33" s="190"/>
-      <c r="I33" s="190"/>
-      <c r="J33" s="191"/>
+      <c r="A33" s="148"/>
+      <c r="B33" s="188"/>
+      <c r="C33" s="188"/>
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="189"/>
     </row>
     <row r="34" spans="1:12" s="56" customFormat="1">
-      <c r="A34" s="130" t="s">
+      <c r="A34" s="163" t="s">
         <v>165</v>
       </c>
-      <c r="B34" s="139"/>
-      <c r="C34" s="139"/>
-      <c r="D34" s="139"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="139"/>
-      <c r="H34" s="139"/>
-      <c r="I34" s="139"/>
-      <c r="J34" s="140"/>
+      <c r="B34" s="164"/>
+      <c r="C34" s="164"/>
+      <c r="D34" s="164"/>
+      <c r="E34" s="164"/>
+      <c r="F34" s="164"/>
+      <c r="G34" s="164"/>
+      <c r="H34" s="164"/>
+      <c r="I34" s="164"/>
+      <c r="J34" s="165"/>
     </row>
     <row r="35" spans="1:12" s="56" customFormat="1" ht="27" customHeight="1">
-      <c r="A35" s="194" t="s">
+      <c r="A35" s="195" t="s">
         <v>166</v>
       </c>
-      <c r="B35" s="110"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="110"/>
-      <c r="I35" s="110"/>
-      <c r="J35" s="195"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="196"/>
     </row>
     <row r="36" spans="1:12" s="82" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="116" t="s">
+      <c r="A36" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="163"/>
-      <c r="C36" s="163"/>
-      <c r="D36" s="163"/>
-      <c r="E36" s="163"/>
-      <c r="F36" s="163"/>
-      <c r="G36" s="163"/>
-      <c r="H36" s="163"/>
-      <c r="I36" s="163"/>
-      <c r="J36" s="164"/>
+      <c r="B36" s="161"/>
+      <c r="C36" s="161"/>
+      <c r="D36" s="161"/>
+      <c r="E36" s="161"/>
+      <c r="F36" s="161"/>
+      <c r="G36" s="161"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="161"/>
+      <c r="J36" s="162"/>
       <c r="K36" s="56"/>
       <c r="L36" s="56"/>
     </row>
@@ -13490,14 +13524,14 @@
       <c r="D37" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="119" t="s">
+      <c r="E37" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="120"/>
-      <c r="G37" s="120"/>
-      <c r="H37" s="120"/>
-      <c r="I37" s="120"/>
-      <c r="J37" s="120"/>
+      <c r="F37" s="184"/>
+      <c r="G37" s="184"/>
+      <c r="H37" s="184"/>
+      <c r="I37" s="184"/>
+      <c r="J37" s="184"/>
     </row>
     <row r="38" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="63">
@@ -13510,30 +13544,30 @@
         <v>15</v>
       </c>
       <c r="D38" s="65"/>
-      <c r="E38" s="168" t="s">
+      <c r="E38" s="129" t="s">
         <v>168</v>
       </c>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="110"/>
-      <c r="J38" s="110"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="96"/>
       <c r="K38" s="56"/>
       <c r="L38" s="56"/>
     </row>
     <row r="39" spans="1:12" s="56" customFormat="1">
-      <c r="A39" s="148" t="s">
+      <c r="A39" s="145" t="s">
         <v>175</v>
       </c>
-      <c r="B39" s="149"/>
-      <c r="C39" s="149"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="150"/>
+      <c r="B39" s="146"/>
+      <c r="C39" s="146"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="146"/>
+      <c r="F39" s="146"/>
+      <c r="G39" s="146"/>
+      <c r="H39" s="146"/>
+      <c r="I39" s="146"/>
+      <c r="J39" s="147"/>
     </row>
     <row r="40" spans="1:12" s="56" customFormat="1" ht="25.5" customHeight="1">
       <c r="A40" s="59">
@@ -13546,14 +13580,14 @@
         <v>16</v>
       </c>
       <c r="D40" s="69"/>
-      <c r="E40" s="168" t="s">
+      <c r="E40" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="110"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="96"/>
     </row>
     <row r="41" spans="1:12" s="56" customFormat="1" ht="87.75" customHeight="1">
       <c r="A41" s="70">
@@ -13566,14 +13600,14 @@
         <v>172</v>
       </c>
       <c r="D41" s="86"/>
-      <c r="E41" s="145" t="s">
+      <c r="E41" s="137" t="s">
         <v>203</v>
       </c>
-      <c r="F41" s="146"/>
-      <c r="G41" s="146"/>
-      <c r="H41" s="146"/>
-      <c r="I41" s="146"/>
-      <c r="J41" s="147"/>
+      <c r="F41" s="138"/>
+      <c r="G41" s="138"/>
+      <c r="H41" s="138"/>
+      <c r="I41" s="138"/>
+      <c r="J41" s="139"/>
     </row>
     <row r="42" spans="1:12" s="56" customFormat="1" ht="99">
       <c r="A42" s="70"/>
@@ -13584,14 +13618,14 @@
       <c r="D42" s="87" t="s">
         <v>236</v>
       </c>
-      <c r="E42" s="145" t="s">
+      <c r="E42" s="137" t="s">
         <v>204</v>
       </c>
-      <c r="F42" s="196"/>
-      <c r="G42" s="196"/>
-      <c r="H42" s="196"/>
-      <c r="I42" s="196"/>
-      <c r="J42" s="197"/>
+      <c r="F42" s="197"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
+      <c r="J42" s="198"/>
     </row>
     <row r="43" spans="1:12" s="58" customFormat="1" ht="33.75" customHeight="1">
       <c r="A43" s="73">
@@ -13604,40 +13638,40 @@
         <v>172</v>
       </c>
       <c r="D43" s="74"/>
-      <c r="E43" s="165" t="s">
+      <c r="E43" s="124" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="101"/>
-      <c r="G43" s="101"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="101"/>
-      <c r="J43" s="102"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="101"/>
     </row>
     <row r="44" spans="1:12" s="58" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A44" s="165"/>
-      <c r="B44" s="166"/>
-      <c r="C44" s="166"/>
-      <c r="D44" s="166"/>
-      <c r="E44" s="166"/>
-      <c r="F44" s="166"/>
-      <c r="G44" s="166"/>
-      <c r="H44" s="166"/>
-      <c r="I44" s="166"/>
-      <c r="J44" s="167"/>
+      <c r="A44" s="124"/>
+      <c r="B44" s="125"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125"/>
+      <c r="J44" s="126"/>
     </row>
     <row r="45" spans="1:12" s="56" customFormat="1">
-      <c r="A45" s="169" t="s">
+      <c r="A45" s="130" t="s">
         <v>174</v>
       </c>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="170"/>
-      <c r="F45" s="170"/>
-      <c r="G45" s="170"/>
-      <c r="H45" s="170"/>
-      <c r="I45" s="170"/>
-      <c r="J45" s="171"/>
+      <c r="B45" s="131"/>
+      <c r="C45" s="131"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="131"/>
+      <c r="F45" s="131"/>
+      <c r="G45" s="131"/>
+      <c r="H45" s="131"/>
+      <c r="I45" s="131"/>
+      <c r="J45" s="132"/>
     </row>
     <row r="46" spans="1:12" s="56" customFormat="1">
       <c r="A46" s="59">
@@ -13650,14 +13684,14 @@
         <v>107</v>
       </c>
       <c r="D46" s="69"/>
-      <c r="E46" s="168" t="s">
+      <c r="E46" s="129" t="s">
         <v>184</v>
       </c>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="110"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="96"/>
     </row>
     <row r="47" spans="1:12" s="56" customFormat="1">
       <c r="A47" s="59">
@@ -13670,14 +13704,14 @@
         <v>107</v>
       </c>
       <c r="D47" s="69"/>
-      <c r="E47" s="168" t="s">
+      <c r="E47" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="F47" s="110"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="110"/>
-      <c r="I47" s="110"/>
-      <c r="J47" s="110"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="96"/>
     </row>
     <row r="48" spans="1:12" s="56" customFormat="1">
       <c r="A48" s="59">
@@ -13690,118 +13724,118 @@
         <v>107</v>
       </c>
       <c r="D48" s="69"/>
-      <c r="E48" s="168" t="s">
+      <c r="E48" s="129" t="s">
         <v>122</v>
       </c>
-      <c r="F48" s="110"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="110"/>
-      <c r="I48" s="110"/>
-      <c r="J48" s="110"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="96"/>
     </row>
     <row r="49" spans="1:10" s="56" customFormat="1">
-      <c r="A49" s="121"/>
-      <c r="B49" s="122"/>
-      <c r="C49" s="122"/>
-      <c r="D49" s="122"/>
-      <c r="E49" s="122"/>
-      <c r="F49" s="122"/>
-      <c r="G49" s="122"/>
-      <c r="H49" s="122"/>
-      <c r="I49" s="122"/>
-      <c r="J49" s="123"/>
+      <c r="A49" s="127"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="136"/>
+      <c r="I49" s="136"/>
+      <c r="J49" s="128"/>
     </row>
     <row r="50" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A50" s="182" t="s">
+      <c r="A50" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="183"/>
-      <c r="C50" s="183"/>
-      <c r="D50" s="183"/>
-      <c r="E50" s="183"/>
-      <c r="F50" s="183"/>
-      <c r="G50" s="183"/>
-      <c r="H50" s="183"/>
-      <c r="I50" s="183"/>
-      <c r="J50" s="184"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
+      <c r="E50" s="122"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="122"/>
+      <c r="H50" s="122"/>
+      <c r="I50" s="122"/>
+      <c r="J50" s="123"/>
     </row>
     <row r="51" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="180" t="s">
+      <c r="B51" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="181"/>
-      <c r="D51" s="165" t="s">
+      <c r="C51" s="120"/>
+      <c r="D51" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="101"/>
-      <c r="F51" s="101"/>
-      <c r="G51" s="101"/>
-      <c r="H51" s="101"/>
-      <c r="I51" s="101"/>
-      <c r="J51" s="102"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="100"/>
+      <c r="J51" s="101"/>
     </row>
     <row r="52" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="177"/>
-      <c r="B52" s="188"/>
-      <c r="C52" s="188"/>
-      <c r="D52" s="188"/>
-      <c r="E52" s="188"/>
-      <c r="F52" s="188"/>
-      <c r="G52" s="188"/>
-      <c r="H52" s="188"/>
-      <c r="I52" s="188"/>
-      <c r="J52" s="189"/>
+      <c r="A52" s="116"/>
+      <c r="B52" s="192"/>
+      <c r="C52" s="192"/>
+      <c r="D52" s="192"/>
+      <c r="E52" s="192"/>
+      <c r="F52" s="192"/>
+      <c r="G52" s="192"/>
+      <c r="H52" s="192"/>
+      <c r="I52" s="192"/>
+      <c r="J52" s="193"/>
     </row>
     <row r="53" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="73"/>
-      <c r="B53" s="121"/>
-      <c r="C53" s="123"/>
-      <c r="D53" s="165"/>
-      <c r="E53" s="101"/>
-      <c r="F53" s="101"/>
-      <c r="G53" s="101"/>
-      <c r="H53" s="101"/>
-      <c r="I53" s="101"/>
-      <c r="J53" s="102"/>
+      <c r="B53" s="127"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="124"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="100"/>
+      <c r="I53" s="100"/>
+      <c r="J53" s="101"/>
     </row>
     <row r="54" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="73"/>
-      <c r="B54" s="121"/>
-      <c r="C54" s="123"/>
-      <c r="D54" s="165"/>
-      <c r="E54" s="101"/>
-      <c r="F54" s="101"/>
-      <c r="G54" s="101"/>
-      <c r="H54" s="101"/>
-      <c r="I54" s="101"/>
-      <c r="J54" s="102"/>
+      <c r="B54" s="127"/>
+      <c r="C54" s="128"/>
+      <c r="D54" s="124"/>
+      <c r="E54" s="100"/>
+      <c r="F54" s="100"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="100"/>
+      <c r="I54" s="100"/>
+      <c r="J54" s="101"/>
     </row>
     <row r="55" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="177"/>
-      <c r="B55" s="188"/>
-      <c r="C55" s="188"/>
-      <c r="D55" s="188"/>
-      <c r="E55" s="188"/>
-      <c r="F55" s="188"/>
-      <c r="G55" s="188"/>
-      <c r="H55" s="188"/>
-      <c r="I55" s="188"/>
-      <c r="J55" s="189"/>
+      <c r="A55" s="116"/>
+      <c r="B55" s="192"/>
+      <c r="C55" s="192"/>
+      <c r="D55" s="192"/>
+      <c r="E55" s="192"/>
+      <c r="F55" s="192"/>
+      <c r="G55" s="192"/>
+      <c r="H55" s="192"/>
+      <c r="I55" s="192"/>
+      <c r="J55" s="193"/>
     </row>
     <row r="56" spans="1:10" s="56" customFormat="1" ht="17.25" customHeight="1">
       <c r="A56" s="73"/>
-      <c r="B56" s="121"/>
-      <c r="C56" s="123"/>
-      <c r="D56" s="165"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="101"/>
-      <c r="H56" s="101"/>
-      <c r="I56" s="101"/>
-      <c r="J56" s="102"/>
+      <c r="B56" s="127"/>
+      <c r="C56" s="128"/>
+      <c r="D56" s="124"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="100"/>
+      <c r="G56" s="100"/>
+      <c r="H56" s="100"/>
+      <c r="I56" s="100"/>
+      <c r="J56" s="101"/>
     </row>
     <row r="57" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="77" t="s">
@@ -13824,14 +13858,14 @@
       <c r="B58" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="121"/>
-      <c r="D58" s="101"/>
-      <c r="E58" s="101"/>
-      <c r="F58" s="101"/>
-      <c r="G58" s="101"/>
-      <c r="H58" s="101"/>
-      <c r="I58" s="101"/>
-      <c r="J58" s="102"/>
+      <c r="C58" s="127"/>
+      <c r="D58" s="100"/>
+      <c r="E58" s="100"/>
+      <c r="F58" s="100"/>
+      <c r="G58" s="100"/>
+      <c r="H58" s="100"/>
+      <c r="I58" s="100"/>
+      <c r="J58" s="101"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="73">
@@ -13851,12 +13885,40 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:J53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="A55:J55"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A24:J24"/>
@@ -13873,40 +13935,12 @@
     <mergeCell ref="A26:J26"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:J53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/APF/RA006/RA006_APF0101_角色維護.xlsx
+++ b/APF/RA006/RA006_APF0101_角色維護.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7710" tabRatio="797"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7710" tabRatio="797" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -58,485 +58,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>林傳勝 a8910001</author>
-  </authors>
-  <commentList>
-    <comment ref="M16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
-            <charset val="136"/>
-          </rPr>
-          <t>林傳勝</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> a8910001:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-1.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
-            <charset val="136"/>
-          </rPr>
-          <t xml:space="preserve">是角色維護功能?
-還是角色設定功能?
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M18" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
-            <charset val="136"/>
-          </rPr>
-          <t>林傳勝</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> a8910001:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-2.1 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
-            <charset val="136"/>
-          </rPr>
-          <t>是否須說明 是輸入還是選取</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
-            <charset val="136"/>
-          </rPr>
-          <t>林傳勝</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> a8910001:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-2.1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
-            <charset val="136"/>
-          </rPr>
-          <t>如果都沒輸入條件，要顯示全部，還是？
-是否接受模糊查詢</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M23" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
-            <charset val="136"/>
-          </rPr>
-          <t>林傳勝</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> a8910001:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-2.3   </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
-            <charset val="136"/>
-          </rPr>
-          <t>顯示的畫面長怎樣，名稱與id為何？
-資訊不是都在grid中了，還有什麼要顯示嗎？</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M24" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
-            <charset val="136"/>
-          </rPr>
-          <t>林傳勝</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> a8910001:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-2.4  GRID</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
-            <charset val="136"/>
-          </rPr>
-          <t>區資料</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
-            <charset val="136"/>
-          </rPr>
-          <t xml:space="preserve">是否也要刪除?
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M29" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
-            <charset val="136"/>
-          </rPr>
-          <t>林傳勝</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> a8910001:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-3.1 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
-            <charset val="136"/>
-          </rPr>
-          <t>請寫頁面名稱</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M38" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
-            <charset val="136"/>
-          </rPr>
-          <t>林傳勝</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> a8910001:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-4.2 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
-            <charset val="136"/>
-          </rPr>
-          <t>哪些欄位可以改，哪些不能改？</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M69" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
-            <charset val="136"/>
-          </rPr>
-          <t>林傳勝</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> a8910001:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-6.2 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
-            <charset val="136"/>
-          </rPr>
-          <t>確定是</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">XLS ? </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
-            <charset val="136"/>
-          </rPr>
-          <t>之前記得有說是</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> XLSX</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>林傳勝 a8910001</author>
-  </authors>
-  <commentList>
-    <comment ref="E13" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
-            <charset val="136"/>
-          </rPr>
-          <t>林傳勝</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> a8910001:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="細明體"/>
-            <family val="3"/>
-            <charset val="136"/>
-          </rPr>
-          <t>大小寫是否要統一？</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="248">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -1082,14 +605,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>以導頁方式開啟APF0102MU1，並在該頁載入時檢核是否有查詢及修改權限。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>以導頁方式開啟APF0203MU1，並在該頁載入時檢核是否有查詢及修改權限。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>_CLICK</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1302,14 +817,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>角色帳號對應</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>角色查詢範圍對應</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>group_id</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1334,10 +841,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>以導頁方式開啟APF0202MU1，並在該頁載入時檢核是否有查詢及修改權限。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>APF0101MM1_Grid</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1346,23 +849,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>輸入型態:string
-最大長度限制:英文10(控制項控制)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-最大長度限制:中文20(控制項控制)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>APF0101MU1_Link</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.前畫面:首頁
-1.1 SESSION內容:
-1.2 成立條件:該使用者擁有此功能查詢權限</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1405,12 +892,6 @@
   </si>
   <si>
     <t>APF0101MM1_Grid</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.前畫面:APF0101MM1
-1.1 SESSION內容:
-1.2 成立條件:該使用者擁有此功能修改權限</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1711,61 +1192,105 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>輸入之角色名稱不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 11。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入之角色代號不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 11。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入之角色名稱不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 11。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入之角色代號不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 11。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO Model</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>1.前畫面:首頁
+1.1 SESSION內容:
+1.2 成立條件:該使用者擁有此功能查詢權限，新增、刪除、明細、匯出按鈕的enable/disable，依權限設定決定。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>輸入型態:string
+格式:英數字
+最大長度限制:英文10(控制項控制)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:英數字
+最大長度限制:英文10(控制項控制)
+必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 35，並將cursor停留於該欄位且顏色反橘。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:中英數字
+最大長度限制:中文20(控制項控制)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:中英數字
 最大長度限制:中文20(控制項控制)
 必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 35，並將cursor停留於該欄位且顏色反橘。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>輸入之角色名稱不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 11。</t>
+    <t>角色帳號對應</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>輸入型態:string
-最大長度限制:英文10(控制項控制)
-必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 35，並將cursor停留於該欄位且顏色反橘。</t>
+    <t>角色查詢範圍對應</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>輸入型態:string
-最大長度限制:英文10(控制項控制)
-必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 35，並將cursor停留於該欄位且顏色反橘。</t>
+    <t>1.前畫面:APF0101MM1
+1.1 SESSION內容:
+1.2 成立條件:該使用者擁有此功能修改權限
+1.3 按鈕權限檢核:
+1.3.1 角色功能對應:須有APF0202查詢及修改權限才能點擊，否則disable。
+1.3.2 角色帳號對應:須有APF0102查詢及修改權限才能點擊，否則disable。
+1.3.3 角色查詢範圍對應:須有APF0203查詢及修改權限才能點擊，否則disable。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>輸入之角色代號不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 11。</t>
+    <t>以導頁方式開啟APF0202MU1</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>輸入之角色名稱不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 11。</t>
+    <t>以導頁方式開啟APF0102MU1</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>輸入之角色代號不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 11。</t>
+    <t>以導頁方式開啟APF0203MU1</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPO Model</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPO</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="32">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1945,34 +1470,6 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -2550,32 +2047,65 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2586,38 +2116,188 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2642,193 +2322,16 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2841,15 +2344,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2860,6 +2354,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3421,7 +2918,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9906000" cy="503464"/>
+          <a:ext cx="9980083" cy="497417"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
@@ -3914,15 +3411,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>6350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>78</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>681567</xdr:colOff>
+          <xdr:row>83</xdr:row>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3966,15 +3463,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>78</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>85</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>90</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>97</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5700,7 +5197,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="14627679" cy="515711"/>
+          <a:ext cx="14620875" cy="523875"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -6197,7 +5694,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="10052237" cy="602316"/>
+          <a:ext cx="10058400" cy="590550"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
@@ -6767,7 +6264,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="13158107" cy="597354"/>
+          <a:ext cx="13122088" cy="621366"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -7283,7 +6780,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="10168370" cy="593148"/>
+          <a:ext cx="10144125" cy="590550"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
@@ -8738,7 +8235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -8789,10 +8286,10 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="33" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="35" t="s">
@@ -8804,7 +8301,7 @@
         <v>61</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="90" t="s">
@@ -8814,11 +8311,11 @@
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="91"/>
       <c r="B6" s="34" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="35" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
@@ -8826,21 +8323,21 @@
         <v>62</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="90" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="91"/>
       <c r="B8" s="34" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="90" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
@@ -8848,21 +8345,21 @@
         <v>63</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="90" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
       <c r="A10" s="91"/>
       <c r="B10" s="34" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="90" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1" thickBot="1">
@@ -8925,8 +8422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9071,10 +8568,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>24</v>
@@ -9086,7 +8583,7 @@
         <v>17</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I7" s="42" t="s">
         <v>45</v>
@@ -9143,10 +8640,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E11" s="42" t="s">
         <v>24</v>
@@ -9158,7 +8655,7 @@
         <v>17</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I11" s="42" t="s">
         <v>45</v>
@@ -9191,7 +8688,7 @@
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="43" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="J12" s="48"/>
     </row>
@@ -9219,7 +8716,7 @@
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="J13" s="51"/>
     </row>
@@ -9231,7 +8728,7 @@
         <v>71</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D14" s="45" t="s">
         <v>105</v>
@@ -9247,7 +8744,7 @@
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="43" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="J14" s="48"/>
     </row>
@@ -9275,7 +8772,7 @@
       </c>
       <c r="H15" s="45"/>
       <c r="I15" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J15" s="48"/>
     </row>
@@ -9287,7 +8784,7 @@
         <v>69</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D16" s="49" t="s">
         <v>98</v>
@@ -9306,7 +8803,7 @@
         <v>112</v>
       </c>
       <c r="J16" s="51" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -9572,10 +9069,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P66" sqref="P66"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O83" sqref="O83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9590,15 +9087,15 @@
       <c r="A1" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="105" t="s">
+      <c r="M1" s="93" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="106"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="106"/>
+      <c r="M3" s="94"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -9615,45 +9112,45 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="115"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="112"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="102" t="s">
-        <v>214</v>
-      </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="104"/>
+      <c r="A6" s="113" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="115"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
       <c r="F7" s="97" t="s">
         <v>30</v>
       </c>
@@ -9665,31 +9162,31 @@
       <c r="L7" s="99"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="95" t="s">
-        <v>205</v>
-      </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="100" t="s">
+      <c r="A8" s="109" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="102"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
       <c r="F9" s="97" t="s">
         <v>32</v>
       </c>
@@ -9701,32 +9198,32 @@
       <c r="L9" s="99"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="100" t="s">
-        <v>234</v>
-      </c>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="101"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="101" t="s">
+        <v>225</v>
+      </c>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="102"/>
     </row>
     <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="113" t="s">
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="108" t="s">
         <v>34</v>
       </c>
       <c r="G11" s="98"/>
@@ -9737,30 +9234,30 @@
       <c r="L11" s="99"/>
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="101"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="102"/>
     </row>
     <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="113" t="s">
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="108" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="98"/>
@@ -9771,68 +9268,65 @@
       <c r="L13" s="99"/>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="95" t="s">
+      <c r="A14" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="101"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="102"/>
     </row>
     <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="109" t="s">
-        <v>235</v>
-      </c>
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="101"/>
-    </row>
-    <row r="16" spans="1:13"/>
-    <row r="18" spans="13:13"/>
-    <row r="19" spans="13:13"/>
-    <row r="23" spans="13:13"/>
-    <row r="24" spans="13:13"/>
-    <row r="29" spans="13:13"/>
-    <row r="38" spans="13:13"/>
-    <row r="69" spans="1:13"/>
-    <row r="77" spans="1:13">
-      <c r="A77" s="110" t="s">
+      <c r="A15" s="100" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="102"/>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="B77" s="111"/>
-      <c r="C77" s="111"/>
-      <c r="D77" s="111"/>
-      <c r="E77" s="111"/>
-      <c r="F77" s="111"/>
-      <c r="G77" s="111"/>
-      <c r="H77" s="111"/>
-      <c r="I77" s="111"/>
-      <c r="J77" s="111"/>
-      <c r="K77" s="111"/>
-      <c r="L77" s="112"/>
+      <c r="B85" s="104"/>
+      <c r="C85" s="104"/>
+      <c r="D85" s="104"/>
+      <c r="E85" s="104"/>
+      <c r="F85" s="104"/>
+      <c r="G85" s="104"/>
+      <c r="H85" s="104"/>
+      <c r="I85" s="104"/>
+      <c r="J85" s="104"/>
+      <c r="K85" s="104"/>
+      <c r="L85" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A77:L77"/>
+    <mergeCell ref="A85:L85"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
@@ -9844,11 +9338,6 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -9864,19 +9353,19 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject progId="Word.Document.12" shapeId="29897" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>15</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>78</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>657225</xdr:colOff>
+                <xdr:row>84</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -9893,15 +9382,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>78</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>85</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>90</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>97</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -9926,15 +9415,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="105" t="s">
+      <c r="P1" s="93" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="106"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="106"/>
+      <c r="P3" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9984,7 +9473,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:J18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -10062,7 +9553,7 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="151" t="s">
+      <c r="A5" s="154" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="98"/>
@@ -10076,57 +9567,57 @@
       <c r="J5" s="99"/>
     </row>
     <row r="6" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="102"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="104"/>
+      <c r="A6" s="113"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="115"/>
     </row>
     <row r="7" spans="1:17" s="56" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="152"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="155"/>
+      <c r="A7" s="155"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="158"/>
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:17" s="56" customFormat="1">
-      <c r="A8" s="152"/>
-      <c r="B8" s="153"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="155"/>
+      <c r="A8" s="155"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="157"/>
+      <c r="J8" s="158"/>
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:17" s="56" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="156"/>
-      <c r="B9" s="157"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="158"/>
+      <c r="A9" s="159"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="161"/>
     </row>
     <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="151" t="s">
+      <c r="A10" s="154" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="98"/>
@@ -10140,21 +9631,21 @@
       <c r="J10" s="99"/>
     </row>
     <row r="11" spans="1:17" s="58" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="159" t="s">
-        <v>190</v>
-      </c>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="101"/>
+      <c r="A11" s="162" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="151" t="s">
+      <c r="A12" s="154" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="98"/>
@@ -10168,21 +9659,21 @@
       <c r="J12" s="99"/>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="159" t="s">
+      <c r="A13" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="101"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="151" t="s">
+      <c r="A14" s="154" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="98"/>
@@ -10196,458 +9687,458 @@
       <c r="J14" s="99"/>
     </row>
     <row r="15" spans="1:17" s="56" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="163" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15" s="164"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="165"/>
+      <c r="A15" s="130" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="140"/>
     </row>
     <row r="16" spans="1:17" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="166" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="168"/>
-    </row>
-    <row r="17" spans="1:10" s="56" customFormat="1" ht="31.5" customHeight="1">
+        <v>125</v>
+      </c>
+      <c r="C16" s="124" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="126"/>
+    </row>
+    <row r="17" spans="1:10" s="56" customFormat="1" ht="49.5" customHeight="1">
       <c r="A17" s="59">
         <v>1</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="169" t="s">
-        <v>187</v>
-      </c>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="171"/>
-    </row>
-    <row r="18" spans="1:10" s="56" customFormat="1" ht="30.75" customHeight="1">
+        <v>123</v>
+      </c>
+      <c r="C17" s="141" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="129"/>
+    </row>
+    <row r="18" spans="1:10" s="56" customFormat="1" ht="53.25" customHeight="1">
       <c r="A18" s="59">
         <v>2</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="169" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="171"/>
+        <v>126</v>
+      </c>
+      <c r="C18" s="141" t="s">
+        <v>240</v>
+      </c>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="129"/>
     </row>
     <row r="19" spans="1:10" s="56" customFormat="1">
       <c r="A19" s="59">
         <v>3</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="169" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="171"/>
+        <v>127</v>
+      </c>
+      <c r="C19" s="141" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="129"/>
     </row>
     <row r="20" spans="1:10" s="56" customFormat="1">
-      <c r="A20" s="127"/>
-      <c r="B20" s="136"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="128"/>
+      <c r="A20" s="121"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="123"/>
     </row>
     <row r="21" spans="1:10" s="56" customFormat="1">
-      <c r="A21" s="163" t="s">
-        <v>185</v>
-      </c>
-      <c r="B21" s="164"/>
-      <c r="C21" s="164"/>
-      <c r="D21" s="164"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="165"/>
+      <c r="A21" s="130" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="139"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="140"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="166" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22" s="167"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="167"/>
-      <c r="I22" s="167"/>
-      <c r="J22" s="168"/>
+        <v>125</v>
+      </c>
+      <c r="C22" s="124" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="126"/>
     </row>
     <row r="23" spans="1:10" s="56" customFormat="1">
       <c r="A23" s="59">
         <v>1</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="174" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="171"/>
+        <v>123</v>
+      </c>
+      <c r="C23" s="127" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="129"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1">
       <c r="A24" s="59">
         <v>2</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="174" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="170"/>
-      <c r="H24" s="170"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="171"/>
+        <v>126</v>
+      </c>
+      <c r="C24" s="127" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="129"/>
     </row>
     <row r="25" spans="1:10" s="56" customFormat="1">
       <c r="A25" s="59">
         <v>3</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="174" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="170"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="171"/>
+        <v>131</v>
+      </c>
+      <c r="C25" s="127" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="129"/>
     </row>
     <row r="26" spans="1:10" s="56" customFormat="1">
       <c r="A26" s="59">
         <v>4</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="174" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="171"/>
+        <v>127</v>
+      </c>
+      <c r="C26" s="127" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="129"/>
     </row>
     <row r="27" spans="1:10" s="56" customFormat="1">
-      <c r="A27" s="148"/>
-      <c r="B27" s="149"/>
-      <c r="C27" s="149"/>
-      <c r="D27" s="149"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="150"/>
+      <c r="A27" s="151"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="153"/>
     </row>
     <row r="28" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="160" t="s">
+      <c r="A28" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="161"/>
-      <c r="C28" s="161"/>
-      <c r="D28" s="161"/>
-      <c r="E28" s="161"/>
-      <c r="F28" s="161"/>
-      <c r="G28" s="161"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="162"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="164"/>
     </row>
     <row r="29" spans="1:10" s="56" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="163" t="s">
-        <v>191</v>
-      </c>
-      <c r="B29" s="164"/>
-      <c r="C29" s="164"/>
-      <c r="D29" s="164"/>
-      <c r="E29" s="164"/>
-      <c r="F29" s="164"/>
-      <c r="G29" s="164"/>
-      <c r="H29" s="164"/>
-      <c r="I29" s="164"/>
-      <c r="J29" s="165"/>
+      <c r="A29" s="130" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="139"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="140"/>
     </row>
     <row r="30" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="166" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="167"/>
-      <c r="J30" s="168"/>
+        <v>125</v>
+      </c>
+      <c r="C30" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="126"/>
     </row>
     <row r="31" spans="1:10" s="56" customFormat="1">
       <c r="A31" s="59">
         <v>1</v>
       </c>
       <c r="B31" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="175" t="s">
-        <v>238</v>
-      </c>
-      <c r="D31" s="176"/>
-      <c r="E31" s="176"/>
-      <c r="F31" s="176"/>
-      <c r="G31" s="176"/>
-      <c r="H31" s="176"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="177"/>
+        <v>123</v>
+      </c>
+      <c r="C31" s="133" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="134"/>
+      <c r="J31" s="135"/>
     </row>
     <row r="32" spans="1:10" s="56" customFormat="1">
       <c r="A32" s="59">
         <v>2</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" s="178"/>
-      <c r="D32" s="179"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="179"/>
-      <c r="I32" s="179"/>
-      <c r="J32" s="180"/>
+        <v>126</v>
+      </c>
+      <c r="C32" s="136"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="138"/>
     </row>
     <row r="33" spans="1:12" s="56" customFormat="1">
       <c r="A33" s="59">
         <v>3</v>
       </c>
       <c r="B33" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="127" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="128"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="128"/>
+      <c r="J33" s="129"/>
+    </row>
+    <row r="34" spans="1:12" s="56" customFormat="1">
+      <c r="A34" s="121"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="123"/>
+    </row>
+    <row r="35" spans="1:12" s="56" customFormat="1">
+      <c r="A35" s="130" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="174" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" s="170"/>
-      <c r="E33" s="170"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="171"/>
-    </row>
-    <row r="34" spans="1:12" s="56" customFormat="1">
-      <c r="A34" s="127"/>
-      <c r="B34" s="136"/>
-      <c r="C34" s="136"/>
-      <c r="D34" s="136"/>
-      <c r="E34" s="136"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="136"/>
-      <c r="H34" s="136"/>
-      <c r="I34" s="136"/>
-      <c r="J34" s="128"/>
-    </row>
-    <row r="35" spans="1:12" s="56" customFormat="1">
-      <c r="A35" s="163" t="s">
-        <v>131</v>
-      </c>
-      <c r="B35" s="172"/>
-      <c r="C35" s="172"/>
-      <c r="D35" s="172"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="173"/>
+      <c r="B35" s="131"/>
+      <c r="C35" s="131"/>
+      <c r="D35" s="131"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="132"/>
     </row>
     <row r="36" spans="1:12" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="C36" s="166" t="s">
-        <v>136</v>
-      </c>
-      <c r="D36" s="167"/>
-      <c r="E36" s="167"/>
-      <c r="F36" s="167"/>
-      <c r="G36" s="167"/>
-      <c r="H36" s="167"/>
-      <c r="I36" s="167"/>
-      <c r="J36" s="168"/>
+        <v>125</v>
+      </c>
+      <c r="C36" s="124" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="125"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="125"/>
+      <c r="H36" s="125"/>
+      <c r="I36" s="125"/>
+      <c r="J36" s="126"/>
     </row>
     <row r="37" spans="1:12" s="56" customFormat="1">
       <c r="A37" s="59">
         <v>1</v>
       </c>
       <c r="B37" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="174" t="s">
-        <v>134</v>
-      </c>
-      <c r="D37" s="170"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="170"/>
-      <c r="G37" s="170"/>
-      <c r="H37" s="170"/>
-      <c r="I37" s="170"/>
-      <c r="J37" s="171"/>
+        <v>123</v>
+      </c>
+      <c r="C37" s="127" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="128"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="128"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="128"/>
+      <c r="J37" s="129"/>
     </row>
     <row r="38" spans="1:12" s="56" customFormat="1">
       <c r="A38" s="59">
         <v>2</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="174" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" s="170"/>
-      <c r="E38" s="170"/>
-      <c r="F38" s="170"/>
-      <c r="G38" s="170"/>
-      <c r="H38" s="170"/>
-      <c r="I38" s="170"/>
-      <c r="J38" s="171"/>
+        <v>126</v>
+      </c>
+      <c r="C38" s="127" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="128"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="128"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="128"/>
+      <c r="J38" s="129"/>
     </row>
     <row r="39" spans="1:12" s="56" customFormat="1">
       <c r="A39" s="59">
         <v>3</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" s="174" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39" s="170"/>
-      <c r="E39" s="170"/>
-      <c r="F39" s="170"/>
-      <c r="G39" s="170"/>
-      <c r="H39" s="170"/>
-      <c r="I39" s="170"/>
-      <c r="J39" s="171"/>
+        <v>131</v>
+      </c>
+      <c r="C39" s="127" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="128"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="128"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="129"/>
     </row>
     <row r="40" spans="1:12" s="56" customFormat="1">
       <c r="A40" s="59">
         <v>4</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="174" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" s="170"/>
-      <c r="E40" s="170"/>
-      <c r="F40" s="170"/>
-      <c r="G40" s="170"/>
-      <c r="H40" s="170"/>
-      <c r="I40" s="170"/>
-      <c r="J40" s="171"/>
+        <v>127</v>
+      </c>
+      <c r="C40" s="127" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="128"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="128"/>
+      <c r="J40" s="129"/>
     </row>
     <row r="41" spans="1:12" s="56" customFormat="1">
-      <c r="A41" s="127"/>
-      <c r="B41" s="136"/>
-      <c r="C41" s="136"/>
-      <c r="D41" s="136"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="136"/>
-      <c r="G41" s="136"/>
-      <c r="H41" s="136"/>
-      <c r="I41" s="136"/>
-      <c r="J41" s="128"/>
+      <c r="A41" s="121"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="122"/>
+      <c r="F41" s="122"/>
+      <c r="G41" s="122"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="122"/>
+      <c r="J41" s="123"/>
     </row>
     <row r="42" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="160" t="s">
+      <c r="A42" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="181"/>
-      <c r="C42" s="181"/>
-      <c r="D42" s="181"/>
-      <c r="E42" s="181"/>
-      <c r="F42" s="181"/>
-      <c r="G42" s="181"/>
-      <c r="H42" s="181"/>
-      <c r="I42" s="181"/>
-      <c r="J42" s="182"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="117"/>
+      <c r="J42" s="118"/>
     </row>
     <row r="43" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="60" t="s">
@@ -10662,14 +10153,14 @@
       <c r="D43" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="183" t="s">
+      <c r="E43" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="184"/>
-      <c r="G43" s="184"/>
-      <c r="H43" s="184"/>
-      <c r="I43" s="184"/>
-      <c r="J43" s="184"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="120"/>
+      <c r="J43" s="120"/>
       <c r="K43" s="56"/>
       <c r="L43" s="56"/>
     </row>
@@ -10682,348 +10173,348 @@
       </c>
       <c r="C44" s="64"/>
       <c r="D44" s="65"/>
-      <c r="E44" s="129" t="s">
-        <v>144</v>
-      </c>
-      <c r="F44" s="96"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="96"/>
+      <c r="E44" s="168" t="s">
+        <v>142</v>
+      </c>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="110"/>
     </row>
     <row r="45" spans="1:12" s="56" customFormat="1">
       <c r="A45" s="66"/>
-      <c r="B45" s="136"/>
-      <c r="C45" s="136"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="136"/>
-      <c r="J45" s="128"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="122"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="122"/>
+      <c r="G45" s="122"/>
+      <c r="H45" s="122"/>
+      <c r="I45" s="122"/>
+      <c r="J45" s="123"/>
     </row>
     <row r="46" spans="1:12" s="56" customFormat="1">
-      <c r="A46" s="145" t="s">
-        <v>160</v>
-      </c>
-      <c r="B46" s="146"/>
-      <c r="C46" s="146"/>
-      <c r="D46" s="146"/>
-      <c r="E46" s="146"/>
-      <c r="F46" s="146"/>
-      <c r="G46" s="146"/>
-      <c r="H46" s="146"/>
-      <c r="I46" s="146"/>
-      <c r="J46" s="147"/>
+      <c r="A46" s="148" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" s="149"/>
+      <c r="C46" s="149"/>
+      <c r="D46" s="149"/>
+      <c r="E46" s="149"/>
+      <c r="F46" s="149"/>
+      <c r="G46" s="149"/>
+      <c r="H46" s="149"/>
+      <c r="I46" s="149"/>
+      <c r="J46" s="150"/>
     </row>
     <row r="47" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="59">
         <v>1</v>
       </c>
       <c r="B47" s="67" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C47" s="68" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="69"/>
-      <c r="E47" s="129" t="s">
+      <c r="E47" s="168" t="s">
         <v>109</v>
       </c>
-      <c r="F47" s="96"/>
-      <c r="G47" s="96"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="96"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="110"/>
     </row>
     <row r="48" spans="1:12" s="58" customFormat="1" ht="39" customHeight="1">
       <c r="A48" s="70">
         <v>2</v>
       </c>
-      <c r="B48" s="140" t="s">
-        <v>139</v>
+      <c r="B48" s="175" t="s">
+        <v>137</v>
       </c>
       <c r="C48" s="84" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="85"/>
-      <c r="E48" s="137" t="s">
-        <v>197</v>
-      </c>
-      <c r="F48" s="138"/>
-      <c r="G48" s="138"/>
-      <c r="H48" s="138"/>
-      <c r="I48" s="138"/>
-      <c r="J48" s="139"/>
+      <c r="E48" s="145" t="s">
+        <v>188</v>
+      </c>
+      <c r="F48" s="146"/>
+      <c r="G48" s="146"/>
+      <c r="H48" s="146"/>
+      <c r="I48" s="146"/>
+      <c r="J48" s="147"/>
     </row>
     <row r="49" spans="1:10" s="58" customFormat="1" ht="66" customHeight="1">
       <c r="A49" s="70"/>
-      <c r="B49" s="141"/>
+      <c r="B49" s="176"/>
       <c r="C49" s="84" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D49" s="85" t="s">
-        <v>198</v>
-      </c>
-      <c r="E49" s="137" t="s">
-        <v>233</v>
-      </c>
-      <c r="F49" s="138"/>
-      <c r="G49" s="138"/>
-      <c r="H49" s="138"/>
-      <c r="I49" s="138"/>
-      <c r="J49" s="139"/>
+        <v>189</v>
+      </c>
+      <c r="E49" s="145" t="s">
+        <v>224</v>
+      </c>
+      <c r="F49" s="146"/>
+      <c r="G49" s="146"/>
+      <c r="H49" s="146"/>
+      <c r="I49" s="146"/>
+      <c r="J49" s="147"/>
     </row>
     <row r="50" spans="1:10" s="56" customFormat="1">
       <c r="A50" s="73">
         <v>3</v>
       </c>
       <c r="B50" s="67" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C50" s="68" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="74"/>
-      <c r="E50" s="124" t="s">
-        <v>161</v>
-      </c>
-      <c r="F50" s="100"/>
-      <c r="G50" s="100"/>
-      <c r="H50" s="100"/>
-      <c r="I50" s="100"/>
-      <c r="J50" s="101"/>
+      <c r="E50" s="165" t="s">
+        <v>159</v>
+      </c>
+      <c r="F50" s="101"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="101"/>
+      <c r="J50" s="102"/>
     </row>
     <row r="51" spans="1:10" s="56" customFormat="1">
       <c r="A51" s="75"/>
-      <c r="B51" s="136"/>
-      <c r="C51" s="136"/>
-      <c r="D51" s="136"/>
-      <c r="E51" s="136"/>
-      <c r="F51" s="136"/>
-      <c r="G51" s="136"/>
-      <c r="H51" s="136"/>
-      <c r="I51" s="136"/>
-      <c r="J51" s="128"/>
+      <c r="B51" s="122"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="122"/>
+      <c r="E51" s="122"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="122"/>
+      <c r="I51" s="122"/>
+      <c r="J51" s="123"/>
     </row>
     <row r="52" spans="1:10" s="56" customFormat="1">
-      <c r="A52" s="130" t="s">
-        <v>194</v>
-      </c>
-      <c r="B52" s="131"/>
-      <c r="C52" s="131"/>
-      <c r="D52" s="131"/>
-      <c r="E52" s="131"/>
-      <c r="F52" s="131"/>
-      <c r="G52" s="131"/>
-      <c r="H52" s="131"/>
-      <c r="I52" s="131"/>
-      <c r="J52" s="132"/>
+      <c r="A52" s="169" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" s="170"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="170"/>
+      <c r="E52" s="170"/>
+      <c r="F52" s="170"/>
+      <c r="G52" s="170"/>
+      <c r="H52" s="170"/>
+      <c r="I52" s="170"/>
+      <c r="J52" s="171"/>
     </row>
     <row r="53" spans="1:10" s="56" customFormat="1">
       <c r="A53" s="59">
         <v>1</v>
       </c>
       <c r="B53" s="67" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C53" s="68" t="s">
         <v>19</v>
       </c>
       <c r="D53" s="69"/>
-      <c r="E53" s="129" t="s">
-        <v>141</v>
-      </c>
-      <c r="F53" s="96"/>
-      <c r="G53" s="96"/>
-      <c r="H53" s="96"/>
-      <c r="I53" s="96"/>
-      <c r="J53" s="96"/>
+      <c r="E53" s="168" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" s="110"/>
+      <c r="G53" s="110"/>
+      <c r="H53" s="110"/>
+      <c r="I53" s="110"/>
+      <c r="J53" s="110"/>
     </row>
     <row r="54" spans="1:10" s="56" customFormat="1">
       <c r="A54" s="59">
         <v>2</v>
       </c>
       <c r="B54" s="67" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C54" s="68" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="72"/>
-      <c r="E54" s="133" t="s">
-        <v>142</v>
-      </c>
-      <c r="F54" s="134"/>
-      <c r="G54" s="134"/>
-      <c r="H54" s="134"/>
-      <c r="I54" s="134"/>
-      <c r="J54" s="135"/>
+      <c r="E54" s="172" t="s">
+        <v>140</v>
+      </c>
+      <c r="F54" s="173"/>
+      <c r="G54" s="173"/>
+      <c r="H54" s="173"/>
+      <c r="I54" s="173"/>
+      <c r="J54" s="174"/>
     </row>
     <row r="55" spans="1:10" s="56" customFormat="1">
       <c r="A55" s="59">
         <v>3</v>
       </c>
       <c r="B55" s="67" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C55" s="68" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="72"/>
-      <c r="E55" s="133" t="s">
-        <v>143</v>
-      </c>
-      <c r="F55" s="134"/>
-      <c r="G55" s="134"/>
-      <c r="H55" s="134"/>
-      <c r="I55" s="134"/>
-      <c r="J55" s="135"/>
+      <c r="E55" s="172" t="s">
+        <v>141</v>
+      </c>
+      <c r="F55" s="173"/>
+      <c r="G55" s="173"/>
+      <c r="H55" s="173"/>
+      <c r="I55" s="173"/>
+      <c r="J55" s="174"/>
     </row>
     <row r="56" spans="1:10" s="56" customFormat="1" ht="17.25" customHeight="1">
       <c r="A56" s="59">
         <v>4</v>
       </c>
       <c r="B56" s="67" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C56" s="68" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="72"/>
-      <c r="E56" s="133" t="s">
+      <c r="E56" s="172" t="s">
         <v>110</v>
       </c>
-      <c r="F56" s="134"/>
-      <c r="G56" s="134"/>
-      <c r="H56" s="134"/>
-      <c r="I56" s="134"/>
-      <c r="J56" s="135"/>
+      <c r="F56" s="173"/>
+      <c r="G56" s="173"/>
+      <c r="H56" s="173"/>
+      <c r="I56" s="173"/>
+      <c r="J56" s="174"/>
     </row>
     <row r="57" spans="1:10" s="56" customFormat="1">
       <c r="A57" s="59">
         <v>5</v>
       </c>
       <c r="B57" s="67" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C57" s="68" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="72"/>
-      <c r="E57" s="133" t="s">
-        <v>186</v>
-      </c>
-      <c r="F57" s="134"/>
-      <c r="G57" s="134"/>
-      <c r="H57" s="134"/>
-      <c r="I57" s="134"/>
-      <c r="J57" s="135"/>
+      <c r="E57" s="172" t="s">
+        <v>181</v>
+      </c>
+      <c r="F57" s="173"/>
+      <c r="G57" s="173"/>
+      <c r="H57" s="173"/>
+      <c r="I57" s="173"/>
+      <c r="J57" s="174"/>
     </row>
     <row r="58" spans="1:10" s="56" customFormat="1">
       <c r="A58" s="76"/>
-      <c r="B58" s="136"/>
-      <c r="C58" s="136"/>
-      <c r="D58" s="136"/>
-      <c r="E58" s="136"/>
-      <c r="F58" s="136"/>
-      <c r="G58" s="136"/>
-      <c r="H58" s="136"/>
-      <c r="I58" s="136"/>
-      <c r="J58" s="128"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="122"/>
+      <c r="D58" s="122"/>
+      <c r="E58" s="122"/>
+      <c r="F58" s="122"/>
+      <c r="G58" s="122"/>
+      <c r="H58" s="122"/>
+      <c r="I58" s="122"/>
+      <c r="J58" s="123"/>
     </row>
     <row r="59" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="121" t="s">
+      <c r="A59" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="122"/>
-      <c r="C59" s="122"/>
-      <c r="D59" s="122"/>
-      <c r="E59" s="122"/>
-      <c r="F59" s="122"/>
-      <c r="G59" s="122"/>
-      <c r="H59" s="122"/>
-      <c r="I59" s="122"/>
-      <c r="J59" s="123"/>
+      <c r="B59" s="183"/>
+      <c r="C59" s="183"/>
+      <c r="D59" s="183"/>
+      <c r="E59" s="183"/>
+      <c r="F59" s="183"/>
+      <c r="G59" s="183"/>
+      <c r="H59" s="183"/>
+      <c r="I59" s="183"/>
+      <c r="J59" s="184"/>
     </row>
     <row r="60" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="119" t="s">
+      <c r="B60" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="120"/>
-      <c r="D60" s="124" t="s">
+      <c r="C60" s="181"/>
+      <c r="D60" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="100"/>
-      <c r="F60" s="100"/>
-      <c r="G60" s="100"/>
-      <c r="H60" s="100"/>
-      <c r="I60" s="100"/>
-      <c r="J60" s="101"/>
+      <c r="E60" s="101"/>
+      <c r="F60" s="101"/>
+      <c r="G60" s="101"/>
+      <c r="H60" s="101"/>
+      <c r="I60" s="101"/>
+      <c r="J60" s="102"/>
     </row>
     <row r="61" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="116"/>
-      <c r="B61" s="117"/>
-      <c r="C61" s="117"/>
-      <c r="D61" s="117"/>
-      <c r="E61" s="117"/>
-      <c r="F61" s="117"/>
-      <c r="G61" s="117"/>
-      <c r="H61" s="117"/>
-      <c r="I61" s="117"/>
-      <c r="J61" s="118"/>
+      <c r="A61" s="177"/>
+      <c r="B61" s="178"/>
+      <c r="C61" s="178"/>
+      <c r="D61" s="178"/>
+      <c r="E61" s="178"/>
+      <c r="F61" s="178"/>
+      <c r="G61" s="178"/>
+      <c r="H61" s="178"/>
+      <c r="I61" s="178"/>
+      <c r="J61" s="179"/>
     </row>
     <row r="62" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="73"/>
-      <c r="B62" s="127"/>
-      <c r="C62" s="128"/>
-      <c r="D62" s="124"/>
-      <c r="E62" s="125"/>
-      <c r="F62" s="125"/>
-      <c r="G62" s="125"/>
-      <c r="H62" s="125"/>
-      <c r="I62" s="125"/>
-      <c r="J62" s="126"/>
+      <c r="B62" s="121"/>
+      <c r="C62" s="123"/>
+      <c r="D62" s="165"/>
+      <c r="E62" s="166"/>
+      <c r="F62" s="166"/>
+      <c r="G62" s="166"/>
+      <c r="H62" s="166"/>
+      <c r="I62" s="166"/>
+      <c r="J62" s="167"/>
     </row>
     <row r="63" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="73"/>
-      <c r="B63" s="127"/>
-      <c r="C63" s="128"/>
-      <c r="D63" s="124"/>
-      <c r="E63" s="125"/>
-      <c r="F63" s="125"/>
-      <c r="G63" s="125"/>
-      <c r="H63" s="125"/>
-      <c r="I63" s="125"/>
-      <c r="J63" s="126"/>
+      <c r="B63" s="121"/>
+      <c r="C63" s="123"/>
+      <c r="D63" s="165"/>
+      <c r="E63" s="166"/>
+      <c r="F63" s="166"/>
+      <c r="G63" s="166"/>
+      <c r="H63" s="166"/>
+      <c r="I63" s="166"/>
+      <c r="J63" s="167"/>
     </row>
     <row r="64" spans="1:10" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A64" s="116"/>
-      <c r="B64" s="117"/>
-      <c r="C64" s="117"/>
-      <c r="D64" s="117"/>
-      <c r="E64" s="117"/>
-      <c r="F64" s="117"/>
-      <c r="G64" s="117"/>
-      <c r="H64" s="117"/>
-      <c r="I64" s="117"/>
-      <c r="J64" s="118"/>
+      <c r="A64" s="177"/>
+      <c r="B64" s="178"/>
+      <c r="C64" s="178"/>
+      <c r="D64" s="178"/>
+      <c r="E64" s="178"/>
+      <c r="F64" s="178"/>
+      <c r="G64" s="178"/>
+      <c r="H64" s="178"/>
+      <c r="I64" s="178"/>
+      <c r="J64" s="179"/>
     </row>
     <row r="65" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="73"/>
-      <c r="B65" s="127"/>
-      <c r="C65" s="128"/>
-      <c r="D65" s="124"/>
-      <c r="E65" s="125"/>
-      <c r="F65" s="125"/>
-      <c r="G65" s="125"/>
-      <c r="H65" s="125"/>
-      <c r="I65" s="125"/>
-      <c r="J65" s="126"/>
+      <c r="B65" s="121"/>
+      <c r="C65" s="123"/>
+      <c r="D65" s="165"/>
+      <c r="E65" s="166"/>
+      <c r="F65" s="166"/>
+      <c r="G65" s="166"/>
+      <c r="H65" s="166"/>
+      <c r="I65" s="166"/>
+      <c r="J65" s="167"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="77" t="s">
@@ -11046,14 +10537,14 @@
       <c r="B67" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="127"/>
-      <c r="D67" s="100"/>
-      <c r="E67" s="100"/>
-      <c r="F67" s="100"/>
-      <c r="G67" s="100"/>
-      <c r="H67" s="100"/>
-      <c r="I67" s="100"/>
-      <c r="J67" s="101"/>
+      <c r="C67" s="121"/>
+      <c r="D67" s="101"/>
+      <c r="E67" s="101"/>
+      <c r="F67" s="101"/>
+      <c r="G67" s="101"/>
+      <c r="H67" s="101"/>
+      <c r="I67" s="101"/>
+      <c r="J67" s="102"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="73">
@@ -11073,32 +10564,29 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="D65:J65"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="D63:J63"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B51:J51"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="B48:B49"/>
     <mergeCell ref="C68:J68"/>
     <mergeCell ref="C67:J67"/>
     <mergeCell ref="K1:K3"/>
@@ -11115,29 +10603,32 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="D62:J62"/>
     <mergeCell ref="B62:C62"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="D65:J65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="D63:J63"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -11156,11 +10647,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+    <sheetView topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11306,10 +10797,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>24</v>
@@ -11321,10 +10812,10 @@
         <v>17</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -11375,13 +10866,13 @@
         <v>14</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E11" s="42" t="s">
         <v>24</v>
@@ -11393,10 +10884,10 @@
         <v>17</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="J11" s="42" t="s">
         <v>0</v>
@@ -11410,13 +10901,13 @@
         <v>67</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F12" s="46" t="s">
         <v>95</v>
@@ -11441,7 +10932,7 @@
         <v>97</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E13" s="45" t="s">
         <v>79</v>
@@ -11466,7 +10957,7 @@
         <v>69</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D14" s="49"/>
       <c r="E14" s="49" t="s">
@@ -11490,7 +10981,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="185" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B16" s="186"/>
       <c r="C16" s="186"/>
@@ -11510,10 +11001,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E17" s="42" t="s">
         <v>24</v>
@@ -11525,10 +11016,10 @@
         <v>17</v>
       </c>
       <c r="H17" s="42" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I17" s="42" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="J17" s="42" t="s">
         <v>0</v>
@@ -11549,7 +11040,7 @@
         <v>77</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G18" s="45" t="s">
         <v>86</v>
@@ -11611,7 +11102,7 @@
         <v>113</v>
       </c>
       <c r="J20" s="88" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -11639,7 +11130,7 @@
         <v>113</v>
       </c>
       <c r="J21" s="51" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -11674,7 +11165,6 @@
     <oddFooter>&amp;L&amp;"細明體,標準"&amp;7機密&amp;C&amp;"Arial,標準"1.6.1-&amp;P&amp;R&amp;"Arial,標準"&amp;7Copyright@2005-2013 PIC.All rights reserved.</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -11682,8 +11172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="B23" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11761,7 +11251,7 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="151" t="s">
+      <c r="A5" s="154" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="98"/>
@@ -11775,57 +11265,57 @@
       <c r="J5" s="99"/>
     </row>
     <row r="6" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="102"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="104"/>
+      <c r="A6" s="113"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="115"/>
     </row>
     <row r="7" spans="1:17" s="56" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="152"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="155"/>
+      <c r="A7" s="155"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="158"/>
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:17" s="56" customFormat="1">
-      <c r="A8" s="152"/>
-      <c r="B8" s="153"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="155"/>
+      <c r="A8" s="155"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="157"/>
+      <c r="J8" s="158"/>
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:17" s="56" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="156"/>
-      <c r="B9" s="157"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="158"/>
+      <c r="A9" s="159"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="161"/>
     </row>
     <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="151" t="s">
+      <c r="A10" s="154" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="98"/>
@@ -11839,21 +11329,21 @@
       <c r="J10" s="99"/>
     </row>
     <row r="11" spans="1:17" s="58" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="159" t="s">
-        <v>192</v>
-      </c>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="101"/>
+      <c r="A11" s="162" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="151" t="s">
+      <c r="A12" s="154" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="98"/>
@@ -11867,21 +11357,21 @@
       <c r="J12" s="99"/>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="159" t="s">
+      <c r="A13" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="101"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="151" t="s">
+      <c r="A14" s="154" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="98"/>
@@ -11895,300 +11385,300 @@
       <c r="J14" s="99"/>
     </row>
     <row r="15" spans="1:17" s="56" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A15" s="163" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" s="164"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="165"/>
+      <c r="A15" s="130" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="140"/>
     </row>
     <row r="16" spans="1:17" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="166" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="168"/>
-    </row>
-    <row r="17" spans="1:10" s="56" customFormat="1" ht="53.25" customHeight="1">
+        <v>125</v>
+      </c>
+      <c r="C16" s="124" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="126"/>
+    </row>
+    <row r="17" spans="1:10" s="56" customFormat="1" ht="65.25" customHeight="1">
       <c r="A17" s="59">
         <v>1</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="169" t="s">
-        <v>241</v>
-      </c>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="171"/>
-    </row>
-    <row r="18" spans="1:10" s="56" customFormat="1" ht="57.75" customHeight="1">
+        <v>123</v>
+      </c>
+      <c r="C17" s="141" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="129"/>
+    </row>
+    <row r="18" spans="1:10" s="56" customFormat="1" ht="66" customHeight="1">
       <c r="A18" s="59">
         <v>2</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="169" t="s">
-        <v>239</v>
-      </c>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="171"/>
+        <v>126</v>
+      </c>
+      <c r="C18" s="141" t="s">
+        <v>241</v>
+      </c>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="129"/>
     </row>
     <row r="19" spans="1:10" s="56" customFormat="1">
       <c r="A19" s="59">
         <v>3</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="174" t="s">
-        <v>156</v>
-      </c>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="171"/>
+        <v>151</v>
+      </c>
+      <c r="C19" s="127" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="129"/>
     </row>
     <row r="20" spans="1:10" s="56" customFormat="1">
       <c r="A20" s="59">
         <v>4</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="174" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20" s="170"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="171"/>
+        <v>152</v>
+      </c>
+      <c r="C20" s="127" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="129"/>
     </row>
     <row r="21" spans="1:10" s="56" customFormat="1">
       <c r="A21" s="59">
         <v>5</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="174" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="170"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="171"/>
+        <v>127</v>
+      </c>
+      <c r="C21" s="127" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="129"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1">
-      <c r="A22" s="148"/>
-      <c r="B22" s="149"/>
-      <c r="C22" s="149"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="149"/>
-      <c r="J22" s="150"/>
+      <c r="A22" s="151"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="23" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="160" t="s">
+      <c r="A23" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="161"/>
-      <c r="C23" s="161"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="162"/>
+      <c r="B23" s="163"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="164"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1" ht="36" customHeight="1">
-      <c r="A24" s="163" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" s="164"/>
-      <c r="C24" s="164"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="164"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="165"/>
+      <c r="A24" s="130" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" s="139"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="139"/>
+      <c r="J24" s="140"/>
     </row>
     <row r="25" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="166" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="167"/>
-      <c r="I25" s="167"/>
-      <c r="J25" s="168"/>
+        <v>125</v>
+      </c>
+      <c r="C25" s="124" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="126"/>
     </row>
     <row r="26" spans="1:10" s="56" customFormat="1" ht="33" customHeight="1">
       <c r="A26" s="59">
         <v>1</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="169" t="s">
-        <v>243</v>
-      </c>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="171"/>
+        <v>123</v>
+      </c>
+      <c r="C26" s="141" t="s">
+        <v>230</v>
+      </c>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="129"/>
     </row>
     <row r="27" spans="1:10" s="56" customFormat="1" ht="32.25" customHeight="1">
       <c r="A27" s="59">
         <v>2</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="169" t="s">
-        <v>240</v>
-      </c>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="170"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="171"/>
+        <v>126</v>
+      </c>
+      <c r="C27" s="141" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="129"/>
     </row>
     <row r="28" spans="1:10" s="56" customFormat="1">
       <c r="A28" s="59">
         <v>3</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="C28" s="174" t="s">
-        <v>156</v>
-      </c>
-      <c r="D28" s="170"/>
-      <c r="E28" s="170"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="170"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="171"/>
+        <v>151</v>
+      </c>
+      <c r="C28" s="127" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="129"/>
     </row>
     <row r="29" spans="1:10" s="56" customFormat="1">
       <c r="A29" s="59">
         <v>4</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" s="174" t="s">
-        <v>155</v>
-      </c>
-      <c r="D29" s="170"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="170"/>
-      <c r="H29" s="170"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="171"/>
+        <v>152</v>
+      </c>
+      <c r="C29" s="127" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="129"/>
     </row>
     <row r="30" spans="1:10" s="56" customFormat="1">
       <c r="A30" s="59">
         <v>5</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="174" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="170"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="171"/>
+        <v>127</v>
+      </c>
+      <c r="C30" s="127" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="129"/>
     </row>
     <row r="31" spans="1:10" s="56" customFormat="1">
-      <c r="A31" s="148"/>
-      <c r="B31" s="188"/>
-      <c r="C31" s="188"/>
-      <c r="D31" s="188"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="189"/>
+      <c r="A31" s="151"/>
+      <c r="B31" s="190"/>
+      <c r="C31" s="190"/>
+      <c r="D31" s="190"/>
+      <c r="E31" s="190"/>
+      <c r="F31" s="190"/>
+      <c r="G31" s="190"/>
+      <c r="H31" s="190"/>
+      <c r="I31" s="190"/>
+      <c r="J31" s="191"/>
     </row>
     <row r="32" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="160" t="s">
+      <c r="A32" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="161"/>
-      <c r="C32" s="161"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="161"/>
-      <c r="J32" s="162"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="163"/>
+      <c r="D32" s="163"/>
+      <c r="E32" s="163"/>
+      <c r="F32" s="163"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="164"/>
     </row>
     <row r="33" spans="1:12" s="82" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="60" t="s">
@@ -12203,14 +11693,14 @@
       <c r="D33" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="183" t="s">
+      <c r="E33" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="184"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="184"/>
-      <c r="I33" s="184"/>
-      <c r="J33" s="184"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="120"/>
+      <c r="J33" s="120"/>
       <c r="K33" s="56"/>
       <c r="L33" s="56"/>
     </row>
@@ -12223,26 +11713,26 @@
       </c>
       <c r="C34" s="64"/>
       <c r="D34" s="65"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="96"/>
-      <c r="J34" s="96"/>
+      <c r="E34" s="168"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="110"/>
     </row>
     <row r="35" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="145" t="s">
+      <c r="A35" s="148" t="s">
         <v>119</v>
       </c>
-      <c r="B35" s="146"/>
-      <c r="C35" s="146"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="146"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="146"/>
-      <c r="I35" s="146"/>
-      <c r="J35" s="147"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="150"/>
       <c r="K35" s="56"/>
       <c r="L35" s="56"/>
     </row>
@@ -12251,170 +11741,170 @@
         <v>1</v>
       </c>
       <c r="B36" s="67" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C36" s="68" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="69"/>
-      <c r="E36" s="129" t="s">
-        <v>183</v>
-      </c>
-      <c r="F36" s="96"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="96"/>
-      <c r="J36" s="96"/>
+      <c r="E36" s="168" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="110"/>
+      <c r="J36" s="110"/>
     </row>
     <row r="37" spans="1:12" s="56" customFormat="1">
       <c r="A37" s="70">
         <v>2</v>
       </c>
       <c r="B37" s="71" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C37" s="68" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D37" s="86"/>
-      <c r="E37" s="137" t="s">
-        <v>220</v>
-      </c>
-      <c r="F37" s="138"/>
-      <c r="G37" s="138"/>
-      <c r="H37" s="138"/>
-      <c r="I37" s="138"/>
-      <c r="J37" s="139"/>
+      <c r="E37" s="145" t="s">
+        <v>211</v>
+      </c>
+      <c r="F37" s="146"/>
+      <c r="G37" s="146"/>
+      <c r="H37" s="146"/>
+      <c r="I37" s="146"/>
+      <c r="J37" s="147"/>
     </row>
     <row r="38" spans="1:12" s="56" customFormat="1" ht="92.25" customHeight="1">
       <c r="A38" s="70"/>
       <c r="B38" s="71"/>
       <c r="C38" s="83" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D38" s="87" t="s">
-        <v>200</v>
-      </c>
-      <c r="E38" s="190" t="s">
-        <v>221</v>
-      </c>
-      <c r="F38" s="191"/>
-      <c r="G38" s="191"/>
-      <c r="H38" s="191"/>
-      <c r="I38" s="191"/>
-      <c r="J38" s="191"/>
+        <v>191</v>
+      </c>
+      <c r="E38" s="192" t="s">
+        <v>212</v>
+      </c>
+      <c r="F38" s="193"/>
+      <c r="G38" s="193"/>
+      <c r="H38" s="193"/>
+      <c r="I38" s="193"/>
+      <c r="J38" s="193"/>
     </row>
     <row r="39" spans="1:12" s="56" customFormat="1" ht="37.5" customHeight="1">
       <c r="A39" s="73">
         <v>3</v>
       </c>
       <c r="B39" s="67" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C39" s="68" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D39" s="74"/>
-      <c r="E39" s="124" t="s">
+      <c r="E39" s="165" t="s">
         <v>92</v>
       </c>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="100"/>
-      <c r="J39" s="101"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="101"/>
+      <c r="J39" s="102"/>
     </row>
     <row r="40" spans="1:12" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="121" t="s">
+      <c r="A40" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="122"/>
-      <c r="C40" s="122"/>
-      <c r="D40" s="122"/>
-      <c r="E40" s="122"/>
-      <c r="F40" s="122"/>
-      <c r="G40" s="122"/>
-      <c r="H40" s="122"/>
-      <c r="I40" s="122"/>
-      <c r="J40" s="123"/>
+      <c r="B40" s="183"/>
+      <c r="C40" s="183"/>
+      <c r="D40" s="183"/>
+      <c r="E40" s="183"/>
+      <c r="F40" s="183"/>
+      <c r="G40" s="183"/>
+      <c r="H40" s="183"/>
+      <c r="I40" s="183"/>
+      <c r="J40" s="184"/>
     </row>
     <row r="41" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="119" t="s">
+      <c r="B41" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="120"/>
-      <c r="D41" s="124" t="s">
+      <c r="C41" s="181"/>
+      <c r="D41" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="101"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="101"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="101"/>
+      <c r="J41" s="102"/>
     </row>
     <row r="42" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="116"/>
-      <c r="B42" s="192"/>
-      <c r="C42" s="192"/>
-      <c r="D42" s="192"/>
-      <c r="E42" s="192"/>
-      <c r="F42" s="192"/>
-      <c r="G42" s="192"/>
-      <c r="H42" s="192"/>
-      <c r="I42" s="192"/>
-      <c r="J42" s="193"/>
+      <c r="A42" s="177"/>
+      <c r="B42" s="188"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="188"/>
+      <c r="E42" s="188"/>
+      <c r="F42" s="188"/>
+      <c r="G42" s="188"/>
+      <c r="H42" s="188"/>
+      <c r="I42" s="188"/>
+      <c r="J42" s="189"/>
     </row>
     <row r="43" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="73"/>
-      <c r="B43" s="127"/>
-      <c r="C43" s="128"/>
-      <c r="D43" s="124"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="101"/>
+      <c r="B43" s="121"/>
+      <c r="C43" s="123"/>
+      <c r="D43" s="165"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="101"/>
+      <c r="J43" s="102"/>
     </row>
     <row r="44" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="73"/>
-      <c r="B44" s="127"/>
-      <c r="C44" s="128"/>
-      <c r="D44" s="124"/>
-      <c r="E44" s="100"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="100"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="100"/>
-      <c r="J44" s="101"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="123"/>
+      <c r="D44" s="165"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="101"/>
+      <c r="G44" s="101"/>
+      <c r="H44" s="101"/>
+      <c r="I44" s="101"/>
+      <c r="J44" s="102"/>
     </row>
     <row r="45" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="116"/>
-      <c r="B45" s="192"/>
-      <c r="C45" s="192"/>
-      <c r="D45" s="192"/>
-      <c r="E45" s="192"/>
-      <c r="F45" s="192"/>
-      <c r="G45" s="192"/>
-      <c r="H45" s="192"/>
-      <c r="I45" s="192"/>
-      <c r="J45" s="193"/>
+      <c r="A45" s="177"/>
+      <c r="B45" s="188"/>
+      <c r="C45" s="188"/>
+      <c r="D45" s="188"/>
+      <c r="E45" s="188"/>
+      <c r="F45" s="188"/>
+      <c r="G45" s="188"/>
+      <c r="H45" s="188"/>
+      <c r="I45" s="188"/>
+      <c r="J45" s="189"/>
     </row>
     <row r="46" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="73"/>
-      <c r="B46" s="127"/>
-      <c r="C46" s="128"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="101"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="123"/>
+      <c r="D46" s="165"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="101"/>
+      <c r="J46" s="102"/>
     </row>
     <row r="47" spans="1:12" s="56" customFormat="1" ht="17.25" customHeight="1">
       <c r="A47" s="77" t="s">
@@ -12437,14 +11927,14 @@
       <c r="B48" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="127"/>
-      <c r="D48" s="100"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="100"/>
-      <c r="G48" s="100"/>
-      <c r="H48" s="100"/>
-      <c r="I48" s="100"/>
-      <c r="J48" s="101"/>
+      <c r="C48" s="121"/>
+      <c r="D48" s="101"/>
+      <c r="E48" s="101"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="101"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="101"/>
+      <c r="J48" s="102"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="73">
@@ -12464,14 +11954,28 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="C29:J29"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="D46:J46"/>
@@ -12488,28 +11992,14 @@
     <mergeCell ref="A40:J40"/>
     <mergeCell ref="E34:J34"/>
     <mergeCell ref="A35:J35"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -12531,7 +12021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
@@ -12677,10 +12167,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>24</v>
@@ -12692,7 +12182,7 @@
         <v>17</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I7" s="42" t="s">
         <v>45</v>
@@ -12749,10 +12239,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E11" s="42" t="s">
         <v>24</v>
@@ -12764,7 +12254,7 @@
         <v>17</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I11" s="42" t="s">
         <v>45</v>
@@ -12797,7 +12287,7 @@
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="43" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="J12" s="48"/>
     </row>
@@ -12825,7 +12315,7 @@
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="J13" s="51"/>
     </row>
@@ -12837,7 +12327,7 @@
         <v>71</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D14" s="45" t="s">
         <v>105</v>
@@ -12852,10 +12342,10 @@
         <v>89</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I14" s="43" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="J14" s="48"/>
     </row>
@@ -12883,7 +12373,7 @@
       </c>
       <c r="H15" s="45"/>
       <c r="I15" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J15" s="48"/>
     </row>
@@ -12895,7 +12385,7 @@
         <v>69</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D16" s="49" t="s">
         <v>98</v>
@@ -12916,7 +12406,7 @@
         <v>112</v>
       </c>
       <c r="J16" s="51" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -12945,8 +12435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42:J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13024,7 +12514,7 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="151" t="s">
+      <c r="A5" s="154" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="98"/>
@@ -13038,57 +12528,57 @@
       <c r="J5" s="99"/>
     </row>
     <row r="6" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="102"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="104"/>
+      <c r="A6" s="113"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="115"/>
     </row>
     <row r="7" spans="1:17" s="56" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="152"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="155"/>
+      <c r="A7" s="155"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="158"/>
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:17" s="56" customFormat="1">
-      <c r="A8" s="152"/>
-      <c r="B8" s="153"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="155"/>
+      <c r="A8" s="155"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="157"/>
+      <c r="J8" s="158"/>
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:17" s="56" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="156"/>
-      <c r="B9" s="157"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="158"/>
+      <c r="A9" s="159"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="161"/>
     </row>
     <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="151" t="s">
+      <c r="A10" s="154" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="98"/>
@@ -13101,22 +12591,22 @@
       <c r="I10" s="98"/>
       <c r="J10" s="99"/>
     </row>
-    <row r="11" spans="1:17" s="58" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="159" t="s">
-        <v>195</v>
-      </c>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="101"/>
+    <row r="11" spans="1:17" s="58" customFormat="1" ht="129" customHeight="1">
+      <c r="A11" s="162" t="s">
+        <v>244</v>
+      </c>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="151" t="s">
+      <c r="A12" s="154" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="98"/>
@@ -13130,21 +12620,21 @@
       <c r="J12" s="99"/>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="159" t="s">
+      <c r="A13" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="101"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="151" t="s">
+      <c r="A14" s="154" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="98"/>
@@ -13158,356 +12648,356 @@
       <c r="J14" s="99"/>
     </row>
     <row r="15" spans="1:17" s="56" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A15" s="163" t="s">
-        <v>196</v>
-      </c>
-      <c r="B15" s="164"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="165"/>
+      <c r="A15" s="130" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="140"/>
     </row>
     <row r="16" spans="1:17" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="166" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="168"/>
+        <v>125</v>
+      </c>
+      <c r="C16" s="124" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="126"/>
     </row>
     <row r="17" spans="1:10" s="56" customFormat="1" ht="71.25" customHeight="1">
       <c r="A17" s="59">
         <v>1</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="169" t="s">
-        <v>242</v>
-      </c>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="171"/>
-    </row>
-    <row r="18" spans="1:10" s="56" customFormat="1" ht="63.75" customHeight="1">
+        <v>123</v>
+      </c>
+      <c r="C17" s="141" t="s">
+        <v>239</v>
+      </c>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="129"/>
+    </row>
+    <row r="18" spans="1:10" s="56" customFormat="1" ht="69.75" customHeight="1">
       <c r="A18" s="59">
         <v>2</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="169" t="s">
-        <v>242</v>
-      </c>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="171"/>
+        <v>126</v>
+      </c>
+      <c r="C18" s="141" t="s">
+        <v>241</v>
+      </c>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="129"/>
     </row>
     <row r="19" spans="1:10" s="56" customFormat="1">
       <c r="A19" s="59">
         <v>3</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="174" t="s">
-        <v>156</v>
-      </c>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="171"/>
+        <v>151</v>
+      </c>
+      <c r="C19" s="127" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="129"/>
     </row>
     <row r="20" spans="1:10" s="56" customFormat="1">
       <c r="A20" s="59">
         <v>4</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="174" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20" s="170"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="171"/>
+        <v>152</v>
+      </c>
+      <c r="C20" s="127" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="129"/>
     </row>
     <row r="21" spans="1:10" s="56" customFormat="1">
       <c r="A21" s="59">
         <v>5</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="174" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="170"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="171"/>
+        <v>127</v>
+      </c>
+      <c r="C21" s="127" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="129"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1">
-      <c r="A22" s="127"/>
-      <c r="B22" s="136"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="128"/>
+      <c r="A22" s="121"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="123"/>
     </row>
     <row r="23" spans="1:10" s="56" customFormat="1">
-      <c r="A23" s="163" t="s">
-        <v>189</v>
-      </c>
-      <c r="B23" s="164"/>
-      <c r="C23" s="164"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="164"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="164"/>
-      <c r="J23" s="165"/>
+      <c r="A23" s="130" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="139"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="140"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A24" s="194" t="s">
-        <v>166</v>
-      </c>
-      <c r="B24" s="149"/>
-      <c r="C24" s="149"/>
-      <c r="D24" s="149"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="149"/>
-      <c r="J24" s="150"/>
+      <c r="A24" s="198" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="152"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="153"/>
     </row>
     <row r="25" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="160" t="s">
+      <c r="A25" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="161"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="162"/>
-    </row>
-    <row r="26" spans="1:10" s="56" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A26" s="163" t="s">
-        <v>196</v>
-      </c>
-      <c r="B26" s="164"/>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="165"/>
+      <c r="B25" s="163"/>
+      <c r="C25" s="163"/>
+      <c r="D25" s="163"/>
+      <c r="E25" s="163"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="163"/>
+      <c r="H25" s="163"/>
+      <c r="I25" s="163"/>
+      <c r="J25" s="164"/>
+    </row>
+    <row r="26" spans="1:10" s="56" customFormat="1" ht="35.25" customHeight="1">
+      <c r="A26" s="130" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" s="139"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="140"/>
     </row>
     <row r="27" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="166" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="168"/>
+        <v>125</v>
+      </c>
+      <c r="C27" s="124" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="126"/>
     </row>
     <row r="28" spans="1:10" s="56" customFormat="1" ht="33" customHeight="1">
       <c r="A28" s="59">
         <v>1</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="169" t="s">
-        <v>245</v>
-      </c>
-      <c r="D28" s="170"/>
-      <c r="E28" s="170"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="170"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="171"/>
+        <v>123</v>
+      </c>
+      <c r="C28" s="141" t="s">
+        <v>232</v>
+      </c>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="129"/>
     </row>
     <row r="29" spans="1:10" s="56" customFormat="1" ht="32.25" customHeight="1">
       <c r="A29" s="59">
         <v>2</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="169" t="s">
-        <v>244</v>
-      </c>
-      <c r="D29" s="170"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="170"/>
-      <c r="H29" s="170"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="171"/>
+        <v>126</v>
+      </c>
+      <c r="C29" s="141" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="129"/>
     </row>
     <row r="30" spans="1:10" s="56" customFormat="1">
       <c r="A30" s="59">
         <v>3</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="C30" s="174" t="s">
-        <v>156</v>
-      </c>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="170"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="171"/>
+        <v>151</v>
+      </c>
+      <c r="C30" s="127" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="129"/>
     </row>
     <row r="31" spans="1:10" s="56" customFormat="1">
       <c r="A31" s="59">
         <v>4</v>
       </c>
       <c r="B31" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="C31" s="174" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" s="170"/>
-      <c r="E31" s="170"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="170"/>
-      <c r="H31" s="170"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="171"/>
+        <v>152</v>
+      </c>
+      <c r="C31" s="127" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="129"/>
     </row>
     <row r="32" spans="1:10" s="56" customFormat="1">
       <c r="A32" s="59">
         <v>5</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>129</v>
-      </c>
-      <c r="C32" s="174" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="170"/>
-      <c r="E32" s="170"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="170"/>
-      <c r="H32" s="170"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="171"/>
+        <v>127</v>
+      </c>
+      <c r="C32" s="127" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="129"/>
     </row>
     <row r="33" spans="1:12" s="56" customFormat="1">
-      <c r="A33" s="148"/>
-      <c r="B33" s="188"/>
-      <c r="C33" s="188"/>
-      <c r="D33" s="188"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="188"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="188"/>
-      <c r="J33" s="189"/>
+      <c r="A33" s="151"/>
+      <c r="B33" s="190"/>
+      <c r="C33" s="190"/>
+      <c r="D33" s="190"/>
+      <c r="E33" s="190"/>
+      <c r="F33" s="190"/>
+      <c r="G33" s="190"/>
+      <c r="H33" s="190"/>
+      <c r="I33" s="190"/>
+      <c r="J33" s="191"/>
     </row>
     <row r="34" spans="1:12" s="56" customFormat="1">
-      <c r="A34" s="163" t="s">
-        <v>165</v>
-      </c>
-      <c r="B34" s="164"/>
-      <c r="C34" s="164"/>
-      <c r="D34" s="164"/>
-      <c r="E34" s="164"/>
-      <c r="F34" s="164"/>
-      <c r="G34" s="164"/>
-      <c r="H34" s="164"/>
-      <c r="I34" s="164"/>
-      <c r="J34" s="165"/>
+      <c r="A34" s="130" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="139"/>
+      <c r="C34" s="139"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="139"/>
+      <c r="I34" s="139"/>
+      <c r="J34" s="140"/>
     </row>
     <row r="35" spans="1:12" s="56" customFormat="1" ht="27" customHeight="1">
-      <c r="A35" s="195" t="s">
-        <v>166</v>
-      </c>
-      <c r="B35" s="96"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="196"/>
+      <c r="A35" s="194" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="110"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="195"/>
     </row>
     <row r="36" spans="1:12" s="82" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="160" t="s">
+      <c r="A36" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="161"/>
-      <c r="C36" s="161"/>
-      <c r="D36" s="161"/>
-      <c r="E36" s="161"/>
-      <c r="F36" s="161"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="161"/>
-      <c r="J36" s="162"/>
+      <c r="B36" s="163"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="163"/>
+      <c r="E36" s="163"/>
+      <c r="F36" s="163"/>
+      <c r="G36" s="163"/>
+      <c r="H36" s="163"/>
+      <c r="I36" s="163"/>
+      <c r="J36" s="164"/>
       <c r="K36" s="56"/>
       <c r="L36" s="56"/>
     </row>
@@ -13524,318 +13014,318 @@
       <c r="D37" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="183" t="s">
+      <c r="E37" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="184"/>
-      <c r="G37" s="184"/>
-      <c r="H37" s="184"/>
-      <c r="I37" s="184"/>
-      <c r="J37" s="184"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="120"/>
+      <c r="H37" s="120"/>
+      <c r="I37" s="120"/>
+      <c r="J37" s="120"/>
     </row>
     <row r="38" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="63">
         <v>1</v>
       </c>
       <c r="B38" s="63" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C38" s="64" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="65"/>
-      <c r="E38" s="129" t="s">
-        <v>168</v>
-      </c>
-      <c r="F38" s="96"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="96"/>
-      <c r="J38" s="96"/>
+      <c r="E38" s="168" t="s">
+        <v>166</v>
+      </c>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="110"/>
       <c r="K38" s="56"/>
       <c r="L38" s="56"/>
     </row>
     <row r="39" spans="1:12" s="56" customFormat="1">
-      <c r="A39" s="145" t="s">
-        <v>175</v>
-      </c>
-      <c r="B39" s="146"/>
-      <c r="C39" s="146"/>
-      <c r="D39" s="146"/>
-      <c r="E39" s="146"/>
-      <c r="F39" s="146"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="146"/>
-      <c r="I39" s="146"/>
-      <c r="J39" s="147"/>
+      <c r="A39" s="148" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" s="149"/>
+      <c r="C39" s="149"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="150"/>
     </row>
     <row r="40" spans="1:12" s="56" customFormat="1" ht="25.5" customHeight="1">
       <c r="A40" s="59">
         <v>1</v>
       </c>
       <c r="B40" s="67" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C40" s="68" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="69"/>
-      <c r="E40" s="129" t="s">
+      <c r="E40" s="168" t="s">
         <v>108</v>
       </c>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="96"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="110"/>
+      <c r="I40" s="110"/>
+      <c r="J40" s="110"/>
     </row>
     <row r="41" spans="1:12" s="56" customFormat="1" ht="87.75" customHeight="1">
       <c r="A41" s="70">
         <v>2</v>
       </c>
       <c r="B41" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="68" t="s">
-        <v>172</v>
-      </c>
       <c r="D41" s="86"/>
-      <c r="E41" s="137" t="s">
-        <v>203</v>
-      </c>
-      <c r="F41" s="138"/>
-      <c r="G41" s="138"/>
-      <c r="H41" s="138"/>
-      <c r="I41" s="138"/>
-      <c r="J41" s="139"/>
+      <c r="E41" s="145" t="s">
+        <v>194</v>
+      </c>
+      <c r="F41" s="146"/>
+      <c r="G41" s="146"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="146"/>
+      <c r="J41" s="147"/>
     </row>
     <row r="42" spans="1:12" s="56" customFormat="1" ht="99">
       <c r="A42" s="70"/>
       <c r="B42" s="71"/>
       <c r="C42" s="83" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D42" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="E42" s="137" t="s">
-        <v>204</v>
-      </c>
-      <c r="F42" s="197"/>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
-      <c r="J42" s="198"/>
+        <v>227</v>
+      </c>
+      <c r="E42" s="145" t="s">
+        <v>195</v>
+      </c>
+      <c r="F42" s="196"/>
+      <c r="G42" s="196"/>
+      <c r="H42" s="196"/>
+      <c r="I42" s="196"/>
+      <c r="J42" s="197"/>
     </row>
     <row r="43" spans="1:12" s="58" customFormat="1" ht="33.75" customHeight="1">
       <c r="A43" s="73">
         <v>3</v>
       </c>
       <c r="B43" s="67" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C43" s="68" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" s="74"/>
+      <c r="E43" s="165" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" s="101"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="101"/>
+      <c r="J43" s="102"/>
+    </row>
+    <row r="44" spans="1:12" s="58" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A44" s="165"/>
+      <c r="B44" s="166"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="166"/>
+      <c r="E44" s="166"/>
+      <c r="F44" s="166"/>
+      <c r="G44" s="166"/>
+      <c r="H44" s="166"/>
+      <c r="I44" s="166"/>
+      <c r="J44" s="167"/>
+    </row>
+    <row r="45" spans="1:12" s="56" customFormat="1">
+      <c r="A45" s="169" t="s">
         <v>172</v>
       </c>
-      <c r="D43" s="74"/>
-      <c r="E43" s="124" t="s">
-        <v>92</v>
-      </c>
-      <c r="F43" s="100"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="101"/>
-    </row>
-    <row r="44" spans="1:12" s="58" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A44" s="124"/>
-      <c r="B44" s="125"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="125"/>
-      <c r="J44" s="126"/>
-    </row>
-    <row r="45" spans="1:12" s="56" customFormat="1">
-      <c r="A45" s="130" t="s">
-        <v>174</v>
-      </c>
-      <c r="B45" s="131"/>
-      <c r="C45" s="131"/>
-      <c r="D45" s="131"/>
-      <c r="E45" s="131"/>
-      <c r="F45" s="131"/>
-      <c r="G45" s="131"/>
-      <c r="H45" s="131"/>
-      <c r="I45" s="131"/>
-      <c r="J45" s="132"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="170"/>
+      <c r="E45" s="170"/>
+      <c r="F45" s="170"/>
+      <c r="G45" s="170"/>
+      <c r="H45" s="170"/>
+      <c r="I45" s="170"/>
+      <c r="J45" s="171"/>
     </row>
     <row r="46" spans="1:12" s="56" customFormat="1">
       <c r="A46" s="59">
         <v>1</v>
       </c>
       <c r="B46" s="67" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C46" s="68" t="s">
         <v>107</v>
       </c>
       <c r="D46" s="69"/>
-      <c r="E46" s="129" t="s">
-        <v>184</v>
-      </c>
-      <c r="F46" s="96"/>
-      <c r="G46" s="96"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="96"/>
-      <c r="J46" s="96"/>
+      <c r="E46" s="168" t="s">
+        <v>245</v>
+      </c>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="110"/>
     </row>
     <row r="47" spans="1:12" s="56" customFormat="1">
       <c r="A47" s="59">
         <v>2</v>
       </c>
       <c r="B47" s="67" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="C47" s="68" t="s">
         <v>107</v>
       </c>
       <c r="D47" s="69"/>
-      <c r="E47" s="129" t="s">
-        <v>121</v>
-      </c>
-      <c r="F47" s="96"/>
-      <c r="G47" s="96"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="96"/>
+      <c r="E47" s="168" t="s">
+        <v>246</v>
+      </c>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="110"/>
     </row>
     <row r="48" spans="1:12" s="56" customFormat="1">
       <c r="A48" s="59">
         <v>3</v>
       </c>
       <c r="B48" s="67" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="C48" s="68" t="s">
         <v>107</v>
       </c>
       <c r="D48" s="69"/>
-      <c r="E48" s="129" t="s">
-        <v>122</v>
-      </c>
-      <c r="F48" s="96"/>
-      <c r="G48" s="96"/>
-      <c r="H48" s="96"/>
-      <c r="I48" s="96"/>
-      <c r="J48" s="96"/>
+      <c r="E48" s="168" t="s">
+        <v>247</v>
+      </c>
+      <c r="F48" s="110"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="110"/>
+      <c r="J48" s="110"/>
     </row>
     <row r="49" spans="1:10" s="56" customFormat="1">
-      <c r="A49" s="127"/>
-      <c r="B49" s="136"/>
-      <c r="C49" s="136"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="136"/>
-      <c r="F49" s="136"/>
-      <c r="G49" s="136"/>
-      <c r="H49" s="136"/>
-      <c r="I49" s="136"/>
-      <c r="J49" s="128"/>
+      <c r="A49" s="121"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="122"/>
+      <c r="E49" s="122"/>
+      <c r="F49" s="122"/>
+      <c r="G49" s="122"/>
+      <c r="H49" s="122"/>
+      <c r="I49" s="122"/>
+      <c r="J49" s="123"/>
     </row>
     <row r="50" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A50" s="121" t="s">
+      <c r="A50" s="182" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="122"/>
-      <c r="C50" s="122"/>
-      <c r="D50" s="122"/>
-      <c r="E50" s="122"/>
-      <c r="F50" s="122"/>
-      <c r="G50" s="122"/>
-      <c r="H50" s="122"/>
-      <c r="I50" s="122"/>
-      <c r="J50" s="123"/>
+      <c r="B50" s="183"/>
+      <c r="C50" s="183"/>
+      <c r="D50" s="183"/>
+      <c r="E50" s="183"/>
+      <c r="F50" s="183"/>
+      <c r="G50" s="183"/>
+      <c r="H50" s="183"/>
+      <c r="I50" s="183"/>
+      <c r="J50" s="184"/>
     </row>
     <row r="51" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="119" t="s">
+      <c r="B51" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="120"/>
-      <c r="D51" s="124" t="s">
+      <c r="C51" s="181"/>
+      <c r="D51" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="100"/>
-      <c r="F51" s="100"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="100"/>
-      <c r="J51" s="101"/>
+      <c r="E51" s="101"/>
+      <c r="F51" s="101"/>
+      <c r="G51" s="101"/>
+      <c r="H51" s="101"/>
+      <c r="I51" s="101"/>
+      <c r="J51" s="102"/>
     </row>
     <row r="52" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="116"/>
-      <c r="B52" s="192"/>
-      <c r="C52" s="192"/>
-      <c r="D52" s="192"/>
-      <c r="E52" s="192"/>
-      <c r="F52" s="192"/>
-      <c r="G52" s="192"/>
-      <c r="H52" s="192"/>
-      <c r="I52" s="192"/>
-      <c r="J52" s="193"/>
+      <c r="A52" s="177"/>
+      <c r="B52" s="188"/>
+      <c r="C52" s="188"/>
+      <c r="D52" s="188"/>
+      <c r="E52" s="188"/>
+      <c r="F52" s="188"/>
+      <c r="G52" s="188"/>
+      <c r="H52" s="188"/>
+      <c r="I52" s="188"/>
+      <c r="J52" s="189"/>
     </row>
     <row r="53" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="73"/>
-      <c r="B53" s="127"/>
-      <c r="C53" s="128"/>
-      <c r="D53" s="124"/>
-      <c r="E53" s="100"/>
-      <c r="F53" s="100"/>
-      <c r="G53" s="100"/>
-      <c r="H53" s="100"/>
-      <c r="I53" s="100"/>
-      <c r="J53" s="101"/>
+      <c r="B53" s="121"/>
+      <c r="C53" s="123"/>
+      <c r="D53" s="165"/>
+      <c r="E53" s="101"/>
+      <c r="F53" s="101"/>
+      <c r="G53" s="101"/>
+      <c r="H53" s="101"/>
+      <c r="I53" s="101"/>
+      <c r="J53" s="102"/>
     </row>
     <row r="54" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="73"/>
-      <c r="B54" s="127"/>
-      <c r="C54" s="128"/>
-      <c r="D54" s="124"/>
-      <c r="E54" s="100"/>
-      <c r="F54" s="100"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="100"/>
-      <c r="I54" s="100"/>
-      <c r="J54" s="101"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="123"/>
+      <c r="D54" s="165"/>
+      <c r="E54" s="101"/>
+      <c r="F54" s="101"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="101"/>
+      <c r="I54" s="101"/>
+      <c r="J54" s="102"/>
     </row>
     <row r="55" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="116"/>
-      <c r="B55" s="192"/>
-      <c r="C55" s="192"/>
-      <c r="D55" s="192"/>
-      <c r="E55" s="192"/>
-      <c r="F55" s="192"/>
-      <c r="G55" s="192"/>
-      <c r="H55" s="192"/>
-      <c r="I55" s="192"/>
-      <c r="J55" s="193"/>
+      <c r="A55" s="177"/>
+      <c r="B55" s="188"/>
+      <c r="C55" s="188"/>
+      <c r="D55" s="188"/>
+      <c r="E55" s="188"/>
+      <c r="F55" s="188"/>
+      <c r="G55" s="188"/>
+      <c r="H55" s="188"/>
+      <c r="I55" s="188"/>
+      <c r="J55" s="189"/>
     </row>
     <row r="56" spans="1:10" s="56" customFormat="1" ht="17.25" customHeight="1">
       <c r="A56" s="73"/>
-      <c r="B56" s="127"/>
-      <c r="C56" s="128"/>
-      <c r="D56" s="124"/>
-      <c r="E56" s="100"/>
-      <c r="F56" s="100"/>
-      <c r="G56" s="100"/>
-      <c r="H56" s="100"/>
-      <c r="I56" s="100"/>
-      <c r="J56" s="101"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="123"/>
+      <c r="D56" s="165"/>
+      <c r="E56" s="101"/>
+      <c r="F56" s="101"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="101"/>
+      <c r="I56" s="101"/>
+      <c r="J56" s="102"/>
     </row>
     <row r="57" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="77" t="s">
@@ -13858,14 +13348,14 @@
       <c r="B58" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="127"/>
-      <c r="D58" s="100"/>
-      <c r="E58" s="100"/>
-      <c r="F58" s="100"/>
-      <c r="G58" s="100"/>
-      <c r="H58" s="100"/>
-      <c r="I58" s="100"/>
-      <c r="J58" s="101"/>
+      <c r="C58" s="121"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="101"/>
+      <c r="G58" s="101"/>
+      <c r="H58" s="101"/>
+      <c r="I58" s="101"/>
+      <c r="J58" s="102"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="73">
@@ -13885,17 +13375,35 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:J53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="A55:J55"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="E47:J47"/>
     <mergeCell ref="B56:C56"/>
@@ -13912,35 +13420,17 @@
     <mergeCell ref="A45:J45"/>
     <mergeCell ref="E46:J46"/>
     <mergeCell ref="E48:J48"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:J53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/APF/RA006/RA006_APF0101_角色維護.xlsx
+++ b/APF/RA006/RA006_APF0101_角色維護.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7710" tabRatio="797" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7710" tabRatio="797" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="249">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -274,10 +274,6 @@
   </si>
   <si>
     <t>Global 參數</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入/輸出</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1284,6 +1280,13 @@
   <si>
     <t>以導頁方式開啟APF0203MU1</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入/輸出/必填</t>
+  </si>
+  <si>
+    <t>輸入/輸出/必填</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2047,6 +2050,42 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2059,24 +2098,9 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2086,39 +2110,210 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2130,218 +2325,29 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2354,9 +2360,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3413,13 +3416,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>6350</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>681567</xdr:colOff>
-          <xdr:row>83</xdr:row>
-          <xdr:rowOff>107950</xdr:rowOff>
+          <xdr:colOff>657225</xdr:colOff>
+          <xdr:row>84</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5197,7 +5200,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="14620875" cy="523875"/>
+          <a:ext cx="14401800" cy="523875"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -6264,7 +6267,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="13122088" cy="621366"/>
+          <a:ext cx="13368618" cy="621366"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -7374,7 +7377,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="12009783" cy="600903"/>
+          <a:ext cx="12365935" cy="600903"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -8250,7 +8253,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="92" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="92"/>
       <c r="C1" s="92"/>
@@ -8258,108 +8261,108 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="31" t="s">
+      <c r="D2" s="32" t="s">
         <v>54</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>59</v>
-      </c>
       <c r="D3" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>234</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>235</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="91" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="91"/>
       <c r="B6" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
       <c r="A7" s="91" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="90" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
       <c r="A8" s="91"/>
       <c r="B8" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="90" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
       <c r="A9" s="91" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="90" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
       <c r="A10" s="91"/>
       <c r="B10" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="90" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1" thickBot="1">
@@ -8423,7 +8426,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8435,7 +8438,7 @@
     <col min="5" max="6" width="17.25" style="41" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.625" style="41" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="41" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="41" customWidth="1"/>
     <col min="10" max="10" width="34.75" style="41" customWidth="1"/>
     <col min="11" max="11" width="10" style="41" customWidth="1"/>
     <col min="12" max="16384" width="9" style="41"/>
@@ -8453,7 +8456,7 @@
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
       <c r="K1" s="143" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L1" s="39"/>
       <c r="M1" s="39"/>
@@ -8568,10 +8571,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="42" t="s">
         <v>219</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>220</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>24</v>
@@ -8583,10 +8586,10 @@
         <v>17</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -8640,10 +8643,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="42" t="s">
         <v>219</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>220</v>
       </c>
       <c r="E11" s="42" t="s">
         <v>24</v>
@@ -8655,10 +8658,10 @@
         <v>17</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="J11" s="42" t="s">
         <v>0</v>
@@ -8669,26 +8672,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="45" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J12" s="48"/>
     </row>
@@ -8697,26 +8700,26 @@
         <v>2</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="45" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J13" s="51"/>
     </row>
@@ -8725,26 +8728,26 @@
         <v>3</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="46" t="s">
-        <v>74</v>
-      </c>
       <c r="G14" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J14" s="48"/>
     </row>
@@ -8753,26 +8756,26 @@
         <v>4</v>
       </c>
       <c r="B15" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="D15" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="45" t="s">
         <v>100</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>101</v>
       </c>
       <c r="H15" s="45"/>
       <c r="I15" s="43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J15" s="48"/>
     </row>
@@ -8781,29 +8784,29 @@
         <v>5</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H16" s="49"/>
       <c r="I16" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J16" s="51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -8935,10 +8938,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>46</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>47</v>
       </c>
       <c r="D6" s="89">
         <v>41550</v>
@@ -9071,7 +9074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O83" sqref="O83"/>
     </sheetView>
   </sheetViews>
@@ -9085,17 +9088,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" s="93" t="s">
-        <v>60</v>
+        <v>55</v>
+      </c>
+      <c r="M1" s="105" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="94"/>
+      <c r="M2" s="106"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="94"/>
+      <c r="M3" s="106"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -9112,45 +9115,45 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="112"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="115"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="113" t="s">
-        <v>205</v>
-      </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="115"/>
+      <c r="A6" s="102" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="104"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
       <c r="F7" s="97" t="s">
         <v>30</v>
       </c>
@@ -9162,31 +9165,31 @@
       <c r="L7" s="99"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="109" t="s">
-        <v>196</v>
-      </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="102"/>
+      <c r="A8" s="95" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="101"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
       <c r="F9" s="97" t="s">
         <v>32</v>
       </c>
@@ -9198,32 +9201,32 @@
       <c r="L9" s="99"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="110"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="101" t="s">
-        <v>225</v>
-      </c>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="102"/>
+      <c r="A10" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="100" t="s">
+        <v>224</v>
+      </c>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="101"/>
     </row>
     <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="108" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="113" t="s">
         <v>34</v>
       </c>
       <c r="G11" s="98"/>
@@ -9234,30 +9237,30 @@
       <c r="L11" s="99"/>
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="109" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="102"/>
+      <c r="A12" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="101"/>
     </row>
     <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="108" t="s">
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="113" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="98"/>
@@ -9268,60 +9271,55 @@
       <c r="L13" s="99"/>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="101"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5">
+      <c r="A15" s="109" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="101"/>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="102"/>
-    </row>
-    <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="100" t="s">
-        <v>226</v>
-      </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="102"/>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="A85" s="103" t="s">
-        <v>52</v>
-      </c>
-      <c r="B85" s="104"/>
-      <c r="C85" s="104"/>
-      <c r="D85" s="104"/>
-      <c r="E85" s="104"/>
-      <c r="F85" s="104"/>
-      <c r="G85" s="104"/>
-      <c r="H85" s="104"/>
-      <c r="I85" s="104"/>
-      <c r="J85" s="104"/>
-      <c r="K85" s="104"/>
-      <c r="L85" s="105"/>
+      <c r="B85" s="111"/>
+      <c r="C85" s="111"/>
+      <c r="D85" s="111"/>
+      <c r="E85" s="111"/>
+      <c r="F85" s="111"/>
+      <c r="G85" s="111"/>
+      <c r="H85" s="111"/>
+      <c r="I85" s="111"/>
+      <c r="J85" s="111"/>
+      <c r="K85" s="111"/>
+      <c r="L85" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -9338,6 +9336,11 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -9415,15 +9418,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="93" t="s">
-        <v>60</v>
+      <c r="P1" s="105" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="94"/>
+      <c r="P2" s="106"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="94"/>
+      <c r="P3" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9505,7 +9508,7 @@
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
       <c r="K1" s="143" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L1" s="54"/>
       <c r="M1" s="54"/>
@@ -9553,7 +9556,7 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="151" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="98"/>
@@ -9567,57 +9570,57 @@
       <c r="J5" s="99"/>
     </row>
     <row r="6" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="113"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="115"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:17" s="56" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="155"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="158"/>
+      <c r="A7" s="152"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="155"/>
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:17" s="56" customFormat="1">
-      <c r="A8" s="155"/>
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="158"/>
+      <c r="A8" s="152"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="155"/>
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:17" s="56" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="159"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="161"/>
+      <c r="A9" s="156"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="158"/>
     </row>
     <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="154" t="s">
+      <c r="A10" s="151" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="98"/>
@@ -9631,21 +9634,21 @@
       <c r="J10" s="99"/>
     </row>
     <row r="11" spans="1:17" s="58" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="162" t="s">
-        <v>237</v>
-      </c>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
+      <c r="A11" s="159" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101"/>
     </row>
     <row r="12" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="154" t="s">
+      <c r="A12" s="151" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="98"/>
@@ -9659,21 +9662,21 @@
       <c r="J12" s="99"/>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="162" t="s">
+      <c r="A13" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="101"/>
     </row>
     <row r="14" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="154" t="s">
+      <c r="A14" s="151" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="98"/>
@@ -9687,458 +9690,458 @@
       <c r="J14" s="99"/>
     </row>
     <row r="15" spans="1:17" s="56" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="130" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="140"/>
+      <c r="A15" s="163" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="164"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="165"/>
     </row>
     <row r="16" spans="1:17" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="124" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="126"/>
+        <v>124</v>
+      </c>
+      <c r="C16" s="166" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="168"/>
     </row>
     <row r="17" spans="1:10" s="56" customFormat="1" ht="49.5" customHeight="1">
       <c r="A17" s="59">
         <v>1</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="141" t="s">
-        <v>238</v>
-      </c>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="129"/>
+        <v>122</v>
+      </c>
+      <c r="C17" s="169" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="170"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="171"/>
     </row>
     <row r="18" spans="1:10" s="56" customFormat="1" ht="53.25" customHeight="1">
       <c r="A18" s="59">
         <v>2</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="141" t="s">
-        <v>240</v>
-      </c>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="129"/>
+        <v>125</v>
+      </c>
+      <c r="C18" s="169" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="171"/>
     </row>
     <row r="19" spans="1:10" s="56" customFormat="1">
       <c r="A19" s="59">
         <v>3</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" s="141" t="s">
-        <v>150</v>
-      </c>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
+        <v>126</v>
+      </c>
+      <c r="C19" s="169" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="171"/>
     </row>
     <row r="20" spans="1:10" s="56" customFormat="1">
-      <c r="A20" s="121"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="123"/>
+      <c r="A20" s="127"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="128"/>
     </row>
     <row r="21" spans="1:10" s="56" customFormat="1">
-      <c r="A21" s="130" t="s">
-        <v>180</v>
-      </c>
-      <c r="B21" s="139"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="140"/>
+      <c r="A21" s="163" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="164"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="164"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="165"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="124" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="125"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="126"/>
+        <v>124</v>
+      </c>
+      <c r="C22" s="166" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="167"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="168"/>
     </row>
     <row r="23" spans="1:10" s="56" customFormat="1">
       <c r="A23" s="59">
         <v>1</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="127" t="s">
-        <v>132</v>
-      </c>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="129"/>
+        <v>122</v>
+      </c>
+      <c r="C23" s="174" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="171"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1">
       <c r="A24" s="59">
         <v>2</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="127" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="129"/>
+        <v>125</v>
+      </c>
+      <c r="C24" s="174" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="170"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="170"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="171"/>
     </row>
     <row r="25" spans="1:10" s="56" customFormat="1">
       <c r="A25" s="59">
         <v>3</v>
       </c>
       <c r="B25" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="127" t="s">
-        <v>132</v>
-      </c>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="129"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="171"/>
     </row>
     <row r="26" spans="1:10" s="56" customFormat="1">
       <c r="A26" s="59">
         <v>4</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" s="127" t="s">
-        <v>132</v>
-      </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="129"/>
+        <v>126</v>
+      </c>
+      <c r="C26" s="174" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="170"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="171"/>
     </row>
     <row r="27" spans="1:10" s="56" customFormat="1">
-      <c r="A27" s="151"/>
-      <c r="B27" s="152"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="153"/>
+      <c r="A27" s="148"/>
+      <c r="B27" s="149"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="150"/>
     </row>
     <row r="28" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="116" t="s">
+      <c r="A28" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="163"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="164"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="161"/>
+      <c r="D28" s="161"/>
+      <c r="E28" s="161"/>
+      <c r="F28" s="161"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="161"/>
+      <c r="J28" s="162"/>
     </row>
     <row r="29" spans="1:10" s="56" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="130" t="s">
-        <v>183</v>
-      </c>
-      <c r="B29" s="139"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="140"/>
+      <c r="A29" s="163" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="164"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="164"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="165"/>
     </row>
     <row r="30" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="124" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="126"/>
+        <v>124</v>
+      </c>
+      <c r="C30" s="166" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="167"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="168"/>
     </row>
     <row r="31" spans="1:10" s="56" customFormat="1">
       <c r="A31" s="59">
         <v>1</v>
       </c>
       <c r="B31" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="133" t="s">
-        <v>236</v>
-      </c>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="134"/>
-      <c r="J31" s="135"/>
+        <v>122</v>
+      </c>
+      <c r="C31" s="175" t="s">
+        <v>235</v>
+      </c>
+      <c r="D31" s="176"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="176"/>
+      <c r="H31" s="176"/>
+      <c r="I31" s="176"/>
+      <c r="J31" s="177"/>
     </row>
     <row r="32" spans="1:10" s="56" customFormat="1">
       <c r="A32" s="59">
         <v>2</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="136"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="137"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="137"/>
-      <c r="J32" s="138"/>
+        <v>125</v>
+      </c>
+      <c r="C32" s="178"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="179"/>
+      <c r="I32" s="179"/>
+      <c r="J32" s="180"/>
     </row>
     <row r="33" spans="1:12" s="56" customFormat="1">
       <c r="A33" s="59">
         <v>3</v>
       </c>
       <c r="B33" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="174" t="s">
         <v>127</v>
       </c>
-      <c r="C33" s="127" t="s">
+      <c r="D33" s="170"/>
+      <c r="E33" s="170"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="170"/>
+      <c r="H33" s="170"/>
+      <c r="I33" s="170"/>
+      <c r="J33" s="171"/>
+    </row>
+    <row r="34" spans="1:12" s="56" customFormat="1">
+      <c r="A34" s="127"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="136"/>
+      <c r="D34" s="136"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="136"/>
+      <c r="H34" s="136"/>
+      <c r="I34" s="136"/>
+      <c r="J34" s="128"/>
+    </row>
+    <row r="35" spans="1:12" s="56" customFormat="1">
+      <c r="A35" s="163" t="s">
         <v>128</v>
       </c>
-      <c r="D33" s="128"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="128"/>
-      <c r="I33" s="128"/>
-      <c r="J33" s="129"/>
-    </row>
-    <row r="34" spans="1:12" s="56" customFormat="1">
-      <c r="A34" s="121"/>
-      <c r="B34" s="122"/>
-      <c r="C34" s="122"/>
-      <c r="D34" s="122"/>
-      <c r="E34" s="122"/>
-      <c r="F34" s="122"/>
-      <c r="G34" s="122"/>
-      <c r="H34" s="122"/>
-      <c r="I34" s="122"/>
-      <c r="J34" s="123"/>
-    </row>
-    <row r="35" spans="1:12" s="56" customFormat="1">
-      <c r="A35" s="130" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35" s="131"/>
-      <c r="C35" s="131"/>
-      <c r="D35" s="131"/>
-      <c r="E35" s="131"/>
-      <c r="F35" s="131"/>
-      <c r="G35" s="131"/>
-      <c r="H35" s="131"/>
-      <c r="I35" s="131"/>
-      <c r="J35" s="132"/>
+      <c r="B35" s="172"/>
+      <c r="C35" s="172"/>
+      <c r="D35" s="172"/>
+      <c r="E35" s="172"/>
+      <c r="F35" s="172"/>
+      <c r="G35" s="172"/>
+      <c r="H35" s="172"/>
+      <c r="I35" s="172"/>
+      <c r="J35" s="173"/>
     </row>
     <row r="36" spans="1:12" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" s="124" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="125"/>
-      <c r="J36" s="126"/>
+        <v>124</v>
+      </c>
+      <c r="C36" s="166" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="167"/>
+      <c r="E36" s="167"/>
+      <c r="F36" s="167"/>
+      <c r="G36" s="167"/>
+      <c r="H36" s="167"/>
+      <c r="I36" s="167"/>
+      <c r="J36" s="168"/>
     </row>
     <row r="37" spans="1:12" s="56" customFormat="1">
       <c r="A37" s="59">
         <v>1</v>
       </c>
       <c r="B37" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="127" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="128"/>
-      <c r="E37" s="128"/>
-      <c r="F37" s="128"/>
-      <c r="G37" s="128"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="128"/>
-      <c r="J37" s="129"/>
+        <v>122</v>
+      </c>
+      <c r="C37" s="174" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="170"/>
+      <c r="E37" s="170"/>
+      <c r="F37" s="170"/>
+      <c r="G37" s="170"/>
+      <c r="H37" s="170"/>
+      <c r="I37" s="170"/>
+      <c r="J37" s="171"/>
     </row>
     <row r="38" spans="1:12" s="56" customFormat="1">
       <c r="A38" s="59">
         <v>2</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="127" t="s">
-        <v>132</v>
-      </c>
-      <c r="D38" s="128"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="128"/>
-      <c r="J38" s="129"/>
+        <v>125</v>
+      </c>
+      <c r="C38" s="174" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="170"/>
+      <c r="E38" s="170"/>
+      <c r="F38" s="170"/>
+      <c r="G38" s="170"/>
+      <c r="H38" s="170"/>
+      <c r="I38" s="170"/>
+      <c r="J38" s="171"/>
     </row>
     <row r="39" spans="1:12" s="56" customFormat="1">
       <c r="A39" s="59">
         <v>3</v>
       </c>
       <c r="B39" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="127" t="s">
-        <v>132</v>
-      </c>
-      <c r="D39" s="128"/>
-      <c r="E39" s="128"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="128"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="128"/>
-      <c r="J39" s="129"/>
+      <c r="D39" s="170"/>
+      <c r="E39" s="170"/>
+      <c r="F39" s="170"/>
+      <c r="G39" s="170"/>
+      <c r="H39" s="170"/>
+      <c r="I39" s="170"/>
+      <c r="J39" s="171"/>
     </row>
     <row r="40" spans="1:12" s="56" customFormat="1">
       <c r="A40" s="59">
         <v>4</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" s="127" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="128"/>
-      <c r="J40" s="129"/>
+        <v>126</v>
+      </c>
+      <c r="C40" s="174" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="170"/>
+      <c r="E40" s="170"/>
+      <c r="F40" s="170"/>
+      <c r="G40" s="170"/>
+      <c r="H40" s="170"/>
+      <c r="I40" s="170"/>
+      <c r="J40" s="171"/>
     </row>
     <row r="41" spans="1:12" s="56" customFormat="1">
-      <c r="A41" s="121"/>
-      <c r="B41" s="122"/>
-      <c r="C41" s="122"/>
-      <c r="D41" s="122"/>
-      <c r="E41" s="122"/>
-      <c r="F41" s="122"/>
-      <c r="G41" s="122"/>
-      <c r="H41" s="122"/>
-      <c r="I41" s="122"/>
-      <c r="J41" s="123"/>
+      <c r="A41" s="127"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="136"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="136"/>
+      <c r="H41" s="136"/>
+      <c r="I41" s="136"/>
+      <c r="J41" s="128"/>
     </row>
     <row r="42" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="116" t="s">
+      <c r="A42" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="117"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="117"/>
-      <c r="E42" s="117"/>
-      <c r="F42" s="117"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="117"/>
-      <c r="I42" s="117"/>
-      <c r="J42" s="118"/>
+      <c r="B42" s="181"/>
+      <c r="C42" s="181"/>
+      <c r="D42" s="181"/>
+      <c r="E42" s="181"/>
+      <c r="F42" s="181"/>
+      <c r="G42" s="181"/>
+      <c r="H42" s="181"/>
+      <c r="I42" s="181"/>
+      <c r="J42" s="182"/>
     </row>
     <row r="43" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="60" t="s">
@@ -10153,14 +10156,14 @@
       <c r="D43" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="119" t="s">
+      <c r="E43" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="120"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="120"/>
-      <c r="J43" s="120"/>
+      <c r="F43" s="184"/>
+      <c r="G43" s="184"/>
+      <c r="H43" s="184"/>
+      <c r="I43" s="184"/>
+      <c r="J43" s="184"/>
       <c r="K43" s="56"/>
       <c r="L43" s="56"/>
     </row>
@@ -10169,352 +10172,352 @@
         <v>1</v>
       </c>
       <c r="B44" s="63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44" s="64"/>
       <c r="D44" s="65"/>
-      <c r="E44" s="168" t="s">
-        <v>142</v>
-      </c>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="110"/>
+      <c r="E44" s="129" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="96"/>
     </row>
     <row r="45" spans="1:12" s="56" customFormat="1">
       <c r="A45" s="66"/>
-      <c r="B45" s="122"/>
-      <c r="C45" s="122"/>
-      <c r="D45" s="122"/>
-      <c r="E45" s="122"/>
-      <c r="F45" s="122"/>
-      <c r="G45" s="122"/>
-      <c r="H45" s="122"/>
-      <c r="I45" s="122"/>
-      <c r="J45" s="123"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="136"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
+      <c r="J45" s="128"/>
     </row>
     <row r="46" spans="1:12" s="56" customFormat="1">
-      <c r="A46" s="148" t="s">
-        <v>158</v>
-      </c>
-      <c r="B46" s="149"/>
-      <c r="C46" s="149"/>
-      <c r="D46" s="149"/>
-      <c r="E46" s="149"/>
-      <c r="F46" s="149"/>
-      <c r="G46" s="149"/>
-      <c r="H46" s="149"/>
-      <c r="I46" s="149"/>
-      <c r="J46" s="150"/>
+      <c r="A46" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="146"/>
+      <c r="C46" s="146"/>
+      <c r="D46" s="146"/>
+      <c r="E46" s="146"/>
+      <c r="F46" s="146"/>
+      <c r="G46" s="146"/>
+      <c r="H46" s="146"/>
+      <c r="I46" s="146"/>
+      <c r="J46" s="147"/>
     </row>
     <row r="47" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="59">
         <v>1</v>
       </c>
       <c r="B47" s="67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C47" s="68" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="69"/>
-      <c r="E47" s="168" t="s">
-        <v>109</v>
-      </c>
-      <c r="F47" s="110"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="110"/>
-      <c r="I47" s="110"/>
-      <c r="J47" s="110"/>
+      <c r="E47" s="129" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="96"/>
     </row>
     <row r="48" spans="1:12" s="58" customFormat="1" ht="39" customHeight="1">
       <c r="A48" s="70">
         <v>2</v>
       </c>
-      <c r="B48" s="175" t="s">
-        <v>137</v>
+      <c r="B48" s="140" t="s">
+        <v>136</v>
       </c>
       <c r="C48" s="84" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="85"/>
-      <c r="E48" s="145" t="s">
-        <v>188</v>
-      </c>
-      <c r="F48" s="146"/>
-      <c r="G48" s="146"/>
-      <c r="H48" s="146"/>
-      <c r="I48" s="146"/>
-      <c r="J48" s="147"/>
+      <c r="E48" s="137" t="s">
+        <v>187</v>
+      </c>
+      <c r="F48" s="138"/>
+      <c r="G48" s="138"/>
+      <c r="H48" s="138"/>
+      <c r="I48" s="138"/>
+      <c r="J48" s="139"/>
     </row>
     <row r="49" spans="1:10" s="58" customFormat="1" ht="66" customHeight="1">
       <c r="A49" s="70"/>
-      <c r="B49" s="176"/>
+      <c r="B49" s="141"/>
       <c r="C49" s="84" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D49" s="85" t="s">
-        <v>189</v>
-      </c>
-      <c r="E49" s="145" t="s">
-        <v>224</v>
-      </c>
-      <c r="F49" s="146"/>
-      <c r="G49" s="146"/>
-      <c r="H49" s="146"/>
-      <c r="I49" s="146"/>
-      <c r="J49" s="147"/>
+        <v>188</v>
+      </c>
+      <c r="E49" s="137" t="s">
+        <v>223</v>
+      </c>
+      <c r="F49" s="138"/>
+      <c r="G49" s="138"/>
+      <c r="H49" s="138"/>
+      <c r="I49" s="138"/>
+      <c r="J49" s="139"/>
     </row>
     <row r="50" spans="1:10" s="56" customFormat="1">
       <c r="A50" s="73">
         <v>3</v>
       </c>
       <c r="B50" s="67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C50" s="68" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="74"/>
-      <c r="E50" s="165" t="s">
-        <v>159</v>
-      </c>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="102"/>
+      <c r="E50" s="124" t="s">
+        <v>158</v>
+      </c>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="101"/>
     </row>
     <row r="51" spans="1:10" s="56" customFormat="1">
       <c r="A51" s="75"/>
-      <c r="B51" s="122"/>
-      <c r="C51" s="122"/>
-      <c r="D51" s="122"/>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122"/>
-      <c r="G51" s="122"/>
-      <c r="H51" s="122"/>
-      <c r="I51" s="122"/>
-      <c r="J51" s="123"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="136"/>
+      <c r="D51" s="136"/>
+      <c r="E51" s="136"/>
+      <c r="F51" s="136"/>
+      <c r="G51" s="136"/>
+      <c r="H51" s="136"/>
+      <c r="I51" s="136"/>
+      <c r="J51" s="128"/>
     </row>
     <row r="52" spans="1:10" s="56" customFormat="1">
-      <c r="A52" s="169" t="s">
-        <v>186</v>
-      </c>
-      <c r="B52" s="170"/>
-      <c r="C52" s="170"/>
-      <c r="D52" s="170"/>
-      <c r="E52" s="170"/>
-      <c r="F52" s="170"/>
-      <c r="G52" s="170"/>
-      <c r="H52" s="170"/>
-      <c r="I52" s="170"/>
-      <c r="J52" s="171"/>
+      <c r="A52" s="130" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" s="131"/>
+      <c r="C52" s="131"/>
+      <c r="D52" s="131"/>
+      <c r="E52" s="131"/>
+      <c r="F52" s="131"/>
+      <c r="G52" s="131"/>
+      <c r="H52" s="131"/>
+      <c r="I52" s="131"/>
+      <c r="J52" s="132"/>
     </row>
     <row r="53" spans="1:10" s="56" customFormat="1">
       <c r="A53" s="59">
         <v>1</v>
       </c>
       <c r="B53" s="67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C53" s="68" t="s">
         <v>19</v>
       </c>
       <c r="D53" s="69"/>
-      <c r="E53" s="168" t="s">
-        <v>139</v>
-      </c>
-      <c r="F53" s="110"/>
-      <c r="G53" s="110"/>
-      <c r="H53" s="110"/>
-      <c r="I53" s="110"/>
-      <c r="J53" s="110"/>
+      <c r="E53" s="129" t="s">
+        <v>138</v>
+      </c>
+      <c r="F53" s="96"/>
+      <c r="G53" s="96"/>
+      <c r="H53" s="96"/>
+      <c r="I53" s="96"/>
+      <c r="J53" s="96"/>
     </row>
     <row r="54" spans="1:10" s="56" customFormat="1">
       <c r="A54" s="59">
         <v>2</v>
       </c>
       <c r="B54" s="67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C54" s="68" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="72"/>
-      <c r="E54" s="172" t="s">
-        <v>140</v>
-      </c>
-      <c r="F54" s="173"/>
-      <c r="G54" s="173"/>
-      <c r="H54" s="173"/>
-      <c r="I54" s="173"/>
-      <c r="J54" s="174"/>
+      <c r="E54" s="133" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" s="134"/>
+      <c r="G54" s="134"/>
+      <c r="H54" s="134"/>
+      <c r="I54" s="134"/>
+      <c r="J54" s="135"/>
     </row>
     <row r="55" spans="1:10" s="56" customFormat="1">
       <c r="A55" s="59">
         <v>3</v>
       </c>
       <c r="B55" s="67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C55" s="68" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="72"/>
-      <c r="E55" s="172" t="s">
-        <v>141</v>
-      </c>
-      <c r="F55" s="173"/>
-      <c r="G55" s="173"/>
-      <c r="H55" s="173"/>
-      <c r="I55" s="173"/>
-      <c r="J55" s="174"/>
+      <c r="E55" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="F55" s="134"/>
+      <c r="G55" s="134"/>
+      <c r="H55" s="134"/>
+      <c r="I55" s="134"/>
+      <c r="J55" s="135"/>
     </row>
     <row r="56" spans="1:10" s="56" customFormat="1" ht="17.25" customHeight="1">
       <c r="A56" s="59">
         <v>4</v>
       </c>
       <c r="B56" s="67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C56" s="68" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="72"/>
-      <c r="E56" s="172" t="s">
-        <v>110</v>
-      </c>
-      <c r="F56" s="173"/>
-      <c r="G56" s="173"/>
-      <c r="H56" s="173"/>
-      <c r="I56" s="173"/>
-      <c r="J56" s="174"/>
+      <c r="E56" s="133" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="134"/>
+      <c r="G56" s="134"/>
+      <c r="H56" s="134"/>
+      <c r="I56" s="134"/>
+      <c r="J56" s="135"/>
     </row>
     <row r="57" spans="1:10" s="56" customFormat="1">
       <c r="A57" s="59">
         <v>5</v>
       </c>
       <c r="B57" s="67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C57" s="68" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="72"/>
-      <c r="E57" s="172" t="s">
-        <v>181</v>
-      </c>
-      <c r="F57" s="173"/>
-      <c r="G57" s="173"/>
-      <c r="H57" s="173"/>
-      <c r="I57" s="173"/>
-      <c r="J57" s="174"/>
+      <c r="E57" s="133" t="s">
+        <v>180</v>
+      </c>
+      <c r="F57" s="134"/>
+      <c r="G57" s="134"/>
+      <c r="H57" s="134"/>
+      <c r="I57" s="134"/>
+      <c r="J57" s="135"/>
     </row>
     <row r="58" spans="1:10" s="56" customFormat="1">
       <c r="A58" s="76"/>
-      <c r="B58" s="122"/>
-      <c r="C58" s="122"/>
-      <c r="D58" s="122"/>
-      <c r="E58" s="122"/>
-      <c r="F58" s="122"/>
-      <c r="G58" s="122"/>
-      <c r="H58" s="122"/>
-      <c r="I58" s="122"/>
-      <c r="J58" s="123"/>
+      <c r="B58" s="136"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="136"/>
+      <c r="E58" s="136"/>
+      <c r="F58" s="136"/>
+      <c r="G58" s="136"/>
+      <c r="H58" s="136"/>
+      <c r="I58" s="136"/>
+      <c r="J58" s="128"/>
     </row>
     <row r="59" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="182" t="s">
+      <c r="A59" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="B59" s="183"/>
-      <c r="C59" s="183"/>
-      <c r="D59" s="183"/>
-      <c r="E59" s="183"/>
-      <c r="F59" s="183"/>
-      <c r="G59" s="183"/>
-      <c r="H59" s="183"/>
-      <c r="I59" s="183"/>
-      <c r="J59" s="184"/>
+      <c r="B59" s="122"/>
+      <c r="C59" s="122"/>
+      <c r="D59" s="122"/>
+      <c r="E59" s="122"/>
+      <c r="F59" s="122"/>
+      <c r="G59" s="122"/>
+      <c r="H59" s="122"/>
+      <c r="I59" s="122"/>
+      <c r="J59" s="123"/>
     </row>
     <row r="60" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="180" t="s">
+      <c r="B60" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="181"/>
-      <c r="D60" s="165" t="s">
+      <c r="C60" s="120"/>
+      <c r="D60" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="101"/>
-      <c r="F60" s="101"/>
-      <c r="G60" s="101"/>
-      <c r="H60" s="101"/>
-      <c r="I60" s="101"/>
-      <c r="J60" s="102"/>
+      <c r="E60" s="100"/>
+      <c r="F60" s="100"/>
+      <c r="G60" s="100"/>
+      <c r="H60" s="100"/>
+      <c r="I60" s="100"/>
+      <c r="J60" s="101"/>
     </row>
     <row r="61" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="177"/>
-      <c r="B61" s="178"/>
-      <c r="C61" s="178"/>
-      <c r="D61" s="178"/>
-      <c r="E61" s="178"/>
-      <c r="F61" s="178"/>
-      <c r="G61" s="178"/>
-      <c r="H61" s="178"/>
-      <c r="I61" s="178"/>
-      <c r="J61" s="179"/>
+      <c r="A61" s="116"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="117"/>
+      <c r="E61" s="117"/>
+      <c r="F61" s="117"/>
+      <c r="G61" s="117"/>
+      <c r="H61" s="117"/>
+      <c r="I61" s="117"/>
+      <c r="J61" s="118"/>
     </row>
     <row r="62" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="73"/>
-      <c r="B62" s="121"/>
-      <c r="C62" s="123"/>
-      <c r="D62" s="165"/>
-      <c r="E62" s="166"/>
-      <c r="F62" s="166"/>
-      <c r="G62" s="166"/>
-      <c r="H62" s="166"/>
-      <c r="I62" s="166"/>
-      <c r="J62" s="167"/>
+      <c r="B62" s="127"/>
+      <c r="C62" s="128"/>
+      <c r="D62" s="124"/>
+      <c r="E62" s="125"/>
+      <c r="F62" s="125"/>
+      <c r="G62" s="125"/>
+      <c r="H62" s="125"/>
+      <c r="I62" s="125"/>
+      <c r="J62" s="126"/>
     </row>
     <row r="63" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="73"/>
-      <c r="B63" s="121"/>
-      <c r="C63" s="123"/>
-      <c r="D63" s="165"/>
-      <c r="E63" s="166"/>
-      <c r="F63" s="166"/>
-      <c r="G63" s="166"/>
-      <c r="H63" s="166"/>
-      <c r="I63" s="166"/>
-      <c r="J63" s="167"/>
+      <c r="B63" s="127"/>
+      <c r="C63" s="128"/>
+      <c r="D63" s="124"/>
+      <c r="E63" s="125"/>
+      <c r="F63" s="125"/>
+      <c r="G63" s="125"/>
+      <c r="H63" s="125"/>
+      <c r="I63" s="125"/>
+      <c r="J63" s="126"/>
     </row>
     <row r="64" spans="1:10" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A64" s="177"/>
-      <c r="B64" s="178"/>
-      <c r="C64" s="178"/>
-      <c r="D64" s="178"/>
-      <c r="E64" s="178"/>
-      <c r="F64" s="178"/>
-      <c r="G64" s="178"/>
-      <c r="H64" s="178"/>
-      <c r="I64" s="178"/>
-      <c r="J64" s="179"/>
+      <c r="A64" s="116"/>
+      <c r="B64" s="117"/>
+      <c r="C64" s="117"/>
+      <c r="D64" s="117"/>
+      <c r="E64" s="117"/>
+      <c r="F64" s="117"/>
+      <c r="G64" s="117"/>
+      <c r="H64" s="117"/>
+      <c r="I64" s="117"/>
+      <c r="J64" s="118"/>
     </row>
     <row r="65" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="73"/>
-      <c r="B65" s="121"/>
-      <c r="C65" s="123"/>
-      <c r="D65" s="165"/>
-      <c r="E65" s="166"/>
-      <c r="F65" s="166"/>
-      <c r="G65" s="166"/>
-      <c r="H65" s="166"/>
-      <c r="I65" s="166"/>
-      <c r="J65" s="167"/>
+      <c r="B65" s="127"/>
+      <c r="C65" s="128"/>
+      <c r="D65" s="124"/>
+      <c r="E65" s="125"/>
+      <c r="F65" s="125"/>
+      <c r="G65" s="125"/>
+      <c r="H65" s="125"/>
+      <c r="I65" s="125"/>
+      <c r="J65" s="126"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="77" t="s">
@@ -10537,14 +10540,14 @@
       <c r="B67" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="121"/>
-      <c r="D67" s="101"/>
-      <c r="E67" s="101"/>
-      <c r="F67" s="101"/>
-      <c r="G67" s="101"/>
-      <c r="H67" s="101"/>
-      <c r="I67" s="101"/>
-      <c r="J67" s="102"/>
+      <c r="C67" s="127"/>
+      <c r="D67" s="100"/>
+      <c r="E67" s="100"/>
+      <c r="F67" s="100"/>
+      <c r="G67" s="100"/>
+      <c r="H67" s="100"/>
+      <c r="I67" s="100"/>
+      <c r="J67" s="101"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="73">
@@ -10564,29 +10567,32 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="D65:J65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="D63:J63"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
     <mergeCell ref="C68:J68"/>
     <mergeCell ref="C67:J67"/>
     <mergeCell ref="K1:K3"/>
@@ -10603,32 +10609,29 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="D62:J62"/>
     <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B51:J51"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="D65:J65"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="D63:J63"/>
+    <mergeCell ref="B63:C63"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -10650,8 +10653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10664,7 +10667,7 @@
     <col min="6" max="6" width="19.625" style="41" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.75" style="41" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="41" customWidth="1"/>
-    <col min="9" max="9" width="18.375" style="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="41" customWidth="1"/>
     <col min="10" max="10" width="37" style="41" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="41" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="41"/>
@@ -10682,7 +10685,7 @@
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
       <c r="K1" s="143" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L1" s="39"/>
       <c r="M1" s="39"/>
@@ -10797,10 +10800,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="42" t="s">
         <v>219</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>220</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>24</v>
@@ -10812,10 +10815,10 @@
         <v>17</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -10849,7 +10852,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="185" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="186"/>
       <c r="C10" s="186"/>
@@ -10866,13 +10869,13 @@
         <v>14</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E11" s="42" t="s">
         <v>24</v>
@@ -10884,10 +10887,10 @@
         <v>17</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J11" s="42" t="s">
         <v>0</v>
@@ -10898,26 +10901,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J12" s="48"/>
     </row>
@@ -10926,26 +10929,26 @@
         <v>2</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J13" s="48"/>
     </row>
@@ -10954,34 +10957,34 @@
         <v>3</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D14" s="49"/>
       <c r="E14" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" s="50">
         <v>2</v>
       </c>
       <c r="I14" s="43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J14" s="51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="185" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B16" s="186"/>
       <c r="C16" s="186"/>
@@ -11001,10 +11004,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" s="42" t="s">
         <v>219</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>220</v>
       </c>
       <c r="E17" s="42" t="s">
         <v>24</v>
@@ -11016,10 +11019,10 @@
         <v>17</v>
       </c>
       <c r="H17" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I17" s="42" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="J17" s="42" t="s">
         <v>0</v>
@@ -11030,24 +11033,24 @@
         <v>1</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J18" s="48"/>
     </row>
@@ -11056,24 +11059,24 @@
         <v>2</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H19" s="45"/>
       <c r="I19" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J19" s="48"/>
     </row>
@@ -11082,27 +11085,27 @@
         <v>3</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="46" t="s">
-        <v>74</v>
-      </c>
       <c r="G20" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H20" s="45"/>
       <c r="I20" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J20" s="88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -11110,27 +11113,27 @@
         <v>4</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F21" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H21" s="49"/>
       <c r="I21" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J21" s="51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -11203,7 +11206,7 @@
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
       <c r="K1" s="143" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L1" s="54"/>
       <c r="M1" s="54"/>
@@ -11251,7 +11254,7 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="151" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="98"/>
@@ -11265,57 +11268,57 @@
       <c r="J5" s="99"/>
     </row>
     <row r="6" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="113"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="115"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:17" s="56" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="155"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="158"/>
+      <c r="A7" s="152"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="155"/>
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:17" s="56" customFormat="1">
-      <c r="A8" s="155"/>
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="158"/>
+      <c r="A8" s="152"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="155"/>
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:17" s="56" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="159"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="161"/>
+      <c r="A9" s="156"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="158"/>
     </row>
     <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="154" t="s">
+      <c r="A10" s="151" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="98"/>
@@ -11329,21 +11332,21 @@
       <c r="J10" s="99"/>
     </row>
     <row r="11" spans="1:17" s="58" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="162" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
+      <c r="A11" s="159" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101"/>
     </row>
     <row r="12" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="154" t="s">
+      <c r="A12" s="151" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="98"/>
@@ -11357,21 +11360,21 @@
       <c r="J12" s="99"/>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="162" t="s">
+      <c r="A13" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="101"/>
     </row>
     <row r="14" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="154" t="s">
+      <c r="A14" s="151" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="98"/>
@@ -11385,300 +11388,300 @@
       <c r="J14" s="99"/>
     </row>
     <row r="15" spans="1:17" s="56" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A15" s="130" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="140"/>
+      <c r="A15" s="163" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="164"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="165"/>
     </row>
     <row r="16" spans="1:17" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="124" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="126"/>
+        <v>124</v>
+      </c>
+      <c r="C16" s="166" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="168"/>
     </row>
     <row r="17" spans="1:10" s="56" customFormat="1" ht="65.25" customHeight="1">
       <c r="A17" s="59">
         <v>1</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="141" t="s">
-        <v>239</v>
-      </c>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="129"/>
+        <v>122</v>
+      </c>
+      <c r="C17" s="169" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" s="170"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="171"/>
     </row>
     <row r="18" spans="1:10" s="56" customFormat="1" ht="66" customHeight="1">
       <c r="A18" s="59">
         <v>2</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="141" t="s">
-        <v>241</v>
-      </c>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="129"/>
+        <v>125</v>
+      </c>
+      <c r="C18" s="169" t="s">
+        <v>240</v>
+      </c>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="171"/>
     </row>
     <row r="19" spans="1:10" s="56" customFormat="1">
       <c r="A19" s="59">
         <v>3</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="127" t="s">
-        <v>154</v>
-      </c>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
+        <v>150</v>
+      </c>
+      <c r="C19" s="174" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="171"/>
     </row>
     <row r="20" spans="1:10" s="56" customFormat="1">
       <c r="A20" s="59">
         <v>4</v>
       </c>
       <c r="B20" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="174" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="127" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="129"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="171"/>
     </row>
     <row r="21" spans="1:10" s="56" customFormat="1">
       <c r="A21" s="59">
         <v>5</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="127" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="129"/>
+        <v>126</v>
+      </c>
+      <c r="C21" s="174" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="170"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="171"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1">
-      <c r="A22" s="151"/>
-      <c r="B22" s="152"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="153"/>
+      <c r="A22" s="148"/>
+      <c r="B22" s="149"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="149"/>
+      <c r="J22" s="150"/>
     </row>
     <row r="23" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="116" t="s">
+      <c r="A23" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="163"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="164"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="162"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1" ht="36" customHeight="1">
-      <c r="A24" s="130" t="s">
-        <v>185</v>
-      </c>
-      <c r="B24" s="139"/>
-      <c r="C24" s="139"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="139"/>
-      <c r="J24" s="140"/>
+      <c r="A24" s="163" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="164"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="165"/>
     </row>
     <row r="25" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="124" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="126"/>
+        <v>124</v>
+      </c>
+      <c r="C25" s="166" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="167"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="167"/>
+      <c r="H25" s="167"/>
+      <c r="I25" s="167"/>
+      <c r="J25" s="168"/>
     </row>
     <row r="26" spans="1:10" s="56" customFormat="1" ht="33" customHeight="1">
       <c r="A26" s="59">
         <v>1</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="141" t="s">
-        <v>230</v>
-      </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="129"/>
+        <v>122</v>
+      </c>
+      <c r="C26" s="169" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" s="170"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="171"/>
     </row>
     <row r="27" spans="1:10" s="56" customFormat="1" ht="32.25" customHeight="1">
       <c r="A27" s="59">
         <v>2</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="141" t="s">
-        <v>229</v>
-      </c>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="129"/>
+        <v>125</v>
+      </c>
+      <c r="C27" s="169" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27" s="170"/>
+      <c r="E27" s="170"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="171"/>
     </row>
     <row r="28" spans="1:10" s="56" customFormat="1">
       <c r="A28" s="59">
         <v>3</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="C28" s="127" t="s">
-        <v>154</v>
-      </c>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="129"/>
+        <v>150</v>
+      </c>
+      <c r="C28" s="174" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="170"/>
+      <c r="E28" s="170"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="171"/>
     </row>
     <row r="29" spans="1:10" s="56" customFormat="1">
       <c r="A29" s="59">
         <v>4</v>
       </c>
       <c r="B29" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="174" t="s">
         <v>152</v>
       </c>
-      <c r="C29" s="127" t="s">
-        <v>153</v>
-      </c>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
-      <c r="I29" s="128"/>
-      <c r="J29" s="129"/>
+      <c r="D29" s="170"/>
+      <c r="E29" s="170"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="170"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="171"/>
     </row>
     <row r="30" spans="1:10" s="56" customFormat="1">
       <c r="A30" s="59">
         <v>5</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="127" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="129"/>
+        <v>126</v>
+      </c>
+      <c r="C30" s="174" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="170"/>
+      <c r="E30" s="170"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="170"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="171"/>
     </row>
     <row r="31" spans="1:10" s="56" customFormat="1">
-      <c r="A31" s="151"/>
-      <c r="B31" s="190"/>
-      <c r="C31" s="190"/>
-      <c r="D31" s="190"/>
-      <c r="E31" s="190"/>
-      <c r="F31" s="190"/>
-      <c r="G31" s="190"/>
-      <c r="H31" s="190"/>
-      <c r="I31" s="190"/>
-      <c r="J31" s="191"/>
+      <c r="A31" s="148"/>
+      <c r="B31" s="188"/>
+      <c r="C31" s="188"/>
+      <c r="D31" s="188"/>
+      <c r="E31" s="188"/>
+      <c r="F31" s="188"/>
+      <c r="G31" s="188"/>
+      <c r="H31" s="188"/>
+      <c r="I31" s="188"/>
+      <c r="J31" s="189"/>
     </row>
     <row r="32" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="116" t="s">
+      <c r="A32" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="163"/>
-      <c r="C32" s="163"/>
-      <c r="D32" s="163"/>
-      <c r="E32" s="163"/>
-      <c r="F32" s="163"/>
-      <c r="G32" s="163"/>
-      <c r="H32" s="163"/>
-      <c r="I32" s="163"/>
-      <c r="J32" s="164"/>
+      <c r="B32" s="161"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="161"/>
+      <c r="H32" s="161"/>
+      <c r="I32" s="161"/>
+      <c r="J32" s="162"/>
     </row>
     <row r="33" spans="1:12" s="82" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="60" t="s">
@@ -11693,14 +11696,14 @@
       <c r="D33" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="119" t="s">
+      <c r="E33" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="120"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="120"/>
-      <c r="I33" s="120"/>
-      <c r="J33" s="120"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="184"/>
       <c r="K33" s="56"/>
       <c r="L33" s="56"/>
     </row>
@@ -11709,30 +11712,30 @@
         <v>1</v>
       </c>
       <c r="B34" s="63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" s="64"/>
       <c r="D34" s="65"/>
-      <c r="E34" s="168"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="110"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
     </row>
     <row r="35" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="148" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" s="149"/>
-      <c r="C35" s="149"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="150"/>
+      <c r="A35" s="145" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="146"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="147"/>
       <c r="K35" s="56"/>
       <c r="L35" s="56"/>
     </row>
@@ -11741,170 +11744,170 @@
         <v>1</v>
       </c>
       <c r="B36" s="67" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C36" s="68" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="69"/>
-      <c r="E36" s="168" t="s">
-        <v>179</v>
-      </c>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="110"/>
-      <c r="J36" s="110"/>
+      <c r="E36" s="129" t="s">
+        <v>178</v>
+      </c>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="96"/>
     </row>
     <row r="37" spans="1:12" s="56" customFormat="1">
       <c r="A37" s="70">
         <v>2</v>
       </c>
       <c r="B37" s="71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C37" s="68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D37" s="86"/>
-      <c r="E37" s="145" t="s">
-        <v>211</v>
-      </c>
-      <c r="F37" s="146"/>
-      <c r="G37" s="146"/>
-      <c r="H37" s="146"/>
-      <c r="I37" s="146"/>
-      <c r="J37" s="147"/>
+      <c r="E37" s="137" t="s">
+        <v>210</v>
+      </c>
+      <c r="F37" s="138"/>
+      <c r="G37" s="138"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="138"/>
+      <c r="J37" s="139"/>
     </row>
     <row r="38" spans="1:12" s="56" customFormat="1" ht="92.25" customHeight="1">
       <c r="A38" s="70"/>
       <c r="B38" s="71"/>
       <c r="C38" s="83" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D38" s="87" t="s">
-        <v>191</v>
-      </c>
-      <c r="E38" s="192" t="s">
-        <v>212</v>
-      </c>
-      <c r="F38" s="193"/>
-      <c r="G38" s="193"/>
-      <c r="H38" s="193"/>
-      <c r="I38" s="193"/>
-      <c r="J38" s="193"/>
+        <v>190</v>
+      </c>
+      <c r="E38" s="190" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" s="191"/>
+      <c r="G38" s="191"/>
+      <c r="H38" s="191"/>
+      <c r="I38" s="191"/>
+      <c r="J38" s="191"/>
     </row>
     <row r="39" spans="1:12" s="56" customFormat="1" ht="37.5" customHeight="1">
       <c r="A39" s="73">
         <v>3</v>
       </c>
       <c r="B39" s="67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C39" s="68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="74"/>
-      <c r="E39" s="165" t="s">
-        <v>92</v>
-      </c>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="102"/>
+      <c r="E39" s="124" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="101"/>
     </row>
     <row r="40" spans="1:12" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="182" t="s">
+      <c r="A40" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="183"/>
-      <c r="C40" s="183"/>
-      <c r="D40" s="183"/>
-      <c r="E40" s="183"/>
-      <c r="F40" s="183"/>
-      <c r="G40" s="183"/>
-      <c r="H40" s="183"/>
-      <c r="I40" s="183"/>
-      <c r="J40" s="184"/>
+      <c r="B40" s="122"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="122"/>
+      <c r="E40" s="122"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="122"/>
+      <c r="I40" s="122"/>
+      <c r="J40" s="123"/>
     </row>
     <row r="41" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="180" t="s">
+      <c r="B41" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="181"/>
-      <c r="D41" s="165" t="s">
+      <c r="C41" s="120"/>
+      <c r="D41" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
-      <c r="H41" s="101"/>
-      <c r="I41" s="101"/>
-      <c r="J41" s="102"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="101"/>
     </row>
     <row r="42" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="177"/>
-      <c r="B42" s="188"/>
-      <c r="C42" s="188"/>
-      <c r="D42" s="188"/>
-      <c r="E42" s="188"/>
-      <c r="F42" s="188"/>
-      <c r="G42" s="188"/>
-      <c r="H42" s="188"/>
-      <c r="I42" s="188"/>
-      <c r="J42" s="189"/>
+      <c r="A42" s="116"/>
+      <c r="B42" s="192"/>
+      <c r="C42" s="192"/>
+      <c r="D42" s="192"/>
+      <c r="E42" s="192"/>
+      <c r="F42" s="192"/>
+      <c r="G42" s="192"/>
+      <c r="H42" s="192"/>
+      <c r="I42" s="192"/>
+      <c r="J42" s="193"/>
     </row>
     <row r="43" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="73"/>
-      <c r="B43" s="121"/>
-      <c r="C43" s="123"/>
-      <c r="D43" s="165"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="101"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="101"/>
-      <c r="J43" s="102"/>
+      <c r="B43" s="127"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="101"/>
     </row>
     <row r="44" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="73"/>
-      <c r="B44" s="121"/>
-      <c r="C44" s="123"/>
-      <c r="D44" s="165"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="101"/>
-      <c r="J44" s="102"/>
+      <c r="B44" s="127"/>
+      <c r="C44" s="128"/>
+      <c r="D44" s="124"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="101"/>
     </row>
     <row r="45" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="177"/>
-      <c r="B45" s="188"/>
-      <c r="C45" s="188"/>
-      <c r="D45" s="188"/>
-      <c r="E45" s="188"/>
-      <c r="F45" s="188"/>
-      <c r="G45" s="188"/>
-      <c r="H45" s="188"/>
-      <c r="I45" s="188"/>
-      <c r="J45" s="189"/>
+      <c r="A45" s="116"/>
+      <c r="B45" s="192"/>
+      <c r="C45" s="192"/>
+      <c r="D45" s="192"/>
+      <c r="E45" s="192"/>
+      <c r="F45" s="192"/>
+      <c r="G45" s="192"/>
+      <c r="H45" s="192"/>
+      <c r="I45" s="192"/>
+      <c r="J45" s="193"/>
     </row>
     <row r="46" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="73"/>
-      <c r="B46" s="121"/>
-      <c r="C46" s="123"/>
-      <c r="D46" s="165"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="101"/>
-      <c r="J46" s="102"/>
+      <c r="B46" s="127"/>
+      <c r="C46" s="128"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="100"/>
+      <c r="J46" s="101"/>
     </row>
     <row r="47" spans="1:12" s="56" customFormat="1" ht="17.25" customHeight="1">
       <c r="A47" s="77" t="s">
@@ -11927,14 +11930,14 @@
       <c r="B48" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="121"/>
-      <c r="D48" s="101"/>
-      <c r="E48" s="101"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="101"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="101"/>
-      <c r="J48" s="102"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="100"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="100"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="100"/>
+      <c r="I48" s="100"/>
+      <c r="J48" s="101"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="73">
@@ -11954,12 +11957,30 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="A35:J35"/>
     <mergeCell ref="E39:J39"/>
     <mergeCell ref="E33:J33"/>
     <mergeCell ref="A14:J14"/>
@@ -11976,30 +11997,12 @@
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="E38:J38"/>
     <mergeCell ref="C29:J29"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -12022,7 +12025,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12034,7 +12037,7 @@
     <col min="5" max="6" width="19.625" style="41" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.125" style="41" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="41" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" style="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" style="41" customWidth="1"/>
     <col min="10" max="10" width="34.875" style="41" customWidth="1"/>
     <col min="11" max="11" width="8.75" style="41" customWidth="1"/>
     <col min="12" max="16384" width="9" style="41"/>
@@ -12052,7 +12055,7 @@
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
       <c r="K1" s="143" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L1" s="39"/>
       <c r="M1" s="39"/>
@@ -12167,10 +12170,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="42" t="s">
         <v>219</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>220</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>24</v>
@@ -12182,10 +12185,10 @@
         <v>17</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -12219,7 +12222,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="185" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="186"/>
       <c r="C10" s="186"/>
@@ -12239,10 +12242,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="42" t="s">
         <v>219</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>220</v>
       </c>
       <c r="E11" s="42" t="s">
         <v>24</v>
@@ -12254,10 +12257,10 @@
         <v>17</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="J11" s="42" t="s">
         <v>0</v>
@@ -12268,26 +12271,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="45" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J12" s="48"/>
     </row>
@@ -12296,26 +12299,26 @@
         <v>2</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" s="45" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J13" s="51"/>
     </row>
@@ -12324,28 +12327,28 @@
         <v>3</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="46" t="s">
-        <v>74</v>
-      </c>
       <c r="G14" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I14" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J14" s="48"/>
     </row>
@@ -12354,26 +12357,26 @@
         <v>4</v>
       </c>
       <c r="B15" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="D15" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="45" t="s">
         <v>100</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>101</v>
       </c>
       <c r="H15" s="45"/>
       <c r="I15" s="43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J15" s="48"/>
     </row>
@@ -12382,31 +12385,31 @@
         <v>5</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H16" s="50">
         <v>2</v>
       </c>
       <c r="I16" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J16" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -12466,7 +12469,7 @@
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
       <c r="K1" s="143" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L1" s="54"/>
       <c r="M1" s="54"/>
@@ -12514,7 +12517,7 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="151" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="98"/>
@@ -12528,57 +12531,57 @@
       <c r="J5" s="99"/>
     </row>
     <row r="6" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="113"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="115"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="104"/>
     </row>
     <row r="7" spans="1:17" s="56" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="155"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="158"/>
+      <c r="A7" s="152"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="153"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="155"/>
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:17" s="56" customFormat="1">
-      <c r="A8" s="155"/>
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="158"/>
+      <c r="A8" s="152"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="155"/>
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:17" s="56" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="159"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="161"/>
+      <c r="A9" s="156"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="157"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="158"/>
     </row>
     <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="154" t="s">
+      <c r="A10" s="151" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="98"/>
@@ -12592,21 +12595,21 @@
       <c r="J10" s="99"/>
     </row>
     <row r="11" spans="1:17" s="58" customFormat="1" ht="129" customHeight="1">
-      <c r="A11" s="162" t="s">
-        <v>244</v>
-      </c>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
+      <c r="A11" s="159" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101"/>
     </row>
     <row r="12" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="154" t="s">
+      <c r="A12" s="151" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="98"/>
@@ -12620,21 +12623,21 @@
       <c r="J12" s="99"/>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="162" t="s">
+      <c r="A13" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="101"/>
     </row>
     <row r="14" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="154" t="s">
+      <c r="A14" s="151" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="98"/>
@@ -12648,356 +12651,356 @@
       <c r="J14" s="99"/>
     </row>
     <row r="15" spans="1:17" s="56" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A15" s="130" t="s">
-        <v>187</v>
-      </c>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="140"/>
+      <c r="A15" s="163" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="164"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="165"/>
     </row>
     <row r="16" spans="1:17" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C16" s="124" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="126"/>
+        <v>124</v>
+      </c>
+      <c r="C16" s="166" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="168"/>
     </row>
     <row r="17" spans="1:10" s="56" customFormat="1" ht="71.25" customHeight="1">
       <c r="A17" s="59">
         <v>1</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="141" t="s">
-        <v>239</v>
-      </c>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="129"/>
+        <v>122</v>
+      </c>
+      <c r="C17" s="169" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" s="170"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="171"/>
     </row>
     <row r="18" spans="1:10" s="56" customFormat="1" ht="69.75" customHeight="1">
       <c r="A18" s="59">
         <v>2</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="141" t="s">
-        <v>241</v>
-      </c>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="129"/>
+        <v>125</v>
+      </c>
+      <c r="C18" s="169" t="s">
+        <v>240</v>
+      </c>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="171"/>
     </row>
     <row r="19" spans="1:10" s="56" customFormat="1">
       <c r="A19" s="59">
         <v>3</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="127" t="s">
-        <v>154</v>
-      </c>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="129"/>
+        <v>150</v>
+      </c>
+      <c r="C19" s="174" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="171"/>
     </row>
     <row r="20" spans="1:10" s="56" customFormat="1">
       <c r="A20" s="59">
         <v>4</v>
       </c>
       <c r="B20" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="174" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="127" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="129"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="171"/>
     </row>
     <row r="21" spans="1:10" s="56" customFormat="1">
       <c r="A21" s="59">
         <v>5</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="127" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="129"/>
+        <v>126</v>
+      </c>
+      <c r="C21" s="174" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="170"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="171"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1">
-      <c r="A22" s="121"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="123"/>
+      <c r="A22" s="127"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="128"/>
     </row>
     <row r="23" spans="1:10" s="56" customFormat="1">
-      <c r="A23" s="130" t="s">
-        <v>182</v>
-      </c>
-      <c r="B23" s="139"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="140"/>
+      <c r="A23" s="163" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" s="164"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="165"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A24" s="198" t="s">
-        <v>164</v>
-      </c>
-      <c r="B24" s="152"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="153"/>
+      <c r="A24" s="194" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="149"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="149"/>
+      <c r="J24" s="150"/>
     </row>
     <row r="25" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="116" t="s">
+      <c r="A25" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="163"/>
-      <c r="C25" s="163"/>
-      <c r="D25" s="163"/>
-      <c r="E25" s="163"/>
-      <c r="F25" s="163"/>
-      <c r="G25" s="163"/>
-      <c r="H25" s="163"/>
-      <c r="I25" s="163"/>
-      <c r="J25" s="164"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="161"/>
+      <c r="D25" s="161"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="162"/>
     </row>
     <row r="26" spans="1:10" s="56" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A26" s="130" t="s">
-        <v>187</v>
-      </c>
-      <c r="B26" s="139"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="140"/>
+      <c r="A26" s="163" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" s="164"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="165"/>
     </row>
     <row r="27" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="124" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="125"/>
-      <c r="J27" s="126"/>
+        <v>124</v>
+      </c>
+      <c r="C27" s="166" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="167"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="168"/>
     </row>
     <row r="28" spans="1:10" s="56" customFormat="1" ht="33" customHeight="1">
       <c r="A28" s="59">
         <v>1</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" s="141" t="s">
-        <v>232</v>
-      </c>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="129"/>
+        <v>122</v>
+      </c>
+      <c r="C28" s="169" t="s">
+        <v>231</v>
+      </c>
+      <c r="D28" s="170"/>
+      <c r="E28" s="170"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="171"/>
     </row>
     <row r="29" spans="1:10" s="56" customFormat="1" ht="32.25" customHeight="1">
       <c r="A29" s="59">
         <v>2</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="141" t="s">
-        <v>231</v>
-      </c>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
-      <c r="I29" s="128"/>
-      <c r="J29" s="129"/>
+        <v>125</v>
+      </c>
+      <c r="C29" s="169" t="s">
+        <v>230</v>
+      </c>
+      <c r="D29" s="170"/>
+      <c r="E29" s="170"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="170"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="171"/>
     </row>
     <row r="30" spans="1:10" s="56" customFormat="1">
       <c r="A30" s="59">
         <v>3</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="127" t="s">
-        <v>154</v>
-      </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="129"/>
+        <v>150</v>
+      </c>
+      <c r="C30" s="174" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="170"/>
+      <c r="E30" s="170"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="170"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="171"/>
     </row>
     <row r="31" spans="1:10" s="56" customFormat="1">
       <c r="A31" s="59">
         <v>4</v>
       </c>
       <c r="B31" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="174" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="127" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" s="128"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="128"/>
-      <c r="J31" s="129"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="170"/>
+      <c r="H31" s="170"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="171"/>
     </row>
     <row r="32" spans="1:10" s="56" customFormat="1">
       <c r="A32" s="59">
         <v>5</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="127" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="128"/>
-      <c r="J32" s="129"/>
+        <v>126</v>
+      </c>
+      <c r="C32" s="174" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="170"/>
+      <c r="E32" s="170"/>
+      <c r="F32" s="170"/>
+      <c r="G32" s="170"/>
+      <c r="H32" s="170"/>
+      <c r="I32" s="170"/>
+      <c r="J32" s="171"/>
     </row>
     <row r="33" spans="1:12" s="56" customFormat="1">
-      <c r="A33" s="151"/>
-      <c r="B33" s="190"/>
-      <c r="C33" s="190"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="190"/>
-      <c r="F33" s="190"/>
-      <c r="G33" s="190"/>
-      <c r="H33" s="190"/>
-      <c r="I33" s="190"/>
-      <c r="J33" s="191"/>
+      <c r="A33" s="148"/>
+      <c r="B33" s="188"/>
+      <c r="C33" s="188"/>
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="188"/>
+      <c r="I33" s="188"/>
+      <c r="J33" s="189"/>
     </row>
     <row r="34" spans="1:12" s="56" customFormat="1">
-      <c r="A34" s="130" t="s">
+      <c r="A34" s="163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="164"/>
+      <c r="C34" s="164"/>
+      <c r="D34" s="164"/>
+      <c r="E34" s="164"/>
+      <c r="F34" s="164"/>
+      <c r="G34" s="164"/>
+      <c r="H34" s="164"/>
+      <c r="I34" s="164"/>
+      <c r="J34" s="165"/>
+    </row>
+    <row r="35" spans="1:12" s="56" customFormat="1" ht="27" customHeight="1">
+      <c r="A35" s="195" t="s">
         <v>163</v>
       </c>
-      <c r="B34" s="139"/>
-      <c r="C34" s="139"/>
-      <c r="D34" s="139"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="139"/>
-      <c r="H34" s="139"/>
-      <c r="I34" s="139"/>
-      <c r="J34" s="140"/>
-    </row>
-    <row r="35" spans="1:12" s="56" customFormat="1" ht="27" customHeight="1">
-      <c r="A35" s="194" t="s">
-        <v>164</v>
-      </c>
-      <c r="B35" s="110"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="110"/>
-      <c r="I35" s="110"/>
-      <c r="J35" s="195"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="196"/>
     </row>
     <row r="36" spans="1:12" s="82" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="116" t="s">
+      <c r="A36" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="163"/>
-      <c r="C36" s="163"/>
-      <c r="D36" s="163"/>
-      <c r="E36" s="163"/>
-      <c r="F36" s="163"/>
-      <c r="G36" s="163"/>
-      <c r="H36" s="163"/>
-      <c r="I36" s="163"/>
-      <c r="J36" s="164"/>
+      <c r="B36" s="161"/>
+      <c r="C36" s="161"/>
+      <c r="D36" s="161"/>
+      <c r="E36" s="161"/>
+      <c r="F36" s="161"/>
+      <c r="G36" s="161"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="161"/>
+      <c r="J36" s="162"/>
       <c r="K36" s="56"/>
       <c r="L36" s="56"/>
     </row>
@@ -13014,318 +13017,318 @@
       <c r="D37" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="119" t="s">
+      <c r="E37" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="120"/>
-      <c r="G37" s="120"/>
-      <c r="H37" s="120"/>
-      <c r="I37" s="120"/>
-      <c r="J37" s="120"/>
+      <c r="F37" s="184"/>
+      <c r="G37" s="184"/>
+      <c r="H37" s="184"/>
+      <c r="I37" s="184"/>
+      <c r="J37" s="184"/>
     </row>
     <row r="38" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="63">
         <v>1</v>
       </c>
       <c r="B38" s="63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C38" s="64" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="65"/>
-      <c r="E38" s="168" t="s">
-        <v>166</v>
-      </c>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="110"/>
-      <c r="J38" s="110"/>
+      <c r="E38" s="129" t="s">
+        <v>165</v>
+      </c>
+      <c r="F38" s="96"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="96"/>
       <c r="K38" s="56"/>
       <c r="L38" s="56"/>
     </row>
     <row r="39" spans="1:12" s="56" customFormat="1">
-      <c r="A39" s="148" t="s">
-        <v>173</v>
-      </c>
-      <c r="B39" s="149"/>
-      <c r="C39" s="149"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="150"/>
+      <c r="A39" s="145" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" s="146"/>
+      <c r="C39" s="146"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="146"/>
+      <c r="F39" s="146"/>
+      <c r="G39" s="146"/>
+      <c r="H39" s="146"/>
+      <c r="I39" s="146"/>
+      <c r="J39" s="147"/>
     </row>
     <row r="40" spans="1:12" s="56" customFormat="1" ht="25.5" customHeight="1">
       <c r="A40" s="59">
         <v>1</v>
       </c>
       <c r="B40" s="67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C40" s="68" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="69"/>
-      <c r="E40" s="168" t="s">
-        <v>108</v>
-      </c>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-      <c r="H40" s="110"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="110"/>
+      <c r="E40" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="96"/>
     </row>
     <row r="41" spans="1:12" s="56" customFormat="1" ht="87.75" customHeight="1">
       <c r="A41" s="70">
         <v>2</v>
       </c>
       <c r="B41" s="71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C41" s="68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D41" s="86"/>
-      <c r="E41" s="145" t="s">
-        <v>194</v>
-      </c>
-      <c r="F41" s="146"/>
-      <c r="G41" s="146"/>
-      <c r="H41" s="146"/>
-      <c r="I41" s="146"/>
-      <c r="J41" s="147"/>
+      <c r="E41" s="137" t="s">
+        <v>193</v>
+      </c>
+      <c r="F41" s="138"/>
+      <c r="G41" s="138"/>
+      <c r="H41" s="138"/>
+      <c r="I41" s="138"/>
+      <c r="J41" s="139"/>
     </row>
     <row r="42" spans="1:12" s="56" customFormat="1" ht="99">
       <c r="A42" s="70"/>
       <c r="B42" s="71"/>
       <c r="C42" s="83" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D42" s="87" t="s">
-        <v>227</v>
-      </c>
-      <c r="E42" s="145" t="s">
-        <v>195</v>
-      </c>
-      <c r="F42" s="196"/>
-      <c r="G42" s="196"/>
-      <c r="H42" s="196"/>
-      <c r="I42" s="196"/>
-      <c r="J42" s="197"/>
+        <v>226</v>
+      </c>
+      <c r="E42" s="137" t="s">
+        <v>194</v>
+      </c>
+      <c r="F42" s="197"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="197"/>
+      <c r="J42" s="198"/>
     </row>
     <row r="43" spans="1:12" s="58" customFormat="1" ht="33.75" customHeight="1">
       <c r="A43" s="73">
         <v>3</v>
       </c>
       <c r="B43" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="C43" s="68" t="s">
-        <v>170</v>
-      </c>
       <c r="D43" s="74"/>
-      <c r="E43" s="165" t="s">
-        <v>92</v>
-      </c>
-      <c r="F43" s="101"/>
-      <c r="G43" s="101"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="101"/>
-      <c r="J43" s="102"/>
+      <c r="E43" s="124" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="101"/>
     </row>
     <row r="44" spans="1:12" s="58" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A44" s="165"/>
-      <c r="B44" s="166"/>
-      <c r="C44" s="166"/>
-      <c r="D44" s="166"/>
-      <c r="E44" s="166"/>
-      <c r="F44" s="166"/>
-      <c r="G44" s="166"/>
-      <c r="H44" s="166"/>
-      <c r="I44" s="166"/>
-      <c r="J44" s="167"/>
+      <c r="A44" s="124"/>
+      <c r="B44" s="125"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125"/>
+      <c r="J44" s="126"/>
     </row>
     <row r="45" spans="1:12" s="56" customFormat="1">
-      <c r="A45" s="169" t="s">
-        <v>172</v>
-      </c>
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="170"/>
-      <c r="F45" s="170"/>
-      <c r="G45" s="170"/>
-      <c r="H45" s="170"/>
-      <c r="I45" s="170"/>
-      <c r="J45" s="171"/>
+      <c r="A45" s="130" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" s="131"/>
+      <c r="C45" s="131"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="131"/>
+      <c r="F45" s="131"/>
+      <c r="G45" s="131"/>
+      <c r="H45" s="131"/>
+      <c r="I45" s="131"/>
+      <c r="J45" s="132"/>
     </row>
     <row r="46" spans="1:12" s="56" customFormat="1">
       <c r="A46" s="59">
         <v>1</v>
       </c>
       <c r="B46" s="67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C46" s="68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D46" s="69"/>
-      <c r="E46" s="168" t="s">
-        <v>245</v>
-      </c>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="110"/>
+      <c r="E46" s="129" t="s">
+        <v>244</v>
+      </c>
+      <c r="F46" s="96"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="96"/>
     </row>
     <row r="47" spans="1:12" s="56" customFormat="1">
       <c r="A47" s="59">
         <v>2</v>
       </c>
       <c r="B47" s="67" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C47" s="68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D47" s="69"/>
-      <c r="E47" s="168" t="s">
-        <v>246</v>
-      </c>
-      <c r="F47" s="110"/>
-      <c r="G47" s="110"/>
-      <c r="H47" s="110"/>
-      <c r="I47" s="110"/>
-      <c r="J47" s="110"/>
+      <c r="E47" s="129" t="s">
+        <v>245</v>
+      </c>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="96"/>
     </row>
     <row r="48" spans="1:12" s="56" customFormat="1">
       <c r="A48" s="59">
         <v>3</v>
       </c>
       <c r="B48" s="67" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C48" s="68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D48" s="69"/>
-      <c r="E48" s="168" t="s">
-        <v>247</v>
-      </c>
-      <c r="F48" s="110"/>
-      <c r="G48" s="110"/>
-      <c r="H48" s="110"/>
-      <c r="I48" s="110"/>
-      <c r="J48" s="110"/>
+      <c r="E48" s="129" t="s">
+        <v>246</v>
+      </c>
+      <c r="F48" s="96"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="96"/>
     </row>
     <row r="49" spans="1:10" s="56" customFormat="1">
-      <c r="A49" s="121"/>
-      <c r="B49" s="122"/>
-      <c r="C49" s="122"/>
-      <c r="D49" s="122"/>
-      <c r="E49" s="122"/>
-      <c r="F49" s="122"/>
-      <c r="G49" s="122"/>
-      <c r="H49" s="122"/>
-      <c r="I49" s="122"/>
-      <c r="J49" s="123"/>
+      <c r="A49" s="127"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="136"/>
+      <c r="I49" s="136"/>
+      <c r="J49" s="128"/>
     </row>
     <row r="50" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A50" s="182" t="s">
+      <c r="A50" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="183"/>
-      <c r="C50" s="183"/>
-      <c r="D50" s="183"/>
-      <c r="E50" s="183"/>
-      <c r="F50" s="183"/>
-      <c r="G50" s="183"/>
-      <c r="H50" s="183"/>
-      <c r="I50" s="183"/>
-      <c r="J50" s="184"/>
+      <c r="B50" s="122"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
+      <c r="E50" s="122"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="122"/>
+      <c r="H50" s="122"/>
+      <c r="I50" s="122"/>
+      <c r="J50" s="123"/>
     </row>
     <row r="51" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="180" t="s">
+      <c r="B51" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="181"/>
-      <c r="D51" s="165" t="s">
+      <c r="C51" s="120"/>
+      <c r="D51" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="101"/>
-      <c r="F51" s="101"/>
-      <c r="G51" s="101"/>
-      <c r="H51" s="101"/>
-      <c r="I51" s="101"/>
-      <c r="J51" s="102"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="100"/>
+      <c r="J51" s="101"/>
     </row>
     <row r="52" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="177"/>
-      <c r="B52" s="188"/>
-      <c r="C52" s="188"/>
-      <c r="D52" s="188"/>
-      <c r="E52" s="188"/>
-      <c r="F52" s="188"/>
-      <c r="G52" s="188"/>
-      <c r="H52" s="188"/>
-      <c r="I52" s="188"/>
-      <c r="J52" s="189"/>
+      <c r="A52" s="116"/>
+      <c r="B52" s="192"/>
+      <c r="C52" s="192"/>
+      <c r="D52" s="192"/>
+      <c r="E52" s="192"/>
+      <c r="F52" s="192"/>
+      <c r="G52" s="192"/>
+      <c r="H52" s="192"/>
+      <c r="I52" s="192"/>
+      <c r="J52" s="193"/>
     </row>
     <row r="53" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="73"/>
-      <c r="B53" s="121"/>
-      <c r="C53" s="123"/>
-      <c r="D53" s="165"/>
-      <c r="E53" s="101"/>
-      <c r="F53" s="101"/>
-      <c r="G53" s="101"/>
-      <c r="H53" s="101"/>
-      <c r="I53" s="101"/>
-      <c r="J53" s="102"/>
+      <c r="B53" s="127"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="124"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="100"/>
+      <c r="I53" s="100"/>
+      <c r="J53" s="101"/>
     </row>
     <row r="54" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="73"/>
-      <c r="B54" s="121"/>
-      <c r="C54" s="123"/>
-      <c r="D54" s="165"/>
-      <c r="E54" s="101"/>
-      <c r="F54" s="101"/>
-      <c r="G54" s="101"/>
-      <c r="H54" s="101"/>
-      <c r="I54" s="101"/>
-      <c r="J54" s="102"/>
+      <c r="B54" s="127"/>
+      <c r="C54" s="128"/>
+      <c r="D54" s="124"/>
+      <c r="E54" s="100"/>
+      <c r="F54" s="100"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="100"/>
+      <c r="I54" s="100"/>
+      <c r="J54" s="101"/>
     </row>
     <row r="55" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="177"/>
-      <c r="B55" s="188"/>
-      <c r="C55" s="188"/>
-      <c r="D55" s="188"/>
-      <c r="E55" s="188"/>
-      <c r="F55" s="188"/>
-      <c r="G55" s="188"/>
-      <c r="H55" s="188"/>
-      <c r="I55" s="188"/>
-      <c r="J55" s="189"/>
+      <c r="A55" s="116"/>
+      <c r="B55" s="192"/>
+      <c r="C55" s="192"/>
+      <c r="D55" s="192"/>
+      <c r="E55" s="192"/>
+      <c r="F55" s="192"/>
+      <c r="G55" s="192"/>
+      <c r="H55" s="192"/>
+      <c r="I55" s="192"/>
+      <c r="J55" s="193"/>
     </row>
     <row r="56" spans="1:10" s="56" customFormat="1" ht="17.25" customHeight="1">
       <c r="A56" s="73"/>
-      <c r="B56" s="121"/>
-      <c r="C56" s="123"/>
-      <c r="D56" s="165"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="101"/>
-      <c r="H56" s="101"/>
-      <c r="I56" s="101"/>
-      <c r="J56" s="102"/>
+      <c r="B56" s="127"/>
+      <c r="C56" s="128"/>
+      <c r="D56" s="124"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="100"/>
+      <c r="G56" s="100"/>
+      <c r="H56" s="100"/>
+      <c r="I56" s="100"/>
+      <c r="J56" s="101"/>
     </row>
     <row r="57" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="77" t="s">
@@ -13348,14 +13351,14 @@
       <c r="B58" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="121"/>
-      <c r="D58" s="101"/>
-      <c r="E58" s="101"/>
-      <c r="F58" s="101"/>
-      <c r="G58" s="101"/>
-      <c r="H58" s="101"/>
-      <c r="I58" s="101"/>
-      <c r="J58" s="102"/>
+      <c r="C58" s="127"/>
+      <c r="D58" s="100"/>
+      <c r="E58" s="100"/>
+      <c r="F58" s="100"/>
+      <c r="G58" s="100"/>
+      <c r="H58" s="100"/>
+      <c r="I58" s="100"/>
+      <c r="J58" s="101"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="73">
@@ -13375,12 +13378,40 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="C58:J58"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A45:J45"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="C59:J59"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:J53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="A55:J55"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A24:J24"/>
@@ -13397,40 +13428,12 @@
     <mergeCell ref="A26:J26"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C59:J59"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:J53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="A39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/APF/RA006/RA006_APF0101_角色維護.xlsx
+++ b/APF/RA006/RA006_APF0101_角色維護.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7710" tabRatio="797" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15360" windowHeight="7665" tabRatio="797" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -25,9 +25,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">畫面_APF0101MA1!$A$1:$J$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0101MM1!$A$1:$J$67</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">畫面_APF0101MU1!$A$1:$J$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">畫面_APF0101MA1!$A$1:$J$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0101MM1!$A$1:$J$78</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">畫面_APF0101MU1!$A$1:$J$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">欄位_APF0101MA1!$A$1:$J$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0101MM1!$A$1:$J$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">欄位_APF0101MU1!$A$1:$J$13</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="295">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -125,14 +125,6 @@
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>_LOAD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>_CLICK</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>DB型態及長度</t>
@@ -158,10 +150,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>_CLICK</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>修改說明</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -245,31 +233,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Button說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>畫面示意圖</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>控制項名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>call methods</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>重要參數</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>主要處理內容</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -382,10 +346,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>『APF0101MM1』Form</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>角色代號</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -481,14 +441,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>『APF0101MA1』Form</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>系統提示「是否將所有欄位清除」，若選擇是，則清除所有欄位，若選擇否，則不做任何動作。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>nvarchar(20)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -549,18 +501,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>取消修改，以導頁方式開啟APF0101MM1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>以導頁方式開啟APF0101MA1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>將所有查詢結果匯出Excel檔案</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>I</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -594,19 +534,7 @@
   </si>
   <si>
     <t>APF0101MA1_Edit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0101MA1_Edit</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>_CLICK</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>_CLICK</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>角色代號</t>
@@ -661,54 +589,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>新增</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>確認</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>清除重填</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>將APF0101MM1_Grid內所有項目勾選</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>將APF0101MM1_Grid內所有項目取消勾選</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>將APF0101MM1_Grid內所有勾選項目刪除</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>開啟APF0101MM1_Query</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>全選</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>取消</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>刪除</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>匯出EXCEL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>明細</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>預設值</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -737,26 +617,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>回上一頁</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>儲存</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>清除重填</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0101MM1_Query</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>清除APF0101MM1_Query畫面所有欄位</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>I</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -769,47 +629,15 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>無</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>角色功能對應</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>APF0101MU1_Link</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>『APF0101MU1』Form</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>開啟APF0101MU1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>回上一頁</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>儲存</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>清除重填</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>_CLICK</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>角色功能對應</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0101MU1_Link</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0101MU1_Edit</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -833,15 +661,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>取消新增，以導頁方式開啟APF0101MM1，並帶回原先的查詢條件</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>APF0101MM1_Grid</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>以導頁方式開啟APF0101MU1，選取的角色資訊顯是在開啟APF0101MU1。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -887,10 +707,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>APF0101MM1_Grid</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">APF0101MU1_Edit
 </t>
@@ -904,47 +720,6 @@
       </rPr>
       <t>檢查時機：按下『儲存』鈕時</t>
     </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>開啟panAPF0101MM1_Grid，呼叫[APF0101Controller.MM1Query]Method</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>group_id,
-Name,
-source_type</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0101Controller.MM1Query</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>group_id,
-Name,
-Enable,
-remark,
-sourcetype</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0101Controller.MA1Add</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0101Controller.MA1Edit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-1.以導頁方式開啟APF0101MM1。
-2.呼叫[APF0101Controller.MA1Edit]Method,儲存資料至DB</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.呼叫[APFRoleProfileManager.EditRole]Method
-2.回傳ActionResult結果,確認新增是否成功,成功右下角提示「儲存成功」，以導頁方式開啟APF0101MM1.cshtml,失敗以導頁方式開啟錯誤訊息畫面error.cshtml。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1085,15 +860,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1.呼叫[APF0101Controller.MA1Add]Method</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.呼叫[APFRoleProfileManager.CreateRole]Method
-2.回傳ActionResult結果,確認新增是否成功,成功右下角提示「儲存成功」，以導頁方式開啟APF0101MM1.cshtml,,失敗以導頁方式開啟錯誤訊息畫面error.cshtml。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>欄位_APF0101MM1</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1154,33 +920,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>輸入/輸出/必填</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入/輸出/必填</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.呼叫[APFRoleProfileManager.QueryRole]Method,
-2.回傳JsonResult(List&lt;apf_role_profile&gt; Model to List)資料,資料連結並將查詢結果置於panAPF0101MM1_Grid中</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>提供系統權限使用</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>處理流程說明(模糊查詢共用文件)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Rid,
-Name,
-Enable,
-group_id,
-remark,
-source_type</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1282,7 +1026,482 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>Button說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>控制項名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>call methods</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重要參數</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>主要處理內容</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>『APF0101MM1』Form</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_LOAD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.開啟APF0101MM1_Query
+2.呼叫[APFRoleController.Query]Method</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APFRoleController.Query</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">呼叫[APFRoleController.UIPermission]Method </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APFRoleController.UIPermission</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>呼叫[APFRoleController.GetPermissionByControllerName]Method 驗證APF0101MM1內UI Button權限</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PermissionHelper.GetPermissionByControllerName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ControllerName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>共通UI Button權限驗證</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0101MM1_Query</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_CLICK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.以導頁方式開啟APF0101MA1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>2.呼叫[APFRoleController.CreateRole]Method</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APFRoleController.CreateRole</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>apfRoleM,
+coreRoleM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>將查詢條件傳至APF0101MA1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開啟APF0101MM1，呼叫[APFRoleController.GetRole]Method</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APFRoleController.GetRole</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RoleManager.GetRoles</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得角色資料</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APFRoleProfileManager.GetRoleProfiles</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得角色附表資料</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>清除重填</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_CLICK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>清除APF0101MM1_Query畫面所有欄位</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0101MM1_Grid</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全選</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>將APF0101MM1_Grid內所有項目勾選</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>將APF0101MM1_Grid內所有項目取消勾選</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>刪除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">呼叫[APFRoleController.DeleteRole]Method </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APFRoleController.DeleteRole</t>
+  </si>
+  <si>
+    <t>RoleDeleteCheckList</t>
+  </si>
+  <si>
+    <t>將APF0101MM1_Grid內所有勾選項目刪除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>匯出EXCEL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">呼叫[APFRoleController.Excel]Method </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APFRoleController.Excel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>將所有查詢結果匯出Excel檔案</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>明細</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1以導頁方式開啟APF0101MU1
+2.呼叫[APFRoleController.EditRole]Method</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APFRoleController.EditRole</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>將選取的角色ID傳至到APF0101MU1。。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>『APF0101MA1』Form</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.開啟APF0101MA1_Edit
+2.呼叫[APFRoleController.CreateRole]Method</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>呼叫[APFRoleController.GetPermissionByControllerName]Method驗證APF0101MA1 內UI Button權限</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ControllerName</t>
+  </si>
+  <si>
+    <t>APF0101MA1_Edit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>回上一頁</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.取消新增，以導頁方式開啟APF0101MM1，並帶回原先的查詢條件
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>2.呼叫[APFRoleController.GetRole]Method</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>將原始查詢條件回傳APF0101MM1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>儲存</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫[APFRoleController.CreateRole]Method</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>apfModel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫[RoleManager.Add]Method
+2.呼叫[APFRoleProfileManager.CreateRoleProfile]Method
+3.回傳ActionResult結果,確認新增是否成功,成功右下角提示「儲存成功」，以導頁方式開啟APF0101MM1.cshtml,,失敗以導頁方式開啟錯誤訊息畫面error.cshtml。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RoleManager.Add</t>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新增資料至Core_Role</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APFRoleProfileManager.CreateRoleProfile</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新增資料至apf_roleprofile</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>系統提示「是否將所有欄位清除」，若選擇是，則清除所有欄位，若選擇否，則不做任何動作。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0101MU1_Link</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>『APF0101MU1』Form</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.開啟APF0101MU1_Edit
+2.呼叫[APFRoleController.EditRole]Method</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APFRoleController.EditRole</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.呼叫[RoleManager.GetRoleByID]Method
+2.呼叫[APFRoleProfileManager.GetRoleProfileByRid]Method
+3.呼叫[APFRoleController.UIPermission]Method </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RoleManager.GetRoleByID</t>
+  </si>
+  <si>
+    <t>RoleId</t>
+  </si>
+  <si>
+    <t>取得Core_Role資料</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APFRoleProfileManager.GetRoleProfileByRid</t>
+  </si>
+  <si>
+    <t>取得至apf_roleprofile資料</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APFRoleController.UIPermission</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>呼叫[APFRoleController.GetPermissionByControllerName]Method驗證APF0101MU1 內UI Button權限</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PermissionHelper.GetPermissionByControllerName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>共通UI Button權限驗證</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0101MU1_Edit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>回上一頁</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_CLICK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取消修改，以導頁方式開啟APF0101MM1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>儲存</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫[APFRoleController.EditRole]Method</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RoleManager.Edit</t>
+  </si>
+  <si>
+    <t>更新Core_Role資料</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APFRoleProfileManager.EditRoleProfile</t>
+  </si>
+  <si>
+    <t>更新至apf_roleprofile資料</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>清除重填</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>系統提示「是否將所有欄位清除」，若選擇是，則清除所有欄位，若選擇否，則不做任何動作。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>apfModel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rid,
+Name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rid,
+groupId,
+Enable,
+sourceType,
+remark</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫[RoleManager.Edit]Method
+2.呼叫[APFRoleProfileManager.EditRoleProfile]Method
+3.回傳ActionResult結果,確認新增是否成功,成功右下角提示「儲存成功」，以導頁方式開啟APF0101MM1.cshtml,失敗以導頁方式開啟錯誤訊息畫面error.cshtml。。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">1.呼叫[APFRoleController.UIPermission]Method </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+2.呼叫[RoleManager.GetRoles]Method
+3.呼叫[APFRoleProfileManager.GetRoleProfiles]Method
+4.回傳JsonResult(List&lt;apf_role_profile&gt; Model to List)資料,資料連結並將查詢結果置於APF0101MM1中</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>輸入/輸出/必填</t>
+  </si>
+  <si>
+    <t>輸入/輸出/必填</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入/輸出/必填</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>輸入/輸出/必填</t>
@@ -1293,7 +1512,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1481,6 +1700,19 @@
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1796,7 +2028,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1962,203 +2194,419 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2169,162 +2617,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2335,16 +2627,46 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2355,12 +2677,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3467,13 +3783,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>85</xdr:row>
+          <xdr:row>86</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>666750</xdr:colOff>
-          <xdr:row>97</xdr:row>
+          <xdr:row>98</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4630,7 +4946,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="10286586" cy="581853"/>
+          <a:ext cx="10276354" cy="602316"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
@@ -5200,7 +5516,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="14401800" cy="523875"/>
+          <a:ext cx="14506575" cy="523875"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -6267,7 +6583,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="13368618" cy="621366"/>
+          <a:ext cx="13323794" cy="621366"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -7377,7 +7693,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="12365935" cy="600903"/>
+          <a:ext cx="12399065" cy="600903"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -8252,117 +8568,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
+      <c r="A1" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="30" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="33" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="33" t="s">
-        <v>233</v>
+        <v>173</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="35" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="91" t="s">
-        <v>60</v>
+      <c r="A5" s="100" t="s">
+        <v>51</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>213</v>
+        <v>157</v>
       </c>
       <c r="C5" s="34"/>
-      <c r="D5" s="90" t="s">
-        <v>55</v>
+      <c r="D5" s="81" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="91"/>
+      <c r="A6" s="100"/>
       <c r="B6" s="34" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="35" t="s">
-        <v>232</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="91" t="s">
-        <v>61</v>
+      <c r="A7" s="100" t="s">
+        <v>52</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>214</v>
+        <v>158</v>
       </c>
       <c r="C7" s="34"/>
-      <c r="D7" s="90" t="s">
-        <v>227</v>
+      <c r="D7" s="81" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="91"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="34" t="s">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="C8" s="34"/>
-      <c r="D8" s="90" t="s">
-        <v>227</v>
+      <c r="D8" s="81" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="91" t="s">
-        <v>62</v>
+      <c r="A9" s="100" t="s">
+        <v>53</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>217</v>
+        <v>161</v>
       </c>
       <c r="C9" s="34"/>
-      <c r="D9" s="90" t="s">
-        <v>227</v>
+      <c r="D9" s="81" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
-      <c r="A10" s="91"/>
+      <c r="A10" s="100"/>
       <c r="B10" s="34" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="C10" s="34"/>
-      <c r="D10" s="90" t="s">
-        <v>227</v>
+      <c r="D10" s="81" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1" thickBot="1">
@@ -8425,8 +8741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8438,7 +8754,7 @@
     <col min="5" max="6" width="17.25" style="41" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.625" style="41" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="41" customWidth="1"/>
-    <col min="9" max="9" width="14" style="41" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="41" customWidth="1"/>
     <col min="10" max="10" width="34.75" style="41" customWidth="1"/>
     <col min="11" max="11" width="10" style="41" customWidth="1"/>
     <col min="12" max="16384" width="9" style="41"/>
@@ -8455,8 +8771,8 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="143" t="s">
-        <v>59</v>
+      <c r="K1" s="147" t="s">
+        <v>50</v>
       </c>
       <c r="L1" s="39"/>
       <c r="M1" s="39"/>
@@ -8482,7 +8798,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="144"/>
+      <c r="K2" s="148"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -8500,7 +8816,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="144"/>
+      <c r="K3" s="148"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -8544,18 +8860,18 @@
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="185" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
-      <c r="J6" s="187"/>
+      <c r="A6" s="205" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="206"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="206"/>
+      <c r="I6" s="206"/>
+      <c r="J6" s="207"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -8571,25 +8887,25 @@
         <v>13</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -8622,18 +8938,18 @@
       <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="185" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="186"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="186"/>
-      <c r="J10" s="187"/>
+      <c r="A10" s="205" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="206"/>
+      <c r="C10" s="206"/>
+      <c r="D10" s="206"/>
+      <c r="E10" s="206"/>
+      <c r="F10" s="206"/>
+      <c r="G10" s="206"/>
+      <c r="H10" s="206"/>
+      <c r="I10" s="206"/>
+      <c r="J10" s="207"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="42" t="s">
@@ -8643,25 +8959,25 @@
         <v>13</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="J11" s="42" t="s">
         <v>0</v>
@@ -8672,26 +8988,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="45" t="s">
         <v>74</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>84</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="43" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="J12" s="48"/>
     </row>
@@ -8700,26 +9016,26 @@
         <v>2</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F13" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="45" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>92</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="J13" s="51"/>
     </row>
@@ -8728,26 +9044,26 @@
         <v>3</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="43" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="J14" s="48"/>
     </row>
@@ -8756,26 +9072,26 @@
         <v>4</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H15" s="45"/>
       <c r="I15" s="43" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="J15" s="48"/>
     </row>
@@ -8784,29 +9100,29 @@
         <v>5</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H16" s="49"/>
       <c r="I16" s="43" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="J16" s="51" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -8916,13 +9232,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="6"/>
@@ -8938,12 +9254,12 @@
         <v>1</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="89">
+        <v>37</v>
+      </c>
+      <c r="D6" s="80">
         <v>41550</v>
       </c>
       <c r="E6" s="12"/>
@@ -9072,10 +9388,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
     <sheetView topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O83" sqref="O83"/>
+      <selection activeCell="A84" sqref="A84:XFD84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9088,17 +9404,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" s="105" t="s">
-        <v>59</v>
+        <v>46</v>
+      </c>
+      <c r="M1" s="114" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="106"/>
+      <c r="M2" s="115"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="106"/>
+      <c r="M3" s="115"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -9115,208 +9431,208 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="118" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="123"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="123"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="124"/>
+    </row>
+    <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="111" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="113"/>
+    </row>
+    <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="108"/>
+    </row>
+    <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A8" s="104" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="109" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="110"/>
+    </row>
+    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="114"/>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="115"/>
-    </row>
-    <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="102" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="104"/>
-    </row>
-    <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="93" t="s">
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="97" t="s">
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="108"/>
+    </row>
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A10" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="109" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="110"/>
+    </row>
+    <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="99"/>
-    </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="95" t="s">
-        <v>195</v>
-      </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="100" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="101"/>
-    </row>
-    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="107" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="97" t="s">
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="108"/>
+    </row>
+    <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
+      <c r="A12" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="110"/>
+    </row>
+    <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="99"/>
-    </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="100" t="s">
-        <v>224</v>
-      </c>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="101"/>
-    </row>
-    <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="93" t="s">
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="113" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="99"/>
-    </row>
-    <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="101"/>
-    </row>
-    <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="93" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="113" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="99"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="108"/>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="101"/>
+      <c r="A14" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="110"/>
     </row>
     <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="109" t="s">
-        <v>225</v>
-      </c>
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="101"/>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="A85" s="110" t="s">
-        <v>51</v>
-      </c>
-      <c r="B85" s="111"/>
-      <c r="C85" s="111"/>
-      <c r="D85" s="111"/>
-      <c r="E85" s="111"/>
-      <c r="F85" s="111"/>
-      <c r="G85" s="111"/>
-      <c r="H85" s="111"/>
-      <c r="I85" s="111"/>
-      <c r="J85" s="111"/>
-      <c r="K85" s="111"/>
-      <c r="L85" s="112"/>
+      <c r="A15" s="118" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="110"/>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="119" t="s">
+        <v>42</v>
+      </c>
+      <c r="B86" s="120"/>
+      <c r="C86" s="120"/>
+      <c r="D86" s="120"/>
+      <c r="E86" s="120"/>
+      <c r="F86" s="120"/>
+      <c r="G86" s="120"/>
+      <c r="H86" s="120"/>
+      <c r="I86" s="120"/>
+      <c r="J86" s="120"/>
+      <c r="K86" s="120"/>
+      <c r="L86" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -9324,7 +9640,7 @@
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A85:L85"/>
+    <mergeCell ref="A86:L86"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
@@ -9386,13 +9702,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>85</xdr:row>
+                <xdr:row>86</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>11</xdr:col>
                 <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>97</xdr:row>
+                <xdr:row>98</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
@@ -9418,15 +9734,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="105" t="s">
-        <v>59</v>
+      <c r="P1" s="114" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="106"/>
+      <c r="P2" s="115"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="106"/>
+      <c r="P3" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9474,10 +9790,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:J18"/>
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56:J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9507,8 +9823,8 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="143" t="s">
-        <v>59</v>
+      <c r="K1" s="147" t="s">
+        <v>50</v>
       </c>
       <c r="L1" s="54"/>
       <c r="M1" s="54"/>
@@ -9528,7 +9844,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="144"/>
+      <c r="K2" s="148"/>
     </row>
     <row r="3" spans="1:17" s="55" customFormat="1">
       <c r="A3" s="47"/>
@@ -9541,7 +9857,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="144"/>
+      <c r="K3" s="148"/>
     </row>
     <row r="4" spans="1:17" s="55" customFormat="1">
       <c r="A4" s="47"/>
@@ -9556,1017 +9872,1230 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="151" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="99"/>
+      <c r="A5" s="152" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="108"/>
     </row>
     <row r="6" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="102"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="104"/>
+      <c r="A6" s="111"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="113"/>
     </row>
     <row r="7" spans="1:17" s="56" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="152"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="155"/>
+      <c r="A7" s="153"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="156"/>
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:17" s="56" customFormat="1">
-      <c r="A8" s="152"/>
-      <c r="B8" s="153"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="155"/>
+      <c r="A8" s="153"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="156"/>
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:17" s="56" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="156"/>
-      <c r="B9" s="157"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="158"/>
+      <c r="A9" s="157"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="159"/>
     </row>
     <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="151" t="s">
+      <c r="A10" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="99"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="108"/>
     </row>
     <row r="11" spans="1:17" s="58" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="159" t="s">
-        <v>236</v>
-      </c>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="101"/>
+      <c r="A11" s="160" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="110"/>
     </row>
     <row r="12" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="151" t="s">
+      <c r="A12" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="99"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="108"/>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="159" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="101"/>
+      <c r="A13" s="160" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="110"/>
     </row>
     <row r="14" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="151" t="s">
+      <c r="A14" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="99"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="108"/>
     </row>
     <row r="15" spans="1:17" s="56" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="163" t="s">
-        <v>182</v>
-      </c>
-      <c r="B15" s="164"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="165"/>
+      <c r="A15" s="165" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="166"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="167"/>
     </row>
     <row r="16" spans="1:17" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="166" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="168"/>
+        <v>106</v>
+      </c>
+      <c r="C16" s="168" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="169"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="170"/>
     </row>
     <row r="17" spans="1:10" s="56" customFormat="1" ht="49.5" customHeight="1">
       <c r="A17" s="59">
         <v>1</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="169" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="171"/>
+        <v>104</v>
+      </c>
+      <c r="C17" s="171" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="173"/>
     </row>
     <row r="18" spans="1:10" s="56" customFormat="1" ht="53.25" customHeight="1">
       <c r="A18" s="59">
         <v>2</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="169" t="s">
-        <v>239</v>
-      </c>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="171"/>
+        <v>107</v>
+      </c>
+      <c r="C18" s="171" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="172"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="173"/>
     </row>
     <row r="19" spans="1:10" s="56" customFormat="1">
       <c r="A19" s="59">
         <v>3</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="169" t="s">
-        <v>149</v>
-      </c>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="171"/>
+        <v>108</v>
+      </c>
+      <c r="C19" s="171" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="172"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="173"/>
     </row>
     <row r="20" spans="1:10" s="56" customFormat="1">
-      <c r="A20" s="127"/>
-      <c r="B20" s="136"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="128"/>
+      <c r="A20" s="128"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="129"/>
     </row>
     <row r="21" spans="1:10" s="56" customFormat="1">
-      <c r="A21" s="163" t="s">
-        <v>179</v>
-      </c>
-      <c r="B21" s="164"/>
-      <c r="C21" s="164"/>
-      <c r="D21" s="164"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="165"/>
+      <c r="A21" s="165" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="166"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="167"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="166" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" s="167"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="167"/>
-      <c r="I22" s="167"/>
-      <c r="J22" s="168"/>
+        <v>106</v>
+      </c>
+      <c r="C22" s="168" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="169"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="169"/>
+      <c r="G22" s="169"/>
+      <c r="H22" s="169"/>
+      <c r="I22" s="169"/>
+      <c r="J22" s="170"/>
     </row>
     <row r="23" spans="1:10" s="56" customFormat="1">
       <c r="A23" s="59">
         <v>1</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="174" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="171"/>
+        <v>104</v>
+      </c>
+      <c r="C23" s="176" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="172"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="172"/>
+      <c r="J23" s="173"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1">
       <c r="A24" s="59">
         <v>2</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="174" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="170"/>
-      <c r="H24" s="170"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="171"/>
+        <v>107</v>
+      </c>
+      <c r="C24" s="176" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="172"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="172"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="173"/>
     </row>
     <row r="25" spans="1:10" s="56" customFormat="1">
       <c r="A25" s="59">
         <v>3</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="174" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="170"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="171"/>
+        <v>112</v>
+      </c>
+      <c r="C25" s="176" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="172"/>
+      <c r="E25" s="172"/>
+      <c r="F25" s="172"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="172"/>
+      <c r="I25" s="172"/>
+      <c r="J25" s="173"/>
     </row>
     <row r="26" spans="1:10" s="56" customFormat="1">
       <c r="A26" s="59">
         <v>4</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="174" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="171"/>
+        <v>108</v>
+      </c>
+      <c r="C26" s="176" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="172"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="173"/>
     </row>
     <row r="27" spans="1:10" s="56" customFormat="1">
-      <c r="A27" s="148"/>
-      <c r="B27" s="149"/>
-      <c r="C27" s="149"/>
-      <c r="D27" s="149"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="150"/>
+      <c r="A27" s="149"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="151"/>
     </row>
     <row r="28" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="160" t="s">
+      <c r="A28" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="161"/>
-      <c r="C28" s="161"/>
-      <c r="D28" s="161"/>
-      <c r="E28" s="161"/>
-      <c r="F28" s="161"/>
-      <c r="G28" s="161"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="162"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="163"/>
     </row>
     <row r="29" spans="1:10" s="56" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="163" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" s="164"/>
-      <c r="C29" s="164"/>
-      <c r="D29" s="164"/>
-      <c r="E29" s="164"/>
-      <c r="F29" s="164"/>
-      <c r="G29" s="164"/>
-      <c r="H29" s="164"/>
-      <c r="I29" s="164"/>
-      <c r="J29" s="165"/>
+      <c r="A29" s="165" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="166"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="166"/>
+      <c r="E29" s="166"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="166"/>
+      <c r="H29" s="166"/>
+      <c r="I29" s="166"/>
+      <c r="J29" s="167"/>
     </row>
     <row r="30" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="166" t="s">
-        <v>132</v>
-      </c>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="167"/>
-      <c r="J30" s="168"/>
+        <v>106</v>
+      </c>
+      <c r="C30" s="168" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="169"/>
+      <c r="H30" s="169"/>
+      <c r="I30" s="169"/>
+      <c r="J30" s="170"/>
     </row>
     <row r="31" spans="1:10" s="56" customFormat="1">
       <c r="A31" s="59">
         <v>1</v>
       </c>
       <c r="B31" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="175" t="s">
-        <v>235</v>
-      </c>
-      <c r="D31" s="176"/>
-      <c r="E31" s="176"/>
-      <c r="F31" s="176"/>
-      <c r="G31" s="176"/>
-      <c r="H31" s="176"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="177"/>
+        <v>104</v>
+      </c>
+      <c r="C31" s="177" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" s="178"/>
+      <c r="E31" s="178"/>
+      <c r="F31" s="178"/>
+      <c r="G31" s="178"/>
+      <c r="H31" s="178"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="179"/>
     </row>
     <row r="32" spans="1:10" s="56" customFormat="1">
       <c r="A32" s="59">
         <v>2</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="178"/>
-      <c r="D32" s="179"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="179"/>
-      <c r="I32" s="179"/>
-      <c r="J32" s="180"/>
+        <v>107</v>
+      </c>
+      <c r="C32" s="180"/>
+      <c r="D32" s="181"/>
+      <c r="E32" s="181"/>
+      <c r="F32" s="181"/>
+      <c r="G32" s="181"/>
+      <c r="H32" s="181"/>
+      <c r="I32" s="181"/>
+      <c r="J32" s="182"/>
     </row>
     <row r="33" spans="1:12" s="56" customFormat="1">
       <c r="A33" s="59">
         <v>3</v>
       </c>
       <c r="B33" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" s="174" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" s="170"/>
-      <c r="E33" s="170"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="171"/>
+        <v>108</v>
+      </c>
+      <c r="C33" s="176" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="172"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="172"/>
+      <c r="I33" s="172"/>
+      <c r="J33" s="173"/>
     </row>
     <row r="34" spans="1:12" s="56" customFormat="1">
-      <c r="A34" s="127"/>
-      <c r="B34" s="136"/>
-      <c r="C34" s="136"/>
-      <c r="D34" s="136"/>
-      <c r="E34" s="136"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="136"/>
-      <c r="H34" s="136"/>
-      <c r="I34" s="136"/>
-      <c r="J34" s="128"/>
+      <c r="A34" s="128"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="133"/>
+      <c r="D34" s="133"/>
+      <c r="E34" s="133"/>
+      <c r="F34" s="133"/>
+      <c r="G34" s="133"/>
+      <c r="H34" s="133"/>
+      <c r="I34" s="133"/>
+      <c r="J34" s="129"/>
     </row>
     <row r="35" spans="1:12" s="56" customFormat="1">
-      <c r="A35" s="163" t="s">
-        <v>128</v>
-      </c>
-      <c r="B35" s="172"/>
-      <c r="C35" s="172"/>
-      <c r="D35" s="172"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="173"/>
+      <c r="A35" s="165" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="174"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="174"/>
+      <c r="E35" s="174"/>
+      <c r="F35" s="174"/>
+      <c r="G35" s="174"/>
+      <c r="H35" s="174"/>
+      <c r="I35" s="174"/>
+      <c r="J35" s="175"/>
     </row>
     <row r="36" spans="1:12" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="166" t="s">
-        <v>133</v>
-      </c>
-      <c r="D36" s="167"/>
-      <c r="E36" s="167"/>
-      <c r="F36" s="167"/>
-      <c r="G36" s="167"/>
-      <c r="H36" s="167"/>
-      <c r="I36" s="167"/>
-      <c r="J36" s="168"/>
+        <v>106</v>
+      </c>
+      <c r="C36" s="168" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="169"/>
+      <c r="E36" s="169"/>
+      <c r="F36" s="169"/>
+      <c r="G36" s="169"/>
+      <c r="H36" s="169"/>
+      <c r="I36" s="169"/>
+      <c r="J36" s="170"/>
     </row>
     <row r="37" spans="1:12" s="56" customFormat="1">
       <c r="A37" s="59">
         <v>1</v>
       </c>
       <c r="B37" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37" s="174" t="s">
-        <v>131</v>
-      </c>
-      <c r="D37" s="170"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="170"/>
-      <c r="G37" s="170"/>
-      <c r="H37" s="170"/>
-      <c r="I37" s="170"/>
-      <c r="J37" s="171"/>
+        <v>104</v>
+      </c>
+      <c r="C37" s="176" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="172"/>
+      <c r="E37" s="172"/>
+      <c r="F37" s="172"/>
+      <c r="G37" s="172"/>
+      <c r="H37" s="172"/>
+      <c r="I37" s="172"/>
+      <c r="J37" s="173"/>
     </row>
     <row r="38" spans="1:12" s="56" customFormat="1">
       <c r="A38" s="59">
         <v>2</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="174" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" s="170"/>
-      <c r="E38" s="170"/>
-      <c r="F38" s="170"/>
-      <c r="G38" s="170"/>
-      <c r="H38" s="170"/>
-      <c r="I38" s="170"/>
-      <c r="J38" s="171"/>
+        <v>107</v>
+      </c>
+      <c r="C38" s="176" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="172"/>
+      <c r="E38" s="172"/>
+      <c r="F38" s="172"/>
+      <c r="G38" s="172"/>
+      <c r="H38" s="172"/>
+      <c r="I38" s="172"/>
+      <c r="J38" s="173"/>
     </row>
     <row r="39" spans="1:12" s="56" customFormat="1">
       <c r="A39" s="59">
         <v>3</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" s="174" t="s">
-        <v>131</v>
-      </c>
-      <c r="D39" s="170"/>
-      <c r="E39" s="170"/>
-      <c r="F39" s="170"/>
-      <c r="G39" s="170"/>
-      <c r="H39" s="170"/>
-      <c r="I39" s="170"/>
-      <c r="J39" s="171"/>
+        <v>112</v>
+      </c>
+      <c r="C39" s="176" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="172"/>
+      <c r="E39" s="172"/>
+      <c r="F39" s="172"/>
+      <c r="G39" s="172"/>
+      <c r="H39" s="172"/>
+      <c r="I39" s="172"/>
+      <c r="J39" s="173"/>
     </row>
     <row r="40" spans="1:12" s="56" customFormat="1">
       <c r="A40" s="59">
         <v>4</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="174" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" s="170"/>
-      <c r="E40" s="170"/>
-      <c r="F40" s="170"/>
-      <c r="G40" s="170"/>
-      <c r="H40" s="170"/>
-      <c r="I40" s="170"/>
-      <c r="J40" s="171"/>
+        <v>108</v>
+      </c>
+      <c r="C40" s="176" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="172"/>
+      <c r="E40" s="172"/>
+      <c r="F40" s="172"/>
+      <c r="G40" s="172"/>
+      <c r="H40" s="172"/>
+      <c r="I40" s="172"/>
+      <c r="J40" s="173"/>
     </row>
     <row r="41" spans="1:12" s="56" customFormat="1">
-      <c r="A41" s="127"/>
-      <c r="B41" s="136"/>
-      <c r="C41" s="136"/>
-      <c r="D41" s="136"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="136"/>
-      <c r="G41" s="136"/>
-      <c r="H41" s="136"/>
-      <c r="I41" s="136"/>
-      <c r="J41" s="128"/>
+      <c r="A41" s="128"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="133"/>
+      <c r="D41" s="133"/>
+      <c r="E41" s="133"/>
+      <c r="F41" s="133"/>
+      <c r="G41" s="133"/>
+      <c r="H41" s="133"/>
+      <c r="I41" s="133"/>
+      <c r="J41" s="129"/>
     </row>
     <row r="42" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="160" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="181"/>
-      <c r="C42" s="181"/>
-      <c r="D42" s="181"/>
-      <c r="E42" s="181"/>
-      <c r="F42" s="181"/>
-      <c r="G42" s="181"/>
-      <c r="H42" s="181"/>
-      <c r="I42" s="181"/>
-      <c r="J42" s="182"/>
+      <c r="A42" s="161" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" s="183"/>
+      <c r="C42" s="183"/>
+      <c r="D42" s="183"/>
+      <c r="E42" s="183"/>
+      <c r="F42" s="183"/>
+      <c r="G42" s="183"/>
+      <c r="H42" s="183"/>
+      <c r="I42" s="183"/>
+      <c r="J42" s="184"/>
     </row>
     <row r="43" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A43" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="183" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" s="184"/>
-      <c r="G43" s="184"/>
-      <c r="H43" s="184"/>
-      <c r="I43" s="184"/>
-      <c r="J43" s="184"/>
+      <c r="A43" s="91" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="91" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" s="92" t="s">
+        <v>190</v>
+      </c>
+      <c r="D43" s="92" t="s">
+        <v>191</v>
+      </c>
+      <c r="E43" s="185" t="s">
+        <v>192</v>
+      </c>
+      <c r="F43" s="186"/>
+      <c r="G43" s="186"/>
+      <c r="H43" s="186"/>
+      <c r="I43" s="186"/>
+      <c r="J43" s="186"/>
       <c r="K43" s="56"/>
       <c r="L43" s="56"/>
     </row>
-    <row r="44" spans="1:12" s="56" customFormat="1" ht="33" customHeight="1">
-      <c r="A44" s="63">
+    <row r="44" spans="1:12" s="56" customFormat="1" ht="39" customHeight="1">
+      <c r="A44" s="134">
         <v>1</v>
       </c>
-      <c r="B44" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="64"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="129" t="s">
-        <v>141</v>
-      </c>
-      <c r="F44" s="96"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="96"/>
-    </row>
-    <row r="45" spans="1:12" s="56" customFormat="1">
-      <c r="A45" s="66"/>
-      <c r="B45" s="136"/>
-      <c r="C45" s="136"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="136"/>
-      <c r="J45" s="128"/>
-    </row>
-    <row r="46" spans="1:12" s="56" customFormat="1">
-      <c r="A46" s="145" t="s">
-        <v>157</v>
-      </c>
-      <c r="B46" s="146"/>
-      <c r="C46" s="146"/>
-      <c r="D46" s="146"/>
-      <c r="E46" s="146"/>
-      <c r="F46" s="146"/>
-      <c r="G46" s="146"/>
-      <c r="H46" s="146"/>
-      <c r="I46" s="146"/>
-      <c r="J46" s="147"/>
+      <c r="B44" s="134" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="93" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" s="93"/>
+      <c r="E44" s="164" t="s">
+        <v>195</v>
+      </c>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="105"/>
+      <c r="J44" s="105"/>
+    </row>
+    <row r="45" spans="1:12" s="56" customFormat="1" ht="27" customHeight="1">
+      <c r="A45" s="135"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="85" t="s">
+        <v>196</v>
+      </c>
+      <c r="D45" s="93"/>
+      <c r="E45" s="142" t="s">
+        <v>197</v>
+      </c>
+      <c r="F45" s="143"/>
+      <c r="G45" s="143"/>
+      <c r="H45" s="143"/>
+      <c r="I45" s="143"/>
+      <c r="J45" s="144"/>
+    </row>
+    <row r="46" spans="1:12" s="56" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A46" s="135"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="85" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" s="85"/>
+      <c r="E46" s="142" t="s">
+        <v>199</v>
+      </c>
+      <c r="F46" s="143"/>
+      <c r="G46" s="143"/>
+      <c r="H46" s="143"/>
+      <c r="I46" s="143"/>
+      <c r="J46" s="144"/>
     </row>
     <row r="47" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A47" s="59">
+      <c r="A47" s="136"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="85" t="s">
+        <v>200</v>
+      </c>
+      <c r="D47" s="85" t="s">
+        <v>201</v>
+      </c>
+      <c r="E47" s="145" t="s">
+        <v>202</v>
+      </c>
+      <c r="F47" s="146"/>
+      <c r="G47" s="146"/>
+      <c r="H47" s="146"/>
+      <c r="I47" s="146"/>
+      <c r="J47" s="146"/>
+    </row>
+    <row r="48" spans="1:12" s="58" customFormat="1">
+      <c r="A48" s="63"/>
+      <c r="B48" s="133"/>
+      <c r="C48" s="133"/>
+      <c r="D48" s="133"/>
+      <c r="E48" s="133"/>
+      <c r="F48" s="133"/>
+      <c r="G48" s="133"/>
+      <c r="H48" s="133"/>
+      <c r="I48" s="133"/>
+      <c r="J48" s="129"/>
+    </row>
+    <row r="49" spans="1:10" s="58" customFormat="1">
+      <c r="A49" s="187" t="s">
+        <v>203</v>
+      </c>
+      <c r="B49" s="188"/>
+      <c r="C49" s="188"/>
+      <c r="D49" s="188"/>
+      <c r="E49" s="188"/>
+      <c r="F49" s="188"/>
+      <c r="G49" s="188"/>
+      <c r="H49" s="188"/>
+      <c r="I49" s="188"/>
+      <c r="J49" s="189"/>
+    </row>
+    <row r="50" spans="1:10" s="56" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A50" s="134">
         <v>1</v>
       </c>
-      <c r="B47" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="69"/>
-      <c r="E47" s="129" t="s">
-        <v>108</v>
-      </c>
-      <c r="F47" s="96"/>
-      <c r="G47" s="96"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="96"/>
-    </row>
-    <row r="48" spans="1:12" s="58" customFormat="1" ht="39" customHeight="1">
-      <c r="A48" s="70">
+      <c r="B50" s="191" t="s">
+        <v>204</v>
+      </c>
+      <c r="C50" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="D50" s="85"/>
+      <c r="E50" s="164" t="s">
+        <v>206</v>
+      </c>
+      <c r="F50" s="105"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="105"/>
+      <c r="I50" s="105"/>
+      <c r="J50" s="105"/>
+    </row>
+    <row r="51" spans="1:10" s="56" customFormat="1" ht="33">
+      <c r="A51" s="190"/>
+      <c r="B51" s="192"/>
+      <c r="C51" s="95" t="s">
+        <v>207</v>
+      </c>
+      <c r="D51" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="E51" s="193" t="s">
+        <v>209</v>
+      </c>
+      <c r="F51" s="194"/>
+      <c r="G51" s="194"/>
+      <c r="H51" s="194"/>
+      <c r="I51" s="194"/>
+      <c r="J51" s="195"/>
+    </row>
+    <row r="52" spans="1:10" s="56" customFormat="1">
+      <c r="A52" s="67">
         <v>2</v>
       </c>
-      <c r="B48" s="140" t="s">
-        <v>136</v>
-      </c>
-      <c r="C48" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="85"/>
-      <c r="E48" s="137" t="s">
-        <v>187</v>
-      </c>
-      <c r="F48" s="138"/>
-      <c r="G48" s="138"/>
-      <c r="H48" s="138"/>
-      <c r="I48" s="138"/>
-      <c r="J48" s="139"/>
-    </row>
-    <row r="49" spans="1:10" s="58" customFormat="1" ht="66" customHeight="1">
-      <c r="A49" s="70"/>
-      <c r="B49" s="141"/>
-      <c r="C49" s="84" t="s">
-        <v>189</v>
-      </c>
-      <c r="D49" s="85" t="s">
-        <v>188</v>
-      </c>
-      <c r="E49" s="137" t="s">
+      <c r="B52" s="191" t="s">
+        <v>210</v>
+      </c>
+      <c r="C52" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" s="96"/>
+      <c r="E52" s="197" t="s">
+        <v>211</v>
+      </c>
+      <c r="F52" s="198"/>
+      <c r="G52" s="198"/>
+      <c r="H52" s="198"/>
+      <c r="I52" s="198"/>
+      <c r="J52" s="199"/>
+    </row>
+    <row r="53" spans="1:10" s="56" customFormat="1" ht="91.5" customHeight="1">
+      <c r="A53" s="67"/>
+      <c r="B53" s="196"/>
+      <c r="C53" s="94" t="s">
+        <v>212</v>
+      </c>
+      <c r="D53" s="97" t="s">
+        <v>208</v>
+      </c>
+      <c r="E53" s="197" t="s">
+        <v>290</v>
+      </c>
+      <c r="F53" s="198"/>
+      <c r="G53" s="198"/>
+      <c r="H53" s="198"/>
+      <c r="I53" s="198"/>
+      <c r="J53" s="199"/>
+    </row>
+    <row r="54" spans="1:10" s="56" customFormat="1" ht="33">
+      <c r="A54" s="67"/>
+      <c r="B54" s="196"/>
+      <c r="C54" s="90" t="s">
+        <v>198</v>
+      </c>
+      <c r="D54" s="90"/>
+      <c r="E54" s="142" t="s">
+        <v>199</v>
+      </c>
+      <c r="F54" s="143"/>
+      <c r="G54" s="143"/>
+      <c r="H54" s="143"/>
+      <c r="I54" s="143"/>
+      <c r="J54" s="144"/>
+    </row>
+    <row r="55" spans="1:10" s="56" customFormat="1" ht="33">
+      <c r="A55" s="67"/>
+      <c r="B55" s="196"/>
+      <c r="C55" s="90" t="s">
+        <v>200</v>
+      </c>
+      <c r="D55" s="90" t="s">
+        <v>201</v>
+      </c>
+      <c r="E55" s="145" t="s">
+        <v>202</v>
+      </c>
+      <c r="F55" s="146"/>
+      <c r="G55" s="146"/>
+      <c r="H55" s="146"/>
+      <c r="I55" s="146"/>
+      <c r="J55" s="146"/>
+    </row>
+    <row r="56" spans="1:10" s="56" customFormat="1">
+      <c r="A56" s="67"/>
+      <c r="B56" s="196"/>
+      <c r="C56" s="94" t="s">
+        <v>213</v>
+      </c>
+      <c r="D56" s="96"/>
+      <c r="E56" s="125" t="s">
+        <v>214</v>
+      </c>
+      <c r="F56" s="200"/>
+      <c r="G56" s="200"/>
+      <c r="H56" s="200"/>
+      <c r="I56" s="200"/>
+      <c r="J56" s="201"/>
+    </row>
+    <row r="57" spans="1:10" s="56" customFormat="1" ht="33">
+      <c r="A57" s="67"/>
+      <c r="B57" s="192"/>
+      <c r="C57" s="94" t="s">
+        <v>215</v>
+      </c>
+      <c r="D57" s="96"/>
+      <c r="E57" s="125" t="s">
+        <v>216</v>
+      </c>
+      <c r="F57" s="200"/>
+      <c r="G57" s="200"/>
+      <c r="H57" s="200"/>
+      <c r="I57" s="200"/>
+      <c r="J57" s="201"/>
+    </row>
+    <row r="58" spans="1:10" s="56" customFormat="1">
+      <c r="A58" s="69">
+        <v>3</v>
+      </c>
+      <c r="B58" s="88" t="s">
+        <v>217</v>
+      </c>
+      <c r="C58" s="94" t="s">
+        <v>218</v>
+      </c>
+      <c r="D58" s="98"/>
+      <c r="E58" s="125" t="s">
+        <v>219</v>
+      </c>
+      <c r="F58" s="109"/>
+      <c r="G58" s="109"/>
+      <c r="H58" s="109"/>
+      <c r="I58" s="109"/>
+      <c r="J58" s="110"/>
+    </row>
+    <row r="59" spans="1:10" s="56" customFormat="1">
+      <c r="A59" s="70"/>
+      <c r="B59" s="133"/>
+      <c r="C59" s="133"/>
+      <c r="D59" s="133"/>
+      <c r="E59" s="133"/>
+      <c r="F59" s="133"/>
+      <c r="G59" s="133"/>
+      <c r="H59" s="133"/>
+      <c r="I59" s="133"/>
+      <c r="J59" s="129"/>
+    </row>
+    <row r="60" spans="1:10" s="56" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A60" s="202" t="s">
+        <v>220</v>
+      </c>
+      <c r="B60" s="203"/>
+      <c r="C60" s="203"/>
+      <c r="D60" s="203"/>
+      <c r="E60" s="203"/>
+      <c r="F60" s="203"/>
+      <c r="G60" s="203"/>
+      <c r="H60" s="203"/>
+      <c r="I60" s="203"/>
+      <c r="J60" s="204"/>
+    </row>
+    <row r="61" spans="1:10" s="56" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A61" s="59">
+        <v>1</v>
+      </c>
+      <c r="B61" s="88" t="s">
+        <v>221</v>
+      </c>
+      <c r="C61" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="D61" s="85"/>
+      <c r="E61" s="164" t="s">
+        <v>222</v>
+      </c>
+      <c r="F61" s="105"/>
+      <c r="G61" s="105"/>
+      <c r="H61" s="105"/>
+      <c r="I61" s="105"/>
+      <c r="J61" s="105"/>
+    </row>
+    <row r="62" spans="1:10" s="56" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A62" s="59">
+        <v>2</v>
+      </c>
+      <c r="B62" s="88" t="s">
         <v>223</v>
       </c>
-      <c r="F49" s="138"/>
-      <c r="G49" s="138"/>
-      <c r="H49" s="138"/>
-      <c r="I49" s="138"/>
-      <c r="J49" s="139"/>
-    </row>
-    <row r="50" spans="1:10" s="56" customFormat="1">
-      <c r="A50" s="73">
+      <c r="C62" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="D62" s="86"/>
+      <c r="E62" s="197" t="s">
+        <v>224</v>
+      </c>
+      <c r="F62" s="198"/>
+      <c r="G62" s="198"/>
+      <c r="H62" s="198"/>
+      <c r="I62" s="198"/>
+      <c r="J62" s="199"/>
+    </row>
+    <row r="63" spans="1:10" s="56" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A63" s="134">
         <v>3</v>
       </c>
-      <c r="B50" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="C50" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="74"/>
-      <c r="E50" s="124" t="s">
-        <v>158</v>
-      </c>
-      <c r="F50" s="100"/>
-      <c r="G50" s="100"/>
-      <c r="H50" s="100"/>
-      <c r="I50" s="100"/>
-      <c r="J50" s="101"/>
-    </row>
-    <row r="51" spans="1:10" s="56" customFormat="1">
-      <c r="A51" s="75"/>
-      <c r="B51" s="136"/>
-      <c r="C51" s="136"/>
-      <c r="D51" s="136"/>
-      <c r="E51" s="136"/>
-      <c r="F51" s="136"/>
-      <c r="G51" s="136"/>
-      <c r="H51" s="136"/>
-      <c r="I51" s="136"/>
-      <c r="J51" s="128"/>
-    </row>
-    <row r="52" spans="1:10" s="56" customFormat="1">
-      <c r="A52" s="130" t="s">
-        <v>185</v>
-      </c>
-      <c r="B52" s="131"/>
-      <c r="C52" s="131"/>
-      <c r="D52" s="131"/>
-      <c r="E52" s="131"/>
-      <c r="F52" s="131"/>
-      <c r="G52" s="131"/>
-      <c r="H52" s="131"/>
-      <c r="I52" s="131"/>
-      <c r="J52" s="132"/>
-    </row>
-    <row r="53" spans="1:10" s="56" customFormat="1">
-      <c r="A53" s="59">
+      <c r="B63" s="191" t="s">
+        <v>225</v>
+      </c>
+      <c r="C63" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="D63" s="86"/>
+      <c r="E63" s="197" t="s">
+        <v>226</v>
+      </c>
+      <c r="F63" s="198"/>
+      <c r="G63" s="198"/>
+      <c r="H63" s="198"/>
+      <c r="I63" s="198"/>
+      <c r="J63" s="199"/>
+    </row>
+    <row r="64" spans="1:10" s="56" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A64" s="190"/>
+      <c r="B64" s="192"/>
+      <c r="C64" s="94" t="s">
+        <v>227</v>
+      </c>
+      <c r="D64" s="99" t="s">
+        <v>228</v>
+      </c>
+      <c r="E64" s="125" t="s" ph="1">
+        <v>229</v>
+      </c>
+      <c r="F64" s="194"/>
+      <c r="G64" s="194"/>
+      <c r="H64" s="194"/>
+      <c r="I64" s="194"/>
+      <c r="J64" s="195"/>
+    </row>
+    <row r="65" spans="1:10" s="56" customFormat="1">
+      <c r="A65" s="134">
+        <v>4</v>
+      </c>
+      <c r="B65" s="191" t="s">
+        <v>230</v>
+      </c>
+      <c r="C65" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="D65" s="99"/>
+      <c r="E65" s="197" t="s">
+        <v>231</v>
+      </c>
+      <c r="F65" s="198"/>
+      <c r="G65" s="198"/>
+      <c r="H65" s="198"/>
+      <c r="I65" s="198"/>
+      <c r="J65" s="199"/>
+    </row>
+    <row r="66" spans="1:10" s="56" customFormat="1">
+      <c r="A66" s="190"/>
+      <c r="B66" s="192"/>
+      <c r="C66" s="94" t="s">
+        <v>232</v>
+      </c>
+      <c r="D66" s="99" t="s">
+        <v>233</v>
+      </c>
+      <c r="E66" s="197" t="s">
+        <v>234</v>
+      </c>
+      <c r="F66" s="198"/>
+      <c r="G66" s="198"/>
+      <c r="H66" s="198"/>
+      <c r="I66" s="198"/>
+      <c r="J66" s="199"/>
+    </row>
+    <row r="67" spans="1:10" s="56" customFormat="1">
+      <c r="A67" s="134">
+        <v>5</v>
+      </c>
+      <c r="B67" s="191" t="s">
+        <v>235</v>
+      </c>
+      <c r="C67" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="D67" s="86"/>
+      <c r="E67" s="197" t="s">
+        <v>236</v>
+      </c>
+      <c r="F67" s="198"/>
+      <c r="G67" s="198"/>
+      <c r="H67" s="198"/>
+      <c r="I67" s="198"/>
+      <c r="J67" s="199"/>
+    </row>
+    <row r="68" spans="1:10" s="56" customFormat="1">
+      <c r="A68" s="190"/>
+      <c r="B68" s="192"/>
+      <c r="C68" s="94" t="s">
+        <v>237</v>
+      </c>
+      <c r="D68" s="86" t="s">
+        <v>238</v>
+      </c>
+      <c r="E68" s="197" t="s">
+        <v>239</v>
+      </c>
+      <c r="F68" s="198"/>
+      <c r="G68" s="198"/>
+      <c r="H68" s="198"/>
+      <c r="I68" s="198"/>
+      <c r="J68" s="199"/>
+    </row>
+    <row r="69" spans="1:10" s="56" customFormat="1">
+      <c r="A69" s="71"/>
+      <c r="B69" s="133"/>
+      <c r="C69" s="133"/>
+      <c r="D69" s="133"/>
+      <c r="E69" s="133"/>
+      <c r="F69" s="133"/>
+      <c r="G69" s="133"/>
+      <c r="H69" s="133"/>
+      <c r="I69" s="133"/>
+      <c r="J69" s="129"/>
+    </row>
+    <row r="70" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A70" s="139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="140"/>
+      <c r="C70" s="140"/>
+      <c r="D70" s="140"/>
+      <c r="E70" s="140"/>
+      <c r="F70" s="140"/>
+      <c r="G70" s="140"/>
+      <c r="H70" s="140"/>
+      <c r="I70" s="140"/>
+      <c r="J70" s="141"/>
+    </row>
+    <row r="71" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
+      <c r="A71" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="138"/>
+      <c r="D71" s="125" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="109"/>
+      <c r="F71" s="109"/>
+      <c r="G71" s="109"/>
+      <c r="H71" s="109"/>
+      <c r="I71" s="109"/>
+      <c r="J71" s="110"/>
+    </row>
+    <row r="72" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
+      <c r="A72" s="130"/>
+      <c r="B72" s="131"/>
+      <c r="C72" s="131"/>
+      <c r="D72" s="131"/>
+      <c r="E72" s="131"/>
+      <c r="F72" s="131"/>
+      <c r="G72" s="131"/>
+      <c r="H72" s="131"/>
+      <c r="I72" s="131"/>
+      <c r="J72" s="132"/>
+    </row>
+    <row r="73" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A73" s="69"/>
+      <c r="B73" s="128"/>
+      <c r="C73" s="129"/>
+      <c r="D73" s="125"/>
+      <c r="E73" s="126"/>
+      <c r="F73" s="126"/>
+      <c r="G73" s="126"/>
+      <c r="H73" s="126"/>
+      <c r="I73" s="126"/>
+      <c r="J73" s="127"/>
+    </row>
+    <row r="74" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
+      <c r="A74" s="69"/>
+      <c r="B74" s="128"/>
+      <c r="C74" s="129"/>
+      <c r="D74" s="125"/>
+      <c r="E74" s="126"/>
+      <c r="F74" s="126"/>
+      <c r="G74" s="126"/>
+      <c r="H74" s="126"/>
+      <c r="I74" s="126"/>
+      <c r="J74" s="127"/>
+    </row>
+    <row r="75" spans="1:10" s="56" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A75" s="130"/>
+      <c r="B75" s="131"/>
+      <c r="C75" s="131"/>
+      <c r="D75" s="131"/>
+      <c r="E75" s="131"/>
+      <c r="F75" s="131"/>
+      <c r="G75" s="131"/>
+      <c r="H75" s="131"/>
+      <c r="I75" s="131"/>
+      <c r="J75" s="132"/>
+    </row>
+    <row r="76" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
+      <c r="A76" s="69"/>
+      <c r="B76" s="128"/>
+      <c r="C76" s="129"/>
+      <c r="D76" s="125"/>
+      <c r="E76" s="126"/>
+      <c r="F76" s="126"/>
+      <c r="G76" s="126"/>
+      <c r="H76" s="126"/>
+      <c r="I76" s="126"/>
+      <c r="J76" s="127"/>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="73"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="74"/>
+      <c r="H77" s="74"/>
+      <c r="I77" s="74"/>
+      <c r="J77" s="75"/>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="69">
         <v>1</v>
       </c>
-      <c r="B53" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="C53" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="69"/>
-      <c r="E53" s="129" t="s">
-        <v>138</v>
-      </c>
-      <c r="F53" s="96"/>
-      <c r="G53" s="96"/>
-      <c r="H53" s="96"/>
-      <c r="I53" s="96"/>
-      <c r="J53" s="96"/>
-    </row>
-    <row r="54" spans="1:10" s="56" customFormat="1">
-      <c r="A54" s="59">
+      <c r="B78" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="128"/>
+      <c r="D78" s="109"/>
+      <c r="E78" s="109"/>
+      <c r="F78" s="109"/>
+      <c r="G78" s="109"/>
+      <c r="H78" s="109"/>
+      <c r="I78" s="109"/>
+      <c r="J78" s="110"/>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="69">
         <v>2</v>
       </c>
-      <c r="B54" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="C54" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="72"/>
-      <c r="E54" s="133" t="s">
-        <v>139</v>
-      </c>
-      <c r="F54" s="134"/>
-      <c r="G54" s="134"/>
-      <c r="H54" s="134"/>
-      <c r="I54" s="134"/>
-      <c r="J54" s="135"/>
-    </row>
-    <row r="55" spans="1:10" s="56" customFormat="1">
-      <c r="A55" s="59">
-        <v>3</v>
-      </c>
-      <c r="B55" s="67" t="s">
-        <v>144</v>
-      </c>
-      <c r="C55" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="72"/>
-      <c r="E55" s="133" t="s">
-        <v>140</v>
-      </c>
-      <c r="F55" s="134"/>
-      <c r="G55" s="134"/>
-      <c r="H55" s="134"/>
-      <c r="I55" s="134"/>
-      <c r="J55" s="135"/>
-    </row>
-    <row r="56" spans="1:10" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A56" s="59">
+      <c r="B79" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="67" t="s">
-        <v>145</v>
-      </c>
-      <c r="C56" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="72"/>
-      <c r="E56" s="133" t="s">
-        <v>109</v>
-      </c>
-      <c r="F56" s="134"/>
-      <c r="G56" s="134"/>
-      <c r="H56" s="134"/>
-      <c r="I56" s="134"/>
-      <c r="J56" s="135"/>
-    </row>
-    <row r="57" spans="1:10" s="56" customFormat="1">
-      <c r="A57" s="59">
-        <v>5</v>
-      </c>
-      <c r="B57" s="67" t="s">
-        <v>146</v>
-      </c>
-      <c r="C57" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="72"/>
-      <c r="E57" s="133" t="s">
-        <v>180</v>
-      </c>
-      <c r="F57" s="134"/>
-      <c r="G57" s="134"/>
-      <c r="H57" s="134"/>
-      <c r="I57" s="134"/>
-      <c r="J57" s="135"/>
-    </row>
-    <row r="58" spans="1:10" s="56" customFormat="1">
-      <c r="A58" s="76"/>
-      <c r="B58" s="136"/>
-      <c r="C58" s="136"/>
-      <c r="D58" s="136"/>
-      <c r="E58" s="136"/>
-      <c r="F58" s="136"/>
-      <c r="G58" s="136"/>
-      <c r="H58" s="136"/>
-      <c r="I58" s="136"/>
-      <c r="J58" s="128"/>
-    </row>
-    <row r="59" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="121" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="122"/>
-      <c r="C59" s="122"/>
-      <c r="D59" s="122"/>
-      <c r="E59" s="122"/>
-      <c r="F59" s="122"/>
-      <c r="G59" s="122"/>
-      <c r="H59" s="122"/>
-      <c r="I59" s="122"/>
-      <c r="J59" s="123"/>
-    </row>
-    <row r="60" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A60" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="120"/>
-      <c r="D60" s="124" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" s="100"/>
-      <c r="F60" s="100"/>
-      <c r="G60" s="100"/>
-      <c r="H60" s="100"/>
-      <c r="I60" s="100"/>
-      <c r="J60" s="101"/>
-    </row>
-    <row r="61" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="116"/>
-      <c r="B61" s="117"/>
-      <c r="C61" s="117"/>
-      <c r="D61" s="117"/>
-      <c r="E61" s="117"/>
-      <c r="F61" s="117"/>
-      <c r="G61" s="117"/>
-      <c r="H61" s="117"/>
-      <c r="I61" s="117"/>
-      <c r="J61" s="118"/>
-    </row>
-    <row r="62" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A62" s="73"/>
-      <c r="B62" s="127"/>
-      <c r="C62" s="128"/>
-      <c r="D62" s="124"/>
-      <c r="E62" s="125"/>
-      <c r="F62" s="125"/>
-      <c r="G62" s="125"/>
-      <c r="H62" s="125"/>
-      <c r="I62" s="125"/>
-      <c r="J62" s="126"/>
-    </row>
-    <row r="63" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A63" s="73"/>
-      <c r="B63" s="127"/>
-      <c r="C63" s="128"/>
-      <c r="D63" s="124"/>
-      <c r="E63" s="125"/>
-      <c r="F63" s="125"/>
-      <c r="G63" s="125"/>
-      <c r="H63" s="125"/>
-      <c r="I63" s="125"/>
-      <c r="J63" s="126"/>
-    </row>
-    <row r="64" spans="1:10" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A64" s="116"/>
-      <c r="B64" s="117"/>
-      <c r="C64" s="117"/>
-      <c r="D64" s="117"/>
-      <c r="E64" s="117"/>
-      <c r="F64" s="117"/>
-      <c r="G64" s="117"/>
-      <c r="H64" s="117"/>
-      <c r="I64" s="117"/>
-      <c r="J64" s="118"/>
-    </row>
-    <row r="65" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A65" s="73"/>
-      <c r="B65" s="127"/>
-      <c r="C65" s="128"/>
-      <c r="D65" s="124"/>
-      <c r="E65" s="125"/>
-      <c r="F65" s="125"/>
-      <c r="G65" s="125"/>
-      <c r="H65" s="125"/>
-      <c r="I65" s="125"/>
-      <c r="J65" s="126"/>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66" s="78"/>
-      <c r="C66" s="79"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="79"/>
-      <c r="H66" s="79"/>
-      <c r="I66" s="79"/>
-      <c r="J66" s="80"/>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="73">
-        <v>1</v>
-      </c>
-      <c r="B67" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="127"/>
-      <c r="D67" s="100"/>
-      <c r="E67" s="100"/>
-      <c r="F67" s="100"/>
-      <c r="G67" s="100"/>
-      <c r="H67" s="100"/>
-      <c r="I67" s="100"/>
-      <c r="J67" s="101"/>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="73">
-        <v>2</v>
-      </c>
-      <c r="B68" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="142"/>
-      <c r="D68" s="142"/>
-      <c r="E68" s="142"/>
-      <c r="F68" s="142"/>
-      <c r="G68" s="142"/>
-      <c r="H68" s="142"/>
-      <c r="I68" s="142"/>
-      <c r="J68" s="142"/>
+      <c r="C79" s="145"/>
+      <c r="D79" s="145"/>
+      <c r="E79" s="145"/>
+      <c r="F79" s="145"/>
+      <c r="G79" s="145"/>
+      <c r="H79" s="145"/>
+      <c r="I79" s="145"/>
+      <c r="J79" s="145"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="86">
+    <mergeCell ref="E64:J64"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="E58:J58"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="E62:J62"/>
+    <mergeCell ref="E63:J63"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="E57:J57"/>
     <mergeCell ref="A42:J42"/>
     <mergeCell ref="E43:J43"/>
     <mergeCell ref="A41:J41"/>
@@ -10593,11 +11122,9 @@
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C68:J68"/>
-    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C78:J78"/>
     <mergeCell ref="K1:K3"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="A46:J46"/>
     <mergeCell ref="A27:J27"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A12:J12"/>
@@ -10607,31 +11134,31 @@
     <mergeCell ref="A28:J28"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A14:J14"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D73:J73"/>
+    <mergeCell ref="B73:C73"/>
     <mergeCell ref="E44:J44"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="D71:J71"/>
+    <mergeCell ref="B59:J59"/>
+    <mergeCell ref="B69:J69"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="A70:J70"/>
     <mergeCell ref="E54:J54"/>
     <mergeCell ref="E55:J55"/>
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="E49:J49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="D65:J65"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="D63:J63"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="D76:J76"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="D74:J74"/>
+    <mergeCell ref="B74:C74"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -10653,8 +11180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10667,7 +11194,7 @@
     <col min="6" max="6" width="19.625" style="41" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.75" style="41" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="41" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="41" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="41" customWidth="1"/>
     <col min="10" max="10" width="37" style="41" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="41" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="41"/>
@@ -10684,8 +11211,8 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="143" t="s">
-        <v>59</v>
+      <c r="K1" s="147" t="s">
+        <v>50</v>
       </c>
       <c r="L1" s="39"/>
       <c r="M1" s="39"/>
@@ -10711,7 +11238,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="144"/>
+      <c r="K2" s="148"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -10729,7 +11256,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="144"/>
+      <c r="K3" s="148"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -10773,18 +11300,18 @@
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="185" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
-      <c r="J6" s="187"/>
+      <c r="A6" s="205" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="206"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="206"/>
+      <c r="I6" s="206"/>
+      <c r="J6" s="207"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -10800,25 +11327,25 @@
         <v>13</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>222</v>
+        <v>293</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -10851,46 +11378,46 @@
       <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="185" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="186"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="186"/>
-      <c r="J10" s="187"/>
+      <c r="A10" s="205" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="206"/>
+      <c r="C10" s="206"/>
+      <c r="D10" s="206"/>
+      <c r="E10" s="206"/>
+      <c r="F10" s="206"/>
+      <c r="G10" s="206"/>
+      <c r="H10" s="206"/>
+      <c r="I10" s="206"/>
+      <c r="J10" s="207"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>221</v>
+        <v>292</v>
       </c>
       <c r="J11" s="42" t="s">
         <v>0</v>
@@ -10901,26 +11428,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="43" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="J12" s="48"/>
     </row>
@@ -10929,26 +11456,26 @@
         <v>2</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F13" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="45" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>92</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="J13" s="48"/>
     </row>
@@ -10957,44 +11484,44 @@
         <v>3</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="D14" s="49"/>
       <c r="E14" s="49" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H14" s="50">
         <v>2</v>
       </c>
       <c r="I14" s="43" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="J14" s="51" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="185" t="s">
-        <v>174</v>
-      </c>
-      <c r="B16" s="186"/>
-      <c r="C16" s="186"/>
-      <c r="D16" s="186"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="186"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="187"/>
+      <c r="A16" s="205" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="206"/>
+      <c r="C16" s="206"/>
+      <c r="D16" s="206"/>
+      <c r="E16" s="206"/>
+      <c r="F16" s="206"/>
+      <c r="G16" s="206"/>
+      <c r="H16" s="206"/>
+      <c r="I16" s="206"/>
+      <c r="J16" s="207"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="42" t="s">
@@ -11004,25 +11531,25 @@
         <v>13</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H17" s="42" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="I17" s="42" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="J17" s="42" t="s">
         <v>0</v>
@@ -11033,24 +11560,24 @@
         <v>1</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="45" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="43" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="J18" s="48"/>
     </row>
@@ -11059,24 +11586,24 @@
         <v>2</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="45" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F19" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="45" t="s">
         <v>81</v>
-      </c>
-      <c r="G19" s="45" t="s">
-        <v>93</v>
       </c>
       <c r="H19" s="45"/>
       <c r="I19" s="43" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="J19" s="48"/>
     </row>
@@ -11085,27 +11612,27 @@
         <v>3</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="45" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G20" s="45" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H20" s="45"/>
       <c r="I20" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="J20" s="88" t="s">
-        <v>196</v>
+        <v>97</v>
+      </c>
+      <c r="J20" s="79" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -11113,27 +11640,27 @@
         <v>4</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="49" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F21" s="49" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G21" s="49" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H21" s="49"/>
       <c r="I21" s="43" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="J21" s="51" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -11173,10 +11700,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:J18"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11205,8 +11732,8 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="143" t="s">
-        <v>59</v>
+      <c r="K1" s="147" t="s">
+        <v>50</v>
       </c>
       <c r="L1" s="54"/>
       <c r="M1" s="54"/>
@@ -11226,7 +11753,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="144"/>
+      <c r="K2" s="148"/>
     </row>
     <row r="3" spans="1:17" s="55" customFormat="1">
       <c r="A3" s="47"/>
@@ -11239,7 +11766,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="144"/>
+      <c r="K3" s="148"/>
     </row>
     <row r="4" spans="1:17" s="55" customFormat="1">
       <c r="A4" s="47"/>
@@ -11254,709 +11781,828 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="151" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="99"/>
+      <c r="A5" s="152" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="108"/>
     </row>
     <row r="6" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="102"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="104"/>
+      <c r="A6" s="111"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="113"/>
     </row>
     <row r="7" spans="1:17" s="56" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="152"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="155"/>
+      <c r="A7" s="153"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="156"/>
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:17" s="56" customFormat="1">
-      <c r="A8" s="152"/>
-      <c r="B8" s="153"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="155"/>
+      <c r="A8" s="153"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="156"/>
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:17" s="56" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="156"/>
-      <c r="B9" s="157"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="158"/>
+      <c r="A9" s="157"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="159"/>
     </row>
     <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="151" t="s">
+      <c r="A10" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="99"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="108"/>
     </row>
     <row r="11" spans="1:17" s="58" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="159" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="101"/>
+      <c r="A11" s="160" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="110"/>
     </row>
     <row r="12" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="151" t="s">
+      <c r="A12" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="99"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="108"/>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="159" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="101"/>
+      <c r="A13" s="160" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="110"/>
     </row>
     <row r="14" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="151" t="s">
+      <c r="A14" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="99"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="108"/>
     </row>
     <row r="15" spans="1:17" s="56" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A15" s="163" t="s">
-        <v>184</v>
-      </c>
-      <c r="B15" s="164"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="165"/>
+      <c r="A15" s="165" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="166"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="167"/>
     </row>
     <row r="16" spans="1:17" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="166" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="168"/>
+        <v>106</v>
+      </c>
+      <c r="C16" s="168" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="169"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="170"/>
     </row>
     <row r="17" spans="1:10" s="56" customFormat="1" ht="65.25" customHeight="1">
       <c r="A17" s="59">
         <v>1</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="169" t="s">
-        <v>238</v>
-      </c>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="171"/>
+        <v>104</v>
+      </c>
+      <c r="C17" s="171" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="173"/>
     </row>
     <row r="18" spans="1:10" s="56" customFormat="1" ht="66" customHeight="1">
       <c r="A18" s="59">
         <v>2</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="169" t="s">
-        <v>240</v>
-      </c>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="171"/>
+        <v>107</v>
+      </c>
+      <c r="C18" s="171" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="172"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="173"/>
     </row>
     <row r="19" spans="1:10" s="56" customFormat="1">
       <c r="A19" s="59">
         <v>3</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="174" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="171"/>
+        <v>120</v>
+      </c>
+      <c r="C19" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="172"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="173"/>
     </row>
     <row r="20" spans="1:10" s="56" customFormat="1">
       <c r="A20" s="59">
         <v>4</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" s="174" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="170"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="171"/>
+        <v>121</v>
+      </c>
+      <c r="C20" s="176" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="172"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="172"/>
+      <c r="J20" s="173"/>
     </row>
     <row r="21" spans="1:10" s="56" customFormat="1">
       <c r="A21" s="59">
         <v>5</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="174" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="170"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="171"/>
+        <v>108</v>
+      </c>
+      <c r="C21" s="176" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="172"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="173"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1">
-      <c r="A22" s="148"/>
-      <c r="B22" s="149"/>
-      <c r="C22" s="149"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="149"/>
-      <c r="J22" s="150"/>
+      <c r="A22" s="149"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="150"/>
+      <c r="J22" s="151"/>
     </row>
     <row r="23" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="160" t="s">
+      <c r="A23" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="161"/>
-      <c r="C23" s="161"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="162"/>
+      <c r="B23" s="162"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="162"/>
+      <c r="J23" s="163"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1" ht="36" customHeight="1">
-      <c r="A24" s="163" t="s">
-        <v>184</v>
-      </c>
-      <c r="B24" s="164"/>
-      <c r="C24" s="164"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="164"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="165"/>
+      <c r="A24" s="165" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="166"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="166"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="166"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="166"/>
+      <c r="J24" s="167"/>
     </row>
     <row r="25" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="166" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="167"/>
-      <c r="I25" s="167"/>
-      <c r="J25" s="168"/>
+        <v>106</v>
+      </c>
+      <c r="C25" s="168" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="169"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="169"/>
+      <c r="H25" s="169"/>
+      <c r="I25" s="169"/>
+      <c r="J25" s="170"/>
     </row>
     <row r="26" spans="1:10" s="56" customFormat="1" ht="33" customHeight="1">
       <c r="A26" s="59">
         <v>1</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="169" t="s">
-        <v>229</v>
-      </c>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="171"/>
+        <v>104</v>
+      </c>
+      <c r="C26" s="171" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="172"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="173"/>
     </row>
     <row r="27" spans="1:10" s="56" customFormat="1" ht="32.25" customHeight="1">
       <c r="A27" s="59">
         <v>2</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="169" t="s">
-        <v>228</v>
-      </c>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="170"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="171"/>
+        <v>107</v>
+      </c>
+      <c r="C27" s="171" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="172"/>
+      <c r="E27" s="172"/>
+      <c r="F27" s="172"/>
+      <c r="G27" s="172"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="173"/>
     </row>
     <row r="28" spans="1:10" s="56" customFormat="1">
       <c r="A28" s="59">
         <v>3</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="174" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" s="170"/>
-      <c r="E28" s="170"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="170"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="171"/>
+        <v>120</v>
+      </c>
+      <c r="C28" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="172"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="172"/>
+      <c r="J28" s="173"/>
     </row>
     <row r="29" spans="1:10" s="56" customFormat="1">
       <c r="A29" s="59">
         <v>4</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="174" t="s">
-        <v>152</v>
-      </c>
-      <c r="D29" s="170"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="170"/>
-      <c r="H29" s="170"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="171"/>
+        <v>121</v>
+      </c>
+      <c r="C29" s="176" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="172"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="173"/>
     </row>
     <row r="30" spans="1:10" s="56" customFormat="1">
       <c r="A30" s="59">
         <v>5</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="174" t="s">
-        <v>129</v>
-      </c>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="170"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="171"/>
+        <v>108</v>
+      </c>
+      <c r="C30" s="176" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="172"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="172"/>
+      <c r="I30" s="172"/>
+      <c r="J30" s="173"/>
     </row>
     <row r="31" spans="1:10" s="56" customFormat="1">
-      <c r="A31" s="148"/>
-      <c r="B31" s="188"/>
-      <c r="C31" s="188"/>
-      <c r="D31" s="188"/>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="189"/>
+      <c r="A31" s="149"/>
+      <c r="B31" s="208"/>
+      <c r="C31" s="208"/>
+      <c r="D31" s="208"/>
+      <c r="E31" s="208"/>
+      <c r="F31" s="208"/>
+      <c r="G31" s="208"/>
+      <c r="H31" s="208"/>
+      <c r="I31" s="208"/>
+      <c r="J31" s="209"/>
     </row>
     <row r="32" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="160" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="161"/>
-      <c r="C32" s="161"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="161"/>
-      <c r="J32" s="162"/>
-    </row>
-    <row r="33" spans="1:12" s="82" customFormat="1" ht="15" customHeight="1">
+      <c r="A32" s="161" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" s="162"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="162"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="162"/>
+      <c r="H32" s="162"/>
+      <c r="I32" s="162"/>
+      <c r="J32" s="163"/>
+    </row>
+    <row r="33" spans="1:12" s="77" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="60" t="s">
-        <v>6</v>
+        <v>188</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="C33" s="61" t="s">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="D33" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="183" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="184"/>
-      <c r="G33" s="184"/>
-      <c r="H33" s="184"/>
-      <c r="I33" s="184"/>
-      <c r="J33" s="184"/>
+        <v>191</v>
+      </c>
+      <c r="E33" s="212" t="s">
+        <v>192</v>
+      </c>
+      <c r="F33" s="213"/>
+      <c r="G33" s="213"/>
+      <c r="H33" s="213"/>
+      <c r="I33" s="213"/>
+      <c r="J33" s="214"/>
       <c r="K33" s="56"/>
       <c r="L33" s="56"/>
     </row>
     <row r="34" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="63">
+      <c r="A34" s="134">
         <v>1</v>
       </c>
-      <c r="B34" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="96"/>
-      <c r="J34" s="96"/>
+      <c r="B34" s="134" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34" s="93" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="92"/>
+      <c r="E34" s="164" t="s">
+        <v>241</v>
+      </c>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
     </row>
     <row r="35" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="145" t="s">
-        <v>118</v>
-      </c>
-      <c r="B35" s="146"/>
-      <c r="C35" s="146"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="146"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="146"/>
-      <c r="I35" s="146"/>
-      <c r="J35" s="147"/>
+      <c r="A35" s="135"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="85" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="E35" s="142" t="s">
+        <v>197</v>
+      </c>
+      <c r="F35" s="143"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="143"/>
+      <c r="J35" s="144"/>
       <c r="K35" s="56"/>
       <c r="L35" s="56"/>
     </row>
-    <row r="36" spans="1:12" s="56" customFormat="1">
-      <c r="A36" s="59">
+    <row r="36" spans="1:12" s="56" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A36" s="135"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="85" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="69"/>
+      <c r="E36" s="142" t="s">
+        <v>242</v>
+      </c>
+      <c r="F36" s="143"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="143"/>
+      <c r="I36" s="143"/>
+      <c r="J36" s="144"/>
+    </row>
+    <row r="37" spans="1:12" s="56" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A37" s="136"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="85" t="s">
+        <v>200</v>
+      </c>
+      <c r="D37" s="85" t="s">
+        <v>243</v>
+      </c>
+      <c r="E37" s="145" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" s="146"/>
+      <c r="G37" s="146"/>
+      <c r="H37" s="146"/>
+      <c r="I37" s="146"/>
+      <c r="J37" s="146"/>
+    </row>
+    <row r="38" spans="1:12" s="56" customFormat="1">
+      <c r="A38" s="187" t="s">
+        <v>244</v>
+      </c>
+      <c r="B38" s="188"/>
+      <c r="C38" s="188"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="188"/>
+      <c r="F38" s="188"/>
+      <c r="G38" s="188"/>
+      <c r="H38" s="188"/>
+      <c r="I38" s="188"/>
+      <c r="J38" s="189"/>
+    </row>
+    <row r="39" spans="1:12" s="56" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A39" s="134">
         <v>1</v>
       </c>
-      <c r="B36" s="67" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="69"/>
-      <c r="E36" s="129" t="s">
-        <v>178</v>
-      </c>
-      <c r="F36" s="96"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="96"/>
-      <c r="J36" s="96"/>
-    </row>
-    <row r="37" spans="1:12" s="56" customFormat="1">
-      <c r="A37" s="70">
+      <c r="B39" s="191" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39" s="85"/>
+      <c r="E39" s="164" t="s">
+        <v>246</v>
+      </c>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="105"/>
+    </row>
+    <row r="40" spans="1:12" s="56" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A40" s="190"/>
+      <c r="B40" s="192"/>
+      <c r="C40" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="E40" s="193" t="s">
+        <v>247</v>
+      </c>
+      <c r="F40" s="219"/>
+      <c r="G40" s="219"/>
+      <c r="H40" s="219"/>
+      <c r="I40" s="219"/>
+      <c r="J40" s="220"/>
+    </row>
+    <row r="41" spans="1:12" s="56" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A41" s="67">
         <v>2</v>
       </c>
-      <c r="B37" s="71" t="s">
-        <v>155</v>
-      </c>
-      <c r="C37" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" s="86"/>
-      <c r="E37" s="137" t="s">
-        <v>210</v>
-      </c>
-      <c r="F37" s="138"/>
-      <c r="G37" s="138"/>
-      <c r="H37" s="138"/>
-      <c r="I37" s="138"/>
-      <c r="J37" s="139"/>
-    </row>
-    <row r="38" spans="1:12" s="56" customFormat="1" ht="92.25" customHeight="1">
-      <c r="A38" s="70"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="83" t="s">
-        <v>191</v>
-      </c>
-      <c r="D38" s="87" t="s">
-        <v>190</v>
-      </c>
-      <c r="E38" s="190" t="s">
-        <v>211</v>
-      </c>
-      <c r="F38" s="191"/>
-      <c r="G38" s="191"/>
-      <c r="H38" s="191"/>
-      <c r="I38" s="191"/>
-      <c r="J38" s="191"/>
-    </row>
-    <row r="39" spans="1:12" s="56" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A39" s="73">
+      <c r="B41" s="68" t="s">
+        <v>248</v>
+      </c>
+      <c r="C41" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" s="83"/>
+      <c r="E41" s="221" t="s">
+        <v>249</v>
+      </c>
+      <c r="F41" s="222"/>
+      <c r="G41" s="222"/>
+      <c r="H41" s="222"/>
+      <c r="I41" s="222"/>
+      <c r="J41" s="223"/>
+    </row>
+    <row r="42" spans="1:12" s="56" customFormat="1" ht="99" customHeight="1">
+      <c r="A42" s="67"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="85" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" s="87" t="s">
+        <v>250</v>
+      </c>
+      <c r="E42" s="215" t="s">
+        <v>251</v>
+      </c>
+      <c r="F42" s="216"/>
+      <c r="G42" s="216"/>
+      <c r="H42" s="216"/>
+      <c r="I42" s="216"/>
+      <c r="J42" s="216"/>
+    </row>
+    <row r="43" spans="1:12" s="56" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A43" s="67"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="85" t="s">
+        <v>252</v>
+      </c>
+      <c r="D43" s="89" t="s">
+        <v>253</v>
+      </c>
+      <c r="E43" s="125" t="s">
+        <v>254</v>
+      </c>
+      <c r="F43" s="217"/>
+      <c r="G43" s="217"/>
+      <c r="H43" s="217"/>
+      <c r="I43" s="217"/>
+      <c r="J43" s="218"/>
+    </row>
+    <row r="44" spans="1:12" s="56" customFormat="1" ht="91.5" customHeight="1">
+      <c r="A44" s="67"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="85" t="s">
+        <v>255</v>
+      </c>
+      <c r="D44" s="89" t="s">
+        <v>288</v>
+      </c>
+      <c r="E44" s="125" t="s">
+        <v>256</v>
+      </c>
+      <c r="F44" s="217"/>
+      <c r="G44" s="217"/>
+      <c r="H44" s="217"/>
+      <c r="I44" s="217"/>
+      <c r="J44" s="218"/>
+    </row>
+    <row r="45" spans="1:12" s="56" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A45" s="69">
         <v>3</v>
       </c>
-      <c r="B39" s="67" t="s">
-        <v>156</v>
-      </c>
-      <c r="C39" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" s="74"/>
-      <c r="E39" s="124" t="s">
-        <v>91</v>
-      </c>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="100"/>
-      <c r="J39" s="101"/>
-    </row>
-    <row r="40" spans="1:12" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A40" s="121" t="s">
+      <c r="B45" s="88" t="s">
+        <v>217</v>
+      </c>
+      <c r="C45" s="82" t="s">
+        <v>205</v>
+      </c>
+      <c r="D45" s="84"/>
+      <c r="E45" s="125" t="s">
+        <v>257</v>
+      </c>
+      <c r="F45" s="109"/>
+      <c r="G45" s="109"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="109"/>
+      <c r="J45" s="110"/>
+    </row>
+    <row r="46" spans="1:12" s="56" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A46" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="122"/>
-      <c r="C40" s="122"/>
-      <c r="D40" s="122"/>
-      <c r="E40" s="122"/>
-      <c r="F40" s="122"/>
-      <c r="G40" s="122"/>
-      <c r="H40" s="122"/>
-      <c r="I40" s="122"/>
-      <c r="J40" s="123"/>
-    </row>
-    <row r="41" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A41" s="73" t="s">
+      <c r="B46" s="140"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="140"/>
+      <c r="E46" s="140"/>
+      <c r="F46" s="140"/>
+      <c r="G46" s="140"/>
+      <c r="H46" s="140"/>
+      <c r="I46" s="140"/>
+      <c r="J46" s="141"/>
+    </row>
+    <row r="47" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
+      <c r="A47" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="119" t="s">
+      <c r="B47" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="120"/>
-      <c r="D41" s="124" t="s">
+      <c r="C47" s="138"/>
+      <c r="D47" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="101"/>
-    </row>
-    <row r="42" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="116"/>
-      <c r="B42" s="192"/>
-      <c r="C42" s="192"/>
-      <c r="D42" s="192"/>
-      <c r="E42" s="192"/>
-      <c r="F42" s="192"/>
-      <c r="G42" s="192"/>
-      <c r="H42" s="192"/>
-      <c r="I42" s="192"/>
-      <c r="J42" s="193"/>
-    </row>
-    <row r="43" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A43" s="73"/>
-      <c r="B43" s="127"/>
-      <c r="C43" s="128"/>
-      <c r="D43" s="124"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="101"/>
-    </row>
-    <row r="44" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A44" s="73"/>
-      <c r="B44" s="127"/>
-      <c r="C44" s="128"/>
-      <c r="D44" s="124"/>
-      <c r="E44" s="100"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="100"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="100"/>
-      <c r="J44" s="101"/>
-    </row>
-    <row r="45" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A45" s="116"/>
-      <c r="B45" s="192"/>
-      <c r="C45" s="192"/>
-      <c r="D45" s="192"/>
-      <c r="E45" s="192"/>
-      <c r="F45" s="192"/>
-      <c r="G45" s="192"/>
-      <c r="H45" s="192"/>
-      <c r="I45" s="192"/>
-      <c r="J45" s="193"/>
-    </row>
-    <row r="46" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A46" s="73"/>
-      <c r="B46" s="127"/>
-      <c r="C46" s="128"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="101"/>
-    </row>
-    <row r="47" spans="1:12" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A47" s="77" t="s">
+      <c r="E47" s="109"/>
+      <c r="F47" s="109"/>
+      <c r="G47" s="109"/>
+      <c r="H47" s="109"/>
+      <c r="I47" s="109"/>
+      <c r="J47" s="110"/>
+    </row>
+    <row r="48" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A48" s="130"/>
+      <c r="B48" s="210"/>
+      <c r="C48" s="210"/>
+      <c r="D48" s="210"/>
+      <c r="E48" s="210"/>
+      <c r="F48" s="210"/>
+      <c r="G48" s="210"/>
+      <c r="H48" s="210"/>
+      <c r="I48" s="210"/>
+      <c r="J48" s="211"/>
+    </row>
+    <row r="49" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
+      <c r="A49" s="69"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="109"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="110"/>
+    </row>
+    <row r="50" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
+      <c r="A50" s="69"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="109"/>
+      <c r="H50" s="109"/>
+      <c r="I50" s="109"/>
+      <c r="J50" s="110"/>
+    </row>
+    <row r="51" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A51" s="130"/>
+      <c r="B51" s="210"/>
+      <c r="C51" s="210"/>
+      <c r="D51" s="210"/>
+      <c r="E51" s="210"/>
+      <c r="F51" s="210"/>
+      <c r="G51" s="210"/>
+      <c r="H51" s="210"/>
+      <c r="I51" s="210"/>
+      <c r="J51" s="211"/>
+    </row>
+    <row r="52" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
+      <c r="A52" s="69"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="125"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="109"/>
+      <c r="G52" s="109"/>
+      <c r="H52" s="109"/>
+      <c r="I52" s="109"/>
+      <c r="J52" s="110"/>
+    </row>
+    <row r="53" spans="1:10" s="56" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A53" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="78"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="79"/>
-      <c r="I47" s="79"/>
-      <c r="J47" s="80"/>
-    </row>
-    <row r="48" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="73">
+      <c r="B53" s="73"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="75"/>
+    </row>
+    <row r="54" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
+      <c r="A54" s="69">
         <v>1</v>
       </c>
-      <c r="B48" s="81" t="s">
+      <c r="B54" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="127"/>
-      <c r="D48" s="100"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="100"/>
-      <c r="G48" s="100"/>
-      <c r="H48" s="100"/>
-      <c r="I48" s="100"/>
-      <c r="J48" s="101"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="73">
+      <c r="C54" s="128"/>
+      <c r="D54" s="109"/>
+      <c r="E54" s="109"/>
+      <c r="F54" s="109"/>
+      <c r="G54" s="109"/>
+      <c r="H54" s="109"/>
+      <c r="I54" s="109"/>
+      <c r="J54" s="110"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="69">
         <v>2</v>
       </c>
-      <c r="B49" s="81" t="s">
+      <c r="B55" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="142"/>
-      <c r="D49" s="142"/>
-      <c r="E49" s="142"/>
-      <c r="F49" s="142"/>
-      <c r="G49" s="142"/>
-      <c r="H49" s="142"/>
-      <c r="I49" s="142"/>
-      <c r="J49" s="142"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="145"/>
+      <c r="F55" s="145"/>
+      <c r="G55" s="145"/>
+      <c r="H55" s="145"/>
+      <c r="I55" s="145"/>
+      <c r="J55" s="145"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="56">
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
     <mergeCell ref="E36:J36"/>
     <mergeCell ref="E37:J37"/>
     <mergeCell ref="C30:J30"/>
@@ -11965,24 +12611,26 @@
     <mergeCell ref="C26:J26"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="C28:J28"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E33:J33"/>
     <mergeCell ref="K1:K3"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="C55:J55"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="A46:J46"/>
     <mergeCell ref="E34:J34"/>
-    <mergeCell ref="A35:J35"/>
     <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E33:J33"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A22:J22"/>
     <mergeCell ref="A23:J23"/>
@@ -11995,7 +12643,6 @@
     <mergeCell ref="C21:J21"/>
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="C19:J19"/>
-    <mergeCell ref="E38:J38"/>
     <mergeCell ref="C29:J29"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A5:J5"/>
@@ -12025,7 +12672,7 @@
   <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12037,7 +12684,7 @@
     <col min="5" max="6" width="19.625" style="41" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.125" style="41" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="41" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.25" style="41" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="41" customWidth="1"/>
     <col min="10" max="10" width="34.875" style="41" customWidth="1"/>
     <col min="11" max="11" width="8.75" style="41" customWidth="1"/>
     <col min="12" max="16384" width="9" style="41"/>
@@ -12054,8 +12701,8 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="143" t="s">
-        <v>59</v>
+      <c r="K1" s="147" t="s">
+        <v>50</v>
       </c>
       <c r="L1" s="39"/>
       <c r="M1" s="39"/>
@@ -12081,7 +12728,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="144"/>
+      <c r="K2" s="148"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -12099,7 +12746,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="144"/>
+      <c r="K3" s="148"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -12143,18 +12790,18 @@
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="185" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
-      <c r="J6" s="187"/>
+      <c r="A6" s="205" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="206"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="206"/>
+      <c r="H6" s="206"/>
+      <c r="I6" s="206"/>
+      <c r="J6" s="207"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -12170,25 +12817,25 @@
         <v>13</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -12221,18 +12868,18 @@
       <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="185" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="186"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="186"/>
-      <c r="J10" s="187"/>
+      <c r="A10" s="205" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="206"/>
+      <c r="C10" s="206"/>
+      <c r="D10" s="206"/>
+      <c r="E10" s="206"/>
+      <c r="F10" s="206"/>
+      <c r="G10" s="206"/>
+      <c r="H10" s="206"/>
+      <c r="I10" s="206"/>
+      <c r="J10" s="207"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="42" t="s">
@@ -12242,25 +12889,25 @@
         <v>13</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="J11" s="42" t="s">
         <v>0</v>
@@ -12271,26 +12918,26 @@
         <v>1</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="45" t="s">
         <v>74</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>84</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="43" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="J12" s="48"/>
     </row>
@@ -12299,26 +12946,26 @@
         <v>2</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F13" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="45" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>92</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="J13" s="51"/>
     </row>
@@ -12327,28 +12974,28 @@
         <v>3</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="I14" s="43" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="J14" s="48"/>
     </row>
@@ -12357,26 +13004,26 @@
         <v>4</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H15" s="45"/>
       <c r="I15" s="43" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="J15" s="48"/>
     </row>
@@ -12385,31 +13032,31 @@
         <v>5</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H16" s="50">
         <v>2</v>
       </c>
       <c r="I16" s="43" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="J16" s="51" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -12436,10 +13083,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:J42"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46:J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12468,8 +13115,8 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="143" t="s">
-        <v>59</v>
+      <c r="K1" s="147" t="s">
+        <v>50</v>
       </c>
       <c r="L1" s="54"/>
       <c r="M1" s="54"/>
@@ -12489,7 +13136,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="144"/>
+      <c r="K2" s="148"/>
     </row>
     <row r="3" spans="1:17" s="55" customFormat="1">
       <c r="A3" s="47"/>
@@ -12502,7 +13149,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="144"/>
+      <c r="K3" s="148"/>
     </row>
     <row r="4" spans="1:17" s="55" customFormat="1">
       <c r="A4" s="47"/>
@@ -12517,902 +13164,1034 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="151" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="99"/>
+      <c r="A5" s="152" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="108"/>
     </row>
     <row r="6" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="102"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="104"/>
+      <c r="A6" s="111"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="113"/>
     </row>
     <row r="7" spans="1:17" s="56" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="152"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="155"/>
+      <c r="A7" s="153"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="156"/>
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:17" s="56" customFormat="1">
-      <c r="A8" s="152"/>
-      <c r="B8" s="153"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="155"/>
+      <c r="A8" s="153"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="156"/>
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:17" s="56" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="156"/>
-      <c r="B9" s="157"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="158"/>
+      <c r="A9" s="157"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="158"/>
+      <c r="J9" s="159"/>
     </row>
     <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="151" t="s">
+      <c r="A10" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="99"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="108"/>
     </row>
     <row r="11" spans="1:17" s="58" customFormat="1" ht="129" customHeight="1">
-      <c r="A11" s="159" t="s">
-        <v>243</v>
-      </c>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="101"/>
+      <c r="A11" s="160" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="110"/>
     </row>
     <row r="12" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="151" t="s">
+      <c r="A12" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="99"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="108"/>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="159" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="101"/>
+      <c r="A13" s="160" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="110"/>
     </row>
     <row r="14" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="151" t="s">
+      <c r="A14" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="99"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="108"/>
     </row>
     <row r="15" spans="1:17" s="56" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A15" s="163" t="s">
-        <v>186</v>
-      </c>
-      <c r="B15" s="164"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="165"/>
+      <c r="A15" s="165" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="166"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="167"/>
     </row>
     <row r="16" spans="1:17" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="166" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="168"/>
+        <v>106</v>
+      </c>
+      <c r="C16" s="168" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="169"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="170"/>
     </row>
     <row r="17" spans="1:10" s="56" customFormat="1" ht="71.25" customHeight="1">
       <c r="A17" s="59">
         <v>1</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="169" t="s">
-        <v>238</v>
-      </c>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="171"/>
+        <v>104</v>
+      </c>
+      <c r="C17" s="171" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="173"/>
     </row>
     <row r="18" spans="1:10" s="56" customFormat="1" ht="69.75" customHeight="1">
       <c r="A18" s="59">
         <v>2</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="169" t="s">
-        <v>240</v>
-      </c>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="171"/>
+        <v>107</v>
+      </c>
+      <c r="C18" s="171" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="172"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="173"/>
     </row>
     <row r="19" spans="1:10" s="56" customFormat="1">
       <c r="A19" s="59">
         <v>3</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="174" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="171"/>
+        <v>120</v>
+      </c>
+      <c r="C19" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="172"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="173"/>
     </row>
     <row r="20" spans="1:10" s="56" customFormat="1">
       <c r="A20" s="59">
         <v>4</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" s="174" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="170"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="171"/>
+        <v>121</v>
+      </c>
+      <c r="C20" s="176" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="172"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="172"/>
+      <c r="J20" s="173"/>
     </row>
     <row r="21" spans="1:10" s="56" customFormat="1">
       <c r="A21" s="59">
         <v>5</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="174" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="170"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="171"/>
+        <v>108</v>
+      </c>
+      <c r="C21" s="176" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="172"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="173"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1">
-      <c r="A22" s="127"/>
-      <c r="B22" s="136"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="128"/>
+      <c r="A22" s="128"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="129"/>
     </row>
     <row r="23" spans="1:10" s="56" customFormat="1">
-      <c r="A23" s="163" t="s">
-        <v>181</v>
-      </c>
-      <c r="B23" s="164"/>
-      <c r="C23" s="164"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="164"/>
-      <c r="G23" s="164"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="164"/>
-      <c r="J23" s="165"/>
+      <c r="A23" s="165" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="166"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="166"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="167"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A24" s="194" t="s">
-        <v>163</v>
-      </c>
-      <c r="B24" s="149"/>
-      <c r="C24" s="149"/>
-      <c r="D24" s="149"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="149"/>
-      <c r="J24" s="150"/>
+      <c r="A24" s="224" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="150"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="150"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="150"/>
+      <c r="I24" s="150"/>
+      <c r="J24" s="151"/>
     </row>
     <row r="25" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="160" t="s">
+      <c r="A25" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="161"/>
-      <c r="C25" s="161"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="162"/>
+      <c r="B25" s="162"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="162"/>
+      <c r="H25" s="162"/>
+      <c r="I25" s="162"/>
+      <c r="J25" s="163"/>
     </row>
     <row r="26" spans="1:10" s="56" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A26" s="163" t="s">
-        <v>186</v>
-      </c>
-      <c r="B26" s="164"/>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="164"/>
-      <c r="H26" s="164"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="165"/>
+      <c r="A26" s="165" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="166"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
+      <c r="H26" s="166"/>
+      <c r="I26" s="166"/>
+      <c r="J26" s="167"/>
     </row>
     <row r="27" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="166" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="168"/>
+        <v>106</v>
+      </c>
+      <c r="C27" s="168" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="169"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="169"/>
+      <c r="G27" s="169"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="169"/>
+      <c r="J27" s="170"/>
     </row>
     <row r="28" spans="1:10" s="56" customFormat="1" ht="33" customHeight="1">
       <c r="A28" s="59">
         <v>1</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="169" t="s">
-        <v>231</v>
-      </c>
-      <c r="D28" s="170"/>
-      <c r="E28" s="170"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="170"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="171"/>
+        <v>104</v>
+      </c>
+      <c r="C28" s="171" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="172"/>
+      <c r="E28" s="172"/>
+      <c r="F28" s="172"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="172"/>
+      <c r="J28" s="173"/>
     </row>
     <row r="29" spans="1:10" s="56" customFormat="1" ht="32.25" customHeight="1">
       <c r="A29" s="59">
         <v>2</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="169" t="s">
-        <v>230</v>
-      </c>
-      <c r="D29" s="170"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="170"/>
-      <c r="H29" s="170"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="171"/>
+        <v>107</v>
+      </c>
+      <c r="C29" s="171" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="172"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="173"/>
     </row>
     <row r="30" spans="1:10" s="56" customFormat="1">
       <c r="A30" s="59">
         <v>3</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="174" t="s">
-        <v>153</v>
-      </c>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="170"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="171"/>
+        <v>120</v>
+      </c>
+      <c r="C30" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="172"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="172"/>
+      <c r="I30" s="172"/>
+      <c r="J30" s="173"/>
     </row>
     <row r="31" spans="1:10" s="56" customFormat="1">
       <c r="A31" s="59">
         <v>4</v>
       </c>
       <c r="B31" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="C31" s="174" t="s">
-        <v>152</v>
-      </c>
-      <c r="D31" s="170"/>
-      <c r="E31" s="170"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="170"/>
-      <c r="H31" s="170"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="171"/>
+        <v>121</v>
+      </c>
+      <c r="C31" s="176" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="172"/>
+      <c r="E31" s="172"/>
+      <c r="F31" s="172"/>
+      <c r="G31" s="172"/>
+      <c r="H31" s="172"/>
+      <c r="I31" s="172"/>
+      <c r="J31" s="173"/>
     </row>
     <row r="32" spans="1:10" s="56" customFormat="1">
       <c r="A32" s="59">
         <v>5</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="174" t="s">
-        <v>129</v>
-      </c>
-      <c r="D32" s="170"/>
-      <c r="E32" s="170"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="170"/>
-      <c r="H32" s="170"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="171"/>
+        <v>108</v>
+      </c>
+      <c r="C32" s="176" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="172"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="172"/>
+      <c r="I32" s="172"/>
+      <c r="J32" s="173"/>
     </row>
     <row r="33" spans="1:12" s="56" customFormat="1">
-      <c r="A33" s="148"/>
-      <c r="B33" s="188"/>
-      <c r="C33" s="188"/>
-      <c r="D33" s="188"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="188"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="188"/>
-      <c r="J33" s="189"/>
-    </row>
-    <row r="34" spans="1:12" s="56" customFormat="1">
-      <c r="A34" s="163" t="s">
-        <v>162</v>
-      </c>
-      <c r="B34" s="164"/>
-      <c r="C34" s="164"/>
-      <c r="D34" s="164"/>
-      <c r="E34" s="164"/>
-      <c r="F34" s="164"/>
-      <c r="G34" s="164"/>
-      <c r="H34" s="164"/>
-      <c r="I34" s="164"/>
-      <c r="J34" s="165"/>
+      <c r="A33" s="149"/>
+      <c r="B33" s="208"/>
+      <c r="C33" s="208"/>
+      <c r="D33" s="208"/>
+      <c r="E33" s="208"/>
+      <c r="F33" s="208"/>
+      <c r="G33" s="208"/>
+      <c r="H33" s="208"/>
+      <c r="I33" s="208"/>
+      <c r="J33" s="209"/>
+    </row>
+    <row r="34" spans="1:12" s="56" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A34" s="165" t="s">
+        <v>258</v>
+      </c>
+      <c r="B34" s="166"/>
+      <c r="C34" s="166"/>
+      <c r="D34" s="166"/>
+      <c r="E34" s="166"/>
+      <c r="F34" s="166"/>
+      <c r="G34" s="166"/>
+      <c r="H34" s="166"/>
+      <c r="I34" s="166"/>
+      <c r="J34" s="167"/>
     </row>
     <row r="35" spans="1:12" s="56" customFormat="1" ht="27" customHeight="1">
-      <c r="A35" s="195" t="s">
-        <v>163</v>
-      </c>
-      <c r="B35" s="96"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="196"/>
-    </row>
-    <row r="36" spans="1:12" s="82" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="160" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="161"/>
-      <c r="C36" s="161"/>
-      <c r="D36" s="161"/>
-      <c r="E36" s="161"/>
-      <c r="F36" s="161"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="161"/>
-      <c r="J36" s="162"/>
+      <c r="A35" s="225" t="s">
+        <v>259</v>
+      </c>
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="226"/>
+    </row>
+    <row r="36" spans="1:12" s="77" customFormat="1" ht="15" customHeight="1">
+      <c r="A36" s="161" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="162"/>
+      <c r="C36" s="162"/>
+      <c r="D36" s="162"/>
+      <c r="E36" s="162"/>
+      <c r="F36" s="162"/>
+      <c r="G36" s="162"/>
+      <c r="H36" s="162"/>
+      <c r="I36" s="162"/>
+      <c r="J36" s="163"/>
       <c r="K36" s="56"/>
       <c r="L36" s="56"/>
     </row>
     <row r="37" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="60" t="s">
-        <v>6</v>
+        <v>188</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="C37" s="61" t="s">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="D37" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="E37" s="183" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="184"/>
-      <c r="G37" s="184"/>
-      <c r="H37" s="184"/>
-      <c r="I37" s="184"/>
-      <c r="J37" s="184"/>
+        <v>191</v>
+      </c>
+      <c r="E37" s="212" t="s">
+        <v>192</v>
+      </c>
+      <c r="F37" s="213"/>
+      <c r="G37" s="213"/>
+      <c r="H37" s="213"/>
+      <c r="I37" s="213"/>
+      <c r="J37" s="214"/>
     </row>
     <row r="38" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="63">
+      <c r="A38" s="134">
         <v>1</v>
       </c>
-      <c r="B38" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="C38" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="65"/>
-      <c r="E38" s="129" t="s">
-        <v>165</v>
-      </c>
-      <c r="F38" s="96"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="96"/>
-      <c r="J38" s="96"/>
+      <c r="B38" s="134" t="s">
+        <v>260</v>
+      </c>
+      <c r="C38" s="93" t="s">
+        <v>194</v>
+      </c>
+      <c r="D38" s="92"/>
+      <c r="E38" s="164" t="s">
+        <v>261</v>
+      </c>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="105"/>
       <c r="K38" s="56"/>
       <c r="L38" s="56"/>
     </row>
-    <row r="39" spans="1:12" s="56" customFormat="1">
-      <c r="A39" s="145" t="s">
-        <v>172</v>
-      </c>
-      <c r="B39" s="146"/>
-      <c r="C39" s="146"/>
-      <c r="D39" s="146"/>
-      <c r="E39" s="146"/>
-      <c r="F39" s="146"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="146"/>
-      <c r="I39" s="146"/>
-      <c r="J39" s="147"/>
+    <row r="39" spans="1:12" s="56" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A39" s="135"/>
+      <c r="B39" s="135"/>
+      <c r="C39" s="85" t="s">
+        <v>262</v>
+      </c>
+      <c r="D39" s="93" t="s">
+        <v>263</v>
+      </c>
+      <c r="E39" s="142" t="s">
+        <v>264</v>
+      </c>
+      <c r="F39" s="143"/>
+      <c r="G39" s="143"/>
+      <c r="H39" s="143"/>
+      <c r="I39" s="143"/>
+      <c r="J39" s="144"/>
     </row>
     <row r="40" spans="1:12" s="56" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A40" s="59">
+      <c r="A40" s="135"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="85" t="s">
+        <v>265</v>
+      </c>
+      <c r="D40" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="E40" s="142" t="s">
+        <v>267</v>
+      </c>
+      <c r="F40" s="143"/>
+      <c r="G40" s="143"/>
+      <c r="H40" s="143"/>
+      <c r="I40" s="143"/>
+      <c r="J40" s="144"/>
+    </row>
+    <row r="41" spans="1:12" s="56" customFormat="1" ht="33">
+      <c r="A41" s="135"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="85" t="s">
+        <v>268</v>
+      </c>
+      <c r="D41" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="E41" s="142" t="s">
+        <v>269</v>
+      </c>
+      <c r="F41" s="143"/>
+      <c r="G41" s="143"/>
+      <c r="H41" s="143"/>
+      <c r="I41" s="143"/>
+      <c r="J41" s="144"/>
+    </row>
+    <row r="42" spans="1:12" s="56" customFormat="1" ht="33">
+      <c r="A42" s="135"/>
+      <c r="B42" s="135"/>
+      <c r="C42" s="85" t="s">
+        <v>270</v>
+      </c>
+      <c r="D42" s="69"/>
+      <c r="E42" s="142" t="s">
+        <v>271</v>
+      </c>
+      <c r="F42" s="143"/>
+      <c r="G42" s="143"/>
+      <c r="H42" s="143"/>
+      <c r="I42" s="143"/>
+      <c r="J42" s="144"/>
+    </row>
+    <row r="43" spans="1:12" s="58" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A43" s="136"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="85" t="s">
+        <v>272</v>
+      </c>
+      <c r="D43" s="85" t="s">
+        <v>243</v>
+      </c>
+      <c r="E43" s="145" t="s">
+        <v>273</v>
+      </c>
+      <c r="F43" s="146"/>
+      <c r="G43" s="146"/>
+      <c r="H43" s="146"/>
+      <c r="I43" s="146"/>
+      <c r="J43" s="146"/>
+    </row>
+    <row r="44" spans="1:12" s="58" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A44" s="187" t="s">
+        <v>274</v>
+      </c>
+      <c r="B44" s="188"/>
+      <c r="C44" s="188"/>
+      <c r="D44" s="188"/>
+      <c r="E44" s="188"/>
+      <c r="F44" s="188"/>
+      <c r="G44" s="188"/>
+      <c r="H44" s="188"/>
+      <c r="I44" s="188"/>
+      <c r="J44" s="189"/>
+    </row>
+    <row r="45" spans="1:12" s="58" customFormat="1">
+      <c r="A45" s="59">
         <v>1</v>
       </c>
-      <c r="B40" s="67" t="s">
-        <v>166</v>
-      </c>
-      <c r="C40" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="69"/>
-      <c r="E40" s="129" t="s">
-        <v>107</v>
-      </c>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="96"/>
-    </row>
-    <row r="41" spans="1:12" s="56" customFormat="1" ht="87.75" customHeight="1">
-      <c r="A41" s="70">
+      <c r="B45" s="88" t="s">
+        <v>275</v>
+      </c>
+      <c r="C45" s="94" t="s">
+        <v>276</v>
+      </c>
+      <c r="D45" s="85"/>
+      <c r="E45" s="164" t="s">
+        <v>277</v>
+      </c>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="105"/>
+    </row>
+    <row r="46" spans="1:12" s="58" customFormat="1">
+      <c r="A46" s="67">
         <v>2</v>
       </c>
-      <c r="B41" s="71" t="s">
-        <v>167</v>
-      </c>
-      <c r="C41" s="68" t="s">
-        <v>169</v>
-      </c>
-      <c r="D41" s="86"/>
-      <c r="E41" s="137" t="s">
-        <v>193</v>
-      </c>
-      <c r="F41" s="138"/>
-      <c r="G41" s="138"/>
-      <c r="H41" s="138"/>
-      <c r="I41" s="138"/>
-      <c r="J41" s="139"/>
-    </row>
-    <row r="42" spans="1:12" s="56" customFormat="1" ht="99">
-      <c r="A42" s="70"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="83" t="s">
-        <v>192</v>
-      </c>
-      <c r="D42" s="87" t="s">
-        <v>226</v>
-      </c>
-      <c r="E42" s="137" t="s">
-        <v>194</v>
-      </c>
-      <c r="F42" s="197"/>
-      <c r="G42" s="197"/>
-      <c r="H42" s="197"/>
-      <c r="I42" s="197"/>
-      <c r="J42" s="198"/>
-    </row>
-    <row r="43" spans="1:12" s="58" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A43" s="73">
+      <c r="B46" s="68" t="s">
+        <v>278</v>
+      </c>
+      <c r="C46" s="94" t="s">
+        <v>276</v>
+      </c>
+      <c r="D46" s="83"/>
+      <c r="E46" s="197" t="s">
+        <v>279</v>
+      </c>
+      <c r="F46" s="198"/>
+      <c r="G46" s="198"/>
+      <c r="H46" s="198"/>
+      <c r="I46" s="198"/>
+      <c r="J46" s="199"/>
+    </row>
+    <row r="47" spans="1:12" s="58" customFormat="1" ht="91.5" customHeight="1">
+      <c r="A47" s="67"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="D47" s="90" t="s">
+        <v>286</v>
+      </c>
+      <c r="E47" s="197" t="s">
+        <v>289</v>
+      </c>
+      <c r="F47" s="198"/>
+      <c r="G47" s="198"/>
+      <c r="H47" s="198"/>
+      <c r="I47" s="198"/>
+      <c r="J47" s="199"/>
+    </row>
+    <row r="48" spans="1:12" s="58" customFormat="1" ht="33">
+      <c r="A48" s="67"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="94" t="s">
+        <v>280</v>
+      </c>
+      <c r="D48" s="90" t="s">
+        <v>287</v>
+      </c>
+      <c r="E48" s="125" t="s">
+        <v>281</v>
+      </c>
+      <c r="F48" s="217"/>
+      <c r="G48" s="217"/>
+      <c r="H48" s="217"/>
+      <c r="I48" s="217"/>
+      <c r="J48" s="218"/>
+    </row>
+    <row r="49" spans="1:10" s="58" customFormat="1" ht="84" customHeight="1">
+      <c r="A49" s="67"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="94" t="s">
+        <v>282</v>
+      </c>
+      <c r="D49" s="90" t="s">
+        <v>288</v>
+      </c>
+      <c r="E49" s="125" t="s">
+        <v>283</v>
+      </c>
+      <c r="F49" s="217"/>
+      <c r="G49" s="217"/>
+      <c r="H49" s="217"/>
+      <c r="I49" s="217"/>
+      <c r="J49" s="218"/>
+    </row>
+    <row r="50" spans="1:10" s="58" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A50" s="69">
         <v>3</v>
       </c>
-      <c r="B43" s="67" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" s="68" t="s">
-        <v>169</v>
-      </c>
-      <c r="D43" s="74"/>
-      <c r="E43" s="124" t="s">
-        <v>91</v>
-      </c>
-      <c r="F43" s="100"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="101"/>
-    </row>
-    <row r="44" spans="1:12" s="58" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A44" s="124"/>
-      <c r="B44" s="125"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="125"/>
-      <c r="J44" s="126"/>
-    </row>
-    <row r="45" spans="1:12" s="56" customFormat="1">
-      <c r="A45" s="130" t="s">
-        <v>171</v>
-      </c>
-      <c r="B45" s="131"/>
-      <c r="C45" s="131"/>
-      <c r="D45" s="131"/>
-      <c r="E45" s="131"/>
-      <c r="F45" s="131"/>
-      <c r="G45" s="131"/>
-      <c r="H45" s="131"/>
-      <c r="I45" s="131"/>
-      <c r="J45" s="132"/>
-    </row>
-    <row r="46" spans="1:12" s="56" customFormat="1">
-      <c r="A46" s="59">
+      <c r="B50" s="88" t="s">
+        <v>284</v>
+      </c>
+      <c r="C50" s="94" t="s">
+        <v>276</v>
+      </c>
+      <c r="D50" s="84"/>
+      <c r="E50" s="125" t="s">
+        <v>285</v>
+      </c>
+      <c r="F50" s="109"/>
+      <c r="G50" s="109"/>
+      <c r="H50" s="109"/>
+      <c r="I50" s="109"/>
+      <c r="J50" s="110"/>
+    </row>
+    <row r="51" spans="1:10" s="58" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A51" s="125"/>
+      <c r="B51" s="126"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="126"/>
+      <c r="E51" s="126"/>
+      <c r="F51" s="126"/>
+      <c r="G51" s="126"/>
+      <c r="H51" s="126"/>
+      <c r="I51" s="126"/>
+      <c r="J51" s="127"/>
+    </row>
+    <row r="52" spans="1:10" s="56" customFormat="1">
+      <c r="A52" s="202" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="203"/>
+      <c r="C52" s="203"/>
+      <c r="D52" s="203"/>
+      <c r="E52" s="203"/>
+      <c r="F52" s="203"/>
+      <c r="G52" s="203"/>
+      <c r="H52" s="203"/>
+      <c r="I52" s="203"/>
+      <c r="J52" s="204"/>
+    </row>
+    <row r="53" spans="1:10" s="56" customFormat="1">
+      <c r="A53" s="59">
         <v>1</v>
       </c>
-      <c r="B46" s="67" t="s">
-        <v>170</v>
-      </c>
-      <c r="C46" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="69"/>
-      <c r="E46" s="129" t="s">
-        <v>244</v>
-      </c>
-      <c r="F46" s="96"/>
-      <c r="G46" s="96"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="96"/>
-      <c r="J46" s="96"/>
-    </row>
-    <row r="47" spans="1:12" s="56" customFormat="1">
-      <c r="A47" s="59">
+      <c r="B53" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="66"/>
+      <c r="E53" s="164" t="s">
+        <v>184</v>
+      </c>
+      <c r="F53" s="105"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="105"/>
+    </row>
+    <row r="54" spans="1:10" s="56" customFormat="1">
+      <c r="A54" s="59">
         <v>2</v>
       </c>
-      <c r="B47" s="67" t="s">
-        <v>241</v>
-      </c>
-      <c r="C47" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" s="69"/>
-      <c r="E47" s="129" t="s">
-        <v>245</v>
-      </c>
-      <c r="F47" s="96"/>
-      <c r="G47" s="96"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="96"/>
-      <c r="J47" s="96"/>
-    </row>
-    <row r="48" spans="1:12" s="56" customFormat="1">
-      <c r="A48" s="59">
+      <c r="B54" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="C54" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="66"/>
+      <c r="E54" s="164" t="s">
+        <v>185</v>
+      </c>
+      <c r="F54" s="105"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="105"/>
+      <c r="I54" s="105"/>
+      <c r="J54" s="105"/>
+    </row>
+    <row r="55" spans="1:10" s="56" customFormat="1">
+      <c r="A55" s="59">
         <v>3</v>
       </c>
-      <c r="B48" s="67" t="s">
-        <v>242</v>
-      </c>
-      <c r="C48" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="D48" s="69"/>
-      <c r="E48" s="129" t="s">
-        <v>246</v>
-      </c>
-      <c r="F48" s="96"/>
-      <c r="G48" s="96"/>
-      <c r="H48" s="96"/>
-      <c r="I48" s="96"/>
-      <c r="J48" s="96"/>
-    </row>
-    <row r="49" spans="1:10" s="56" customFormat="1">
-      <c r="A49" s="127"/>
-      <c r="B49" s="136"/>
-      <c r="C49" s="136"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="136"/>
-      <c r="F49" s="136"/>
-      <c r="G49" s="136"/>
-      <c r="H49" s="136"/>
-      <c r="I49" s="136"/>
-      <c r="J49" s="128"/>
-    </row>
-    <row r="50" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A50" s="121" t="s">
+      <c r="B55" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="66"/>
+      <c r="E55" s="164" t="s">
+        <v>186</v>
+      </c>
+      <c r="F55" s="105"/>
+      <c r="G55" s="105"/>
+      <c r="H55" s="105"/>
+      <c r="I55" s="105"/>
+      <c r="J55" s="105"/>
+    </row>
+    <row r="56" spans="1:10" s="56" customFormat="1">
+      <c r="A56" s="128"/>
+      <c r="B56" s="133"/>
+      <c r="C56" s="133"/>
+      <c r="D56" s="133"/>
+      <c r="E56" s="133"/>
+      <c r="F56" s="133"/>
+      <c r="G56" s="133"/>
+      <c r="H56" s="133"/>
+      <c r="I56" s="133"/>
+      <c r="J56" s="129"/>
+    </row>
+    <row r="57" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
+      <c r="A57" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="122"/>
-      <c r="C50" s="122"/>
-      <c r="D50" s="122"/>
-      <c r="E50" s="122"/>
-      <c r="F50" s="122"/>
-      <c r="G50" s="122"/>
-      <c r="H50" s="122"/>
-      <c r="I50" s="122"/>
-      <c r="J50" s="123"/>
-    </row>
-    <row r="51" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="73" t="s">
+      <c r="B57" s="140"/>
+      <c r="C57" s="140"/>
+      <c r="D57" s="140"/>
+      <c r="E57" s="140"/>
+      <c r="F57" s="140"/>
+      <c r="G57" s="140"/>
+      <c r="H57" s="140"/>
+      <c r="I57" s="140"/>
+      <c r="J57" s="141"/>
+    </row>
+    <row r="58" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A58" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="119" t="s">
+      <c r="B58" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="120"/>
-      <c r="D51" s="124" t="s">
+      <c r="C58" s="138"/>
+      <c r="D58" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="100"/>
-      <c r="F51" s="100"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="100"/>
-      <c r="J51" s="101"/>
-    </row>
-    <row r="52" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="116"/>
-      <c r="B52" s="192"/>
-      <c r="C52" s="192"/>
-      <c r="D52" s="192"/>
-      <c r="E52" s="192"/>
-      <c r="F52" s="192"/>
-      <c r="G52" s="192"/>
-      <c r="H52" s="192"/>
-      <c r="I52" s="192"/>
-      <c r="J52" s="193"/>
-    </row>
-    <row r="53" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A53" s="73"/>
-      <c r="B53" s="127"/>
-      <c r="C53" s="128"/>
-      <c r="D53" s="124"/>
-      <c r="E53" s="100"/>
-      <c r="F53" s="100"/>
-      <c r="G53" s="100"/>
-      <c r="H53" s="100"/>
-      <c r="I53" s="100"/>
-      <c r="J53" s="101"/>
-    </row>
-    <row r="54" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="73"/>
-      <c r="B54" s="127"/>
-      <c r="C54" s="128"/>
-      <c r="D54" s="124"/>
-      <c r="E54" s="100"/>
-      <c r="F54" s="100"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="100"/>
-      <c r="I54" s="100"/>
-      <c r="J54" s="101"/>
-    </row>
-    <row r="55" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A55" s="116"/>
-      <c r="B55" s="192"/>
-      <c r="C55" s="192"/>
-      <c r="D55" s="192"/>
-      <c r="E55" s="192"/>
-      <c r="F55" s="192"/>
-      <c r="G55" s="192"/>
-      <c r="H55" s="192"/>
-      <c r="I55" s="192"/>
-      <c r="J55" s="193"/>
-    </row>
-    <row r="56" spans="1:10" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A56" s="73"/>
-      <c r="B56" s="127"/>
-      <c r="C56" s="128"/>
-      <c r="D56" s="124"/>
-      <c r="E56" s="100"/>
-      <c r="F56" s="100"/>
-      <c r="G56" s="100"/>
-      <c r="H56" s="100"/>
-      <c r="I56" s="100"/>
-      <c r="J56" s="101"/>
-    </row>
-    <row r="57" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A57" s="77" t="s">
+      <c r="E58" s="109"/>
+      <c r="F58" s="109"/>
+      <c r="G58" s="109"/>
+      <c r="H58" s="109"/>
+      <c r="I58" s="109"/>
+      <c r="J58" s="110"/>
+    </row>
+    <row r="59" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
+      <c r="A59" s="130"/>
+      <c r="B59" s="210"/>
+      <c r="C59" s="210"/>
+      <c r="D59" s="210"/>
+      <c r="E59" s="210"/>
+      <c r="F59" s="210"/>
+      <c r="G59" s="210"/>
+      <c r="H59" s="210"/>
+      <c r="I59" s="210"/>
+      <c r="J59" s="211"/>
+    </row>
+    <row r="60" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
+      <c r="A60" s="69"/>
+      <c r="B60" s="128"/>
+      <c r="C60" s="129"/>
+      <c r="D60" s="125"/>
+      <c r="E60" s="109"/>
+      <c r="F60" s="109"/>
+      <c r="G60" s="109"/>
+      <c r="H60" s="109"/>
+      <c r="I60" s="109"/>
+      <c r="J60" s="110"/>
+    </row>
+    <row r="61" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A61" s="69"/>
+      <c r="B61" s="128"/>
+      <c r="C61" s="129"/>
+      <c r="D61" s="125"/>
+      <c r="E61" s="109"/>
+      <c r="F61" s="109"/>
+      <c r="G61" s="109"/>
+      <c r="H61" s="109"/>
+      <c r="I61" s="109"/>
+      <c r="J61" s="110"/>
+    </row>
+    <row r="62" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
+      <c r="A62" s="130"/>
+      <c r="B62" s="210"/>
+      <c r="C62" s="210"/>
+      <c r="D62" s="210"/>
+      <c r="E62" s="210"/>
+      <c r="F62" s="210"/>
+      <c r="G62" s="210"/>
+      <c r="H62" s="210"/>
+      <c r="I62" s="210"/>
+      <c r="J62" s="211"/>
+    </row>
+    <row r="63" spans="1:10" s="56" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A63" s="69"/>
+      <c r="B63" s="128"/>
+      <c r="C63" s="129"/>
+      <c r="D63" s="125"/>
+      <c r="E63" s="109"/>
+      <c r="F63" s="109"/>
+      <c r="G63" s="109"/>
+      <c r="H63" s="109"/>
+      <c r="I63" s="109"/>
+      <c r="J63" s="110"/>
+    </row>
+    <row r="64" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
+      <c r="A64" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="78"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="79"/>
-      <c r="J57" s="80"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="73">
+      <c r="B64" s="73"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="74"/>
+      <c r="H64" s="74"/>
+      <c r="I64" s="74"/>
+      <c r="J64" s="75"/>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="69">
         <v>1</v>
       </c>
-      <c r="B58" s="81" t="s">
+      <c r="B65" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="127"/>
-      <c r="D58" s="100"/>
-      <c r="E58" s="100"/>
-      <c r="F58" s="100"/>
-      <c r="G58" s="100"/>
-      <c r="H58" s="100"/>
-      <c r="I58" s="100"/>
-      <c r="J58" s="101"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="73">
+      <c r="C65" s="128"/>
+      <c r="D65" s="109"/>
+      <c r="E65" s="109"/>
+      <c r="F65" s="109"/>
+      <c r="G65" s="109"/>
+      <c r="H65" s="109"/>
+      <c r="I65" s="109"/>
+      <c r="J65" s="110"/>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="69">
         <v>2</v>
       </c>
-      <c r="B59" s="81" t="s">
+      <c r="B66" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C59" s="142"/>
-      <c r="D59" s="142"/>
-      <c r="E59" s="142"/>
-      <c r="F59" s="142"/>
-      <c r="G59" s="142"/>
-      <c r="H59" s="142"/>
-      <c r="I59" s="142"/>
-      <c r="J59" s="142"/>
+      <c r="C66" s="145"/>
+      <c r="D66" s="145"/>
+      <c r="E66" s="145"/>
+      <c r="F66" s="145"/>
+      <c r="G66" s="145"/>
+      <c r="H66" s="145"/>
+      <c r="I66" s="145"/>
+      <c r="J66" s="145"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="C29:J29"/>
+  <mergeCells count="65">
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="E49:J49"/>
+    <mergeCell ref="E50:J50"/>
     <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A56:J56"/>
     <mergeCell ref="C31:J31"/>
     <mergeCell ref="C32:J32"/>
     <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="A51:J51"/>
     <mergeCell ref="E37:J37"/>
     <mergeCell ref="A35:J35"/>
     <mergeCell ref="A36:J36"/>
     <mergeCell ref="E42:J42"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="E46:J46"/>
     <mergeCell ref="K1:K3"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="C58:J58"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:J63"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:J58"/>
+    <mergeCell ref="A57:J57"/>
     <mergeCell ref="E38:J38"/>
-    <mergeCell ref="A39:J39"/>
     <mergeCell ref="E40:J40"/>
     <mergeCell ref="E41:J41"/>
     <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A45:J45"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="E48:J48"/>
-    <mergeCell ref="C59:J59"/>
     <mergeCell ref="A52:J52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:J53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E55:J55"/>
     <mergeCell ref="A14:J14"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:J61"/>
+    <mergeCell ref="A62:J62"/>
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A25:J25"/>
@@ -13428,6 +14207,7 @@
     <mergeCell ref="A26:J26"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:J9"/>

--- a/APF/RA006/RA006_APF0101_角色維護.xlsx
+++ b/APF/RA006/RA006_APF0101_角色維護.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15360" windowHeight="7665" tabRatio="797" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15360" windowHeight="7665" tabRatio="797" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -1197,10 +1197,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">呼叫[APFRoleController.DeleteRole]Method </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>APFRoleController.DeleteRole</t>
   </si>
   <si>
@@ -1212,10 +1208,6 @@
   </si>
   <si>
     <t>匯出EXCEL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">呼叫[APFRoleController.Excel]Method </t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1298,10 +1290,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1.呼叫[APFRoleController.CreateRole]Method</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>apfModel</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1331,10 +1319,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>系統提示「是否將所有欄位清除」，若選擇是，則清除所有欄位，若選擇否，則不做任何動作。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>APF0101MU1_Link</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1411,10 +1395,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>取消修改，以導頁方式開啟APF0101MM1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>儲存</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1434,14 +1414,6 @@
   </si>
   <si>
     <t>更新至apf_roleprofile資料</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>清除重填</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>系統提示「是否將所有欄位清除」，若選擇是，則清除所有欄位，若選擇否，則不做任何動作。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1459,12 +1431,6 @@
 Enable,
 sourceType,
 remark</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.呼叫[RoleManager.Edit]Method
-2.呼叫[APFRoleProfileManager.EditRoleProfile]Method
-3.回傳ActionResult結果,確認新增是否成功,成功右下角提示「儲存成功」，以導頁方式開啟APF0101MM1.cshtml,失敗以導頁方式開啟錯誤訊息畫面error.cshtml。。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1506,6 +1472,48 @@
   <si>
     <t>輸入/輸出/必填</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新載入</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>清除所有可變更欄位</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取消修改，以導頁方式開啟APF0101MM1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取消修改，重新載入該角色資訊</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.出現提示訊息，訊息內容請參考APF訊息表-APF_NO 20。
+1.1若選擇是，則呼叫[APFRoleController.DeleteRole]Method 
+1.2若選擇否，則不做任何動作</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.出現提示訊息，訊息內容請參考APF訊息表-APF_NO 。
+1.1若選擇是，則呼叫[APFRoleController.CreateRole]Method
+1.2若選擇否，則不做任何動作</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.出現提示訊息，訊息內容請參考APF訊息表-APF_NO 。
+1.1若選擇是
+  1.1.1則呼叫[RoleManager.Edit]Method
+  1.1.2.呼叫[APFRoleProfileManager.EditRoleProfile]Method
+  1.1.3.回傳ActionResult結果,確認新增是否成功,成功右下角提示「儲存成  功」，以導頁方式開啟APF0101MM1.cshtml,失敗以導頁方式開啟錯誤訊息畫面error.cshtml。
+1.2若選擇否，則不做任何動作</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.匯出筆數若大於65535筆，系統提示訊息，訊息內容請參考APF訊息表-APF_NO 34。
+2.小於65535筆則呼叫[APFRoleController.Excel]Method </t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2444,6 +2452,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2564,22 +2590,13 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2592,15 +2609,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3237,7 +3245,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9980083" cy="497417"/>
+          <a:ext cx="9953625" cy="495300"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
@@ -3735,10 +3743,10 @@
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>657225</xdr:colOff>
-          <xdr:row>84</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>83</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4946,7 +4954,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="10276354" cy="602316"/>
+          <a:ext cx="10283825" cy="597958"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
@@ -7624,19 +7632,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>990600</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1278731</xdr:rowOff>
+      <xdr:rowOff>1321595</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="圖片 10"/>
+        <xdr:cNvPr id="10" name="圖片 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7655,8 +7663,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="838200"/>
-          <a:ext cx="4676775" cy="3507581"/>
+          <a:off x="19050" y="1114426"/>
+          <a:ext cx="4657725" cy="3493294"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8741,7 +8749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -8771,7 +8779,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="147" t="s">
+      <c r="K1" s="153" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="39"/>
@@ -8798,7 +8806,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="148"/>
+      <c r="K2" s="154"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -8816,7 +8824,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="148"/>
+      <c r="K3" s="154"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -8905,7 +8913,7 @@
         <v>126</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -8977,7 +8985,7 @@
         <v>126</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="J11" s="42" t="s">
         <v>0</v>
@@ -9390,8 +9398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:XFD84"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N78" sqref="N78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9681,10 +9689,10 @@
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>657225</xdr:colOff>
-                <xdr:row>84</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>83</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -9792,8 +9800,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56:J56"/>
+    <sheetView topLeftCell="A56" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9823,7 +9831,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="147" t="s">
+      <c r="K1" s="153" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="54"/>
@@ -9844,7 +9852,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="148"/>
+      <c r="K2" s="154"/>
     </row>
     <row r="3" spans="1:17" s="55" customFormat="1">
       <c r="A3" s="47"/>
@@ -9857,7 +9865,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="148"/>
+      <c r="K3" s="154"/>
     </row>
     <row r="4" spans="1:17" s="55" customFormat="1">
       <c r="A4" s="47"/>
@@ -9872,7 +9880,7 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="158" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="107"/>
@@ -9898,45 +9906,45 @@
       <c r="J6" s="113"/>
     </row>
     <row r="7" spans="1:17" s="56" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="153"/>
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="156"/>
+      <c r="A7" s="159"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="162"/>
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:17" s="56" customFormat="1">
-      <c r="A8" s="153"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="156"/>
+      <c r="A8" s="159"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="162"/>
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:17" s="56" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="157"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="158"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="159"/>
+      <c r="A9" s="163"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="165"/>
     </row>
     <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="152" t="s">
+      <c r="A10" s="158" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="107"/>
@@ -9950,7 +9958,7 @@
       <c r="J10" s="108"/>
     </row>
     <row r="11" spans="1:17" s="58" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="160" t="s">
+      <c r="A11" s="166" t="s">
         <v>176</v>
       </c>
       <c r="B11" s="109"/>
@@ -9964,7 +9972,7 @@
       <c r="J11" s="110"/>
     </row>
     <row r="12" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="152" t="s">
+      <c r="A12" s="158" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="107"/>
@@ -9978,7 +9986,7 @@
       <c r="J12" s="108"/>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="160" t="s">
+      <c r="A13" s="166" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="109"/>
@@ -9992,7 +10000,7 @@
       <c r="J13" s="110"/>
     </row>
     <row r="14" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="152" t="s">
+      <c r="A14" s="158" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="107"/>
@@ -10006,18 +10014,18 @@
       <c r="J14" s="108"/>
     </row>
     <row r="15" spans="1:17" s="56" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="165" t="s">
+      <c r="A15" s="171" t="s">
         <v>137</v>
       </c>
-      <c r="B15" s="166"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="166"/>
-      <c r="I15" s="166"/>
-      <c r="J15" s="167"/>
+      <c r="B15" s="172"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="173"/>
     </row>
     <row r="16" spans="1:17" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="59" t="s">
@@ -10026,16 +10034,16 @@
       <c r="B16" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="168" t="s">
+      <c r="C16" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="170"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="176"/>
     </row>
     <row r="17" spans="1:10" s="56" customFormat="1" ht="49.5" customHeight="1">
       <c r="A17" s="59">
@@ -10044,16 +10052,16 @@
       <c r="B17" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="171" t="s">
+      <c r="C17" s="177" t="s">
         <v>177</v>
       </c>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="173"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="179"/>
     </row>
     <row r="18" spans="1:10" s="56" customFormat="1" ht="53.25" customHeight="1">
       <c r="A18" s="59">
@@ -10062,16 +10070,16 @@
       <c r="B18" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="171" t="s">
+      <c r="C18" s="177" t="s">
         <v>179</v>
       </c>
-      <c r="D18" s="172"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="173"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="179"/>
     </row>
     <row r="19" spans="1:10" s="56" customFormat="1">
       <c r="A19" s="59">
@@ -10080,16 +10088,16 @@
       <c r="B19" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="171" t="s">
+      <c r="C19" s="177" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="172"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="173"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="179"/>
     </row>
     <row r="20" spans="1:10" s="56" customFormat="1">
       <c r="A20" s="128"/>
@@ -10104,18 +10112,18 @@
       <c r="J20" s="129"/>
     </row>
     <row r="21" spans="1:10" s="56" customFormat="1">
-      <c r="A21" s="165" t="s">
+      <c r="A21" s="171" t="s">
         <v>135</v>
       </c>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="166"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="166"/>
-      <c r="G21" s="166"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="166"/>
-      <c r="J21" s="167"/>
+      <c r="B21" s="172"/>
+      <c r="C21" s="172"/>
+      <c r="D21" s="172"/>
+      <c r="E21" s="172"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="173"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="59" t="s">
@@ -10124,16 +10132,16 @@
       <c r="B22" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="168" t="s">
+      <c r="C22" s="174" t="s">
         <v>115</v>
       </c>
-      <c r="D22" s="169"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="169"/>
-      <c r="G22" s="169"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="169"/>
-      <c r="J22" s="170"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="175"/>
+      <c r="H22" s="175"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="176"/>
     </row>
     <row r="23" spans="1:10" s="56" customFormat="1">
       <c r="A23" s="59">
@@ -10142,16 +10150,16 @@
       <c r="B23" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="176" t="s">
+      <c r="C23" s="182" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="172"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="173"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="179"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1">
       <c r="A24" s="59">
@@ -10160,16 +10168,16 @@
       <c r="B24" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="176" t="s">
+      <c r="C24" s="182" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="172"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="173"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="178"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="179"/>
     </row>
     <row r="25" spans="1:10" s="56" customFormat="1">
       <c r="A25" s="59">
@@ -10178,16 +10186,16 @@
       <c r="B25" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="176" t="s">
+      <c r="C25" s="182" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="172"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="172"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="172"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="173"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="178"/>
+      <c r="H25" s="178"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="179"/>
     </row>
     <row r="26" spans="1:10" s="56" customFormat="1">
       <c r="A26" s="59">
@@ -10196,56 +10204,56 @@
       <c r="B26" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="176" t="s">
+      <c r="C26" s="182" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="172"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="173"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="178"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="179"/>
     </row>
     <row r="27" spans="1:10" s="56" customFormat="1">
-      <c r="A27" s="149"/>
-      <c r="B27" s="150"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="151"/>
+      <c r="A27" s="155"/>
+      <c r="B27" s="156"/>
+      <c r="C27" s="156"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="157"/>
     </row>
     <row r="28" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="161" t="s">
+      <c r="A28" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="162"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="163"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="168"/>
+      <c r="H28" s="168"/>
+      <c r="I28" s="168"/>
+      <c r="J28" s="169"/>
     </row>
     <row r="29" spans="1:10" s="56" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="165" t="s">
+      <c r="A29" s="171" t="s">
         <v>137</v>
       </c>
-      <c r="B29" s="166"/>
-      <c r="C29" s="166"/>
-      <c r="D29" s="166"/>
-      <c r="E29" s="166"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="166"/>
-      <c r="H29" s="166"/>
-      <c r="I29" s="166"/>
-      <c r="J29" s="167"/>
+      <c r="B29" s="172"/>
+      <c r="C29" s="172"/>
+      <c r="D29" s="172"/>
+      <c r="E29" s="172"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="173"/>
     </row>
     <row r="30" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="59" t="s">
@@ -10254,16 +10262,16 @@
       <c r="B30" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="168" t="s">
+      <c r="C30" s="174" t="s">
         <v>114</v>
       </c>
-      <c r="D30" s="169"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="169"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="169"/>
-      <c r="J30" s="170"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="175"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="176"/>
     </row>
     <row r="31" spans="1:10" s="56" customFormat="1">
       <c r="A31" s="59">
@@ -10272,16 +10280,16 @@
       <c r="B31" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="177" t="s">
+      <c r="C31" s="183" t="s">
         <v>175</v>
       </c>
-      <c r="D31" s="178"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="178"/>
-      <c r="G31" s="178"/>
-      <c r="H31" s="178"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="179"/>
+      <c r="D31" s="184"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="184"/>
+      <c r="J31" s="185"/>
     </row>
     <row r="32" spans="1:10" s="56" customFormat="1">
       <c r="A32" s="59">
@@ -10290,14 +10298,14 @@
       <c r="B32" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="180"/>
-      <c r="D32" s="181"/>
-      <c r="E32" s="181"/>
-      <c r="F32" s="181"/>
-      <c r="G32" s="181"/>
-      <c r="H32" s="181"/>
-      <c r="I32" s="181"/>
-      <c r="J32" s="182"/>
+      <c r="C32" s="186"/>
+      <c r="D32" s="187"/>
+      <c r="E32" s="187"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="187"/>
+      <c r="H32" s="187"/>
+      <c r="I32" s="187"/>
+      <c r="J32" s="188"/>
     </row>
     <row r="33" spans="1:12" s="56" customFormat="1">
       <c r="A33" s="59">
@@ -10306,16 +10314,16 @@
       <c r="B33" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="176" t="s">
+      <c r="C33" s="182" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="172"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="172"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="173"/>
+      <c r="D33" s="178"/>
+      <c r="E33" s="178"/>
+      <c r="F33" s="178"/>
+      <c r="G33" s="178"/>
+      <c r="H33" s="178"/>
+      <c r="I33" s="178"/>
+      <c r="J33" s="179"/>
     </row>
     <row r="34" spans="1:12" s="56" customFormat="1">
       <c r="A34" s="128"/>
@@ -10330,18 +10338,18 @@
       <c r="J34" s="129"/>
     </row>
     <row r="35" spans="1:12" s="56" customFormat="1">
-      <c r="A35" s="165" t="s">
+      <c r="A35" s="171" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="174"/>
-      <c r="C35" s="174"/>
-      <c r="D35" s="174"/>
-      <c r="E35" s="174"/>
-      <c r="F35" s="174"/>
-      <c r="G35" s="174"/>
-      <c r="H35" s="174"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="175"/>
+      <c r="B35" s="180"/>
+      <c r="C35" s="180"/>
+      <c r="D35" s="180"/>
+      <c r="E35" s="180"/>
+      <c r="F35" s="180"/>
+      <c r="G35" s="180"/>
+      <c r="H35" s="180"/>
+      <c r="I35" s="180"/>
+      <c r="J35" s="181"/>
     </row>
     <row r="36" spans="1:12" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="59" t="s">
@@ -10350,16 +10358,16 @@
       <c r="B36" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="168" t="s">
+      <c r="C36" s="174" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="169"/>
-      <c r="E36" s="169"/>
-      <c r="F36" s="169"/>
-      <c r="G36" s="169"/>
-      <c r="H36" s="169"/>
-      <c r="I36" s="169"/>
-      <c r="J36" s="170"/>
+      <c r="D36" s="175"/>
+      <c r="E36" s="175"/>
+      <c r="F36" s="175"/>
+      <c r="G36" s="175"/>
+      <c r="H36" s="175"/>
+      <c r="I36" s="175"/>
+      <c r="J36" s="176"/>
     </row>
     <row r="37" spans="1:12" s="56" customFormat="1">
       <c r="A37" s="59">
@@ -10368,16 +10376,16 @@
       <c r="B37" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="176" t="s">
+      <c r="C37" s="182" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="172"/>
-      <c r="E37" s="172"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="172"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="173"/>
+      <c r="D37" s="178"/>
+      <c r="E37" s="178"/>
+      <c r="F37" s="178"/>
+      <c r="G37" s="178"/>
+      <c r="H37" s="178"/>
+      <c r="I37" s="178"/>
+      <c r="J37" s="179"/>
     </row>
     <row r="38" spans="1:12" s="56" customFormat="1">
       <c r="A38" s="59">
@@ -10386,16 +10394,16 @@
       <c r="B38" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="176" t="s">
+      <c r="C38" s="182" t="s">
         <v>113</v>
       </c>
-      <c r="D38" s="172"/>
-      <c r="E38" s="172"/>
-      <c r="F38" s="172"/>
-      <c r="G38" s="172"/>
-      <c r="H38" s="172"/>
-      <c r="I38" s="172"/>
-      <c r="J38" s="173"/>
+      <c r="D38" s="178"/>
+      <c r="E38" s="178"/>
+      <c r="F38" s="178"/>
+      <c r="G38" s="178"/>
+      <c r="H38" s="178"/>
+      <c r="I38" s="178"/>
+      <c r="J38" s="179"/>
     </row>
     <row r="39" spans="1:12" s="56" customFormat="1">
       <c r="A39" s="59">
@@ -10404,16 +10412,16 @@
       <c r="B39" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="176" t="s">
+      <c r="C39" s="182" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="172"/>
-      <c r="E39" s="172"/>
-      <c r="F39" s="172"/>
-      <c r="G39" s="172"/>
-      <c r="H39" s="172"/>
-      <c r="I39" s="172"/>
-      <c r="J39" s="173"/>
+      <c r="D39" s="178"/>
+      <c r="E39" s="178"/>
+      <c r="F39" s="178"/>
+      <c r="G39" s="178"/>
+      <c r="H39" s="178"/>
+      <c r="I39" s="178"/>
+      <c r="J39" s="179"/>
     </row>
     <row r="40" spans="1:12" s="56" customFormat="1">
       <c r="A40" s="59">
@@ -10422,16 +10430,16 @@
       <c r="B40" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="176" t="s">
+      <c r="C40" s="182" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="172"/>
-      <c r="E40" s="172"/>
-      <c r="F40" s="172"/>
-      <c r="G40" s="172"/>
-      <c r="H40" s="172"/>
-      <c r="I40" s="172"/>
-      <c r="J40" s="173"/>
+      <c r="D40" s="178"/>
+      <c r="E40" s="178"/>
+      <c r="F40" s="178"/>
+      <c r="G40" s="178"/>
+      <c r="H40" s="178"/>
+      <c r="I40" s="178"/>
+      <c r="J40" s="179"/>
     </row>
     <row r="41" spans="1:12" s="56" customFormat="1">
       <c r="A41" s="128"/>
@@ -10446,18 +10454,18 @@
       <c r="J41" s="129"/>
     </row>
     <row r="42" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="161" t="s">
+      <c r="A42" s="167" t="s">
         <v>187</v>
       </c>
-      <c r="B42" s="183"/>
-      <c r="C42" s="183"/>
-      <c r="D42" s="183"/>
-      <c r="E42" s="183"/>
-      <c r="F42" s="183"/>
-      <c r="G42" s="183"/>
-      <c r="H42" s="183"/>
-      <c r="I42" s="183"/>
-      <c r="J42" s="184"/>
+      <c r="B42" s="189"/>
+      <c r="C42" s="189"/>
+      <c r="D42" s="189"/>
+      <c r="E42" s="189"/>
+      <c r="F42" s="189"/>
+      <c r="G42" s="189"/>
+      <c r="H42" s="189"/>
+      <c r="I42" s="189"/>
+      <c r="J42" s="190"/>
     </row>
     <row r="43" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="91" t="s">
@@ -10472,14 +10480,14 @@
       <c r="D43" s="92" t="s">
         <v>191</v>
       </c>
-      <c r="E43" s="185" t="s">
+      <c r="E43" s="191" t="s">
         <v>192</v>
       </c>
-      <c r="F43" s="186"/>
-      <c r="G43" s="186"/>
-      <c r="H43" s="186"/>
-      <c r="I43" s="186"/>
-      <c r="J43" s="186"/>
+      <c r="F43" s="192"/>
+      <c r="G43" s="192"/>
+      <c r="H43" s="192"/>
+      <c r="I43" s="192"/>
+      <c r="J43" s="192"/>
       <c r="K43" s="56"/>
       <c r="L43" s="56"/>
     </row>
@@ -10494,7 +10502,7 @@
         <v>194</v>
       </c>
       <c r="D44" s="93"/>
-      <c r="E44" s="164" t="s">
+      <c r="E44" s="170" t="s">
         <v>195</v>
       </c>
       <c r="F44" s="105"/>
@@ -10566,31 +10574,31 @@
       <c r="J48" s="129"/>
     </row>
     <row r="49" spans="1:10" s="58" customFormat="1">
-      <c r="A49" s="187" t="s">
+      <c r="A49" s="147" t="s">
         <v>203</v>
       </c>
-      <c r="B49" s="188"/>
-      <c r="C49" s="188"/>
-      <c r="D49" s="188"/>
-      <c r="E49" s="188"/>
-      <c r="F49" s="188"/>
-      <c r="G49" s="188"/>
-      <c r="H49" s="188"/>
-      <c r="I49" s="188"/>
-      <c r="J49" s="189"/>
+      <c r="B49" s="148"/>
+      <c r="C49" s="148"/>
+      <c r="D49" s="148"/>
+      <c r="E49" s="148"/>
+      <c r="F49" s="148"/>
+      <c r="G49" s="148"/>
+      <c r="H49" s="148"/>
+      <c r="I49" s="148"/>
+      <c r="J49" s="149"/>
     </row>
     <row r="50" spans="1:10" s="56" customFormat="1" ht="16.5" customHeight="1">
       <c r="A50" s="134">
         <v>1</v>
       </c>
-      <c r="B50" s="191" t="s">
+      <c r="B50" s="151" t="s">
         <v>204</v>
       </c>
       <c r="C50" s="94" t="s">
         <v>205</v>
       </c>
       <c r="D50" s="85"/>
-      <c r="E50" s="164" t="s">
+      <c r="E50" s="170" t="s">
         <v>206</v>
       </c>
       <c r="F50" s="105"/>
@@ -10600,64 +10608,64 @@
       <c r="J50" s="105"/>
     </row>
     <row r="51" spans="1:10" s="56" customFormat="1" ht="33">
-      <c r="A51" s="190"/>
-      <c r="B51" s="192"/>
+      <c r="A51" s="150"/>
+      <c r="B51" s="152"/>
       <c r="C51" s="95" t="s">
         <v>207</v>
       </c>
       <c r="D51" s="83" t="s">
         <v>208</v>
       </c>
-      <c r="E51" s="193" t="s">
+      <c r="E51" s="196" t="s">
         <v>209</v>
       </c>
-      <c r="F51" s="194"/>
-      <c r="G51" s="194"/>
-      <c r="H51" s="194"/>
-      <c r="I51" s="194"/>
-      <c r="J51" s="195"/>
+      <c r="F51" s="197"/>
+      <c r="G51" s="197"/>
+      <c r="H51" s="197"/>
+      <c r="I51" s="197"/>
+      <c r="J51" s="198"/>
     </row>
     <row r="52" spans="1:10" s="56" customFormat="1">
       <c r="A52" s="67">
         <v>2</v>
       </c>
-      <c r="B52" s="191" t="s">
+      <c r="B52" s="151" t="s">
         <v>210</v>
       </c>
       <c r="C52" s="94" t="s">
         <v>205</v>
       </c>
       <c r="D52" s="96"/>
-      <c r="E52" s="197" t="s">
+      <c r="E52" s="193" t="s">
         <v>211</v>
       </c>
-      <c r="F52" s="198"/>
-      <c r="G52" s="198"/>
-      <c r="H52" s="198"/>
-      <c r="I52" s="198"/>
-      <c r="J52" s="199"/>
+      <c r="F52" s="194"/>
+      <c r="G52" s="194"/>
+      <c r="H52" s="194"/>
+      <c r="I52" s="194"/>
+      <c r="J52" s="195"/>
     </row>
     <row r="53" spans="1:10" s="56" customFormat="1" ht="91.5" customHeight="1">
       <c r="A53" s="67"/>
-      <c r="B53" s="196"/>
+      <c r="B53" s="199"/>
       <c r="C53" s="94" t="s">
         <v>212</v>
       </c>
       <c r="D53" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="E53" s="197" t="s">
-        <v>290</v>
-      </c>
-      <c r="F53" s="198"/>
-      <c r="G53" s="198"/>
-      <c r="H53" s="198"/>
-      <c r="I53" s="198"/>
-      <c r="J53" s="199"/>
+      <c r="E53" s="193" t="s">
+        <v>282</v>
+      </c>
+      <c r="F53" s="194"/>
+      <c r="G53" s="194"/>
+      <c r="H53" s="194"/>
+      <c r="I53" s="194"/>
+      <c r="J53" s="195"/>
     </row>
     <row r="54" spans="1:10" s="56" customFormat="1" ht="33">
       <c r="A54" s="67"/>
-      <c r="B54" s="196"/>
+      <c r="B54" s="199"/>
       <c r="C54" s="90" t="s">
         <v>198</v>
       </c>
@@ -10673,7 +10681,7 @@
     </row>
     <row r="55" spans="1:10" s="56" customFormat="1" ht="33">
       <c r="A55" s="67"/>
-      <c r="B55" s="196"/>
+      <c r="B55" s="199"/>
       <c r="C55" s="90" t="s">
         <v>200</v>
       </c>
@@ -10691,7 +10699,7 @@
     </row>
     <row r="56" spans="1:10" s="56" customFormat="1">
       <c r="A56" s="67"/>
-      <c r="B56" s="196"/>
+      <c r="B56" s="199"/>
       <c r="C56" s="94" t="s">
         <v>213</v>
       </c>
@@ -10707,7 +10715,7 @@
     </row>
     <row r="57" spans="1:10" s="56" customFormat="1" ht="33">
       <c r="A57" s="67"/>
-      <c r="B57" s="192"/>
+      <c r="B57" s="152"/>
       <c r="C57" s="94" t="s">
         <v>215</v>
       </c>
@@ -10778,7 +10786,7 @@
         <v>205</v>
       </c>
       <c r="D61" s="85"/>
-      <c r="E61" s="164" t="s">
+      <c r="E61" s="170" t="s">
         <v>222</v>
       </c>
       <c r="F61" s="105"/>
@@ -10798,128 +10806,128 @@
         <v>205</v>
       </c>
       <c r="D62" s="86"/>
-      <c r="E62" s="197" t="s">
+      <c r="E62" s="193" t="s">
         <v>224</v>
       </c>
-      <c r="F62" s="198"/>
-      <c r="G62" s="198"/>
-      <c r="H62" s="198"/>
-      <c r="I62" s="198"/>
-      <c r="J62" s="199"/>
-    </row>
-    <row r="63" spans="1:10" s="56" customFormat="1" ht="27.75" customHeight="1">
+      <c r="F62" s="194"/>
+      <c r="G62" s="194"/>
+      <c r="H62" s="194"/>
+      <c r="I62" s="194"/>
+      <c r="J62" s="195"/>
+    </row>
+    <row r="63" spans="1:10" s="56" customFormat="1" ht="51.75" customHeight="1">
       <c r="A63" s="134">
         <v>3</v>
       </c>
-      <c r="B63" s="191" t="s">
+      <c r="B63" s="151" t="s">
         <v>225</v>
       </c>
       <c r="C63" s="94" t="s">
         <v>205</v>
       </c>
       <c r="D63" s="86"/>
-      <c r="E63" s="197" t="s">
+      <c r="E63" s="193" t="s">
+        <v>291</v>
+      </c>
+      <c r="F63" s="194"/>
+      <c r="G63" s="194"/>
+      <c r="H63" s="194"/>
+      <c r="I63" s="194"/>
+      <c r="J63" s="195"/>
+    </row>
+    <row r="64" spans="1:10" s="56" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A64" s="150"/>
+      <c r="B64" s="152"/>
+      <c r="C64" s="94" t="s">
         <v>226</v>
       </c>
-      <c r="F63" s="198"/>
-      <c r="G63" s="198"/>
-      <c r="H63" s="198"/>
-      <c r="I63" s="198"/>
-      <c r="J63" s="199"/>
-    </row>
-    <row r="64" spans="1:10" s="56" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A64" s="190"/>
-      <c r="B64" s="192"/>
-      <c r="C64" s="94" t="s">
+      <c r="D64" s="99" t="s">
         <v>227</v>
       </c>
-      <c r="D64" s="99" t="s">
+      <c r="E64" s="125" t="s" ph="1">
         <v>228</v>
       </c>
-      <c r="E64" s="125" t="s" ph="1">
-        <v>229</v>
-      </c>
-      <c r="F64" s="194"/>
-      <c r="G64" s="194"/>
-      <c r="H64" s="194"/>
-      <c r="I64" s="194"/>
-      <c r="J64" s="195"/>
-    </row>
-    <row r="65" spans="1:10" s="56" customFormat="1">
+      <c r="F64" s="197"/>
+      <c r="G64" s="197"/>
+      <c r="H64" s="197"/>
+      <c r="I64" s="197"/>
+      <c r="J64" s="198"/>
+    </row>
+    <row r="65" spans="1:10" s="56" customFormat="1" ht="50.25" customHeight="1">
       <c r="A65" s="134">
         <v>4</v>
       </c>
-      <c r="B65" s="191" t="s">
-        <v>230</v>
+      <c r="B65" s="151" t="s">
+        <v>229</v>
       </c>
       <c r="C65" s="94" t="s">
         <v>205</v>
       </c>
       <c r="D65" s="99"/>
-      <c r="E65" s="197" t="s">
+      <c r="E65" s="193" t="s">
+        <v>294</v>
+      </c>
+      <c r="F65" s="194"/>
+      <c r="G65" s="194"/>
+      <c r="H65" s="194"/>
+      <c r="I65" s="194"/>
+      <c r="J65" s="195"/>
+    </row>
+    <row r="66" spans="1:10" s="56" customFormat="1">
+      <c r="A66" s="150"/>
+      <c r="B66" s="152"/>
+      <c r="C66" s="94" t="s">
+        <v>230</v>
+      </c>
+      <c r="D66" s="99" t="s">
         <v>231</v>
       </c>
-      <c r="F65" s="198"/>
-      <c r="G65" s="198"/>
-      <c r="H65" s="198"/>
-      <c r="I65" s="198"/>
-      <c r="J65" s="199"/>
-    </row>
-    <row r="66" spans="1:10" s="56" customFormat="1">
-      <c r="A66" s="190"/>
-      <c r="B66" s="192"/>
-      <c r="C66" s="94" t="s">
+      <c r="E66" s="193" t="s">
         <v>232</v>
       </c>
-      <c r="D66" s="99" t="s">
-        <v>233</v>
-      </c>
-      <c r="E66" s="197" t="s">
-        <v>234</v>
-      </c>
-      <c r="F66" s="198"/>
-      <c r="G66" s="198"/>
-      <c r="H66" s="198"/>
-      <c r="I66" s="198"/>
-      <c r="J66" s="199"/>
+      <c r="F66" s="194"/>
+      <c r="G66" s="194"/>
+      <c r="H66" s="194"/>
+      <c r="I66" s="194"/>
+      <c r="J66" s="195"/>
     </row>
     <row r="67" spans="1:10" s="56" customFormat="1">
       <c r="A67" s="134">
         <v>5</v>
       </c>
-      <c r="B67" s="191" t="s">
-        <v>235</v>
+      <c r="B67" s="151" t="s">
+        <v>233</v>
       </c>
       <c r="C67" s="94" t="s">
         <v>205</v>
       </c>
       <c r="D67" s="86"/>
-      <c r="E67" s="197" t="s">
+      <c r="E67" s="193" t="s">
+        <v>234</v>
+      </c>
+      <c r="F67" s="194"/>
+      <c r="G67" s="194"/>
+      <c r="H67" s="194"/>
+      <c r="I67" s="194"/>
+      <c r="J67" s="195"/>
+    </row>
+    <row r="68" spans="1:10" s="56" customFormat="1">
+      <c r="A68" s="150"/>
+      <c r="B68" s="152"/>
+      <c r="C68" s="94" t="s">
+        <v>235</v>
+      </c>
+      <c r="D68" s="86" t="s">
         <v>236</v>
       </c>
-      <c r="F67" s="198"/>
-      <c r="G67" s="198"/>
-      <c r="H67" s="198"/>
-      <c r="I67" s="198"/>
-      <c r="J67" s="199"/>
-    </row>
-    <row r="68" spans="1:10" s="56" customFormat="1">
-      <c r="A68" s="190"/>
-      <c r="B68" s="192"/>
-      <c r="C68" s="94" t="s">
+      <c r="E68" s="193" t="s">
         <v>237</v>
       </c>
-      <c r="D68" s="86" t="s">
-        <v>238</v>
-      </c>
-      <c r="E68" s="197" t="s">
-        <v>239</v>
-      </c>
-      <c r="F68" s="198"/>
-      <c r="G68" s="198"/>
-      <c r="H68" s="198"/>
-      <c r="I68" s="198"/>
-      <c r="J68" s="199"/>
+      <c r="F68" s="194"/>
+      <c r="G68" s="194"/>
+      <c r="H68" s="194"/>
+      <c r="I68" s="194"/>
+      <c r="J68" s="195"/>
     </row>
     <row r="69" spans="1:10" s="56" customFormat="1">
       <c r="A69" s="71"/>
@@ -11073,6 +11081,8 @@
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="E63:J63"/>
+    <mergeCell ref="B59:J59"/>
     <mergeCell ref="E64:J64"/>
     <mergeCell ref="E50:J50"/>
     <mergeCell ref="A67:A68"/>
@@ -11088,8 +11098,6 @@
     <mergeCell ref="A60:J60"/>
     <mergeCell ref="E61:J61"/>
     <mergeCell ref="E62:J62"/>
-    <mergeCell ref="E63:J63"/>
-    <mergeCell ref="E65:J65"/>
     <mergeCell ref="E51:J51"/>
     <mergeCell ref="B52:B57"/>
     <mergeCell ref="E52:J52"/>
@@ -11138,7 +11146,6 @@
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="E44:J44"/>
     <mergeCell ref="D71:J71"/>
-    <mergeCell ref="B59:J59"/>
     <mergeCell ref="B69:J69"/>
     <mergeCell ref="A44:A47"/>
     <mergeCell ref="A72:J72"/>
@@ -11154,6 +11161,7 @@
     <mergeCell ref="E47:J47"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="B50:B51"/>
+    <mergeCell ref="E65:J65"/>
     <mergeCell ref="D76:J76"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="A75:J75"/>
@@ -11211,7 +11219,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="147" t="s">
+      <c r="K1" s="153" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="39"/>
@@ -11238,7 +11246,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="148"/>
+      <c r="K2" s="154"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -11256,7 +11264,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="148"/>
+      <c r="K3" s="154"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -11345,7 +11353,7 @@
         <v>117</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -11417,7 +11425,7 @@
         <v>117</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="J11" s="42" t="s">
         <v>0</v>
@@ -11549,7 +11557,7 @@
         <v>117</v>
       </c>
       <c r="I17" s="42" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="J17" s="42" t="s">
         <v>0</v>
@@ -11702,7 +11710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E41" sqref="E41:J41"/>
     </sheetView>
   </sheetViews>
@@ -11732,7 +11740,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="147" t="s">
+      <c r="K1" s="153" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="54"/>
@@ -11753,7 +11761,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="148"/>
+      <c r="K2" s="154"/>
     </row>
     <row r="3" spans="1:17" s="55" customFormat="1">
       <c r="A3" s="47"/>
@@ -11766,7 +11774,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="148"/>
+      <c r="K3" s="154"/>
     </row>
     <row r="4" spans="1:17" s="55" customFormat="1">
       <c r="A4" s="47"/>
@@ -11781,7 +11789,7 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="158" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="107"/>
@@ -11807,45 +11815,45 @@
       <c r="J6" s="113"/>
     </row>
     <row r="7" spans="1:17" s="56" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="153"/>
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="156"/>
+      <c r="A7" s="159"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="162"/>
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:17" s="56" customFormat="1">
-      <c r="A8" s="153"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="156"/>
+      <c r="A8" s="159"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="162"/>
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:17" s="56" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="157"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="158"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="159"/>
+      <c r="A9" s="163"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="165"/>
     </row>
     <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="152" t="s">
+      <c r="A10" s="158" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="107"/>
@@ -11859,7 +11867,7 @@
       <c r="J10" s="108"/>
     </row>
     <row r="11" spans="1:17" s="58" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="160" t="s">
+      <c r="A11" s="166" t="s">
         <v>138</v>
       </c>
       <c r="B11" s="109"/>
@@ -11873,7 +11881,7 @@
       <c r="J11" s="110"/>
     </row>
     <row r="12" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="152" t="s">
+      <c r="A12" s="158" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="107"/>
@@ -11887,7 +11895,7 @@
       <c r="J12" s="108"/>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="160" t="s">
+      <c r="A13" s="166" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="109"/>
@@ -11901,7 +11909,7 @@
       <c r="J13" s="110"/>
     </row>
     <row r="14" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="152" t="s">
+      <c r="A14" s="158" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="107"/>
@@ -11915,18 +11923,18 @@
       <c r="J14" s="108"/>
     </row>
     <row r="15" spans="1:17" s="56" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A15" s="165" t="s">
+      <c r="A15" s="171" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="166"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="166"/>
-      <c r="I15" s="166"/>
-      <c r="J15" s="167"/>
+      <c r="B15" s="172"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="173"/>
     </row>
     <row r="16" spans="1:17" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="59" t="s">
@@ -11935,16 +11943,16 @@
       <c r="B16" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="168" t="s">
+      <c r="C16" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="170"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="176"/>
     </row>
     <row r="17" spans="1:10" s="56" customFormat="1" ht="65.25" customHeight="1">
       <c r="A17" s="59">
@@ -11953,16 +11961,16 @@
       <c r="B17" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="171" t="s">
+      <c r="C17" s="177" t="s">
         <v>178</v>
       </c>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="173"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="179"/>
     </row>
     <row r="18" spans="1:10" s="56" customFormat="1" ht="66" customHeight="1">
       <c r="A18" s="59">
@@ -11971,16 +11979,16 @@
       <c r="B18" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="171" t="s">
+      <c r="C18" s="177" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="172"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="173"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="179"/>
     </row>
     <row r="19" spans="1:10" s="56" customFormat="1">
       <c r="A19" s="59">
@@ -11989,16 +11997,16 @@
       <c r="B19" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="176" t="s">
+      <c r="C19" s="182" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="172"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="173"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="179"/>
     </row>
     <row r="20" spans="1:10" s="56" customFormat="1">
       <c r="A20" s="59">
@@ -12007,16 +12015,16 @@
       <c r="B20" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="176" t="s">
+      <c r="C20" s="182" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="172"/>
-      <c r="J20" s="173"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="179"/>
     </row>
     <row r="21" spans="1:10" s="56" customFormat="1">
       <c r="A21" s="59">
@@ -12025,56 +12033,56 @@
       <c r="B21" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="176" t="s">
+      <c r="C21" s="182" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="172"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="173"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="179"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1">
-      <c r="A22" s="149"/>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="150"/>
-      <c r="I22" s="150"/>
-      <c r="J22" s="151"/>
+      <c r="A22" s="155"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="23" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="161" t="s">
+      <c r="A23" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="162"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="162"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="162"/>
-      <c r="J23" s="163"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="168"/>
+      <c r="J23" s="169"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1" ht="36" customHeight="1">
-      <c r="A24" s="165" t="s">
+      <c r="A24" s="171" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="166"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="166"/>
-      <c r="E24" s="166"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="166"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="166"/>
-      <c r="J24" s="167"/>
+      <c r="B24" s="172"/>
+      <c r="C24" s="172"/>
+      <c r="D24" s="172"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="172"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="173"/>
     </row>
     <row r="25" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="59" t="s">
@@ -12083,16 +12091,16 @@
       <c r="B25" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="168" t="s">
+      <c r="C25" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="169"/>
-      <c r="H25" s="169"/>
-      <c r="I25" s="169"/>
-      <c r="J25" s="170"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="176"/>
     </row>
     <row r="26" spans="1:10" s="56" customFormat="1" ht="33" customHeight="1">
       <c r="A26" s="59">
@@ -12101,16 +12109,16 @@
       <c r="B26" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="171" t="s">
+      <c r="C26" s="177" t="s">
         <v>169</v>
       </c>
-      <c r="D26" s="172"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="173"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="178"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="179"/>
     </row>
     <row r="27" spans="1:10" s="56" customFormat="1" ht="32.25" customHeight="1">
       <c r="A27" s="59">
@@ -12119,16 +12127,16 @@
       <c r="B27" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="171" t="s">
+      <c r="C27" s="177" t="s">
         <v>168</v>
       </c>
-      <c r="D27" s="172"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="173"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="179"/>
     </row>
     <row r="28" spans="1:10" s="56" customFormat="1">
       <c r="A28" s="59">
@@ -12137,16 +12145,16 @@
       <c r="B28" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="176" t="s">
+      <c r="C28" s="182" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="172"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="173"/>
+      <c r="D28" s="178"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="178"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="179"/>
     </row>
     <row r="29" spans="1:10" s="56" customFormat="1">
       <c r="A29" s="59">
@@ -12155,16 +12163,16 @@
       <c r="B29" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="176" t="s">
+      <c r="C29" s="182" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="172"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="172"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="173"/>
+      <c r="D29" s="178"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="178"/>
+      <c r="H29" s="178"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="179"/>
     </row>
     <row r="30" spans="1:10" s="56" customFormat="1">
       <c r="A30" s="59">
@@ -12173,19 +12181,19 @@
       <c r="B30" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="176" t="s">
+      <c r="C30" s="182" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="172"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="172"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="173"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="179"/>
     </row>
     <row r="31" spans="1:10" s="56" customFormat="1">
-      <c r="A31" s="149"/>
+      <c r="A31" s="155"/>
       <c r="B31" s="208"/>
       <c r="C31" s="208"/>
       <c r="D31" s="208"/>
@@ -12197,18 +12205,18 @@
       <c r="J31" s="209"/>
     </row>
     <row r="32" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="161" t="s">
+      <c r="A32" s="167" t="s">
         <v>187</v>
       </c>
-      <c r="B32" s="162"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="162"/>
-      <c r="H32" s="162"/>
-      <c r="I32" s="162"/>
-      <c r="J32" s="163"/>
+      <c r="B32" s="168"/>
+      <c r="C32" s="168"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="168"/>
+      <c r="H32" s="168"/>
+      <c r="I32" s="168"/>
+      <c r="J32" s="169"/>
     </row>
     <row r="33" spans="1:12" s="77" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="60" t="s">
@@ -12239,14 +12247,14 @@
         <v>1</v>
       </c>
       <c r="B34" s="134" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C34" s="93" t="s">
         <v>194</v>
       </c>
       <c r="D34" s="92"/>
-      <c r="E34" s="164" t="s">
-        <v>241</v>
+      <c r="E34" s="170" t="s">
+        <v>239</v>
       </c>
       <c r="F34" s="105"/>
       <c r="G34" s="105"/>
@@ -12282,7 +12290,7 @@
       </c>
       <c r="D36" s="69"/>
       <c r="E36" s="142" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F36" s="143"/>
       <c r="G36" s="143"/>
@@ -12297,7 +12305,7 @@
         <v>200</v>
       </c>
       <c r="D37" s="85" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E37" s="145" t="s">
         <v>202</v>
@@ -12309,32 +12317,32 @@
       <c r="J37" s="146"/>
     </row>
     <row r="38" spans="1:12" s="56" customFormat="1">
-      <c r="A38" s="187" t="s">
-        <v>244</v>
-      </c>
-      <c r="B38" s="188"/>
-      <c r="C38" s="188"/>
-      <c r="D38" s="188"/>
-      <c r="E38" s="188"/>
-      <c r="F38" s="188"/>
-      <c r="G38" s="188"/>
-      <c r="H38" s="188"/>
-      <c r="I38" s="188"/>
-      <c r="J38" s="189"/>
+      <c r="A38" s="147" t="s">
+        <v>242</v>
+      </c>
+      <c r="B38" s="148"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="149"/>
     </row>
     <row r="39" spans="1:12" s="56" customFormat="1" ht="37.5" customHeight="1">
       <c r="A39" s="134">
         <v>1</v>
       </c>
-      <c r="B39" s="191" t="s">
-        <v>245</v>
+      <c r="B39" s="151" t="s">
+        <v>243</v>
       </c>
       <c r="C39" s="82" t="s">
         <v>205</v>
       </c>
       <c r="D39" s="85"/>
-      <c r="E39" s="164" t="s">
-        <v>246</v>
+      <c r="E39" s="170" t="s">
+        <v>244</v>
       </c>
       <c r="F39" s="105"/>
       <c r="G39" s="105"/>
@@ -12343,16 +12351,16 @@
       <c r="J39" s="105"/>
     </row>
     <row r="40" spans="1:12" s="56" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A40" s="190"/>
-      <c r="B40" s="192"/>
+      <c r="A40" s="150"/>
+      <c r="B40" s="152"/>
       <c r="C40" s="78" t="s">
         <v>212</v>
       </c>
       <c r="D40" s="83" t="s">
         <v>208</v>
       </c>
-      <c r="E40" s="193" t="s">
-        <v>247</v>
+      <c r="E40" s="196" t="s">
+        <v>245</v>
       </c>
       <c r="F40" s="219"/>
       <c r="G40" s="219"/>
@@ -12360,19 +12368,19 @@
       <c r="I40" s="219"/>
       <c r="J40" s="220"/>
     </row>
-    <row r="41" spans="1:12" s="56" customFormat="1" ht="37.5" customHeight="1">
+    <row r="41" spans="1:12" s="56" customFormat="1" ht="81" customHeight="1">
       <c r="A41" s="67">
         <v>2</v>
       </c>
       <c r="B41" s="68" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C41" s="82" t="s">
         <v>205</v>
       </c>
       <c r="D41" s="83"/>
       <c r="E41" s="221" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="F41" s="222"/>
       <c r="G41" s="222"/>
@@ -12387,10 +12395,10 @@
         <v>207</v>
       </c>
       <c r="D42" s="87" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E42" s="215" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F42" s="216"/>
       <c r="G42" s="216"/>
@@ -12402,13 +12410,13 @@
       <c r="A43" s="67"/>
       <c r="B43" s="68"/>
       <c r="C43" s="85" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D43" s="89" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E43" s="125" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F43" s="217"/>
       <c r="G43" s="217"/>
@@ -12420,13 +12428,13 @@
       <c r="A44" s="67"/>
       <c r="B44" s="68"/>
       <c r="C44" s="85" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D44" s="89" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E44" s="125" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F44" s="217"/>
       <c r="G44" s="217"/>
@@ -12446,7 +12454,7 @@
       </c>
       <c r="D45" s="84"/>
       <c r="E45" s="125" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="F45" s="109"/>
       <c r="G45" s="109"/>
@@ -12701,7 +12709,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="147" t="s">
+      <c r="K1" s="153" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="39"/>
@@ -12728,7 +12736,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="148"/>
+      <c r="K2" s="154"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -12746,7 +12754,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="148"/>
+      <c r="K3" s="154"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -12835,7 +12843,7 @@
         <v>125</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -12907,7 +12915,7 @@
         <v>125</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="J11" s="42" t="s">
         <v>0</v>
@@ -13085,8 +13093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46:J46"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13115,7 +13123,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="147" t="s">
+      <c r="K1" s="153" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="54"/>
@@ -13136,7 +13144,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="148"/>
+      <c r="K2" s="154"/>
     </row>
     <row r="3" spans="1:17" s="55" customFormat="1">
       <c r="A3" s="47"/>
@@ -13149,7 +13157,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="148"/>
+      <c r="K3" s="154"/>
     </row>
     <row r="4" spans="1:17" s="55" customFormat="1">
       <c r="A4" s="47"/>
@@ -13164,7 +13172,7 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="158" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="107"/>
@@ -13190,45 +13198,45 @@
       <c r="J6" s="113"/>
     </row>
     <row r="7" spans="1:17" s="56" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="153"/>
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="156"/>
+      <c r="A7" s="159"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="162"/>
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:17" s="56" customFormat="1">
-      <c r="A8" s="153"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="156"/>
+      <c r="A8" s="159"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="162"/>
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:17" s="56" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="157"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="158"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="158"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="158"/>
-      <c r="J9" s="159"/>
+      <c r="A9" s="163"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="165"/>
     </row>
     <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="152" t="s">
+      <c r="A10" s="158" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="107"/>
@@ -13242,7 +13250,7 @@
       <c r="J10" s="108"/>
     </row>
     <row r="11" spans="1:17" s="58" customFormat="1" ht="129" customHeight="1">
-      <c r="A11" s="160" t="s">
+      <c r="A11" s="166" t="s">
         <v>183</v>
       </c>
       <c r="B11" s="109"/>
@@ -13256,7 +13264,7 @@
       <c r="J11" s="110"/>
     </row>
     <row r="12" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="152" t="s">
+      <c r="A12" s="158" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="107"/>
@@ -13270,7 +13278,7 @@
       <c r="J12" s="108"/>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="160" t="s">
+      <c r="A13" s="166" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="109"/>
@@ -13284,7 +13292,7 @@
       <c r="J13" s="110"/>
     </row>
     <row r="14" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="152" t="s">
+      <c r="A14" s="158" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="107"/>
@@ -13298,18 +13306,18 @@
       <c r="J14" s="108"/>
     </row>
     <row r="15" spans="1:17" s="56" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A15" s="165" t="s">
+      <c r="A15" s="171" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="166"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="166"/>
-      <c r="I15" s="166"/>
-      <c r="J15" s="167"/>
+      <c r="B15" s="172"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="173"/>
     </row>
     <row r="16" spans="1:17" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="59" t="s">
@@ -13318,16 +13326,16 @@
       <c r="B16" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="168" t="s">
+      <c r="C16" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="170"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="176"/>
     </row>
     <row r="17" spans="1:10" s="56" customFormat="1" ht="71.25" customHeight="1">
       <c r="A17" s="59">
@@ -13336,16 +13344,16 @@
       <c r="B17" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="171" t="s">
+      <c r="C17" s="177" t="s">
         <v>178</v>
       </c>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="173"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="179"/>
     </row>
     <row r="18" spans="1:10" s="56" customFormat="1" ht="69.75" customHeight="1">
       <c r="A18" s="59">
@@ -13354,16 +13362,16 @@
       <c r="B18" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="171" t="s">
+      <c r="C18" s="177" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="172"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="173"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="179"/>
     </row>
     <row r="19" spans="1:10" s="56" customFormat="1">
       <c r="A19" s="59">
@@ -13372,16 +13380,16 @@
       <c r="B19" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="176" t="s">
+      <c r="C19" s="182" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="172"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="173"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="179"/>
     </row>
     <row r="20" spans="1:10" s="56" customFormat="1">
       <c r="A20" s="59">
@@ -13390,16 +13398,16 @@
       <c r="B20" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="176" t="s">
+      <c r="C20" s="182" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="172"/>
-      <c r="J20" s="173"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="179"/>
     </row>
     <row r="21" spans="1:10" s="56" customFormat="1">
       <c r="A21" s="59">
@@ -13408,16 +13416,16 @@
       <c r="B21" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="176" t="s">
+      <c r="C21" s="182" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="172"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="173"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="179"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1">
       <c r="A22" s="128"/>
@@ -13432,60 +13440,60 @@
       <c r="J22" s="129"/>
     </row>
     <row r="23" spans="1:10" s="56" customFormat="1">
-      <c r="A23" s="165" t="s">
+      <c r="A23" s="171" t="s">
         <v>136</v>
       </c>
-      <c r="B23" s="166"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="166"/>
-      <c r="H23" s="166"/>
-      <c r="I23" s="166"/>
-      <c r="J23" s="167"/>
+      <c r="B23" s="172"/>
+      <c r="C23" s="172"/>
+      <c r="D23" s="172"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="172"/>
+      <c r="J23" s="173"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1" ht="28.5" customHeight="1">
       <c r="A24" s="224" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="150"/>
-      <c r="C24" s="150"/>
-      <c r="D24" s="150"/>
-      <c r="E24" s="150"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="150"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="150"/>
-      <c r="J24" s="151"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="157"/>
     </row>
     <row r="25" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="161" t="s">
+      <c r="A25" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="162"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="162"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="162"/>
-      <c r="H25" s="162"/>
-      <c r="I25" s="162"/>
-      <c r="J25" s="163"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="168"/>
+      <c r="H25" s="168"/>
+      <c r="I25" s="168"/>
+      <c r="J25" s="169"/>
     </row>
     <row r="26" spans="1:10" s="56" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A26" s="165" t="s">
+      <c r="A26" s="171" t="s">
         <v>140</v>
       </c>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="166"/>
-      <c r="H26" s="166"/>
-      <c r="I26" s="166"/>
-      <c r="J26" s="167"/>
+      <c r="B26" s="172"/>
+      <c r="C26" s="172"/>
+      <c r="D26" s="172"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="173"/>
     </row>
     <row r="27" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="59" t="s">
@@ -13494,16 +13502,16 @@
       <c r="B27" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="168" t="s">
+      <c r="C27" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="169"/>
-      <c r="E27" s="169"/>
-      <c r="F27" s="169"/>
-      <c r="G27" s="169"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="169"/>
-      <c r="J27" s="170"/>
+      <c r="D27" s="175"/>
+      <c r="E27" s="175"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="175"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="176"/>
     </row>
     <row r="28" spans="1:10" s="56" customFormat="1" ht="33" customHeight="1">
       <c r="A28" s="59">
@@ -13512,16 +13520,16 @@
       <c r="B28" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="171" t="s">
+      <c r="C28" s="177" t="s">
         <v>171</v>
       </c>
-      <c r="D28" s="172"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="173"/>
+      <c r="D28" s="178"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="178"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="179"/>
     </row>
     <row r="29" spans="1:10" s="56" customFormat="1" ht="32.25" customHeight="1">
       <c r="A29" s="59">
@@ -13530,16 +13538,16 @@
       <c r="B29" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="171" t="s">
+      <c r="C29" s="177" t="s">
         <v>170</v>
       </c>
-      <c r="D29" s="172"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="172"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="173"/>
+      <c r="D29" s="178"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="178"/>
+      <c r="H29" s="178"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="179"/>
     </row>
     <row r="30" spans="1:10" s="56" customFormat="1">
       <c r="A30" s="59">
@@ -13548,16 +13556,16 @@
       <c r="B30" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="176" t="s">
+      <c r="C30" s="182" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="172"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="172"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="173"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="178"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="178"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="179"/>
     </row>
     <row r="31" spans="1:10" s="56" customFormat="1">
       <c r="A31" s="59">
@@ -13566,16 +13574,16 @@
       <c r="B31" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="176" t="s">
+      <c r="C31" s="182" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="172"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="172"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="173"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="178"/>
+      <c r="F31" s="178"/>
+      <c r="G31" s="178"/>
+      <c r="H31" s="178"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="179"/>
     </row>
     <row r="32" spans="1:10" s="56" customFormat="1">
       <c r="A32" s="59">
@@ -13584,19 +13592,19 @@
       <c r="B32" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="176" t="s">
+      <c r="C32" s="182" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="172"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="172"/>
-      <c r="I32" s="172"/>
-      <c r="J32" s="173"/>
+      <c r="D32" s="178"/>
+      <c r="E32" s="178"/>
+      <c r="F32" s="178"/>
+      <c r="G32" s="178"/>
+      <c r="H32" s="178"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="179"/>
     </row>
     <row r="33" spans="1:12" s="56" customFormat="1">
-      <c r="A33" s="149"/>
+      <c r="A33" s="155"/>
       <c r="B33" s="208"/>
       <c r="C33" s="208"/>
       <c r="D33" s="208"/>
@@ -13608,22 +13616,22 @@
       <c r="J33" s="209"/>
     </row>
     <row r="34" spans="1:12" s="56" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A34" s="165" t="s">
-        <v>258</v>
-      </c>
-      <c r="B34" s="166"/>
-      <c r="C34" s="166"/>
-      <c r="D34" s="166"/>
-      <c r="E34" s="166"/>
-      <c r="F34" s="166"/>
-      <c r="G34" s="166"/>
-      <c r="H34" s="166"/>
-      <c r="I34" s="166"/>
-      <c r="J34" s="167"/>
+      <c r="A34" s="171" t="s">
+        <v>254</v>
+      </c>
+      <c r="B34" s="172"/>
+      <c r="C34" s="172"/>
+      <c r="D34" s="172"/>
+      <c r="E34" s="172"/>
+      <c r="F34" s="172"/>
+      <c r="G34" s="172"/>
+      <c r="H34" s="172"/>
+      <c r="I34" s="172"/>
+      <c r="J34" s="173"/>
     </row>
     <row r="35" spans="1:12" s="56" customFormat="1" ht="27" customHeight="1">
       <c r="A35" s="225" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B35" s="105"/>
       <c r="C35" s="105"/>
@@ -13636,18 +13644,18 @@
       <c r="J35" s="226"/>
     </row>
     <row r="36" spans="1:12" s="77" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="161" t="s">
+      <c r="A36" s="167" t="s">
         <v>187</v>
       </c>
-      <c r="B36" s="162"/>
-      <c r="C36" s="162"/>
-      <c r="D36" s="162"/>
-      <c r="E36" s="162"/>
-      <c r="F36" s="162"/>
-      <c r="G36" s="162"/>
-      <c r="H36" s="162"/>
-      <c r="I36" s="162"/>
-      <c r="J36" s="163"/>
+      <c r="B36" s="168"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="168"/>
+      <c r="G36" s="168"/>
+      <c r="H36" s="168"/>
+      <c r="I36" s="168"/>
+      <c r="J36" s="169"/>
       <c r="K36" s="56"/>
       <c r="L36" s="56"/>
     </row>
@@ -13678,14 +13686,14 @@
         <v>1</v>
       </c>
       <c r="B38" s="134" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C38" s="93" t="s">
         <v>194</v>
       </c>
       <c r="D38" s="92"/>
-      <c r="E38" s="164" t="s">
-        <v>261</v>
+      <c r="E38" s="170" t="s">
+        <v>257</v>
       </c>
       <c r="F38" s="105"/>
       <c r="G38" s="105"/>
@@ -13699,13 +13707,13 @@
       <c r="A39" s="135"/>
       <c r="B39" s="135"/>
       <c r="C39" s="85" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D39" s="93" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E39" s="142" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F39" s="143"/>
       <c r="G39" s="143"/>
@@ -13717,13 +13725,13 @@
       <c r="A40" s="135"/>
       <c r="B40" s="135"/>
       <c r="C40" s="85" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D40" s="93" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E40" s="142" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F40" s="143"/>
       <c r="G40" s="143"/>
@@ -13735,13 +13743,13 @@
       <c r="A41" s="135"/>
       <c r="B41" s="135"/>
       <c r="C41" s="85" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D41" s="93" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E41" s="142" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F41" s="143"/>
       <c r="G41" s="143"/>
@@ -13753,11 +13761,11 @@
       <c r="A42" s="135"/>
       <c r="B42" s="135"/>
       <c r="C42" s="85" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D42" s="69"/>
       <c r="E42" s="142" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F42" s="143"/>
       <c r="G42" s="143"/>
@@ -13769,13 +13777,13 @@
       <c r="A43" s="136"/>
       <c r="B43" s="136"/>
       <c r="C43" s="85" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D43" s="85" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E43" s="145" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F43" s="146"/>
       <c r="G43" s="146"/>
@@ -13784,32 +13792,32 @@
       <c r="J43" s="146"/>
     </row>
     <row r="44" spans="1:12" s="58" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A44" s="187" t="s">
-        <v>274</v>
-      </c>
-      <c r="B44" s="188"/>
-      <c r="C44" s="188"/>
-      <c r="D44" s="188"/>
-      <c r="E44" s="188"/>
-      <c r="F44" s="188"/>
-      <c r="G44" s="188"/>
-      <c r="H44" s="188"/>
-      <c r="I44" s="188"/>
-      <c r="J44" s="189"/>
+      <c r="A44" s="147" t="s">
+        <v>270</v>
+      </c>
+      <c r="B44" s="148"/>
+      <c r="C44" s="148"/>
+      <c r="D44" s="148"/>
+      <c r="E44" s="148"/>
+      <c r="F44" s="148"/>
+      <c r="G44" s="148"/>
+      <c r="H44" s="148"/>
+      <c r="I44" s="148"/>
+      <c r="J44" s="149"/>
     </row>
     <row r="45" spans="1:12" s="58" customFormat="1">
       <c r="A45" s="59">
         <v>1</v>
       </c>
       <c r="B45" s="88" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C45" s="94" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D45" s="85"/>
-      <c r="E45" s="164" t="s">
-        <v>277</v>
+      <c r="E45" s="170" t="s">
+        <v>289</v>
       </c>
       <c r="F45" s="105"/>
       <c r="G45" s="105"/>
@@ -13822,50 +13830,50 @@
         <v>2</v>
       </c>
       <c r="B46" s="68" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C46" s="94" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D46" s="83"/>
-      <c r="E46" s="197" t="s">
-        <v>279</v>
-      </c>
-      <c r="F46" s="198"/>
-      <c r="G46" s="198"/>
-      <c r="H46" s="198"/>
-      <c r="I46" s="198"/>
-      <c r="J46" s="199"/>
-    </row>
-    <row r="47" spans="1:12" s="58" customFormat="1" ht="91.5" customHeight="1">
+      <c r="E46" s="193" t="s">
+        <v>274</v>
+      </c>
+      <c r="F46" s="194"/>
+      <c r="G46" s="194"/>
+      <c r="H46" s="194"/>
+      <c r="I46" s="194"/>
+      <c r="J46" s="195"/>
+    </row>
+    <row r="47" spans="1:12" s="58" customFormat="1" ht="150.75" customHeight="1">
       <c r="A47" s="67"/>
       <c r="B47" s="68"/>
       <c r="C47" s="94" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D47" s="90" t="s">
-        <v>286</v>
-      </c>
-      <c r="E47" s="197" t="s">
-        <v>289</v>
-      </c>
-      <c r="F47" s="198"/>
-      <c r="G47" s="198"/>
-      <c r="H47" s="198"/>
-      <c r="I47" s="198"/>
-      <c r="J47" s="199"/>
+        <v>279</v>
+      </c>
+      <c r="E47" s="193" t="s">
+        <v>293</v>
+      </c>
+      <c r="F47" s="194"/>
+      <c r="G47" s="194"/>
+      <c r="H47" s="194"/>
+      <c r="I47" s="194"/>
+      <c r="J47" s="195"/>
     </row>
     <row r="48" spans="1:12" s="58" customFormat="1" ht="33">
       <c r="A48" s="67"/>
       <c r="B48" s="68"/>
       <c r="C48" s="94" t="s">
+        <v>275</v>
+      </c>
+      <c r="D48" s="90" t="s">
         <v>280</v>
       </c>
-      <c r="D48" s="90" t="s">
-        <v>287</v>
-      </c>
       <c r="E48" s="125" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F48" s="217"/>
       <c r="G48" s="217"/>
@@ -13877,13 +13885,13 @@
       <c r="A49" s="67"/>
       <c r="B49" s="68"/>
       <c r="C49" s="94" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D49" s="90" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E49" s="125" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F49" s="217"/>
       <c r="G49" s="217"/>
@@ -13896,14 +13904,14 @@
         <v>3</v>
       </c>
       <c r="B50" s="88" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C50" s="94" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D50" s="84"/>
       <c r="E50" s="125" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F50" s="109"/>
       <c r="G50" s="109"/>
@@ -13948,7 +13956,7 @@
         <v>94</v>
       </c>
       <c r="D53" s="66"/>
-      <c r="E53" s="164" t="s">
+      <c r="E53" s="170" t="s">
         <v>184</v>
       </c>
       <c r="F53" s="105"/>
@@ -13968,7 +13976,7 @@
         <v>94</v>
       </c>
       <c r="D54" s="66"/>
-      <c r="E54" s="164" t="s">
+      <c r="E54" s="170" t="s">
         <v>185</v>
       </c>
       <c r="F54" s="105"/>
@@ -13988,7 +13996,7 @@
         <v>94</v>
       </c>
       <c r="D55" s="66"/>
-      <c r="E55" s="164" t="s">
+      <c r="E55" s="170" t="s">
         <v>186</v>
       </c>
       <c r="F55" s="105"/>
@@ -14149,7 +14157,6 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="E47:J47"/>
     <mergeCell ref="E48:J48"/>
     <mergeCell ref="E49:J49"/>
     <mergeCell ref="E50:J50"/>
@@ -14169,6 +14176,7 @@
     <mergeCell ref="A44:J44"/>
     <mergeCell ref="E45:J45"/>
     <mergeCell ref="E46:J46"/>
+    <mergeCell ref="E47:J47"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="E54:J54"/>
     <mergeCell ref="B63:C63"/>

--- a/APF/RA006/RA006_APF0101_角色維護.xlsx
+++ b/APF/RA006/RA006_APF0101_角色維護.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15360" windowHeight="7665" tabRatio="797" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15360" windowHeight="7665" tabRatio="797" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="301">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -389,67 +389,203 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>Core_Role</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_Role</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>char(1)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:預設角色 1:職稱角色 2:自定角色</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(20)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(20)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtINPUT_GROUP_ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtINPUT_NAME</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string 1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色說明</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtINPUT_REMARK</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>apf_roleprofile</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Core_Role</t>
+    <t>apf_roleprofile</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Core_Role</t>
+    <t>remark</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
+    <t>string 1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
+    <t>string 100</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>source_type</t>
+    <t>_CLICK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>I</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>source_type</t>
+    <t>O</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(10)</t>
+    <t>O</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(10)</t>
+    <t>GROUP_ID</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>char(1)</t>
+    <t>NAME</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>char(1)</t>
+    <t>ENABLE</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>bit</t>
+    <t>SOURCE_TYPE</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>0:預設角色 1:職稱角色 2:自定角色</t>
+    <t>APF0101MM1_Query</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>nvarchar(20)</t>
+    <t>APF0101MA1_Edit</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>nvarchar(20)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>group_id</t>
+    <t>角色代號</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目名稱</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>角色名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>角色來源</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0101MM1_Grid</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>角色生效</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>顯示用。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>檢核項目</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>檢核項目</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>檢核項目</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>預設值</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -457,47 +593,23 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>txtINPUT_NAME</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>string 1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>無。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>角色生效</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>角色說明</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>txtINPUT_REMARK</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(100)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_roleprofile</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_roleprofile</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>string 1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>string 100</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>_CLICK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -505,130 +617,14 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>O</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROUP_ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAME</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENABLE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOURCE_TYPE</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>APF0101MM1_Query</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>APF0101MA1_Edit</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色代號</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>角色名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>角色來源</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>無。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0101MM1_Grid</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>無。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>角色生效</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>顯示用。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>檢核項目</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>檢核項目</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>檢核項目</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>預設值</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>txtINPUT_GROUP_ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>無。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>角色生效</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>角色說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>無。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>無。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>預設值</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>預設值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>無</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -639,10 +635,6 @@
   <si>
     <t>APF0101MU1_Link</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>group_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>APF0101MM1_Grid</t>
@@ -932,22 +924,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>輸入之角色名稱不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 11。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入之角色代號不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 11。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入之角色名稱不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 11。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入之角色代號不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 11。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>View</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -967,32 +943,6 @@
     <t>1.前畫面:首頁
 1.1 SESSION內容:
 1.2 成立條件:該使用者擁有此功能查詢權限，新增、刪除、明細、匯出按鈕的enable/disable，依權限設定決定。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-格式:英數字
-最大長度限制:英文10(控制項控制)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-格式:英數字
-最大長度限制:英文10(控制項控制)
-必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 35，並將cursor停留於該欄位且顏色反橘。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-格式:中英數字
-最大長度限制:中文20(控制項控制)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-格式:中英數字
-最大長度限制:中文20(控制項控制)
-必填欄位。若空白時，出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 35，並將cursor停留於該欄位且顏色反橘。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1513,6 +1463,88 @@
   <si>
     <t xml:space="preserve">1.匯出筆數若大於65535筆，系統提示訊息，訊息內容請參考APF訊息表-APF_NO 34。
 2.小於65535筆則呼叫[APFRoleController.Excel]Method </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>群組識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_Role</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>V = invisible，不顯示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:英數字
+最大長度限制:英文10(控制項控制)
+前端檢核訊息，請參考APF訊息表。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:中英數字
+最大長度限制:中文20(控制項控制)
+前端檢核訊息，請參考APF訊息表。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:英數字
+最大長度限制:英文10(控制項控制)
+必填欄位。
+前端檢核訊息，請參考APF訊息表。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:中英數字
+最大長度限制:中文20(控制項控制)
+必填欄位。
+前端檢核訊息，請參考APF訊息表。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入之角色代號不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 49。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入之角色名稱不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 49。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:中英數字
+最大長度限制:中文20(控制項控制)
+必填欄位。
+前端檢核訊息，請參考APF訊息表。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入之角色代號不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 50。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入之角色名稱不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 50。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2036,7 +2068,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2311,6 +2343,12 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2470,6 +2508,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2589,15 +2636,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3740,13 +3778,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>9524</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>83</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:row>84</xdr:row>
+          <xdr:rowOff>171449</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3798,7 +3836,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>666750</xdr:colOff>
           <xdr:row>98</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>142875</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4954,7 +4992,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="66675"/>
-          <a:ext cx="10283825" cy="597958"/>
+          <a:ext cx="10277475" cy="590550"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
@@ -8563,7 +8601,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -8576,12 +8614,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="30" t="s">
@@ -8613,10 +8651,10 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="33" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="35" t="s">
@@ -8624,11 +8662,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="102" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="81" t="s">
@@ -8636,57 +8674,57 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="100"/>
+      <c r="A6" s="102"/>
       <c r="B6" s="34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="35" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="102" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="100"/>
+      <c r="A8" s="102"/>
       <c r="B8" s="34" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="102" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
-      <c r="A10" s="100"/>
+      <c r="A10" s="102"/>
       <c r="B10" s="34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1" thickBot="1">
@@ -8779,7 +8817,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="153" t="s">
+      <c r="K1" s="158" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="39"/>
@@ -8806,7 +8844,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="154"/>
+      <c r="K2" s="159"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -8824,7 +8862,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="154"/>
+      <c r="K3" s="159"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -8868,18 +8906,18 @@
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="205" t="s">
+      <c r="A6" s="207" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="206"/>
-      <c r="C6" s="206"/>
-      <c r="D6" s="206"/>
-      <c r="E6" s="206"/>
-      <c r="F6" s="206"/>
-      <c r="G6" s="206"/>
-      <c r="H6" s="206"/>
-      <c r="I6" s="206"/>
-      <c r="J6" s="207"/>
+      <c r="B6" s="208"/>
+      <c r="C6" s="208"/>
+      <c r="D6" s="208"/>
+      <c r="E6" s="208"/>
+      <c r="F6" s="208"/>
+      <c r="G6" s="208"/>
+      <c r="H6" s="208"/>
+      <c r="I6" s="208"/>
+      <c r="J6" s="209"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -8895,10 +8933,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>21</v>
@@ -8910,10 +8948,10 @@
         <v>15</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -8946,18 +8984,18 @@
       <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="205" t="s">
+      <c r="A10" s="207" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="206"/>
-      <c r="C10" s="206"/>
-      <c r="D10" s="206"/>
-      <c r="E10" s="206"/>
-      <c r="F10" s="206"/>
-      <c r="G10" s="206"/>
-      <c r="H10" s="206"/>
-      <c r="I10" s="206"/>
-      <c r="J10" s="207"/>
+      <c r="B10" s="208"/>
+      <c r="C10" s="208"/>
+      <c r="D10" s="208"/>
+      <c r="E10" s="208"/>
+      <c r="F10" s="208"/>
+      <c r="G10" s="208"/>
+      <c r="H10" s="208"/>
+      <c r="I10" s="208"/>
+      <c r="J10" s="209"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="42" t="s">
@@ -8967,10 +9005,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E11" s="42" t="s">
         <v>21</v>
@@ -8982,10 +9020,10 @@
         <v>15</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="J11" s="42" t="s">
         <v>0</v>
@@ -8999,7 +9037,7 @@
         <v>56</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="45" t="s">
         <v>23</v>
@@ -9008,14 +9046,14 @@
         <v>64</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J12" s="48"/>
     </row>
@@ -9027,23 +9065,23 @@
         <v>57</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="45" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J13" s="51"/>
     </row>
@@ -9055,10 +9093,10 @@
         <v>60</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="45" t="s">
         <v>62</v>
@@ -9067,11 +9105,11 @@
         <v>63</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="43" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J14" s="48"/>
     </row>
@@ -9080,26 +9118,26 @@
         <v>4</v>
       </c>
       <c r="B15" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="D15" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="45" t="s">
         <v>87</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>88</v>
       </c>
       <c r="H15" s="45"/>
       <c r="I15" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J15" s="48"/>
     </row>
@@ -9111,26 +9149,26 @@
         <v>58</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H16" s="49"/>
       <c r="I16" s="43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J16" s="51" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -9398,8 +9436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N78" sqref="N78"/>
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O89" sqref="O89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9414,15 +9452,15 @@
       <c r="A1" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="114" t="s">
+      <c r="M1" s="116" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="115"/>
+      <c r="M2" s="117"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="115"/>
+      <c r="M3" s="117"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -9439,208 +9477,208 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="124"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="126"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="111" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="113"/>
+      <c r="A6" s="113" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="115"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="106" t="s">
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="108"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="110"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="104" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="109" t="s">
+      <c r="A8" s="106" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="110"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="112"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="117"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="106" t="s">
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="108"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="110"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="109" t="s">
-        <v>165</v>
-      </c>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="110"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="111" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="112"/>
     </row>
     <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="122" t="s">
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="108"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="110"/>
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="110"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="112"/>
     </row>
     <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="122" t="s">
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="108"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="110"/>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="110"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="112"/>
     </row>
     <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="118" t="s">
-        <v>166</v>
-      </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="110"/>
+      <c r="A15" s="120" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="112"/>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="119" t="s">
+      <c r="A86" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="B86" s="120"/>
-      <c r="C86" s="120"/>
-      <c r="D86" s="120"/>
-      <c r="E86" s="120"/>
-      <c r="F86" s="120"/>
-      <c r="G86" s="120"/>
-      <c r="H86" s="120"/>
-      <c r="I86" s="120"/>
-      <c r="J86" s="120"/>
-      <c r="K86" s="120"/>
-      <c r="L86" s="121"/>
+      <c r="B86" s="122"/>
+      <c r="C86" s="122"/>
+      <c r="D86" s="122"/>
+      <c r="E86" s="122"/>
+      <c r="F86" s="122"/>
+      <c r="G86" s="122"/>
+      <c r="H86" s="122"/>
+      <c r="I86" s="122"/>
+      <c r="J86" s="122"/>
+      <c r="K86" s="122"/>
+      <c r="L86" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -9691,8 +9729,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>83</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:row>85</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -9717,7 +9755,7 @@
                 <xdr:col>11</xdr:col>
                 <xdr:colOff>666750</xdr:colOff>
                 <xdr:row>98</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -9742,15 +9780,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="114" t="s">
+      <c r="P1" s="116" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="115"/>
+      <c r="P2" s="117"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="115"/>
+      <c r="P3" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9800,8 +9838,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9831,7 +9869,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="153" t="s">
+      <c r="K1" s="158" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="54"/>
@@ -9852,7 +9890,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="154"/>
+      <c r="K2" s="159"/>
     </row>
     <row r="3" spans="1:17" s="55" customFormat="1">
       <c r="A3" s="47"/>
@@ -9865,7 +9903,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="154"/>
+      <c r="K3" s="159"/>
     </row>
     <row r="4" spans="1:17" s="55" customFormat="1">
       <c r="A4" s="47"/>
@@ -9880,1158 +9918,1158 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="163" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="110"/>
     </row>
     <row r="6" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="111"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="113"/>
+      <c r="A6" s="113"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="115"/>
     </row>
     <row r="7" spans="1:17" s="56" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="159"/>
-      <c r="B7" s="160"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="162"/>
+      <c r="A7" s="164"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="167"/>
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:17" s="56" customFormat="1">
-      <c r="A8" s="159"/>
-      <c r="B8" s="160"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="162"/>
+      <c r="A8" s="164"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="167"/>
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:17" s="56" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="163"/>
-      <c r="B9" s="164"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="165"/>
+      <c r="A9" s="168"/>
+      <c r="B9" s="169"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="170"/>
     </row>
     <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="158" t="s">
+      <c r="A10" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="108"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="110"/>
     </row>
     <row r="11" spans="1:17" s="58" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="166" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="110"/>
+      <c r="A11" s="171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="112"/>
     </row>
     <row r="12" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="158" t="s">
+      <c r="A12" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="108"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="110"/>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="166" t="s">
+      <c r="A13" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="110"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="112"/>
     </row>
     <row r="14" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="158" t="s">
+      <c r="A14" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="108"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="110"/>
     </row>
     <row r="15" spans="1:17" s="56" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="171" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="172"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="173"/>
+      <c r="A15" s="176" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="177"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="178"/>
     </row>
     <row r="16" spans="1:17" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="174" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="175"/>
-      <c r="E16" s="175"/>
-      <c r="F16" s="175"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="175"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="176"/>
-    </row>
-    <row r="17" spans="1:10" s="56" customFormat="1" ht="49.5" customHeight="1">
+        <v>105</v>
+      </c>
+      <c r="C16" s="179" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="180"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="180"/>
+      <c r="J16" s="181"/>
+    </row>
+    <row r="17" spans="1:10" s="56" customFormat="1" ht="71.25" customHeight="1">
       <c r="A17" s="59">
         <v>1</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="177" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="179"/>
-    </row>
-    <row r="18" spans="1:10" s="56" customFormat="1" ht="53.25" customHeight="1">
+        <v>103</v>
+      </c>
+      <c r="C17" s="182" t="s">
+        <v>292</v>
+      </c>
+      <c r="D17" s="183"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="183"/>
+      <c r="G17" s="183"/>
+      <c r="H17" s="183"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="184"/>
+    </row>
+    <row r="18" spans="1:10" s="56" customFormat="1" ht="69" customHeight="1">
       <c r="A18" s="59">
         <v>2</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="177" t="s">
-        <v>179</v>
-      </c>
-      <c r="D18" s="178"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="178"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="179"/>
+        <v>106</v>
+      </c>
+      <c r="C18" s="182" t="s">
+        <v>293</v>
+      </c>
+      <c r="D18" s="183"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="184"/>
     </row>
     <row r="19" spans="1:10" s="56" customFormat="1">
       <c r="A19" s="59">
         <v>3</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="177" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="178"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="178"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="179"/>
+        <v>107</v>
+      </c>
+      <c r="C19" s="182" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="183"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="183"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="183"/>
+      <c r="I19" s="183"/>
+      <c r="J19" s="184"/>
     </row>
     <row r="20" spans="1:10" s="56" customFormat="1">
-      <c r="A20" s="128"/>
-      <c r="B20" s="133"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133"/>
-      <c r="J20" s="129"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="131"/>
     </row>
     <row r="21" spans="1:10" s="56" customFormat="1">
-      <c r="A21" s="171" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" s="172"/>
-      <c r="C21" s="172"/>
-      <c r="D21" s="172"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="173"/>
+      <c r="A21" s="176" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="177"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="178"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="174" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="175"/>
-      <c r="H22" s="175"/>
-      <c r="I22" s="175"/>
-      <c r="J22" s="176"/>
+        <v>105</v>
+      </c>
+      <c r="C22" s="179" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="180"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="180"/>
+      <c r="I22" s="180"/>
+      <c r="J22" s="181"/>
     </row>
     <row r="23" spans="1:10" s="56" customFormat="1">
       <c r="A23" s="59">
         <v>1</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="182" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="178"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="179"/>
+        <v>103</v>
+      </c>
+      <c r="C23" s="187" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="183"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="183"/>
+      <c r="G23" s="183"/>
+      <c r="H23" s="183"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="184"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1">
       <c r="A24" s="59">
         <v>2</v>
       </c>
       <c r="B24" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="182" t="s">
-        <v>113</v>
-      </c>
-      <c r="D24" s="178"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="179"/>
+        <v>106</v>
+      </c>
+      <c r="C24" s="187" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="183"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="184"/>
     </row>
     <row r="25" spans="1:10" s="56" customFormat="1">
       <c r="A25" s="59">
         <v>3</v>
       </c>
       <c r="B25" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="187" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="182" t="s">
-        <v>113</v>
-      </c>
-      <c r="D25" s="178"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="179"/>
+      <c r="D25" s="183"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="183"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="183"/>
+      <c r="I25" s="183"/>
+      <c r="J25" s="184"/>
     </row>
     <row r="26" spans="1:10" s="56" customFormat="1">
       <c r="A26" s="59">
         <v>4</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="182" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="178"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="178"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="179"/>
+        <v>107</v>
+      </c>
+      <c r="C26" s="187" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="183"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="183"/>
+      <c r="G26" s="183"/>
+      <c r="H26" s="183"/>
+      <c r="I26" s="183"/>
+      <c r="J26" s="184"/>
     </row>
     <row r="27" spans="1:10" s="56" customFormat="1">
-      <c r="A27" s="155"/>
-      <c r="B27" s="156"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="157"/>
+      <c r="A27" s="160"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="162"/>
     </row>
     <row r="28" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="167" t="s">
+      <c r="A28" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="168"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="168"/>
-      <c r="H28" s="168"/>
-      <c r="I28" s="168"/>
-      <c r="J28" s="169"/>
+      <c r="B28" s="173"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="173"/>
+      <c r="G28" s="173"/>
+      <c r="H28" s="173"/>
+      <c r="I28" s="173"/>
+      <c r="J28" s="174"/>
     </row>
     <row r="29" spans="1:10" s="56" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="171" t="s">
-        <v>137</v>
-      </c>
-      <c r="B29" s="172"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="172"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="172"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="173"/>
+      <c r="A29" s="176" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="177"/>
+      <c r="C29" s="177"/>
+      <c r="D29" s="177"/>
+      <c r="E29" s="177"/>
+      <c r="F29" s="177"/>
+      <c r="G29" s="177"/>
+      <c r="H29" s="177"/>
+      <c r="I29" s="177"/>
+      <c r="J29" s="178"/>
     </row>
     <row r="30" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="174" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" s="175"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="175"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="175"/>
-      <c r="I30" s="175"/>
-      <c r="J30" s="176"/>
+        <v>105</v>
+      </c>
+      <c r="C30" s="179" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="180"/>
+      <c r="E30" s="180"/>
+      <c r="F30" s="180"/>
+      <c r="G30" s="180"/>
+      <c r="H30" s="180"/>
+      <c r="I30" s="180"/>
+      <c r="J30" s="181"/>
     </row>
     <row r="31" spans="1:10" s="56" customFormat="1">
       <c r="A31" s="59">
         <v>1</v>
       </c>
       <c r="B31" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="183" t="s">
-        <v>175</v>
-      </c>
-      <c r="D31" s="184"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="184"/>
-      <c r="G31" s="184"/>
-      <c r="H31" s="184"/>
-      <c r="I31" s="184"/>
-      <c r="J31" s="185"/>
+        <v>103</v>
+      </c>
+      <c r="C31" s="188" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="189"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="189"/>
+      <c r="G31" s="189"/>
+      <c r="H31" s="189"/>
+      <c r="I31" s="189"/>
+      <c r="J31" s="190"/>
     </row>
     <row r="32" spans="1:10" s="56" customFormat="1">
       <c r="A32" s="59">
         <v>2</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="186"/>
-      <c r="D32" s="187"/>
-      <c r="E32" s="187"/>
-      <c r="F32" s="187"/>
-      <c r="G32" s="187"/>
-      <c r="H32" s="187"/>
-      <c r="I32" s="187"/>
-      <c r="J32" s="188"/>
+        <v>106</v>
+      </c>
+      <c r="C32" s="191"/>
+      <c r="D32" s="192"/>
+      <c r="E32" s="192"/>
+      <c r="F32" s="192"/>
+      <c r="G32" s="192"/>
+      <c r="H32" s="192"/>
+      <c r="I32" s="192"/>
+      <c r="J32" s="193"/>
     </row>
     <row r="33" spans="1:12" s="56" customFormat="1">
       <c r="A33" s="59">
         <v>3</v>
       </c>
       <c r="B33" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="187" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="182" t="s">
+      <c r="D33" s="183"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="183"/>
+      <c r="H33" s="183"/>
+      <c r="I33" s="183"/>
+      <c r="J33" s="184"/>
+    </row>
+    <row r="34" spans="1:12" s="56" customFormat="1">
+      <c r="A34" s="130"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="135"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="135"/>
+      <c r="J34" s="131"/>
+    </row>
+    <row r="35" spans="1:12" s="56" customFormat="1">
+      <c r="A35" s="176" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="178"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="178"/>
-      <c r="G33" s="178"/>
-      <c r="H33" s="178"/>
-      <c r="I33" s="178"/>
-      <c r="J33" s="179"/>
-    </row>
-    <row r="34" spans="1:12" s="56" customFormat="1">
-      <c r="A34" s="128"/>
-      <c r="B34" s="133"/>
-      <c r="C34" s="133"/>
-      <c r="D34" s="133"/>
-      <c r="E34" s="133"/>
-      <c r="F34" s="133"/>
-      <c r="G34" s="133"/>
-      <c r="H34" s="133"/>
-      <c r="I34" s="133"/>
-      <c r="J34" s="129"/>
-    </row>
-    <row r="35" spans="1:12" s="56" customFormat="1">
-      <c r="A35" s="171" t="s">
-        <v>110</v>
-      </c>
-      <c r="B35" s="180"/>
-      <c r="C35" s="180"/>
-      <c r="D35" s="180"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="180"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="180"/>
-      <c r="I35" s="180"/>
-      <c r="J35" s="181"/>
+      <c r="B35" s="185"/>
+      <c r="C35" s="185"/>
+      <c r="D35" s="185"/>
+      <c r="E35" s="185"/>
+      <c r="F35" s="185"/>
+      <c r="G35" s="185"/>
+      <c r="H35" s="185"/>
+      <c r="I35" s="185"/>
+      <c r="J35" s="186"/>
     </row>
     <row r="36" spans="1:12" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="174" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="175"/>
-      <c r="E36" s="175"/>
-      <c r="F36" s="175"/>
-      <c r="G36" s="175"/>
-      <c r="H36" s="175"/>
-      <c r="I36" s="175"/>
-      <c r="J36" s="176"/>
+        <v>105</v>
+      </c>
+      <c r="C36" s="179" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="180"/>
+      <c r="E36" s="180"/>
+      <c r="F36" s="180"/>
+      <c r="G36" s="180"/>
+      <c r="H36" s="180"/>
+      <c r="I36" s="180"/>
+      <c r="J36" s="181"/>
     </row>
     <row r="37" spans="1:12" s="56" customFormat="1">
       <c r="A37" s="59">
         <v>1</v>
       </c>
       <c r="B37" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="182" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="178"/>
-      <c r="E37" s="178"/>
-      <c r="F37" s="178"/>
-      <c r="G37" s="178"/>
-      <c r="H37" s="178"/>
-      <c r="I37" s="178"/>
-      <c r="J37" s="179"/>
+        <v>103</v>
+      </c>
+      <c r="C37" s="187" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="183"/>
+      <c r="E37" s="183"/>
+      <c r="F37" s="183"/>
+      <c r="G37" s="183"/>
+      <c r="H37" s="183"/>
+      <c r="I37" s="183"/>
+      <c r="J37" s="184"/>
     </row>
     <row r="38" spans="1:12" s="56" customFormat="1">
       <c r="A38" s="59">
         <v>2</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="182" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="178"/>
-      <c r="E38" s="178"/>
-      <c r="F38" s="178"/>
-      <c r="G38" s="178"/>
-      <c r="H38" s="178"/>
-      <c r="I38" s="178"/>
-      <c r="J38" s="179"/>
+        <v>106</v>
+      </c>
+      <c r="C38" s="187" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="183"/>
+      <c r="E38" s="183"/>
+      <c r="F38" s="183"/>
+      <c r="G38" s="183"/>
+      <c r="H38" s="183"/>
+      <c r="I38" s="183"/>
+      <c r="J38" s="184"/>
     </row>
     <row r="39" spans="1:12" s="56" customFormat="1">
       <c r="A39" s="59">
         <v>3</v>
       </c>
       <c r="B39" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="187" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="182" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="178"/>
-      <c r="E39" s="178"/>
-      <c r="F39" s="178"/>
-      <c r="G39" s="178"/>
-      <c r="H39" s="178"/>
-      <c r="I39" s="178"/>
-      <c r="J39" s="179"/>
+      <c r="D39" s="183"/>
+      <c r="E39" s="183"/>
+      <c r="F39" s="183"/>
+      <c r="G39" s="183"/>
+      <c r="H39" s="183"/>
+      <c r="I39" s="183"/>
+      <c r="J39" s="184"/>
     </row>
     <row r="40" spans="1:12" s="56" customFormat="1">
       <c r="A40" s="59">
         <v>4</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="182" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40" s="178"/>
-      <c r="E40" s="178"/>
-      <c r="F40" s="178"/>
-      <c r="G40" s="178"/>
-      <c r="H40" s="178"/>
-      <c r="I40" s="178"/>
-      <c r="J40" s="179"/>
+        <v>107</v>
+      </c>
+      <c r="C40" s="187" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="183"/>
+      <c r="E40" s="183"/>
+      <c r="F40" s="183"/>
+      <c r="G40" s="183"/>
+      <c r="H40" s="183"/>
+      <c r="I40" s="183"/>
+      <c r="J40" s="184"/>
     </row>
     <row r="41" spans="1:12" s="56" customFormat="1">
-      <c r="A41" s="128"/>
-      <c r="B41" s="133"/>
-      <c r="C41" s="133"/>
-      <c r="D41" s="133"/>
-      <c r="E41" s="133"/>
-      <c r="F41" s="133"/>
-      <c r="G41" s="133"/>
-      <c r="H41" s="133"/>
-      <c r="I41" s="133"/>
-      <c r="J41" s="129"/>
+      <c r="A41" s="130"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="135"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="135"/>
+      <c r="F41" s="135"/>
+      <c r="G41" s="135"/>
+      <c r="H41" s="135"/>
+      <c r="I41" s="135"/>
+      <c r="J41" s="131"/>
     </row>
     <row r="42" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="167" t="s">
-        <v>187</v>
-      </c>
-      <c r="B42" s="189"/>
-      <c r="C42" s="189"/>
-      <c r="D42" s="189"/>
-      <c r="E42" s="189"/>
-      <c r="F42" s="189"/>
-      <c r="G42" s="189"/>
-      <c r="H42" s="189"/>
-      <c r="I42" s="189"/>
-      <c r="J42" s="190"/>
+      <c r="A42" s="172" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42" s="194"/>
+      <c r="C42" s="194"/>
+      <c r="D42" s="194"/>
+      <c r="E42" s="194"/>
+      <c r="F42" s="194"/>
+      <c r="G42" s="194"/>
+      <c r="H42" s="194"/>
+      <c r="I42" s="194"/>
+      <c r="J42" s="195"/>
     </row>
     <row r="43" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="91" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B43" s="91" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C43" s="92" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D43" s="92" t="s">
-        <v>191</v>
-      </c>
-      <c r="E43" s="191" t="s">
-        <v>192</v>
-      </c>
-      <c r="F43" s="192"/>
-      <c r="G43" s="192"/>
-      <c r="H43" s="192"/>
-      <c r="I43" s="192"/>
-      <c r="J43" s="192"/>
+        <v>181</v>
+      </c>
+      <c r="E43" s="196" t="s">
+        <v>182</v>
+      </c>
+      <c r="F43" s="197"/>
+      <c r="G43" s="197"/>
+      <c r="H43" s="197"/>
+      <c r="I43" s="197"/>
+      <c r="J43" s="197"/>
       <c r="K43" s="56"/>
       <c r="L43" s="56"/>
     </row>
     <row r="44" spans="1:12" s="56" customFormat="1" ht="39" customHeight="1">
-      <c r="A44" s="134">
+      <c r="A44" s="136">
         <v>1</v>
       </c>
-      <c r="B44" s="134" t="s">
-        <v>193</v>
+      <c r="B44" s="136" t="s">
+        <v>183</v>
       </c>
       <c r="C44" s="93" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D44" s="93"/>
-      <c r="E44" s="170" t="s">
-        <v>195</v>
-      </c>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="105"/>
-      <c r="I44" s="105"/>
-      <c r="J44" s="105"/>
+      <c r="E44" s="175" t="s">
+        <v>185</v>
+      </c>
+      <c r="F44" s="107"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="107"/>
     </row>
     <row r="45" spans="1:12" s="56" customFormat="1" ht="27" customHeight="1">
-      <c r="A45" s="135"/>
-      <c r="B45" s="135"/>
+      <c r="A45" s="137"/>
+      <c r="B45" s="137"/>
       <c r="C45" s="85" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D45" s="93"/>
-      <c r="E45" s="142" t="s">
-        <v>197</v>
-      </c>
-      <c r="F45" s="143"/>
-      <c r="G45" s="143"/>
-      <c r="H45" s="143"/>
-      <c r="I45" s="143"/>
-      <c r="J45" s="144"/>
+      <c r="E45" s="144" t="s">
+        <v>187</v>
+      </c>
+      <c r="F45" s="145"/>
+      <c r="G45" s="145"/>
+      <c r="H45" s="145"/>
+      <c r="I45" s="145"/>
+      <c r="J45" s="146"/>
     </row>
     <row r="46" spans="1:12" s="56" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A46" s="135"/>
-      <c r="B46" s="135"/>
+      <c r="A46" s="137"/>
+      <c r="B46" s="137"/>
       <c r="C46" s="85" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D46" s="85"/>
-      <c r="E46" s="142" t="s">
-        <v>199</v>
-      </c>
-      <c r="F46" s="143"/>
-      <c r="G46" s="143"/>
-      <c r="H46" s="143"/>
-      <c r="I46" s="143"/>
-      <c r="J46" s="144"/>
+      <c r="E46" s="144" t="s">
+        <v>189</v>
+      </c>
+      <c r="F46" s="145"/>
+      <c r="G46" s="145"/>
+      <c r="H46" s="145"/>
+      <c r="I46" s="145"/>
+      <c r="J46" s="146"/>
     </row>
     <row r="47" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A47" s="136"/>
-      <c r="B47" s="136"/>
+      <c r="A47" s="138"/>
+      <c r="B47" s="138"/>
       <c r="C47" s="85" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D47" s="85" t="s">
-        <v>201</v>
-      </c>
-      <c r="E47" s="145" t="s">
-        <v>202</v>
-      </c>
-      <c r="F47" s="146"/>
-      <c r="G47" s="146"/>
-      <c r="H47" s="146"/>
-      <c r="I47" s="146"/>
-      <c r="J47" s="146"/>
+        <v>191</v>
+      </c>
+      <c r="E47" s="147" t="s">
+        <v>192</v>
+      </c>
+      <c r="F47" s="148"/>
+      <c r="G47" s="148"/>
+      <c r="H47" s="148"/>
+      <c r="I47" s="148"/>
+      <c r="J47" s="148"/>
     </row>
     <row r="48" spans="1:12" s="58" customFormat="1">
       <c r="A48" s="63"/>
-      <c r="B48" s="133"/>
-      <c r="C48" s="133"/>
-      <c r="D48" s="133"/>
-      <c r="E48" s="133"/>
-      <c r="F48" s="133"/>
-      <c r="G48" s="133"/>
-      <c r="H48" s="133"/>
-      <c r="I48" s="133"/>
-      <c r="J48" s="129"/>
+      <c r="B48" s="135"/>
+      <c r="C48" s="135"/>
+      <c r="D48" s="135"/>
+      <c r="E48" s="135"/>
+      <c r="F48" s="135"/>
+      <c r="G48" s="135"/>
+      <c r="H48" s="135"/>
+      <c r="I48" s="135"/>
+      <c r="J48" s="131"/>
     </row>
     <row r="49" spans="1:10" s="58" customFormat="1">
-      <c r="A49" s="147" t="s">
-        <v>203</v>
-      </c>
-      <c r="B49" s="148"/>
-      <c r="C49" s="148"/>
-      <c r="D49" s="148"/>
-      <c r="E49" s="148"/>
-      <c r="F49" s="148"/>
-      <c r="G49" s="148"/>
-      <c r="H49" s="148"/>
-      <c r="I49" s="148"/>
-      <c r="J49" s="149"/>
+      <c r="A49" s="149" t="s">
+        <v>193</v>
+      </c>
+      <c r="B49" s="150"/>
+      <c r="C49" s="150"/>
+      <c r="D49" s="150"/>
+      <c r="E49" s="150"/>
+      <c r="F49" s="150"/>
+      <c r="G49" s="150"/>
+      <c r="H49" s="150"/>
+      <c r="I49" s="150"/>
+      <c r="J49" s="151"/>
     </row>
     <row r="50" spans="1:10" s="56" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A50" s="134">
+      <c r="A50" s="136">
         <v>1</v>
       </c>
-      <c r="B50" s="151" t="s">
-        <v>204</v>
+      <c r="B50" s="153" t="s">
+        <v>194</v>
       </c>
       <c r="C50" s="94" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D50" s="85"/>
-      <c r="E50" s="170" t="s">
-        <v>206</v>
-      </c>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="105"/>
-      <c r="J50" s="105"/>
+      <c r="E50" s="175" t="s">
+        <v>196</v>
+      </c>
+      <c r="F50" s="107"/>
+      <c r="G50" s="107"/>
+      <c r="H50" s="107"/>
+      <c r="I50" s="107"/>
+      <c r="J50" s="107"/>
     </row>
     <row r="51" spans="1:10" s="56" customFormat="1" ht="33">
-      <c r="A51" s="150"/>
-      <c r="B51" s="152"/>
+      <c r="A51" s="152"/>
+      <c r="B51" s="154"/>
       <c r="C51" s="95" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D51" s="83" t="s">
-        <v>208</v>
-      </c>
-      <c r="E51" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="F51" s="197"/>
-      <c r="G51" s="197"/>
-      <c r="H51" s="197"/>
-      <c r="I51" s="197"/>
-      <c r="J51" s="198"/>
+        <v>198</v>
+      </c>
+      <c r="E51" s="198" t="s">
+        <v>199</v>
+      </c>
+      <c r="F51" s="199"/>
+      <c r="G51" s="199"/>
+      <c r="H51" s="199"/>
+      <c r="I51" s="199"/>
+      <c r="J51" s="200"/>
     </row>
     <row r="52" spans="1:10" s="56" customFormat="1">
       <c r="A52" s="67">
         <v>2</v>
       </c>
-      <c r="B52" s="151" t="s">
-        <v>210</v>
+      <c r="B52" s="153" t="s">
+        <v>200</v>
       </c>
       <c r="C52" s="94" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D52" s="96"/>
-      <c r="E52" s="193" t="s">
-        <v>211</v>
-      </c>
-      <c r="F52" s="194"/>
-      <c r="G52" s="194"/>
-      <c r="H52" s="194"/>
-      <c r="I52" s="194"/>
-      <c r="J52" s="195"/>
+      <c r="E52" s="155" t="s">
+        <v>201</v>
+      </c>
+      <c r="F52" s="156"/>
+      <c r="G52" s="156"/>
+      <c r="H52" s="156"/>
+      <c r="I52" s="156"/>
+      <c r="J52" s="157"/>
     </row>
     <row r="53" spans="1:10" s="56" customFormat="1" ht="91.5" customHeight="1">
       <c r="A53" s="67"/>
-      <c r="B53" s="199"/>
+      <c r="B53" s="201"/>
       <c r="C53" s="94" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D53" s="97" t="s">
-        <v>208</v>
-      </c>
-      <c r="E53" s="193" t="s">
-        <v>282</v>
-      </c>
-      <c r="F53" s="194"/>
-      <c r="G53" s="194"/>
-      <c r="H53" s="194"/>
-      <c r="I53" s="194"/>
-      <c r="J53" s="195"/>
+        <v>198</v>
+      </c>
+      <c r="E53" s="155" t="s">
+        <v>272</v>
+      </c>
+      <c r="F53" s="156"/>
+      <c r="G53" s="156"/>
+      <c r="H53" s="156"/>
+      <c r="I53" s="156"/>
+      <c r="J53" s="157"/>
     </row>
     <row r="54" spans="1:10" s="56" customFormat="1" ht="33">
       <c r="A54" s="67"/>
-      <c r="B54" s="199"/>
+      <c r="B54" s="201"/>
       <c r="C54" s="90" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D54" s="90"/>
-      <c r="E54" s="142" t="s">
-        <v>199</v>
-      </c>
-      <c r="F54" s="143"/>
-      <c r="G54" s="143"/>
-      <c r="H54" s="143"/>
-      <c r="I54" s="143"/>
-      <c r="J54" s="144"/>
+      <c r="E54" s="144" t="s">
+        <v>189</v>
+      </c>
+      <c r="F54" s="145"/>
+      <c r="G54" s="145"/>
+      <c r="H54" s="145"/>
+      <c r="I54" s="145"/>
+      <c r="J54" s="146"/>
     </row>
     <row r="55" spans="1:10" s="56" customFormat="1" ht="33">
       <c r="A55" s="67"/>
-      <c r="B55" s="199"/>
+      <c r="B55" s="201"/>
       <c r="C55" s="90" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D55" s="90" t="s">
-        <v>201</v>
-      </c>
-      <c r="E55" s="145" t="s">
-        <v>202</v>
-      </c>
-      <c r="F55" s="146"/>
-      <c r="G55" s="146"/>
-      <c r="H55" s="146"/>
-      <c r="I55" s="146"/>
-      <c r="J55" s="146"/>
+        <v>191</v>
+      </c>
+      <c r="E55" s="147" t="s">
+        <v>192</v>
+      </c>
+      <c r="F55" s="148"/>
+      <c r="G55" s="148"/>
+      <c r="H55" s="148"/>
+      <c r="I55" s="148"/>
+      <c r="J55" s="148"/>
     </row>
     <row r="56" spans="1:10" s="56" customFormat="1">
       <c r="A56" s="67"/>
-      <c r="B56" s="199"/>
+      <c r="B56" s="201"/>
       <c r="C56" s="94" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D56" s="96"/>
-      <c r="E56" s="125" t="s">
-        <v>214</v>
-      </c>
-      <c r="F56" s="200"/>
-      <c r="G56" s="200"/>
-      <c r="H56" s="200"/>
-      <c r="I56" s="200"/>
-      <c r="J56" s="201"/>
+      <c r="E56" s="127" t="s">
+        <v>204</v>
+      </c>
+      <c r="F56" s="202"/>
+      <c r="G56" s="202"/>
+      <c r="H56" s="202"/>
+      <c r="I56" s="202"/>
+      <c r="J56" s="203"/>
     </row>
     <row r="57" spans="1:10" s="56" customFormat="1" ht="33">
       <c r="A57" s="67"/>
-      <c r="B57" s="152"/>
+      <c r="B57" s="154"/>
       <c r="C57" s="94" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D57" s="96"/>
-      <c r="E57" s="125" t="s">
-        <v>216</v>
-      </c>
-      <c r="F57" s="200"/>
-      <c r="G57" s="200"/>
-      <c r="H57" s="200"/>
-      <c r="I57" s="200"/>
-      <c r="J57" s="201"/>
+      <c r="E57" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="F57" s="202"/>
+      <c r="G57" s="202"/>
+      <c r="H57" s="202"/>
+      <c r="I57" s="202"/>
+      <c r="J57" s="203"/>
     </row>
     <row r="58" spans="1:10" s="56" customFormat="1">
       <c r="A58" s="69">
         <v>3</v>
       </c>
       <c r="B58" s="88" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C58" s="94" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D58" s="98"/>
-      <c r="E58" s="125" t="s">
-        <v>219</v>
-      </c>
-      <c r="F58" s="109"/>
-      <c r="G58" s="109"/>
-      <c r="H58" s="109"/>
-      <c r="I58" s="109"/>
-      <c r="J58" s="110"/>
+      <c r="E58" s="127" t="s">
+        <v>209</v>
+      </c>
+      <c r="F58" s="111"/>
+      <c r="G58" s="111"/>
+      <c r="H58" s="111"/>
+      <c r="I58" s="111"/>
+      <c r="J58" s="112"/>
     </row>
     <row r="59" spans="1:10" s="56" customFormat="1">
       <c r="A59" s="70"/>
-      <c r="B59" s="133"/>
-      <c r="C59" s="133"/>
-      <c r="D59" s="133"/>
-      <c r="E59" s="133"/>
-      <c r="F59" s="133"/>
-      <c r="G59" s="133"/>
-      <c r="H59" s="133"/>
-      <c r="I59" s="133"/>
-      <c r="J59" s="129"/>
+      <c r="B59" s="135"/>
+      <c r="C59" s="135"/>
+      <c r="D59" s="135"/>
+      <c r="E59" s="135"/>
+      <c r="F59" s="135"/>
+      <c r="G59" s="135"/>
+      <c r="H59" s="135"/>
+      <c r="I59" s="135"/>
+      <c r="J59" s="131"/>
     </row>
     <row r="60" spans="1:10" s="56" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A60" s="202" t="s">
-        <v>220</v>
-      </c>
-      <c r="B60" s="203"/>
-      <c r="C60" s="203"/>
-      <c r="D60" s="203"/>
-      <c r="E60" s="203"/>
-      <c r="F60" s="203"/>
-      <c r="G60" s="203"/>
-      <c r="H60" s="203"/>
-      <c r="I60" s="203"/>
-      <c r="J60" s="204"/>
+      <c r="A60" s="204" t="s">
+        <v>210</v>
+      </c>
+      <c r="B60" s="205"/>
+      <c r="C60" s="205"/>
+      <c r="D60" s="205"/>
+      <c r="E60" s="205"/>
+      <c r="F60" s="205"/>
+      <c r="G60" s="205"/>
+      <c r="H60" s="205"/>
+      <c r="I60" s="205"/>
+      <c r="J60" s="206"/>
     </row>
     <row r="61" spans="1:10" s="56" customFormat="1" ht="16.5" customHeight="1">
       <c r="A61" s="59">
         <v>1</v>
       </c>
       <c r="B61" s="88" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C61" s="94" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D61" s="85"/>
-      <c r="E61" s="170" t="s">
-        <v>222</v>
-      </c>
-      <c r="F61" s="105"/>
-      <c r="G61" s="105"/>
-      <c r="H61" s="105"/>
-      <c r="I61" s="105"/>
-      <c r="J61" s="105"/>
+      <c r="E61" s="175" t="s">
+        <v>212</v>
+      </c>
+      <c r="F61" s="107"/>
+      <c r="G61" s="107"/>
+      <c r="H61" s="107"/>
+      <c r="I61" s="107"/>
+      <c r="J61" s="107"/>
     </row>
     <row r="62" spans="1:10" s="56" customFormat="1" ht="16.5" customHeight="1">
       <c r="A62" s="59">
         <v>2</v>
       </c>
       <c r="B62" s="88" t="s">
+        <v>213</v>
+      </c>
+      <c r="C62" s="94" t="s">
+        <v>195</v>
+      </c>
+      <c r="D62" s="86"/>
+      <c r="E62" s="155" t="s">
+        <v>214</v>
+      </c>
+      <c r="F62" s="156"/>
+      <c r="G62" s="156"/>
+      <c r="H62" s="156"/>
+      <c r="I62" s="156"/>
+      <c r="J62" s="157"/>
+    </row>
+    <row r="63" spans="1:10" s="56" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A63" s="136">
+        <v>3</v>
+      </c>
+      <c r="B63" s="153" t="s">
+        <v>215</v>
+      </c>
+      <c r="C63" s="94" t="s">
+        <v>195</v>
+      </c>
+      <c r="D63" s="86"/>
+      <c r="E63" s="155" t="s">
+        <v>281</v>
+      </c>
+      <c r="F63" s="156"/>
+      <c r="G63" s="156"/>
+      <c r="H63" s="156"/>
+      <c r="I63" s="156"/>
+      <c r="J63" s="157"/>
+    </row>
+    <row r="64" spans="1:10" s="56" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A64" s="152"/>
+      <c r="B64" s="154"/>
+      <c r="C64" s="94" t="s">
+        <v>216</v>
+      </c>
+      <c r="D64" s="99" t="s">
+        <v>217</v>
+      </c>
+      <c r="E64" s="127" t="s" ph="1">
+        <v>218</v>
+      </c>
+      <c r="F64" s="199"/>
+      <c r="G64" s="199"/>
+      <c r="H64" s="199"/>
+      <c r="I64" s="199"/>
+      <c r="J64" s="200"/>
+    </row>
+    <row r="65" spans="1:10" s="56" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A65" s="136">
+        <v>4</v>
+      </c>
+      <c r="B65" s="153" t="s">
+        <v>219</v>
+      </c>
+      <c r="C65" s="94" t="s">
+        <v>195</v>
+      </c>
+      <c r="D65" s="99"/>
+      <c r="E65" s="155" t="s">
+        <v>284</v>
+      </c>
+      <c r="F65" s="156"/>
+      <c r="G65" s="156"/>
+      <c r="H65" s="156"/>
+      <c r="I65" s="156"/>
+      <c r="J65" s="157"/>
+    </row>
+    <row r="66" spans="1:10" s="56" customFormat="1">
+      <c r="A66" s="152"/>
+      <c r="B66" s="154"/>
+      <c r="C66" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="D66" s="99" t="s">
+        <v>221</v>
+      </c>
+      <c r="E66" s="155" t="s">
+        <v>222</v>
+      </c>
+      <c r="F66" s="156"/>
+      <c r="G66" s="156"/>
+      <c r="H66" s="156"/>
+      <c r="I66" s="156"/>
+      <c r="J66" s="157"/>
+    </row>
+    <row r="67" spans="1:10" s="56" customFormat="1">
+      <c r="A67" s="136">
+        <v>5</v>
+      </c>
+      <c r="B67" s="153" t="s">
         <v>223</v>
       </c>
-      <c r="C62" s="94" t="s">
-        <v>205</v>
-      </c>
-      <c r="D62" s="86"/>
-      <c r="E62" s="193" t="s">
+      <c r="C67" s="94" t="s">
+        <v>195</v>
+      </c>
+      <c r="D67" s="86"/>
+      <c r="E67" s="155" t="s">
         <v>224</v>
       </c>
-      <c r="F62" s="194"/>
-      <c r="G62" s="194"/>
-      <c r="H62" s="194"/>
-      <c r="I62" s="194"/>
-      <c r="J62" s="195"/>
-    </row>
-    <row r="63" spans="1:10" s="56" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A63" s="134">
-        <v>3</v>
-      </c>
-      <c r="B63" s="151" t="s">
+      <c r="F67" s="156"/>
+      <c r="G67" s="156"/>
+      <c r="H67" s="156"/>
+      <c r="I67" s="156"/>
+      <c r="J67" s="157"/>
+    </row>
+    <row r="68" spans="1:10" s="56" customFormat="1">
+      <c r="A68" s="152"/>
+      <c r="B68" s="154"/>
+      <c r="C68" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="C63" s="94" t="s">
-        <v>205</v>
-      </c>
-      <c r="D63" s="86"/>
-      <c r="E63" s="193" t="s">
-        <v>291</v>
-      </c>
-      <c r="F63" s="194"/>
-      <c r="G63" s="194"/>
-      <c r="H63" s="194"/>
-      <c r="I63" s="194"/>
-      <c r="J63" s="195"/>
-    </row>
-    <row r="64" spans="1:10" s="56" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A64" s="150"/>
-      <c r="B64" s="152"/>
-      <c r="C64" s="94" t="s">
+      <c r="D68" s="86" t="s">
         <v>226</v>
       </c>
-      <c r="D64" s="99" t="s">
+      <c r="E68" s="155" t="s">
         <v>227</v>
       </c>
-      <c r="E64" s="125" t="s" ph="1">
-        <v>228</v>
-      </c>
-      <c r="F64" s="197"/>
-      <c r="G64" s="197"/>
-      <c r="H64" s="197"/>
-      <c r="I64" s="197"/>
-      <c r="J64" s="198"/>
-    </row>
-    <row r="65" spans="1:10" s="56" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A65" s="134">
-        <v>4</v>
-      </c>
-      <c r="B65" s="151" t="s">
-        <v>229</v>
-      </c>
-      <c r="C65" s="94" t="s">
-        <v>205</v>
-      </c>
-      <c r="D65" s="99"/>
-      <c r="E65" s="193" t="s">
-        <v>294</v>
-      </c>
-      <c r="F65" s="194"/>
-      <c r="G65" s="194"/>
-      <c r="H65" s="194"/>
-      <c r="I65" s="194"/>
-      <c r="J65" s="195"/>
-    </row>
-    <row r="66" spans="1:10" s="56" customFormat="1">
-      <c r="A66" s="150"/>
-      <c r="B66" s="152"/>
-      <c r="C66" s="94" t="s">
-        <v>230</v>
-      </c>
-      <c r="D66" s="99" t="s">
-        <v>231</v>
-      </c>
-      <c r="E66" s="193" t="s">
-        <v>232</v>
-      </c>
-      <c r="F66" s="194"/>
-      <c r="G66" s="194"/>
-      <c r="H66" s="194"/>
-      <c r="I66" s="194"/>
-      <c r="J66" s="195"/>
-    </row>
-    <row r="67" spans="1:10" s="56" customFormat="1">
-      <c r="A67" s="134">
-        <v>5</v>
-      </c>
-      <c r="B67" s="151" t="s">
-        <v>233</v>
-      </c>
-      <c r="C67" s="94" t="s">
-        <v>205</v>
-      </c>
-      <c r="D67" s="86"/>
-      <c r="E67" s="193" t="s">
-        <v>234</v>
-      </c>
-      <c r="F67" s="194"/>
-      <c r="G67" s="194"/>
-      <c r="H67" s="194"/>
-      <c r="I67" s="194"/>
-      <c r="J67" s="195"/>
-    </row>
-    <row r="68" spans="1:10" s="56" customFormat="1">
-      <c r="A68" s="150"/>
-      <c r="B68" s="152"/>
-      <c r="C68" s="94" t="s">
-        <v>235</v>
-      </c>
-      <c r="D68" s="86" t="s">
-        <v>236</v>
-      </c>
-      <c r="E68" s="193" t="s">
-        <v>237</v>
-      </c>
-      <c r="F68" s="194"/>
-      <c r="G68" s="194"/>
-      <c r="H68" s="194"/>
-      <c r="I68" s="194"/>
-      <c r="J68" s="195"/>
+      <c r="F68" s="156"/>
+      <c r="G68" s="156"/>
+      <c r="H68" s="156"/>
+      <c r="I68" s="156"/>
+      <c r="J68" s="157"/>
     </row>
     <row r="69" spans="1:10" s="56" customFormat="1">
       <c r="A69" s="71"/>
-      <c r="B69" s="133"/>
-      <c r="C69" s="133"/>
-      <c r="D69" s="133"/>
-      <c r="E69" s="133"/>
-      <c r="F69" s="133"/>
-      <c r="G69" s="133"/>
-      <c r="H69" s="133"/>
-      <c r="I69" s="133"/>
-      <c r="J69" s="129"/>
+      <c r="B69" s="135"/>
+      <c r="C69" s="135"/>
+      <c r="D69" s="135"/>
+      <c r="E69" s="135"/>
+      <c r="F69" s="135"/>
+      <c r="G69" s="135"/>
+      <c r="H69" s="135"/>
+      <c r="I69" s="135"/>
+      <c r="J69" s="131"/>
     </row>
     <row r="70" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A70" s="139" t="s">
+      <c r="A70" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="140"/>
-      <c r="C70" s="140"/>
-      <c r="D70" s="140"/>
-      <c r="E70" s="140"/>
-      <c r="F70" s="140"/>
-      <c r="G70" s="140"/>
-      <c r="H70" s="140"/>
-      <c r="I70" s="140"/>
-      <c r="J70" s="141"/>
+      <c r="B70" s="142"/>
+      <c r="C70" s="142"/>
+      <c r="D70" s="142"/>
+      <c r="E70" s="142"/>
+      <c r="F70" s="142"/>
+      <c r="G70" s="142"/>
+      <c r="H70" s="142"/>
+      <c r="I70" s="142"/>
+      <c r="J70" s="143"/>
     </row>
     <row r="71" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="137" t="s">
+      <c r="B71" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="138"/>
-      <c r="D71" s="125" t="s">
+      <c r="C71" s="140"/>
+      <c r="D71" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="109"/>
-      <c r="F71" s="109"/>
-      <c r="G71" s="109"/>
-      <c r="H71" s="109"/>
-      <c r="I71" s="109"/>
-      <c r="J71" s="110"/>
+      <c r="E71" s="111"/>
+      <c r="F71" s="111"/>
+      <c r="G71" s="111"/>
+      <c r="H71" s="111"/>
+      <c r="I71" s="111"/>
+      <c r="J71" s="112"/>
     </row>
     <row r="72" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A72" s="130"/>
-      <c r="B72" s="131"/>
-      <c r="C72" s="131"/>
-      <c r="D72" s="131"/>
-      <c r="E72" s="131"/>
-      <c r="F72" s="131"/>
-      <c r="G72" s="131"/>
-      <c r="H72" s="131"/>
-      <c r="I72" s="131"/>
-      <c r="J72" s="132"/>
+      <c r="A72" s="132"/>
+      <c r="B72" s="133"/>
+      <c r="C72" s="133"/>
+      <c r="D72" s="133"/>
+      <c r="E72" s="133"/>
+      <c r="F72" s="133"/>
+      <c r="G72" s="133"/>
+      <c r="H72" s="133"/>
+      <c r="I72" s="133"/>
+      <c r="J72" s="134"/>
     </row>
     <row r="73" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="69"/>
-      <c r="B73" s="128"/>
-      <c r="C73" s="129"/>
-      <c r="D73" s="125"/>
-      <c r="E73" s="126"/>
-      <c r="F73" s="126"/>
-      <c r="G73" s="126"/>
-      <c r="H73" s="126"/>
-      <c r="I73" s="126"/>
-      <c r="J73" s="127"/>
+      <c r="B73" s="130"/>
+      <c r="C73" s="131"/>
+      <c r="D73" s="127"/>
+      <c r="E73" s="128"/>
+      <c r="F73" s="128"/>
+      <c r="G73" s="128"/>
+      <c r="H73" s="128"/>
+      <c r="I73" s="128"/>
+      <c r="J73" s="129"/>
     </row>
     <row r="74" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="69"/>
-      <c r="B74" s="128"/>
-      <c r="C74" s="129"/>
-      <c r="D74" s="125"/>
-      <c r="E74" s="126"/>
-      <c r="F74" s="126"/>
-      <c r="G74" s="126"/>
-      <c r="H74" s="126"/>
-      <c r="I74" s="126"/>
-      <c r="J74" s="127"/>
+      <c r="B74" s="130"/>
+      <c r="C74" s="131"/>
+      <c r="D74" s="127"/>
+      <c r="E74" s="128"/>
+      <c r="F74" s="128"/>
+      <c r="G74" s="128"/>
+      <c r="H74" s="128"/>
+      <c r="I74" s="128"/>
+      <c r="J74" s="129"/>
     </row>
     <row r="75" spans="1:10" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A75" s="130"/>
-      <c r="B75" s="131"/>
-      <c r="C75" s="131"/>
-      <c r="D75" s="131"/>
-      <c r="E75" s="131"/>
-      <c r="F75" s="131"/>
-      <c r="G75" s="131"/>
-      <c r="H75" s="131"/>
-      <c r="I75" s="131"/>
-      <c r="J75" s="132"/>
+      <c r="A75" s="132"/>
+      <c r="B75" s="133"/>
+      <c r="C75" s="133"/>
+      <c r="D75" s="133"/>
+      <c r="E75" s="133"/>
+      <c r="F75" s="133"/>
+      <c r="G75" s="133"/>
+      <c r="H75" s="133"/>
+      <c r="I75" s="133"/>
+      <c r="J75" s="134"/>
     </row>
     <row r="76" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A76" s="69"/>
-      <c r="B76" s="128"/>
-      <c r="C76" s="129"/>
-      <c r="D76" s="125"/>
-      <c r="E76" s="126"/>
-      <c r="F76" s="126"/>
-      <c r="G76" s="126"/>
-      <c r="H76" s="126"/>
-      <c r="I76" s="126"/>
-      <c r="J76" s="127"/>
+      <c r="B76" s="130"/>
+      <c r="C76" s="131"/>
+      <c r="D76" s="127"/>
+      <c r="E76" s="128"/>
+      <c r="F76" s="128"/>
+      <c r="G76" s="128"/>
+      <c r="H76" s="128"/>
+      <c r="I76" s="128"/>
+      <c r="J76" s="129"/>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="72" t="s">
@@ -11054,14 +11092,14 @@
       <c r="B78" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="128"/>
-      <c r="D78" s="109"/>
-      <c r="E78" s="109"/>
-      <c r="F78" s="109"/>
-      <c r="G78" s="109"/>
-      <c r="H78" s="109"/>
-      <c r="I78" s="109"/>
-      <c r="J78" s="110"/>
+      <c r="C78" s="130"/>
+      <c r="D78" s="111"/>
+      <c r="E78" s="111"/>
+      <c r="F78" s="111"/>
+      <c r="G78" s="111"/>
+      <c r="H78" s="111"/>
+      <c r="I78" s="111"/>
+      <c r="J78" s="112"/>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="69">
@@ -11070,14 +11108,14 @@
       <c r="B79" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="145"/>
-      <c r="D79" s="145"/>
-      <c r="E79" s="145"/>
-      <c r="F79" s="145"/>
-      <c r="G79" s="145"/>
-      <c r="H79" s="145"/>
-      <c r="I79" s="145"/>
-      <c r="J79" s="145"/>
+      <c r="C79" s="147"/>
+      <c r="D79" s="147"/>
+      <c r="E79" s="147"/>
+      <c r="F79" s="147"/>
+      <c r="G79" s="147"/>
+      <c r="H79" s="147"/>
+      <c r="I79" s="147"/>
+      <c r="J79" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="86">
@@ -11186,10 +11224,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11219,7 +11257,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="153" t="s">
+      <c r="K1" s="158" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="39"/>
@@ -11246,7 +11284,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="154"/>
+      <c r="K2" s="159"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -11264,7 +11302,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="154"/>
+      <c r="K3" s="159"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -11308,18 +11346,18 @@
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="205" t="s">
+      <c r="A6" s="207" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="206"/>
-      <c r="C6" s="206"/>
-      <c r="D6" s="206"/>
-      <c r="E6" s="206"/>
-      <c r="F6" s="206"/>
-      <c r="G6" s="206"/>
-      <c r="H6" s="206"/>
-      <c r="I6" s="206"/>
-      <c r="J6" s="207"/>
+      <c r="B6" s="208"/>
+      <c r="C6" s="208"/>
+      <c r="D6" s="208"/>
+      <c r="E6" s="208"/>
+      <c r="F6" s="208"/>
+      <c r="G6" s="208"/>
+      <c r="H6" s="208"/>
+      <c r="I6" s="208"/>
+      <c r="J6" s="209"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -11335,10 +11373,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>21</v>
@@ -11350,10 +11388,10 @@
         <v>15</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -11386,31 +11424,31 @@
       <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="205" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="206"/>
-      <c r="C10" s="206"/>
-      <c r="D10" s="206"/>
-      <c r="E10" s="206"/>
-      <c r="F10" s="206"/>
-      <c r="G10" s="206"/>
-      <c r="H10" s="206"/>
-      <c r="I10" s="206"/>
-      <c r="J10" s="207"/>
+      <c r="A10" s="207" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="208"/>
+      <c r="C10" s="208"/>
+      <c r="D10" s="208"/>
+      <c r="E10" s="208"/>
+      <c r="F10" s="208"/>
+      <c r="G10" s="208"/>
+      <c r="H10" s="208"/>
+      <c r="I10" s="208"/>
+      <c r="J10" s="209"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="42" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="42" t="s">
         <v>162</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>164</v>
       </c>
       <c r="E11" s="42" t="s">
         <v>21</v>
@@ -11422,10 +11460,10 @@
         <v>15</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="J11" s="42" t="s">
         <v>0</v>
@@ -11439,23 +11477,23 @@
         <v>56</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J12" s="48"/>
     </row>
@@ -11467,23 +11505,23 @@
         <v>57</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J13" s="48"/>
     </row>
@@ -11495,41 +11533,41 @@
         <v>58</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D14" s="49"/>
       <c r="E14" s="49" t="s">
         <v>65</v>
       </c>
       <c r="F14" s="49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H14" s="50">
         <v>2</v>
       </c>
       <c r="I14" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J14" s="51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="205" t="s">
-        <v>131</v>
-      </c>
-      <c r="B16" s="206"/>
-      <c r="C16" s="206"/>
-      <c r="D16" s="206"/>
-      <c r="E16" s="206"/>
-      <c r="F16" s="206"/>
-      <c r="G16" s="206"/>
-      <c r="H16" s="206"/>
-      <c r="I16" s="206"/>
-      <c r="J16" s="207"/>
+      <c r="A16" s="207" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="208"/>
+      <c r="C16" s="208"/>
+      <c r="D16" s="208"/>
+      <c r="E16" s="208"/>
+      <c r="F16" s="208"/>
+      <c r="G16" s="208"/>
+      <c r="H16" s="208"/>
+      <c r="I16" s="208"/>
+      <c r="J16" s="209"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="42" t="s">
@@ -11539,10 +11577,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E17" s="42" t="s">
         <v>21</v>
@@ -11554,10 +11592,10 @@
         <v>15</v>
       </c>
       <c r="H17" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I17" s="42" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="J17" s="42" t="s">
         <v>0</v>
@@ -11568,50 +11606,52 @@
         <v>1</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>56</v>
+        <v>285</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>98</v>
+        <v>286</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="45" t="s">
-        <v>66</v>
+        <v>288</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>130</v>
+        <v>287</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>75</v>
+        <v>289</v>
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="J18" s="48"/>
+        <v>290</v>
+      </c>
+      <c r="J18" s="46" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="48">
         <v>2</v>
       </c>
-      <c r="B19" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>99</v>
+      <c r="B19" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="100" t="s">
+        <v>97</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="45" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="G19" s="45" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H19" s="45"/>
       <c r="I19" s="43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J19" s="48"/>
     </row>
@@ -11620,68 +11660,94 @@
         <v>3</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="45" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G20" s="45" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H20" s="45"/>
       <c r="I20" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="J20" s="79" t="s">
-        <v>142</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="43">
+      <c r="A21" s="48">
         <v>4</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="45"/>
+      <c r="I21" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="J21" s="79" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="48">
+        <v>5</v>
+      </c>
+      <c r="B22" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="49" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="49"/>
-      <c r="I21" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="J21" s="51" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="53"/>
+      <c r="C22" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="49"/>
+      <c r="I22" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="J22" s="51" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11710,8 +11776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41:J41"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11740,7 +11806,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="153" t="s">
+      <c r="K1" s="158" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="54"/>
@@ -11761,7 +11827,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="154"/>
+      <c r="K2" s="159"/>
     </row>
     <row r="3" spans="1:17" s="55" customFormat="1">
       <c r="A3" s="47"/>
@@ -11774,7 +11840,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="154"/>
+      <c r="K3" s="159"/>
     </row>
     <row r="4" spans="1:17" s="55" customFormat="1">
       <c r="A4" s="47"/>
@@ -11789,770 +11855,770 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="163" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="110"/>
     </row>
     <row r="6" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="111"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="113"/>
+      <c r="A6" s="113"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="115"/>
     </row>
     <row r="7" spans="1:17" s="56" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="159"/>
-      <c r="B7" s="160"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="162"/>
+      <c r="A7" s="164"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="167"/>
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:17" s="56" customFormat="1">
-      <c r="A8" s="159"/>
-      <c r="B8" s="160"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="162"/>
+      <c r="A8" s="164"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="167"/>
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:17" s="56" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="163"/>
-      <c r="B9" s="164"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="165"/>
+      <c r="A9" s="168"/>
+      <c r="B9" s="169"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="170"/>
     </row>
     <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="158" t="s">
+      <c r="A10" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="108"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="110"/>
     </row>
     <row r="11" spans="1:17" s="58" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="166" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="110"/>
+      <c r="A11" s="171" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="112"/>
     </row>
     <row r="12" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="158" t="s">
+      <c r="A12" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="108"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="110"/>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="166" t="s">
+      <c r="A13" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="110"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="112"/>
     </row>
     <row r="14" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="158" t="s">
+      <c r="A14" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="108"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="110"/>
     </row>
     <row r="15" spans="1:17" s="56" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A15" s="171" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="172"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="173"/>
+      <c r="A15" s="176" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="177"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="178"/>
     </row>
     <row r="16" spans="1:17" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="174" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="175"/>
-      <c r="E16" s="175"/>
-      <c r="F16" s="175"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="175"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="176"/>
-    </row>
-    <row r="17" spans="1:10" s="56" customFormat="1" ht="65.25" customHeight="1">
+        <v>105</v>
+      </c>
+      <c r="C16" s="179" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="180"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="180"/>
+      <c r="J16" s="181"/>
+    </row>
+    <row r="17" spans="1:10" s="56" customFormat="1" ht="83.25" customHeight="1">
       <c r="A17" s="59">
         <v>1</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="177" t="s">
-        <v>178</v>
-      </c>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="179"/>
-    </row>
-    <row r="18" spans="1:10" s="56" customFormat="1" ht="66" customHeight="1">
+        <v>103</v>
+      </c>
+      <c r="C17" s="182" t="s">
+        <v>294</v>
+      </c>
+      <c r="D17" s="183"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="183"/>
+      <c r="G17" s="183"/>
+      <c r="H17" s="183"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="184"/>
+    </row>
+    <row r="18" spans="1:10" s="56" customFormat="1" ht="82.5" customHeight="1">
       <c r="A18" s="59">
         <v>2</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="177" t="s">
-        <v>180</v>
-      </c>
-      <c r="D18" s="178"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="178"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="179"/>
+        <v>106</v>
+      </c>
+      <c r="C18" s="182" t="s">
+        <v>295</v>
+      </c>
+      <c r="D18" s="183"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="184"/>
     </row>
     <row r="19" spans="1:10" s="56" customFormat="1">
       <c r="A19" s="59">
         <v>3</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="182" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="178"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="178"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="179"/>
+        <v>119</v>
+      </c>
+      <c r="C19" s="187" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="183"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="183"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="183"/>
+      <c r="I19" s="183"/>
+      <c r="J19" s="184"/>
     </row>
     <row r="20" spans="1:10" s="56" customFormat="1">
       <c r="A20" s="59">
         <v>4</v>
       </c>
       <c r="B20" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="187" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="182" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="178"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="179"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="183"/>
+      <c r="F20" s="183"/>
+      <c r="G20" s="183"/>
+      <c r="H20" s="183"/>
+      <c r="I20" s="183"/>
+      <c r="J20" s="184"/>
     </row>
     <row r="21" spans="1:10" s="56" customFormat="1">
       <c r="A21" s="59">
         <v>5</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="182" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="178"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="178"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="179"/>
+        <v>107</v>
+      </c>
+      <c r="C21" s="187" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="183"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="183"/>
+      <c r="G21" s="183"/>
+      <c r="H21" s="183"/>
+      <c r="I21" s="183"/>
+      <c r="J21" s="184"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1">
-      <c r="A22" s="155"/>
-      <c r="B22" s="156"/>
-      <c r="C22" s="156"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="A22" s="160"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="161"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="161"/>
+      <c r="J22" s="162"/>
     </row>
     <row r="23" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="167" t="s">
+      <c r="A23" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="168"/>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="168"/>
-      <c r="I23" s="168"/>
-      <c r="J23" s="169"/>
+      <c r="B23" s="173"/>
+      <c r="C23" s="173"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="173"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="173"/>
+      <c r="H23" s="173"/>
+      <c r="I23" s="173"/>
+      <c r="J23" s="174"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1" ht="36" customHeight="1">
-      <c r="A24" s="171" t="s">
-        <v>139</v>
-      </c>
-      <c r="B24" s="172"/>
-      <c r="C24" s="172"/>
-      <c r="D24" s="172"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="173"/>
+      <c r="A24" s="176" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="177"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="177"/>
+      <c r="J24" s="178"/>
     </row>
     <row r="25" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="174" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="175"/>
-      <c r="I25" s="175"/>
-      <c r="J25" s="176"/>
+        <v>105</v>
+      </c>
+      <c r="C25" s="179" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="180"/>
+      <c r="E25" s="180"/>
+      <c r="F25" s="180"/>
+      <c r="G25" s="180"/>
+      <c r="H25" s="180"/>
+      <c r="I25" s="180"/>
+      <c r="J25" s="181"/>
     </row>
     <row r="26" spans="1:10" s="56" customFormat="1" ht="33" customHeight="1">
       <c r="A26" s="59">
         <v>1</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="177" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="178"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="178"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="179"/>
+        <v>103</v>
+      </c>
+      <c r="C26" s="182" t="s">
+        <v>296</v>
+      </c>
+      <c r="D26" s="183"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="183"/>
+      <c r="G26" s="183"/>
+      <c r="H26" s="183"/>
+      <c r="I26" s="183"/>
+      <c r="J26" s="184"/>
     </row>
     <row r="27" spans="1:10" s="56" customFormat="1" ht="32.25" customHeight="1">
       <c r="A27" s="59">
         <v>2</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="177" t="s">
-        <v>168</v>
-      </c>
-      <c r="D27" s="178"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="179"/>
+        <v>106</v>
+      </c>
+      <c r="C27" s="182" t="s">
+        <v>297</v>
+      </c>
+      <c r="D27" s="183"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="183"/>
+      <c r="H27" s="183"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="184"/>
     </row>
     <row r="28" spans="1:10" s="56" customFormat="1">
       <c r="A28" s="59">
         <v>3</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="182" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="178"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="179"/>
+        <v>119</v>
+      </c>
+      <c r="C28" s="187" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="183"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="183"/>
+      <c r="I28" s="183"/>
+      <c r="J28" s="184"/>
     </row>
     <row r="29" spans="1:10" s="56" customFormat="1">
       <c r="A29" s="59">
         <v>4</v>
       </c>
       <c r="B29" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="187" t="s">
         <v>121</v>
       </c>
-      <c r="C29" s="182" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" s="178"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="179"/>
+      <c r="D29" s="183"/>
+      <c r="E29" s="183"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="183"/>
+      <c r="I29" s="183"/>
+      <c r="J29" s="184"/>
     </row>
     <row r="30" spans="1:10" s="56" customFormat="1">
       <c r="A30" s="59">
         <v>5</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="182" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="178"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="179"/>
+        <v>107</v>
+      </c>
+      <c r="C30" s="187" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="183"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="183"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="183"/>
+      <c r="I30" s="183"/>
+      <c r="J30" s="184"/>
     </row>
     <row r="31" spans="1:10" s="56" customFormat="1">
-      <c r="A31" s="155"/>
-      <c r="B31" s="208"/>
-      <c r="C31" s="208"/>
-      <c r="D31" s="208"/>
-      <c r="E31" s="208"/>
-      <c r="F31" s="208"/>
-      <c r="G31" s="208"/>
-      <c r="H31" s="208"/>
-      <c r="I31" s="208"/>
-      <c r="J31" s="209"/>
+      <c r="A31" s="160"/>
+      <c r="B31" s="210"/>
+      <c r="C31" s="210"/>
+      <c r="D31" s="210"/>
+      <c r="E31" s="210"/>
+      <c r="F31" s="210"/>
+      <c r="G31" s="210"/>
+      <c r="H31" s="210"/>
+      <c r="I31" s="210"/>
+      <c r="J31" s="211"/>
     </row>
     <row r="32" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="167" t="s">
-        <v>187</v>
-      </c>
-      <c r="B32" s="168"/>
-      <c r="C32" s="168"/>
-      <c r="D32" s="168"/>
-      <c r="E32" s="168"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="168"/>
-      <c r="H32" s="168"/>
-      <c r="I32" s="168"/>
-      <c r="J32" s="169"/>
+      <c r="A32" s="172" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" s="173"/>
+      <c r="C32" s="173"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="173"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="173"/>
+      <c r="J32" s="174"/>
     </row>
     <row r="33" spans="1:12" s="77" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="60" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C33" s="61" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D33" s="62" t="s">
-        <v>191</v>
-      </c>
-      <c r="E33" s="212" t="s">
-        <v>192</v>
-      </c>
-      <c r="F33" s="213"/>
-      <c r="G33" s="213"/>
-      <c r="H33" s="213"/>
-      <c r="I33" s="213"/>
-      <c r="J33" s="214"/>
+        <v>181</v>
+      </c>
+      <c r="E33" s="214" t="s">
+        <v>182</v>
+      </c>
+      <c r="F33" s="215"/>
+      <c r="G33" s="215"/>
+      <c r="H33" s="215"/>
+      <c r="I33" s="215"/>
+      <c r="J33" s="216"/>
       <c r="K33" s="56"/>
       <c r="L33" s="56"/>
     </row>
     <row r="34" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="134">
+      <c r="A34" s="136">
         <v>1</v>
       </c>
-      <c r="B34" s="134" t="s">
-        <v>238</v>
+      <c r="B34" s="136" t="s">
+        <v>228</v>
       </c>
       <c r="C34" s="93" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D34" s="92"/>
-      <c r="E34" s="170" t="s">
-        <v>239</v>
-      </c>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="105"/>
+      <c r="E34" s="175" t="s">
+        <v>229</v>
+      </c>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="107"/>
     </row>
     <row r="35" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="135"/>
-      <c r="B35" s="135"/>
+      <c r="A35" s="137"/>
+      <c r="B35" s="137"/>
       <c r="C35" s="85" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D35" s="83" t="s">
-        <v>208</v>
-      </c>
-      <c r="E35" s="142" t="s">
-        <v>197</v>
-      </c>
-      <c r="F35" s="143"/>
-      <c r="G35" s="143"/>
-      <c r="H35" s="143"/>
-      <c r="I35" s="143"/>
-      <c r="J35" s="144"/>
+        <v>198</v>
+      </c>
+      <c r="E35" s="144" t="s">
+        <v>187</v>
+      </c>
+      <c r="F35" s="145"/>
+      <c r="G35" s="145"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="146"/>
       <c r="K35" s="56"/>
       <c r="L35" s="56"/>
     </row>
     <row r="36" spans="1:12" s="56" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A36" s="135"/>
-      <c r="B36" s="135"/>
+      <c r="A36" s="137"/>
+      <c r="B36" s="137"/>
       <c r="C36" s="85" t="s">
+        <v>188</v>
+      </c>
+      <c r="D36" s="69"/>
+      <c r="E36" s="144" t="s">
+        <v>230</v>
+      </c>
+      <c r="F36" s="145"/>
+      <c r="G36" s="145"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
+      <c r="J36" s="146"/>
+    </row>
+    <row r="37" spans="1:12" s="56" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A37" s="138"/>
+      <c r="B37" s="138"/>
+      <c r="C37" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" s="85" t="s">
+        <v>231</v>
+      </c>
+      <c r="E37" s="147" t="s">
+        <v>192</v>
+      </c>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+    </row>
+    <row r="38" spans="1:12" s="56" customFormat="1">
+      <c r="A38" s="149" t="s">
+        <v>232</v>
+      </c>
+      <c r="B38" s="150"/>
+      <c r="C38" s="150"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="151"/>
+    </row>
+    <row r="39" spans="1:12" s="56" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A39" s="136">
+        <v>1</v>
+      </c>
+      <c r="B39" s="153" t="s">
+        <v>233</v>
+      </c>
+      <c r="C39" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" s="85"/>
+      <c r="E39" s="175" t="s">
+        <v>234</v>
+      </c>
+      <c r="F39" s="107"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
+    </row>
+    <row r="40" spans="1:12" s="56" customFormat="1" ht="37.5" customHeight="1">
+      <c r="A40" s="152"/>
+      <c r="B40" s="154"/>
+      <c r="C40" s="78" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" s="83" t="s">
         <v>198</v>
       </c>
-      <c r="D36" s="69"/>
-      <c r="E36" s="142" t="s">
-        <v>240</v>
-      </c>
-      <c r="F36" s="143"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="143"/>
-      <c r="I36" s="143"/>
-      <c r="J36" s="144"/>
-    </row>
-    <row r="37" spans="1:12" s="56" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A37" s="136"/>
-      <c r="B37" s="136"/>
-      <c r="C37" s="85" t="s">
-        <v>200</v>
-      </c>
-      <c r="D37" s="85" t="s">
-        <v>241</v>
-      </c>
-      <c r="E37" s="145" t="s">
-        <v>202</v>
-      </c>
-      <c r="F37" s="146"/>
-      <c r="G37" s="146"/>
-      <c r="H37" s="146"/>
-      <c r="I37" s="146"/>
-      <c r="J37" s="146"/>
-    </row>
-    <row r="38" spans="1:12" s="56" customFormat="1">
-      <c r="A38" s="147" t="s">
-        <v>242</v>
-      </c>
-      <c r="B38" s="148"/>
-      <c r="C38" s="148"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="148"/>
-      <c r="I38" s="148"/>
-      <c r="J38" s="149"/>
-    </row>
-    <row r="39" spans="1:12" s="56" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A39" s="134">
-        <v>1</v>
-      </c>
-      <c r="B39" s="151" t="s">
-        <v>243</v>
-      </c>
-      <c r="C39" s="82" t="s">
-        <v>205</v>
-      </c>
-      <c r="D39" s="85"/>
-      <c r="E39" s="170" t="s">
-        <v>244</v>
-      </c>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="105"/>
-      <c r="I39" s="105"/>
-      <c r="J39" s="105"/>
-    </row>
-    <row r="40" spans="1:12" s="56" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A40" s="150"/>
-      <c r="B40" s="152"/>
-      <c r="C40" s="78" t="s">
-        <v>212</v>
-      </c>
-      <c r="D40" s="83" t="s">
-        <v>208</v>
-      </c>
-      <c r="E40" s="196" t="s">
-        <v>245</v>
-      </c>
-      <c r="F40" s="219"/>
-      <c r="G40" s="219"/>
-      <c r="H40" s="219"/>
-      <c r="I40" s="219"/>
-      <c r="J40" s="220"/>
+      <c r="E40" s="198" t="s">
+        <v>235</v>
+      </c>
+      <c r="F40" s="221"/>
+      <c r="G40" s="221"/>
+      <c r="H40" s="221"/>
+      <c r="I40" s="221"/>
+      <c r="J40" s="222"/>
     </row>
     <row r="41" spans="1:12" s="56" customFormat="1" ht="81" customHeight="1">
       <c r="A41" s="67">
         <v>2</v>
       </c>
       <c r="B41" s="68" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C41" s="82" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D41" s="83"/>
-      <c r="E41" s="221" t="s">
-        <v>292</v>
-      </c>
-      <c r="F41" s="222"/>
-      <c r="G41" s="222"/>
-      <c r="H41" s="222"/>
-      <c r="I41" s="222"/>
-      <c r="J41" s="223"/>
+      <c r="E41" s="223" t="s">
+        <v>282</v>
+      </c>
+      <c r="F41" s="224"/>
+      <c r="G41" s="224"/>
+      <c r="H41" s="224"/>
+      <c r="I41" s="224"/>
+      <c r="J41" s="225"/>
     </row>
     <row r="42" spans="1:12" s="56" customFormat="1" ht="99" customHeight="1">
       <c r="A42" s="67"/>
       <c r="B42" s="68"/>
       <c r="C42" s="85" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D42" s="87" t="s">
-        <v>247</v>
-      </c>
-      <c r="E42" s="215" t="s">
-        <v>248</v>
-      </c>
-      <c r="F42" s="216"/>
-      <c r="G42" s="216"/>
-      <c r="H42" s="216"/>
-      <c r="I42" s="216"/>
-      <c r="J42" s="216"/>
+        <v>237</v>
+      </c>
+      <c r="E42" s="217" t="s">
+        <v>238</v>
+      </c>
+      <c r="F42" s="218"/>
+      <c r="G42" s="218"/>
+      <c r="H42" s="218"/>
+      <c r="I42" s="218"/>
+      <c r="J42" s="218"/>
     </row>
     <row r="43" spans="1:12" s="56" customFormat="1" ht="37.5" customHeight="1">
       <c r="A43" s="67"/>
       <c r="B43" s="68"/>
       <c r="C43" s="85" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D43" s="89" t="s">
-        <v>250</v>
-      </c>
-      <c r="E43" s="125" t="s">
-        <v>251</v>
-      </c>
-      <c r="F43" s="217"/>
-      <c r="G43" s="217"/>
-      <c r="H43" s="217"/>
-      <c r="I43" s="217"/>
-      <c r="J43" s="218"/>
+        <v>240</v>
+      </c>
+      <c r="E43" s="127" t="s">
+        <v>241</v>
+      </c>
+      <c r="F43" s="219"/>
+      <c r="G43" s="219"/>
+      <c r="H43" s="219"/>
+      <c r="I43" s="219"/>
+      <c r="J43" s="220"/>
     </row>
     <row r="44" spans="1:12" s="56" customFormat="1" ht="91.5" customHeight="1">
       <c r="A44" s="67"/>
       <c r="B44" s="68"/>
       <c r="C44" s="85" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D44" s="89" t="s">
-        <v>281</v>
-      </c>
-      <c r="E44" s="125" t="s">
-        <v>253</v>
-      </c>
-      <c r="F44" s="217"/>
-      <c r="G44" s="217"/>
-      <c r="H44" s="217"/>
-      <c r="I44" s="217"/>
-      <c r="J44" s="218"/>
+        <v>271</v>
+      </c>
+      <c r="E44" s="127" t="s">
+        <v>243</v>
+      </c>
+      <c r="F44" s="219"/>
+      <c r="G44" s="219"/>
+      <c r="H44" s="219"/>
+      <c r="I44" s="219"/>
+      <c r="J44" s="220"/>
     </row>
     <row r="45" spans="1:12" s="56" customFormat="1" ht="37.5" customHeight="1">
       <c r="A45" s="69">
         <v>3</v>
       </c>
       <c r="B45" s="88" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C45" s="82" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D45" s="84"/>
-      <c r="E45" s="125" t="s">
-        <v>288</v>
-      </c>
-      <c r="F45" s="109"/>
-      <c r="G45" s="109"/>
-      <c r="H45" s="109"/>
-      <c r="I45" s="109"/>
-      <c r="J45" s="110"/>
+      <c r="E45" s="127" t="s">
+        <v>278</v>
+      </c>
+      <c r="F45" s="111"/>
+      <c r="G45" s="111"/>
+      <c r="H45" s="111"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="112"/>
     </row>
     <row r="46" spans="1:12" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A46" s="139" t="s">
+      <c r="A46" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="140"/>
-      <c r="C46" s="140"/>
-      <c r="D46" s="140"/>
-      <c r="E46" s="140"/>
-      <c r="F46" s="140"/>
-      <c r="G46" s="140"/>
-      <c r="H46" s="140"/>
-      <c r="I46" s="140"/>
-      <c r="J46" s="141"/>
+      <c r="B46" s="142"/>
+      <c r="C46" s="142"/>
+      <c r="D46" s="142"/>
+      <c r="E46" s="142"/>
+      <c r="F46" s="142"/>
+      <c r="G46" s="142"/>
+      <c r="H46" s="142"/>
+      <c r="I46" s="142"/>
+      <c r="J46" s="143"/>
     </row>
     <row r="47" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="137" t="s">
+      <c r="B47" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="138"/>
-      <c r="D47" s="125" t="s">
+      <c r="C47" s="140"/>
+      <c r="D47" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="109"/>
-      <c r="F47" s="109"/>
-      <c r="G47" s="109"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="109"/>
-      <c r="J47" s="110"/>
+      <c r="E47" s="111"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="111"/>
+      <c r="H47" s="111"/>
+      <c r="I47" s="111"/>
+      <c r="J47" s="112"/>
     </row>
     <row r="48" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="130"/>
-      <c r="B48" s="210"/>
-      <c r="C48" s="210"/>
-      <c r="D48" s="210"/>
-      <c r="E48" s="210"/>
-      <c r="F48" s="210"/>
-      <c r="G48" s="210"/>
-      <c r="H48" s="210"/>
-      <c r="I48" s="210"/>
-      <c r="J48" s="211"/>
+      <c r="A48" s="132"/>
+      <c r="B48" s="212"/>
+      <c r="C48" s="212"/>
+      <c r="D48" s="212"/>
+      <c r="E48" s="212"/>
+      <c r="F48" s="212"/>
+      <c r="G48" s="212"/>
+      <c r="H48" s="212"/>
+      <c r="I48" s="212"/>
+      <c r="J48" s="213"/>
     </row>
     <row r="49" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="69"/>
-      <c r="B49" s="128"/>
-      <c r="C49" s="129"/>
-      <c r="D49" s="125"/>
-      <c r="E49" s="109"/>
-      <c r="F49" s="109"/>
-      <c r="G49" s="109"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="109"/>
-      <c r="J49" s="110"/>
+      <c r="B49" s="130"/>
+      <c r="C49" s="131"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="111"/>
+      <c r="F49" s="111"/>
+      <c r="G49" s="111"/>
+      <c r="H49" s="111"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="112"/>
     </row>
     <row r="50" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="69"/>
-      <c r="B50" s="128"/>
-      <c r="C50" s="129"/>
-      <c r="D50" s="125"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="109"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="109"/>
-      <c r="I50" s="109"/>
-      <c r="J50" s="110"/>
+      <c r="B50" s="130"/>
+      <c r="C50" s="131"/>
+      <c r="D50" s="127"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="111"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="111"/>
+      <c r="J50" s="112"/>
     </row>
     <row r="51" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="130"/>
-      <c r="B51" s="210"/>
-      <c r="C51" s="210"/>
-      <c r="D51" s="210"/>
-      <c r="E51" s="210"/>
-      <c r="F51" s="210"/>
-      <c r="G51" s="210"/>
-      <c r="H51" s="210"/>
-      <c r="I51" s="210"/>
-      <c r="J51" s="211"/>
+      <c r="A51" s="132"/>
+      <c r="B51" s="212"/>
+      <c r="C51" s="212"/>
+      <c r="D51" s="212"/>
+      <c r="E51" s="212"/>
+      <c r="F51" s="212"/>
+      <c r="G51" s="212"/>
+      <c r="H51" s="212"/>
+      <c r="I51" s="212"/>
+      <c r="J51" s="213"/>
     </row>
     <row r="52" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="69"/>
-      <c r="B52" s="128"/>
-      <c r="C52" s="129"/>
-      <c r="D52" s="125"/>
-      <c r="E52" s="109"/>
-      <c r="F52" s="109"/>
-      <c r="G52" s="109"/>
-      <c r="H52" s="109"/>
-      <c r="I52" s="109"/>
-      <c r="J52" s="110"/>
+      <c r="B52" s="130"/>
+      <c r="C52" s="131"/>
+      <c r="D52" s="127"/>
+      <c r="E52" s="111"/>
+      <c r="F52" s="111"/>
+      <c r="G52" s="111"/>
+      <c r="H52" s="111"/>
+      <c r="I52" s="111"/>
+      <c r="J52" s="112"/>
     </row>
     <row r="53" spans="1:10" s="56" customFormat="1" ht="17.25" customHeight="1">
       <c r="A53" s="72" t="s">
@@ -12575,14 +12641,14 @@
       <c r="B54" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="128"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
-      <c r="G54" s="109"/>
-      <c r="H54" s="109"/>
-      <c r="I54" s="109"/>
-      <c r="J54" s="110"/>
+      <c r="C54" s="130"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="111"/>
+      <c r="G54" s="111"/>
+      <c r="H54" s="111"/>
+      <c r="I54" s="111"/>
+      <c r="J54" s="112"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="69">
@@ -12591,14 +12657,14 @@
       <c r="B55" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="145"/>
-      <c r="D55" s="145"/>
-      <c r="E55" s="145"/>
-      <c r="F55" s="145"/>
-      <c r="G55" s="145"/>
-      <c r="H55" s="145"/>
-      <c r="I55" s="145"/>
-      <c r="J55" s="145"/>
+      <c r="C55" s="147"/>
+      <c r="D55" s="147"/>
+      <c r="E55" s="147"/>
+      <c r="F55" s="147"/>
+      <c r="G55" s="147"/>
+      <c r="H55" s="147"/>
+      <c r="I55" s="147"/>
+      <c r="J55" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="56">
@@ -12709,7 +12775,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="153" t="s">
+      <c r="K1" s="158" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="39"/>
@@ -12736,7 +12802,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="154"/>
+      <c r="K2" s="159"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -12754,7 +12820,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="154"/>
+      <c r="K3" s="159"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -12798,18 +12864,18 @@
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="205" t="s">
+      <c r="A6" s="207" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="206"/>
-      <c r="C6" s="206"/>
-      <c r="D6" s="206"/>
-      <c r="E6" s="206"/>
-      <c r="F6" s="206"/>
-      <c r="G6" s="206"/>
-      <c r="H6" s="206"/>
-      <c r="I6" s="206"/>
-      <c r="J6" s="207"/>
+      <c r="B6" s="208"/>
+      <c r="C6" s="208"/>
+      <c r="D6" s="208"/>
+      <c r="E6" s="208"/>
+      <c r="F6" s="208"/>
+      <c r="G6" s="208"/>
+      <c r="H6" s="208"/>
+      <c r="I6" s="208"/>
+      <c r="J6" s="209"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -12825,10 +12891,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>21</v>
@@ -12840,10 +12906,10 @@
         <v>15</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -12876,18 +12942,18 @@
       <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="205" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="206"/>
-      <c r="C10" s="206"/>
-      <c r="D10" s="206"/>
-      <c r="E10" s="206"/>
-      <c r="F10" s="206"/>
-      <c r="G10" s="206"/>
-      <c r="H10" s="206"/>
-      <c r="I10" s="206"/>
-      <c r="J10" s="207"/>
+      <c r="A10" s="207" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="208"/>
+      <c r="C10" s="208"/>
+      <c r="D10" s="208"/>
+      <c r="E10" s="208"/>
+      <c r="F10" s="208"/>
+      <c r="G10" s="208"/>
+      <c r="H10" s="208"/>
+      <c r="I10" s="208"/>
+      <c r="J10" s="209"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="42" t="s">
@@ -12897,10 +12963,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E11" s="42" t="s">
         <v>21</v>
@@ -12912,10 +12978,10 @@
         <v>15</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="J11" s="42" t="s">
         <v>0</v>
@@ -12929,7 +12995,7 @@
         <v>56</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="45" t="s">
         <v>23</v>
@@ -12938,14 +13004,14 @@
         <v>64</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H12" s="45"/>
       <c r="I12" s="43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J12" s="48"/>
     </row>
@@ -12957,23 +13023,23 @@
         <v>57</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="45" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J13" s="51"/>
     </row>
@@ -12985,10 +13051,10 @@
         <v>60</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="45" t="s">
         <v>62</v>
@@ -12997,13 +13063,13 @@
         <v>63</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I14" s="43" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J14" s="48"/>
     </row>
@@ -13012,26 +13078,26 @@
         <v>4</v>
       </c>
       <c r="B15" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="D15" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="45" t="s">
         <v>87</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>88</v>
       </c>
       <c r="H15" s="45"/>
       <c r="I15" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J15" s="48"/>
     </row>
@@ -13043,28 +13109,28 @@
         <v>58</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H16" s="50">
         <v>2</v>
       </c>
       <c r="I16" s="43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J16" s="51" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -13093,8 +13159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13123,7 +13189,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="153" t="s">
+      <c r="K1" s="158" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="54"/>
@@ -13144,7 +13210,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="154"/>
+      <c r="K2" s="159"/>
     </row>
     <row r="3" spans="1:17" s="55" customFormat="1">
       <c r="A3" s="47"/>
@@ -13157,7 +13223,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="154"/>
+      <c r="K3" s="159"/>
     </row>
     <row r="4" spans="1:17" s="55" customFormat="1">
       <c r="A4" s="47"/>
@@ -13172,942 +13238,942 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="163" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="108"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="110"/>
     </row>
     <row r="6" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="111"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="113"/>
+      <c r="A6" s="113"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="114"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="115"/>
     </row>
     <row r="7" spans="1:17" s="56" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="159"/>
-      <c r="B7" s="160"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="162"/>
+      <c r="A7" s="164"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="167"/>
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:17" s="56" customFormat="1">
-      <c r="A8" s="159"/>
-      <c r="B8" s="160"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="162"/>
+      <c r="A8" s="164"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="167"/>
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:17" s="56" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="163"/>
-      <c r="B9" s="164"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="165"/>
+      <c r="A9" s="168"/>
+      <c r="B9" s="169"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="170"/>
     </row>
     <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="158" t="s">
+      <c r="A10" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="108"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="110"/>
     </row>
     <row r="11" spans="1:17" s="58" customFormat="1" ht="129" customHeight="1">
-      <c r="A11" s="166" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="110"/>
+      <c r="A11" s="171" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="112"/>
     </row>
     <row r="12" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="158" t="s">
+      <c r="A12" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="108"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="110"/>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="166" t="s">
+      <c r="A13" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="110"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="112"/>
     </row>
     <row r="14" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="158" t="s">
+      <c r="A14" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="108"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="110"/>
     </row>
     <row r="15" spans="1:17" s="56" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A15" s="171" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="172"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="173"/>
+      <c r="A15" s="176" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="177"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="178"/>
     </row>
     <row r="16" spans="1:17" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="174" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="175"/>
-      <c r="E16" s="175"/>
-      <c r="F16" s="175"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="175"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="176"/>
-    </row>
-    <row r="17" spans="1:10" s="56" customFormat="1" ht="71.25" customHeight="1">
+        <v>105</v>
+      </c>
+      <c r="C16" s="179" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="180"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="180"/>
+      <c r="J16" s="181"/>
+    </row>
+    <row r="17" spans="1:10" s="56" customFormat="1" ht="90" customHeight="1">
       <c r="A17" s="59">
         <v>1</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="177" t="s">
-        <v>178</v>
-      </c>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="179"/>
-    </row>
-    <row r="18" spans="1:10" s="56" customFormat="1" ht="69.75" customHeight="1">
+        <v>103</v>
+      </c>
+      <c r="C17" s="182" t="s">
+        <v>294</v>
+      </c>
+      <c r="D17" s="183"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="183"/>
+      <c r="G17" s="183"/>
+      <c r="H17" s="183"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="184"/>
+    </row>
+    <row r="18" spans="1:10" s="56" customFormat="1" ht="86.25" customHeight="1">
       <c r="A18" s="59">
         <v>2</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="177" t="s">
-        <v>180</v>
-      </c>
-      <c r="D18" s="178"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="178"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="179"/>
+        <v>106</v>
+      </c>
+      <c r="C18" s="182" t="s">
+        <v>298</v>
+      </c>
+      <c r="D18" s="183"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="184"/>
     </row>
     <row r="19" spans="1:10" s="56" customFormat="1">
       <c r="A19" s="59">
         <v>3</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="182" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="178"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="178"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="179"/>
+        <v>119</v>
+      </c>
+      <c r="C19" s="187" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="183"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="183"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="183"/>
+      <c r="I19" s="183"/>
+      <c r="J19" s="184"/>
     </row>
     <row r="20" spans="1:10" s="56" customFormat="1">
       <c r="A20" s="59">
         <v>4</v>
       </c>
       <c r="B20" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="187" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="182" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="178"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="179"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="183"/>
+      <c r="F20" s="183"/>
+      <c r="G20" s="183"/>
+      <c r="H20" s="183"/>
+      <c r="I20" s="183"/>
+      <c r="J20" s="184"/>
     </row>
     <row r="21" spans="1:10" s="56" customFormat="1">
       <c r="A21" s="59">
         <v>5</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="182" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="178"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="178"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="179"/>
+        <v>107</v>
+      </c>
+      <c r="C21" s="187" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="183"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="183"/>
+      <c r="G21" s="183"/>
+      <c r="H21" s="183"/>
+      <c r="I21" s="183"/>
+      <c r="J21" s="184"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1">
-      <c r="A22" s="128"/>
-      <c r="B22" s="133"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="133"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="133"/>
-      <c r="J22" s="129"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="131"/>
     </row>
     <row r="23" spans="1:10" s="56" customFormat="1">
-      <c r="A23" s="171" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" s="172"/>
-      <c r="C23" s="172"/>
-      <c r="D23" s="172"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="173"/>
+      <c r="A23" s="176" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="177"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="178"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A24" s="224" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="156"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="157"/>
+      <c r="A24" s="226" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="161"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="162"/>
     </row>
     <row r="25" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="167" t="s">
+      <c r="A25" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168"/>
-      <c r="H25" s="168"/>
-      <c r="I25" s="168"/>
-      <c r="J25" s="169"/>
+      <c r="B25" s="173"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="173"/>
+      <c r="H25" s="173"/>
+      <c r="I25" s="173"/>
+      <c r="J25" s="174"/>
     </row>
     <row r="26" spans="1:10" s="56" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A26" s="171" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" s="172"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="173"/>
+      <c r="A26" s="176" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="177"/>
+      <c r="C26" s="177"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="178"/>
     </row>
     <row r="27" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="174" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" s="175"/>
-      <c r="E27" s="175"/>
-      <c r="F27" s="175"/>
-      <c r="G27" s="175"/>
-      <c r="H27" s="175"/>
-      <c r="I27" s="175"/>
-      <c r="J27" s="176"/>
+        <v>105</v>
+      </c>
+      <c r="C27" s="179" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="180"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="180"/>
+      <c r="H27" s="180"/>
+      <c r="I27" s="180"/>
+      <c r="J27" s="181"/>
     </row>
     <row r="28" spans="1:10" s="56" customFormat="1" ht="33" customHeight="1">
       <c r="A28" s="59">
         <v>1</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="177" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" s="178"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="179"/>
+        <v>103</v>
+      </c>
+      <c r="C28" s="182" t="s">
+        <v>299</v>
+      </c>
+      <c r="D28" s="183"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="183"/>
+      <c r="I28" s="183"/>
+      <c r="J28" s="184"/>
     </row>
     <row r="29" spans="1:10" s="56" customFormat="1" ht="32.25" customHeight="1">
       <c r="A29" s="59">
         <v>2</v>
       </c>
       <c r="B29" s="59" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="177" t="s">
-        <v>170</v>
-      </c>
-      <c r="D29" s="178"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="179"/>
+        <v>106</v>
+      </c>
+      <c r="C29" s="182" t="s">
+        <v>300</v>
+      </c>
+      <c r="D29" s="183"/>
+      <c r="E29" s="183"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="183"/>
+      <c r="I29" s="183"/>
+      <c r="J29" s="184"/>
     </row>
     <row r="30" spans="1:10" s="56" customFormat="1">
       <c r="A30" s="59">
         <v>3</v>
       </c>
       <c r="B30" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" s="182" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="178"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="178"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="179"/>
+        <v>119</v>
+      </c>
+      <c r="C30" s="187" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="183"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="183"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="183"/>
+      <c r="I30" s="183"/>
+      <c r="J30" s="184"/>
     </row>
     <row r="31" spans="1:10" s="56" customFormat="1">
       <c r="A31" s="59">
         <v>4</v>
       </c>
       <c r="B31" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="187" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="182" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="178"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="178"/>
-      <c r="G31" s="178"/>
-      <c r="H31" s="178"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="179"/>
+      <c r="D31" s="183"/>
+      <c r="E31" s="183"/>
+      <c r="F31" s="183"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="183"/>
+      <c r="I31" s="183"/>
+      <c r="J31" s="184"/>
     </row>
     <row r="32" spans="1:10" s="56" customFormat="1">
       <c r="A32" s="59">
         <v>5</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="182" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="178"/>
-      <c r="E32" s="178"/>
-      <c r="F32" s="178"/>
-      <c r="G32" s="178"/>
-      <c r="H32" s="178"/>
-      <c r="I32" s="178"/>
-      <c r="J32" s="179"/>
+        <v>107</v>
+      </c>
+      <c r="C32" s="187" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="183"/>
+      <c r="E32" s="183"/>
+      <c r="F32" s="183"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="183"/>
+      <c r="I32" s="183"/>
+      <c r="J32" s="184"/>
     </row>
     <row r="33" spans="1:12" s="56" customFormat="1">
-      <c r="A33" s="155"/>
-      <c r="B33" s="208"/>
-      <c r="C33" s="208"/>
-      <c r="D33" s="208"/>
-      <c r="E33" s="208"/>
-      <c r="F33" s="208"/>
-      <c r="G33" s="208"/>
-      <c r="H33" s="208"/>
-      <c r="I33" s="208"/>
-      <c r="J33" s="209"/>
+      <c r="A33" s="160"/>
+      <c r="B33" s="210"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="210"/>
+      <c r="E33" s="210"/>
+      <c r="F33" s="210"/>
+      <c r="G33" s="210"/>
+      <c r="H33" s="210"/>
+      <c r="I33" s="210"/>
+      <c r="J33" s="211"/>
     </row>
     <row r="34" spans="1:12" s="56" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A34" s="171" t="s">
-        <v>254</v>
-      </c>
-      <c r="B34" s="172"/>
-      <c r="C34" s="172"/>
-      <c r="D34" s="172"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="173"/>
+      <c r="A34" s="176" t="s">
+        <v>244</v>
+      </c>
+      <c r="B34" s="177"/>
+      <c r="C34" s="177"/>
+      <c r="D34" s="177"/>
+      <c r="E34" s="177"/>
+      <c r="F34" s="177"/>
+      <c r="G34" s="177"/>
+      <c r="H34" s="177"/>
+      <c r="I34" s="177"/>
+      <c r="J34" s="178"/>
     </row>
     <row r="35" spans="1:12" s="56" customFormat="1" ht="27" customHeight="1">
-      <c r="A35" s="225" t="s">
-        <v>255</v>
-      </c>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="226"/>
+      <c r="A35" s="227" t="s">
+        <v>245</v>
+      </c>
+      <c r="B35" s="107"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="228"/>
     </row>
     <row r="36" spans="1:12" s="77" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="167" t="s">
-        <v>187</v>
-      </c>
-      <c r="B36" s="168"/>
-      <c r="C36" s="168"/>
-      <c r="D36" s="168"/>
-      <c r="E36" s="168"/>
-      <c r="F36" s="168"/>
-      <c r="G36" s="168"/>
-      <c r="H36" s="168"/>
-      <c r="I36" s="168"/>
-      <c r="J36" s="169"/>
+      <c r="A36" s="172" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" s="173"/>
+      <c r="C36" s="173"/>
+      <c r="D36" s="173"/>
+      <c r="E36" s="173"/>
+      <c r="F36" s="173"/>
+      <c r="G36" s="173"/>
+      <c r="H36" s="173"/>
+      <c r="I36" s="173"/>
+      <c r="J36" s="174"/>
       <c r="K36" s="56"/>
       <c r="L36" s="56"/>
     </row>
     <row r="37" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="60" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B37" s="60" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C37" s="61" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D37" s="62" t="s">
-        <v>191</v>
-      </c>
-      <c r="E37" s="212" t="s">
-        <v>192</v>
-      </c>
-      <c r="F37" s="213"/>
-      <c r="G37" s="213"/>
-      <c r="H37" s="213"/>
-      <c r="I37" s="213"/>
-      <c r="J37" s="214"/>
+        <v>181</v>
+      </c>
+      <c r="E37" s="214" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37" s="215"/>
+      <c r="G37" s="215"/>
+      <c r="H37" s="215"/>
+      <c r="I37" s="215"/>
+      <c r="J37" s="216"/>
     </row>
     <row r="38" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="134">
+      <c r="A38" s="136">
         <v>1</v>
       </c>
-      <c r="B38" s="134" t="s">
-        <v>256</v>
+      <c r="B38" s="136" t="s">
+        <v>246</v>
       </c>
       <c r="C38" s="93" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D38" s="92"/>
-      <c r="E38" s="170" t="s">
-        <v>257</v>
-      </c>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="105"/>
-      <c r="I38" s="105"/>
-      <c r="J38" s="105"/>
+      <c r="E38" s="175" t="s">
+        <v>247</v>
+      </c>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="107"/>
       <c r="K38" s="56"/>
       <c r="L38" s="56"/>
     </row>
     <row r="39" spans="1:12" s="56" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A39" s="135"/>
-      <c r="B39" s="135"/>
+      <c r="A39" s="137"/>
+      <c r="B39" s="137"/>
       <c r="C39" s="85" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="E39" s="144" t="s">
+        <v>250</v>
+      </c>
+      <c r="F39" s="145"/>
+      <c r="G39" s="145"/>
+      <c r="H39" s="145"/>
+      <c r="I39" s="145"/>
+      <c r="J39" s="146"/>
+    </row>
+    <row r="40" spans="1:12" s="56" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A40" s="137"/>
+      <c r="B40" s="137"/>
+      <c r="C40" s="85" t="s">
+        <v>251</v>
+      </c>
+      <c r="D40" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="E40" s="144" t="s">
+        <v>253</v>
+      </c>
+      <c r="F40" s="145"/>
+      <c r="G40" s="145"/>
+      <c r="H40" s="145"/>
+      <c r="I40" s="145"/>
+      <c r="J40" s="146"/>
+    </row>
+    <row r="41" spans="1:12" s="56" customFormat="1" ht="33">
+      <c r="A41" s="137"/>
+      <c r="B41" s="137"/>
+      <c r="C41" s="85" t="s">
+        <v>254</v>
+      </c>
+      <c r="D41" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="E41" s="144" t="s">
+        <v>255</v>
+      </c>
+      <c r="F41" s="145"/>
+      <c r="G41" s="145"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
+      <c r="J41" s="146"/>
+    </row>
+    <row r="42" spans="1:12" s="56" customFormat="1" ht="33">
+      <c r="A42" s="137"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="85" t="s">
+        <v>256</v>
+      </c>
+      <c r="D42" s="69"/>
+      <c r="E42" s="144" t="s">
+        <v>257</v>
+      </c>
+      <c r="F42" s="145"/>
+      <c r="G42" s="145"/>
+      <c r="H42" s="145"/>
+      <c r="I42" s="145"/>
+      <c r="J42" s="146"/>
+    </row>
+    <row r="43" spans="1:12" s="58" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A43" s="138"/>
+      <c r="B43" s="138"/>
+      <c r="C43" s="85" t="s">
         <v>258</v>
       </c>
-      <c r="D39" s="93" t="s">
+      <c r="D43" s="85" t="s">
+        <v>231</v>
+      </c>
+      <c r="E43" s="147" t="s">
         <v>259</v>
       </c>
-      <c r="E39" s="142" t="s">
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+    </row>
+    <row r="44" spans="1:12" s="58" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A44" s="149" t="s">
         <v>260</v>
       </c>
-      <c r="F39" s="143"/>
-      <c r="G39" s="143"/>
-      <c r="H39" s="143"/>
-      <c r="I39" s="143"/>
-      <c r="J39" s="144"/>
-    </row>
-    <row r="40" spans="1:12" s="56" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A40" s="135"/>
-      <c r="B40" s="135"/>
-      <c r="C40" s="85" t="s">
-        <v>261</v>
-      </c>
-      <c r="D40" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="E40" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="F40" s="143"/>
-      <c r="G40" s="143"/>
-      <c r="H40" s="143"/>
-      <c r="I40" s="143"/>
-      <c r="J40" s="144"/>
-    </row>
-    <row r="41" spans="1:12" s="56" customFormat="1" ht="33">
-      <c r="A41" s="135"/>
-      <c r="B41" s="135"/>
-      <c r="C41" s="85" t="s">
-        <v>264</v>
-      </c>
-      <c r="D41" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="E41" s="142" t="s">
-        <v>265</v>
-      </c>
-      <c r="F41" s="143"/>
-      <c r="G41" s="143"/>
-      <c r="H41" s="143"/>
-      <c r="I41" s="143"/>
-      <c r="J41" s="144"/>
-    </row>
-    <row r="42" spans="1:12" s="56" customFormat="1" ht="33">
-      <c r="A42" s="135"/>
-      <c r="B42" s="135"/>
-      <c r="C42" s="85" t="s">
-        <v>266</v>
-      </c>
-      <c r="D42" s="69"/>
-      <c r="E42" s="142" t="s">
-        <v>267</v>
-      </c>
-      <c r="F42" s="143"/>
-      <c r="G42" s="143"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="143"/>
-      <c r="J42" s="144"/>
-    </row>
-    <row r="43" spans="1:12" s="58" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A43" s="136"/>
-      <c r="B43" s="136"/>
-      <c r="C43" s="85" t="s">
-        <v>268</v>
-      </c>
-      <c r="D43" s="85" t="s">
-        <v>241</v>
-      </c>
-      <c r="E43" s="145" t="s">
-        <v>269</v>
-      </c>
-      <c r="F43" s="146"/>
-      <c r="G43" s="146"/>
-      <c r="H43" s="146"/>
-      <c r="I43" s="146"/>
-      <c r="J43" s="146"/>
-    </row>
-    <row r="44" spans="1:12" s="58" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A44" s="147" t="s">
-        <v>270</v>
-      </c>
-      <c r="B44" s="148"/>
-      <c r="C44" s="148"/>
-      <c r="D44" s="148"/>
-      <c r="E44" s="148"/>
-      <c r="F44" s="148"/>
-      <c r="G44" s="148"/>
-      <c r="H44" s="148"/>
-      <c r="I44" s="148"/>
-      <c r="J44" s="149"/>
+      <c r="B44" s="150"/>
+      <c r="C44" s="150"/>
+      <c r="D44" s="150"/>
+      <c r="E44" s="150"/>
+      <c r="F44" s="150"/>
+      <c r="G44" s="150"/>
+      <c r="H44" s="150"/>
+      <c r="I44" s="150"/>
+      <c r="J44" s="151"/>
     </row>
     <row r="45" spans="1:12" s="58" customFormat="1">
       <c r="A45" s="59">
         <v>1</v>
       </c>
       <c r="B45" s="88" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C45" s="94" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D45" s="85"/>
-      <c r="E45" s="170" t="s">
-        <v>289</v>
-      </c>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="105"/>
-      <c r="J45" s="105"/>
+      <c r="E45" s="175" t="s">
+        <v>279</v>
+      </c>
+      <c r="F45" s="107"/>
+      <c r="G45" s="107"/>
+      <c r="H45" s="107"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="107"/>
     </row>
     <row r="46" spans="1:12" s="58" customFormat="1">
       <c r="A46" s="67">
         <v>2</v>
       </c>
       <c r="B46" s="68" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C46" s="94" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D46" s="83"/>
-      <c r="E46" s="193" t="s">
-        <v>274</v>
-      </c>
-      <c r="F46" s="194"/>
-      <c r="G46" s="194"/>
-      <c r="H46" s="194"/>
-      <c r="I46" s="194"/>
-      <c r="J46" s="195"/>
+      <c r="E46" s="155" t="s">
+        <v>264</v>
+      </c>
+      <c r="F46" s="156"/>
+      <c r="G46" s="156"/>
+      <c r="H46" s="156"/>
+      <c r="I46" s="156"/>
+      <c r="J46" s="157"/>
     </row>
     <row r="47" spans="1:12" s="58" customFormat="1" ht="150.75" customHeight="1">
       <c r="A47" s="67"/>
       <c r="B47" s="68"/>
       <c r="C47" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D47" s="90" t="s">
-        <v>279</v>
-      </c>
-      <c r="E47" s="193" t="s">
-        <v>293</v>
-      </c>
-      <c r="F47" s="194"/>
-      <c r="G47" s="194"/>
-      <c r="H47" s="194"/>
-      <c r="I47" s="194"/>
-      <c r="J47" s="195"/>
+        <v>269</v>
+      </c>
+      <c r="E47" s="155" t="s">
+        <v>283</v>
+      </c>
+      <c r="F47" s="156"/>
+      <c r="G47" s="156"/>
+      <c r="H47" s="156"/>
+      <c r="I47" s="156"/>
+      <c r="J47" s="157"/>
     </row>
     <row r="48" spans="1:12" s="58" customFormat="1" ht="33">
       <c r="A48" s="67"/>
       <c r="B48" s="68"/>
       <c r="C48" s="94" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="D48" s="90" t="s">
-        <v>280</v>
-      </c>
-      <c r="E48" s="125" t="s">
-        <v>276</v>
-      </c>
-      <c r="F48" s="217"/>
-      <c r="G48" s="217"/>
-      <c r="H48" s="217"/>
-      <c r="I48" s="217"/>
-      <c r="J48" s="218"/>
+        <v>270</v>
+      </c>
+      <c r="E48" s="127" t="s">
+        <v>266</v>
+      </c>
+      <c r="F48" s="219"/>
+      <c r="G48" s="219"/>
+      <c r="H48" s="219"/>
+      <c r="I48" s="219"/>
+      <c r="J48" s="220"/>
     </row>
     <row r="49" spans="1:10" s="58" customFormat="1" ht="84" customHeight="1">
       <c r="A49" s="67"/>
       <c r="B49" s="68"/>
       <c r="C49" s="94" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D49" s="90" t="s">
-        <v>281</v>
-      </c>
-      <c r="E49" s="125" t="s">
-        <v>278</v>
-      </c>
-      <c r="F49" s="217"/>
-      <c r="G49" s="217"/>
-      <c r="H49" s="217"/>
-      <c r="I49" s="217"/>
-      <c r="J49" s="218"/>
+        <v>271</v>
+      </c>
+      <c r="E49" s="127" t="s">
+        <v>268</v>
+      </c>
+      <c r="F49" s="219"/>
+      <c r="G49" s="219"/>
+      <c r="H49" s="219"/>
+      <c r="I49" s="219"/>
+      <c r="J49" s="220"/>
     </row>
     <row r="50" spans="1:10" s="58" customFormat="1" ht="33.75" customHeight="1">
       <c r="A50" s="69">
         <v>3</v>
       </c>
       <c r="B50" s="88" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C50" s="94" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D50" s="84"/>
-      <c r="E50" s="125" t="s">
-        <v>290</v>
-      </c>
-      <c r="F50" s="109"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="109"/>
-      <c r="I50" s="109"/>
-      <c r="J50" s="110"/>
+      <c r="E50" s="127" t="s">
+        <v>280</v>
+      </c>
+      <c r="F50" s="111"/>
+      <c r="G50" s="111"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="111"/>
+      <c r="J50" s="112"/>
     </row>
     <row r="51" spans="1:10" s="58" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A51" s="125"/>
-      <c r="B51" s="126"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
-      <c r="G51" s="126"/>
-      <c r="H51" s="126"/>
-      <c r="I51" s="126"/>
-      <c r="J51" s="127"/>
+      <c r="A51" s="127"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="128"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
+      <c r="G51" s="128"/>
+      <c r="H51" s="128"/>
+      <c r="I51" s="128"/>
+      <c r="J51" s="129"/>
     </row>
     <row r="52" spans="1:10" s="56" customFormat="1">
-      <c r="A52" s="202" t="s">
-        <v>129</v>
-      </c>
-      <c r="B52" s="203"/>
-      <c r="C52" s="203"/>
-      <c r="D52" s="203"/>
-      <c r="E52" s="203"/>
-      <c r="F52" s="203"/>
-      <c r="G52" s="203"/>
-      <c r="H52" s="203"/>
-      <c r="I52" s="203"/>
-      <c r="J52" s="204"/>
+      <c r="A52" s="204" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="205"/>
+      <c r="C52" s="205"/>
+      <c r="D52" s="205"/>
+      <c r="E52" s="205"/>
+      <c r="F52" s="205"/>
+      <c r="G52" s="205"/>
+      <c r="H52" s="205"/>
+      <c r="I52" s="205"/>
+      <c r="J52" s="206"/>
     </row>
     <row r="53" spans="1:10" s="56" customFormat="1">
       <c r="A53" s="59">
         <v>1</v>
       </c>
       <c r="B53" s="64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C53" s="65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D53" s="66"/>
-      <c r="E53" s="170" t="s">
-        <v>184</v>
-      </c>
-      <c r="F53" s="105"/>
-      <c r="G53" s="105"/>
-      <c r="H53" s="105"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="105"/>
+      <c r="E53" s="175" t="s">
+        <v>174</v>
+      </c>
+      <c r="F53" s="107"/>
+      <c r="G53" s="107"/>
+      <c r="H53" s="107"/>
+      <c r="I53" s="107"/>
+      <c r="J53" s="107"/>
     </row>
     <row r="54" spans="1:10" s="56" customFormat="1">
       <c r="A54" s="59">
         <v>2</v>
       </c>
       <c r="B54" s="64" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C54" s="65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D54" s="66"/>
-      <c r="E54" s="170" t="s">
-        <v>185</v>
-      </c>
-      <c r="F54" s="105"/>
-      <c r="G54" s="105"/>
-      <c r="H54" s="105"/>
-      <c r="I54" s="105"/>
-      <c r="J54" s="105"/>
+      <c r="E54" s="175" t="s">
+        <v>175</v>
+      </c>
+      <c r="F54" s="107"/>
+      <c r="G54" s="107"/>
+      <c r="H54" s="107"/>
+      <c r="I54" s="107"/>
+      <c r="J54" s="107"/>
     </row>
     <row r="55" spans="1:10" s="56" customFormat="1">
       <c r="A55" s="59">
         <v>3</v>
       </c>
       <c r="B55" s="64" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C55" s="65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D55" s="66"/>
-      <c r="E55" s="170" t="s">
-        <v>186</v>
-      </c>
-      <c r="F55" s="105"/>
-      <c r="G55" s="105"/>
-      <c r="H55" s="105"/>
-      <c r="I55" s="105"/>
-      <c r="J55" s="105"/>
+      <c r="E55" s="175" t="s">
+        <v>176</v>
+      </c>
+      <c r="F55" s="107"/>
+      <c r="G55" s="107"/>
+      <c r="H55" s="107"/>
+      <c r="I55" s="107"/>
+      <c r="J55" s="107"/>
     </row>
     <row r="56" spans="1:10" s="56" customFormat="1">
-      <c r="A56" s="128"/>
-      <c r="B56" s="133"/>
-      <c r="C56" s="133"/>
-      <c r="D56" s="133"/>
-      <c r="E56" s="133"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="129"/>
+      <c r="A56" s="130"/>
+      <c r="B56" s="135"/>
+      <c r="C56" s="135"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="135"/>
+      <c r="F56" s="135"/>
+      <c r="G56" s="135"/>
+      <c r="H56" s="135"/>
+      <c r="I56" s="135"/>
+      <c r="J56" s="131"/>
     </row>
     <row r="57" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A57" s="139" t="s">
+      <c r="A57" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="140"/>
-      <c r="C57" s="140"/>
-      <c r="D57" s="140"/>
-      <c r="E57" s="140"/>
-      <c r="F57" s="140"/>
-      <c r="G57" s="140"/>
-      <c r="H57" s="140"/>
-      <c r="I57" s="140"/>
-      <c r="J57" s="141"/>
+      <c r="B57" s="142"/>
+      <c r="C57" s="142"/>
+      <c r="D57" s="142"/>
+      <c r="E57" s="142"/>
+      <c r="F57" s="142"/>
+      <c r="G57" s="142"/>
+      <c r="H57" s="142"/>
+      <c r="I57" s="142"/>
+      <c r="J57" s="143"/>
     </row>
     <row r="58" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A58" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="137" t="s">
+      <c r="B58" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="138"/>
-      <c r="D58" s="125" t="s">
+      <c r="C58" s="140"/>
+      <c r="D58" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="109"/>
-      <c r="F58" s="109"/>
-      <c r="G58" s="109"/>
-      <c r="H58" s="109"/>
-      <c r="I58" s="109"/>
-      <c r="J58" s="110"/>
+      <c r="E58" s="111"/>
+      <c r="F58" s="111"/>
+      <c r="G58" s="111"/>
+      <c r="H58" s="111"/>
+      <c r="I58" s="111"/>
+      <c r="J58" s="112"/>
     </row>
     <row r="59" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="130"/>
-      <c r="B59" s="210"/>
-      <c r="C59" s="210"/>
-      <c r="D59" s="210"/>
-      <c r="E59" s="210"/>
-      <c r="F59" s="210"/>
-      <c r="G59" s="210"/>
-      <c r="H59" s="210"/>
-      <c r="I59" s="210"/>
-      <c r="J59" s="211"/>
+      <c r="A59" s="132"/>
+      <c r="B59" s="212"/>
+      <c r="C59" s="212"/>
+      <c r="D59" s="212"/>
+      <c r="E59" s="212"/>
+      <c r="F59" s="212"/>
+      <c r="G59" s="212"/>
+      <c r="H59" s="212"/>
+      <c r="I59" s="212"/>
+      <c r="J59" s="213"/>
     </row>
     <row r="60" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="69"/>
-      <c r="B60" s="128"/>
-      <c r="C60" s="129"/>
-      <c r="D60" s="125"/>
-      <c r="E60" s="109"/>
-      <c r="F60" s="109"/>
-      <c r="G60" s="109"/>
-      <c r="H60" s="109"/>
-      <c r="I60" s="109"/>
-      <c r="J60" s="110"/>
+      <c r="B60" s="130"/>
+      <c r="C60" s="131"/>
+      <c r="D60" s="127"/>
+      <c r="E60" s="111"/>
+      <c r="F60" s="111"/>
+      <c r="G60" s="111"/>
+      <c r="H60" s="111"/>
+      <c r="I60" s="111"/>
+      <c r="J60" s="112"/>
     </row>
     <row r="61" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="69"/>
-      <c r="B61" s="128"/>
-      <c r="C61" s="129"/>
-      <c r="D61" s="125"/>
-      <c r="E61" s="109"/>
-      <c r="F61" s="109"/>
-      <c r="G61" s="109"/>
-      <c r="H61" s="109"/>
-      <c r="I61" s="109"/>
-      <c r="J61" s="110"/>
+      <c r="B61" s="130"/>
+      <c r="C61" s="131"/>
+      <c r="D61" s="127"/>
+      <c r="E61" s="111"/>
+      <c r="F61" s="111"/>
+      <c r="G61" s="111"/>
+      <c r="H61" s="111"/>
+      <c r="I61" s="111"/>
+      <c r="J61" s="112"/>
     </row>
     <row r="62" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A62" s="130"/>
-      <c r="B62" s="210"/>
-      <c r="C62" s="210"/>
-      <c r="D62" s="210"/>
-      <c r="E62" s="210"/>
-      <c r="F62" s="210"/>
-      <c r="G62" s="210"/>
-      <c r="H62" s="210"/>
-      <c r="I62" s="210"/>
-      <c r="J62" s="211"/>
+      <c r="A62" s="132"/>
+      <c r="B62" s="212"/>
+      <c r="C62" s="212"/>
+      <c r="D62" s="212"/>
+      <c r="E62" s="212"/>
+      <c r="F62" s="212"/>
+      <c r="G62" s="212"/>
+      <c r="H62" s="212"/>
+      <c r="I62" s="212"/>
+      <c r="J62" s="213"/>
     </row>
     <row r="63" spans="1:10" s="56" customFormat="1" ht="17.25" customHeight="1">
       <c r="A63" s="69"/>
-      <c r="B63" s="128"/>
-      <c r="C63" s="129"/>
-      <c r="D63" s="125"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="109"/>
-      <c r="G63" s="109"/>
-      <c r="H63" s="109"/>
-      <c r="I63" s="109"/>
-      <c r="J63" s="110"/>
+      <c r="B63" s="130"/>
+      <c r="C63" s="131"/>
+      <c r="D63" s="127"/>
+      <c r="E63" s="111"/>
+      <c r="F63" s="111"/>
+      <c r="G63" s="111"/>
+      <c r="H63" s="111"/>
+      <c r="I63" s="111"/>
+      <c r="J63" s="112"/>
     </row>
     <row r="64" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="72" t="s">
@@ -14130,14 +14196,14 @@
       <c r="B65" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="128"/>
-      <c r="D65" s="109"/>
-      <c r="E65" s="109"/>
-      <c r="F65" s="109"/>
-      <c r="G65" s="109"/>
-      <c r="H65" s="109"/>
-      <c r="I65" s="109"/>
-      <c r="J65" s="110"/>
+      <c r="C65" s="130"/>
+      <c r="D65" s="111"/>
+      <c r="E65" s="111"/>
+      <c r="F65" s="111"/>
+      <c r="G65" s="111"/>
+      <c r="H65" s="111"/>
+      <c r="I65" s="111"/>
+      <c r="J65" s="112"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="69">
@@ -14146,14 +14212,14 @@
       <c r="B66" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="145"/>
-      <c r="D66" s="145"/>
-      <c r="E66" s="145"/>
-      <c r="F66" s="145"/>
-      <c r="G66" s="145"/>
-      <c r="H66" s="145"/>
-      <c r="I66" s="145"/>
-      <c r="J66" s="145"/>
+      <c r="C66" s="147"/>
+      <c r="D66" s="147"/>
+      <c r="E66" s="147"/>
+      <c r="F66" s="147"/>
+      <c r="G66" s="147"/>
+      <c r="H66" s="147"/>
+      <c r="I66" s="147"/>
+      <c r="J66" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="65">
@@ -14178,6 +14244,17 @@
     <mergeCell ref="E46:J46"/>
     <mergeCell ref="E47:J47"/>
     <mergeCell ref="K1:K3"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A22:J22"/>
     <mergeCell ref="E54:J54"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="D63:J63"/>
@@ -14185,10 +14262,6 @@
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="D58:J58"/>
     <mergeCell ref="A57:J57"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E43:J43"/>
     <mergeCell ref="A52:J52"/>
     <mergeCell ref="E53:J53"/>
     <mergeCell ref="E55:J55"/>
@@ -14205,13 +14278,6 @@
     <mergeCell ref="A25:J25"/>
     <mergeCell ref="A33:J33"/>
     <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A22:J22"/>
     <mergeCell ref="A26:J26"/>
     <mergeCell ref="C27:J27"/>
     <mergeCell ref="C28:J28"/>

--- a/APF/RA006/RA006_APF0101_角色維護.xlsx
+++ b/APF/RA006/RA006_APF0101_角色維護.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15360" windowHeight="7665" tabRatio="797" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15360" windowHeight="7665" tabRatio="797" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -3778,13 +3778,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>9524</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>84</xdr:row>
-          <xdr:rowOff>171449</xdr:rowOff>
+          <xdr:row>85</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3835,8 +3835,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>666750</xdr:colOff>
-          <xdr:row>98</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:row>103</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9436,8 +9436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O89" sqref="O89"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M95" sqref="M95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9754,8 +9754,8 @@
               <to>
                 <xdr:col>11</xdr:col>
                 <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>98</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:row>103</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -13159,7 +13159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C30" sqref="C30:J30"/>
     </sheetView>
   </sheetViews>

--- a/APF/RA006/RA006_APF0101_角色維護.xlsx
+++ b/APF/RA006/RA006_APF0101_角色維護.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15360" windowHeight="7665" tabRatio="797" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15360" windowHeight="7665" tabRatio="797"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">畫面_APF0101MA1!$A$1:$J$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">畫面_APF0101MA1!$A$1:$J$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0101MM1!$A$1:$J$78</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">畫面_APF0101MU1!$A$1:$J$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">欄位_APF0101MA1!$A$1:$J$16</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="324">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -936,10 +936,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1.前畫面:首頁
 1.1 SESSION內容:
 1.2 成立條件:該使用者擁有此功能查詢權限，新增、刪除、明細、匯出按鈕的enable/disable，依權限設定決定。</t>
@@ -1000,11 +996,140 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>ControllerName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>共通UI Button權限驗證</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0101MM1_Query</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_CLICK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得角色附表資料</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0101MM1_Grid</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全選</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RoleDeleteCheckList</t>
+  </si>
+  <si>
+    <t>『APF0101MA1』Form</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.開啟APF0101MA1_Edit
+2.呼叫[APFRoleController.CreateRole]Method</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ControllerName</t>
+  </si>
+  <si>
+    <t>APF0101MA1_Edit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>回上一頁</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0101MU1_Link</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RoleId</t>
+  </si>
+  <si>
+    <t>APF0101MU1_Edit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>apfModel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入/輸出/必填</t>
+  </si>
+  <si>
+    <t>輸入/輸出/必填</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入/輸出/必填</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入/輸出/必填</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_Role</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>V = invisible，不顯示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入之角色名稱不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 49。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入之角色代號不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 50。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入之角色名稱不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 50。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>『APF0101MM1』Form</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>_LOAD</t>
+    <t>A._LOAD</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1013,23 +1138,23 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>APFRoleController.Query</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">呼叫[APFRoleController.UIPermission]Method </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APFRoleController.UIPermission</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>呼叫[APFRoleController.GetPermissionByControllerName]Method 驗證APF0101MM1內UI Button權限</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PermissionHelper.GetPermissionByControllerName</t>
+    <t>A.2 APFRoleController.Query</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.呼叫[APFRoleController.UIPermission]Method </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.2.1 APFRoleController.UIPermission</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫[PermissionHelper.GetPermissionByControllerName]Method 驗證APF0101MM1內UI Button權限</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.2.1.1 PermissionHelper.GetPermissionByControllerName</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1041,15 +1166,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>APF0101MM1_Query</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>新增</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>_CLICK</t>
+    <t>A._CLICK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A._CLICK</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1070,12 +1195,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>APFRoleController.CreateRole</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>apfRoleM,
-coreRoleM</t>
+    <t>A.1 APFRoleController.CreateRole[HttpGet]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1083,304 +1203,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>確認</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>開啟APF0101MM1，呼叫[APFRoleController.GetRole]Method</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APFRoleController.GetRole</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>RoleManager.GetRoles</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>取得角色資料</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APFRoleProfileManager.GetRoleProfiles</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>取得角色附表資料</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>清除重填</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>_CLICK</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>清除APF0101MM1_Query畫面所有欄位</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0101MM1_Grid</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>全選</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>將APF0101MM1_Grid內所有項目勾選</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>取消</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>將APF0101MM1_Grid內所有項目取消勾選</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>刪除</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APFRoleController.DeleteRole</t>
-  </si>
-  <si>
-    <t>RoleDeleteCheckList</t>
-  </si>
-  <si>
-    <t>將APF0101MM1_Grid內所有勾選項目刪除</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>匯出EXCEL</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APFRoleController.Excel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>context</t>
-  </si>
-  <si>
-    <t>將所有查詢結果匯出Excel檔案</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>明細</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1以導頁方式開啟APF0101MU1
-2.呼叫[APFRoleController.EditRole]Method</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APFRoleController.EditRole</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>將選取的角色ID傳至到APF0101MU1。。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>『APF0101MA1』Form</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.開啟APF0101MA1_Edit
-2.呼叫[APFRoleController.CreateRole]Method</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>呼叫[APFRoleController.GetPermissionByControllerName]Method驗證APF0101MA1 內UI Button權限</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ControllerName</t>
-  </si>
-  <si>
-    <t>APF0101MA1_Edit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>回上一頁</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.取消新增，以導頁方式開啟APF0101MM1，並帶回原先的查詢條件
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>2.呼叫[APFRoleController.GetRole]Method</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>將原始查詢條件回傳APF0101MM1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>儲存</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>apfModel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.呼叫[RoleManager.Add]Method
-2.呼叫[APFRoleProfileManager.CreateRoleProfile]Method
-3.回傳ActionResult結果,確認新增是否成功,成功右下角提示「儲存成功」，以導頁方式開啟APF0101MM1.cshtml,,失敗以導頁方式開啟錯誤訊息畫面error.cshtml。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>RoleManager.Add</t>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新增資料至Core_Role</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APFRoleProfileManager.CreateRoleProfile</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新增資料至apf_roleprofile</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0101MU1_Link</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>『APF0101MU1』Form</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.開啟APF0101MU1_Edit
-2.呼叫[APFRoleController.EditRole]Method</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APFRoleController.EditRole</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.呼叫[RoleManager.GetRoleByID]Method
-2.呼叫[APFRoleProfileManager.GetRoleProfileByRid]Method
-3.呼叫[APFRoleController.UIPermission]Method </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>RoleManager.GetRoleByID</t>
-  </si>
-  <si>
-    <t>RoleId</t>
-  </si>
-  <si>
-    <t>取得Core_Role資料</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APFRoleProfileManager.GetRoleProfileByRid</t>
-  </si>
-  <si>
-    <t>取得至apf_roleprofile資料</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APFRoleController.UIPermission</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>呼叫[APFRoleController.GetPermissionByControllerName]Method驗證APF0101MU1 內UI Button權限</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PermissionHelper.GetPermissionByControllerName</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>共通UI Button權限驗證</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0101MU1_Edit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>回上一頁</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>_CLICK</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>儲存</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.呼叫[APFRoleController.EditRole]Method</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>RoleManager.Edit</t>
-  </si>
-  <si>
-    <t>更新Core_Role資料</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APFRoleProfileManager.EditRoleProfile</t>
-  </si>
-  <si>
-    <t>更新至apf_roleprofile資料</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>apfModel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Rid,
-Name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Rid,
-groupId,
-Enable,
-sourceType,
-remark</t>
+    <t>1.開啟APF0101MM1，呼叫[APFRoleController.GetRole]Method</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1
+APFRoleController.GetRole</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1409,142 +1237,499 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>輸入/輸出/必填</t>
-  </si>
-  <si>
-    <t>輸入/輸出/必填</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入/輸出/必填</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入/輸出/必填</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>重新載入</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>清除所有可變更欄位</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>取消修改，以導頁方式開啟APF0101MM1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>取消修改，重新載入該角色資訊</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.出現提示訊息，訊息內容請參考APF訊息表-APF_NO 20。
-1.1若選擇是，則呼叫[APFRoleController.DeleteRole]Method 
-1.2若選擇否，則不做任何動作</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.出現提示訊息，訊息內容請參考APF訊息表-APF_NO 。
-1.1若選擇是，則呼叫[APFRoleController.CreateRole]Method
-1.2若選擇否，則不做任何動作</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.出現提示訊息，訊息內容請參考APF訊息表-APF_NO 。
-1.1若選擇是
-  1.1.1則呼叫[RoleManager.Edit]Method
-  1.1.2.呼叫[APFRoleProfileManager.EditRoleProfile]Method
-  1.1.3.回傳ActionResult結果,確認新增是否成功,成功右下角提示「儲存成  功」，以導頁方式開啟APF0101MM1.cshtml,失敗以導頁方式開啟錯誤訊息畫面error.cshtml。
-1.2若選擇否，則不做任何動作</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.匯出筆數若大於65535筆，系統提示訊息，訊息內容請參考APF訊息表-APF_NO 34。
-2.小於65535筆則呼叫[APFRoleController.Excel]Method </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>群組識別值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_Role</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>V = invisible，不顯示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>A.1.1 APFRoleController.UIPermission</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫[PermissionHelper.GetPermissionByControllerName]Method 驗證APF0101MM1內UI Button權限</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1.1.1 PermissionHelper.GetPermissionByControllerName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.2 RoleManager.GetRoles</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得角色資料</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.3 APFRoleProfileManager.GetRoleProfiles</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>清除重填</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">清除APF0101MM1_Query畫面所有欄位
+1.txtINPUT_GROUP_ID=""
+  txtINPUT_NAME=""
+  rbtINPUT_SOURCE_TYPE =(value="2" checked)
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">將APF0101MM1_Grid內所有項目勾選
+1.$('#dvGrid input[type="checkbox"]').each(function () {
+                $(this).prop("checked", true);
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_CLICK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>將APF0101MM1_Grid內所有項目取消勾選
+1.$('#dvGrid input[type="checkbox"]').each(function () {
+                $(this).prop("checked", False);</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>刪除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A._CLICK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.呼叫[APFRoleController.DeleteRole]Method </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1 APFRoleController.DeleteRole</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>將APF0101MM1_Grid內所有勾選項目刪除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>匯出EXCEL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.呼叫[APFRoleController.Excel]Method </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1 APFRoleController.Excel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>apfModel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>將所有查詢結果匯出Excel檔案</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>明細</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1以導頁方式開啟APF0101MU1
+2.呼叫[APFRoleController.EditRole]Method</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>A.1 APFRoleController.EditRole</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>[HttpGet]</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.將選取的角色ID傳至到APF0101MU1。。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:英數字
+最大長度限制:英文10(控制項控制)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入型態:string
+格式:中英數字
+最大長度限制:中文20(控制項控制)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>輸入型態:string
 格式:英數字
 最大長度限制:英文10(控制項控制)
-前端檢核訊息，請參考APF訊息表。</t>
+必填欄位。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>輸入型態:string
 格式:中英數字
 最大長度限制:中文20(控制項控制)
-前端檢核訊息，請參考APF訊息表。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-格式:英數字
-最大長度限制:英文10(控制項控制)
-必填欄位。
-前端檢核訊息，請參考APF訊息表。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-格式:中英數字
-最大長度限制:中文20(控制項控制)
-必填欄位。
-前端檢核訊息，請參考APF訊息表。</t>
+必填欄位。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A. _LOAD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1
+APFRoleController.CreateRole[HttpGet]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>apfModel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.呼叫[APFRoleController.UIPermission]Method </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1.1 APFRoleController.UIPermission</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫[APFRoleController.GetPermissionByControllerName]Method驗證APF0101MA1 內UI Button權限</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1.1.1
+PermissionHelper.GetPermissionByControllerName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>共通UI Button權限驗證</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.取消新增，以導頁方式開啟APF0101MM1，並帶回原先的查詢條件
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>2.呼叫[APFRoleController.GetRole]Method</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.2 APFRoleController.GetRole
+[HttpGet]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>將原始查詢條件回傳APF0101MM1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>儲存</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A. _CLICK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫[APFRoleController.CreateRole]Method</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>A.1 APFRoleController.CreateRole</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>[HttpPost]</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>1.呼叫[RoleManager.Add]Method;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">FrameWork提供的Method不做解釋
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>2.呼叫[APFRoleProfileManager.CreateRoleProfile]Method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>3.回傳ActionResult結果,確認新增是否成功,成功右下角提示「儲存成功」，以導頁方式開啟APF0101MM1.cshtml,,失敗以導頁方式開啟錯誤訊息畫面error.cshtml。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1.1
+RoleManager.Add</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新增資料至Core_Role</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1.2
+APFRoleProfileManager.CreateRoleProfile</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rid,
+groupId,
+Enable,
+sourceType,
+remark</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新增資料至apf_roleprofile</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>清除重填</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_CLICK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>『APF0101MU1』Form</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.
+_LOAD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.開啟APF0101MU1_Edit
+2.呼叫[APFRoleController.EditRole]Method</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1 APFRoleController.EditRole</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.呼叫[RoleManager.GetRoleByID]Method
+2.呼叫[APFRoleProfileManager.GetRoleProfileByRid]Method
+3.呼叫[APFRoleController.UIPermission]Method </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1.1
+RoleManager.GetRoleByID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得Core_Role資料</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1.2 APFRoleProfileManager.GetRoleProfileByRid</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得至apf_roleprofile資料</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1.3
+APFRoleController.UIPermission</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫[PermissionHelper.GetPermissionByControllerName]Method驗證APF0101MU1 內UI Button權限</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1.3.1
+PermissionHelper.GetPermissionByControllerName</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>共通UI Button權限驗證</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>回上一頁</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_CLICK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取消修改，以導頁方式開啟APF0101MM1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>儲存</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.
+_CLICK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫[APFRoleController.EditRole]Method</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1
+APFRoleController.EditRole</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>apfModel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.呼叫[RoleManager.Edit]Method
+2.呼叫[APFRoleProfileManager.EditRoleProfile]Method
+3.回傳ActionResult結果,確認新增是否成功,成功右下角提示「儲存成功」，以導頁方式開啟APF0101MM1.cshtml,失敗以導頁方式開啟錯誤訊息畫面error.cshtml。。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1.1
+RoleManager.Edit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rid,
+Name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新Core_Role資料</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A.1.2
+APFRoleProfileManager.EditRoleProfile</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Rid,
+groupId,
+Enable,
+sourceType,
+remark</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新至apf_roleprofile資料</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重新載入</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_CLICK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>放棄編輯，重新載入原有資料</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>系統提示訊息，訊息內容請參考APF訊息提示 APF_NO 46
+若選擇是，則清除所有欄位，若選擇否，則不做任何動作。
+1.txtINPUT_GROUP_ID=""
+  txtINPUT_NAME=""
+  txtINPUT_REMARK=""</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>輸入之角色代號不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 49。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入之角色名稱不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 49。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入型態:string
-格式:中英數字
-最大長度限制:中文20(控制項控制)
-必填欄位。
-前端檢核訊息，請參考APF訊息表。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入之角色代號不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 50。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入之角色名稱不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 50。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1552,7 +1737,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1754,8 +1939,22 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1795,6 +1994,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2068,7 +2273,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2277,9 +2482,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2289,372 +2491,420 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2662,6 +2912,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2716,6 +2972,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3835,8 +4103,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>666750</xdr:colOff>
-          <xdr:row>103</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:row>105</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8600,7 +8868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -8614,12 +8882,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="30" t="s">
@@ -8662,19 +8930,19 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="111" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>155</v>
       </c>
       <c r="C5" s="34"/>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="80" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="102"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="34" t="s">
         <v>154</v>
       </c>
@@ -8684,46 +8952,46 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="111" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>156</v>
       </c>
       <c r="C7" s="34"/>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="80" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="102"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="34" t="s">
         <v>157</v>
       </c>
       <c r="C8" s="34"/>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="80" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="111" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>159</v>
       </c>
       <c r="C9" s="34"/>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="80" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
-      <c r="A10" s="102"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="34" t="s">
         <v>158</v>
       </c>
       <c r="C10" s="34"/>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="80" t="s">
         <v>165</v>
       </c>
     </row>
@@ -8817,7 +9085,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="158" t="s">
+      <c r="K1" s="167" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="39"/>
@@ -8844,7 +9112,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="159"/>
+      <c r="K2" s="168"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -8862,7 +9130,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="159"/>
+      <c r="K3" s="168"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -8906,18 +9174,18 @@
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="207" t="s">
+      <c r="A6" s="224" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="208"/>
-      <c r="C6" s="208"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="208"/>
-      <c r="H6" s="208"/>
-      <c r="I6" s="208"/>
-      <c r="J6" s="209"/>
+      <c r="B6" s="225"/>
+      <c r="C6" s="225"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="225"/>
+      <c r="I6" s="225"/>
+      <c r="J6" s="226"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -8951,7 +9219,7 @@
         <v>125</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>273</v>
+        <v>201</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -8984,18 +9252,18 @@
       <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="207" t="s">
+      <c r="A10" s="224" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="208"/>
-      <c r="C10" s="208"/>
-      <c r="D10" s="208"/>
-      <c r="E10" s="208"/>
-      <c r="F10" s="208"/>
-      <c r="G10" s="208"/>
-      <c r="H10" s="208"/>
-      <c r="I10" s="208"/>
-      <c r="J10" s="209"/>
+      <c r="B10" s="225"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="225"/>
+      <c r="E10" s="225"/>
+      <c r="F10" s="225"/>
+      <c r="G10" s="225"/>
+      <c r="H10" s="225"/>
+      <c r="I10" s="225"/>
+      <c r="J10" s="226"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="42" t="s">
@@ -9023,7 +9291,7 @@
         <v>125</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>273</v>
+        <v>201</v>
       </c>
       <c r="J11" s="42" t="s">
         <v>0</v>
@@ -9305,7 +9573,7 @@
       <c r="C6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="80">
+      <c r="D6" s="79">
         <v>41550</v>
       </c>
       <c r="E6" s="12"/>
@@ -9436,8 +9704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M95" sqref="M95"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N101" sqref="N101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9452,15 +9720,15 @@
       <c r="A1" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="116" t="s">
+      <c r="M1" s="125" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="117"/>
+      <c r="M2" s="126"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="117"/>
+      <c r="M3" s="126"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -9477,208 +9745,208 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="126"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="135"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="115"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="108" t="s">
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="110"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="119"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="115" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="111" t="s">
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="111"/>
-      <c r="H8" s="111"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="112"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="121"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="118" t="s">
+      <c r="A9" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="119"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="108" t="s">
+      <c r="B9" s="128"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="110"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="119"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="111" t="s">
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="G10" s="111"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="112"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="121"/>
     </row>
     <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="124" t="s">
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="110"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="119"/>
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="112"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="121"/>
     </row>
     <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="124" t="s">
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="110"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="119"/>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="111"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="112"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="121"/>
     </row>
     <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="129" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="112"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="121"/>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="121" t="s">
+      <c r="A86" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="B86" s="122"/>
-      <c r="C86" s="122"/>
-      <c r="D86" s="122"/>
-      <c r="E86" s="122"/>
-      <c r="F86" s="122"/>
-      <c r="G86" s="122"/>
-      <c r="H86" s="122"/>
-      <c r="I86" s="122"/>
-      <c r="J86" s="122"/>
-      <c r="K86" s="122"/>
-      <c r="L86" s="123"/>
+      <c r="B86" s="131"/>
+      <c r="C86" s="131"/>
+      <c r="D86" s="131"/>
+      <c r="E86" s="131"/>
+      <c r="F86" s="131"/>
+      <c r="G86" s="131"/>
+      <c r="H86" s="131"/>
+      <c r="I86" s="131"/>
+      <c r="J86" s="131"/>
+      <c r="K86" s="131"/>
+      <c r="L86" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -9754,8 +10022,8 @@
               <to>
                 <xdr:col>11</xdr:col>
                 <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>103</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>105</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -9780,15 +10048,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="116" t="s">
+      <c r="P1" s="125" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="117"/>
+      <c r="P2" s="126"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="117"/>
+      <c r="P3" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9838,8 +10106,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:J18"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9869,7 +10137,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="158" t="s">
+      <c r="K1" s="167" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="54"/>
@@ -9890,7 +10158,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="159"/>
+      <c r="K2" s="168"/>
     </row>
     <row r="3" spans="1:17" s="55" customFormat="1">
       <c r="A3" s="47"/>
@@ -9903,7 +10171,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="159"/>
+      <c r="K3" s="168"/>
     </row>
     <row r="4" spans="1:17" s="55" customFormat="1">
       <c r="A4" s="47"/>
@@ -9918,152 +10186,152 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="163" t="s">
+      <c r="A5" s="172" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="110"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="119"/>
     </row>
     <row r="6" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="113"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="115"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="124"/>
     </row>
     <row r="7" spans="1:17" s="56" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="164"/>
-      <c r="B7" s="165"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="166"/>
-      <c r="J7" s="167"/>
+      <c r="A7" s="173"/>
+      <c r="B7" s="174"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="176"/>
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:17" s="56" customFormat="1">
-      <c r="A8" s="164"/>
-      <c r="B8" s="165"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="165"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="167"/>
+      <c r="A8" s="173"/>
+      <c r="B8" s="174"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="176"/>
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:17" s="56" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="168"/>
-      <c r="B9" s="169"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="169"/>
-      <c r="H9" s="169"/>
-      <c r="I9" s="169"/>
-      <c r="J9" s="170"/>
+      <c r="A9" s="177"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="179"/>
     </row>
     <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="110"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="119"/>
     </row>
     <row r="11" spans="1:17" s="58" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="171" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="112"/>
+      <c r="A11" s="180" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="121"/>
     </row>
     <row r="12" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="163" t="s">
+      <c r="A12" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="110"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="119"/>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="171" t="s">
+      <c r="A13" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="112"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="163" t="s">
+      <c r="A14" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="110"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="119"/>
     </row>
     <row r="15" spans="1:17" s="56" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="176" t="s">
+      <c r="A15" s="185" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="177"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="177"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="177"/>
-      <c r="J15" s="178"/>
+      <c r="B15" s="186"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="187"/>
     </row>
     <row r="16" spans="1:17" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="59" t="s">
@@ -10072,52 +10340,52 @@
       <c r="B16" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="179" t="s">
+      <c r="C16" s="188" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="180"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="180"/>
-      <c r="J16" s="181"/>
-    </row>
-    <row r="17" spans="1:10" s="56" customFormat="1" ht="71.25" customHeight="1">
+      <c r="D16" s="189"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="190"/>
+    </row>
+    <row r="17" spans="1:10" s="56" customFormat="1" ht="54.75" customHeight="1">
       <c r="A17" s="59">
         <v>1</v>
       </c>
       <c r="B17" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="182" t="s">
-        <v>292</v>
-      </c>
-      <c r="D17" s="183"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="183"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="184"/>
-    </row>
-    <row r="18" spans="1:10" s="56" customFormat="1" ht="69" customHeight="1">
+      <c r="C17" s="191" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="192"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="193"/>
+    </row>
+    <row r="18" spans="1:10" s="56" customFormat="1" ht="59.25" customHeight="1">
       <c r="A18" s="59">
         <v>2</v>
       </c>
       <c r="B18" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="182" t="s">
-        <v>293</v>
-      </c>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="184"/>
+      <c r="C18" s="191" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="193"/>
     </row>
     <row r="19" spans="1:10" s="56" customFormat="1">
       <c r="A19" s="59">
@@ -10126,42 +10394,42 @@
       <c r="B19" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="182" t="s">
+      <c r="C19" s="191" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="183"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="183"/>
-      <c r="J19" s="184"/>
+      <c r="D19" s="192"/>
+      <c r="E19" s="192"/>
+      <c r="F19" s="192"/>
+      <c r="G19" s="192"/>
+      <c r="H19" s="192"/>
+      <c r="I19" s="192"/>
+      <c r="J19" s="193"/>
     </row>
     <row r="20" spans="1:10" s="56" customFormat="1">
-      <c r="A20" s="130"/>
-      <c r="B20" s="135"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="131"/>
+      <c r="A20" s="139"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="140"/>
     </row>
     <row r="21" spans="1:10" s="56" customFormat="1">
-      <c r="A21" s="176" t="s">
+      <c r="A21" s="185" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="177"/>
-      <c r="C21" s="177"/>
-      <c r="D21" s="177"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="177"/>
-      <c r="J21" s="178"/>
+      <c r="B21" s="186"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="186"/>
+      <c r="E21" s="186"/>
+      <c r="F21" s="186"/>
+      <c r="G21" s="186"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="186"/>
+      <c r="J21" s="187"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="59" t="s">
@@ -10170,16 +10438,16 @@
       <c r="B22" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="179" t="s">
+      <c r="C22" s="188" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="180"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="180"/>
-      <c r="J22" s="181"/>
+      <c r="D22" s="189"/>
+      <c r="E22" s="189"/>
+      <c r="F22" s="189"/>
+      <c r="G22" s="189"/>
+      <c r="H22" s="189"/>
+      <c r="I22" s="189"/>
+      <c r="J22" s="190"/>
     </row>
     <row r="23" spans="1:10" s="56" customFormat="1">
       <c r="A23" s="59">
@@ -10188,16 +10456,16 @@
       <c r="B23" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="187" t="s">
+      <c r="C23" s="196" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="183"/>
-      <c r="E23" s="183"/>
-      <c r="F23" s="183"/>
-      <c r="G23" s="183"/>
-      <c r="H23" s="183"/>
-      <c r="I23" s="183"/>
-      <c r="J23" s="184"/>
+      <c r="D23" s="192"/>
+      <c r="E23" s="192"/>
+      <c r="F23" s="192"/>
+      <c r="G23" s="192"/>
+      <c r="H23" s="192"/>
+      <c r="I23" s="192"/>
+      <c r="J23" s="193"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1">
       <c r="A24" s="59">
@@ -10206,16 +10474,16 @@
       <c r="B24" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="187" t="s">
+      <c r="C24" s="196" t="s">
         <v>112</v>
       </c>
-      <c r="D24" s="183"/>
-      <c r="E24" s="183"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="183"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="183"/>
-      <c r="J24" s="184"/>
+      <c r="D24" s="192"/>
+      <c r="E24" s="192"/>
+      <c r="F24" s="192"/>
+      <c r="G24" s="192"/>
+      <c r="H24" s="192"/>
+      <c r="I24" s="192"/>
+      <c r="J24" s="193"/>
     </row>
     <row r="25" spans="1:10" s="56" customFormat="1">
       <c r="A25" s="59">
@@ -10224,16 +10492,16 @@
       <c r="B25" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="187" t="s">
+      <c r="C25" s="196" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="183"/>
-      <c r="E25" s="183"/>
-      <c r="F25" s="183"/>
-      <c r="G25" s="183"/>
-      <c r="H25" s="183"/>
-      <c r="I25" s="183"/>
-      <c r="J25" s="184"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="192"/>
+      <c r="G25" s="192"/>
+      <c r="H25" s="192"/>
+      <c r="I25" s="192"/>
+      <c r="J25" s="193"/>
     </row>
     <row r="26" spans="1:10" s="56" customFormat="1">
       <c r="A26" s="59">
@@ -10242,56 +10510,56 @@
       <c r="B26" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="187" t="s">
+      <c r="C26" s="196" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="183"/>
-      <c r="E26" s="183"/>
-      <c r="F26" s="183"/>
-      <c r="G26" s="183"/>
-      <c r="H26" s="183"/>
-      <c r="I26" s="183"/>
-      <c r="J26" s="184"/>
+      <c r="D26" s="192"/>
+      <c r="E26" s="192"/>
+      <c r="F26" s="192"/>
+      <c r="G26" s="192"/>
+      <c r="H26" s="192"/>
+      <c r="I26" s="192"/>
+      <c r="J26" s="193"/>
     </row>
     <row r="27" spans="1:10" s="56" customFormat="1">
-      <c r="A27" s="160"/>
-      <c r="B27" s="161"/>
-      <c r="C27" s="161"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
-      <c r="H27" s="161"/>
-      <c r="I27" s="161"/>
-      <c r="J27" s="162"/>
+      <c r="A27" s="169"/>
+      <c r="B27" s="170"/>
+      <c r="C27" s="170"/>
+      <c r="D27" s="170"/>
+      <c r="E27" s="170"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="171"/>
     </row>
     <row r="28" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="172" t="s">
+      <c r="A28" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="173"/>
-      <c r="C28" s="173"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="174"/>
+      <c r="B28" s="182"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="182"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="183"/>
     </row>
     <row r="29" spans="1:10" s="56" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="176" t="s">
+      <c r="A29" s="185" t="s">
         <v>135</v>
       </c>
-      <c r="B29" s="177"/>
-      <c r="C29" s="177"/>
-      <c r="D29" s="177"/>
-      <c r="E29" s="177"/>
-      <c r="F29" s="177"/>
-      <c r="G29" s="177"/>
-      <c r="H29" s="177"/>
-      <c r="I29" s="177"/>
-      <c r="J29" s="178"/>
+      <c r="B29" s="186"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="186"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="186"/>
+      <c r="G29" s="186"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="186"/>
+      <c r="J29" s="187"/>
     </row>
     <row r="30" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="59" t="s">
@@ -10300,16 +10568,16 @@
       <c r="B30" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="179" t="s">
+      <c r="C30" s="188" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="180"/>
-      <c r="E30" s="180"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="180"/>
-      <c r="H30" s="180"/>
-      <c r="I30" s="180"/>
-      <c r="J30" s="181"/>
+      <c r="D30" s="189"/>
+      <c r="E30" s="189"/>
+      <c r="F30" s="189"/>
+      <c r="G30" s="189"/>
+      <c r="H30" s="189"/>
+      <c r="I30" s="189"/>
+      <c r="J30" s="190"/>
     </row>
     <row r="31" spans="1:10" s="56" customFormat="1">
       <c r="A31" s="59">
@@ -10318,16 +10586,16 @@
       <c r="B31" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="188" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31" s="189"/>
-      <c r="E31" s="189"/>
-      <c r="F31" s="189"/>
-      <c r="G31" s="189"/>
-      <c r="H31" s="189"/>
-      <c r="I31" s="189"/>
-      <c r="J31" s="190"/>
+      <c r="C31" s="197" t="s">
+        <v>322</v>
+      </c>
+      <c r="D31" s="198"/>
+      <c r="E31" s="198"/>
+      <c r="F31" s="198"/>
+      <c r="G31" s="198"/>
+      <c r="H31" s="198"/>
+      <c r="I31" s="198"/>
+      <c r="J31" s="199"/>
     </row>
     <row r="32" spans="1:10" s="56" customFormat="1">
       <c r="A32" s="59">
@@ -10336,14 +10604,14 @@
       <c r="B32" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="191"/>
-      <c r="D32" s="192"/>
-      <c r="E32" s="192"/>
-      <c r="F32" s="192"/>
-      <c r="G32" s="192"/>
-      <c r="H32" s="192"/>
-      <c r="I32" s="192"/>
-      <c r="J32" s="193"/>
+      <c r="C32" s="200"/>
+      <c r="D32" s="201"/>
+      <c r="E32" s="201"/>
+      <c r="F32" s="201"/>
+      <c r="G32" s="201"/>
+      <c r="H32" s="201"/>
+      <c r="I32" s="201"/>
+      <c r="J32" s="202"/>
     </row>
     <row r="33" spans="1:12" s="56" customFormat="1">
       <c r="A33" s="59">
@@ -10352,42 +10620,42 @@
       <c r="B33" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="187" t="s">
+      <c r="C33" s="196" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="183"/>
-      <c r="E33" s="183"/>
-      <c r="F33" s="183"/>
-      <c r="G33" s="183"/>
-      <c r="H33" s="183"/>
-      <c r="I33" s="183"/>
-      <c r="J33" s="184"/>
+      <c r="D33" s="192"/>
+      <c r="E33" s="192"/>
+      <c r="F33" s="192"/>
+      <c r="G33" s="192"/>
+      <c r="H33" s="192"/>
+      <c r="I33" s="192"/>
+      <c r="J33" s="193"/>
     </row>
     <row r="34" spans="1:12" s="56" customFormat="1">
-      <c r="A34" s="130"/>
-      <c r="B34" s="135"/>
-      <c r="C34" s="135"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="135"/>
-      <c r="I34" s="135"/>
-      <c r="J34" s="131"/>
+      <c r="A34" s="139"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="144"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="140"/>
     </row>
     <row r="35" spans="1:12" s="56" customFormat="1">
-      <c r="A35" s="176" t="s">
+      <c r="A35" s="185" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="185"/>
-      <c r="C35" s="185"/>
-      <c r="D35" s="185"/>
-      <c r="E35" s="185"/>
-      <c r="F35" s="185"/>
-      <c r="G35" s="185"/>
-      <c r="H35" s="185"/>
-      <c r="I35" s="185"/>
-      <c r="J35" s="186"/>
+      <c r="B35" s="194"/>
+      <c r="C35" s="194"/>
+      <c r="D35" s="194"/>
+      <c r="E35" s="194"/>
+      <c r="F35" s="194"/>
+      <c r="G35" s="194"/>
+      <c r="H35" s="194"/>
+      <c r="I35" s="194"/>
+      <c r="J35" s="195"/>
     </row>
     <row r="36" spans="1:12" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="59" t="s">
@@ -10396,16 +10664,16 @@
       <c r="B36" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="179" t="s">
+      <c r="C36" s="188" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="180"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="180"/>
-      <c r="G36" s="180"/>
-      <c r="H36" s="180"/>
-      <c r="I36" s="180"/>
-      <c r="J36" s="181"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="189"/>
+      <c r="G36" s="189"/>
+      <c r="H36" s="189"/>
+      <c r="I36" s="189"/>
+      <c r="J36" s="190"/>
     </row>
     <row r="37" spans="1:12" s="56" customFormat="1">
       <c r="A37" s="59">
@@ -10414,16 +10682,16 @@
       <c r="B37" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="187" t="s">
+      <c r="C37" s="196" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="183"/>
-      <c r="E37" s="183"/>
-      <c r="F37" s="183"/>
-      <c r="G37" s="183"/>
-      <c r="H37" s="183"/>
-      <c r="I37" s="183"/>
-      <c r="J37" s="184"/>
+      <c r="D37" s="192"/>
+      <c r="E37" s="192"/>
+      <c r="F37" s="192"/>
+      <c r="G37" s="192"/>
+      <c r="H37" s="192"/>
+      <c r="I37" s="192"/>
+      <c r="J37" s="193"/>
     </row>
     <row r="38" spans="1:12" s="56" customFormat="1">
       <c r="A38" s="59">
@@ -10432,16 +10700,16 @@
       <c r="B38" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="187" t="s">
+      <c r="C38" s="196" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="183"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="183"/>
-      <c r="G38" s="183"/>
-      <c r="H38" s="183"/>
-      <c r="I38" s="183"/>
-      <c r="J38" s="184"/>
+      <c r="D38" s="192"/>
+      <c r="E38" s="192"/>
+      <c r="F38" s="192"/>
+      <c r="G38" s="192"/>
+      <c r="H38" s="192"/>
+      <c r="I38" s="192"/>
+      <c r="J38" s="193"/>
     </row>
     <row r="39" spans="1:12" s="56" customFormat="1">
       <c r="A39" s="59">
@@ -10450,16 +10718,16 @@
       <c r="B39" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="187" t="s">
+      <c r="C39" s="196" t="s">
         <v>112</v>
       </c>
-      <c r="D39" s="183"/>
-      <c r="E39" s="183"/>
-      <c r="F39" s="183"/>
-      <c r="G39" s="183"/>
-      <c r="H39" s="183"/>
-      <c r="I39" s="183"/>
-      <c r="J39" s="184"/>
+      <c r="D39" s="192"/>
+      <c r="E39" s="192"/>
+      <c r="F39" s="192"/>
+      <c r="G39" s="192"/>
+      <c r="H39" s="192"/>
+      <c r="I39" s="192"/>
+      <c r="J39" s="193"/>
     </row>
     <row r="40" spans="1:12" s="56" customFormat="1">
       <c r="A40" s="59">
@@ -10468,608 +10736,608 @@
       <c r="B40" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="187" t="s">
+      <c r="C40" s="196" t="s">
         <v>112</v>
       </c>
-      <c r="D40" s="183"/>
-      <c r="E40" s="183"/>
-      <c r="F40" s="183"/>
-      <c r="G40" s="183"/>
-      <c r="H40" s="183"/>
-      <c r="I40" s="183"/>
-      <c r="J40" s="184"/>
+      <c r="D40" s="192"/>
+      <c r="E40" s="192"/>
+      <c r="F40" s="192"/>
+      <c r="G40" s="192"/>
+      <c r="H40" s="192"/>
+      <c r="I40" s="192"/>
+      <c r="J40" s="193"/>
     </row>
     <row r="41" spans="1:12" s="56" customFormat="1">
-      <c r="A41" s="130"/>
-      <c r="B41" s="135"/>
-      <c r="C41" s="135"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="135"/>
-      <c r="F41" s="135"/>
-      <c r="G41" s="135"/>
-      <c r="H41" s="135"/>
-      <c r="I41" s="135"/>
-      <c r="J41" s="131"/>
+      <c r="A41" s="139"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="144"/>
+      <c r="G41" s="144"/>
+      <c r="H41" s="144"/>
+      <c r="I41" s="144"/>
+      <c r="J41" s="140"/>
     </row>
     <row r="42" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="172" t="s">
+      <c r="A42" s="181" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" s="203"/>
+      <c r="C42" s="203"/>
+      <c r="D42" s="203"/>
+      <c r="E42" s="203"/>
+      <c r="F42" s="203"/>
+      <c r="G42" s="203"/>
+      <c r="H42" s="203"/>
+      <c r="I42" s="203"/>
+      <c r="J42" s="204"/>
+    </row>
+    <row r="43" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A43" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="B42" s="194"/>
-      <c r="C42" s="194"/>
-      <c r="D42" s="194"/>
-      <c r="E42" s="194"/>
-      <c r="F42" s="194"/>
-      <c r="G42" s="194"/>
-      <c r="H42" s="194"/>
-      <c r="I42" s="194"/>
-      <c r="J42" s="195"/>
-    </row>
-    <row r="43" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A43" s="91" t="s">
+      <c r="B43" s="81" t="s">
         <v>178</v>
       </c>
-      <c r="B43" s="91" t="s">
+      <c r="C43" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="C43" s="92" t="s">
+      <c r="D43" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="D43" s="92" t="s">
+      <c r="E43" s="205" t="s">
         <v>181</v>
       </c>
-      <c r="E43" s="196" t="s">
-        <v>182</v>
-      </c>
-      <c r="F43" s="197"/>
-      <c r="G43" s="197"/>
-      <c r="H43" s="197"/>
-      <c r="I43" s="197"/>
-      <c r="J43" s="197"/>
+      <c r="F43" s="206"/>
+      <c r="G43" s="206"/>
+      <c r="H43" s="206"/>
+      <c r="I43" s="206"/>
+      <c r="J43" s="206"/>
       <c r="K43" s="56"/>
       <c r="L43" s="56"/>
     </row>
     <row r="44" spans="1:12" s="56" customFormat="1" ht="39" customHeight="1">
-      <c r="A44" s="136">
+      <c r="A44" s="145">
         <v>1</v>
       </c>
-      <c r="B44" s="136" t="s">
-        <v>183</v>
-      </c>
-      <c r="C44" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="D44" s="93"/>
-      <c r="E44" s="175" t="s">
-        <v>185</v>
-      </c>
-      <c r="F44" s="107"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="107"/>
-      <c r="J44" s="107"/>
-    </row>
-    <row r="45" spans="1:12" s="56" customFormat="1" ht="27" customHeight="1">
-      <c r="A45" s="137"/>
-      <c r="B45" s="137"/>
-      <c r="C45" s="85" t="s">
-        <v>186</v>
-      </c>
-      <c r="D45" s="93"/>
-      <c r="E45" s="144" t="s">
-        <v>187</v>
-      </c>
-      <c r="F45" s="145"/>
-      <c r="G45" s="145"/>
-      <c r="H45" s="145"/>
-      <c r="I45" s="145"/>
-      <c r="J45" s="146"/>
-    </row>
-    <row r="46" spans="1:12" s="56" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A46" s="137"/>
-      <c r="B46" s="137"/>
-      <c r="C46" s="85" t="s">
-        <v>188</v>
-      </c>
-      <c r="D46" s="85"/>
-      <c r="E46" s="144" t="s">
-        <v>189</v>
-      </c>
-      <c r="F46" s="145"/>
-      <c r="G46" s="145"/>
-      <c r="H46" s="145"/>
-      <c r="I46" s="145"/>
-      <c r="J46" s="146"/>
-    </row>
-    <row r="47" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A47" s="138"/>
-      <c r="B47" s="138"/>
-      <c r="C47" s="85" t="s">
-        <v>190</v>
-      </c>
-      <c r="D47" s="85" t="s">
-        <v>191</v>
-      </c>
-      <c r="E47" s="147" t="s">
-        <v>192</v>
-      </c>
-      <c r="F47" s="148"/>
-      <c r="G47" s="148"/>
-      <c r="H47" s="148"/>
-      <c r="I47" s="148"/>
-      <c r="J47" s="148"/>
+      <c r="B44" s="145" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" s="83" t="s">
+        <v>216</v>
+      </c>
+      <c r="D44" s="83"/>
+      <c r="E44" s="184" t="s">
+        <v>217</v>
+      </c>
+      <c r="F44" s="116"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="116"/>
+      <c r="I44" s="116"/>
+      <c r="J44" s="116"/>
+    </row>
+    <row r="45" spans="1:12" s="56" customFormat="1" ht="42" customHeight="1">
+      <c r="A45" s="146"/>
+      <c r="B45" s="146"/>
+      <c r="C45" s="97" t="s">
+        <v>218</v>
+      </c>
+      <c r="D45" s="83"/>
+      <c r="E45" s="153" t="s">
+        <v>219</v>
+      </c>
+      <c r="F45" s="154"/>
+      <c r="G45" s="154"/>
+      <c r="H45" s="154"/>
+      <c r="I45" s="154"/>
+      <c r="J45" s="155"/>
+    </row>
+    <row r="46" spans="1:12" s="56" customFormat="1" ht="49.5">
+      <c r="A46" s="146"/>
+      <c r="B46" s="146"/>
+      <c r="C46" s="97" t="s">
+        <v>220</v>
+      </c>
+      <c r="D46" s="97"/>
+      <c r="E46" s="153" t="s">
+        <v>221</v>
+      </c>
+      <c r="F46" s="154"/>
+      <c r="G46" s="154"/>
+      <c r="H46" s="154"/>
+      <c r="I46" s="154"/>
+      <c r="J46" s="155"/>
+    </row>
+    <row r="47" spans="1:12" s="56" customFormat="1" ht="60" customHeight="1">
+      <c r="A47" s="147"/>
+      <c r="B47" s="147"/>
+      <c r="C47" s="97" t="s">
+        <v>222</v>
+      </c>
+      <c r="D47" s="97" t="s">
+        <v>223</v>
+      </c>
+      <c r="E47" s="156" t="s">
+        <v>224</v>
+      </c>
+      <c r="F47" s="157"/>
+      <c r="G47" s="157"/>
+      <c r="H47" s="157"/>
+      <c r="I47" s="157"/>
+      <c r="J47" s="157"/>
     </row>
     <row r="48" spans="1:12" s="58" customFormat="1">
       <c r="A48" s="63"/>
-      <c r="B48" s="135"/>
-      <c r="C48" s="135"/>
-      <c r="D48" s="135"/>
-      <c r="E48" s="135"/>
-      <c r="F48" s="135"/>
-      <c r="G48" s="135"/>
-      <c r="H48" s="135"/>
-      <c r="I48" s="135"/>
-      <c r="J48" s="131"/>
+      <c r="B48" s="144"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="144"/>
+      <c r="E48" s="144"/>
+      <c r="F48" s="144"/>
+      <c r="G48" s="144"/>
+      <c r="H48" s="144"/>
+      <c r="I48" s="144"/>
+      <c r="J48" s="140"/>
     </row>
     <row r="49" spans="1:10" s="58" customFormat="1">
-      <c r="A49" s="149" t="s">
-        <v>193</v>
-      </c>
-      <c r="B49" s="150"/>
-      <c r="C49" s="150"/>
-      <c r="D49" s="150"/>
-      <c r="E49" s="150"/>
-      <c r="F49" s="150"/>
-      <c r="G49" s="150"/>
-      <c r="H49" s="150"/>
-      <c r="I49" s="150"/>
-      <c r="J49" s="151"/>
+      <c r="A49" s="158" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49" s="159"/>
+      <c r="C49" s="159"/>
+      <c r="D49" s="159"/>
+      <c r="E49" s="159"/>
+      <c r="F49" s="159"/>
+      <c r="G49" s="159"/>
+      <c r="H49" s="159"/>
+      <c r="I49" s="159"/>
+      <c r="J49" s="160"/>
     </row>
     <row r="50" spans="1:10" s="56" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A50" s="136">
+      <c r="A50" s="145">
         <v>1</v>
       </c>
-      <c r="B50" s="153" t="s">
-        <v>194</v>
-      </c>
-      <c r="C50" s="94" t="s">
-        <v>195</v>
-      </c>
-      <c r="D50" s="85"/>
-      <c r="E50" s="175" t="s">
-        <v>196</v>
-      </c>
-      <c r="F50" s="107"/>
-      <c r="G50" s="107"/>
-      <c r="H50" s="107"/>
-      <c r="I50" s="107"/>
-      <c r="J50" s="107"/>
-    </row>
-    <row r="51" spans="1:10" s="56" customFormat="1" ht="33">
-      <c r="A51" s="152"/>
-      <c r="B51" s="154"/>
-      <c r="C51" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="D51" s="83" t="s">
-        <v>198</v>
-      </c>
-      <c r="E51" s="198" t="s">
-        <v>199</v>
-      </c>
-      <c r="F51" s="199"/>
-      <c r="G51" s="199"/>
-      <c r="H51" s="199"/>
-      <c r="I51" s="199"/>
-      <c r="J51" s="200"/>
+      <c r="B50" s="162" t="s">
+        <v>225</v>
+      </c>
+      <c r="C50" s="84" t="s">
+        <v>227</v>
+      </c>
+      <c r="D50" s="97"/>
+      <c r="E50" s="184" t="s">
+        <v>228</v>
+      </c>
+      <c r="F50" s="116"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="116"/>
+      <c r="J50" s="116"/>
+    </row>
+    <row r="51" spans="1:10" s="56" customFormat="1" ht="49.5">
+      <c r="A51" s="161"/>
+      <c r="B51" s="163"/>
+      <c r="C51" s="85" t="s">
+        <v>229</v>
+      </c>
+      <c r="D51" s="99" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51" s="207" t="s">
+        <v>230</v>
+      </c>
+      <c r="F51" s="208"/>
+      <c r="G51" s="208"/>
+      <c r="H51" s="208"/>
+      <c r="I51" s="208"/>
+      <c r="J51" s="209"/>
     </row>
     <row r="52" spans="1:10" s="56" customFormat="1">
       <c r="A52" s="67">
         <v>2</v>
       </c>
-      <c r="B52" s="153" t="s">
+      <c r="B52" s="162" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52" s="84" t="s">
+        <v>226</v>
+      </c>
+      <c r="D52" s="86"/>
+      <c r="E52" s="211" t="s">
+        <v>231</v>
+      </c>
+      <c r="F52" s="212"/>
+      <c r="G52" s="212"/>
+      <c r="H52" s="212"/>
+      <c r="I52" s="212"/>
+      <c r="J52" s="213"/>
+    </row>
+    <row r="53" spans="1:10" s="56" customFormat="1" ht="86.25" customHeight="1">
+      <c r="A53" s="67"/>
+      <c r="B53" s="210"/>
+      <c r="C53" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="D53" s="87" t="s">
         <v>200</v>
       </c>
-      <c r="C52" s="94" t="s">
-        <v>195</v>
-      </c>
-      <c r="D52" s="96"/>
-      <c r="E52" s="155" t="s">
-        <v>201</v>
-      </c>
-      <c r="F52" s="156"/>
-      <c r="G52" s="156"/>
-      <c r="H52" s="156"/>
-      <c r="I52" s="156"/>
-      <c r="J52" s="157"/>
-    </row>
-    <row r="53" spans="1:10" s="56" customFormat="1" ht="91.5" customHeight="1">
-      <c r="A53" s="67"/>
-      <c r="B53" s="201"/>
-      <c r="C53" s="94" t="s">
-        <v>202</v>
-      </c>
-      <c r="D53" s="97" t="s">
-        <v>198</v>
-      </c>
-      <c r="E53" s="155" t="s">
-        <v>272</v>
-      </c>
-      <c r="F53" s="156"/>
-      <c r="G53" s="156"/>
-      <c r="H53" s="156"/>
-      <c r="I53" s="156"/>
-      <c r="J53" s="157"/>
-    </row>
-    <row r="54" spans="1:10" s="56" customFormat="1" ht="33">
+      <c r="E53" s="211" t="s">
+        <v>233</v>
+      </c>
+      <c r="F53" s="212"/>
+      <c r="G53" s="212"/>
+      <c r="H53" s="212"/>
+      <c r="I53" s="212"/>
+      <c r="J53" s="213"/>
+    </row>
+    <row r="54" spans="1:10" s="56" customFormat="1" ht="63.75" customHeight="1">
       <c r="A54" s="67"/>
-      <c r="B54" s="201"/>
-      <c r="C54" s="90" t="s">
-        <v>188</v>
-      </c>
-      <c r="D54" s="90"/>
-      <c r="E54" s="144" t="s">
-        <v>189</v>
-      </c>
-      <c r="F54" s="145"/>
-      <c r="G54" s="145"/>
-      <c r="H54" s="145"/>
-      <c r="I54" s="145"/>
-      <c r="J54" s="146"/>
-    </row>
-    <row r="55" spans="1:10" s="56" customFormat="1" ht="33">
+      <c r="B54" s="210"/>
+      <c r="C54" s="97" t="s">
+        <v>234</v>
+      </c>
+      <c r="D54" s="97"/>
+      <c r="E54" s="153" t="s">
+        <v>235</v>
+      </c>
+      <c r="F54" s="154"/>
+      <c r="G54" s="154"/>
+      <c r="H54" s="154"/>
+      <c r="I54" s="154"/>
+      <c r="J54" s="155"/>
+    </row>
+    <row r="55" spans="1:10" s="56" customFormat="1" ht="49.5">
       <c r="A55" s="67"/>
-      <c r="B55" s="201"/>
-      <c r="C55" s="90" t="s">
-        <v>190</v>
-      </c>
-      <c r="D55" s="90" t="s">
-        <v>191</v>
-      </c>
-      <c r="E55" s="147" t="s">
-        <v>192</v>
-      </c>
-      <c r="F55" s="148"/>
-      <c r="G55" s="148"/>
-      <c r="H55" s="148"/>
-      <c r="I55" s="148"/>
-      <c r="J55" s="148"/>
+      <c r="B55" s="210"/>
+      <c r="C55" s="97" t="s">
+        <v>236</v>
+      </c>
+      <c r="D55" s="97" t="s">
+        <v>182</v>
+      </c>
+      <c r="E55" s="156" t="s">
+        <v>183</v>
+      </c>
+      <c r="F55" s="157"/>
+      <c r="G55" s="157"/>
+      <c r="H55" s="157"/>
+      <c r="I55" s="157"/>
+      <c r="J55" s="157"/>
     </row>
     <row r="56" spans="1:10" s="56" customFormat="1">
       <c r="A56" s="67"/>
-      <c r="B56" s="201"/>
-      <c r="C56" s="94" t="s">
-        <v>203</v>
-      </c>
-      <c r="D56" s="96"/>
-      <c r="E56" s="127" t="s">
-        <v>204</v>
-      </c>
-      <c r="F56" s="202"/>
-      <c r="G56" s="202"/>
-      <c r="H56" s="202"/>
-      <c r="I56" s="202"/>
-      <c r="J56" s="203"/>
-    </row>
-    <row r="57" spans="1:10" s="56" customFormat="1" ht="33">
+      <c r="B56" s="210"/>
+      <c r="C56" s="84" t="s">
+        <v>237</v>
+      </c>
+      <c r="D56" s="86"/>
+      <c r="E56" s="136" t="s">
+        <v>238</v>
+      </c>
+      <c r="F56" s="214"/>
+      <c r="G56" s="214"/>
+      <c r="H56" s="214"/>
+      <c r="I56" s="214"/>
+      <c r="J56" s="215"/>
+    </row>
+    <row r="57" spans="1:10" s="56" customFormat="1" ht="49.5">
       <c r="A57" s="67"/>
-      <c r="B57" s="154"/>
-      <c r="C57" s="94" t="s">
-        <v>205</v>
-      </c>
-      <c r="D57" s="96"/>
-      <c r="E57" s="127" t="s">
-        <v>206</v>
-      </c>
-      <c r="F57" s="202"/>
-      <c r="G57" s="202"/>
-      <c r="H57" s="202"/>
-      <c r="I57" s="202"/>
-      <c r="J57" s="203"/>
-    </row>
-    <row r="58" spans="1:10" s="56" customFormat="1">
+      <c r="B57" s="163"/>
+      <c r="C57" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="D57" s="86"/>
+      <c r="E57" s="136" t="s">
+        <v>187</v>
+      </c>
+      <c r="F57" s="214"/>
+      <c r="G57" s="214"/>
+      <c r="H57" s="214"/>
+      <c r="I57" s="214"/>
+      <c r="J57" s="215"/>
+    </row>
+    <row r="58" spans="1:10" s="56" customFormat="1" ht="79.5" customHeight="1">
       <c r="A58" s="69">
         <v>3</v>
       </c>
-      <c r="B58" s="88" t="s">
-        <v>207</v>
-      </c>
-      <c r="C58" s="94" t="s">
-        <v>208</v>
-      </c>
-      <c r="D58" s="98"/>
-      <c r="E58" s="127" t="s">
-        <v>209</v>
-      </c>
-      <c r="F58" s="111"/>
-      <c r="G58" s="111"/>
-      <c r="H58" s="111"/>
-      <c r="I58" s="111"/>
-      <c r="J58" s="112"/>
+      <c r="B58" s="100" t="s">
+        <v>240</v>
+      </c>
+      <c r="C58" s="84" t="s">
+        <v>185</v>
+      </c>
+      <c r="D58" s="88"/>
+      <c r="E58" s="216" t="s">
+        <v>241</v>
+      </c>
+      <c r="F58" s="217"/>
+      <c r="G58" s="217"/>
+      <c r="H58" s="217"/>
+      <c r="I58" s="217"/>
+      <c r="J58" s="218"/>
     </row>
     <row r="59" spans="1:10" s="56" customFormat="1">
       <c r="A59" s="70"/>
-      <c r="B59" s="135"/>
-      <c r="C59" s="135"/>
-      <c r="D59" s="135"/>
-      <c r="E59" s="135"/>
-      <c r="F59" s="135"/>
-      <c r="G59" s="135"/>
-      <c r="H59" s="135"/>
-      <c r="I59" s="135"/>
-      <c r="J59" s="131"/>
+      <c r="B59" s="144"/>
+      <c r="C59" s="144"/>
+      <c r="D59" s="144"/>
+      <c r="E59" s="144"/>
+      <c r="F59" s="144"/>
+      <c r="G59" s="144"/>
+      <c r="H59" s="144"/>
+      <c r="I59" s="144"/>
+      <c r="J59" s="140"/>
     </row>
     <row r="60" spans="1:10" s="56" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A60" s="204" t="s">
-        <v>210</v>
-      </c>
-      <c r="B60" s="205"/>
-      <c r="C60" s="205"/>
-      <c r="D60" s="205"/>
-      <c r="E60" s="205"/>
-      <c r="F60" s="205"/>
-      <c r="G60" s="205"/>
-      <c r="H60" s="205"/>
-      <c r="I60" s="205"/>
-      <c r="J60" s="206"/>
-    </row>
-    <row r="61" spans="1:10" s="56" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A60" s="219" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60" s="220"/>
+      <c r="C60" s="220"/>
+      <c r="D60" s="220"/>
+      <c r="E60" s="220"/>
+      <c r="F60" s="220"/>
+      <c r="G60" s="220"/>
+      <c r="H60" s="220"/>
+      <c r="I60" s="220"/>
+      <c r="J60" s="221"/>
+    </row>
+    <row r="61" spans="1:10" s="56" customFormat="1" ht="63.75" customHeight="1">
       <c r="A61" s="59">
         <v>1</v>
       </c>
-      <c r="B61" s="88" t="s">
-        <v>211</v>
-      </c>
-      <c r="C61" s="94" t="s">
-        <v>195</v>
-      </c>
-      <c r="D61" s="85"/>
-      <c r="E61" s="175" t="s">
-        <v>212</v>
-      </c>
-      <c r="F61" s="107"/>
-      <c r="G61" s="107"/>
-      <c r="H61" s="107"/>
-      <c r="I61" s="107"/>
-      <c r="J61" s="107"/>
-    </row>
-    <row r="62" spans="1:10" s="56" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B61" s="100" t="s">
+        <v>189</v>
+      </c>
+      <c r="C61" s="84" t="s">
+        <v>185</v>
+      </c>
+      <c r="D61" s="97"/>
+      <c r="E61" s="222" t="s">
+        <v>242</v>
+      </c>
+      <c r="F61" s="223"/>
+      <c r="G61" s="223"/>
+      <c r="H61" s="223"/>
+      <c r="I61" s="223"/>
+      <c r="J61" s="223"/>
+    </row>
+    <row r="62" spans="1:10" s="56" customFormat="1" ht="54.75" customHeight="1">
       <c r="A62" s="59">
         <v>2</v>
       </c>
-      <c r="B62" s="88" t="s">
-        <v>213</v>
-      </c>
-      <c r="C62" s="94" t="s">
-        <v>195</v>
-      </c>
-      <c r="D62" s="86"/>
-      <c r="E62" s="155" t="s">
-        <v>214</v>
-      </c>
-      <c r="F62" s="156"/>
-      <c r="G62" s="156"/>
-      <c r="H62" s="156"/>
-      <c r="I62" s="156"/>
-      <c r="J62" s="157"/>
-    </row>
-    <row r="63" spans="1:10" s="56" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A63" s="136">
+      <c r="B62" s="100" t="s">
+        <v>243</v>
+      </c>
+      <c r="C62" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="D62" s="94"/>
+      <c r="E62" s="164" t="s">
+        <v>245</v>
+      </c>
+      <c r="F62" s="165"/>
+      <c r="G62" s="165"/>
+      <c r="H62" s="165"/>
+      <c r="I62" s="165"/>
+      <c r="J62" s="166"/>
+    </row>
+    <row r="63" spans="1:10" s="56" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A63" s="145">
         <v>3</v>
       </c>
-      <c r="B63" s="153" t="s">
-        <v>215</v>
-      </c>
-      <c r="C63" s="94" t="s">
-        <v>195</v>
-      </c>
-      <c r="D63" s="86"/>
-      <c r="E63" s="155" t="s">
-        <v>281</v>
-      </c>
-      <c r="F63" s="156"/>
-      <c r="G63" s="156"/>
-      <c r="H63" s="156"/>
-      <c r="I63" s="156"/>
-      <c r="J63" s="157"/>
-    </row>
-    <row r="64" spans="1:10" s="56" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A64" s="152"/>
-      <c r="B64" s="154"/>
-      <c r="C64" s="94" t="s">
-        <v>216</v>
-      </c>
-      <c r="D64" s="99" t="s">
-        <v>217</v>
-      </c>
-      <c r="E64" s="127" t="s" ph="1">
-        <v>218</v>
-      </c>
-      <c r="F64" s="199"/>
-      <c r="G64" s="199"/>
-      <c r="H64" s="199"/>
-      <c r="I64" s="199"/>
-      <c r="J64" s="200"/>
-    </row>
-    <row r="65" spans="1:10" s="56" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A65" s="136">
+      <c r="B63" s="162" t="s">
+        <v>246</v>
+      </c>
+      <c r="C63" s="84" t="s">
+        <v>247</v>
+      </c>
+      <c r="D63" s="94"/>
+      <c r="E63" s="211" t="s">
+        <v>248</v>
+      </c>
+      <c r="F63" s="212"/>
+      <c r="G63" s="212"/>
+      <c r="H63" s="212"/>
+      <c r="I63" s="212"/>
+      <c r="J63" s="213"/>
+    </row>
+    <row r="64" spans="1:10" s="56" customFormat="1" ht="39" customHeight="1">
+      <c r="A64" s="161"/>
+      <c r="B64" s="163"/>
+      <c r="C64" s="84" t="s">
+        <v>249</v>
+      </c>
+      <c r="D64" s="89" t="s">
+        <v>190</v>
+      </c>
+      <c r="E64" s="136" t="s" ph="1">
+        <v>250</v>
+      </c>
+      <c r="F64" s="208"/>
+      <c r="G64" s="208"/>
+      <c r="H64" s="208"/>
+      <c r="I64" s="208"/>
+      <c r="J64" s="209"/>
+    </row>
+    <row r="65" spans="1:10" s="56" customFormat="1">
+      <c r="A65" s="145">
         <v>4</v>
       </c>
-      <c r="B65" s="153" t="s">
-        <v>219</v>
-      </c>
-      <c r="C65" s="94" t="s">
-        <v>195</v>
-      </c>
-      <c r="D65" s="99"/>
-      <c r="E65" s="155" t="s">
-        <v>284</v>
-      </c>
-      <c r="F65" s="156"/>
-      <c r="G65" s="156"/>
-      <c r="H65" s="156"/>
-      <c r="I65" s="156"/>
-      <c r="J65" s="157"/>
-    </row>
-    <row r="66" spans="1:10" s="56" customFormat="1">
-      <c r="A66" s="152"/>
-      <c r="B66" s="154"/>
-      <c r="C66" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="D66" s="99" t="s">
-        <v>221</v>
-      </c>
-      <c r="E66" s="155" t="s">
-        <v>222</v>
-      </c>
-      <c r="F66" s="156"/>
-      <c r="G66" s="156"/>
-      <c r="H66" s="156"/>
-      <c r="I66" s="156"/>
-      <c r="J66" s="157"/>
+      <c r="B65" s="162" t="s">
+        <v>251</v>
+      </c>
+      <c r="C65" s="84" t="s">
+        <v>247</v>
+      </c>
+      <c r="D65" s="89"/>
+      <c r="E65" s="164" t="s">
+        <v>252</v>
+      </c>
+      <c r="F65" s="165"/>
+      <c r="G65" s="165"/>
+      <c r="H65" s="165"/>
+      <c r="I65" s="165"/>
+      <c r="J65" s="166"/>
+    </row>
+    <row r="66" spans="1:10" s="56" customFormat="1" ht="24" customHeight="1">
+      <c r="A66" s="161"/>
+      <c r="B66" s="163"/>
+      <c r="C66" s="84" t="s">
+        <v>253</v>
+      </c>
+      <c r="D66" s="87" t="s">
+        <v>254</v>
+      </c>
+      <c r="E66" s="211" t="s">
+        <v>255</v>
+      </c>
+      <c r="F66" s="212"/>
+      <c r="G66" s="212"/>
+      <c r="H66" s="212"/>
+      <c r="I66" s="212"/>
+      <c r="J66" s="213"/>
     </row>
     <row r="67" spans="1:10" s="56" customFormat="1">
-      <c r="A67" s="136">
+      <c r="A67" s="145">
         <v>5</v>
       </c>
-      <c r="B67" s="153" t="s">
-        <v>223</v>
-      </c>
-      <c r="C67" s="94" t="s">
-        <v>195</v>
-      </c>
-      <c r="D67" s="86"/>
-      <c r="E67" s="155" t="s">
-        <v>224</v>
-      </c>
-      <c r="F67" s="156"/>
-      <c r="G67" s="156"/>
-      <c r="H67" s="156"/>
-      <c r="I67" s="156"/>
-      <c r="J67" s="157"/>
-    </row>
-    <row r="68" spans="1:10" s="56" customFormat="1">
-      <c r="A68" s="152"/>
-      <c r="B68" s="154"/>
-      <c r="C68" s="94" t="s">
-        <v>225</v>
-      </c>
-      <c r="D68" s="86" t="s">
-        <v>226</v>
-      </c>
-      <c r="E68" s="155" t="s">
-        <v>227</v>
-      </c>
-      <c r="F68" s="156"/>
-      <c r="G68" s="156"/>
-      <c r="H68" s="156"/>
-      <c r="I68" s="156"/>
-      <c r="J68" s="157"/>
+      <c r="B67" s="162" t="s">
+        <v>256</v>
+      </c>
+      <c r="C67" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="D67" s="94"/>
+      <c r="E67" s="211" t="s">
+        <v>257</v>
+      </c>
+      <c r="F67" s="212"/>
+      <c r="G67" s="212"/>
+      <c r="H67" s="212"/>
+      <c r="I67" s="212"/>
+      <c r="J67" s="213"/>
+    </row>
+    <row r="68" spans="1:10" s="56" customFormat="1" ht="49.5">
+      <c r="A68" s="161"/>
+      <c r="B68" s="163"/>
+      <c r="C68" s="84" t="s">
+        <v>258</v>
+      </c>
+      <c r="D68" s="94" t="s">
+        <v>259</v>
+      </c>
+      <c r="E68" s="211" t="s">
+        <v>260</v>
+      </c>
+      <c r="F68" s="212"/>
+      <c r="G68" s="212"/>
+      <c r="H68" s="212"/>
+      <c r="I68" s="212"/>
+      <c r="J68" s="213"/>
     </row>
     <row r="69" spans="1:10" s="56" customFormat="1">
       <c r="A69" s="71"/>
-      <c r="B69" s="135"/>
-      <c r="C69" s="135"/>
-      <c r="D69" s="135"/>
-      <c r="E69" s="135"/>
-      <c r="F69" s="135"/>
-      <c r="G69" s="135"/>
-      <c r="H69" s="135"/>
-      <c r="I69" s="135"/>
-      <c r="J69" s="131"/>
+      <c r="B69" s="144"/>
+      <c r="C69" s="144"/>
+      <c r="D69" s="144"/>
+      <c r="E69" s="144"/>
+      <c r="F69" s="144"/>
+      <c r="G69" s="144"/>
+      <c r="H69" s="144"/>
+      <c r="I69" s="144"/>
+      <c r="J69" s="140"/>
     </row>
     <row r="70" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A70" s="141" t="s">
+      <c r="A70" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="142"/>
-      <c r="C70" s="142"/>
-      <c r="D70" s="142"/>
-      <c r="E70" s="142"/>
-      <c r="F70" s="142"/>
-      <c r="G70" s="142"/>
-      <c r="H70" s="142"/>
-      <c r="I70" s="142"/>
-      <c r="J70" s="143"/>
+      <c r="B70" s="151"/>
+      <c r="C70" s="151"/>
+      <c r="D70" s="151"/>
+      <c r="E70" s="151"/>
+      <c r="F70" s="151"/>
+      <c r="G70" s="151"/>
+      <c r="H70" s="151"/>
+      <c r="I70" s="151"/>
+      <c r="J70" s="152"/>
     </row>
     <row r="71" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="139" t="s">
+      <c r="B71" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="140"/>
-      <c r="D71" s="127" t="s">
+      <c r="C71" s="149"/>
+      <c r="D71" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="111"/>
-      <c r="F71" s="111"/>
-      <c r="G71" s="111"/>
-      <c r="H71" s="111"/>
-      <c r="I71" s="111"/>
-      <c r="J71" s="112"/>
+      <c r="E71" s="120"/>
+      <c r="F71" s="120"/>
+      <c r="G71" s="120"/>
+      <c r="H71" s="120"/>
+      <c r="I71" s="120"/>
+      <c r="J71" s="121"/>
     </row>
     <row r="72" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A72" s="132"/>
-      <c r="B72" s="133"/>
-      <c r="C72" s="133"/>
-      <c r="D72" s="133"/>
-      <c r="E72" s="133"/>
-      <c r="F72" s="133"/>
-      <c r="G72" s="133"/>
-      <c r="H72" s="133"/>
-      <c r="I72" s="133"/>
-      <c r="J72" s="134"/>
+      <c r="A72" s="141"/>
+      <c r="B72" s="142"/>
+      <c r="C72" s="142"/>
+      <c r="D72" s="142"/>
+      <c r="E72" s="142"/>
+      <c r="F72" s="142"/>
+      <c r="G72" s="142"/>
+      <c r="H72" s="142"/>
+      <c r="I72" s="142"/>
+      <c r="J72" s="143"/>
     </row>
     <row r="73" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="69"/>
-      <c r="B73" s="130"/>
-      <c r="C73" s="131"/>
-      <c r="D73" s="127"/>
-      <c r="E73" s="128"/>
-      <c r="F73" s="128"/>
-      <c r="G73" s="128"/>
-      <c r="H73" s="128"/>
-      <c r="I73" s="128"/>
-      <c r="J73" s="129"/>
+      <c r="B73" s="139"/>
+      <c r="C73" s="140"/>
+      <c r="D73" s="136"/>
+      <c r="E73" s="137"/>
+      <c r="F73" s="137"/>
+      <c r="G73" s="137"/>
+      <c r="H73" s="137"/>
+      <c r="I73" s="137"/>
+      <c r="J73" s="138"/>
     </row>
     <row r="74" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="69"/>
-      <c r="B74" s="130"/>
-      <c r="C74" s="131"/>
-      <c r="D74" s="127"/>
-      <c r="E74" s="128"/>
-      <c r="F74" s="128"/>
-      <c r="G74" s="128"/>
-      <c r="H74" s="128"/>
-      <c r="I74" s="128"/>
-      <c r="J74" s="129"/>
+      <c r="B74" s="139"/>
+      <c r="C74" s="140"/>
+      <c r="D74" s="136"/>
+      <c r="E74" s="137"/>
+      <c r="F74" s="137"/>
+      <c r="G74" s="137"/>
+      <c r="H74" s="137"/>
+      <c r="I74" s="137"/>
+      <c r="J74" s="138"/>
     </row>
     <row r="75" spans="1:10" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A75" s="132"/>
-      <c r="B75" s="133"/>
-      <c r="C75" s="133"/>
-      <c r="D75" s="133"/>
-      <c r="E75" s="133"/>
-      <c r="F75" s="133"/>
-      <c r="G75" s="133"/>
-      <c r="H75" s="133"/>
-      <c r="I75" s="133"/>
-      <c r="J75" s="134"/>
+      <c r="A75" s="141"/>
+      <c r="B75" s="142"/>
+      <c r="C75" s="142"/>
+      <c r="D75" s="142"/>
+      <c r="E75" s="142"/>
+      <c r="F75" s="142"/>
+      <c r="G75" s="142"/>
+      <c r="H75" s="142"/>
+      <c r="I75" s="142"/>
+      <c r="J75" s="143"/>
     </row>
     <row r="76" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A76" s="69"/>
-      <c r="B76" s="130"/>
-      <c r="C76" s="131"/>
-      <c r="D76" s="127"/>
-      <c r="E76" s="128"/>
-      <c r="F76" s="128"/>
-      <c r="G76" s="128"/>
-      <c r="H76" s="128"/>
-      <c r="I76" s="128"/>
-      <c r="J76" s="129"/>
+      <c r="B76" s="139"/>
+      <c r="C76" s="140"/>
+      <c r="D76" s="136"/>
+      <c r="E76" s="137"/>
+      <c r="F76" s="137"/>
+      <c r="G76" s="137"/>
+      <c r="H76" s="137"/>
+      <c r="I76" s="137"/>
+      <c r="J76" s="138"/>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="72" t="s">
@@ -11092,14 +11360,14 @@
       <c r="B78" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="130"/>
-      <c r="D78" s="111"/>
-      <c r="E78" s="111"/>
-      <c r="F78" s="111"/>
-      <c r="G78" s="111"/>
-      <c r="H78" s="111"/>
-      <c r="I78" s="111"/>
-      <c r="J78" s="112"/>
+      <c r="C78" s="139"/>
+      <c r="D78" s="120"/>
+      <c r="E78" s="120"/>
+      <c r="F78" s="120"/>
+      <c r="G78" s="120"/>
+      <c r="H78" s="120"/>
+      <c r="I78" s="120"/>
+      <c r="J78" s="121"/>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="69">
@@ -11108,14 +11376,14 @@
       <c r="B79" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="147"/>
-      <c r="D79" s="147"/>
-      <c r="E79" s="147"/>
-      <c r="F79" s="147"/>
-      <c r="G79" s="147"/>
-      <c r="H79" s="147"/>
-      <c r="I79" s="147"/>
-      <c r="J79" s="147"/>
+      <c r="C79" s="156"/>
+      <c r="D79" s="156"/>
+      <c r="E79" s="156"/>
+      <c r="F79" s="156"/>
+      <c r="G79" s="156"/>
+      <c r="H79" s="156"/>
+      <c r="I79" s="156"/>
+      <c r="J79" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="86">
@@ -11257,7 +11525,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="158" t="s">
+      <c r="K1" s="167" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="39"/>
@@ -11284,7 +11552,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="159"/>
+      <c r="K2" s="168"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -11302,7 +11570,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="159"/>
+      <c r="K3" s="168"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -11346,18 +11614,18 @@
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="207" t="s">
+      <c r="A6" s="224" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="208"/>
-      <c r="C6" s="208"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="208"/>
-      <c r="H6" s="208"/>
-      <c r="I6" s="208"/>
-      <c r="J6" s="209"/>
+      <c r="B6" s="225"/>
+      <c r="C6" s="225"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="225"/>
+      <c r="I6" s="225"/>
+      <c r="J6" s="226"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -11391,7 +11659,7 @@
         <v>116</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>275</v>
+        <v>203</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -11424,18 +11692,18 @@
       <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="207" t="s">
+      <c r="A10" s="224" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="208"/>
-      <c r="C10" s="208"/>
-      <c r="D10" s="208"/>
-      <c r="E10" s="208"/>
-      <c r="F10" s="208"/>
-      <c r="G10" s="208"/>
-      <c r="H10" s="208"/>
-      <c r="I10" s="208"/>
-      <c r="J10" s="209"/>
+      <c r="B10" s="225"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="225"/>
+      <c r="E10" s="225"/>
+      <c r="F10" s="225"/>
+      <c r="G10" s="225"/>
+      <c r="H10" s="225"/>
+      <c r="I10" s="225"/>
+      <c r="J10" s="226"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="42" t="s">
@@ -11463,7 +11731,7 @@
         <v>116</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>274</v>
+        <v>202</v>
       </c>
       <c r="J11" s="42" t="s">
         <v>0</v>
@@ -11556,18 +11824,18 @@
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="207" t="s">
+      <c r="A16" s="224" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="208"/>
-      <c r="C16" s="208"/>
-      <c r="D16" s="208"/>
-      <c r="E16" s="208"/>
-      <c r="F16" s="208"/>
-      <c r="G16" s="208"/>
-      <c r="H16" s="208"/>
-      <c r="I16" s="208"/>
-      <c r="J16" s="209"/>
+      <c r="B16" s="225"/>
+      <c r="C16" s="225"/>
+      <c r="D16" s="225"/>
+      <c r="E16" s="225"/>
+      <c r="F16" s="225"/>
+      <c r="G16" s="225"/>
+      <c r="H16" s="225"/>
+      <c r="I16" s="225"/>
+      <c r="J16" s="226"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="42" t="s">
@@ -11595,7 +11863,7 @@
         <v>116</v>
       </c>
       <c r="I17" s="42" t="s">
-        <v>276</v>
+        <v>204</v>
       </c>
       <c r="J17" s="42" t="s">
         <v>0</v>
@@ -11606,37 +11874,37 @@
         <v>1</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>285</v>
+        <v>205</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>286</v>
+        <v>206</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="45" t="s">
-        <v>288</v>
+        <v>208</v>
       </c>
       <c r="F18" s="46" t="s">
-        <v>287</v>
+        <v>207</v>
       </c>
       <c r="G18" s="45" t="s">
-        <v>289</v>
+        <v>209</v>
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="43" t="s">
-        <v>290</v>
+        <v>210</v>
       </c>
       <c r="J18" s="46" t="s">
-        <v>291</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="48">
         <v>2</v>
       </c>
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="100" t="s">
+      <c r="C19" s="90" t="s">
         <v>97</v>
       </c>
       <c r="D19" s="45"/>
@@ -11705,7 +11973,7 @@
       <c r="I21" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="J21" s="79" t="s">
+      <c r="J21" s="78" t="s">
         <v>140</v>
       </c>
     </row>
@@ -11774,10 +12042,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:J29"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11806,7 +12074,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="158" t="s">
+      <c r="K1" s="167" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="54"/>
@@ -11827,7 +12095,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="159"/>
+      <c r="K2" s="168"/>
     </row>
     <row r="3" spans="1:17" s="55" customFormat="1">
       <c r="A3" s="47"/>
@@ -11840,7 +12108,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="159"/>
+      <c r="K3" s="168"/>
     </row>
     <row r="4" spans="1:17" s="55" customFormat="1">
       <c r="A4" s="47"/>
@@ -11855,152 +12123,152 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="163" t="s">
+      <c r="A5" s="172" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="110"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="119"/>
     </row>
     <row r="6" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="113"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="115"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="124"/>
     </row>
     <row r="7" spans="1:17" s="56" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="164"/>
-      <c r="B7" s="165"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="166"/>
-      <c r="J7" s="167"/>
+      <c r="A7" s="173"/>
+      <c r="B7" s="174"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="176"/>
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:17" s="56" customFormat="1">
-      <c r="A8" s="164"/>
-      <c r="B8" s="165"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="165"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="167"/>
+      <c r="A8" s="173"/>
+      <c r="B8" s="174"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="176"/>
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:17" s="56" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="168"/>
-      <c r="B9" s="169"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="169"/>
-      <c r="H9" s="169"/>
-      <c r="I9" s="169"/>
-      <c r="J9" s="170"/>
+      <c r="A9" s="177"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="179"/>
     </row>
     <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="110"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="119"/>
     </row>
     <row r="11" spans="1:17" s="58" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="171" t="s">
+      <c r="A11" s="180" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="112"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="121"/>
     </row>
     <row r="12" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="163" t="s">
+      <c r="A12" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="110"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="119"/>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="171" t="s">
+      <c r="A13" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="112"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="163" t="s">
+      <c r="A14" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="110"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="119"/>
     </row>
     <row r="15" spans="1:17" s="56" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A15" s="176" t="s">
+      <c r="A15" s="185" t="s">
         <v>137</v>
       </c>
-      <c r="B15" s="177"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="177"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="177"/>
-      <c r="J15" s="178"/>
+      <c r="B15" s="186"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="187"/>
     </row>
     <row r="16" spans="1:17" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="59" t="s">
@@ -12009,52 +12277,52 @@
       <c r="B16" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="179" t="s">
+      <c r="C16" s="188" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="180"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="180"/>
-      <c r="J16" s="181"/>
-    </row>
-    <row r="17" spans="1:10" s="56" customFormat="1" ht="83.25" customHeight="1">
+      <c r="D16" s="189"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="190"/>
+    </row>
+    <row r="17" spans="1:10" s="56" customFormat="1" ht="73.5" customHeight="1">
       <c r="A17" s="59">
         <v>1</v>
       </c>
       <c r="B17" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="182" t="s">
-        <v>294</v>
-      </c>
-      <c r="D17" s="183"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="183"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="184"/>
-    </row>
-    <row r="18" spans="1:10" s="56" customFormat="1" ht="82.5" customHeight="1">
+      <c r="C17" s="191" t="s">
+        <v>263</v>
+      </c>
+      <c r="D17" s="192"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="193"/>
+    </row>
+    <row r="18" spans="1:10" s="56" customFormat="1" ht="65.25" customHeight="1">
       <c r="A18" s="59">
         <v>2</v>
       </c>
       <c r="B18" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="182" t="s">
-        <v>295</v>
-      </c>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="184"/>
+      <c r="C18" s="191" t="s">
+        <v>264</v>
+      </c>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="193"/>
     </row>
     <row r="19" spans="1:10" s="56" customFormat="1">
       <c r="A19" s="59">
@@ -12063,16 +12331,16 @@
       <c r="B19" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="196" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="183"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="183"/>
-      <c r="J19" s="184"/>
+      <c r="D19" s="192"/>
+      <c r="E19" s="192"/>
+      <c r="F19" s="192"/>
+      <c r="G19" s="192"/>
+      <c r="H19" s="192"/>
+      <c r="I19" s="192"/>
+      <c r="J19" s="193"/>
     </row>
     <row r="20" spans="1:10" s="56" customFormat="1">
       <c r="A20" s="59">
@@ -12081,16 +12349,16 @@
       <c r="B20" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="187" t="s">
+      <c r="C20" s="196" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="183"/>
-      <c r="E20" s="183"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="183"/>
-      <c r="J20" s="184"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="192"/>
+      <c r="F20" s="192"/>
+      <c r="G20" s="192"/>
+      <c r="H20" s="192"/>
+      <c r="I20" s="192"/>
+      <c r="J20" s="193"/>
     </row>
     <row r="21" spans="1:10" s="56" customFormat="1">
       <c r="A21" s="59">
@@ -12099,56 +12367,56 @@
       <c r="B21" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="187" t="s">
+      <c r="C21" s="196" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="183"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="184"/>
+      <c r="D21" s="192"/>
+      <c r="E21" s="192"/>
+      <c r="F21" s="192"/>
+      <c r="G21" s="192"/>
+      <c r="H21" s="192"/>
+      <c r="I21" s="192"/>
+      <c r="J21" s="193"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1">
-      <c r="A22" s="160"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="162"/>
+      <c r="A22" s="169"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="171"/>
     </row>
     <row r="23" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="172" t="s">
+      <c r="A23" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="173"/>
-      <c r="C23" s="173"/>
-      <c r="D23" s="173"/>
-      <c r="E23" s="173"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="174"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="182"/>
+      <c r="D23" s="182"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="182"/>
+      <c r="G23" s="182"/>
+      <c r="H23" s="182"/>
+      <c r="I23" s="182"/>
+      <c r="J23" s="183"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1" ht="36" customHeight="1">
-      <c r="A24" s="176" t="s">
+      <c r="A24" s="185" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="177"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="177"/>
-      <c r="E24" s="177"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="177"/>
-      <c r="H24" s="177"/>
-      <c r="I24" s="177"/>
-      <c r="J24" s="178"/>
+      <c r="B24" s="186"/>
+      <c r="C24" s="186"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="186"/>
+      <c r="F24" s="186"/>
+      <c r="G24" s="186"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="186"/>
+      <c r="J24" s="187"/>
     </row>
     <row r="25" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="59" t="s">
@@ -12157,16 +12425,16 @@
       <c r="B25" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="179" t="s">
+      <c r="C25" s="188" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="180"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="180"/>
-      <c r="G25" s="180"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="180"/>
-      <c r="J25" s="181"/>
+      <c r="D25" s="189"/>
+      <c r="E25" s="189"/>
+      <c r="F25" s="189"/>
+      <c r="G25" s="189"/>
+      <c r="H25" s="189"/>
+      <c r="I25" s="189"/>
+      <c r="J25" s="190"/>
     </row>
     <row r="26" spans="1:10" s="56" customFormat="1" ht="33" customHeight="1">
       <c r="A26" s="59">
@@ -12175,16 +12443,16 @@
       <c r="B26" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="182" t="s">
-        <v>296</v>
-      </c>
-      <c r="D26" s="183"/>
-      <c r="E26" s="183"/>
-      <c r="F26" s="183"/>
-      <c r="G26" s="183"/>
-      <c r="H26" s="183"/>
-      <c r="I26" s="183"/>
-      <c r="J26" s="184"/>
+      <c r="C26" s="191" t="s">
+        <v>323</v>
+      </c>
+      <c r="D26" s="192"/>
+      <c r="E26" s="192"/>
+      <c r="F26" s="192"/>
+      <c r="G26" s="192"/>
+      <c r="H26" s="192"/>
+      <c r="I26" s="192"/>
+      <c r="J26" s="193"/>
     </row>
     <row r="27" spans="1:10" s="56" customFormat="1" ht="32.25" customHeight="1">
       <c r="A27" s="59">
@@ -12193,16 +12461,16 @@
       <c r="B27" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="182" t="s">
-        <v>297</v>
-      </c>
-      <c r="D27" s="183"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="183"/>
-      <c r="H27" s="183"/>
-      <c r="I27" s="183"/>
-      <c r="J27" s="184"/>
+      <c r="C27" s="191" t="s">
+        <v>212</v>
+      </c>
+      <c r="D27" s="192"/>
+      <c r="E27" s="192"/>
+      <c r="F27" s="192"/>
+      <c r="G27" s="192"/>
+      <c r="H27" s="192"/>
+      <c r="I27" s="192"/>
+      <c r="J27" s="193"/>
     </row>
     <row r="28" spans="1:10" s="56" customFormat="1">
       <c r="A28" s="59">
@@ -12211,16 +12479,16 @@
       <c r="B28" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="187" t="s">
+      <c r="C28" s="196" t="s">
         <v>122</v>
       </c>
-      <c r="D28" s="183"/>
-      <c r="E28" s="183"/>
-      <c r="F28" s="183"/>
-      <c r="G28" s="183"/>
-      <c r="H28" s="183"/>
-      <c r="I28" s="183"/>
-      <c r="J28" s="184"/>
+      <c r="D28" s="192"/>
+      <c r="E28" s="192"/>
+      <c r="F28" s="192"/>
+      <c r="G28" s="192"/>
+      <c r="H28" s="192"/>
+      <c r="I28" s="192"/>
+      <c r="J28" s="193"/>
     </row>
     <row r="29" spans="1:10" s="56" customFormat="1">
       <c r="A29" s="59">
@@ -12229,16 +12497,16 @@
       <c r="B29" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="187" t="s">
+      <c r="C29" s="196" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="183"/>
-      <c r="E29" s="183"/>
-      <c r="F29" s="183"/>
-      <c r="G29" s="183"/>
-      <c r="H29" s="183"/>
-      <c r="I29" s="183"/>
-      <c r="J29" s="184"/>
+      <c r="D29" s="192"/>
+      <c r="E29" s="192"/>
+      <c r="F29" s="192"/>
+      <c r="G29" s="192"/>
+      <c r="H29" s="192"/>
+      <c r="I29" s="192"/>
+      <c r="J29" s="193"/>
     </row>
     <row r="30" spans="1:10" s="56" customFormat="1">
       <c r="A30" s="59">
@@ -12247,424 +12515,436 @@
       <c r="B30" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="187" t="s">
+      <c r="C30" s="196" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="183"/>
-      <c r="E30" s="183"/>
-      <c r="F30" s="183"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183"/>
-      <c r="I30" s="183"/>
-      <c r="J30" s="184"/>
+      <c r="D30" s="192"/>
+      <c r="E30" s="192"/>
+      <c r="F30" s="192"/>
+      <c r="G30" s="192"/>
+      <c r="H30" s="192"/>
+      <c r="I30" s="192"/>
+      <c r="J30" s="193"/>
     </row>
     <row r="31" spans="1:10" s="56" customFormat="1">
-      <c r="A31" s="160"/>
-      <c r="B31" s="210"/>
-      <c r="C31" s="210"/>
-      <c r="D31" s="210"/>
-      <c r="E31" s="210"/>
-      <c r="F31" s="210"/>
-      <c r="G31" s="210"/>
-      <c r="H31" s="210"/>
-      <c r="I31" s="210"/>
-      <c r="J31" s="211"/>
+      <c r="A31" s="169"/>
+      <c r="B31" s="227"/>
+      <c r="C31" s="227"/>
+      <c r="D31" s="227"/>
+      <c r="E31" s="227"/>
+      <c r="F31" s="227"/>
+      <c r="G31" s="227"/>
+      <c r="H31" s="227"/>
+      <c r="I31" s="227"/>
+      <c r="J31" s="228"/>
     </row>
     <row r="32" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="172" t="s">
-        <v>177</v>
-      </c>
-      <c r="B32" s="173"/>
-      <c r="C32" s="173"/>
-      <c r="D32" s="173"/>
-      <c r="E32" s="173"/>
-      <c r="F32" s="173"/>
-      <c r="G32" s="173"/>
-      <c r="H32" s="173"/>
-      <c r="I32" s="173"/>
-      <c r="J32" s="174"/>
+      <c r="A32" s="181" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="182"/>
+      <c r="C32" s="182"/>
+      <c r="D32" s="182"/>
+      <c r="E32" s="182"/>
+      <c r="F32" s="182"/>
+      <c r="G32" s="182"/>
+      <c r="H32" s="182"/>
+      <c r="I32" s="182"/>
+      <c r="J32" s="183"/>
     </row>
     <row r="33" spans="1:12" s="77" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="B33" s="60" t="s">
+      <c r="C33" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="D33" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D33" s="62" t="s">
+      <c r="E33" s="231" t="s">
         <v>181</v>
       </c>
-      <c r="E33" s="214" t="s">
-        <v>182</v>
-      </c>
-      <c r="F33" s="215"/>
-      <c r="G33" s="215"/>
-      <c r="H33" s="215"/>
-      <c r="I33" s="215"/>
-      <c r="J33" s="216"/>
+      <c r="F33" s="232"/>
+      <c r="G33" s="232"/>
+      <c r="H33" s="232"/>
+      <c r="I33" s="232"/>
+      <c r="J33" s="233"/>
       <c r="K33" s="56"/>
       <c r="L33" s="56"/>
     </row>
     <row r="34" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="136">
+      <c r="A34" s="145">
         <v>1</v>
       </c>
-      <c r="B34" s="136" t="s">
-        <v>228</v>
-      </c>
-      <c r="C34" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="175" t="s">
-        <v>229</v>
-      </c>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="107"/>
-    </row>
-    <row r="35" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="137"/>
-      <c r="B35" s="137"/>
-      <c r="C35" s="85" t="s">
-        <v>197</v>
-      </c>
-      <c r="D35" s="83" t="s">
-        <v>198</v>
-      </c>
-      <c r="E35" s="144" t="s">
-        <v>187</v>
-      </c>
-      <c r="F35" s="145"/>
-      <c r="G35" s="145"/>
-      <c r="H35" s="145"/>
-      <c r="I35" s="145"/>
-      <c r="J35" s="146"/>
+      <c r="B34" s="145" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D34" s="98"/>
+      <c r="E34" s="184" t="s">
+        <v>192</v>
+      </c>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+    </row>
+    <row r="35" spans="1:12" s="58" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A35" s="146"/>
+      <c r="B35" s="146"/>
+      <c r="C35" s="97" t="s">
+        <v>266</v>
+      </c>
+      <c r="D35" s="99" t="s">
+        <v>267</v>
+      </c>
+      <c r="E35" s="153" t="s">
+        <v>268</v>
+      </c>
+      <c r="F35" s="154"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="154"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="155"/>
       <c r="K35" s="56"/>
       <c r="L35" s="56"/>
     </row>
-    <row r="36" spans="1:12" s="56" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A36" s="137"/>
-      <c r="B36" s="137"/>
-      <c r="C36" s="85" t="s">
-        <v>188</v>
+    <row r="36" spans="1:12" s="56" customFormat="1" ht="56.25" customHeight="1">
+      <c r="A36" s="146"/>
+      <c r="B36" s="146"/>
+      <c r="C36" s="97" t="s">
+        <v>269</v>
       </c>
       <c r="D36" s="69"/>
-      <c r="E36" s="144" t="s">
-        <v>230</v>
-      </c>
-      <c r="F36" s="145"/>
-      <c r="G36" s="145"/>
-      <c r="H36" s="145"/>
-      <c r="I36" s="145"/>
-      <c r="J36" s="146"/>
-    </row>
-    <row r="37" spans="1:12" s="56" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A37" s="138"/>
-      <c r="B37" s="138"/>
-      <c r="C37" s="85" t="s">
-        <v>190</v>
-      </c>
-      <c r="D37" s="85" t="s">
-        <v>231</v>
-      </c>
-      <c r="E37" s="147" t="s">
-        <v>192</v>
-      </c>
-      <c r="F37" s="148"/>
-      <c r="G37" s="148"/>
-      <c r="H37" s="148"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="148"/>
+      <c r="E36" s="153" t="s">
+        <v>270</v>
+      </c>
+      <c r="F36" s="154"/>
+      <c r="G36" s="154"/>
+      <c r="H36" s="154"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="155"/>
+    </row>
+    <row r="37" spans="1:12" s="56" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A37" s="147"/>
+      <c r="B37" s="147"/>
+      <c r="C37" s="97" t="s">
+        <v>271</v>
+      </c>
+      <c r="D37" s="97" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37" s="156" t="s">
+        <v>272</v>
+      </c>
+      <c r="F37" s="157"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="157"/>
+      <c r="I37" s="157"/>
+      <c r="J37" s="157"/>
     </row>
     <row r="38" spans="1:12" s="56" customFormat="1">
-      <c r="A38" s="149" t="s">
-        <v>232</v>
-      </c>
-      <c r="B38" s="150"/>
-      <c r="C38" s="150"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="151"/>
+      <c r="A38" s="158" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38" s="159"/>
+      <c r="C38" s="159"/>
+      <c r="D38" s="159"/>
+      <c r="E38" s="159"/>
+      <c r="F38" s="159"/>
+      <c r="G38" s="159"/>
+      <c r="H38" s="159"/>
+      <c r="I38" s="159"/>
+      <c r="J38" s="160"/>
     </row>
     <row r="39" spans="1:12" s="56" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A39" s="136">
+      <c r="A39" s="145">
         <v>1</v>
       </c>
-      <c r="B39" s="153" t="s">
-        <v>233</v>
-      </c>
-      <c r="C39" s="82" t="s">
+      <c r="B39" s="162" t="s">
         <v>195</v>
       </c>
-      <c r="D39" s="85"/>
-      <c r="E39" s="175" t="s">
-        <v>234</v>
-      </c>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="107"/>
-    </row>
-    <row r="40" spans="1:12" s="56" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A40" s="152"/>
-      <c r="B40" s="154"/>
-      <c r="C40" s="78" t="s">
-        <v>202</v>
-      </c>
-      <c r="D40" s="83" t="s">
-        <v>198</v>
-      </c>
-      <c r="E40" s="198" t="s">
-        <v>235</v>
-      </c>
-      <c r="F40" s="221"/>
-      <c r="G40" s="221"/>
-      <c r="H40" s="221"/>
-      <c r="I40" s="221"/>
-      <c r="J40" s="222"/>
-    </row>
-    <row r="41" spans="1:12" s="56" customFormat="1" ht="81" customHeight="1">
+      <c r="C39" s="93" t="s">
+        <v>226</v>
+      </c>
+      <c r="D39" s="97"/>
+      <c r="E39" s="184" t="s">
+        <v>273</v>
+      </c>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="116"/>
+    </row>
+    <row r="40" spans="1:12" s="56" customFormat="1" ht="49.5">
+      <c r="A40" s="161"/>
+      <c r="B40" s="163"/>
+      <c r="C40" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="D40" s="99" t="s">
+        <v>267</v>
+      </c>
+      <c r="E40" s="207" t="s">
+        <v>275</v>
+      </c>
+      <c r="F40" s="238"/>
+      <c r="G40" s="238"/>
+      <c r="H40" s="238"/>
+      <c r="I40" s="238"/>
+      <c r="J40" s="239"/>
+    </row>
+    <row r="41" spans="1:12" s="56" customFormat="1" ht="37.5" customHeight="1">
       <c r="A41" s="67">
         <v>2</v>
       </c>
       <c r="B41" s="68" t="s">
-        <v>236</v>
-      </c>
-      <c r="C41" s="82" t="s">
-        <v>195</v>
-      </c>
-      <c r="D41" s="83"/>
-      <c r="E41" s="223" t="s">
-        <v>282</v>
-      </c>
-      <c r="F41" s="224"/>
-      <c r="G41" s="224"/>
-      <c r="H41" s="224"/>
-      <c r="I41" s="224"/>
-      <c r="J41" s="225"/>
+        <v>276</v>
+      </c>
+      <c r="C41" s="93" t="s">
+        <v>277</v>
+      </c>
+      <c r="D41" s="99"/>
+      <c r="E41" s="240" t="s">
+        <v>278</v>
+      </c>
+      <c r="F41" s="241"/>
+      <c r="G41" s="241"/>
+      <c r="H41" s="241"/>
+      <c r="I41" s="241"/>
+      <c r="J41" s="242"/>
     </row>
     <row r="42" spans="1:12" s="56" customFormat="1" ht="99" customHeight="1">
       <c r="A42" s="67"/>
       <c r="B42" s="68"/>
-      <c r="C42" s="85" t="s">
-        <v>197</v>
-      </c>
-      <c r="D42" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="E42" s="217" t="s">
-        <v>238</v>
-      </c>
-      <c r="F42" s="218"/>
-      <c r="G42" s="218"/>
-      <c r="H42" s="218"/>
-      <c r="I42" s="218"/>
-      <c r="J42" s="218"/>
+      <c r="C42" s="97" t="s">
+        <v>279</v>
+      </c>
+      <c r="D42" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="E42" s="234" t="s">
+        <v>280</v>
+      </c>
+      <c r="F42" s="235"/>
+      <c r="G42" s="235"/>
+      <c r="H42" s="235"/>
+      <c r="I42" s="235"/>
+      <c r="J42" s="235"/>
     </row>
     <row r="43" spans="1:12" s="56" customFormat="1" ht="37.5" customHeight="1">
       <c r="A43" s="67"/>
       <c r="B43" s="68"/>
-      <c r="C43" s="85" t="s">
-        <v>239</v>
-      </c>
-      <c r="D43" s="89" t="s">
-        <v>240</v>
-      </c>
-      <c r="E43" s="127" t="s">
-        <v>241</v>
-      </c>
-      <c r="F43" s="219"/>
-      <c r="G43" s="219"/>
-      <c r="H43" s="219"/>
-      <c r="I43" s="219"/>
-      <c r="J43" s="220"/>
+      <c r="C43" s="97" t="s">
+        <v>281</v>
+      </c>
+      <c r="D43" s="92" t="s">
+        <v>282</v>
+      </c>
+      <c r="E43" s="136" t="s">
+        <v>283</v>
+      </c>
+      <c r="F43" s="236"/>
+      <c r="G43" s="236"/>
+      <c r="H43" s="236"/>
+      <c r="I43" s="236"/>
+      <c r="J43" s="237"/>
     </row>
     <row r="44" spans="1:12" s="56" customFormat="1" ht="91.5" customHeight="1">
       <c r="A44" s="67"/>
       <c r="B44" s="68"/>
-      <c r="C44" s="85" t="s">
-        <v>242</v>
-      </c>
-      <c r="D44" s="89" t="s">
-        <v>271</v>
-      </c>
-      <c r="E44" s="127" t="s">
-        <v>243</v>
-      </c>
-      <c r="F44" s="219"/>
-      <c r="G44" s="219"/>
-      <c r="H44" s="219"/>
-      <c r="I44" s="219"/>
-      <c r="J44" s="220"/>
-    </row>
-    <row r="45" spans="1:12" s="56" customFormat="1" ht="37.5" customHeight="1">
+      <c r="C44" s="97" t="s">
+        <v>284</v>
+      </c>
+      <c r="D44" s="92" t="s">
+        <v>285</v>
+      </c>
+      <c r="E44" s="136" t="s">
+        <v>286</v>
+      </c>
+      <c r="F44" s="236"/>
+      <c r="G44" s="236"/>
+      <c r="H44" s="236"/>
+      <c r="I44" s="236"/>
+      <c r="J44" s="237"/>
+    </row>
+    <row r="45" spans="1:12" s="56" customFormat="1" ht="105.75" customHeight="1">
       <c r="A45" s="69">
         <v>3</v>
       </c>
-      <c r="B45" s="88" t="s">
-        <v>207</v>
-      </c>
-      <c r="C45" s="82" t="s">
-        <v>195</v>
-      </c>
-      <c r="D45" s="84"/>
-      <c r="E45" s="127" t="s">
-        <v>278</v>
-      </c>
-      <c r="F45" s="111"/>
-      <c r="G45" s="111"/>
-      <c r="H45" s="111"/>
-      <c r="I45" s="111"/>
-      <c r="J45" s="112"/>
-    </row>
-    <row r="46" spans="1:12" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A46" s="141" t="s">
+      <c r="B45" s="100" t="s">
+        <v>287</v>
+      </c>
+      <c r="C45" s="93" t="s">
+        <v>288</v>
+      </c>
+      <c r="D45" s="92"/>
+      <c r="E45" s="136" t="s">
+        <v>321</v>
+      </c>
+      <c r="F45" s="120"/>
+      <c r="G45" s="120"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="120"/>
+      <c r="J45" s="121"/>
+    </row>
+    <row r="46" spans="1:12" s="56" customFormat="1">
+      <c r="A46" s="101"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="95"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="96"/>
+    </row>
+    <row r="47" spans="1:12" s="56" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A47" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="142"/>
-      <c r="C46" s="142"/>
-      <c r="D46" s="142"/>
-      <c r="E46" s="142"/>
-      <c r="F46" s="142"/>
-      <c r="G46" s="142"/>
-      <c r="H46" s="142"/>
-      <c r="I46" s="142"/>
-      <c r="J46" s="143"/>
-    </row>
-    <row r="47" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A47" s="69" t="s">
+      <c r="B47" s="151"/>
+      <c r="C47" s="151"/>
+      <c r="D47" s="151"/>
+      <c r="E47" s="151"/>
+      <c r="F47" s="151"/>
+      <c r="G47" s="151"/>
+      <c r="H47" s="151"/>
+      <c r="I47" s="151"/>
+      <c r="J47" s="152"/>
+    </row>
+    <row r="48" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
+      <c r="A48" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="139" t="s">
+      <c r="B48" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="140"/>
-      <c r="D47" s="127" t="s">
+      <c r="C48" s="149"/>
+      <c r="D48" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="111"/>
-      <c r="F47" s="111"/>
-      <c r="G47" s="111"/>
-      <c r="H47" s="111"/>
-      <c r="I47" s="111"/>
-      <c r="J47" s="112"/>
-    </row>
-    <row r="48" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A48" s="132"/>
-      <c r="B48" s="212"/>
-      <c r="C48" s="212"/>
-      <c r="D48" s="212"/>
-      <c r="E48" s="212"/>
-      <c r="F48" s="212"/>
-      <c r="G48" s="212"/>
-      <c r="H48" s="212"/>
-      <c r="I48" s="212"/>
-      <c r="J48" s="213"/>
-    </row>
-    <row r="49" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A49" s="69"/>
-      <c r="B49" s="130"/>
-      <c r="C49" s="131"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="111"/>
-      <c r="F49" s="111"/>
-      <c r="G49" s="111"/>
-      <c r="H49" s="111"/>
-      <c r="I49" s="111"/>
-      <c r="J49" s="112"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="120"/>
+      <c r="G48" s="120"/>
+      <c r="H48" s="120"/>
+      <c r="I48" s="120"/>
+      <c r="J48" s="121"/>
+    </row>
+    <row r="49" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A49" s="141"/>
+      <c r="B49" s="229"/>
+      <c r="C49" s="229"/>
+      <c r="D49" s="229"/>
+      <c r="E49" s="229"/>
+      <c r="F49" s="229"/>
+      <c r="G49" s="229"/>
+      <c r="H49" s="229"/>
+      <c r="I49" s="229"/>
+      <c r="J49" s="230"/>
     </row>
     <row r="50" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="69"/>
-      <c r="B50" s="130"/>
-      <c r="C50" s="131"/>
-      <c r="D50" s="127"/>
-      <c r="E50" s="111"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="111"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="111"/>
-      <c r="J50" s="112"/>
-    </row>
-    <row r="51" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="132"/>
-      <c r="B51" s="212"/>
-      <c r="C51" s="212"/>
-      <c r="D51" s="212"/>
-      <c r="E51" s="212"/>
-      <c r="F51" s="212"/>
-      <c r="G51" s="212"/>
-      <c r="H51" s="212"/>
-      <c r="I51" s="212"/>
-      <c r="J51" s="213"/>
-    </row>
-    <row r="52" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="69"/>
-      <c r="B52" s="130"/>
-      <c r="C52" s="131"/>
-      <c r="D52" s="127"/>
-      <c r="E52" s="111"/>
-      <c r="F52" s="111"/>
-      <c r="G52" s="111"/>
-      <c r="H52" s="111"/>
-      <c r="I52" s="111"/>
-      <c r="J52" s="112"/>
-    </row>
-    <row r="53" spans="1:10" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A53" s="72" t="s">
+      <c r="B50" s="139"/>
+      <c r="C50" s="140"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="120"/>
+      <c r="G50" s="120"/>
+      <c r="H50" s="120"/>
+      <c r="I50" s="120"/>
+      <c r="J50" s="121"/>
+    </row>
+    <row r="51" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
+      <c r="A51" s="69"/>
+      <c r="B51" s="139"/>
+      <c r="C51" s="140"/>
+      <c r="D51" s="136"/>
+      <c r="E51" s="120"/>
+      <c r="F51" s="120"/>
+      <c r="G51" s="120"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="121"/>
+    </row>
+    <row r="52" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
+      <c r="A52" s="141"/>
+      <c r="B52" s="229"/>
+      <c r="C52" s="229"/>
+      <c r="D52" s="229"/>
+      <c r="E52" s="229"/>
+      <c r="F52" s="229"/>
+      <c r="G52" s="229"/>
+      <c r="H52" s="229"/>
+      <c r="I52" s="229"/>
+      <c r="J52" s="230"/>
+    </row>
+    <row r="53" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
+      <c r="A53" s="69"/>
+      <c r="B53" s="139"/>
+      <c r="C53" s="140"/>
+      <c r="D53" s="136"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
+      <c r="I53" s="120"/>
+      <c r="J53" s="121"/>
+    </row>
+    <row r="54" spans="1:10" s="56" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A54" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="73"/>
-      <c r="C53" s="74"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="74"/>
-      <c r="I53" s="74"/>
-      <c r="J53" s="75"/>
-    </row>
-    <row r="54" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="69">
+      <c r="B54" s="73"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="74"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="74"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="75"/>
+    </row>
+    <row r="55" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
+      <c r="A55" s="69">
         <v>1</v>
-      </c>
-      <c r="B54" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="130"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="111"/>
-      <c r="F54" s="111"/>
-      <c r="G54" s="111"/>
-      <c r="H54" s="111"/>
-      <c r="I54" s="111"/>
-      <c r="J54" s="112"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="69">
-        <v>2</v>
       </c>
       <c r="B55" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="147"/>
-      <c r="D55" s="147"/>
-      <c r="E55" s="147"/>
-      <c r="F55" s="147"/>
-      <c r="G55" s="147"/>
-      <c r="H55" s="147"/>
-      <c r="I55" s="147"/>
-      <c r="J55" s="147"/>
+      <c r="C55" s="139"/>
+      <c r="D55" s="120"/>
+      <c r="E55" s="120"/>
+      <c r="F55" s="120"/>
+      <c r="G55" s="120"/>
+      <c r="H55" s="120"/>
+      <c r="I55" s="120"/>
+      <c r="J55" s="121"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="69">
+        <v>2</v>
+      </c>
+      <c r="B56" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="156"/>
+      <c r="D56" s="156"/>
+      <c r="E56" s="156"/>
+      <c r="F56" s="156"/>
+      <c r="G56" s="156"/>
+      <c r="H56" s="156"/>
+      <c r="I56" s="156"/>
+      <c r="J56" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="56">
@@ -12690,19 +12970,19 @@
     <mergeCell ref="E35:J35"/>
     <mergeCell ref="E33:J33"/>
     <mergeCell ref="K1:K3"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:J52"/>
-    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:J53"/>
     <mergeCell ref="C55:J55"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="A49:J49"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:J50"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="A46:J46"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:J48"/>
+    <mergeCell ref="A47:J47"/>
     <mergeCell ref="E34:J34"/>
     <mergeCell ref="E39:J39"/>
     <mergeCell ref="A14:J14"/>
@@ -12775,7 +13055,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="158" t="s">
+      <c r="K1" s="167" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="39"/>
@@ -12802,7 +13082,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="159"/>
+      <c r="K2" s="168"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -12820,7 +13100,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="159"/>
+      <c r="K3" s="168"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -12864,18 +13144,18 @@
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="207" t="s">
+      <c r="A6" s="224" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="208"/>
-      <c r="C6" s="208"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="208"/>
-      <c r="H6" s="208"/>
-      <c r="I6" s="208"/>
-      <c r="J6" s="209"/>
+      <c r="B6" s="225"/>
+      <c r="C6" s="225"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="225"/>
+      <c r="I6" s="225"/>
+      <c r="J6" s="226"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -12909,7 +13189,7 @@
         <v>124</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>273</v>
+        <v>201</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -12942,18 +13222,18 @@
       <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="207" t="s">
+      <c r="A10" s="224" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="208"/>
-      <c r="C10" s="208"/>
-      <c r="D10" s="208"/>
-      <c r="E10" s="208"/>
-      <c r="F10" s="208"/>
-      <c r="G10" s="208"/>
-      <c r="H10" s="208"/>
-      <c r="I10" s="208"/>
-      <c r="J10" s="209"/>
+      <c r="B10" s="225"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="225"/>
+      <c r="E10" s="225"/>
+      <c r="F10" s="225"/>
+      <c r="G10" s="225"/>
+      <c r="H10" s="225"/>
+      <c r="I10" s="225"/>
+      <c r="J10" s="226"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="42" t="s">
@@ -12981,7 +13261,7 @@
         <v>124</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>273</v>
+        <v>201</v>
       </c>
       <c r="J11" s="42" t="s">
         <v>0</v>
@@ -13159,8 +13439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:J30"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13189,7 +13469,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="158" t="s">
+      <c r="K1" s="167" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="54"/>
@@ -13210,7 +13490,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="159"/>
+      <c r="K2" s="168"/>
     </row>
     <row r="3" spans="1:17" s="55" customFormat="1">
       <c r="A3" s="47"/>
@@ -13223,7 +13503,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="159"/>
+      <c r="K3" s="168"/>
     </row>
     <row r="4" spans="1:17" s="55" customFormat="1">
       <c r="A4" s="47"/>
@@ -13238,152 +13518,152 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="163" t="s">
+      <c r="A5" s="172" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="110"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="119"/>
     </row>
     <row r="6" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="113"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="115"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="124"/>
     </row>
     <row r="7" spans="1:17" s="56" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="164"/>
-      <c r="B7" s="165"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="166"/>
-      <c r="J7" s="167"/>
+      <c r="A7" s="173"/>
+      <c r="B7" s="174"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="176"/>
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:17" s="56" customFormat="1">
-      <c r="A8" s="164"/>
-      <c r="B8" s="165"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="165"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="167"/>
+      <c r="A8" s="173"/>
+      <c r="B8" s="174"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="176"/>
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:17" s="56" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="168"/>
-      <c r="B9" s="169"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="169"/>
-      <c r="H9" s="169"/>
-      <c r="I9" s="169"/>
-      <c r="J9" s="170"/>
+      <c r="A9" s="177"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="179"/>
     </row>
     <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="110"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="119"/>
     </row>
     <row r="11" spans="1:17" s="58" customFormat="1" ht="129" customHeight="1">
-      <c r="A11" s="171" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="112"/>
+      <c r="A11" s="180" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="121"/>
     </row>
     <row r="12" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="163" t="s">
+      <c r="A12" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="110"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="119"/>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="171" t="s">
+      <c r="A13" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="112"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="163" t="s">
+      <c r="A14" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="110"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="119"/>
     </row>
     <row r="15" spans="1:17" s="56" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A15" s="176" t="s">
+      <c r="A15" s="185" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="177"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="177"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="177"/>
-      <c r="J15" s="178"/>
+      <c r="B15" s="186"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="187"/>
     </row>
     <row r="16" spans="1:17" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="59" t="s">
@@ -13392,52 +13672,52 @@
       <c r="B16" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="179" t="s">
+      <c r="C16" s="188" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="180"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="180"/>
-      <c r="J16" s="181"/>
-    </row>
-    <row r="17" spans="1:10" s="56" customFormat="1" ht="90" customHeight="1">
+      <c r="D16" s="189"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="190"/>
+    </row>
+    <row r="17" spans="1:10" s="56" customFormat="1" ht="74.25" customHeight="1">
       <c r="A17" s="59">
         <v>1</v>
       </c>
       <c r="B17" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="182" t="s">
-        <v>294</v>
-      </c>
-      <c r="D17" s="183"/>
-      <c r="E17" s="183"/>
-      <c r="F17" s="183"/>
-      <c r="G17" s="183"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="184"/>
-    </row>
-    <row r="18" spans="1:10" s="56" customFormat="1" ht="86.25" customHeight="1">
+      <c r="C17" s="191" t="s">
+        <v>263</v>
+      </c>
+      <c r="D17" s="192"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="193"/>
+    </row>
+    <row r="18" spans="1:10" s="56" customFormat="1" ht="67.5" customHeight="1">
       <c r="A18" s="59">
         <v>2</v>
       </c>
       <c r="B18" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="182" t="s">
-        <v>298</v>
-      </c>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="184"/>
+      <c r="C18" s="191" t="s">
+        <v>264</v>
+      </c>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="193"/>
     </row>
     <row r="19" spans="1:10" s="56" customFormat="1">
       <c r="A19" s="59">
@@ -13446,16 +13726,16 @@
       <c r="B19" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="196" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="183"/>
-      <c r="E19" s="183"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="183"/>
-      <c r="J19" s="184"/>
+      <c r="D19" s="192"/>
+      <c r="E19" s="192"/>
+      <c r="F19" s="192"/>
+      <c r="G19" s="192"/>
+      <c r="H19" s="192"/>
+      <c r="I19" s="192"/>
+      <c r="J19" s="193"/>
     </row>
     <row r="20" spans="1:10" s="56" customFormat="1">
       <c r="A20" s="59">
@@ -13464,16 +13744,16 @@
       <c r="B20" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="187" t="s">
+      <c r="C20" s="196" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="183"/>
-      <c r="E20" s="183"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="183"/>
-      <c r="J20" s="184"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="192"/>
+      <c r="F20" s="192"/>
+      <c r="G20" s="192"/>
+      <c r="H20" s="192"/>
+      <c r="I20" s="192"/>
+      <c r="J20" s="193"/>
     </row>
     <row r="21" spans="1:10" s="56" customFormat="1">
       <c r="A21" s="59">
@@ -13482,84 +13762,84 @@
       <c r="B21" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="187" t="s">
+      <c r="C21" s="196" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="183"/>
-      <c r="E21" s="183"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="183"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="183"/>
-      <c r="J21" s="184"/>
+      <c r="D21" s="192"/>
+      <c r="E21" s="192"/>
+      <c r="F21" s="192"/>
+      <c r="G21" s="192"/>
+      <c r="H21" s="192"/>
+      <c r="I21" s="192"/>
+      <c r="J21" s="193"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1">
-      <c r="A22" s="130"/>
-      <c r="B22" s="135"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="131"/>
+      <c r="A22" s="139"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="144"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="140"/>
     </row>
     <row r="23" spans="1:10" s="56" customFormat="1">
-      <c r="A23" s="176" t="s">
+      <c r="A23" s="185" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="177"/>
-      <c r="C23" s="177"/>
-      <c r="D23" s="177"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="177"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="177"/>
-      <c r="I23" s="177"/>
-      <c r="J23" s="178"/>
+      <c r="B23" s="186"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="186"/>
+      <c r="F23" s="186"/>
+      <c r="G23" s="186"/>
+      <c r="H23" s="186"/>
+      <c r="I23" s="186"/>
+      <c r="J23" s="187"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A24" s="226" t="s">
+      <c r="A24" s="243" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="161"/>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="162"/>
+      <c r="B24" s="170"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="170"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="171"/>
     </row>
     <row r="25" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="172" t="s">
+      <c r="A25" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="173"/>
-      <c r="C25" s="173"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="173"/>
-      <c r="J25" s="174"/>
+      <c r="B25" s="182"/>
+      <c r="C25" s="182"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="182"/>
+      <c r="G25" s="182"/>
+      <c r="H25" s="182"/>
+      <c r="I25" s="182"/>
+      <c r="J25" s="183"/>
     </row>
     <row r="26" spans="1:10" s="56" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A26" s="176" t="s">
+      <c r="A26" s="185" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="177"/>
-      <c r="C26" s="177"/>
-      <c r="D26" s="177"/>
-      <c r="E26" s="177"/>
-      <c r="F26" s="177"/>
-      <c r="G26" s="177"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="177"/>
-      <c r="J26" s="178"/>
+      <c r="B26" s="186"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="186"/>
+      <c r="J26" s="187"/>
     </row>
     <row r="27" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="59" t="s">
@@ -13568,16 +13848,16 @@
       <c r="B27" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="179" t="s">
+      <c r="C27" s="188" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="180"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="180"/>
-      <c r="H27" s="180"/>
-      <c r="I27" s="180"/>
-      <c r="J27" s="181"/>
+      <c r="D27" s="189"/>
+      <c r="E27" s="189"/>
+      <c r="F27" s="189"/>
+      <c r="G27" s="189"/>
+      <c r="H27" s="189"/>
+      <c r="I27" s="189"/>
+      <c r="J27" s="190"/>
     </row>
     <row r="28" spans="1:10" s="56" customFormat="1" ht="33" customHeight="1">
       <c r="A28" s="59">
@@ -13586,16 +13866,16 @@
       <c r="B28" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="182" t="s">
-        <v>299</v>
-      </c>
-      <c r="D28" s="183"/>
-      <c r="E28" s="183"/>
-      <c r="F28" s="183"/>
-      <c r="G28" s="183"/>
-      <c r="H28" s="183"/>
-      <c r="I28" s="183"/>
-      <c r="J28" s="184"/>
+      <c r="C28" s="191" t="s">
+        <v>213</v>
+      </c>
+      <c r="D28" s="192"/>
+      <c r="E28" s="192"/>
+      <c r="F28" s="192"/>
+      <c r="G28" s="192"/>
+      <c r="H28" s="192"/>
+      <c r="I28" s="192"/>
+      <c r="J28" s="193"/>
     </row>
     <row r="29" spans="1:10" s="56" customFormat="1" ht="32.25" customHeight="1">
       <c r="A29" s="59">
@@ -13604,16 +13884,16 @@
       <c r="B29" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="182" t="s">
-        <v>300</v>
-      </c>
-      <c r="D29" s="183"/>
-      <c r="E29" s="183"/>
-      <c r="F29" s="183"/>
-      <c r="G29" s="183"/>
-      <c r="H29" s="183"/>
-      <c r="I29" s="183"/>
-      <c r="J29" s="184"/>
+      <c r="C29" s="191" t="s">
+        <v>214</v>
+      </c>
+      <c r="D29" s="192"/>
+      <c r="E29" s="192"/>
+      <c r="F29" s="192"/>
+      <c r="G29" s="192"/>
+      <c r="H29" s="192"/>
+      <c r="I29" s="192"/>
+      <c r="J29" s="193"/>
     </row>
     <row r="30" spans="1:10" s="56" customFormat="1">
       <c r="A30" s="59">
@@ -13622,16 +13902,16 @@
       <c r="B30" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="187" t="s">
+      <c r="C30" s="196" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="183"/>
-      <c r="E30" s="183"/>
-      <c r="F30" s="183"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183"/>
-      <c r="I30" s="183"/>
-      <c r="J30" s="184"/>
+      <c r="D30" s="192"/>
+      <c r="E30" s="192"/>
+      <c r="F30" s="192"/>
+      <c r="G30" s="192"/>
+      <c r="H30" s="192"/>
+      <c r="I30" s="192"/>
+      <c r="J30" s="193"/>
     </row>
     <row r="31" spans="1:10" s="56" customFormat="1">
       <c r="A31" s="59">
@@ -13640,16 +13920,16 @@
       <c r="B31" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="187" t="s">
+      <c r="C31" s="196" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="183"/>
-      <c r="E31" s="183"/>
-      <c r="F31" s="183"/>
-      <c r="G31" s="183"/>
-      <c r="H31" s="183"/>
-      <c r="I31" s="183"/>
-      <c r="J31" s="184"/>
+      <c r="D31" s="192"/>
+      <c r="E31" s="192"/>
+      <c r="F31" s="192"/>
+      <c r="G31" s="192"/>
+      <c r="H31" s="192"/>
+      <c r="I31" s="192"/>
+      <c r="J31" s="193"/>
     </row>
     <row r="32" spans="1:10" s="56" customFormat="1">
       <c r="A32" s="59">
@@ -13658,358 +13938,358 @@
       <c r="B32" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="187" t="s">
+      <c r="C32" s="196" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="183"/>
-      <c r="E32" s="183"/>
-      <c r="F32" s="183"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="183"/>
-      <c r="I32" s="183"/>
-      <c r="J32" s="184"/>
+      <c r="D32" s="192"/>
+      <c r="E32" s="192"/>
+      <c r="F32" s="192"/>
+      <c r="G32" s="192"/>
+      <c r="H32" s="192"/>
+      <c r="I32" s="192"/>
+      <c r="J32" s="193"/>
     </row>
     <row r="33" spans="1:12" s="56" customFormat="1">
-      <c r="A33" s="160"/>
-      <c r="B33" s="210"/>
-      <c r="C33" s="210"/>
-      <c r="D33" s="210"/>
-      <c r="E33" s="210"/>
-      <c r="F33" s="210"/>
-      <c r="G33" s="210"/>
-      <c r="H33" s="210"/>
-      <c r="I33" s="210"/>
-      <c r="J33" s="211"/>
+      <c r="A33" s="169"/>
+      <c r="B33" s="227"/>
+      <c r="C33" s="227"/>
+      <c r="D33" s="227"/>
+      <c r="E33" s="227"/>
+      <c r="F33" s="227"/>
+      <c r="G33" s="227"/>
+      <c r="H33" s="227"/>
+      <c r="I33" s="227"/>
+      <c r="J33" s="228"/>
     </row>
     <row r="34" spans="1:12" s="56" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A34" s="176" t="s">
-        <v>244</v>
-      </c>
-      <c r="B34" s="177"/>
-      <c r="C34" s="177"/>
-      <c r="D34" s="177"/>
-      <c r="E34" s="177"/>
-      <c r="F34" s="177"/>
-      <c r="G34" s="177"/>
-      <c r="H34" s="177"/>
-      <c r="I34" s="177"/>
-      <c r="J34" s="178"/>
+      <c r="A34" s="185" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" s="186"/>
+      <c r="C34" s="186"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="186"/>
+      <c r="F34" s="186"/>
+      <c r="G34" s="186"/>
+      <c r="H34" s="186"/>
+      <c r="I34" s="186"/>
+      <c r="J34" s="187"/>
     </row>
     <row r="35" spans="1:12" s="56" customFormat="1" ht="27" customHeight="1">
-      <c r="A35" s="227" t="s">
-        <v>245</v>
-      </c>
-      <c r="B35" s="107"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="228"/>
+      <c r="A35" s="248" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="249"/>
     </row>
     <row r="36" spans="1:12" s="77" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="172" t="s">
-        <v>177</v>
-      </c>
-      <c r="B36" s="173"/>
-      <c r="C36" s="173"/>
-      <c r="D36" s="173"/>
-      <c r="E36" s="173"/>
-      <c r="F36" s="173"/>
-      <c r="G36" s="173"/>
-      <c r="H36" s="173"/>
-      <c r="I36" s="173"/>
-      <c r="J36" s="174"/>
+      <c r="A36" s="181" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="182"/>
+      <c r="C36" s="182"/>
+      <c r="D36" s="182"/>
+      <c r="E36" s="182"/>
+      <c r="F36" s="182"/>
+      <c r="G36" s="182"/>
+      <c r="H36" s="182"/>
+      <c r="I36" s="182"/>
+      <c r="J36" s="183"/>
       <c r="K36" s="56"/>
       <c r="L36" s="56"/>
     </row>
     <row r="37" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="B37" s="60" t="s">
+      <c r="C37" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="D37" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="D37" s="62" t="s">
+      <c r="E37" s="231" t="s">
         <v>181</v>
       </c>
-      <c r="E37" s="214" t="s">
-        <v>182</v>
-      </c>
-      <c r="F37" s="215"/>
-      <c r="G37" s="215"/>
-      <c r="H37" s="215"/>
-      <c r="I37" s="215"/>
-      <c r="J37" s="216"/>
-    </row>
-    <row r="38" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="136">
+      <c r="F37" s="232"/>
+      <c r="G37" s="232"/>
+      <c r="H37" s="232"/>
+      <c r="I37" s="232"/>
+      <c r="J37" s="233"/>
+    </row>
+    <row r="38" spans="1:12" s="58" customFormat="1" ht="33">
+      <c r="A38" s="145">
         <v>1</v>
       </c>
-      <c r="B38" s="136" t="s">
-        <v>246</v>
-      </c>
-      <c r="C38" s="93" t="s">
-        <v>184</v>
-      </c>
-      <c r="D38" s="92"/>
-      <c r="E38" s="175" t="s">
-        <v>247</v>
-      </c>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="107"/>
+      <c r="B38" s="145" t="s">
+        <v>289</v>
+      </c>
+      <c r="C38" s="83" t="s">
+        <v>290</v>
+      </c>
+      <c r="D38" s="98"/>
+      <c r="E38" s="184" t="s">
+        <v>291</v>
+      </c>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
       <c r="K38" s="56"/>
       <c r="L38" s="56"/>
     </row>
-    <row r="39" spans="1:12" s="56" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A39" s="137"/>
-      <c r="B39" s="137"/>
-      <c r="C39" s="85" t="s">
-        <v>248</v>
-      </c>
-      <c r="D39" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="E39" s="144" t="s">
-        <v>250</v>
-      </c>
-      <c r="F39" s="145"/>
-      <c r="G39" s="145"/>
-      <c r="H39" s="145"/>
-      <c r="I39" s="145"/>
-      <c r="J39" s="146"/>
-    </row>
-    <row r="40" spans="1:12" s="56" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A40" s="137"/>
-      <c r="B40" s="137"/>
-      <c r="C40" s="85" t="s">
-        <v>251</v>
-      </c>
-      <c r="D40" s="93" t="s">
-        <v>252</v>
-      </c>
-      <c r="E40" s="144" t="s">
-        <v>253</v>
-      </c>
-      <c r="F40" s="145"/>
-      <c r="G40" s="145"/>
-      <c r="H40" s="145"/>
-      <c r="I40" s="145"/>
-      <c r="J40" s="146"/>
-    </row>
-    <row r="41" spans="1:12" s="56" customFormat="1" ht="33">
-      <c r="A41" s="137"/>
-      <c r="B41" s="137"/>
-      <c r="C41" s="85" t="s">
-        <v>254</v>
-      </c>
-      <c r="D41" s="93" t="s">
-        <v>252</v>
-      </c>
-      <c r="E41" s="144" t="s">
-        <v>255</v>
-      </c>
-      <c r="F41" s="145"/>
-      <c r="G41" s="145"/>
-      <c r="H41" s="145"/>
-      <c r="I41" s="145"/>
-      <c r="J41" s="146"/>
-    </row>
-    <row r="42" spans="1:12" s="56" customFormat="1" ht="33">
-      <c r="A42" s="137"/>
-      <c r="B42" s="137"/>
-      <c r="C42" s="85" t="s">
-        <v>256</v>
+    <row r="39" spans="1:12" s="56" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A39" s="146"/>
+      <c r="B39" s="146"/>
+      <c r="C39" s="97" t="s">
+        <v>292</v>
+      </c>
+      <c r="D39" s="83" t="s">
+        <v>293</v>
+      </c>
+      <c r="E39" s="153" t="s">
+        <v>294</v>
+      </c>
+      <c r="F39" s="154"/>
+      <c r="G39" s="154"/>
+      <c r="H39" s="154"/>
+      <c r="I39" s="154"/>
+      <c r="J39" s="155"/>
+    </row>
+    <row r="40" spans="1:12" s="56" customFormat="1" ht="33">
+      <c r="A40" s="146"/>
+      <c r="B40" s="146"/>
+      <c r="C40" s="97" t="s">
+        <v>295</v>
+      </c>
+      <c r="D40" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" s="153" t="s">
+        <v>296</v>
+      </c>
+      <c r="F40" s="154"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="154"/>
+      <c r="I40" s="154"/>
+      <c r="J40" s="155"/>
+    </row>
+    <row r="41" spans="1:12" s="56" customFormat="1" ht="49.5">
+      <c r="A41" s="146"/>
+      <c r="B41" s="146"/>
+      <c r="C41" s="97" t="s">
+        <v>297</v>
+      </c>
+      <c r="D41" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="E41" s="153" t="s">
+        <v>298</v>
+      </c>
+      <c r="F41" s="154"/>
+      <c r="G41" s="154"/>
+      <c r="H41" s="154"/>
+      <c r="I41" s="154"/>
+      <c r="J41" s="155"/>
+    </row>
+    <row r="42" spans="1:12" s="56" customFormat="1" ht="49.5">
+      <c r="A42" s="146"/>
+      <c r="B42" s="146"/>
+      <c r="C42" s="97" t="s">
+        <v>299</v>
       </c>
       <c r="D42" s="69"/>
-      <c r="E42" s="144" t="s">
-        <v>257</v>
-      </c>
-      <c r="F42" s="145"/>
-      <c r="G42" s="145"/>
-      <c r="H42" s="145"/>
-      <c r="I42" s="145"/>
-      <c r="J42" s="146"/>
-    </row>
-    <row r="43" spans="1:12" s="58" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A43" s="138"/>
-      <c r="B43" s="138"/>
-      <c r="C43" s="85" t="s">
-        <v>258</v>
-      </c>
-      <c r="D43" s="85" t="s">
-        <v>231</v>
-      </c>
-      <c r="E43" s="147" t="s">
-        <v>259</v>
-      </c>
-      <c r="F43" s="148"/>
-      <c r="G43" s="148"/>
-      <c r="H43" s="148"/>
-      <c r="I43" s="148"/>
-      <c r="J43" s="148"/>
+      <c r="E42" s="153" t="s">
+        <v>300</v>
+      </c>
+      <c r="F42" s="154"/>
+      <c r="G42" s="154"/>
+      <c r="H42" s="154"/>
+      <c r="I42" s="154"/>
+      <c r="J42" s="155"/>
+    </row>
+    <row r="43" spans="1:12" s="58" customFormat="1" ht="48.75" customHeight="1">
+      <c r="A43" s="147"/>
+      <c r="B43" s="147"/>
+      <c r="C43" s="97" t="s">
+        <v>301</v>
+      </c>
+      <c r="D43" s="97" t="s">
+        <v>193</v>
+      </c>
+      <c r="E43" s="156" t="s">
+        <v>302</v>
+      </c>
+      <c r="F43" s="157"/>
+      <c r="G43" s="157"/>
+      <c r="H43" s="157"/>
+      <c r="I43" s="157"/>
+      <c r="J43" s="157"/>
     </row>
     <row r="44" spans="1:12" s="58" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A44" s="149" t="s">
-        <v>260</v>
-      </c>
-      <c r="B44" s="150"/>
-      <c r="C44" s="150"/>
-      <c r="D44" s="150"/>
-      <c r="E44" s="150"/>
-      <c r="F44" s="150"/>
-      <c r="G44" s="150"/>
-      <c r="H44" s="150"/>
-      <c r="I44" s="150"/>
-      <c r="J44" s="151"/>
+      <c r="A44" s="158" t="s">
+        <v>199</v>
+      </c>
+      <c r="B44" s="159"/>
+      <c r="C44" s="159"/>
+      <c r="D44" s="159"/>
+      <c r="E44" s="159"/>
+      <c r="F44" s="159"/>
+      <c r="G44" s="159"/>
+      <c r="H44" s="159"/>
+      <c r="I44" s="159"/>
+      <c r="J44" s="160"/>
     </row>
     <row r="45" spans="1:12" s="58" customFormat="1">
-      <c r="A45" s="59">
+      <c r="A45" s="105">
         <v>1</v>
       </c>
-      <c r="B45" s="88" t="s">
-        <v>261</v>
-      </c>
-      <c r="C45" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="D45" s="85"/>
-      <c r="E45" s="175" t="s">
-        <v>279</v>
-      </c>
-      <c r="F45" s="107"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="107"/>
-      <c r="I45" s="107"/>
-      <c r="J45" s="107"/>
-    </row>
-    <row r="46" spans="1:12" s="58" customFormat="1">
+      <c r="B45" s="106" t="s">
+        <v>303</v>
+      </c>
+      <c r="C45" s="107" t="s">
+        <v>304</v>
+      </c>
+      <c r="D45" s="108"/>
+      <c r="E45" s="244" t="s">
+        <v>305</v>
+      </c>
+      <c r="F45" s="244"/>
+      <c r="G45" s="244"/>
+      <c r="H45" s="244"/>
+      <c r="I45" s="244"/>
+      <c r="J45" s="244"/>
+    </row>
+    <row r="46" spans="1:12" s="58" customFormat="1" ht="33">
       <c r="A46" s="67">
         <v>2</v>
       </c>
       <c r="B46" s="68" t="s">
-        <v>263</v>
-      </c>
-      <c r="C46" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="D46" s="83"/>
-      <c r="E46" s="155" t="s">
-        <v>264</v>
-      </c>
-      <c r="F46" s="156"/>
-      <c r="G46" s="156"/>
-      <c r="H46" s="156"/>
-      <c r="I46" s="156"/>
-      <c r="J46" s="157"/>
-    </row>
-    <row r="47" spans="1:12" s="58" customFormat="1" ht="150.75" customHeight="1">
+        <v>306</v>
+      </c>
+      <c r="C46" s="84" t="s">
+        <v>307</v>
+      </c>
+      <c r="D46" s="99"/>
+      <c r="E46" s="211" t="s">
+        <v>308</v>
+      </c>
+      <c r="F46" s="212"/>
+      <c r="G46" s="212"/>
+      <c r="H46" s="212"/>
+      <c r="I46" s="212"/>
+      <c r="J46" s="213"/>
+    </row>
+    <row r="47" spans="1:12" s="58" customFormat="1" ht="33">
       <c r="A47" s="67"/>
       <c r="B47" s="68"/>
-      <c r="C47" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="D47" s="90" t="s">
-        <v>269</v>
-      </c>
-      <c r="E47" s="155" t="s">
-        <v>283</v>
-      </c>
-      <c r="F47" s="156"/>
-      <c r="G47" s="156"/>
-      <c r="H47" s="156"/>
-      <c r="I47" s="156"/>
-      <c r="J47" s="157"/>
+      <c r="C47" s="84" t="s">
+        <v>309</v>
+      </c>
+      <c r="D47" s="97" t="s">
+        <v>310</v>
+      </c>
+      <c r="E47" s="211" t="s">
+        <v>311</v>
+      </c>
+      <c r="F47" s="212"/>
+      <c r="G47" s="212"/>
+      <c r="H47" s="212"/>
+      <c r="I47" s="212"/>
+      <c r="J47" s="213"/>
     </row>
     <row r="48" spans="1:12" s="58" customFormat="1" ht="33">
       <c r="A48" s="67"/>
       <c r="B48" s="68"/>
-      <c r="C48" s="94" t="s">
-        <v>265</v>
-      </c>
-      <c r="D48" s="90" t="s">
-        <v>270</v>
-      </c>
-      <c r="E48" s="127" t="s">
-        <v>266</v>
-      </c>
-      <c r="F48" s="219"/>
-      <c r="G48" s="219"/>
-      <c r="H48" s="219"/>
-      <c r="I48" s="219"/>
-      <c r="J48" s="220"/>
+      <c r="C48" s="84" t="s">
+        <v>312</v>
+      </c>
+      <c r="D48" s="97" t="s">
+        <v>313</v>
+      </c>
+      <c r="E48" s="136" t="s">
+        <v>314</v>
+      </c>
+      <c r="F48" s="236"/>
+      <c r="G48" s="236"/>
+      <c r="H48" s="236"/>
+      <c r="I48" s="236"/>
+      <c r="J48" s="237"/>
     </row>
     <row r="49" spans="1:10" s="58" customFormat="1" ht="84" customHeight="1">
       <c r="A49" s="67"/>
       <c r="B49" s="68"/>
-      <c r="C49" s="94" t="s">
-        <v>267</v>
-      </c>
-      <c r="D49" s="90" t="s">
-        <v>271</v>
-      </c>
-      <c r="E49" s="127" t="s">
-        <v>268</v>
-      </c>
-      <c r="F49" s="219"/>
-      <c r="G49" s="219"/>
-      <c r="H49" s="219"/>
-      <c r="I49" s="219"/>
-      <c r="J49" s="220"/>
+      <c r="C49" s="84" t="s">
+        <v>315</v>
+      </c>
+      <c r="D49" s="97" t="s">
+        <v>316</v>
+      </c>
+      <c r="E49" s="136" t="s">
+        <v>317</v>
+      </c>
+      <c r="F49" s="236"/>
+      <c r="G49" s="236"/>
+      <c r="H49" s="236"/>
+      <c r="I49" s="236"/>
+      <c r="J49" s="237"/>
     </row>
     <row r="50" spans="1:10" s="58" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A50" s="69">
+      <c r="A50" s="109">
         <v>3</v>
       </c>
-      <c r="B50" s="88" t="s">
-        <v>277</v>
-      </c>
-      <c r="C50" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="D50" s="84"/>
-      <c r="E50" s="127" t="s">
-        <v>280</v>
-      </c>
-      <c r="F50" s="111"/>
-      <c r="G50" s="111"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="111"/>
-      <c r="J50" s="112"/>
+      <c r="B50" s="106" t="s">
+        <v>318</v>
+      </c>
+      <c r="C50" s="107" t="s">
+        <v>319</v>
+      </c>
+      <c r="D50" s="110"/>
+      <c r="E50" s="245" t="s">
+        <v>320</v>
+      </c>
+      <c r="F50" s="246"/>
+      <c r="G50" s="246"/>
+      <c r="H50" s="246"/>
+      <c r="I50" s="246"/>
+      <c r="J50" s="247"/>
     </row>
     <row r="51" spans="1:10" s="58" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A51" s="127"/>
-      <c r="B51" s="128"/>
-      <c r="C51" s="128"/>
-      <c r="D51" s="128"/>
-      <c r="E51" s="128"/>
-      <c r="F51" s="128"/>
-      <c r="G51" s="128"/>
-      <c r="H51" s="128"/>
-      <c r="I51" s="128"/>
-      <c r="J51" s="129"/>
+      <c r="A51" s="136"/>
+      <c r="B51" s="137"/>
+      <c r="C51" s="137"/>
+      <c r="D51" s="137"/>
+      <c r="E51" s="137"/>
+      <c r="F51" s="137"/>
+      <c r="G51" s="137"/>
+      <c r="H51" s="137"/>
+      <c r="I51" s="137"/>
+      <c r="J51" s="138"/>
     </row>
     <row r="52" spans="1:10" s="56" customFormat="1">
-      <c r="A52" s="204" t="s">
+      <c r="A52" s="219" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="205"/>
-      <c r="C52" s="205"/>
-      <c r="D52" s="205"/>
-      <c r="E52" s="205"/>
-      <c r="F52" s="205"/>
-      <c r="G52" s="205"/>
-      <c r="H52" s="205"/>
-      <c r="I52" s="205"/>
-      <c r="J52" s="206"/>
+      <c r="B52" s="220"/>
+      <c r="C52" s="220"/>
+      <c r="D52" s="220"/>
+      <c r="E52" s="220"/>
+      <c r="F52" s="220"/>
+      <c r="G52" s="220"/>
+      <c r="H52" s="220"/>
+      <c r="I52" s="220"/>
+      <c r="J52" s="221"/>
     </row>
     <row r="53" spans="1:10" s="56" customFormat="1">
       <c r="A53" s="59">
@@ -14022,158 +14302,158 @@
         <v>93</v>
       </c>
       <c r="D53" s="66"/>
-      <c r="E53" s="175" t="s">
-        <v>174</v>
-      </c>
-      <c r="F53" s="107"/>
-      <c r="G53" s="107"/>
-      <c r="H53" s="107"/>
-      <c r="I53" s="107"/>
-      <c r="J53" s="107"/>
+      <c r="E53" s="184" t="s">
+        <v>173</v>
+      </c>
+      <c r="F53" s="116"/>
+      <c r="G53" s="116"/>
+      <c r="H53" s="116"/>
+      <c r="I53" s="116"/>
+      <c r="J53" s="116"/>
     </row>
     <row r="54" spans="1:10" s="56" customFormat="1">
       <c r="A54" s="59">
         <v>2</v>
       </c>
       <c r="B54" s="64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C54" s="65" t="s">
         <v>93</v>
       </c>
       <c r="D54" s="66"/>
-      <c r="E54" s="175" t="s">
-        <v>175</v>
-      </c>
-      <c r="F54" s="107"/>
-      <c r="G54" s="107"/>
-      <c r="H54" s="107"/>
-      <c r="I54" s="107"/>
-      <c r="J54" s="107"/>
+      <c r="E54" s="184" t="s">
+        <v>174</v>
+      </c>
+      <c r="F54" s="116"/>
+      <c r="G54" s="116"/>
+      <c r="H54" s="116"/>
+      <c r="I54" s="116"/>
+      <c r="J54" s="116"/>
     </row>
     <row r="55" spans="1:10" s="56" customFormat="1">
       <c r="A55" s="59">
         <v>3</v>
       </c>
       <c r="B55" s="64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C55" s="65" t="s">
         <v>93</v>
       </c>
       <c r="D55" s="66"/>
-      <c r="E55" s="175" t="s">
-        <v>176</v>
-      </c>
-      <c r="F55" s="107"/>
-      <c r="G55" s="107"/>
-      <c r="H55" s="107"/>
-      <c r="I55" s="107"/>
-      <c r="J55" s="107"/>
+      <c r="E55" s="184" t="s">
+        <v>175</v>
+      </c>
+      <c r="F55" s="116"/>
+      <c r="G55" s="116"/>
+      <c r="H55" s="116"/>
+      <c r="I55" s="116"/>
+      <c r="J55" s="116"/>
     </row>
     <row r="56" spans="1:10" s="56" customFormat="1">
-      <c r="A56" s="130"/>
-      <c r="B56" s="135"/>
-      <c r="C56" s="135"/>
-      <c r="D56" s="135"/>
-      <c r="E56" s="135"/>
-      <c r="F56" s="135"/>
-      <c r="G56" s="135"/>
-      <c r="H56" s="135"/>
-      <c r="I56" s="135"/>
-      <c r="J56" s="131"/>
+      <c r="A56" s="139"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="144"/>
+      <c r="E56" s="144"/>
+      <c r="F56" s="144"/>
+      <c r="G56" s="144"/>
+      <c r="H56" s="144"/>
+      <c r="I56" s="144"/>
+      <c r="J56" s="140"/>
     </row>
     <row r="57" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A57" s="141" t="s">
+      <c r="A57" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="142"/>
-      <c r="C57" s="142"/>
-      <c r="D57" s="142"/>
-      <c r="E57" s="142"/>
-      <c r="F57" s="142"/>
-      <c r="G57" s="142"/>
-      <c r="H57" s="142"/>
-      <c r="I57" s="142"/>
-      <c r="J57" s="143"/>
+      <c r="B57" s="151"/>
+      <c r="C57" s="151"/>
+      <c r="D57" s="151"/>
+      <c r="E57" s="151"/>
+      <c r="F57" s="151"/>
+      <c r="G57" s="151"/>
+      <c r="H57" s="151"/>
+      <c r="I57" s="151"/>
+      <c r="J57" s="152"/>
     </row>
     <row r="58" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A58" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="139" t="s">
+      <c r="B58" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="140"/>
-      <c r="D58" s="127" t="s">
+      <c r="C58" s="149"/>
+      <c r="D58" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="111"/>
-      <c r="F58" s="111"/>
-      <c r="G58" s="111"/>
-      <c r="H58" s="111"/>
-      <c r="I58" s="111"/>
-      <c r="J58" s="112"/>
+      <c r="E58" s="120"/>
+      <c r="F58" s="120"/>
+      <c r="G58" s="120"/>
+      <c r="H58" s="120"/>
+      <c r="I58" s="120"/>
+      <c r="J58" s="121"/>
     </row>
     <row r="59" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="132"/>
-      <c r="B59" s="212"/>
-      <c r="C59" s="212"/>
-      <c r="D59" s="212"/>
-      <c r="E59" s="212"/>
-      <c r="F59" s="212"/>
-      <c r="G59" s="212"/>
-      <c r="H59" s="212"/>
-      <c r="I59" s="212"/>
-      <c r="J59" s="213"/>
+      <c r="A59" s="141"/>
+      <c r="B59" s="229"/>
+      <c r="C59" s="229"/>
+      <c r="D59" s="229"/>
+      <c r="E59" s="229"/>
+      <c r="F59" s="229"/>
+      <c r="G59" s="229"/>
+      <c r="H59" s="229"/>
+      <c r="I59" s="229"/>
+      <c r="J59" s="230"/>
     </row>
     <row r="60" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="69"/>
-      <c r="B60" s="130"/>
-      <c r="C60" s="131"/>
-      <c r="D60" s="127"/>
-      <c r="E60" s="111"/>
-      <c r="F60" s="111"/>
-      <c r="G60" s="111"/>
-      <c r="H60" s="111"/>
-      <c r="I60" s="111"/>
-      <c r="J60" s="112"/>
+      <c r="B60" s="139"/>
+      <c r="C60" s="140"/>
+      <c r="D60" s="136"/>
+      <c r="E60" s="120"/>
+      <c r="F60" s="120"/>
+      <c r="G60" s="120"/>
+      <c r="H60" s="120"/>
+      <c r="I60" s="120"/>
+      <c r="J60" s="121"/>
     </row>
     <row r="61" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="69"/>
-      <c r="B61" s="130"/>
-      <c r="C61" s="131"/>
-      <c r="D61" s="127"/>
-      <c r="E61" s="111"/>
-      <c r="F61" s="111"/>
-      <c r="G61" s="111"/>
-      <c r="H61" s="111"/>
-      <c r="I61" s="111"/>
-      <c r="J61" s="112"/>
+      <c r="B61" s="139"/>
+      <c r="C61" s="140"/>
+      <c r="D61" s="136"/>
+      <c r="E61" s="120"/>
+      <c r="F61" s="120"/>
+      <c r="G61" s="120"/>
+      <c r="H61" s="120"/>
+      <c r="I61" s="120"/>
+      <c r="J61" s="121"/>
     </row>
     <row r="62" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A62" s="132"/>
-      <c r="B62" s="212"/>
-      <c r="C62" s="212"/>
-      <c r="D62" s="212"/>
-      <c r="E62" s="212"/>
-      <c r="F62" s="212"/>
-      <c r="G62" s="212"/>
-      <c r="H62" s="212"/>
-      <c r="I62" s="212"/>
-      <c r="J62" s="213"/>
+      <c r="A62" s="141"/>
+      <c r="B62" s="229"/>
+      <c r="C62" s="229"/>
+      <c r="D62" s="229"/>
+      <c r="E62" s="229"/>
+      <c r="F62" s="229"/>
+      <c r="G62" s="229"/>
+      <c r="H62" s="229"/>
+      <c r="I62" s="229"/>
+      <c r="J62" s="230"/>
     </row>
     <row r="63" spans="1:10" s="56" customFormat="1" ht="17.25" customHeight="1">
       <c r="A63" s="69"/>
-      <c r="B63" s="130"/>
-      <c r="C63" s="131"/>
-      <c r="D63" s="127"/>
-      <c r="E63" s="111"/>
-      <c r="F63" s="111"/>
-      <c r="G63" s="111"/>
-      <c r="H63" s="111"/>
-      <c r="I63" s="111"/>
-      <c r="J63" s="112"/>
+      <c r="B63" s="139"/>
+      <c r="C63" s="140"/>
+      <c r="D63" s="136"/>
+      <c r="E63" s="120"/>
+      <c r="F63" s="120"/>
+      <c r="G63" s="120"/>
+      <c r="H63" s="120"/>
+      <c r="I63" s="120"/>
+      <c r="J63" s="121"/>
     </row>
     <row r="64" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="72" t="s">
@@ -14196,14 +14476,14 @@
       <c r="B65" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="130"/>
-      <c r="D65" s="111"/>
-      <c r="E65" s="111"/>
-      <c r="F65" s="111"/>
-      <c r="G65" s="111"/>
-      <c r="H65" s="111"/>
-      <c r="I65" s="111"/>
-      <c r="J65" s="112"/>
+      <c r="C65" s="139"/>
+      <c r="D65" s="120"/>
+      <c r="E65" s="120"/>
+      <c r="F65" s="120"/>
+      <c r="G65" s="120"/>
+      <c r="H65" s="120"/>
+      <c r="I65" s="120"/>
+      <c r="J65" s="121"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="69">
@@ -14212,14 +14492,14 @@
       <c r="B66" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="147"/>
-      <c r="D66" s="147"/>
-      <c r="E66" s="147"/>
-      <c r="F66" s="147"/>
-      <c r="G66" s="147"/>
-      <c r="H66" s="147"/>
-      <c r="I66" s="147"/>
-      <c r="J66" s="147"/>
+      <c r="C66" s="156"/>
+      <c r="D66" s="156"/>
+      <c r="E66" s="156"/>
+      <c r="F66" s="156"/>
+      <c r="G66" s="156"/>
+      <c r="H66" s="156"/>
+      <c r="I66" s="156"/>
+      <c r="J66" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="65">

--- a/APF/RA006/RA006_APF0101_角色維護.xlsx
+++ b/APF/RA006/RA006_APF0101_角色維護.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15360" windowHeight="7665" tabRatio="797"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15360" windowHeight="7665" tabRatio="797" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -1105,10 +1105,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>V</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>V = invisible，不顯示</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1731,6 +1727,10 @@
   <si>
     <t>輸入之角色代號不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 49。</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2587,32 +2587,65 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2623,53 +2656,224 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2680,18 +2884,6 @@
     <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2716,9 +2908,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2730,267 +2919,78 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -8868,7 +8868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -9085,7 +9085,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="167" t="s">
+      <c r="K1" s="189" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="39"/>
@@ -9112,7 +9112,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="168"/>
+      <c r="K2" s="190"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -9130,7 +9130,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="168"/>
+      <c r="K3" s="190"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -9720,15 +9720,15 @@
       <c r="A1" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="125" t="s">
+      <c r="M1" s="113" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="126"/>
+      <c r="M2" s="114"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="126"/>
+      <c r="M3" s="114"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -9745,45 +9745,45 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="135"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="132"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="133" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="124"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="134"/>
+      <c r="L6" s="135"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="113" t="s">
+      <c r="A7" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="117" t="s">
         <v>27</v>
       </c>
@@ -9795,31 +9795,31 @@
       <c r="L7" s="119"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="129" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="120" t="s">
+      <c r="B8" s="130"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="122"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="127" t="s">
+      <c r="A9" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="128"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
       <c r="F9" s="117" t="s">
         <v>29</v>
       </c>
@@ -9831,32 +9831,32 @@
       <c r="L9" s="119"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="116"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="120" t="s">
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="121" t="s">
         <v>163</v>
       </c>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="122"/>
     </row>
     <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="113" t="s">
+      <c r="A11" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="133" t="s">
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="128" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="118"/>
@@ -9867,30 +9867,30 @@
       <c r="L11" s="119"/>
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="121"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="122"/>
     </row>
     <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="113" t="s">
+      <c r="A13" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="133" t="s">
+      <c r="B13" s="127"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="128" t="s">
         <v>33</v>
       </c>
       <c r="G13" s="118"/>
@@ -9901,55 +9901,60 @@
       <c r="L13" s="119"/>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="115" t="s">
+      <c r="A14" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="121"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="122"/>
     </row>
     <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="120" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="121"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="122"/>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="130" t="s">
+      <c r="A86" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="B86" s="131"/>
-      <c r="C86" s="131"/>
-      <c r="D86" s="131"/>
-      <c r="E86" s="131"/>
-      <c r="F86" s="131"/>
-      <c r="G86" s="131"/>
-      <c r="H86" s="131"/>
-      <c r="I86" s="131"/>
-      <c r="J86" s="131"/>
-      <c r="K86" s="131"/>
-      <c r="L86" s="132"/>
+      <c r="B86" s="124"/>
+      <c r="C86" s="124"/>
+      <c r="D86" s="124"/>
+      <c r="E86" s="124"/>
+      <c r="F86" s="124"/>
+      <c r="G86" s="124"/>
+      <c r="H86" s="124"/>
+      <c r="I86" s="124"/>
+      <c r="J86" s="124"/>
+      <c r="K86" s="124"/>
+      <c r="L86" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -9966,11 +9971,6 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -10048,15 +10048,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="125" t="s">
+      <c r="P1" s="113" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="126"/>
+      <c r="P2" s="114"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="126"/>
+      <c r="P3" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10137,7 +10137,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="167" t="s">
+      <c r="K1" s="189" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="54"/>
@@ -10158,7 +10158,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="168"/>
+      <c r="K2" s="190"/>
     </row>
     <row r="3" spans="1:17" s="55" customFormat="1">
       <c r="A3" s="47"/>
@@ -10171,7 +10171,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="168"/>
+      <c r="K3" s="190"/>
     </row>
     <row r="4" spans="1:17" s="55" customFormat="1">
       <c r="A4" s="47"/>
@@ -10186,7 +10186,7 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="172" t="s">
+      <c r="A5" s="194" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="118"/>
@@ -10200,57 +10200,57 @@
       <c r="J5" s="119"/>
     </row>
     <row r="6" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="122"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="124"/>
+      <c r="A6" s="133"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="135"/>
     </row>
     <row r="7" spans="1:17" s="56" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="173"/>
-      <c r="B7" s="174"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="176"/>
+      <c r="A7" s="195"/>
+      <c r="B7" s="196"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="198"/>
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:17" s="56" customFormat="1">
-      <c r="A8" s="173"/>
-      <c r="B8" s="174"/>
-      <c r="C8" s="174"/>
-      <c r="D8" s="174"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="176"/>
+      <c r="A8" s="195"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="196"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="198"/>
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:17" s="56" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="177"/>
-      <c r="B9" s="178"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="179"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="200"/>
+      <c r="E9" s="200"/>
+      <c r="F9" s="200"/>
+      <c r="G9" s="200"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="200"/>
+      <c r="J9" s="201"/>
     </row>
     <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="194" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="118"/>
@@ -10264,21 +10264,21 @@
       <c r="J10" s="119"/>
     </row>
     <row r="11" spans="1:17" s="58" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="180" t="s">
+      <c r="A11" s="202" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="121"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="122"/>
     </row>
     <row r="12" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="172" t="s">
+      <c r="A12" s="194" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="118"/>
@@ -10292,21 +10292,21 @@
       <c r="J12" s="119"/>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="180" t="s">
+      <c r="A13" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="121"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="122"/>
     </row>
     <row r="14" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="172" t="s">
+      <c r="A14" s="194" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="118"/>
@@ -10320,18 +10320,18 @@
       <c r="J14" s="119"/>
     </row>
     <row r="15" spans="1:17" s="56" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="185" t="s">
+      <c r="A15" s="176" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="186"/>
-      <c r="C15" s="186"/>
-      <c r="D15" s="186"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="187"/>
+      <c r="B15" s="185"/>
+      <c r="C15" s="185"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="186"/>
     </row>
     <row r="16" spans="1:17" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="59" t="s">
@@ -10340,16 +10340,16 @@
       <c r="B16" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="188" t="s">
+      <c r="C16" s="170" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="189"/>
-      <c r="E16" s="189"/>
-      <c r="F16" s="189"/>
-      <c r="G16" s="189"/>
-      <c r="H16" s="189"/>
-      <c r="I16" s="189"/>
-      <c r="J16" s="190"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="171"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="172"/>
     </row>
     <row r="17" spans="1:10" s="56" customFormat="1" ht="54.75" customHeight="1">
       <c r="A17" s="59">
@@ -10358,16 +10358,16 @@
       <c r="B17" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="191" t="s">
-        <v>261</v>
-      </c>
-      <c r="D17" s="192"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="193"/>
+      <c r="C17" s="187" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" s="174"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="174"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="175"/>
     </row>
     <row r="18" spans="1:10" s="56" customFormat="1" ht="59.25" customHeight="1">
       <c r="A18" s="59">
@@ -10376,16 +10376,16 @@
       <c r="B18" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="191" t="s">
-        <v>262</v>
-      </c>
-      <c r="D18" s="192"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="192"/>
-      <c r="H18" s="192"/>
-      <c r="I18" s="192"/>
-      <c r="J18" s="193"/>
+      <c r="C18" s="187" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" s="174"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="175"/>
     </row>
     <row r="19" spans="1:10" s="56" customFormat="1">
       <c r="A19" s="59">
@@ -10394,42 +10394,42 @@
       <c r="B19" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="191" t="s">
+      <c r="C19" s="187" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="192"/>
-      <c r="E19" s="192"/>
-      <c r="F19" s="192"/>
-      <c r="G19" s="192"/>
-      <c r="H19" s="192"/>
-      <c r="I19" s="192"/>
-      <c r="J19" s="193"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="175"/>
     </row>
     <row r="20" spans="1:10" s="56" customFormat="1">
-      <c r="A20" s="139"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
+      <c r="A20" s="169"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
       <c r="J20" s="140"/>
     </row>
     <row r="21" spans="1:10" s="56" customFormat="1">
-      <c r="A21" s="185" t="s">
+      <c r="A21" s="176" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="186"/>
-      <c r="C21" s="186"/>
-      <c r="D21" s="186"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="186"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="186"/>
-      <c r="J21" s="187"/>
+      <c r="B21" s="185"/>
+      <c r="C21" s="185"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="185"/>
+      <c r="F21" s="185"/>
+      <c r="G21" s="185"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="185"/>
+      <c r="J21" s="186"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="59" t="s">
@@ -10438,16 +10438,16 @@
       <c r="B22" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="188" t="s">
+      <c r="C22" s="170" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="189"/>
-      <c r="E22" s="189"/>
-      <c r="F22" s="189"/>
-      <c r="G22" s="189"/>
-      <c r="H22" s="189"/>
-      <c r="I22" s="189"/>
-      <c r="J22" s="190"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="171"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="172"/>
     </row>
     <row r="23" spans="1:10" s="56" customFormat="1">
       <c r="A23" s="59">
@@ -10456,16 +10456,16 @@
       <c r="B23" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="196" t="s">
+      <c r="C23" s="173" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="192"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="192"/>
-      <c r="H23" s="192"/>
-      <c r="I23" s="192"/>
-      <c r="J23" s="193"/>
+      <c r="D23" s="174"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="174"/>
+      <c r="G23" s="174"/>
+      <c r="H23" s="174"/>
+      <c r="I23" s="174"/>
+      <c r="J23" s="175"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1">
       <c r="A24" s="59">
@@ -10474,16 +10474,16 @@
       <c r="B24" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="196" t="s">
+      <c r="C24" s="173" t="s">
         <v>112</v>
       </c>
-      <c r="D24" s="192"/>
-      <c r="E24" s="192"/>
-      <c r="F24" s="192"/>
-      <c r="G24" s="192"/>
-      <c r="H24" s="192"/>
-      <c r="I24" s="192"/>
-      <c r="J24" s="193"/>
+      <c r="D24" s="174"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="174"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="175"/>
     </row>
     <row r="25" spans="1:10" s="56" customFormat="1">
       <c r="A25" s="59">
@@ -10492,16 +10492,16 @@
       <c r="B25" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="196" t="s">
+      <c r="C25" s="173" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="192"/>
-      <c r="G25" s="192"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="193"/>
+      <c r="D25" s="174"/>
+      <c r="E25" s="174"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="174"/>
+      <c r="J25" s="175"/>
     </row>
     <row r="26" spans="1:10" s="56" customFormat="1">
       <c r="A26" s="59">
@@ -10510,56 +10510,56 @@
       <c r="B26" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="196" t="s">
+      <c r="C26" s="173" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="192"/>
-      <c r="E26" s="192"/>
-      <c r="F26" s="192"/>
-      <c r="G26" s="192"/>
-      <c r="H26" s="192"/>
-      <c r="I26" s="192"/>
-      <c r="J26" s="193"/>
+      <c r="D26" s="174"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="174"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="174"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="175"/>
     </row>
     <row r="27" spans="1:10" s="56" customFormat="1">
-      <c r="A27" s="169"/>
-      <c r="B27" s="170"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="170"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="171"/>
+      <c r="A27" s="191"/>
+      <c r="B27" s="192"/>
+      <c r="C27" s="192"/>
+      <c r="D27" s="192"/>
+      <c r="E27" s="192"/>
+      <c r="F27" s="192"/>
+      <c r="G27" s="192"/>
+      <c r="H27" s="192"/>
+      <c r="I27" s="192"/>
+      <c r="J27" s="193"/>
     </row>
     <row r="28" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="181" t="s">
+      <c r="A28" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="182"/>
-      <c r="C28" s="182"/>
-      <c r="D28" s="182"/>
-      <c r="E28" s="182"/>
-      <c r="F28" s="182"/>
-      <c r="G28" s="182"/>
-      <c r="H28" s="182"/>
-      <c r="I28" s="182"/>
-      <c r="J28" s="183"/>
+      <c r="B28" s="203"/>
+      <c r="C28" s="203"/>
+      <c r="D28" s="203"/>
+      <c r="E28" s="203"/>
+      <c r="F28" s="203"/>
+      <c r="G28" s="203"/>
+      <c r="H28" s="203"/>
+      <c r="I28" s="203"/>
+      <c r="J28" s="204"/>
     </row>
     <row r="29" spans="1:10" s="56" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="185" t="s">
+      <c r="A29" s="176" t="s">
         <v>135</v>
       </c>
-      <c r="B29" s="186"/>
-      <c r="C29" s="186"/>
-      <c r="D29" s="186"/>
-      <c r="E29" s="186"/>
-      <c r="F29" s="186"/>
-      <c r="G29" s="186"/>
-      <c r="H29" s="186"/>
-      <c r="I29" s="186"/>
-      <c r="J29" s="187"/>
+      <c r="B29" s="185"/>
+      <c r="C29" s="185"/>
+      <c r="D29" s="185"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="186"/>
     </row>
     <row r="30" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="59" t="s">
@@ -10568,16 +10568,16 @@
       <c r="B30" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="188" t="s">
+      <c r="C30" s="170" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="189"/>
-      <c r="E30" s="189"/>
-      <c r="F30" s="189"/>
-      <c r="G30" s="189"/>
-      <c r="H30" s="189"/>
-      <c r="I30" s="189"/>
-      <c r="J30" s="190"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="171"/>
+      <c r="J30" s="172"/>
     </row>
     <row r="31" spans="1:10" s="56" customFormat="1">
       <c r="A31" s="59">
@@ -10586,16 +10586,16 @@
       <c r="B31" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="197" t="s">
-        <v>322</v>
-      </c>
-      <c r="D31" s="198"/>
-      <c r="E31" s="198"/>
-      <c r="F31" s="198"/>
-      <c r="G31" s="198"/>
-      <c r="H31" s="198"/>
-      <c r="I31" s="198"/>
-      <c r="J31" s="199"/>
+      <c r="C31" s="179" t="s">
+        <v>321</v>
+      </c>
+      <c r="D31" s="180"/>
+      <c r="E31" s="180"/>
+      <c r="F31" s="180"/>
+      <c r="G31" s="180"/>
+      <c r="H31" s="180"/>
+      <c r="I31" s="180"/>
+      <c r="J31" s="181"/>
     </row>
     <row r="32" spans="1:10" s="56" customFormat="1">
       <c r="A32" s="59">
@@ -10604,14 +10604,14 @@
       <c r="B32" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="200"/>
-      <c r="D32" s="201"/>
-      <c r="E32" s="201"/>
-      <c r="F32" s="201"/>
-      <c r="G32" s="201"/>
-      <c r="H32" s="201"/>
-      <c r="I32" s="201"/>
-      <c r="J32" s="202"/>
+      <c r="C32" s="182"/>
+      <c r="D32" s="183"/>
+      <c r="E32" s="183"/>
+      <c r="F32" s="183"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="183"/>
+      <c r="I32" s="183"/>
+      <c r="J32" s="184"/>
     </row>
     <row r="33" spans="1:12" s="56" customFormat="1">
       <c r="A33" s="59">
@@ -10620,42 +10620,42 @@
       <c r="B33" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="196" t="s">
+      <c r="C33" s="173" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="192"/>
-      <c r="E33" s="192"/>
-      <c r="F33" s="192"/>
-      <c r="G33" s="192"/>
-      <c r="H33" s="192"/>
-      <c r="I33" s="192"/>
-      <c r="J33" s="193"/>
+      <c r="D33" s="174"/>
+      <c r="E33" s="174"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="174"/>
+      <c r="I33" s="174"/>
+      <c r="J33" s="175"/>
     </row>
     <row r="34" spans="1:12" s="56" customFormat="1">
-      <c r="A34" s="139"/>
-      <c r="B34" s="144"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="144"/>
-      <c r="H34" s="144"/>
-      <c r="I34" s="144"/>
+      <c r="A34" s="169"/>
+      <c r="B34" s="139"/>
+      <c r="C34" s="139"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="139"/>
+      <c r="I34" s="139"/>
       <c r="J34" s="140"/>
     </row>
     <row r="35" spans="1:12" s="56" customFormat="1">
-      <c r="A35" s="185" t="s">
+      <c r="A35" s="176" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="194"/>
-      <c r="C35" s="194"/>
-      <c r="D35" s="194"/>
-      <c r="E35" s="194"/>
-      <c r="F35" s="194"/>
-      <c r="G35" s="194"/>
-      <c r="H35" s="194"/>
-      <c r="I35" s="194"/>
-      <c r="J35" s="195"/>
+      <c r="B35" s="177"/>
+      <c r="C35" s="177"/>
+      <c r="D35" s="177"/>
+      <c r="E35" s="177"/>
+      <c r="F35" s="177"/>
+      <c r="G35" s="177"/>
+      <c r="H35" s="177"/>
+      <c r="I35" s="177"/>
+      <c r="J35" s="178"/>
     </row>
     <row r="36" spans="1:12" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="59" t="s">
@@ -10664,16 +10664,16 @@
       <c r="B36" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="188" t="s">
+      <c r="C36" s="170" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="189"/>
-      <c r="E36" s="189"/>
-      <c r="F36" s="189"/>
-      <c r="G36" s="189"/>
-      <c r="H36" s="189"/>
-      <c r="I36" s="189"/>
-      <c r="J36" s="190"/>
+      <c r="D36" s="171"/>
+      <c r="E36" s="171"/>
+      <c r="F36" s="171"/>
+      <c r="G36" s="171"/>
+      <c r="H36" s="171"/>
+      <c r="I36" s="171"/>
+      <c r="J36" s="172"/>
     </row>
     <row r="37" spans="1:12" s="56" customFormat="1">
       <c r="A37" s="59">
@@ -10682,16 +10682,16 @@
       <c r="B37" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="196" t="s">
+      <c r="C37" s="173" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="192"/>
-      <c r="E37" s="192"/>
-      <c r="F37" s="192"/>
-      <c r="G37" s="192"/>
-      <c r="H37" s="192"/>
-      <c r="I37" s="192"/>
-      <c r="J37" s="193"/>
+      <c r="D37" s="174"/>
+      <c r="E37" s="174"/>
+      <c r="F37" s="174"/>
+      <c r="G37" s="174"/>
+      <c r="H37" s="174"/>
+      <c r="I37" s="174"/>
+      <c r="J37" s="175"/>
     </row>
     <row r="38" spans="1:12" s="56" customFormat="1">
       <c r="A38" s="59">
@@ -10700,16 +10700,16 @@
       <c r="B38" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="196" t="s">
+      <c r="C38" s="173" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="192"/>
-      <c r="E38" s="192"/>
-      <c r="F38" s="192"/>
-      <c r="G38" s="192"/>
-      <c r="H38" s="192"/>
-      <c r="I38" s="192"/>
-      <c r="J38" s="193"/>
+      <c r="D38" s="174"/>
+      <c r="E38" s="174"/>
+      <c r="F38" s="174"/>
+      <c r="G38" s="174"/>
+      <c r="H38" s="174"/>
+      <c r="I38" s="174"/>
+      <c r="J38" s="175"/>
     </row>
     <row r="39" spans="1:12" s="56" customFormat="1">
       <c r="A39" s="59">
@@ -10718,16 +10718,16 @@
       <c r="B39" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="196" t="s">
+      <c r="C39" s="173" t="s">
         <v>112</v>
       </c>
-      <c r="D39" s="192"/>
-      <c r="E39" s="192"/>
-      <c r="F39" s="192"/>
-      <c r="G39" s="192"/>
-      <c r="H39" s="192"/>
-      <c r="I39" s="192"/>
-      <c r="J39" s="193"/>
+      <c r="D39" s="174"/>
+      <c r="E39" s="174"/>
+      <c r="F39" s="174"/>
+      <c r="G39" s="174"/>
+      <c r="H39" s="174"/>
+      <c r="I39" s="174"/>
+      <c r="J39" s="175"/>
     </row>
     <row r="40" spans="1:12" s="56" customFormat="1">
       <c r="A40" s="59">
@@ -10736,42 +10736,42 @@
       <c r="B40" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="196" t="s">
+      <c r="C40" s="173" t="s">
         <v>112</v>
       </c>
-      <c r="D40" s="192"/>
-      <c r="E40" s="192"/>
-      <c r="F40" s="192"/>
-      <c r="G40" s="192"/>
-      <c r="H40" s="192"/>
-      <c r="I40" s="192"/>
-      <c r="J40" s="193"/>
+      <c r="D40" s="174"/>
+      <c r="E40" s="174"/>
+      <c r="F40" s="174"/>
+      <c r="G40" s="174"/>
+      <c r="H40" s="174"/>
+      <c r="I40" s="174"/>
+      <c r="J40" s="175"/>
     </row>
     <row r="41" spans="1:12" s="56" customFormat="1">
-      <c r="A41" s="139"/>
-      <c r="B41" s="144"/>
-      <c r="C41" s="144"/>
-      <c r="D41" s="144"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="144"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="144"/>
+      <c r="A41" s="169"/>
+      <c r="B41" s="139"/>
+      <c r="C41" s="139"/>
+      <c r="D41" s="139"/>
+      <c r="E41" s="139"/>
+      <c r="F41" s="139"/>
+      <c r="G41" s="139"/>
+      <c r="H41" s="139"/>
+      <c r="I41" s="139"/>
       <c r="J41" s="140"/>
     </row>
     <row r="42" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="181" t="s">
+      <c r="A42" s="164" t="s">
         <v>176</v>
       </c>
-      <c r="B42" s="203"/>
-      <c r="C42" s="203"/>
-      <c r="D42" s="203"/>
-      <c r="E42" s="203"/>
-      <c r="F42" s="203"/>
-      <c r="G42" s="203"/>
-      <c r="H42" s="203"/>
-      <c r="I42" s="203"/>
-      <c r="J42" s="204"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
+      <c r="E42" s="165"/>
+      <c r="F42" s="165"/>
+      <c r="G42" s="165"/>
+      <c r="H42" s="165"/>
+      <c r="I42" s="165"/>
+      <c r="J42" s="166"/>
     </row>
     <row r="43" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="81" t="s">
@@ -10786,14 +10786,14 @@
       <c r="D43" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="E43" s="205" t="s">
+      <c r="E43" s="167" t="s">
         <v>181</v>
       </c>
-      <c r="F43" s="206"/>
-      <c r="G43" s="206"/>
-      <c r="H43" s="206"/>
-      <c r="I43" s="206"/>
-      <c r="J43" s="206"/>
+      <c r="F43" s="168"/>
+      <c r="G43" s="168"/>
+      <c r="H43" s="168"/>
+      <c r="I43" s="168"/>
+      <c r="J43" s="168"/>
       <c r="K43" s="56"/>
       <c r="L43" s="56"/>
     </row>
@@ -10802,284 +10802,284 @@
         <v>1</v>
       </c>
       <c r="B44" s="145" t="s">
+        <v>214</v>
+      </c>
+      <c r="C44" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="C44" s="83" t="s">
+      <c r="D44" s="83"/>
+      <c r="E44" s="144" t="s">
         <v>216</v>
       </c>
-      <c r="D44" s="83"/>
-      <c r="E44" s="184" t="s">
+      <c r="F44" s="130"/>
+      <c r="G44" s="130"/>
+      <c r="H44" s="130"/>
+      <c r="I44" s="130"/>
+      <c r="J44" s="130"/>
+    </row>
+    <row r="45" spans="1:12" s="56" customFormat="1" ht="42" customHeight="1">
+      <c r="A45" s="207"/>
+      <c r="B45" s="207"/>
+      <c r="C45" s="97" t="s">
         <v>217</v>
       </c>
-      <c r="F44" s="116"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="116"/>
-      <c r="I44" s="116"/>
-      <c r="J44" s="116"/>
-    </row>
-    <row r="45" spans="1:12" s="56" customFormat="1" ht="42" customHeight="1">
-      <c r="A45" s="146"/>
-      <c r="B45" s="146"/>
-      <c r="C45" s="97" t="s">
+      <c r="D45" s="83"/>
+      <c r="E45" s="217" t="s">
         <v>218</v>
       </c>
-      <c r="D45" s="83"/>
-      <c r="E45" s="153" t="s">
+      <c r="F45" s="218"/>
+      <c r="G45" s="218"/>
+      <c r="H45" s="218"/>
+      <c r="I45" s="218"/>
+      <c r="J45" s="219"/>
+    </row>
+    <row r="46" spans="1:12" s="56" customFormat="1" ht="49.5">
+      <c r="A46" s="207"/>
+      <c r="B46" s="207"/>
+      <c r="C46" s="97" t="s">
         <v>219</v>
       </c>
-      <c r="F45" s="154"/>
-      <c r="G45" s="154"/>
-      <c r="H45" s="154"/>
-      <c r="I45" s="154"/>
-      <c r="J45" s="155"/>
-    </row>
-    <row r="46" spans="1:12" s="56" customFormat="1" ht="49.5">
-      <c r="A46" s="146"/>
-      <c r="B46" s="146"/>
-      <c r="C46" s="97" t="s">
+      <c r="D46" s="97"/>
+      <c r="E46" s="217" t="s">
         <v>220</v>
       </c>
-      <c r="D46" s="97"/>
-      <c r="E46" s="153" t="s">
+      <c r="F46" s="218"/>
+      <c r="G46" s="218"/>
+      <c r="H46" s="218"/>
+      <c r="I46" s="218"/>
+      <c r="J46" s="219"/>
+    </row>
+    <row r="47" spans="1:12" s="56" customFormat="1" ht="60" customHeight="1">
+      <c r="A47" s="208"/>
+      <c r="B47" s="208"/>
+      <c r="C47" s="97" t="s">
         <v>221</v>
       </c>
-      <c r="F46" s="154"/>
-      <c r="G46" s="154"/>
-      <c r="H46" s="154"/>
-      <c r="I46" s="154"/>
-      <c r="J46" s="155"/>
-    </row>
-    <row r="47" spans="1:12" s="56" customFormat="1" ht="60" customHeight="1">
-      <c r="A47" s="147"/>
-      <c r="B47" s="147"/>
-      <c r="C47" s="97" t="s">
+      <c r="D47" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="D47" s="97" t="s">
+      <c r="E47" s="188" t="s">
         <v>223</v>
       </c>
-      <c r="E47" s="156" t="s">
-        <v>224</v>
-      </c>
-      <c r="F47" s="157"/>
-      <c r="G47" s="157"/>
-      <c r="H47" s="157"/>
-      <c r="I47" s="157"/>
-      <c r="J47" s="157"/>
+      <c r="F47" s="220"/>
+      <c r="G47" s="220"/>
+      <c r="H47" s="220"/>
+      <c r="I47" s="220"/>
+      <c r="J47" s="220"/>
     </row>
     <row r="48" spans="1:12" s="58" customFormat="1">
       <c r="A48" s="63"/>
-      <c r="B48" s="144"/>
-      <c r="C48" s="144"/>
-      <c r="D48" s="144"/>
-      <c r="E48" s="144"/>
-      <c r="F48" s="144"/>
-      <c r="G48" s="144"/>
-      <c r="H48" s="144"/>
-      <c r="I48" s="144"/>
+      <c r="B48" s="139"/>
+      <c r="C48" s="139"/>
+      <c r="D48" s="139"/>
+      <c r="E48" s="139"/>
+      <c r="F48" s="139"/>
+      <c r="G48" s="139"/>
+      <c r="H48" s="139"/>
+      <c r="I48" s="139"/>
       <c r="J48" s="140"/>
     </row>
     <row r="49" spans="1:10" s="58" customFormat="1">
-      <c r="A49" s="158" t="s">
+      <c r="A49" s="221" t="s">
         <v>184</v>
       </c>
-      <c r="B49" s="159"/>
-      <c r="C49" s="159"/>
-      <c r="D49" s="159"/>
-      <c r="E49" s="159"/>
-      <c r="F49" s="159"/>
-      <c r="G49" s="159"/>
-      <c r="H49" s="159"/>
-      <c r="I49" s="159"/>
-      <c r="J49" s="160"/>
+      <c r="B49" s="222"/>
+      <c r="C49" s="222"/>
+      <c r="D49" s="222"/>
+      <c r="E49" s="222"/>
+      <c r="F49" s="222"/>
+      <c r="G49" s="222"/>
+      <c r="H49" s="222"/>
+      <c r="I49" s="222"/>
+      <c r="J49" s="223"/>
     </row>
     <row r="50" spans="1:10" s="56" customFormat="1" ht="16.5" customHeight="1">
       <c r="A50" s="145">
         <v>1</v>
       </c>
-      <c r="B50" s="162" t="s">
-        <v>225</v>
+      <c r="B50" s="147" t="s">
+        <v>224</v>
       </c>
       <c r="C50" s="84" t="s">
+        <v>226</v>
+      </c>
+      <c r="D50" s="97"/>
+      <c r="E50" s="144" t="s">
         <v>227</v>
       </c>
-      <c r="D50" s="97"/>
-      <c r="E50" s="184" t="s">
+      <c r="F50" s="130"/>
+      <c r="G50" s="130"/>
+      <c r="H50" s="130"/>
+      <c r="I50" s="130"/>
+      <c r="J50" s="130"/>
+    </row>
+    <row r="51" spans="1:10" s="56" customFormat="1" ht="49.5">
+      <c r="A51" s="146"/>
+      <c r="B51" s="148"/>
+      <c r="C51" s="85" t="s">
         <v>228</v>
-      </c>
-      <c r="F50" s="116"/>
-      <c r="G50" s="116"/>
-      <c r="H50" s="116"/>
-      <c r="I50" s="116"/>
-      <c r="J50" s="116"/>
-    </row>
-    <row r="51" spans="1:10" s="56" customFormat="1" ht="49.5">
-      <c r="A51" s="161"/>
-      <c r="B51" s="163"/>
-      <c r="C51" s="85" t="s">
-        <v>229</v>
       </c>
       <c r="D51" s="99" t="s">
         <v>200</v>
       </c>
-      <c r="E51" s="207" t="s">
-        <v>230</v>
-      </c>
-      <c r="F51" s="208"/>
-      <c r="G51" s="208"/>
-      <c r="H51" s="208"/>
-      <c r="I51" s="208"/>
-      <c r="J51" s="209"/>
+      <c r="E51" s="160" t="s">
+        <v>229</v>
+      </c>
+      <c r="F51" s="142"/>
+      <c r="G51" s="142"/>
+      <c r="H51" s="142"/>
+      <c r="I51" s="142"/>
+      <c r="J51" s="143"/>
     </row>
     <row r="52" spans="1:10" s="56" customFormat="1">
       <c r="A52" s="67">
         <v>2</v>
       </c>
-      <c r="B52" s="162" t="s">
+      <c r="B52" s="147" t="s">
         <v>186</v>
       </c>
       <c r="C52" s="84" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D52" s="86"/>
-      <c r="E52" s="211" t="s">
-        <v>231</v>
-      </c>
-      <c r="F52" s="212"/>
-      <c r="G52" s="212"/>
-      <c r="H52" s="212"/>
-      <c r="I52" s="212"/>
-      <c r="J52" s="213"/>
+      <c r="E52" s="136" t="s">
+        <v>230</v>
+      </c>
+      <c r="F52" s="137"/>
+      <c r="G52" s="137"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="137"/>
+      <c r="J52" s="138"/>
     </row>
     <row r="53" spans="1:10" s="56" customFormat="1" ht="86.25" customHeight="1">
       <c r="A53" s="67"/>
-      <c r="B53" s="210"/>
+      <c r="B53" s="161"/>
       <c r="C53" s="84" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D53" s="87" t="s">
         <v>200</v>
       </c>
-      <c r="E53" s="211" t="s">
-        <v>233</v>
-      </c>
-      <c r="F53" s="212"/>
-      <c r="G53" s="212"/>
-      <c r="H53" s="212"/>
-      <c r="I53" s="212"/>
-      <c r="J53" s="213"/>
+      <c r="E53" s="136" t="s">
+        <v>232</v>
+      </c>
+      <c r="F53" s="137"/>
+      <c r="G53" s="137"/>
+      <c r="H53" s="137"/>
+      <c r="I53" s="137"/>
+      <c r="J53" s="138"/>
     </row>
     <row r="54" spans="1:10" s="56" customFormat="1" ht="63.75" customHeight="1">
       <c r="A54" s="67"/>
-      <c r="B54" s="210"/>
+      <c r="B54" s="161"/>
       <c r="C54" s="97" t="s">
+        <v>233</v>
+      </c>
+      <c r="D54" s="97"/>
+      <c r="E54" s="217" t="s">
         <v>234</v>
       </c>
-      <c r="D54" s="97"/>
-      <c r="E54" s="153" t="s">
-        <v>235</v>
-      </c>
-      <c r="F54" s="154"/>
-      <c r="G54" s="154"/>
-      <c r="H54" s="154"/>
-      <c r="I54" s="154"/>
-      <c r="J54" s="155"/>
+      <c r="F54" s="218"/>
+      <c r="G54" s="218"/>
+      <c r="H54" s="218"/>
+      <c r="I54" s="218"/>
+      <c r="J54" s="219"/>
     </row>
     <row r="55" spans="1:10" s="56" customFormat="1" ht="49.5">
       <c r="A55" s="67"/>
-      <c r="B55" s="210"/>
+      <c r="B55" s="161"/>
       <c r="C55" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D55" s="97" t="s">
         <v>182</v>
       </c>
-      <c r="E55" s="156" t="s">
+      <c r="E55" s="188" t="s">
         <v>183</v>
       </c>
-      <c r="F55" s="157"/>
-      <c r="G55" s="157"/>
-      <c r="H55" s="157"/>
-      <c r="I55" s="157"/>
-      <c r="J55" s="157"/>
+      <c r="F55" s="220"/>
+      <c r="G55" s="220"/>
+      <c r="H55" s="220"/>
+      <c r="I55" s="220"/>
+      <c r="J55" s="220"/>
     </row>
     <row r="56" spans="1:10" s="56" customFormat="1">
       <c r="A56" s="67"/>
-      <c r="B56" s="210"/>
+      <c r="B56" s="161"/>
       <c r="C56" s="84" t="s">
+        <v>236</v>
+      </c>
+      <c r="D56" s="86"/>
+      <c r="E56" s="141" t="s">
         <v>237</v>
       </c>
-      <c r="D56" s="86"/>
-      <c r="E56" s="136" t="s">
-        <v>238</v>
-      </c>
-      <c r="F56" s="214"/>
-      <c r="G56" s="214"/>
-      <c r="H56" s="214"/>
-      <c r="I56" s="214"/>
-      <c r="J56" s="215"/>
+      <c r="F56" s="162"/>
+      <c r="G56" s="162"/>
+      <c r="H56" s="162"/>
+      <c r="I56" s="162"/>
+      <c r="J56" s="163"/>
     </row>
     <row r="57" spans="1:10" s="56" customFormat="1" ht="49.5">
       <c r="A57" s="67"/>
-      <c r="B57" s="163"/>
+      <c r="B57" s="148"/>
       <c r="C57" s="84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D57" s="86"/>
-      <c r="E57" s="136" t="s">
+      <c r="E57" s="141" t="s">
         <v>187</v>
       </c>
-      <c r="F57" s="214"/>
-      <c r="G57" s="214"/>
-      <c r="H57" s="214"/>
-      <c r="I57" s="214"/>
-      <c r="J57" s="215"/>
+      <c r="F57" s="162"/>
+      <c r="G57" s="162"/>
+      <c r="H57" s="162"/>
+      <c r="I57" s="162"/>
+      <c r="J57" s="163"/>
     </row>
     <row r="58" spans="1:10" s="56" customFormat="1" ht="79.5" customHeight="1">
       <c r="A58" s="69">
         <v>3</v>
       </c>
       <c r="B58" s="100" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C58" s="84" t="s">
         <v>185</v>
       </c>
       <c r="D58" s="88"/>
-      <c r="E58" s="216" t="s">
-        <v>241</v>
-      </c>
-      <c r="F58" s="217"/>
-      <c r="G58" s="217"/>
-      <c r="H58" s="217"/>
-      <c r="I58" s="217"/>
-      <c r="J58" s="218"/>
+      <c r="E58" s="149" t="s">
+        <v>240</v>
+      </c>
+      <c r="F58" s="150"/>
+      <c r="G58" s="150"/>
+      <c r="H58" s="150"/>
+      <c r="I58" s="150"/>
+      <c r="J58" s="151"/>
     </row>
     <row r="59" spans="1:10" s="56" customFormat="1">
       <c r="A59" s="70"/>
-      <c r="B59" s="144"/>
-      <c r="C59" s="144"/>
-      <c r="D59" s="144"/>
-      <c r="E59" s="144"/>
-      <c r="F59" s="144"/>
-      <c r="G59" s="144"/>
-      <c r="H59" s="144"/>
-      <c r="I59" s="144"/>
+      <c r="B59" s="139"/>
+      <c r="C59" s="139"/>
+      <c r="D59" s="139"/>
+      <c r="E59" s="139"/>
+      <c r="F59" s="139"/>
+      <c r="G59" s="139"/>
+      <c r="H59" s="139"/>
+      <c r="I59" s="139"/>
       <c r="J59" s="140"/>
     </row>
     <row r="60" spans="1:10" s="56" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A60" s="219" t="s">
+      <c r="A60" s="152" t="s">
         <v>188</v>
       </c>
-      <c r="B60" s="220"/>
-      <c r="C60" s="220"/>
-      <c r="D60" s="220"/>
-      <c r="E60" s="220"/>
-      <c r="F60" s="220"/>
-      <c r="G60" s="220"/>
-      <c r="H60" s="220"/>
-      <c r="I60" s="220"/>
-      <c r="J60" s="221"/>
+      <c r="B60" s="153"/>
+      <c r="C60" s="153"/>
+      <c r="D60" s="153"/>
+      <c r="E60" s="153"/>
+      <c r="F60" s="153"/>
+      <c r="G60" s="153"/>
+      <c r="H60" s="153"/>
+      <c r="I60" s="153"/>
+      <c r="J60" s="154"/>
     </row>
     <row r="61" spans="1:10" s="56" customFormat="1" ht="63.75" customHeight="1">
       <c r="A61" s="59">
@@ -11092,252 +11092,252 @@
         <v>185</v>
       </c>
       <c r="D61" s="97"/>
-      <c r="E61" s="222" t="s">
-        <v>242</v>
-      </c>
-      <c r="F61" s="223"/>
-      <c r="G61" s="223"/>
-      <c r="H61" s="223"/>
-      <c r="I61" s="223"/>
-      <c r="J61" s="223"/>
+      <c r="E61" s="155" t="s">
+        <v>241</v>
+      </c>
+      <c r="F61" s="156"/>
+      <c r="G61" s="156"/>
+      <c r="H61" s="156"/>
+      <c r="I61" s="156"/>
+      <c r="J61" s="156"/>
     </row>
     <row r="62" spans="1:10" s="56" customFormat="1" ht="54.75" customHeight="1">
       <c r="A62" s="59">
         <v>2</v>
       </c>
       <c r="B62" s="100" t="s">
+        <v>242</v>
+      </c>
+      <c r="C62" s="84" t="s">
         <v>243</v>
       </c>
-      <c r="C62" s="84" t="s">
+      <c r="D62" s="94"/>
+      <c r="E62" s="157" t="s">
         <v>244</v>
       </c>
-      <c r="D62" s="94"/>
-      <c r="E62" s="164" t="s">
-        <v>245</v>
-      </c>
-      <c r="F62" s="165"/>
-      <c r="G62" s="165"/>
-      <c r="H62" s="165"/>
-      <c r="I62" s="165"/>
-      <c r="J62" s="166"/>
+      <c r="F62" s="158"/>
+      <c r="G62" s="158"/>
+      <c r="H62" s="158"/>
+      <c r="I62" s="158"/>
+      <c r="J62" s="159"/>
     </row>
     <row r="63" spans="1:10" s="56" customFormat="1" ht="27.75" customHeight="1">
       <c r="A63" s="145">
         <v>3</v>
       </c>
-      <c r="B63" s="162" t="s">
+      <c r="B63" s="147" t="s">
+        <v>245</v>
+      </c>
+      <c r="C63" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="C63" s="84" t="s">
+      <c r="D63" s="94"/>
+      <c r="E63" s="136" t="s">
         <v>247</v>
       </c>
-      <c r="D63" s="94"/>
-      <c r="E63" s="211" t="s">
+      <c r="F63" s="137"/>
+      <c r="G63" s="137"/>
+      <c r="H63" s="137"/>
+      <c r="I63" s="137"/>
+      <c r="J63" s="138"/>
+    </row>
+    <row r="64" spans="1:10" s="56" customFormat="1" ht="39" customHeight="1">
+      <c r="A64" s="146"/>
+      <c r="B64" s="148"/>
+      <c r="C64" s="84" t="s">
         <v>248</v>
-      </c>
-      <c r="F63" s="212"/>
-      <c r="G63" s="212"/>
-      <c r="H63" s="212"/>
-      <c r="I63" s="212"/>
-      <c r="J63" s="213"/>
-    </row>
-    <row r="64" spans="1:10" s="56" customFormat="1" ht="39" customHeight="1">
-      <c r="A64" s="161"/>
-      <c r="B64" s="163"/>
-      <c r="C64" s="84" t="s">
-        <v>249</v>
       </c>
       <c r="D64" s="89" t="s">
         <v>190</v>
       </c>
-      <c r="E64" s="136" t="s" ph="1">
-        <v>250</v>
-      </c>
-      <c r="F64" s="208"/>
-      <c r="G64" s="208"/>
-      <c r="H64" s="208"/>
-      <c r="I64" s="208"/>
-      <c r="J64" s="209"/>
+      <c r="E64" s="141" t="s" ph="1">
+        <v>249</v>
+      </c>
+      <c r="F64" s="142"/>
+      <c r="G64" s="142"/>
+      <c r="H64" s="142"/>
+      <c r="I64" s="142"/>
+      <c r="J64" s="143"/>
     </row>
     <row r="65" spans="1:10" s="56" customFormat="1">
       <c r="A65" s="145">
         <v>4</v>
       </c>
-      <c r="B65" s="162" t="s">
+      <c r="B65" s="147" t="s">
+        <v>250</v>
+      </c>
+      <c r="C65" s="84" t="s">
+        <v>246</v>
+      </c>
+      <c r="D65" s="89"/>
+      <c r="E65" s="157" t="s">
         <v>251</v>
       </c>
-      <c r="C65" s="84" t="s">
-        <v>247</v>
-      </c>
-      <c r="D65" s="89"/>
-      <c r="E65" s="164" t="s">
+      <c r="F65" s="158"/>
+      <c r="G65" s="158"/>
+      <c r="H65" s="158"/>
+      <c r="I65" s="158"/>
+      <c r="J65" s="159"/>
+    </row>
+    <row r="66" spans="1:10" s="56" customFormat="1" ht="24" customHeight="1">
+      <c r="A66" s="146"/>
+      <c r="B66" s="148"/>
+      <c r="C66" s="84" t="s">
         <v>252</v>
       </c>
-      <c r="F65" s="165"/>
-      <c r="G65" s="165"/>
-      <c r="H65" s="165"/>
-      <c r="I65" s="165"/>
-      <c r="J65" s="166"/>
-    </row>
-    <row r="66" spans="1:10" s="56" customFormat="1" ht="24" customHeight="1">
-      <c r="A66" s="161"/>
-      <c r="B66" s="163"/>
-      <c r="C66" s="84" t="s">
+      <c r="D66" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="D66" s="87" t="s">
+      <c r="E66" s="136" t="s">
         <v>254</v>
       </c>
-      <c r="E66" s="211" t="s">
-        <v>255</v>
-      </c>
-      <c r="F66" s="212"/>
-      <c r="G66" s="212"/>
-      <c r="H66" s="212"/>
-      <c r="I66" s="212"/>
-      <c r="J66" s="213"/>
+      <c r="F66" s="137"/>
+      <c r="G66" s="137"/>
+      <c r="H66" s="137"/>
+      <c r="I66" s="137"/>
+      <c r="J66" s="138"/>
     </row>
     <row r="67" spans="1:10" s="56" customFormat="1">
       <c r="A67" s="145">
         <v>5</v>
       </c>
-      <c r="B67" s="162" t="s">
+      <c r="B67" s="147" t="s">
+        <v>255</v>
+      </c>
+      <c r="C67" s="84" t="s">
+        <v>243</v>
+      </c>
+      <c r="D67" s="94"/>
+      <c r="E67" s="136" t="s">
         <v>256</v>
       </c>
-      <c r="C67" s="84" t="s">
-        <v>244</v>
-      </c>
-      <c r="D67" s="94"/>
-      <c r="E67" s="211" t="s">
+      <c r="F67" s="137"/>
+      <c r="G67" s="137"/>
+      <c r="H67" s="137"/>
+      <c r="I67" s="137"/>
+      <c r="J67" s="138"/>
+    </row>
+    <row r="68" spans="1:10" s="56" customFormat="1" ht="49.5">
+      <c r="A68" s="146"/>
+      <c r="B68" s="148"/>
+      <c r="C68" s="84" t="s">
         <v>257</v>
       </c>
-      <c r="F67" s="212"/>
-      <c r="G67" s="212"/>
-      <c r="H67" s="212"/>
-      <c r="I67" s="212"/>
-      <c r="J67" s="213"/>
-    </row>
-    <row r="68" spans="1:10" s="56" customFormat="1" ht="49.5">
-      <c r="A68" s="161"/>
-      <c r="B68" s="163"/>
-      <c r="C68" s="84" t="s">
+      <c r="D68" s="94" t="s">
         <v>258</v>
       </c>
-      <c r="D68" s="94" t="s">
+      <c r="E68" s="136" t="s">
         <v>259</v>
       </c>
-      <c r="E68" s="211" t="s">
-        <v>260</v>
-      </c>
-      <c r="F68" s="212"/>
-      <c r="G68" s="212"/>
-      <c r="H68" s="212"/>
-      <c r="I68" s="212"/>
-      <c r="J68" s="213"/>
+      <c r="F68" s="137"/>
+      <c r="G68" s="137"/>
+      <c r="H68" s="137"/>
+      <c r="I68" s="137"/>
+      <c r="J68" s="138"/>
     </row>
     <row r="69" spans="1:10" s="56" customFormat="1">
       <c r="A69" s="71"/>
-      <c r="B69" s="144"/>
-      <c r="C69" s="144"/>
-      <c r="D69" s="144"/>
-      <c r="E69" s="144"/>
-      <c r="F69" s="144"/>
-      <c r="G69" s="144"/>
-      <c r="H69" s="144"/>
-      <c r="I69" s="144"/>
+      <c r="B69" s="139"/>
+      <c r="C69" s="139"/>
+      <c r="D69" s="139"/>
+      <c r="E69" s="139"/>
+      <c r="F69" s="139"/>
+      <c r="G69" s="139"/>
+      <c r="H69" s="139"/>
+      <c r="I69" s="139"/>
       <c r="J69" s="140"/>
     </row>
     <row r="70" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A70" s="150" t="s">
+      <c r="A70" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="151"/>
-      <c r="C70" s="151"/>
-      <c r="D70" s="151"/>
-      <c r="E70" s="151"/>
-      <c r="F70" s="151"/>
-      <c r="G70" s="151"/>
-      <c r="H70" s="151"/>
-      <c r="I70" s="151"/>
-      <c r="J70" s="152"/>
+      <c r="B70" s="215"/>
+      <c r="C70" s="215"/>
+      <c r="D70" s="215"/>
+      <c r="E70" s="215"/>
+      <c r="F70" s="215"/>
+      <c r="G70" s="215"/>
+      <c r="H70" s="215"/>
+      <c r="I70" s="215"/>
+      <c r="J70" s="216"/>
     </row>
     <row r="71" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="148" t="s">
+      <c r="B71" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="149"/>
-      <c r="D71" s="136" t="s">
+      <c r="C71" s="213"/>
+      <c r="D71" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="120"/>
-      <c r="F71" s="120"/>
-      <c r="G71" s="120"/>
-      <c r="H71" s="120"/>
-      <c r="I71" s="120"/>
-      <c r="J71" s="121"/>
+      <c r="E71" s="121"/>
+      <c r="F71" s="121"/>
+      <c r="G71" s="121"/>
+      <c r="H71" s="121"/>
+      <c r="I71" s="121"/>
+      <c r="J71" s="122"/>
     </row>
     <row r="72" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A72" s="141"/>
-      <c r="B72" s="142"/>
-      <c r="C72" s="142"/>
-      <c r="D72" s="142"/>
-      <c r="E72" s="142"/>
-      <c r="F72" s="142"/>
-      <c r="G72" s="142"/>
-      <c r="H72" s="142"/>
-      <c r="I72" s="142"/>
-      <c r="J72" s="143"/>
+      <c r="A72" s="209"/>
+      <c r="B72" s="210"/>
+      <c r="C72" s="210"/>
+      <c r="D72" s="210"/>
+      <c r="E72" s="210"/>
+      <c r="F72" s="210"/>
+      <c r="G72" s="210"/>
+      <c r="H72" s="210"/>
+      <c r="I72" s="210"/>
+      <c r="J72" s="211"/>
     </row>
     <row r="73" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="69"/>
-      <c r="B73" s="139"/>
+      <c r="B73" s="169"/>
       <c r="C73" s="140"/>
-      <c r="D73" s="136"/>
-      <c r="E73" s="137"/>
-      <c r="F73" s="137"/>
-      <c r="G73" s="137"/>
-      <c r="H73" s="137"/>
-      <c r="I73" s="137"/>
-      <c r="J73" s="138"/>
+      <c r="D73" s="141"/>
+      <c r="E73" s="205"/>
+      <c r="F73" s="205"/>
+      <c r="G73" s="205"/>
+      <c r="H73" s="205"/>
+      <c r="I73" s="205"/>
+      <c r="J73" s="206"/>
     </row>
     <row r="74" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="69"/>
-      <c r="B74" s="139"/>
+      <c r="B74" s="169"/>
       <c r="C74" s="140"/>
-      <c r="D74" s="136"/>
-      <c r="E74" s="137"/>
-      <c r="F74" s="137"/>
-      <c r="G74" s="137"/>
-      <c r="H74" s="137"/>
-      <c r="I74" s="137"/>
-      <c r="J74" s="138"/>
+      <c r="D74" s="141"/>
+      <c r="E74" s="205"/>
+      <c r="F74" s="205"/>
+      <c r="G74" s="205"/>
+      <c r="H74" s="205"/>
+      <c r="I74" s="205"/>
+      <c r="J74" s="206"/>
     </row>
     <row r="75" spans="1:10" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A75" s="141"/>
-      <c r="B75" s="142"/>
-      <c r="C75" s="142"/>
-      <c r="D75" s="142"/>
-      <c r="E75" s="142"/>
-      <c r="F75" s="142"/>
-      <c r="G75" s="142"/>
-      <c r="H75" s="142"/>
-      <c r="I75" s="142"/>
-      <c r="J75" s="143"/>
+      <c r="A75" s="209"/>
+      <c r="B75" s="210"/>
+      <c r="C75" s="210"/>
+      <c r="D75" s="210"/>
+      <c r="E75" s="210"/>
+      <c r="F75" s="210"/>
+      <c r="G75" s="210"/>
+      <c r="H75" s="210"/>
+      <c r="I75" s="210"/>
+      <c r="J75" s="211"/>
     </row>
     <row r="76" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A76" s="69"/>
-      <c r="B76" s="139"/>
+      <c r="B76" s="169"/>
       <c r="C76" s="140"/>
-      <c r="D76" s="136"/>
-      <c r="E76" s="137"/>
-      <c r="F76" s="137"/>
-      <c r="G76" s="137"/>
-      <c r="H76" s="137"/>
-      <c r="I76" s="137"/>
-      <c r="J76" s="138"/>
+      <c r="D76" s="141"/>
+      <c r="E76" s="205"/>
+      <c r="F76" s="205"/>
+      <c r="G76" s="205"/>
+      <c r="H76" s="205"/>
+      <c r="I76" s="205"/>
+      <c r="J76" s="206"/>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="72" t="s">
@@ -11360,14 +11360,14 @@
       <c r="B78" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="139"/>
-      <c r="D78" s="120"/>
-      <c r="E78" s="120"/>
-      <c r="F78" s="120"/>
-      <c r="G78" s="120"/>
-      <c r="H78" s="120"/>
-      <c r="I78" s="120"/>
-      <c r="J78" s="121"/>
+      <c r="C78" s="169"/>
+      <c r="D78" s="121"/>
+      <c r="E78" s="121"/>
+      <c r="F78" s="121"/>
+      <c r="G78" s="121"/>
+      <c r="H78" s="121"/>
+      <c r="I78" s="121"/>
+      <c r="J78" s="122"/>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="69">
@@ -11376,17 +11376,87 @@
       <c r="B79" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="156"/>
-      <c r="D79" s="156"/>
-      <c r="E79" s="156"/>
-      <c r="F79" s="156"/>
-      <c r="G79" s="156"/>
-      <c r="H79" s="156"/>
-      <c r="I79" s="156"/>
-      <c r="J79" s="156"/>
+      <c r="C79" s="188"/>
+      <c r="D79" s="188"/>
+      <c r="E79" s="188"/>
+      <c r="F79" s="188"/>
+      <c r="G79" s="188"/>
+      <c r="H79" s="188"/>
+      <c r="I79" s="188"/>
+      <c r="J79" s="188"/>
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="D76:J76"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="D74:J74"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B69:J69"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="E65:J65"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="D73:J73"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="D71:J71"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="E62:J62"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="E57:J57"/>
     <mergeCell ref="E63:J63"/>
     <mergeCell ref="B59:J59"/>
     <mergeCell ref="E64:J64"/>
@@ -11403,76 +11473,6 @@
     <mergeCell ref="E66:J66"/>
     <mergeCell ref="A60:J60"/>
     <mergeCell ref="E61:J61"/>
-    <mergeCell ref="E62:J62"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="D73:J73"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="D71:J71"/>
-    <mergeCell ref="B69:J69"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A72:J72"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="A70:J70"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="E45:J45"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="E65:J65"/>
-    <mergeCell ref="D76:J76"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="A75:J75"/>
-    <mergeCell ref="D74:J74"/>
-    <mergeCell ref="B74:C74"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -11494,8 +11494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11525,7 +11525,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="167" t="s">
+      <c r="K1" s="189" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="39"/>
@@ -11552,7 +11552,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="168"/>
+      <c r="K2" s="190"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -11570,7 +11570,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="168"/>
+      <c r="K3" s="190"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -11891,10 +11891,10 @@
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="J18" s="46" t="s">
         <v>210</v>
-      </c>
-      <c r="J18" s="46" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -12074,7 +12074,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="167" t="s">
+      <c r="K1" s="189" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="54"/>
@@ -12095,7 +12095,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="168"/>
+      <c r="K2" s="190"/>
     </row>
     <row r="3" spans="1:17" s="55" customFormat="1">
       <c r="A3" s="47"/>
@@ -12108,7 +12108,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="168"/>
+      <c r="K3" s="190"/>
     </row>
     <row r="4" spans="1:17" s="55" customFormat="1">
       <c r="A4" s="47"/>
@@ -12123,7 +12123,7 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="172" t="s">
+      <c r="A5" s="194" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="118"/>
@@ -12137,57 +12137,57 @@
       <c r="J5" s="119"/>
     </row>
     <row r="6" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="122"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="124"/>
+      <c r="A6" s="133"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="135"/>
     </row>
     <row r="7" spans="1:17" s="56" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="173"/>
-      <c r="B7" s="174"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="176"/>
+      <c r="A7" s="195"/>
+      <c r="B7" s="196"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="198"/>
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:17" s="56" customFormat="1">
-      <c r="A8" s="173"/>
-      <c r="B8" s="174"/>
-      <c r="C8" s="174"/>
-      <c r="D8" s="174"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="176"/>
+      <c r="A8" s="195"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="196"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="198"/>
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:17" s="56" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="177"/>
-      <c r="B9" s="178"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="179"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="200"/>
+      <c r="E9" s="200"/>
+      <c r="F9" s="200"/>
+      <c r="G9" s="200"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="200"/>
+      <c r="J9" s="201"/>
     </row>
     <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="194" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="118"/>
@@ -12201,21 +12201,21 @@
       <c r="J10" s="119"/>
     </row>
     <row r="11" spans="1:17" s="58" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="180" t="s">
+      <c r="A11" s="202" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="121"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="122"/>
     </row>
     <row r="12" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="172" t="s">
+      <c r="A12" s="194" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="118"/>
@@ -12229,21 +12229,21 @@
       <c r="J12" s="119"/>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="180" t="s">
+      <c r="A13" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="121"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="122"/>
     </row>
     <row r="14" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="172" t="s">
+      <c r="A14" s="194" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="118"/>
@@ -12257,18 +12257,18 @@
       <c r="J14" s="119"/>
     </row>
     <row r="15" spans="1:17" s="56" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A15" s="185" t="s">
+      <c r="A15" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="B15" s="186"/>
-      <c r="C15" s="186"/>
-      <c r="D15" s="186"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="187"/>
+      <c r="B15" s="185"/>
+      <c r="C15" s="185"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="186"/>
     </row>
     <row r="16" spans="1:17" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="59" t="s">
@@ -12277,16 +12277,16 @@
       <c r="B16" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="188" t="s">
+      <c r="C16" s="170" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="189"/>
-      <c r="E16" s="189"/>
-      <c r="F16" s="189"/>
-      <c r="G16" s="189"/>
-      <c r="H16" s="189"/>
-      <c r="I16" s="189"/>
-      <c r="J16" s="190"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="171"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="172"/>
     </row>
     <row r="17" spans="1:10" s="56" customFormat="1" ht="73.5" customHeight="1">
       <c r="A17" s="59">
@@ -12295,16 +12295,16 @@
       <c r="B17" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="191" t="s">
-        <v>263</v>
-      </c>
-      <c r="D17" s="192"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="193"/>
+      <c r="C17" s="187" t="s">
+        <v>262</v>
+      </c>
+      <c r="D17" s="174"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="174"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="175"/>
     </row>
     <row r="18" spans="1:10" s="56" customFormat="1" ht="65.25" customHeight="1">
       <c r="A18" s="59">
@@ -12313,16 +12313,16 @@
       <c r="B18" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="191" t="s">
-        <v>264</v>
-      </c>
-      <c r="D18" s="192"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="192"/>
-      <c r="H18" s="192"/>
-      <c r="I18" s="192"/>
-      <c r="J18" s="193"/>
+      <c r="C18" s="187" t="s">
+        <v>263</v>
+      </c>
+      <c r="D18" s="174"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="175"/>
     </row>
     <row r="19" spans="1:10" s="56" customFormat="1">
       <c r="A19" s="59">
@@ -12331,16 +12331,16 @@
       <c r="B19" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="196" t="s">
+      <c r="C19" s="173" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="192"/>
-      <c r="E19" s="192"/>
-      <c r="F19" s="192"/>
-      <c r="G19" s="192"/>
-      <c r="H19" s="192"/>
-      <c r="I19" s="192"/>
-      <c r="J19" s="193"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="175"/>
     </row>
     <row r="20" spans="1:10" s="56" customFormat="1">
       <c r="A20" s="59">
@@ -12349,16 +12349,16 @@
       <c r="B20" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="196" t="s">
+      <c r="C20" s="173" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="192"/>
-      <c r="E20" s="192"/>
-      <c r="F20" s="192"/>
-      <c r="G20" s="192"/>
-      <c r="H20" s="192"/>
-      <c r="I20" s="192"/>
-      <c r="J20" s="193"/>
+      <c r="D20" s="174"/>
+      <c r="E20" s="174"/>
+      <c r="F20" s="174"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="174"/>
+      <c r="J20" s="175"/>
     </row>
     <row r="21" spans="1:10" s="56" customFormat="1">
       <c r="A21" s="59">
@@ -12367,56 +12367,56 @@
       <c r="B21" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="196" t="s">
+      <c r="C21" s="173" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="192"/>
-      <c r="E21" s="192"/>
-      <c r="F21" s="192"/>
-      <c r="G21" s="192"/>
-      <c r="H21" s="192"/>
-      <c r="I21" s="192"/>
-      <c r="J21" s="193"/>
+      <c r="D21" s="174"/>
+      <c r="E21" s="174"/>
+      <c r="F21" s="174"/>
+      <c r="G21" s="174"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="174"/>
+      <c r="J21" s="175"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1">
-      <c r="A22" s="169"/>
-      <c r="B22" s="170"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="170"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="171"/>
+      <c r="A22" s="191"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="192"/>
+      <c r="D22" s="192"/>
+      <c r="E22" s="192"/>
+      <c r="F22" s="192"/>
+      <c r="G22" s="192"/>
+      <c r="H22" s="192"/>
+      <c r="I22" s="192"/>
+      <c r="J22" s="193"/>
     </row>
     <row r="23" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="181" t="s">
+      <c r="A23" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="182"/>
-      <c r="C23" s="182"/>
-      <c r="D23" s="182"/>
-      <c r="E23" s="182"/>
-      <c r="F23" s="182"/>
-      <c r="G23" s="182"/>
-      <c r="H23" s="182"/>
-      <c r="I23" s="182"/>
-      <c r="J23" s="183"/>
+      <c r="B23" s="203"/>
+      <c r="C23" s="203"/>
+      <c r="D23" s="203"/>
+      <c r="E23" s="203"/>
+      <c r="F23" s="203"/>
+      <c r="G23" s="203"/>
+      <c r="H23" s="203"/>
+      <c r="I23" s="203"/>
+      <c r="J23" s="204"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1" ht="36" customHeight="1">
-      <c r="A24" s="185" t="s">
+      <c r="A24" s="176" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="186"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="186"/>
-      <c r="E24" s="186"/>
-      <c r="F24" s="186"/>
-      <c r="G24" s="186"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="186"/>
-      <c r="J24" s="187"/>
+      <c r="B24" s="185"/>
+      <c r="C24" s="185"/>
+      <c r="D24" s="185"/>
+      <c r="E24" s="185"/>
+      <c r="F24" s="185"/>
+      <c r="G24" s="185"/>
+      <c r="H24" s="185"/>
+      <c r="I24" s="185"/>
+      <c r="J24" s="186"/>
     </row>
     <row r="25" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="59" t="s">
@@ -12425,16 +12425,16 @@
       <c r="B25" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="188" t="s">
+      <c r="C25" s="170" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="189"/>
-      <c r="E25" s="189"/>
-      <c r="F25" s="189"/>
-      <c r="G25" s="189"/>
-      <c r="H25" s="189"/>
-      <c r="I25" s="189"/>
-      <c r="J25" s="190"/>
+      <c r="D25" s="171"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="171"/>
+      <c r="J25" s="172"/>
     </row>
     <row r="26" spans="1:10" s="56" customFormat="1" ht="33" customHeight="1">
       <c r="A26" s="59">
@@ -12443,16 +12443,16 @@
       <c r="B26" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="191" t="s">
-        <v>323</v>
-      </c>
-      <c r="D26" s="192"/>
-      <c r="E26" s="192"/>
-      <c r="F26" s="192"/>
-      <c r="G26" s="192"/>
-      <c r="H26" s="192"/>
-      <c r="I26" s="192"/>
-      <c r="J26" s="193"/>
+      <c r="C26" s="187" t="s">
+        <v>322</v>
+      </c>
+      <c r="D26" s="174"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="174"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="174"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="175"/>
     </row>
     <row r="27" spans="1:10" s="56" customFormat="1" ht="32.25" customHeight="1">
       <c r="A27" s="59">
@@ -12461,16 +12461,16 @@
       <c r="B27" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="191" t="s">
-        <v>212</v>
-      </c>
-      <c r="D27" s="192"/>
-      <c r="E27" s="192"/>
-      <c r="F27" s="192"/>
-      <c r="G27" s="192"/>
-      <c r="H27" s="192"/>
-      <c r="I27" s="192"/>
-      <c r="J27" s="193"/>
+      <c r="C27" s="187" t="s">
+        <v>211</v>
+      </c>
+      <c r="D27" s="174"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="174"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="175"/>
     </row>
     <row r="28" spans="1:10" s="56" customFormat="1">
       <c r="A28" s="59">
@@ -12479,16 +12479,16 @@
       <c r="B28" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="196" t="s">
+      <c r="C28" s="173" t="s">
         <v>122</v>
       </c>
-      <c r="D28" s="192"/>
-      <c r="E28" s="192"/>
-      <c r="F28" s="192"/>
-      <c r="G28" s="192"/>
-      <c r="H28" s="192"/>
-      <c r="I28" s="192"/>
-      <c r="J28" s="193"/>
+      <c r="D28" s="174"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="174"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="175"/>
     </row>
     <row r="29" spans="1:10" s="56" customFormat="1">
       <c r="A29" s="59">
@@ -12497,16 +12497,16 @@
       <c r="B29" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="196" t="s">
+      <c r="C29" s="173" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="192"/>
-      <c r="E29" s="192"/>
-      <c r="F29" s="192"/>
-      <c r="G29" s="192"/>
-      <c r="H29" s="192"/>
-      <c r="I29" s="192"/>
-      <c r="J29" s="193"/>
+      <c r="D29" s="174"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="174"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="174"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="175"/>
     </row>
     <row r="30" spans="1:10" s="56" customFormat="1">
       <c r="A30" s="59">
@@ -12515,42 +12515,42 @@
       <c r="B30" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="196" t="s">
+      <c r="C30" s="173" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="192"/>
-      <c r="E30" s="192"/>
-      <c r="F30" s="192"/>
-      <c r="G30" s="192"/>
-      <c r="H30" s="192"/>
-      <c r="I30" s="192"/>
-      <c r="J30" s="193"/>
+      <c r="D30" s="174"/>
+      <c r="E30" s="174"/>
+      <c r="F30" s="174"/>
+      <c r="G30" s="174"/>
+      <c r="H30" s="174"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="175"/>
     </row>
     <row r="31" spans="1:10" s="56" customFormat="1">
-      <c r="A31" s="169"/>
-      <c r="B31" s="227"/>
-      <c r="C31" s="227"/>
-      <c r="D31" s="227"/>
-      <c r="E31" s="227"/>
-      <c r="F31" s="227"/>
-      <c r="G31" s="227"/>
-      <c r="H31" s="227"/>
-      <c r="I31" s="227"/>
-      <c r="J31" s="228"/>
+      <c r="A31" s="191"/>
+      <c r="B31" s="241"/>
+      <c r="C31" s="241"/>
+      <c r="D31" s="241"/>
+      <c r="E31" s="241"/>
+      <c r="F31" s="241"/>
+      <c r="G31" s="241"/>
+      <c r="H31" s="241"/>
+      <c r="I31" s="241"/>
+      <c r="J31" s="242"/>
     </row>
     <row r="32" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="181" t="s">
+      <c r="A32" s="164" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="182"/>
-      <c r="C32" s="182"/>
-      <c r="D32" s="182"/>
-      <c r="E32" s="182"/>
-      <c r="F32" s="182"/>
-      <c r="G32" s="182"/>
-      <c r="H32" s="182"/>
-      <c r="I32" s="182"/>
-      <c r="J32" s="183"/>
+      <c r="B32" s="203"/>
+      <c r="C32" s="203"/>
+      <c r="D32" s="203"/>
+      <c r="E32" s="203"/>
+      <c r="F32" s="203"/>
+      <c r="G32" s="203"/>
+      <c r="H32" s="203"/>
+      <c r="I32" s="203"/>
+      <c r="J32" s="204"/>
     </row>
     <row r="33" spans="1:12" s="77" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="60" t="s">
@@ -12565,14 +12565,14 @@
       <c r="D33" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="E33" s="231" t="s">
+      <c r="E33" s="236" t="s">
         <v>181</v>
       </c>
-      <c r="F33" s="232"/>
-      <c r="G33" s="232"/>
-      <c r="H33" s="232"/>
-      <c r="I33" s="232"/>
-      <c r="J33" s="233"/>
+      <c r="F33" s="237"/>
+      <c r="G33" s="237"/>
+      <c r="H33" s="237"/>
+      <c r="I33" s="237"/>
+      <c r="J33" s="238"/>
       <c r="K33" s="56"/>
       <c r="L33" s="56"/>
     </row>
@@ -12584,217 +12584,217 @@
         <v>191</v>
       </c>
       <c r="C34" s="83" t="s">
+        <v>264</v>
+      </c>
+      <c r="D34" s="98"/>
+      <c r="E34" s="144" t="s">
+        <v>192</v>
+      </c>
+      <c r="F34" s="130"/>
+      <c r="G34" s="130"/>
+      <c r="H34" s="130"/>
+      <c r="I34" s="130"/>
+      <c r="J34" s="130"/>
+    </row>
+    <row r="35" spans="1:12" s="58" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A35" s="207"/>
+      <c r="B35" s="207"/>
+      <c r="C35" s="97" t="s">
         <v>265</v>
       </c>
-      <c r="D34" s="98"/>
-      <c r="E34" s="184" t="s">
-        <v>192</v>
-      </c>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="116"/>
-    </row>
-    <row r="35" spans="1:12" s="58" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A35" s="146"/>
-      <c r="B35" s="146"/>
-      <c r="C35" s="97" t="s">
+      <c r="D35" s="99" t="s">
         <v>266</v>
       </c>
-      <c r="D35" s="99" t="s">
+      <c r="E35" s="217" t="s">
         <v>267</v>
       </c>
-      <c r="E35" s="153" t="s">
-        <v>268</v>
-      </c>
-      <c r="F35" s="154"/>
-      <c r="G35" s="154"/>
-      <c r="H35" s="154"/>
-      <c r="I35" s="154"/>
-      <c r="J35" s="155"/>
+      <c r="F35" s="218"/>
+      <c r="G35" s="218"/>
+      <c r="H35" s="218"/>
+      <c r="I35" s="218"/>
+      <c r="J35" s="219"/>
       <c r="K35" s="56"/>
       <c r="L35" s="56"/>
     </row>
     <row r="36" spans="1:12" s="56" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A36" s="146"/>
-      <c r="B36" s="146"/>
+      <c r="A36" s="207"/>
+      <c r="B36" s="207"/>
       <c r="C36" s="97" t="s">
+        <v>268</v>
+      </c>
+      <c r="D36" s="69"/>
+      <c r="E36" s="217" t="s">
         <v>269</v>
       </c>
-      <c r="D36" s="69"/>
-      <c r="E36" s="153" t="s">
+      <c r="F36" s="218"/>
+      <c r="G36" s="218"/>
+      <c r="H36" s="218"/>
+      <c r="I36" s="218"/>
+      <c r="J36" s="219"/>
+    </row>
+    <row r="37" spans="1:12" s="56" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A37" s="208"/>
+      <c r="B37" s="208"/>
+      <c r="C37" s="97" t="s">
         <v>270</v>
-      </c>
-      <c r="F36" s="154"/>
-      <c r="G36" s="154"/>
-      <c r="H36" s="154"/>
-      <c r="I36" s="154"/>
-      <c r="J36" s="155"/>
-    </row>
-    <row r="37" spans="1:12" s="56" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A37" s="147"/>
-      <c r="B37" s="147"/>
-      <c r="C37" s="97" t="s">
-        <v>271</v>
       </c>
       <c r="D37" s="97" t="s">
         <v>193</v>
       </c>
-      <c r="E37" s="156" t="s">
-        <v>272</v>
-      </c>
-      <c r="F37" s="157"/>
-      <c r="G37" s="157"/>
-      <c r="H37" s="157"/>
-      <c r="I37" s="157"/>
-      <c r="J37" s="157"/>
+      <c r="E37" s="188" t="s">
+        <v>271</v>
+      </c>
+      <c r="F37" s="220"/>
+      <c r="G37" s="220"/>
+      <c r="H37" s="220"/>
+      <c r="I37" s="220"/>
+      <c r="J37" s="220"/>
     </row>
     <row r="38" spans="1:12" s="56" customFormat="1">
-      <c r="A38" s="158" t="s">
+      <c r="A38" s="221" t="s">
         <v>194</v>
       </c>
-      <c r="B38" s="159"/>
-      <c r="C38" s="159"/>
-      <c r="D38" s="159"/>
-      <c r="E38" s="159"/>
-      <c r="F38" s="159"/>
-      <c r="G38" s="159"/>
-      <c r="H38" s="159"/>
-      <c r="I38" s="159"/>
-      <c r="J38" s="160"/>
+      <c r="B38" s="222"/>
+      <c r="C38" s="222"/>
+      <c r="D38" s="222"/>
+      <c r="E38" s="222"/>
+      <c r="F38" s="222"/>
+      <c r="G38" s="222"/>
+      <c r="H38" s="222"/>
+      <c r="I38" s="222"/>
+      <c r="J38" s="223"/>
     </row>
     <row r="39" spans="1:12" s="56" customFormat="1" ht="37.5" customHeight="1">
       <c r="A39" s="145">
         <v>1</v>
       </c>
-      <c r="B39" s="162" t="s">
+      <c r="B39" s="147" t="s">
         <v>195</v>
       </c>
       <c r="C39" s="93" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D39" s="97"/>
-      <c r="E39" s="184" t="s">
+      <c r="E39" s="144" t="s">
+        <v>272</v>
+      </c>
+      <c r="F39" s="130"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="130"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="130"/>
+    </row>
+    <row r="40" spans="1:12" s="56" customFormat="1" ht="49.5">
+      <c r="A40" s="146"/>
+      <c r="B40" s="148"/>
+      <c r="C40" s="85" t="s">
         <v>273</v>
       </c>
-      <c r="F39" s="116"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="116"/>
-      <c r="I39" s="116"/>
-      <c r="J39" s="116"/>
-    </row>
-    <row r="40" spans="1:12" s="56" customFormat="1" ht="49.5">
-      <c r="A40" s="161"/>
-      <c r="B40" s="163"/>
-      <c r="C40" s="85" t="s">
+      <c r="D40" s="99" t="s">
+        <v>266</v>
+      </c>
+      <c r="E40" s="160" t="s">
         <v>274</v>
       </c>
-      <c r="D40" s="99" t="s">
-        <v>267</v>
-      </c>
-      <c r="E40" s="207" t="s">
-        <v>275</v>
-      </c>
-      <c r="F40" s="238"/>
-      <c r="G40" s="238"/>
-      <c r="H40" s="238"/>
-      <c r="I40" s="238"/>
-      <c r="J40" s="239"/>
+      <c r="F40" s="231"/>
+      <c r="G40" s="231"/>
+      <c r="H40" s="231"/>
+      <c r="I40" s="231"/>
+      <c r="J40" s="232"/>
     </row>
     <row r="41" spans="1:12" s="56" customFormat="1" ht="37.5" customHeight="1">
       <c r="A41" s="67">
         <v>2</v>
       </c>
       <c r="B41" s="68" t="s">
+        <v>275</v>
+      </c>
+      <c r="C41" s="93" t="s">
         <v>276</v>
       </c>
-      <c r="C41" s="93" t="s">
+      <c r="D41" s="99"/>
+      <c r="E41" s="233" t="s">
         <v>277</v>
       </c>
-      <c r="D41" s="99"/>
-      <c r="E41" s="240" t="s">
-        <v>278</v>
-      </c>
-      <c r="F41" s="241"/>
-      <c r="G41" s="241"/>
-      <c r="H41" s="241"/>
-      <c r="I41" s="241"/>
-      <c r="J41" s="242"/>
+      <c r="F41" s="234"/>
+      <c r="G41" s="234"/>
+      <c r="H41" s="234"/>
+      <c r="I41" s="234"/>
+      <c r="J41" s="235"/>
     </row>
     <row r="42" spans="1:12" s="56" customFormat="1" ht="99" customHeight="1">
       <c r="A42" s="67"/>
       <c r="B42" s="68"/>
       <c r="C42" s="97" t="s">
+        <v>278</v>
+      </c>
+      <c r="D42" s="97" t="s">
+        <v>266</v>
+      </c>
+      <c r="E42" s="227" t="s">
         <v>279</v>
       </c>
-      <c r="D42" s="97" t="s">
-        <v>267</v>
-      </c>
-      <c r="E42" s="234" t="s">
-        <v>280</v>
-      </c>
-      <c r="F42" s="235"/>
-      <c r="G42" s="235"/>
-      <c r="H42" s="235"/>
-      <c r="I42" s="235"/>
-      <c r="J42" s="235"/>
+      <c r="F42" s="228"/>
+      <c r="G42" s="228"/>
+      <c r="H42" s="228"/>
+      <c r="I42" s="228"/>
+      <c r="J42" s="228"/>
     </row>
     <row r="43" spans="1:12" s="56" customFormat="1" ht="37.5" customHeight="1">
       <c r="A43" s="67"/>
       <c r="B43" s="68"/>
       <c r="C43" s="97" t="s">
+        <v>280</v>
+      </c>
+      <c r="D43" s="92" t="s">
         <v>281</v>
       </c>
-      <c r="D43" s="92" t="s">
+      <c r="E43" s="141" t="s">
         <v>282</v>
       </c>
-      <c r="E43" s="136" t="s">
-        <v>283</v>
-      </c>
-      <c r="F43" s="236"/>
-      <c r="G43" s="236"/>
-      <c r="H43" s="236"/>
-      <c r="I43" s="236"/>
-      <c r="J43" s="237"/>
+      <c r="F43" s="229"/>
+      <c r="G43" s="229"/>
+      <c r="H43" s="229"/>
+      <c r="I43" s="229"/>
+      <c r="J43" s="230"/>
     </row>
     <row r="44" spans="1:12" s="56" customFormat="1" ht="91.5" customHeight="1">
       <c r="A44" s="67"/>
       <c r="B44" s="68"/>
       <c r="C44" s="97" t="s">
+        <v>283</v>
+      </c>
+      <c r="D44" s="92" t="s">
         <v>284</v>
       </c>
-      <c r="D44" s="92" t="s">
+      <c r="E44" s="141" t="s">
         <v>285</v>
       </c>
-      <c r="E44" s="136" t="s">
-        <v>286</v>
-      </c>
-      <c r="F44" s="236"/>
-      <c r="G44" s="236"/>
-      <c r="H44" s="236"/>
-      <c r="I44" s="236"/>
-      <c r="J44" s="237"/>
+      <c r="F44" s="229"/>
+      <c r="G44" s="229"/>
+      <c r="H44" s="229"/>
+      <c r="I44" s="229"/>
+      <c r="J44" s="230"/>
     </row>
     <row r="45" spans="1:12" s="56" customFormat="1" ht="105.75" customHeight="1">
       <c r="A45" s="69">
         <v>3</v>
       </c>
       <c r="B45" s="100" t="s">
+        <v>286</v>
+      </c>
+      <c r="C45" s="93" t="s">
         <v>287</v>
       </c>
-      <c r="C45" s="93" t="s">
-        <v>288</v>
-      </c>
       <c r="D45" s="92"/>
-      <c r="E45" s="136" t="s">
-        <v>321</v>
-      </c>
-      <c r="F45" s="120"/>
-      <c r="G45" s="120"/>
-      <c r="H45" s="120"/>
-      <c r="I45" s="120"/>
-      <c r="J45" s="121"/>
+      <c r="E45" s="141" t="s">
+        <v>320</v>
+      </c>
+      <c r="F45" s="121"/>
+      <c r="G45" s="121"/>
+      <c r="H45" s="121"/>
+      <c r="I45" s="121"/>
+      <c r="J45" s="122"/>
     </row>
     <row r="46" spans="1:12" s="56" customFormat="1">
       <c r="A46" s="101"/>
@@ -12809,96 +12809,96 @@
       <c r="J46" s="96"/>
     </row>
     <row r="47" spans="1:12" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A47" s="150" t="s">
+      <c r="A47" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="151"/>
-      <c r="C47" s="151"/>
-      <c r="D47" s="151"/>
-      <c r="E47" s="151"/>
-      <c r="F47" s="151"/>
-      <c r="G47" s="151"/>
-      <c r="H47" s="151"/>
-      <c r="I47" s="151"/>
-      <c r="J47" s="152"/>
+      <c r="B47" s="215"/>
+      <c r="C47" s="215"/>
+      <c r="D47" s="215"/>
+      <c r="E47" s="215"/>
+      <c r="F47" s="215"/>
+      <c r="G47" s="215"/>
+      <c r="H47" s="215"/>
+      <c r="I47" s="215"/>
+      <c r="J47" s="216"/>
     </row>
     <row r="48" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="148" t="s">
+      <c r="B48" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="149"/>
-      <c r="D48" s="136" t="s">
+      <c r="C48" s="213"/>
+      <c r="D48" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="120"/>
-      <c r="F48" s="120"/>
-      <c r="G48" s="120"/>
-      <c r="H48" s="120"/>
-      <c r="I48" s="120"/>
-      <c r="J48" s="121"/>
+      <c r="E48" s="121"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="121"/>
+      <c r="H48" s="121"/>
+      <c r="I48" s="121"/>
+      <c r="J48" s="122"/>
     </row>
     <row r="49" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A49" s="141"/>
-      <c r="B49" s="229"/>
-      <c r="C49" s="229"/>
-      <c r="D49" s="229"/>
-      <c r="E49" s="229"/>
-      <c r="F49" s="229"/>
-      <c r="G49" s="229"/>
-      <c r="H49" s="229"/>
-      <c r="I49" s="229"/>
-      <c r="J49" s="230"/>
+      <c r="A49" s="209"/>
+      <c r="B49" s="239"/>
+      <c r="C49" s="239"/>
+      <c r="D49" s="239"/>
+      <c r="E49" s="239"/>
+      <c r="F49" s="239"/>
+      <c r="G49" s="239"/>
+      <c r="H49" s="239"/>
+      <c r="I49" s="239"/>
+      <c r="J49" s="240"/>
     </row>
     <row r="50" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="69"/>
-      <c r="B50" s="139"/>
+      <c r="B50" s="169"/>
       <c r="C50" s="140"/>
-      <c r="D50" s="136"/>
-      <c r="E50" s="120"/>
-      <c r="F50" s="120"/>
-      <c r="G50" s="120"/>
-      <c r="H50" s="120"/>
-      <c r="I50" s="120"/>
-      <c r="J50" s="121"/>
+      <c r="D50" s="141"/>
+      <c r="E50" s="121"/>
+      <c r="F50" s="121"/>
+      <c r="G50" s="121"/>
+      <c r="H50" s="121"/>
+      <c r="I50" s="121"/>
+      <c r="J50" s="122"/>
     </row>
     <row r="51" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="69"/>
-      <c r="B51" s="139"/>
+      <c r="B51" s="169"/>
       <c r="C51" s="140"/>
-      <c r="D51" s="136"/>
-      <c r="E51" s="120"/>
-      <c r="F51" s="120"/>
-      <c r="G51" s="120"/>
-      <c r="H51" s="120"/>
-      <c r="I51" s="120"/>
-      <c r="J51" s="121"/>
+      <c r="D51" s="141"/>
+      <c r="E51" s="121"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="121"/>
+      <c r="H51" s="121"/>
+      <c r="I51" s="121"/>
+      <c r="J51" s="122"/>
     </row>
     <row r="52" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="141"/>
-      <c r="B52" s="229"/>
-      <c r="C52" s="229"/>
-      <c r="D52" s="229"/>
-      <c r="E52" s="229"/>
-      <c r="F52" s="229"/>
-      <c r="G52" s="229"/>
-      <c r="H52" s="229"/>
-      <c r="I52" s="229"/>
-      <c r="J52" s="230"/>
+      <c r="A52" s="209"/>
+      <c r="B52" s="239"/>
+      <c r="C52" s="239"/>
+      <c r="D52" s="239"/>
+      <c r="E52" s="239"/>
+      <c r="F52" s="239"/>
+      <c r="G52" s="239"/>
+      <c r="H52" s="239"/>
+      <c r="I52" s="239"/>
+      <c r="J52" s="240"/>
     </row>
     <row r="53" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="69"/>
-      <c r="B53" s="139"/>
+      <c r="B53" s="169"/>
       <c r="C53" s="140"/>
-      <c r="D53" s="136"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
-      <c r="I53" s="120"/>
-      <c r="J53" s="121"/>
+      <c r="D53" s="141"/>
+      <c r="E53" s="121"/>
+      <c r="F53" s="121"/>
+      <c r="G53" s="121"/>
+      <c r="H53" s="121"/>
+      <c r="I53" s="121"/>
+      <c r="J53" s="122"/>
     </row>
     <row r="54" spans="1:10" s="56" customFormat="1" ht="17.25" customHeight="1">
       <c r="A54" s="72" t="s">
@@ -12921,14 +12921,14 @@
       <c r="B55" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="139"/>
-      <c r="D55" s="120"/>
-      <c r="E55" s="120"/>
-      <c r="F55" s="120"/>
-      <c r="G55" s="120"/>
-      <c r="H55" s="120"/>
-      <c r="I55" s="120"/>
-      <c r="J55" s="121"/>
+      <c r="C55" s="169"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="121"/>
+      <c r="F55" s="121"/>
+      <c r="G55" s="121"/>
+      <c r="H55" s="121"/>
+      <c r="I55" s="121"/>
+      <c r="J55" s="122"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="69">
@@ -12937,38 +12937,36 @@
       <c r="B56" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="156"/>
-      <c r="D56" s="156"/>
-      <c r="E56" s="156"/>
-      <c r="F56" s="156"/>
-      <c r="G56" s="156"/>
-      <c r="H56" s="156"/>
-      <c r="I56" s="156"/>
-      <c r="J56" s="156"/>
+      <c r="C56" s="188"/>
+      <c r="D56" s="188"/>
+      <c r="E56" s="188"/>
+      <c r="F56" s="188"/>
+      <c r="G56" s="188"/>
+      <c r="H56" s="188"/>
+      <c r="I56" s="188"/>
+      <c r="J56" s="188"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="E45:J45"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C29:J29"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="D53:J53"/>
@@ -12985,25 +12983,27 @@
     <mergeCell ref="A47:J47"/>
     <mergeCell ref="E34:J34"/>
     <mergeCell ref="E39:J39"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -13055,7 +13055,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="167" t="s">
+      <c r="K1" s="189" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="39"/>
@@ -13082,7 +13082,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="168"/>
+      <c r="K2" s="190"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -13100,7 +13100,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="168"/>
+      <c r="K3" s="190"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -13469,7 +13469,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="167" t="s">
+      <c r="K1" s="189" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="54"/>
@@ -13490,7 +13490,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="168"/>
+      <c r="K2" s="190"/>
     </row>
     <row r="3" spans="1:17" s="55" customFormat="1">
       <c r="A3" s="47"/>
@@ -13503,7 +13503,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="168"/>
+      <c r="K3" s="190"/>
     </row>
     <row r="4" spans="1:17" s="55" customFormat="1">
       <c r="A4" s="47"/>
@@ -13518,7 +13518,7 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="172" t="s">
+      <c r="A5" s="194" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="118"/>
@@ -13532,57 +13532,57 @@
       <c r="J5" s="119"/>
     </row>
     <row r="6" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="122"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="124"/>
+      <c r="A6" s="133"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="135"/>
     </row>
     <row r="7" spans="1:17" s="56" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="173"/>
-      <c r="B7" s="174"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="176"/>
+      <c r="A7" s="195"/>
+      <c r="B7" s="196"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="198"/>
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:17" s="56" customFormat="1">
-      <c r="A8" s="173"/>
-      <c r="B8" s="174"/>
-      <c r="C8" s="174"/>
-      <c r="D8" s="174"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="176"/>
+      <c r="A8" s="195"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="196"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="198"/>
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:17" s="56" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="177"/>
-      <c r="B9" s="178"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="179"/>
+      <c r="A9" s="199"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="200"/>
+      <c r="E9" s="200"/>
+      <c r="F9" s="200"/>
+      <c r="G9" s="200"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="200"/>
+      <c r="J9" s="201"/>
     </row>
     <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="172" t="s">
+      <c r="A10" s="194" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="118"/>
@@ -13596,21 +13596,21 @@
       <c r="J10" s="119"/>
     </row>
     <row r="11" spans="1:17" s="58" customFormat="1" ht="129" customHeight="1">
-      <c r="A11" s="180" t="s">
+      <c r="A11" s="202" t="s">
         <v>172</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="121"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="122"/>
     </row>
     <row r="12" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="172" t="s">
+      <c r="A12" s="194" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="118"/>
@@ -13624,21 +13624,21 @@
       <c r="J12" s="119"/>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="180" t="s">
+      <c r="A13" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="121"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="122"/>
     </row>
     <row r="14" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="172" t="s">
+      <c r="A14" s="194" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="118"/>
@@ -13652,18 +13652,18 @@
       <c r="J14" s="119"/>
     </row>
     <row r="15" spans="1:17" s="56" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A15" s="185" t="s">
+      <c r="A15" s="176" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="186"/>
-      <c r="C15" s="186"/>
-      <c r="D15" s="186"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="187"/>
+      <c r="B15" s="185"/>
+      <c r="C15" s="185"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="186"/>
     </row>
     <row r="16" spans="1:17" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="59" t="s">
@@ -13672,16 +13672,16 @@
       <c r="B16" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="188" t="s">
+      <c r="C16" s="170" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="189"/>
-      <c r="E16" s="189"/>
-      <c r="F16" s="189"/>
-      <c r="G16" s="189"/>
-      <c r="H16" s="189"/>
-      <c r="I16" s="189"/>
-      <c r="J16" s="190"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="171"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="172"/>
     </row>
     <row r="17" spans="1:10" s="56" customFormat="1" ht="74.25" customHeight="1">
       <c r="A17" s="59">
@@ -13690,16 +13690,16 @@
       <c r="B17" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="191" t="s">
-        <v>263</v>
-      </c>
-      <c r="D17" s="192"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="193"/>
+      <c r="C17" s="187" t="s">
+        <v>262</v>
+      </c>
+      <c r="D17" s="174"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="174"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="175"/>
     </row>
     <row r="18" spans="1:10" s="56" customFormat="1" ht="67.5" customHeight="1">
       <c r="A18" s="59">
@@ -13708,16 +13708,16 @@
       <c r="B18" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="191" t="s">
-        <v>264</v>
-      </c>
-      <c r="D18" s="192"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="192"/>
-      <c r="H18" s="192"/>
-      <c r="I18" s="192"/>
-      <c r="J18" s="193"/>
+      <c r="C18" s="187" t="s">
+        <v>263</v>
+      </c>
+      <c r="D18" s="174"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="175"/>
     </row>
     <row r="19" spans="1:10" s="56" customFormat="1">
       <c r="A19" s="59">
@@ -13726,16 +13726,16 @@
       <c r="B19" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="196" t="s">
+      <c r="C19" s="173" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="192"/>
-      <c r="E19" s="192"/>
-      <c r="F19" s="192"/>
-      <c r="G19" s="192"/>
-      <c r="H19" s="192"/>
-      <c r="I19" s="192"/>
-      <c r="J19" s="193"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="175"/>
     </row>
     <row r="20" spans="1:10" s="56" customFormat="1">
       <c r="A20" s="59">
@@ -13744,16 +13744,16 @@
       <c r="B20" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="196" t="s">
+      <c r="C20" s="173" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="192"/>
-      <c r="E20" s="192"/>
-      <c r="F20" s="192"/>
-      <c r="G20" s="192"/>
-      <c r="H20" s="192"/>
-      <c r="I20" s="192"/>
-      <c r="J20" s="193"/>
+      <c r="D20" s="174"/>
+      <c r="E20" s="174"/>
+      <c r="F20" s="174"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="174"/>
+      <c r="J20" s="175"/>
     </row>
     <row r="21" spans="1:10" s="56" customFormat="1">
       <c r="A21" s="59">
@@ -13762,84 +13762,84 @@
       <c r="B21" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="196" t="s">
+      <c r="C21" s="173" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="192"/>
-      <c r="E21" s="192"/>
-      <c r="F21" s="192"/>
-      <c r="G21" s="192"/>
-      <c r="H21" s="192"/>
-      <c r="I21" s="192"/>
-      <c r="J21" s="193"/>
+      <c r="D21" s="174"/>
+      <c r="E21" s="174"/>
+      <c r="F21" s="174"/>
+      <c r="G21" s="174"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="174"/>
+      <c r="J21" s="175"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1">
-      <c r="A22" s="139"/>
-      <c r="B22" s="144"/>
-      <c r="C22" s="144"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="144"/>
-      <c r="I22" s="144"/>
+      <c r="A22" s="169"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
       <c r="J22" s="140"/>
     </row>
     <row r="23" spans="1:10" s="56" customFormat="1">
-      <c r="A23" s="185" t="s">
+      <c r="A23" s="176" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="186"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="186"/>
-      <c r="E23" s="186"/>
-      <c r="F23" s="186"/>
-      <c r="G23" s="186"/>
-      <c r="H23" s="186"/>
-      <c r="I23" s="186"/>
-      <c r="J23" s="187"/>
+      <c r="B23" s="185"/>
+      <c r="C23" s="185"/>
+      <c r="D23" s="185"/>
+      <c r="E23" s="185"/>
+      <c r="F23" s="185"/>
+      <c r="G23" s="185"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="185"/>
+      <c r="J23" s="186"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A24" s="243" t="s">
+      <c r="A24" s="249" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="170"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="170"/>
-      <c r="H24" s="170"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="171"/>
+      <c r="B24" s="192"/>
+      <c r="C24" s="192"/>
+      <c r="D24" s="192"/>
+      <c r="E24" s="192"/>
+      <c r="F24" s="192"/>
+      <c r="G24" s="192"/>
+      <c r="H24" s="192"/>
+      <c r="I24" s="192"/>
+      <c r="J24" s="193"/>
     </row>
     <row r="25" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="181" t="s">
+      <c r="A25" s="164" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="182"/>
-      <c r="C25" s="182"/>
-      <c r="D25" s="182"/>
-      <c r="E25" s="182"/>
-      <c r="F25" s="182"/>
-      <c r="G25" s="182"/>
-      <c r="H25" s="182"/>
-      <c r="I25" s="182"/>
-      <c r="J25" s="183"/>
+      <c r="B25" s="203"/>
+      <c r="C25" s="203"/>
+      <c r="D25" s="203"/>
+      <c r="E25" s="203"/>
+      <c r="F25" s="203"/>
+      <c r="G25" s="203"/>
+      <c r="H25" s="203"/>
+      <c r="I25" s="203"/>
+      <c r="J25" s="204"/>
     </row>
     <row r="26" spans="1:10" s="56" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A26" s="185" t="s">
+      <c r="A26" s="176" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="186"/>
-      <c r="C26" s="186"/>
-      <c r="D26" s="186"/>
-      <c r="E26" s="186"/>
-      <c r="F26" s="186"/>
-      <c r="G26" s="186"/>
-      <c r="H26" s="186"/>
-      <c r="I26" s="186"/>
-      <c r="J26" s="187"/>
+      <c r="B26" s="185"/>
+      <c r="C26" s="185"/>
+      <c r="D26" s="185"/>
+      <c r="E26" s="185"/>
+      <c r="F26" s="185"/>
+      <c r="G26" s="185"/>
+      <c r="H26" s="185"/>
+      <c r="I26" s="185"/>
+      <c r="J26" s="186"/>
     </row>
     <row r="27" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="59" t="s">
@@ -13848,16 +13848,16 @@
       <c r="B27" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="188" t="s">
+      <c r="C27" s="170" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="189"/>
-      <c r="E27" s="189"/>
-      <c r="F27" s="189"/>
-      <c r="G27" s="189"/>
-      <c r="H27" s="189"/>
-      <c r="I27" s="189"/>
-      <c r="J27" s="190"/>
+      <c r="D27" s="171"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="171"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="172"/>
     </row>
     <row r="28" spans="1:10" s="56" customFormat="1" ht="33" customHeight="1">
       <c r="A28" s="59">
@@ -13866,16 +13866,16 @@
       <c r="B28" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="191" t="s">
-        <v>213</v>
-      </c>
-      <c r="D28" s="192"/>
-      <c r="E28" s="192"/>
-      <c r="F28" s="192"/>
-      <c r="G28" s="192"/>
-      <c r="H28" s="192"/>
-      <c r="I28" s="192"/>
-      <c r="J28" s="193"/>
+      <c r="C28" s="187" t="s">
+        <v>212</v>
+      </c>
+      <c r="D28" s="174"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="174"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="175"/>
     </row>
     <row r="29" spans="1:10" s="56" customFormat="1" ht="32.25" customHeight="1">
       <c r="A29" s="59">
@@ -13884,16 +13884,16 @@
       <c r="B29" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="191" t="s">
-        <v>214</v>
-      </c>
-      <c r="D29" s="192"/>
-      <c r="E29" s="192"/>
-      <c r="F29" s="192"/>
-      <c r="G29" s="192"/>
-      <c r="H29" s="192"/>
-      <c r="I29" s="192"/>
-      <c r="J29" s="193"/>
+      <c r="C29" s="187" t="s">
+        <v>213</v>
+      </c>
+      <c r="D29" s="174"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="174"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="174"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="175"/>
     </row>
     <row r="30" spans="1:10" s="56" customFormat="1">
       <c r="A30" s="59">
@@ -13902,16 +13902,16 @@
       <c r="B30" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="196" t="s">
+      <c r="C30" s="173" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="192"/>
-      <c r="E30" s="192"/>
-      <c r="F30" s="192"/>
-      <c r="G30" s="192"/>
-      <c r="H30" s="192"/>
-      <c r="I30" s="192"/>
-      <c r="J30" s="193"/>
+      <c r="D30" s="174"/>
+      <c r="E30" s="174"/>
+      <c r="F30" s="174"/>
+      <c r="G30" s="174"/>
+      <c r="H30" s="174"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="175"/>
     </row>
     <row r="31" spans="1:10" s="56" customFormat="1">
       <c r="A31" s="59">
@@ -13920,16 +13920,16 @@
       <c r="B31" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="196" t="s">
+      <c r="C31" s="173" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="192"/>
-      <c r="E31" s="192"/>
-      <c r="F31" s="192"/>
-      <c r="G31" s="192"/>
-      <c r="H31" s="192"/>
-      <c r="I31" s="192"/>
-      <c r="J31" s="193"/>
+      <c r="D31" s="174"/>
+      <c r="E31" s="174"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="174"/>
+      <c r="H31" s="174"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="175"/>
     </row>
     <row r="32" spans="1:10" s="56" customFormat="1">
       <c r="A32" s="59">
@@ -13938,70 +13938,70 @@
       <c r="B32" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="196" t="s">
+      <c r="C32" s="173" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="192"/>
-      <c r="E32" s="192"/>
-      <c r="F32" s="192"/>
-      <c r="G32" s="192"/>
-      <c r="H32" s="192"/>
-      <c r="I32" s="192"/>
-      <c r="J32" s="193"/>
+      <c r="D32" s="174"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="174"/>
+      <c r="H32" s="174"/>
+      <c r="I32" s="174"/>
+      <c r="J32" s="175"/>
     </row>
     <row r="33" spans="1:12" s="56" customFormat="1">
-      <c r="A33" s="169"/>
-      <c r="B33" s="227"/>
-      <c r="C33" s="227"/>
-      <c r="D33" s="227"/>
-      <c r="E33" s="227"/>
-      <c r="F33" s="227"/>
-      <c r="G33" s="227"/>
-      <c r="H33" s="227"/>
-      <c r="I33" s="227"/>
-      <c r="J33" s="228"/>
+      <c r="A33" s="191"/>
+      <c r="B33" s="241"/>
+      <c r="C33" s="241"/>
+      <c r="D33" s="241"/>
+      <c r="E33" s="241"/>
+      <c r="F33" s="241"/>
+      <c r="G33" s="241"/>
+      <c r="H33" s="241"/>
+      <c r="I33" s="241"/>
+      <c r="J33" s="242"/>
     </row>
     <row r="34" spans="1:12" s="56" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A34" s="185" t="s">
+      <c r="A34" s="176" t="s">
         <v>196</v>
       </c>
-      <c r="B34" s="186"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="186"/>
-      <c r="I34" s="186"/>
-      <c r="J34" s="187"/>
+      <c r="B34" s="185"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="185"/>
+      <c r="E34" s="185"/>
+      <c r="F34" s="185"/>
+      <c r="G34" s="185"/>
+      <c r="H34" s="185"/>
+      <c r="I34" s="185"/>
+      <c r="J34" s="186"/>
     </row>
     <row r="35" spans="1:12" s="56" customFormat="1" ht="27" customHeight="1">
-      <c r="A35" s="248" t="s">
+      <c r="A35" s="246" t="s">
         <v>197</v>
       </c>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="249"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="130"/>
+      <c r="J35" s="247"/>
     </row>
     <row r="36" spans="1:12" s="77" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="181" t="s">
+      <c r="A36" s="164" t="s">
         <v>176</v>
       </c>
-      <c r="B36" s="182"/>
-      <c r="C36" s="182"/>
-      <c r="D36" s="182"/>
-      <c r="E36" s="182"/>
-      <c r="F36" s="182"/>
-      <c r="G36" s="182"/>
-      <c r="H36" s="182"/>
-      <c r="I36" s="182"/>
-      <c r="J36" s="183"/>
+      <c r="B36" s="203"/>
+      <c r="C36" s="203"/>
+      <c r="D36" s="203"/>
+      <c r="E36" s="203"/>
+      <c r="F36" s="203"/>
+      <c r="G36" s="203"/>
+      <c r="H36" s="203"/>
+      <c r="I36" s="203"/>
+      <c r="J36" s="204"/>
       <c r="K36" s="56"/>
       <c r="L36" s="56"/>
     </row>
@@ -14018,278 +14018,278 @@
       <c r="D37" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="E37" s="231" t="s">
+      <c r="E37" s="236" t="s">
         <v>181</v>
       </c>
-      <c r="F37" s="232"/>
-      <c r="G37" s="232"/>
-      <c r="H37" s="232"/>
-      <c r="I37" s="232"/>
-      <c r="J37" s="233"/>
+      <c r="F37" s="237"/>
+      <c r="G37" s="237"/>
+      <c r="H37" s="237"/>
+      <c r="I37" s="237"/>
+      <c r="J37" s="238"/>
     </row>
     <row r="38" spans="1:12" s="58" customFormat="1" ht="33">
       <c r="A38" s="145">
         <v>1</v>
       </c>
       <c r="B38" s="145" t="s">
+        <v>288</v>
+      </c>
+      <c r="C38" s="83" t="s">
         <v>289</v>
       </c>
-      <c r="C38" s="83" t="s">
+      <c r="D38" s="98"/>
+      <c r="E38" s="144" t="s">
         <v>290</v>
       </c>
-      <c r="D38" s="98"/>
-      <c r="E38" s="184" t="s">
-        <v>291</v>
-      </c>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
+      <c r="F38" s="130"/>
+      <c r="G38" s="130"/>
+      <c r="H38" s="130"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="130"/>
       <c r="K38" s="56"/>
       <c r="L38" s="56"/>
     </row>
     <row r="39" spans="1:12" s="56" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A39" s="146"/>
-      <c r="B39" s="146"/>
+      <c r="A39" s="207"/>
+      <c r="B39" s="207"/>
       <c r="C39" s="97" t="s">
+        <v>291</v>
+      </c>
+      <c r="D39" s="83" t="s">
         <v>292</v>
       </c>
-      <c r="D39" s="83" t="s">
+      <c r="E39" s="217" t="s">
         <v>293</v>
       </c>
-      <c r="E39" s="153" t="s">
+      <c r="F39" s="218"/>
+      <c r="G39" s="218"/>
+      <c r="H39" s="218"/>
+      <c r="I39" s="218"/>
+      <c r="J39" s="219"/>
+    </row>
+    <row r="40" spans="1:12" s="56" customFormat="1" ht="33">
+      <c r="A40" s="207"/>
+      <c r="B40" s="207"/>
+      <c r="C40" s="97" t="s">
         <v>294</v>
-      </c>
-      <c r="F39" s="154"/>
-      <c r="G39" s="154"/>
-      <c r="H39" s="154"/>
-      <c r="I39" s="154"/>
-      <c r="J39" s="155"/>
-    </row>
-    <row r="40" spans="1:12" s="56" customFormat="1" ht="33">
-      <c r="A40" s="146"/>
-      <c r="B40" s="146"/>
-      <c r="C40" s="97" t="s">
-        <v>295</v>
       </c>
       <c r="D40" s="83" t="s">
         <v>198</v>
       </c>
-      <c r="E40" s="153" t="s">
+      <c r="E40" s="217" t="s">
+        <v>295</v>
+      </c>
+      <c r="F40" s="218"/>
+      <c r="G40" s="218"/>
+      <c r="H40" s="218"/>
+      <c r="I40" s="218"/>
+      <c r="J40" s="219"/>
+    </row>
+    <row r="41" spans="1:12" s="56" customFormat="1" ht="49.5">
+      <c r="A41" s="207"/>
+      <c r="B41" s="207"/>
+      <c r="C41" s="97" t="s">
         <v>296</v>
-      </c>
-      <c r="F40" s="154"/>
-      <c r="G40" s="154"/>
-      <c r="H40" s="154"/>
-      <c r="I40" s="154"/>
-      <c r="J40" s="155"/>
-    </row>
-    <row r="41" spans="1:12" s="56" customFormat="1" ht="49.5">
-      <c r="A41" s="146"/>
-      <c r="B41" s="146"/>
-      <c r="C41" s="97" t="s">
-        <v>297</v>
       </c>
       <c r="D41" s="83" t="s">
         <v>198</v>
       </c>
-      <c r="E41" s="153" t="s">
+      <c r="E41" s="217" t="s">
+        <v>297</v>
+      </c>
+      <c r="F41" s="218"/>
+      <c r="G41" s="218"/>
+      <c r="H41" s="218"/>
+      <c r="I41" s="218"/>
+      <c r="J41" s="219"/>
+    </row>
+    <row r="42" spans="1:12" s="56" customFormat="1" ht="49.5">
+      <c r="A42" s="207"/>
+      <c r="B42" s="207"/>
+      <c r="C42" s="97" t="s">
         <v>298</v>
       </c>
-      <c r="F41" s="154"/>
-      <c r="G41" s="154"/>
-      <c r="H41" s="154"/>
-      <c r="I41" s="154"/>
-      <c r="J41" s="155"/>
-    </row>
-    <row r="42" spans="1:12" s="56" customFormat="1" ht="49.5">
-      <c r="A42" s="146"/>
-      <c r="B42" s="146"/>
-      <c r="C42" s="97" t="s">
+      <c r="D42" s="69"/>
+      <c r="E42" s="217" t="s">
         <v>299</v>
       </c>
-      <c r="D42" s="69"/>
-      <c r="E42" s="153" t="s">
+      <c r="F42" s="218"/>
+      <c r="G42" s="218"/>
+      <c r="H42" s="218"/>
+      <c r="I42" s="218"/>
+      <c r="J42" s="219"/>
+    </row>
+    <row r="43" spans="1:12" s="58" customFormat="1" ht="48.75" customHeight="1">
+      <c r="A43" s="208"/>
+      <c r="B43" s="208"/>
+      <c r="C43" s="97" t="s">
         <v>300</v>
-      </c>
-      <c r="F42" s="154"/>
-      <c r="G42" s="154"/>
-      <c r="H42" s="154"/>
-      <c r="I42" s="154"/>
-      <c r="J42" s="155"/>
-    </row>
-    <row r="43" spans="1:12" s="58" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A43" s="147"/>
-      <c r="B43" s="147"/>
-      <c r="C43" s="97" t="s">
-        <v>301</v>
       </c>
       <c r="D43" s="97" t="s">
         <v>193</v>
       </c>
-      <c r="E43" s="156" t="s">
-        <v>302</v>
-      </c>
-      <c r="F43" s="157"/>
-      <c r="G43" s="157"/>
-      <c r="H43" s="157"/>
-      <c r="I43" s="157"/>
-      <c r="J43" s="157"/>
+      <c r="E43" s="188" t="s">
+        <v>301</v>
+      </c>
+      <c r="F43" s="220"/>
+      <c r="G43" s="220"/>
+      <c r="H43" s="220"/>
+      <c r="I43" s="220"/>
+      <c r="J43" s="220"/>
     </row>
     <row r="44" spans="1:12" s="58" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A44" s="158" t="s">
+      <c r="A44" s="221" t="s">
         <v>199</v>
       </c>
-      <c r="B44" s="159"/>
-      <c r="C44" s="159"/>
-      <c r="D44" s="159"/>
-      <c r="E44" s="159"/>
-      <c r="F44" s="159"/>
-      <c r="G44" s="159"/>
-      <c r="H44" s="159"/>
-      <c r="I44" s="159"/>
-      <c r="J44" s="160"/>
+      <c r="B44" s="222"/>
+      <c r="C44" s="222"/>
+      <c r="D44" s="222"/>
+      <c r="E44" s="222"/>
+      <c r="F44" s="222"/>
+      <c r="G44" s="222"/>
+      <c r="H44" s="222"/>
+      <c r="I44" s="222"/>
+      <c r="J44" s="223"/>
     </row>
     <row r="45" spans="1:12" s="58" customFormat="1">
       <c r="A45" s="105">
         <v>1</v>
       </c>
       <c r="B45" s="106" t="s">
+        <v>302</v>
+      </c>
+      <c r="C45" s="107" t="s">
         <v>303</v>
       </c>
-      <c r="C45" s="107" t="s">
+      <c r="D45" s="108"/>
+      <c r="E45" s="248" t="s">
         <v>304</v>
       </c>
-      <c r="D45" s="108"/>
-      <c r="E45" s="244" t="s">
-        <v>305</v>
-      </c>
-      <c r="F45" s="244"/>
-      <c r="G45" s="244"/>
-      <c r="H45" s="244"/>
-      <c r="I45" s="244"/>
-      <c r="J45" s="244"/>
+      <c r="F45" s="248"/>
+      <c r="G45" s="248"/>
+      <c r="H45" s="248"/>
+      <c r="I45" s="248"/>
+      <c r="J45" s="248"/>
     </row>
     <row r="46" spans="1:12" s="58" customFormat="1" ht="33">
       <c r="A46" s="67">
         <v>2</v>
       </c>
       <c r="B46" s="68" t="s">
+        <v>305</v>
+      </c>
+      <c r="C46" s="84" t="s">
         <v>306</v>
       </c>
-      <c r="C46" s="84" t="s">
+      <c r="D46" s="99"/>
+      <c r="E46" s="136" t="s">
         <v>307</v>
       </c>
-      <c r="D46" s="99"/>
-      <c r="E46" s="211" t="s">
-        <v>308</v>
-      </c>
-      <c r="F46" s="212"/>
-      <c r="G46" s="212"/>
-      <c r="H46" s="212"/>
-      <c r="I46" s="212"/>
-      <c r="J46" s="213"/>
+      <c r="F46" s="137"/>
+      <c r="G46" s="137"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="137"/>
+      <c r="J46" s="138"/>
     </row>
     <row r="47" spans="1:12" s="58" customFormat="1" ht="33">
       <c r="A47" s="67"/>
       <c r="B47" s="68"/>
       <c r="C47" s="84" t="s">
+        <v>308</v>
+      </c>
+      <c r="D47" s="97" t="s">
         <v>309</v>
       </c>
-      <c r="D47" s="97" t="s">
+      <c r="E47" s="136" t="s">
         <v>310</v>
       </c>
-      <c r="E47" s="211" t="s">
-        <v>311</v>
-      </c>
-      <c r="F47" s="212"/>
-      <c r="G47" s="212"/>
-      <c r="H47" s="212"/>
-      <c r="I47" s="212"/>
-      <c r="J47" s="213"/>
+      <c r="F47" s="137"/>
+      <c r="G47" s="137"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="137"/>
+      <c r="J47" s="138"/>
     </row>
     <row r="48" spans="1:12" s="58" customFormat="1" ht="33">
       <c r="A48" s="67"/>
       <c r="B48" s="68"/>
       <c r="C48" s="84" t="s">
+        <v>311</v>
+      </c>
+      <c r="D48" s="97" t="s">
         <v>312</v>
       </c>
-      <c r="D48" s="97" t="s">
+      <c r="E48" s="141" t="s">
         <v>313</v>
       </c>
-      <c r="E48" s="136" t="s">
-        <v>314</v>
-      </c>
-      <c r="F48" s="236"/>
-      <c r="G48" s="236"/>
-      <c r="H48" s="236"/>
-      <c r="I48" s="236"/>
-      <c r="J48" s="237"/>
+      <c r="F48" s="229"/>
+      <c r="G48" s="229"/>
+      <c r="H48" s="229"/>
+      <c r="I48" s="229"/>
+      <c r="J48" s="230"/>
     </row>
     <row r="49" spans="1:10" s="58" customFormat="1" ht="84" customHeight="1">
       <c r="A49" s="67"/>
       <c r="B49" s="68"/>
       <c r="C49" s="84" t="s">
+        <v>314</v>
+      </c>
+      <c r="D49" s="97" t="s">
         <v>315</v>
       </c>
-      <c r="D49" s="97" t="s">
+      <c r="E49" s="141" t="s">
         <v>316</v>
       </c>
-      <c r="E49" s="136" t="s">
-        <v>317</v>
-      </c>
-      <c r="F49" s="236"/>
-      <c r="G49" s="236"/>
-      <c r="H49" s="236"/>
-      <c r="I49" s="236"/>
-      <c r="J49" s="237"/>
+      <c r="F49" s="229"/>
+      <c r="G49" s="229"/>
+      <c r="H49" s="229"/>
+      <c r="I49" s="229"/>
+      <c r="J49" s="230"/>
     </row>
     <row r="50" spans="1:10" s="58" customFormat="1" ht="33.75" customHeight="1">
       <c r="A50" s="109">
         <v>3</v>
       </c>
       <c r="B50" s="106" t="s">
+        <v>317</v>
+      </c>
+      <c r="C50" s="107" t="s">
         <v>318</v>
       </c>
-      <c r="C50" s="107" t="s">
+      <c r="D50" s="110"/>
+      <c r="E50" s="243" t="s">
         <v>319</v>
       </c>
-      <c r="D50" s="110"/>
-      <c r="E50" s="245" t="s">
-        <v>320</v>
-      </c>
-      <c r="F50" s="246"/>
-      <c r="G50" s="246"/>
-      <c r="H50" s="246"/>
-      <c r="I50" s="246"/>
-      <c r="J50" s="247"/>
+      <c r="F50" s="244"/>
+      <c r="G50" s="244"/>
+      <c r="H50" s="244"/>
+      <c r="I50" s="244"/>
+      <c r="J50" s="245"/>
     </row>
     <row r="51" spans="1:10" s="58" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A51" s="136"/>
-      <c r="B51" s="137"/>
-      <c r="C51" s="137"/>
-      <c r="D51" s="137"/>
-      <c r="E51" s="137"/>
-      <c r="F51" s="137"/>
-      <c r="G51" s="137"/>
-      <c r="H51" s="137"/>
-      <c r="I51" s="137"/>
-      <c r="J51" s="138"/>
+      <c r="A51" s="141"/>
+      <c r="B51" s="205"/>
+      <c r="C51" s="205"/>
+      <c r="D51" s="205"/>
+      <c r="E51" s="205"/>
+      <c r="F51" s="205"/>
+      <c r="G51" s="205"/>
+      <c r="H51" s="205"/>
+      <c r="I51" s="205"/>
+      <c r="J51" s="206"/>
     </row>
     <row r="52" spans="1:10" s="56" customFormat="1">
-      <c r="A52" s="219" t="s">
+      <c r="A52" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="220"/>
-      <c r="C52" s="220"/>
-      <c r="D52" s="220"/>
-      <c r="E52" s="220"/>
-      <c r="F52" s="220"/>
-      <c r="G52" s="220"/>
-      <c r="H52" s="220"/>
-      <c r="I52" s="220"/>
-      <c r="J52" s="221"/>
+      <c r="B52" s="153"/>
+      <c r="C52" s="153"/>
+      <c r="D52" s="153"/>
+      <c r="E52" s="153"/>
+      <c r="F52" s="153"/>
+      <c r="G52" s="153"/>
+      <c r="H52" s="153"/>
+      <c r="I52" s="153"/>
+      <c r="J52" s="154"/>
     </row>
     <row r="53" spans="1:10" s="56" customFormat="1">
       <c r="A53" s="59">
@@ -14302,14 +14302,14 @@
         <v>93</v>
       </c>
       <c r="D53" s="66"/>
-      <c r="E53" s="184" t="s">
+      <c r="E53" s="144" t="s">
         <v>173</v>
       </c>
-      <c r="F53" s="116"/>
-      <c r="G53" s="116"/>
-      <c r="H53" s="116"/>
-      <c r="I53" s="116"/>
-      <c r="J53" s="116"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="130"/>
+      <c r="I53" s="130"/>
+      <c r="J53" s="130"/>
     </row>
     <row r="54" spans="1:10" s="56" customFormat="1">
       <c r="A54" s="59">
@@ -14322,14 +14322,14 @@
         <v>93</v>
       </c>
       <c r="D54" s="66"/>
-      <c r="E54" s="184" t="s">
+      <c r="E54" s="144" t="s">
         <v>174</v>
       </c>
-      <c r="F54" s="116"/>
-      <c r="G54" s="116"/>
-      <c r="H54" s="116"/>
-      <c r="I54" s="116"/>
-      <c r="J54" s="116"/>
+      <c r="F54" s="130"/>
+      <c r="G54" s="130"/>
+      <c r="H54" s="130"/>
+      <c r="I54" s="130"/>
+      <c r="J54" s="130"/>
     </row>
     <row r="55" spans="1:10" s="56" customFormat="1">
       <c r="A55" s="59">
@@ -14342,118 +14342,118 @@
         <v>93</v>
       </c>
       <c r="D55" s="66"/>
-      <c r="E55" s="184" t="s">
+      <c r="E55" s="144" t="s">
         <v>175</v>
       </c>
-      <c r="F55" s="116"/>
-      <c r="G55" s="116"/>
-      <c r="H55" s="116"/>
-      <c r="I55" s="116"/>
-      <c r="J55" s="116"/>
+      <c r="F55" s="130"/>
+      <c r="G55" s="130"/>
+      <c r="H55" s="130"/>
+      <c r="I55" s="130"/>
+      <c r="J55" s="130"/>
     </row>
     <row r="56" spans="1:10" s="56" customFormat="1">
-      <c r="A56" s="139"/>
-      <c r="B56" s="144"/>
-      <c r="C56" s="144"/>
-      <c r="D56" s="144"/>
-      <c r="E56" s="144"/>
-      <c r="F56" s="144"/>
-      <c r="G56" s="144"/>
-      <c r="H56" s="144"/>
-      <c r="I56" s="144"/>
+      <c r="A56" s="169"/>
+      <c r="B56" s="139"/>
+      <c r="C56" s="139"/>
+      <c r="D56" s="139"/>
+      <c r="E56" s="139"/>
+      <c r="F56" s="139"/>
+      <c r="G56" s="139"/>
+      <c r="H56" s="139"/>
+      <c r="I56" s="139"/>
       <c r="J56" s="140"/>
     </row>
     <row r="57" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A57" s="150" t="s">
+      <c r="A57" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="151"/>
-      <c r="C57" s="151"/>
-      <c r="D57" s="151"/>
-      <c r="E57" s="151"/>
-      <c r="F57" s="151"/>
-      <c r="G57" s="151"/>
-      <c r="H57" s="151"/>
-      <c r="I57" s="151"/>
-      <c r="J57" s="152"/>
+      <c r="B57" s="215"/>
+      <c r="C57" s="215"/>
+      <c r="D57" s="215"/>
+      <c r="E57" s="215"/>
+      <c r="F57" s="215"/>
+      <c r="G57" s="215"/>
+      <c r="H57" s="215"/>
+      <c r="I57" s="215"/>
+      <c r="J57" s="216"/>
     </row>
     <row r="58" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A58" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="148" t="s">
+      <c r="B58" s="212" t="s">
         <v>8</v>
       </c>
-      <c r="C58" s="149"/>
-      <c r="D58" s="136" t="s">
+      <c r="C58" s="213"/>
+      <c r="D58" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="120"/>
-      <c r="F58" s="120"/>
-      <c r="G58" s="120"/>
-      <c r="H58" s="120"/>
-      <c r="I58" s="120"/>
-      <c r="J58" s="121"/>
+      <c r="E58" s="121"/>
+      <c r="F58" s="121"/>
+      <c r="G58" s="121"/>
+      <c r="H58" s="121"/>
+      <c r="I58" s="121"/>
+      <c r="J58" s="122"/>
     </row>
     <row r="59" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A59" s="141"/>
-      <c r="B59" s="229"/>
-      <c r="C59" s="229"/>
-      <c r="D59" s="229"/>
-      <c r="E59" s="229"/>
-      <c r="F59" s="229"/>
-      <c r="G59" s="229"/>
-      <c r="H59" s="229"/>
-      <c r="I59" s="229"/>
-      <c r="J59" s="230"/>
+      <c r="A59" s="209"/>
+      <c r="B59" s="239"/>
+      <c r="C59" s="239"/>
+      <c r="D59" s="239"/>
+      <c r="E59" s="239"/>
+      <c r="F59" s="239"/>
+      <c r="G59" s="239"/>
+      <c r="H59" s="239"/>
+      <c r="I59" s="239"/>
+      <c r="J59" s="240"/>
     </row>
     <row r="60" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="69"/>
-      <c r="B60" s="139"/>
+      <c r="B60" s="169"/>
       <c r="C60" s="140"/>
-      <c r="D60" s="136"/>
-      <c r="E60" s="120"/>
-      <c r="F60" s="120"/>
-      <c r="G60" s="120"/>
-      <c r="H60" s="120"/>
-      <c r="I60" s="120"/>
-      <c r="J60" s="121"/>
+      <c r="D60" s="141"/>
+      <c r="E60" s="121"/>
+      <c r="F60" s="121"/>
+      <c r="G60" s="121"/>
+      <c r="H60" s="121"/>
+      <c r="I60" s="121"/>
+      <c r="J60" s="122"/>
     </row>
     <row r="61" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="69"/>
-      <c r="B61" s="139"/>
+      <c r="B61" s="169"/>
       <c r="C61" s="140"/>
-      <c r="D61" s="136"/>
-      <c r="E61" s="120"/>
-      <c r="F61" s="120"/>
-      <c r="G61" s="120"/>
-      <c r="H61" s="120"/>
-      <c r="I61" s="120"/>
-      <c r="J61" s="121"/>
+      <c r="D61" s="141"/>
+      <c r="E61" s="121"/>
+      <c r="F61" s="121"/>
+      <c r="G61" s="121"/>
+      <c r="H61" s="121"/>
+      <c r="I61" s="121"/>
+      <c r="J61" s="122"/>
     </row>
     <row r="62" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A62" s="141"/>
-      <c r="B62" s="229"/>
-      <c r="C62" s="229"/>
-      <c r="D62" s="229"/>
-      <c r="E62" s="229"/>
-      <c r="F62" s="229"/>
-      <c r="G62" s="229"/>
-      <c r="H62" s="229"/>
-      <c r="I62" s="229"/>
-      <c r="J62" s="230"/>
+      <c r="A62" s="209"/>
+      <c r="B62" s="239"/>
+      <c r="C62" s="239"/>
+      <c r="D62" s="239"/>
+      <c r="E62" s="239"/>
+      <c r="F62" s="239"/>
+      <c r="G62" s="239"/>
+      <c r="H62" s="239"/>
+      <c r="I62" s="239"/>
+      <c r="J62" s="240"/>
     </row>
     <row r="63" spans="1:10" s="56" customFormat="1" ht="17.25" customHeight="1">
       <c r="A63" s="69"/>
-      <c r="B63" s="139"/>
+      <c r="B63" s="169"/>
       <c r="C63" s="140"/>
-      <c r="D63" s="136"/>
-      <c r="E63" s="120"/>
-      <c r="F63" s="120"/>
-      <c r="G63" s="120"/>
-      <c r="H63" s="120"/>
-      <c r="I63" s="120"/>
-      <c r="J63" s="121"/>
+      <c r="D63" s="141"/>
+      <c r="E63" s="121"/>
+      <c r="F63" s="121"/>
+      <c r="G63" s="121"/>
+      <c r="H63" s="121"/>
+      <c r="I63" s="121"/>
+      <c r="J63" s="122"/>
     </row>
     <row r="64" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="72" t="s">
@@ -14476,14 +14476,14 @@
       <c r="B65" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="139"/>
-      <c r="D65" s="120"/>
-      <c r="E65" s="120"/>
-      <c r="F65" s="120"/>
-      <c r="G65" s="120"/>
-      <c r="H65" s="120"/>
-      <c r="I65" s="120"/>
-      <c r="J65" s="121"/>
+      <c r="C65" s="169"/>
+      <c r="D65" s="121"/>
+      <c r="E65" s="121"/>
+      <c r="F65" s="121"/>
+      <c r="G65" s="121"/>
+      <c r="H65" s="121"/>
+      <c r="I65" s="121"/>
+      <c r="J65" s="122"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="69">
@@ -14492,17 +14492,66 @@
       <c r="B66" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="156"/>
-      <c r="D66" s="156"/>
-      <c r="E66" s="156"/>
-      <c r="F66" s="156"/>
-      <c r="G66" s="156"/>
-      <c r="H66" s="156"/>
-      <c r="I66" s="156"/>
-      <c r="J66" s="156"/>
+      <c r="C66" s="188"/>
+      <c r="D66" s="188"/>
+      <c r="E66" s="188"/>
+      <c r="F66" s="188"/>
+      <c r="G66" s="188"/>
+      <c r="H66" s="188"/>
+      <c r="I66" s="188"/>
+      <c r="J66" s="188"/>
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:J61"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="E54:J54"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:J63"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:J58"/>
+    <mergeCell ref="A57:J57"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="E46:J46"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A22:J22"/>
     <mergeCell ref="E48:J48"/>
     <mergeCell ref="E49:J49"/>
     <mergeCell ref="E50:J50"/>
@@ -14519,55 +14568,6 @@
     <mergeCell ref="A38:A43"/>
     <mergeCell ref="B38:B43"/>
     <mergeCell ref="E39:J39"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="E45:J45"/>
-    <mergeCell ref="E46:J46"/>
-    <mergeCell ref="E47:J47"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="E54:J54"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:J63"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:J58"/>
-    <mergeCell ref="A57:J57"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="A59:J59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:J61"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/APF/RA006/RA006_APF0101_角色維護.xlsx
+++ b/APF/RA006/RA006_APF0101_角色維護.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15360" windowHeight="7665" tabRatio="797" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15360" windowHeight="7665" tabRatio="797" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -1105,10 +1105,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>V = invisible，不顯示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>輸入之角色名稱不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 49。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1730,6 +1726,10 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>不顯示</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -5830,7 +5830,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="14506575" cy="523875"/>
+          <a:ext cx="14518821" cy="515711"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -9704,7 +9704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N101" sqref="N101"/>
     </sheetView>
   </sheetViews>
@@ -10106,7 +10106,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A41" sqref="A41:J41"/>
     </sheetView>
   </sheetViews>
@@ -10359,7 +10359,7 @@
         <v>103</v>
       </c>
       <c r="C17" s="187" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D17" s="174"/>
       <c r="E17" s="174"/>
@@ -10377,7 +10377,7 @@
         <v>106</v>
       </c>
       <c r="C18" s="187" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D18" s="174"/>
       <c r="E18" s="174"/>
@@ -10587,7 +10587,7 @@
         <v>103</v>
       </c>
       <c r="C31" s="179" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D31" s="180"/>
       <c r="E31" s="180"/>
@@ -10802,14 +10802,14 @@
         <v>1</v>
       </c>
       <c r="B44" s="145" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" s="83" t="s">
         <v>214</v>
-      </c>
-      <c r="C44" s="83" t="s">
-        <v>215</v>
       </c>
       <c r="D44" s="83"/>
       <c r="E44" s="144" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F44" s="130"/>
       <c r="G44" s="130"/>
@@ -10821,11 +10821,11 @@
       <c r="A45" s="207"/>
       <c r="B45" s="207"/>
       <c r="C45" s="97" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D45" s="83"/>
       <c r="E45" s="217" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F45" s="218"/>
       <c r="G45" s="218"/>
@@ -10837,11 +10837,11 @@
       <c r="A46" s="207"/>
       <c r="B46" s="207"/>
       <c r="C46" s="97" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D46" s="97"/>
       <c r="E46" s="217" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F46" s="218"/>
       <c r="G46" s="218"/>
@@ -10853,13 +10853,13 @@
       <c r="A47" s="208"/>
       <c r="B47" s="208"/>
       <c r="C47" s="97" t="s">
+        <v>220</v>
+      </c>
+      <c r="D47" s="97" t="s">
         <v>221</v>
       </c>
-      <c r="D47" s="97" t="s">
+      <c r="E47" s="188" t="s">
         <v>222</v>
-      </c>
-      <c r="E47" s="188" t="s">
-        <v>223</v>
       </c>
       <c r="F47" s="220"/>
       <c r="G47" s="220"/>
@@ -10898,14 +10898,14 @@
         <v>1</v>
       </c>
       <c r="B50" s="147" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C50" s="84" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D50" s="97"/>
       <c r="E50" s="144" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F50" s="130"/>
       <c r="G50" s="130"/>
@@ -10917,13 +10917,13 @@
       <c r="A51" s="146"/>
       <c r="B51" s="148"/>
       <c r="C51" s="85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D51" s="99" t="s">
         <v>200</v>
       </c>
       <c r="E51" s="160" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F51" s="142"/>
       <c r="G51" s="142"/>
@@ -10939,11 +10939,11 @@
         <v>186</v>
       </c>
       <c r="C52" s="84" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D52" s="86"/>
       <c r="E52" s="136" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F52" s="137"/>
       <c r="G52" s="137"/>
@@ -10955,13 +10955,13 @@
       <c r="A53" s="67"/>
       <c r="B53" s="161"/>
       <c r="C53" s="84" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D53" s="87" t="s">
         <v>200</v>
       </c>
       <c r="E53" s="136" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F53" s="137"/>
       <c r="G53" s="137"/>
@@ -10973,11 +10973,11 @@
       <c r="A54" s="67"/>
       <c r="B54" s="161"/>
       <c r="C54" s="97" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D54" s="97"/>
       <c r="E54" s="217" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F54" s="218"/>
       <c r="G54" s="218"/>
@@ -10989,7 +10989,7 @@
       <c r="A55" s="67"/>
       <c r="B55" s="161"/>
       <c r="C55" s="97" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D55" s="97" t="s">
         <v>182</v>
@@ -11007,11 +11007,11 @@
       <c r="A56" s="67"/>
       <c r="B56" s="161"/>
       <c r="C56" s="84" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D56" s="86"/>
       <c r="E56" s="141" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F56" s="162"/>
       <c r="G56" s="162"/>
@@ -11023,7 +11023,7 @@
       <c r="A57" s="67"/>
       <c r="B57" s="148"/>
       <c r="C57" s="84" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D57" s="86"/>
       <c r="E57" s="141" t="s">
@@ -11040,14 +11040,14 @@
         <v>3</v>
       </c>
       <c r="B58" s="100" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C58" s="84" t="s">
         <v>185</v>
       </c>
       <c r="D58" s="88"/>
       <c r="E58" s="149" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F58" s="150"/>
       <c r="G58" s="150"/>
@@ -11093,7 +11093,7 @@
       </c>
       <c r="D61" s="97"/>
       <c r="E61" s="155" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F61" s="156"/>
       <c r="G61" s="156"/>
@@ -11106,14 +11106,14 @@
         <v>2</v>
       </c>
       <c r="B62" s="100" t="s">
+        <v>241</v>
+      </c>
+      <c r="C62" s="84" t="s">
         <v>242</v>
-      </c>
-      <c r="C62" s="84" t="s">
-        <v>243</v>
       </c>
       <c r="D62" s="94"/>
       <c r="E62" s="157" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F62" s="158"/>
       <c r="G62" s="158"/>
@@ -11126,14 +11126,14 @@
         <v>3</v>
       </c>
       <c r="B63" s="147" t="s">
+        <v>244</v>
+      </c>
+      <c r="C63" s="84" t="s">
         <v>245</v>
-      </c>
-      <c r="C63" s="84" t="s">
-        <v>246</v>
       </c>
       <c r="D63" s="94"/>
       <c r="E63" s="136" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F63" s="137"/>
       <c r="G63" s="137"/>
@@ -11145,13 +11145,13 @@
       <c r="A64" s="146"/>
       <c r="B64" s="148"/>
       <c r="C64" s="84" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D64" s="89" t="s">
         <v>190</v>
       </c>
       <c r="E64" s="141" t="s" ph="1">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F64" s="142"/>
       <c r="G64" s="142"/>
@@ -11164,14 +11164,14 @@
         <v>4</v>
       </c>
       <c r="B65" s="147" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C65" s="84" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D65" s="89"/>
       <c r="E65" s="157" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F65" s="158"/>
       <c r="G65" s="158"/>
@@ -11183,13 +11183,13 @@
       <c r="A66" s="146"/>
       <c r="B66" s="148"/>
       <c r="C66" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="D66" s="87" t="s">
         <v>252</v>
       </c>
-      <c r="D66" s="87" t="s">
+      <c r="E66" s="136" t="s">
         <v>253</v>
-      </c>
-      <c r="E66" s="136" t="s">
-        <v>254</v>
       </c>
       <c r="F66" s="137"/>
       <c r="G66" s="137"/>
@@ -11202,14 +11202,14 @@
         <v>5</v>
       </c>
       <c r="B67" s="147" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C67" s="84" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D67" s="94"/>
       <c r="E67" s="136" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F67" s="137"/>
       <c r="G67" s="137"/>
@@ -11221,13 +11221,13 @@
       <c r="A68" s="146"/>
       <c r="B68" s="148"/>
       <c r="C68" s="84" t="s">
+        <v>256</v>
+      </c>
+      <c r="D68" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="D68" s="94" t="s">
+      <c r="E68" s="136" t="s">
         <v>258</v>
-      </c>
-      <c r="E68" s="136" t="s">
-        <v>259</v>
       </c>
       <c r="F68" s="137"/>
       <c r="G68" s="137"/>
@@ -11494,8 +11494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11891,10 +11891,10 @@
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="J18" s="46" t="s">
         <v>323</v>
-      </c>
-      <c r="J18" s="46" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -12044,8 +12044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:J26"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12296,7 +12296,7 @@
         <v>103</v>
       </c>
       <c r="C17" s="187" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D17" s="174"/>
       <c r="E17" s="174"/>
@@ -12314,7 +12314,7 @@
         <v>106</v>
       </c>
       <c r="C18" s="187" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D18" s="174"/>
       <c r="E18" s="174"/>
@@ -12444,7 +12444,7 @@
         <v>103</v>
       </c>
       <c r="C26" s="187" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D26" s="174"/>
       <c r="E26" s="174"/>
@@ -12462,7 +12462,7 @@
         <v>106</v>
       </c>
       <c r="C27" s="187" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D27" s="174"/>
       <c r="E27" s="174"/>
@@ -12584,7 +12584,7 @@
         <v>191</v>
       </c>
       <c r="C34" s="83" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D34" s="98"/>
       <c r="E34" s="144" t="s">
@@ -12600,13 +12600,13 @@
       <c r="A35" s="207"/>
       <c r="B35" s="207"/>
       <c r="C35" s="97" t="s">
+        <v>264</v>
+      </c>
+      <c r="D35" s="99" t="s">
         <v>265</v>
       </c>
-      <c r="D35" s="99" t="s">
+      <c r="E35" s="217" t="s">
         <v>266</v>
-      </c>
-      <c r="E35" s="217" t="s">
-        <v>267</v>
       </c>
       <c r="F35" s="218"/>
       <c r="G35" s="218"/>
@@ -12620,11 +12620,11 @@
       <c r="A36" s="207"/>
       <c r="B36" s="207"/>
       <c r="C36" s="97" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D36" s="69"/>
       <c r="E36" s="217" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F36" s="218"/>
       <c r="G36" s="218"/>
@@ -12636,13 +12636,13 @@
       <c r="A37" s="208"/>
       <c r="B37" s="208"/>
       <c r="C37" s="97" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D37" s="97" t="s">
         <v>193</v>
       </c>
       <c r="E37" s="188" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F37" s="220"/>
       <c r="G37" s="220"/>
@@ -12672,11 +12672,11 @@
         <v>195</v>
       </c>
       <c r="C39" s="93" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D39" s="97"/>
       <c r="E39" s="144" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F39" s="130"/>
       <c r="G39" s="130"/>
@@ -12688,13 +12688,13 @@
       <c r="A40" s="146"/>
       <c r="B40" s="148"/>
       <c r="C40" s="85" t="s">
+        <v>272</v>
+      </c>
+      <c r="D40" s="99" t="s">
+        <v>265</v>
+      </c>
+      <c r="E40" s="160" t="s">
         <v>273</v>
-      </c>
-      <c r="D40" s="99" t="s">
-        <v>266</v>
-      </c>
-      <c r="E40" s="160" t="s">
-        <v>274</v>
       </c>
       <c r="F40" s="231"/>
       <c r="G40" s="231"/>
@@ -12707,14 +12707,14 @@
         <v>2</v>
       </c>
       <c r="B41" s="68" t="s">
+        <v>274</v>
+      </c>
+      <c r="C41" s="93" t="s">
         <v>275</v>
-      </c>
-      <c r="C41" s="93" t="s">
-        <v>276</v>
       </c>
       <c r="D41" s="99"/>
       <c r="E41" s="233" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F41" s="234"/>
       <c r="G41" s="234"/>
@@ -12726,13 +12726,13 @@
       <c r="A42" s="67"/>
       <c r="B42" s="68"/>
       <c r="C42" s="97" t="s">
+        <v>277</v>
+      </c>
+      <c r="D42" s="97" t="s">
+        <v>265</v>
+      </c>
+      <c r="E42" s="227" t="s">
         <v>278</v>
-      </c>
-      <c r="D42" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="E42" s="227" t="s">
-        <v>279</v>
       </c>
       <c r="F42" s="228"/>
       <c r="G42" s="228"/>
@@ -12744,13 +12744,13 @@
       <c r="A43" s="67"/>
       <c r="B43" s="68"/>
       <c r="C43" s="97" t="s">
+        <v>279</v>
+      </c>
+      <c r="D43" s="92" t="s">
         <v>280</v>
       </c>
-      <c r="D43" s="92" t="s">
+      <c r="E43" s="141" t="s">
         <v>281</v>
-      </c>
-      <c r="E43" s="141" t="s">
-        <v>282</v>
       </c>
       <c r="F43" s="229"/>
       <c r="G43" s="229"/>
@@ -12762,13 +12762,13 @@
       <c r="A44" s="67"/>
       <c r="B44" s="68"/>
       <c r="C44" s="97" t="s">
+        <v>282</v>
+      </c>
+      <c r="D44" s="92" t="s">
         <v>283</v>
       </c>
-      <c r="D44" s="92" t="s">
+      <c r="E44" s="141" t="s">
         <v>284</v>
-      </c>
-      <c r="E44" s="141" t="s">
-        <v>285</v>
       </c>
       <c r="F44" s="229"/>
       <c r="G44" s="229"/>
@@ -12781,14 +12781,14 @@
         <v>3</v>
       </c>
       <c r="B45" s="100" t="s">
+        <v>285</v>
+      </c>
+      <c r="C45" s="93" t="s">
         <v>286</v>
-      </c>
-      <c r="C45" s="93" t="s">
-        <v>287</v>
       </c>
       <c r="D45" s="92"/>
       <c r="E45" s="141" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F45" s="121"/>
       <c r="G45" s="121"/>
@@ -13025,8 +13025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13439,7 +13439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -13691,7 +13691,7 @@
         <v>103</v>
       </c>
       <c r="C17" s="187" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D17" s="174"/>
       <c r="E17" s="174"/>
@@ -13709,7 +13709,7 @@
         <v>106</v>
       </c>
       <c r="C18" s="187" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D18" s="174"/>
       <c r="E18" s="174"/>
@@ -13867,7 +13867,7 @@
         <v>103</v>
       </c>
       <c r="C28" s="187" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D28" s="174"/>
       <c r="E28" s="174"/>
@@ -13885,7 +13885,7 @@
         <v>106</v>
       </c>
       <c r="C29" s="187" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D29" s="174"/>
       <c r="E29" s="174"/>
@@ -14032,14 +14032,14 @@
         <v>1</v>
       </c>
       <c r="B38" s="145" t="s">
+        <v>287</v>
+      </c>
+      <c r="C38" s="83" t="s">
         <v>288</v>
-      </c>
-      <c r="C38" s="83" t="s">
-        <v>289</v>
       </c>
       <c r="D38" s="98"/>
       <c r="E38" s="144" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F38" s="130"/>
       <c r="G38" s="130"/>
@@ -14053,13 +14053,13 @@
       <c r="A39" s="207"/>
       <c r="B39" s="207"/>
       <c r="C39" s="97" t="s">
+        <v>290</v>
+      </c>
+      <c r="D39" s="83" t="s">
         <v>291</v>
       </c>
-      <c r="D39" s="83" t="s">
+      <c r="E39" s="217" t="s">
         <v>292</v>
-      </c>
-      <c r="E39" s="217" t="s">
-        <v>293</v>
       </c>
       <c r="F39" s="218"/>
       <c r="G39" s="218"/>
@@ -14071,13 +14071,13 @@
       <c r="A40" s="207"/>
       <c r="B40" s="207"/>
       <c r="C40" s="97" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D40" s="83" t="s">
         <v>198</v>
       </c>
       <c r="E40" s="217" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F40" s="218"/>
       <c r="G40" s="218"/>
@@ -14089,13 +14089,13 @@
       <c r="A41" s="207"/>
       <c r="B41" s="207"/>
       <c r="C41" s="97" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D41" s="83" t="s">
         <v>198</v>
       </c>
       <c r="E41" s="217" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F41" s="218"/>
       <c r="G41" s="218"/>
@@ -14107,11 +14107,11 @@
       <c r="A42" s="207"/>
       <c r="B42" s="207"/>
       <c r="C42" s="97" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D42" s="69"/>
       <c r="E42" s="217" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F42" s="218"/>
       <c r="G42" s="218"/>
@@ -14123,13 +14123,13 @@
       <c r="A43" s="208"/>
       <c r="B43" s="208"/>
       <c r="C43" s="97" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D43" s="97" t="s">
         <v>193</v>
       </c>
       <c r="E43" s="188" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F43" s="220"/>
       <c r="G43" s="220"/>
@@ -14156,14 +14156,14 @@
         <v>1</v>
       </c>
       <c r="B45" s="106" t="s">
+        <v>301</v>
+      </c>
+      <c r="C45" s="107" t="s">
         <v>302</v>
-      </c>
-      <c r="C45" s="107" t="s">
-        <v>303</v>
       </c>
       <c r="D45" s="108"/>
       <c r="E45" s="248" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F45" s="248"/>
       <c r="G45" s="248"/>
@@ -14176,14 +14176,14 @@
         <v>2</v>
       </c>
       <c r="B46" s="68" t="s">
+        <v>304</v>
+      </c>
+      <c r="C46" s="84" t="s">
         <v>305</v>
-      </c>
-      <c r="C46" s="84" t="s">
-        <v>306</v>
       </c>
       <c r="D46" s="99"/>
       <c r="E46" s="136" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F46" s="137"/>
       <c r="G46" s="137"/>
@@ -14195,13 +14195,13 @@
       <c r="A47" s="67"/>
       <c r="B47" s="68"/>
       <c r="C47" s="84" t="s">
+        <v>307</v>
+      </c>
+      <c r="D47" s="97" t="s">
         <v>308</v>
       </c>
-      <c r="D47" s="97" t="s">
+      <c r="E47" s="136" t="s">
         <v>309</v>
-      </c>
-      <c r="E47" s="136" t="s">
-        <v>310</v>
       </c>
       <c r="F47" s="137"/>
       <c r="G47" s="137"/>
@@ -14213,13 +14213,13 @@
       <c r="A48" s="67"/>
       <c r="B48" s="68"/>
       <c r="C48" s="84" t="s">
+        <v>310</v>
+      </c>
+      <c r="D48" s="97" t="s">
         <v>311</v>
       </c>
-      <c r="D48" s="97" t="s">
+      <c r="E48" s="141" t="s">
         <v>312</v>
-      </c>
-      <c r="E48" s="141" t="s">
-        <v>313</v>
       </c>
       <c r="F48" s="229"/>
       <c r="G48" s="229"/>
@@ -14231,13 +14231,13 @@
       <c r="A49" s="67"/>
       <c r="B49" s="68"/>
       <c r="C49" s="84" t="s">
+        <v>313</v>
+      </c>
+      <c r="D49" s="97" t="s">
         <v>314</v>
       </c>
-      <c r="D49" s="97" t="s">
+      <c r="E49" s="141" t="s">
         <v>315</v>
-      </c>
-      <c r="E49" s="141" t="s">
-        <v>316</v>
       </c>
       <c r="F49" s="229"/>
       <c r="G49" s="229"/>
@@ -14250,14 +14250,14 @@
         <v>3</v>
       </c>
       <c r="B50" s="106" t="s">
+        <v>316</v>
+      </c>
+      <c r="C50" s="107" t="s">
         <v>317</v>
-      </c>
-      <c r="C50" s="107" t="s">
-        <v>318</v>
       </c>
       <c r="D50" s="110"/>
       <c r="E50" s="243" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F50" s="244"/>
       <c r="G50" s="244"/>

--- a/APF/RA006/RA006_APF0101_角色維護.xlsx
+++ b/APF/RA006/RA006_APF0101_角色維護.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15360" windowHeight="7665" tabRatio="797" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15360" windowHeight="7665" tabRatio="797" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -4669,10 +4669,10 @@
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5830,7 +5830,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="14518821" cy="515711"/>
+          <a:ext cx="14511618" cy="520513"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -9704,7 +9704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N101" sqref="N101"/>
     </sheetView>
   </sheetViews>
@@ -10042,7 +10042,7 @@
   <dimension ref="P1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P3"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10084,10 +10084,10 @@
                 <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>45</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -11494,7 +11494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I18" sqref="I18:J18"/>
     </sheetView>
   </sheetViews>

--- a/APF/RA006/RA006_APF0101_角色維護.xlsx
+++ b/APF/RA006/RA006_APF0101_角色維護.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15360" windowHeight="7665" tabRatio="797" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15360" windowHeight="7665" tabRatio="797" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -1105,18 +1105,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>輸入之角色名稱不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 49。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入之角色代號不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 50。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入之角色名稱不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 50。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>『APF0101MM1』Form</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1709,28 +1697,38 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>系統提示訊息，訊息內容請參考APF訊息提示 APF_NO 46
-若選擇是，則清除所有欄位，若選擇否，則不做任何動作。
-1.txtINPUT_GROUP_ID=""
+    <t>X</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>不顯示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 02001。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入之角色代號不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 03003。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入之角色名稱不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 03003。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.txtINPUT_GROUP_ID=""
   txtINPUT_NAME=""
   txtINPUT_REMARK=""</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>輸入之角色代號不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 49。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>不顯示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>輸入之角色代號不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 04003。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>輸入之角色名稱不得存在於APF apf_roleprofile資料表中，若已存在則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 04003。</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2587,6 +2585,42 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2599,24 +2633,9 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2626,35 +2645,239 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2665,34 +2888,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2718,211 +2917,31 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2950,26 +2969,11 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2985,12 +2989,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -9055,7 +9053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -9085,7 +9083,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="189" t="s">
+      <c r="K1" s="167" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="39"/>
@@ -9112,7 +9110,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="190"/>
+      <c r="K2" s="168"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -9130,7 +9128,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="190"/>
+      <c r="K3" s="168"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -9704,7 +9702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N101" sqref="N101"/>
     </sheetView>
   </sheetViews>
@@ -9720,15 +9718,15 @@
       <c r="A1" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="113" t="s">
+      <c r="M1" s="125" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="114"/>
+      <c r="M2" s="126"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="114"/>
+      <c r="M3" s="126"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -9745,45 +9743,45 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="132"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="135"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
-      <c r="L6" s="135"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
       <c r="F7" s="117" t="s">
         <v>27</v>
       </c>
@@ -9795,31 +9793,31 @@
       <c r="L7" s="119"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="115" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="121" t="s">
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="122"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="121"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
       <c r="F9" s="117" t="s">
         <v>29</v>
       </c>
@@ -9831,32 +9829,32 @@
       <c r="L9" s="119"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="130"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="121" t="s">
+      <c r="B10" s="116"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="122"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="121"/>
     </row>
     <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="126" t="s">
+      <c r="A11" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="128" t="s">
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="133" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="118"/>
@@ -9867,30 +9865,30 @@
       <c r="L11" s="119"/>
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="122"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="121"/>
     </row>
     <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="126" t="s">
+      <c r="A13" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="127"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="128" t="s">
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="133" t="s">
         <v>33</v>
       </c>
       <c r="G13" s="118"/>
@@ -9901,60 +9899,55 @@
       <c r="L13" s="119"/>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="122"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="121"/>
     </row>
     <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="129" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="121"/>
-      <c r="C15" s="121"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="121"/>
-      <c r="K15" s="121"/>
-      <c r="L15" s="122"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="121"/>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="123" t="s">
+      <c r="A86" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="B86" s="124"/>
-      <c r="C86" s="124"/>
-      <c r="D86" s="124"/>
-      <c r="E86" s="124"/>
-      <c r="F86" s="124"/>
-      <c r="G86" s="124"/>
-      <c r="H86" s="124"/>
-      <c r="I86" s="124"/>
-      <c r="J86" s="124"/>
-      <c r="K86" s="124"/>
-      <c r="L86" s="125"/>
+      <c r="B86" s="131"/>
+      <c r="C86" s="131"/>
+      <c r="D86" s="131"/>
+      <c r="E86" s="131"/>
+      <c r="F86" s="131"/>
+      <c r="G86" s="131"/>
+      <c r="H86" s="131"/>
+      <c r="I86" s="131"/>
+      <c r="J86" s="131"/>
+      <c r="K86" s="131"/>
+      <c r="L86" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -9971,6 +9964,11 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -10048,15 +10046,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="113" t="s">
+      <c r="P1" s="125" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="114"/>
+      <c r="P2" s="126"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="114"/>
+      <c r="P3" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10106,8 +10104,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:J41"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10137,7 +10135,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="189" t="s">
+      <c r="K1" s="167" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="54"/>
@@ -10158,7 +10156,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="190"/>
+      <c r="K2" s="168"/>
     </row>
     <row r="3" spans="1:17" s="55" customFormat="1">
       <c r="A3" s="47"/>
@@ -10171,7 +10169,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="190"/>
+      <c r="K3" s="168"/>
     </row>
     <row r="4" spans="1:17" s="55" customFormat="1">
       <c r="A4" s="47"/>
@@ -10186,7 +10184,7 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="172" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="118"/>
@@ -10200,57 +10198,57 @@
       <c r="J5" s="119"/>
     </row>
     <row r="6" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="133"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="135"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="124"/>
     </row>
     <row r="7" spans="1:17" s="56" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="195"/>
-      <c r="B7" s="196"/>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="198"/>
+      <c r="A7" s="173"/>
+      <c r="B7" s="174"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="176"/>
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:17" s="56" customFormat="1">
-      <c r="A8" s="195"/>
-      <c r="B8" s="196"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="197"/>
-      <c r="J8" s="198"/>
+      <c r="A8" s="173"/>
+      <c r="B8" s="174"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="176"/>
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:17" s="56" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="199"/>
-      <c r="B9" s="200"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="200"/>
-      <c r="F9" s="200"/>
-      <c r="G9" s="200"/>
-      <c r="H9" s="200"/>
-      <c r="I9" s="200"/>
-      <c r="J9" s="201"/>
+      <c r="A9" s="177"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="179"/>
     </row>
     <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="194" t="s">
+      <c r="A10" s="172" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="118"/>
@@ -10264,21 +10262,21 @@
       <c r="J10" s="119"/>
     </row>
     <row r="11" spans="1:17" s="58" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="202" t="s">
+      <c r="A11" s="180" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="122"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="121"/>
     </row>
     <row r="12" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="194" t="s">
+      <c r="A12" s="172" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="118"/>
@@ -10292,21 +10290,21 @@
       <c r="J12" s="119"/>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="202" t="s">
+      <c r="A13" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="122"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="194" t="s">
+      <c r="A14" s="172" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="118"/>
@@ -10320,18 +10318,18 @@
       <c r="J14" s="119"/>
     </row>
     <row r="15" spans="1:17" s="56" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A15" s="176" t="s">
+      <c r="A15" s="185" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="185"/>
-      <c r="C15" s="185"/>
-      <c r="D15" s="185"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="186"/>
+      <c r="B15" s="186"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="187"/>
     </row>
     <row r="16" spans="1:17" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="59" t="s">
@@ -10340,16 +10338,16 @@
       <c r="B16" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="170" t="s">
+      <c r="C16" s="188" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="171"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="172"/>
+      <c r="D16" s="189"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="190"/>
     </row>
     <row r="17" spans="1:10" s="56" customFormat="1" ht="54.75" customHeight="1">
       <c r="A17" s="59">
@@ -10358,16 +10356,16 @@
       <c r="B17" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="187" t="s">
-        <v>259</v>
-      </c>
-      <c r="D17" s="174"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="174"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="175"/>
+      <c r="C17" s="191" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" s="192"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="193"/>
     </row>
     <row r="18" spans="1:10" s="56" customFormat="1" ht="59.25" customHeight="1">
       <c r="A18" s="59">
@@ -10376,16 +10374,16 @@
       <c r="B18" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="187" t="s">
-        <v>260</v>
-      </c>
-      <c r="D18" s="174"/>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="175"/>
+      <c r="C18" s="191" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="193"/>
     </row>
     <row r="19" spans="1:10" s="56" customFormat="1">
       <c r="A19" s="59">
@@ -10394,42 +10392,42 @@
       <c r="B19" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="191" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="174"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="174"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="175"/>
+      <c r="D19" s="192"/>
+      <c r="E19" s="192"/>
+      <c r="F19" s="192"/>
+      <c r="G19" s="192"/>
+      <c r="H19" s="192"/>
+      <c r="I19" s="192"/>
+      <c r="J19" s="193"/>
     </row>
     <row r="20" spans="1:10" s="56" customFormat="1">
-      <c r="A20" s="169"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="139"/>
+      <c r="A20" s="139"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
       <c r="J20" s="140"/>
     </row>
     <row r="21" spans="1:10" s="56" customFormat="1">
-      <c r="A21" s="176" t="s">
+      <c r="A21" s="185" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="185"/>
-      <c r="C21" s="185"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="185"/>
-      <c r="H21" s="185"/>
-      <c r="I21" s="185"/>
-      <c r="J21" s="186"/>
+      <c r="B21" s="186"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="186"/>
+      <c r="E21" s="186"/>
+      <c r="F21" s="186"/>
+      <c r="G21" s="186"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="186"/>
+      <c r="J21" s="187"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A22" s="59" t="s">
@@ -10438,16 +10436,16 @@
       <c r="B22" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="170" t="s">
+      <c r="C22" s="188" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="171"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="172"/>
+      <c r="D22" s="189"/>
+      <c r="E22" s="189"/>
+      <c r="F22" s="189"/>
+      <c r="G22" s="189"/>
+      <c r="H22" s="189"/>
+      <c r="I22" s="189"/>
+      <c r="J22" s="190"/>
     </row>
     <row r="23" spans="1:10" s="56" customFormat="1">
       <c r="A23" s="59">
@@ -10456,16 +10454,16 @@
       <c r="B23" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="173" t="s">
+      <c r="C23" s="196" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="174"/>
-      <c r="E23" s="174"/>
-      <c r="F23" s="174"/>
-      <c r="G23" s="174"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="175"/>
+      <c r="D23" s="192"/>
+      <c r="E23" s="192"/>
+      <c r="F23" s="192"/>
+      <c r="G23" s="192"/>
+      <c r="H23" s="192"/>
+      <c r="I23" s="192"/>
+      <c r="J23" s="193"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1">
       <c r="A24" s="59">
@@ -10474,16 +10472,16 @@
       <c r="B24" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="173" t="s">
+      <c r="C24" s="196" t="s">
         <v>112</v>
       </c>
-      <c r="D24" s="174"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="175"/>
+      <c r="D24" s="192"/>
+      <c r="E24" s="192"/>
+      <c r="F24" s="192"/>
+      <c r="G24" s="192"/>
+      <c r="H24" s="192"/>
+      <c r="I24" s="192"/>
+      <c r="J24" s="193"/>
     </row>
     <row r="25" spans="1:10" s="56" customFormat="1">
       <c r="A25" s="59">
@@ -10492,16 +10490,16 @@
       <c r="B25" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="173" t="s">
+      <c r="C25" s="196" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="174"/>
-      <c r="E25" s="174"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="175"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="192"/>
+      <c r="G25" s="192"/>
+      <c r="H25" s="192"/>
+      <c r="I25" s="192"/>
+      <c r="J25" s="193"/>
     </row>
     <row r="26" spans="1:10" s="56" customFormat="1">
       <c r="A26" s="59">
@@ -10510,56 +10508,56 @@
       <c r="B26" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="173" t="s">
+      <c r="C26" s="196" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="174"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="174"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="175"/>
+      <c r="D26" s="192"/>
+      <c r="E26" s="192"/>
+      <c r="F26" s="192"/>
+      <c r="G26" s="192"/>
+      <c r="H26" s="192"/>
+      <c r="I26" s="192"/>
+      <c r="J26" s="193"/>
     </row>
     <row r="27" spans="1:10" s="56" customFormat="1">
-      <c r="A27" s="191"/>
-      <c r="B27" s="192"/>
-      <c r="C27" s="192"/>
-      <c r="D27" s="192"/>
-      <c r="E27" s="192"/>
-      <c r="F27" s="192"/>
-      <c r="G27" s="192"/>
-      <c r="H27" s="192"/>
-      <c r="I27" s="192"/>
-      <c r="J27" s="193"/>
+      <c r="A27" s="169"/>
+      <c r="B27" s="170"/>
+      <c r="C27" s="170"/>
+      <c r="D27" s="170"/>
+      <c r="E27" s="170"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="171"/>
     </row>
     <row r="28" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A28" s="164" t="s">
+      <c r="A28" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="203"/>
-      <c r="C28" s="203"/>
-      <c r="D28" s="203"/>
-      <c r="E28" s="203"/>
-      <c r="F28" s="203"/>
-      <c r="G28" s="203"/>
-      <c r="H28" s="203"/>
-      <c r="I28" s="203"/>
-      <c r="J28" s="204"/>
+      <c r="B28" s="182"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="182"/>
+      <c r="I28" s="182"/>
+      <c r="J28" s="183"/>
     </row>
     <row r="29" spans="1:10" s="56" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A29" s="176" t="s">
+      <c r="A29" s="185" t="s">
         <v>135</v>
       </c>
-      <c r="B29" s="185"/>
-      <c r="C29" s="185"/>
-      <c r="D29" s="185"/>
-      <c r="E29" s="185"/>
-      <c r="F29" s="185"/>
-      <c r="G29" s="185"/>
-      <c r="H29" s="185"/>
-      <c r="I29" s="185"/>
-      <c r="J29" s="186"/>
+      <c r="B29" s="186"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="186"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="186"/>
+      <c r="G29" s="186"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="186"/>
+      <c r="J29" s="187"/>
     </row>
     <row r="30" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A30" s="59" t="s">
@@ -10568,16 +10566,16 @@
       <c r="B30" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="170" t="s">
+      <c r="C30" s="188" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="171"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="171"/>
-      <c r="J30" s="172"/>
+      <c r="D30" s="189"/>
+      <c r="E30" s="189"/>
+      <c r="F30" s="189"/>
+      <c r="G30" s="189"/>
+      <c r="H30" s="189"/>
+      <c r="I30" s="189"/>
+      <c r="J30" s="190"/>
     </row>
     <row r="31" spans="1:10" s="56" customFormat="1">
       <c r="A31" s="59">
@@ -10586,16 +10584,16 @@
       <c r="B31" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="179" t="s">
-        <v>320</v>
-      </c>
-      <c r="D31" s="180"/>
-      <c r="E31" s="180"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="180"/>
-      <c r="H31" s="180"/>
-      <c r="I31" s="180"/>
-      <c r="J31" s="181"/>
+      <c r="C31" s="197" t="s">
+        <v>318</v>
+      </c>
+      <c r="D31" s="198"/>
+      <c r="E31" s="198"/>
+      <c r="F31" s="198"/>
+      <c r="G31" s="198"/>
+      <c r="H31" s="198"/>
+      <c r="I31" s="198"/>
+      <c r="J31" s="199"/>
     </row>
     <row r="32" spans="1:10" s="56" customFormat="1">
       <c r="A32" s="59">
@@ -10604,14 +10602,14 @@
       <c r="B32" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="182"/>
-      <c r="D32" s="183"/>
-      <c r="E32" s="183"/>
-      <c r="F32" s="183"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="183"/>
-      <c r="I32" s="183"/>
-      <c r="J32" s="184"/>
+      <c r="C32" s="200"/>
+      <c r="D32" s="201"/>
+      <c r="E32" s="201"/>
+      <c r="F32" s="201"/>
+      <c r="G32" s="201"/>
+      <c r="H32" s="201"/>
+      <c r="I32" s="201"/>
+      <c r="J32" s="202"/>
     </row>
     <row r="33" spans="1:12" s="56" customFormat="1">
       <c r="A33" s="59">
@@ -10620,42 +10618,42 @@
       <c r="B33" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="173" t="s">
+      <c r="C33" s="196" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="174"/>
-      <c r="E33" s="174"/>
-      <c r="F33" s="174"/>
-      <c r="G33" s="174"/>
-      <c r="H33" s="174"/>
-      <c r="I33" s="174"/>
-      <c r="J33" s="175"/>
+      <c r="D33" s="192"/>
+      <c r="E33" s="192"/>
+      <c r="F33" s="192"/>
+      <c r="G33" s="192"/>
+      <c r="H33" s="192"/>
+      <c r="I33" s="192"/>
+      <c r="J33" s="193"/>
     </row>
     <row r="34" spans="1:12" s="56" customFormat="1">
-      <c r="A34" s="169"/>
-      <c r="B34" s="139"/>
-      <c r="C34" s="139"/>
-      <c r="D34" s="139"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="139"/>
-      <c r="H34" s="139"/>
-      <c r="I34" s="139"/>
+      <c r="A34" s="139"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="144"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="144"/>
       <c r="J34" s="140"/>
     </row>
     <row r="35" spans="1:12" s="56" customFormat="1">
-      <c r="A35" s="176" t="s">
+      <c r="A35" s="185" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="177"/>
-      <c r="C35" s="177"/>
-      <c r="D35" s="177"/>
-      <c r="E35" s="177"/>
-      <c r="F35" s="177"/>
-      <c r="G35" s="177"/>
-      <c r="H35" s="177"/>
-      <c r="I35" s="177"/>
-      <c r="J35" s="178"/>
+      <c r="B35" s="194"/>
+      <c r="C35" s="194"/>
+      <c r="D35" s="194"/>
+      <c r="E35" s="194"/>
+      <c r="F35" s="194"/>
+      <c r="G35" s="194"/>
+      <c r="H35" s="194"/>
+      <c r="I35" s="194"/>
+      <c r="J35" s="195"/>
     </row>
     <row r="36" spans="1:12" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A36" s="59" t="s">
@@ -10664,16 +10662,16 @@
       <c r="B36" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="170" t="s">
+      <c r="C36" s="188" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="171"/>
-      <c r="E36" s="171"/>
-      <c r="F36" s="171"/>
-      <c r="G36" s="171"/>
-      <c r="H36" s="171"/>
-      <c r="I36" s="171"/>
-      <c r="J36" s="172"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="189"/>
+      <c r="G36" s="189"/>
+      <c r="H36" s="189"/>
+      <c r="I36" s="189"/>
+      <c r="J36" s="190"/>
     </row>
     <row r="37" spans="1:12" s="56" customFormat="1">
       <c r="A37" s="59">
@@ -10682,16 +10680,16 @@
       <c r="B37" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="173" t="s">
+      <c r="C37" s="196" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="174"/>
-      <c r="E37" s="174"/>
-      <c r="F37" s="174"/>
-      <c r="G37" s="174"/>
-      <c r="H37" s="174"/>
-      <c r="I37" s="174"/>
-      <c r="J37" s="175"/>
+      <c r="D37" s="192"/>
+      <c r="E37" s="192"/>
+      <c r="F37" s="192"/>
+      <c r="G37" s="192"/>
+      <c r="H37" s="192"/>
+      <c r="I37" s="192"/>
+      <c r="J37" s="193"/>
     </row>
     <row r="38" spans="1:12" s="56" customFormat="1">
       <c r="A38" s="59">
@@ -10700,16 +10698,16 @@
       <c r="B38" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="173" t="s">
+      <c r="C38" s="196" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="174"/>
-      <c r="E38" s="174"/>
-      <c r="F38" s="174"/>
-      <c r="G38" s="174"/>
-      <c r="H38" s="174"/>
-      <c r="I38" s="174"/>
-      <c r="J38" s="175"/>
+      <c r="D38" s="192"/>
+      <c r="E38" s="192"/>
+      <c r="F38" s="192"/>
+      <c r="G38" s="192"/>
+      <c r="H38" s="192"/>
+      <c r="I38" s="192"/>
+      <c r="J38" s="193"/>
     </row>
     <row r="39" spans="1:12" s="56" customFormat="1">
       <c r="A39" s="59">
@@ -10718,16 +10716,16 @@
       <c r="B39" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="173" t="s">
+      <c r="C39" s="196" t="s">
         <v>112</v>
       </c>
-      <c r="D39" s="174"/>
-      <c r="E39" s="174"/>
-      <c r="F39" s="174"/>
-      <c r="G39" s="174"/>
-      <c r="H39" s="174"/>
-      <c r="I39" s="174"/>
-      <c r="J39" s="175"/>
+      <c r="D39" s="192"/>
+      <c r="E39" s="192"/>
+      <c r="F39" s="192"/>
+      <c r="G39" s="192"/>
+      <c r="H39" s="192"/>
+      <c r="I39" s="192"/>
+      <c r="J39" s="193"/>
     </row>
     <row r="40" spans="1:12" s="56" customFormat="1">
       <c r="A40" s="59">
@@ -10736,42 +10734,42 @@
       <c r="B40" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="173" t="s">
+      <c r="C40" s="196" t="s">
         <v>112</v>
       </c>
-      <c r="D40" s="174"/>
-      <c r="E40" s="174"/>
-      <c r="F40" s="174"/>
-      <c r="G40" s="174"/>
-      <c r="H40" s="174"/>
-      <c r="I40" s="174"/>
-      <c r="J40" s="175"/>
+      <c r="D40" s="192"/>
+      <c r="E40" s="192"/>
+      <c r="F40" s="192"/>
+      <c r="G40" s="192"/>
+      <c r="H40" s="192"/>
+      <c r="I40" s="192"/>
+      <c r="J40" s="193"/>
     </row>
     <row r="41" spans="1:12" s="56" customFormat="1">
-      <c r="A41" s="169"/>
-      <c r="B41" s="139"/>
-      <c r="C41" s="139"/>
-      <c r="D41" s="139"/>
-      <c r="E41" s="139"/>
-      <c r="F41" s="139"/>
-      <c r="G41" s="139"/>
-      <c r="H41" s="139"/>
-      <c r="I41" s="139"/>
+      <c r="A41" s="139"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="144"/>
+      <c r="G41" s="144"/>
+      <c r="H41" s="144"/>
+      <c r="I41" s="144"/>
       <c r="J41" s="140"/>
     </row>
     <row r="42" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="164" t="s">
+      <c r="A42" s="181" t="s">
         <v>176</v>
       </c>
-      <c r="B42" s="165"/>
-      <c r="C42" s="165"/>
-      <c r="D42" s="165"/>
-      <c r="E42" s="165"/>
-      <c r="F42" s="165"/>
-      <c r="G42" s="165"/>
-      <c r="H42" s="165"/>
-      <c r="I42" s="165"/>
-      <c r="J42" s="166"/>
+      <c r="B42" s="203"/>
+      <c r="C42" s="203"/>
+      <c r="D42" s="203"/>
+      <c r="E42" s="203"/>
+      <c r="F42" s="203"/>
+      <c r="G42" s="203"/>
+      <c r="H42" s="203"/>
+      <c r="I42" s="203"/>
+      <c r="J42" s="204"/>
     </row>
     <row r="43" spans="1:12" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="81" t="s">
@@ -10786,14 +10784,14 @@
       <c r="D43" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="E43" s="167" t="s">
+      <c r="E43" s="205" t="s">
         <v>181</v>
       </c>
-      <c r="F43" s="168"/>
-      <c r="G43" s="168"/>
-      <c r="H43" s="168"/>
-      <c r="I43" s="168"/>
-      <c r="J43" s="168"/>
+      <c r="F43" s="206"/>
+      <c r="G43" s="206"/>
+      <c r="H43" s="206"/>
+      <c r="I43" s="206"/>
+      <c r="J43" s="206"/>
       <c r="K43" s="56"/>
       <c r="L43" s="56"/>
     </row>
@@ -10802,284 +10800,284 @@
         <v>1</v>
       </c>
       <c r="B44" s="145" t="s">
+        <v>210</v>
+      </c>
+      <c r="C44" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="D44" s="83"/>
+      <c r="E44" s="184" t="s">
+        <v>212</v>
+      </c>
+      <c r="F44" s="116"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="116"/>
+      <c r="I44" s="116"/>
+      <c r="J44" s="116"/>
+    </row>
+    <row r="45" spans="1:12" s="56" customFormat="1" ht="42" customHeight="1">
+      <c r="A45" s="146"/>
+      <c r="B45" s="146"/>
+      <c r="C45" s="97" t="s">
         <v>213</v>
       </c>
-      <c r="C44" s="83" t="s">
+      <c r="D45" s="83"/>
+      <c r="E45" s="153" t="s">
         <v>214</v>
       </c>
-      <c r="D44" s="83"/>
-      <c r="E44" s="144" t="s">
+      <c r="F45" s="154"/>
+      <c r="G45" s="154"/>
+      <c r="H45" s="154"/>
+      <c r="I45" s="154"/>
+      <c r="J45" s="155"/>
+    </row>
+    <row r="46" spans="1:12" s="56" customFormat="1" ht="49.5">
+      <c r="A46" s="146"/>
+      <c r="B46" s="146"/>
+      <c r="C46" s="97" t="s">
         <v>215</v>
       </c>
-      <c r="F44" s="130"/>
-      <c r="G44" s="130"/>
-      <c r="H44" s="130"/>
-      <c r="I44" s="130"/>
-      <c r="J44" s="130"/>
-    </row>
-    <row r="45" spans="1:12" s="56" customFormat="1" ht="42" customHeight="1">
-      <c r="A45" s="207"/>
-      <c r="B45" s="207"/>
-      <c r="C45" s="97" t="s">
+      <c r="D46" s="97"/>
+      <c r="E46" s="153" t="s">
         <v>216</v>
       </c>
-      <c r="D45" s="83"/>
-      <c r="E45" s="217" t="s">
+      <c r="F46" s="154"/>
+      <c r="G46" s="154"/>
+      <c r="H46" s="154"/>
+      <c r="I46" s="154"/>
+      <c r="J46" s="155"/>
+    </row>
+    <row r="47" spans="1:12" s="56" customFormat="1" ht="60" customHeight="1">
+      <c r="A47" s="147"/>
+      <c r="B47" s="147"/>
+      <c r="C47" s="97" t="s">
         <v>217</v>
       </c>
-      <c r="F45" s="218"/>
-      <c r="G45" s="218"/>
-      <c r="H45" s="218"/>
-      <c r="I45" s="218"/>
-      <c r="J45" s="219"/>
-    </row>
-    <row r="46" spans="1:12" s="56" customFormat="1" ht="49.5">
-      <c r="A46" s="207"/>
-      <c r="B46" s="207"/>
-      <c r="C46" s="97" t="s">
+      <c r="D47" s="97" t="s">
         <v>218</v>
       </c>
-      <c r="D46" s="97"/>
-      <c r="E46" s="217" t="s">
+      <c r="E47" s="156" t="s">
         <v>219</v>
       </c>
-      <c r="F46" s="218"/>
-      <c r="G46" s="218"/>
-      <c r="H46" s="218"/>
-      <c r="I46" s="218"/>
-      <c r="J46" s="219"/>
-    </row>
-    <row r="47" spans="1:12" s="56" customFormat="1" ht="60" customHeight="1">
-      <c r="A47" s="208"/>
-      <c r="B47" s="208"/>
-      <c r="C47" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="D47" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="E47" s="188" t="s">
-        <v>222</v>
-      </c>
-      <c r="F47" s="220"/>
-      <c r="G47" s="220"/>
-      <c r="H47" s="220"/>
-      <c r="I47" s="220"/>
-      <c r="J47" s="220"/>
+      <c r="F47" s="157"/>
+      <c r="G47" s="157"/>
+      <c r="H47" s="157"/>
+      <c r="I47" s="157"/>
+      <c r="J47" s="157"/>
     </row>
     <row r="48" spans="1:12" s="58" customFormat="1">
       <c r="A48" s="63"/>
-      <c r="B48" s="139"/>
-      <c r="C48" s="139"/>
-      <c r="D48" s="139"/>
-      <c r="E48" s="139"/>
-      <c r="F48" s="139"/>
-      <c r="G48" s="139"/>
-      <c r="H48" s="139"/>
-      <c r="I48" s="139"/>
+      <c r="B48" s="144"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="144"/>
+      <c r="E48" s="144"/>
+      <c r="F48" s="144"/>
+      <c r="G48" s="144"/>
+      <c r="H48" s="144"/>
+      <c r="I48" s="144"/>
       <c r="J48" s="140"/>
     </row>
     <row r="49" spans="1:10" s="58" customFormat="1">
-      <c r="A49" s="221" t="s">
+      <c r="A49" s="158" t="s">
         <v>184</v>
       </c>
-      <c r="B49" s="222"/>
-      <c r="C49" s="222"/>
-      <c r="D49" s="222"/>
-      <c r="E49" s="222"/>
-      <c r="F49" s="222"/>
-      <c r="G49" s="222"/>
-      <c r="H49" s="222"/>
-      <c r="I49" s="222"/>
-      <c r="J49" s="223"/>
+      <c r="B49" s="159"/>
+      <c r="C49" s="159"/>
+      <c r="D49" s="159"/>
+      <c r="E49" s="159"/>
+      <c r="F49" s="159"/>
+      <c r="G49" s="159"/>
+      <c r="H49" s="159"/>
+      <c r="I49" s="159"/>
+      <c r="J49" s="160"/>
     </row>
     <row r="50" spans="1:10" s="56" customFormat="1" ht="16.5" customHeight="1">
       <c r="A50" s="145">
         <v>1</v>
       </c>
-      <c r="B50" s="147" t="s">
+      <c r="B50" s="162" t="s">
+        <v>220</v>
+      </c>
+      <c r="C50" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="D50" s="97"/>
+      <c r="E50" s="184" t="s">
         <v>223</v>
       </c>
-      <c r="C50" s="84" t="s">
-        <v>225</v>
-      </c>
-      <c r="D50" s="97"/>
-      <c r="E50" s="144" t="s">
-        <v>226</v>
-      </c>
-      <c r="F50" s="130"/>
-      <c r="G50" s="130"/>
-      <c r="H50" s="130"/>
-      <c r="I50" s="130"/>
-      <c r="J50" s="130"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="116"/>
+      <c r="J50" s="116"/>
     </row>
     <row r="51" spans="1:10" s="56" customFormat="1" ht="49.5">
-      <c r="A51" s="146"/>
-      <c r="B51" s="148"/>
+      <c r="A51" s="161"/>
+      <c r="B51" s="163"/>
       <c r="C51" s="85" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D51" s="99" t="s">
         <v>200</v>
       </c>
-      <c r="E51" s="160" t="s">
-        <v>228</v>
-      </c>
-      <c r="F51" s="142"/>
-      <c r="G51" s="142"/>
-      <c r="H51" s="142"/>
-      <c r="I51" s="142"/>
-      <c r="J51" s="143"/>
+      <c r="E51" s="207" t="s">
+        <v>225</v>
+      </c>
+      <c r="F51" s="208"/>
+      <c r="G51" s="208"/>
+      <c r="H51" s="208"/>
+      <c r="I51" s="208"/>
+      <c r="J51" s="209"/>
     </row>
     <row r="52" spans="1:10" s="56" customFormat="1">
       <c r="A52" s="67">
         <v>2</v>
       </c>
-      <c r="B52" s="147" t="s">
+      <c r="B52" s="162" t="s">
         <v>186</v>
       </c>
       <c r="C52" s="84" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D52" s="86"/>
-      <c r="E52" s="136" t="s">
-        <v>229</v>
-      </c>
-      <c r="F52" s="137"/>
-      <c r="G52" s="137"/>
-      <c r="H52" s="137"/>
-      <c r="I52" s="137"/>
-      <c r="J52" s="138"/>
+      <c r="E52" s="211" t="s">
+        <v>226</v>
+      </c>
+      <c r="F52" s="212"/>
+      <c r="G52" s="212"/>
+      <c r="H52" s="212"/>
+      <c r="I52" s="212"/>
+      <c r="J52" s="213"/>
     </row>
     <row r="53" spans="1:10" s="56" customFormat="1" ht="86.25" customHeight="1">
       <c r="A53" s="67"/>
-      <c r="B53" s="161"/>
+      <c r="B53" s="210"/>
       <c r="C53" s="84" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D53" s="87" t="s">
         <v>200</v>
       </c>
-      <c r="E53" s="136" t="s">
-        <v>231</v>
-      </c>
-      <c r="F53" s="137"/>
-      <c r="G53" s="137"/>
-      <c r="H53" s="137"/>
-      <c r="I53" s="137"/>
-      <c r="J53" s="138"/>
+      <c r="E53" s="211" t="s">
+        <v>228</v>
+      </c>
+      <c r="F53" s="212"/>
+      <c r="G53" s="212"/>
+      <c r="H53" s="212"/>
+      <c r="I53" s="212"/>
+      <c r="J53" s="213"/>
     </row>
     <row r="54" spans="1:10" s="56" customFormat="1" ht="63.75" customHeight="1">
       <c r="A54" s="67"/>
-      <c r="B54" s="161"/>
+      <c r="B54" s="210"/>
       <c r="C54" s="97" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D54" s="97"/>
-      <c r="E54" s="217" t="s">
-        <v>233</v>
-      </c>
-      <c r="F54" s="218"/>
-      <c r="G54" s="218"/>
-      <c r="H54" s="218"/>
-      <c r="I54" s="218"/>
-      <c r="J54" s="219"/>
+      <c r="E54" s="153" t="s">
+        <v>230</v>
+      </c>
+      <c r="F54" s="154"/>
+      <c r="G54" s="154"/>
+      <c r="H54" s="154"/>
+      <c r="I54" s="154"/>
+      <c r="J54" s="155"/>
     </row>
     <row r="55" spans="1:10" s="56" customFormat="1" ht="49.5">
       <c r="A55" s="67"/>
-      <c r="B55" s="161"/>
+      <c r="B55" s="210"/>
       <c r="C55" s="97" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D55" s="97" t="s">
         <v>182</v>
       </c>
-      <c r="E55" s="188" t="s">
+      <c r="E55" s="156" t="s">
         <v>183</v>
       </c>
-      <c r="F55" s="220"/>
-      <c r="G55" s="220"/>
-      <c r="H55" s="220"/>
-      <c r="I55" s="220"/>
-      <c r="J55" s="220"/>
+      <c r="F55" s="157"/>
+      <c r="G55" s="157"/>
+      <c r="H55" s="157"/>
+      <c r="I55" s="157"/>
+      <c r="J55" s="157"/>
     </row>
     <row r="56" spans="1:10" s="56" customFormat="1">
       <c r="A56" s="67"/>
-      <c r="B56" s="161"/>
+      <c r="B56" s="210"/>
       <c r="C56" s="84" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D56" s="86"/>
-      <c r="E56" s="141" t="s">
-        <v>236</v>
-      </c>
-      <c r="F56" s="162"/>
-      <c r="G56" s="162"/>
-      <c r="H56" s="162"/>
-      <c r="I56" s="162"/>
-      <c r="J56" s="163"/>
+      <c r="E56" s="136" t="s">
+        <v>233</v>
+      </c>
+      <c r="F56" s="214"/>
+      <c r="G56" s="214"/>
+      <c r="H56" s="214"/>
+      <c r="I56" s="214"/>
+      <c r="J56" s="215"/>
     </row>
     <row r="57" spans="1:10" s="56" customFormat="1" ht="49.5">
       <c r="A57" s="67"/>
-      <c r="B57" s="148"/>
+      <c r="B57" s="163"/>
       <c r="C57" s="84" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D57" s="86"/>
-      <c r="E57" s="141" t="s">
+      <c r="E57" s="136" t="s">
         <v>187</v>
       </c>
-      <c r="F57" s="162"/>
-      <c r="G57" s="162"/>
-      <c r="H57" s="162"/>
-      <c r="I57" s="162"/>
-      <c r="J57" s="163"/>
+      <c r="F57" s="214"/>
+      <c r="G57" s="214"/>
+      <c r="H57" s="214"/>
+      <c r="I57" s="214"/>
+      <c r="J57" s="215"/>
     </row>
     <row r="58" spans="1:10" s="56" customFormat="1" ht="79.5" customHeight="1">
       <c r="A58" s="69">
         <v>3</v>
       </c>
       <c r="B58" s="100" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C58" s="84" t="s">
         <v>185</v>
       </c>
       <c r="D58" s="88"/>
-      <c r="E58" s="149" t="s">
-        <v>239</v>
-      </c>
-      <c r="F58" s="150"/>
-      <c r="G58" s="150"/>
-      <c r="H58" s="150"/>
-      <c r="I58" s="150"/>
-      <c r="J58" s="151"/>
+      <c r="E58" s="216" t="s">
+        <v>236</v>
+      </c>
+      <c r="F58" s="217"/>
+      <c r="G58" s="217"/>
+      <c r="H58" s="217"/>
+      <c r="I58" s="217"/>
+      <c r="J58" s="218"/>
     </row>
     <row r="59" spans="1:10" s="56" customFormat="1">
       <c r="A59" s="70"/>
-      <c r="B59" s="139"/>
-      <c r="C59" s="139"/>
-      <c r="D59" s="139"/>
-      <c r="E59" s="139"/>
-      <c r="F59" s="139"/>
-      <c r="G59" s="139"/>
-      <c r="H59" s="139"/>
-      <c r="I59" s="139"/>
+      <c r="B59" s="144"/>
+      <c r="C59" s="144"/>
+      <c r="D59" s="144"/>
+      <c r="E59" s="144"/>
+      <c r="F59" s="144"/>
+      <c r="G59" s="144"/>
+      <c r="H59" s="144"/>
+      <c r="I59" s="144"/>
       <c r="J59" s="140"/>
     </row>
     <row r="60" spans="1:10" s="56" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A60" s="152" t="s">
+      <c r="A60" s="219" t="s">
         <v>188</v>
       </c>
-      <c r="B60" s="153"/>
-      <c r="C60" s="153"/>
-      <c r="D60" s="153"/>
-      <c r="E60" s="153"/>
-      <c r="F60" s="153"/>
-      <c r="G60" s="153"/>
-      <c r="H60" s="153"/>
-      <c r="I60" s="153"/>
-      <c r="J60" s="154"/>
+      <c r="B60" s="220"/>
+      <c r="C60" s="220"/>
+      <c r="D60" s="220"/>
+      <c r="E60" s="220"/>
+      <c r="F60" s="220"/>
+      <c r="G60" s="220"/>
+      <c r="H60" s="220"/>
+      <c r="I60" s="220"/>
+      <c r="J60" s="221"/>
     </row>
     <row r="61" spans="1:10" s="56" customFormat="1" ht="63.75" customHeight="1">
       <c r="A61" s="59">
@@ -11092,252 +11090,252 @@
         <v>185</v>
       </c>
       <c r="D61" s="97"/>
-      <c r="E61" s="155" t="s">
-        <v>240</v>
-      </c>
-      <c r="F61" s="156"/>
-      <c r="G61" s="156"/>
-      <c r="H61" s="156"/>
-      <c r="I61" s="156"/>
-      <c r="J61" s="156"/>
+      <c r="E61" s="222" t="s">
+        <v>237</v>
+      </c>
+      <c r="F61" s="223"/>
+      <c r="G61" s="223"/>
+      <c r="H61" s="223"/>
+      <c r="I61" s="223"/>
+      <c r="J61" s="223"/>
     </row>
     <row r="62" spans="1:10" s="56" customFormat="1" ht="54.75" customHeight="1">
       <c r="A62" s="59">
         <v>2</v>
       </c>
       <c r="B62" s="100" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C62" s="84" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D62" s="94"/>
-      <c r="E62" s="157" t="s">
-        <v>243</v>
-      </c>
-      <c r="F62" s="158"/>
-      <c r="G62" s="158"/>
-      <c r="H62" s="158"/>
-      <c r="I62" s="158"/>
-      <c r="J62" s="159"/>
+      <c r="E62" s="164" t="s">
+        <v>240</v>
+      </c>
+      <c r="F62" s="165"/>
+      <c r="G62" s="165"/>
+      <c r="H62" s="165"/>
+      <c r="I62" s="165"/>
+      <c r="J62" s="166"/>
     </row>
     <row r="63" spans="1:10" s="56" customFormat="1" ht="27.75" customHeight="1">
       <c r="A63" s="145">
         <v>3</v>
       </c>
-      <c r="B63" s="147" t="s">
+      <c r="B63" s="162" t="s">
+        <v>241</v>
+      </c>
+      <c r="C63" s="84" t="s">
+        <v>242</v>
+      </c>
+      <c r="D63" s="94"/>
+      <c r="E63" s="211" t="s">
+        <v>243</v>
+      </c>
+      <c r="F63" s="212"/>
+      <c r="G63" s="212"/>
+      <c r="H63" s="212"/>
+      <c r="I63" s="212"/>
+      <c r="J63" s="213"/>
+    </row>
+    <row r="64" spans="1:10" s="56" customFormat="1" ht="39" customHeight="1">
+      <c r="A64" s="161"/>
+      <c r="B64" s="163"/>
+      <c r="C64" s="84" t="s">
         <v>244</v>
-      </c>
-      <c r="C63" s="84" t="s">
-        <v>245</v>
-      </c>
-      <c r="D63" s="94"/>
-      <c r="E63" s="136" t="s">
-        <v>246</v>
-      </c>
-      <c r="F63" s="137"/>
-      <c r="G63" s="137"/>
-      <c r="H63" s="137"/>
-      <c r="I63" s="137"/>
-      <c r="J63" s="138"/>
-    </row>
-    <row r="64" spans="1:10" s="56" customFormat="1" ht="39" customHeight="1">
-      <c r="A64" s="146"/>
-      <c r="B64" s="148"/>
-      <c r="C64" s="84" t="s">
-        <v>247</v>
       </c>
       <c r="D64" s="89" t="s">
         <v>190</v>
       </c>
-      <c r="E64" s="141" t="s" ph="1">
-        <v>248</v>
-      </c>
-      <c r="F64" s="142"/>
-      <c r="G64" s="142"/>
-      <c r="H64" s="142"/>
-      <c r="I64" s="142"/>
-      <c r="J64" s="143"/>
+      <c r="E64" s="136" t="s" ph="1">
+        <v>245</v>
+      </c>
+      <c r="F64" s="208"/>
+      <c r="G64" s="208"/>
+      <c r="H64" s="208"/>
+      <c r="I64" s="208"/>
+      <c r="J64" s="209"/>
     </row>
     <row r="65" spans="1:10" s="56" customFormat="1">
       <c r="A65" s="145">
         <v>4</v>
       </c>
-      <c r="B65" s="147" t="s">
+      <c r="B65" s="162" t="s">
+        <v>246</v>
+      </c>
+      <c r="C65" s="84" t="s">
+        <v>242</v>
+      </c>
+      <c r="D65" s="89"/>
+      <c r="E65" s="164" t="s">
+        <v>247</v>
+      </c>
+      <c r="F65" s="165"/>
+      <c r="G65" s="165"/>
+      <c r="H65" s="165"/>
+      <c r="I65" s="165"/>
+      <c r="J65" s="166"/>
+    </row>
+    <row r="66" spans="1:10" s="56" customFormat="1" ht="24" customHeight="1">
+      <c r="A66" s="161"/>
+      <c r="B66" s="163"/>
+      <c r="C66" s="84" t="s">
+        <v>248</v>
+      </c>
+      <c r="D66" s="87" t="s">
         <v>249</v>
       </c>
-      <c r="C65" s="84" t="s">
-        <v>245</v>
-      </c>
-      <c r="D65" s="89"/>
-      <c r="E65" s="157" t="s">
+      <c r="E66" s="211" t="s">
         <v>250</v>
       </c>
-      <c r="F65" s="158"/>
-      <c r="G65" s="158"/>
-      <c r="H65" s="158"/>
-      <c r="I65" s="158"/>
-      <c r="J65" s="159"/>
-    </row>
-    <row r="66" spans="1:10" s="56" customFormat="1" ht="24" customHeight="1">
-      <c r="A66" s="146"/>
-      <c r="B66" s="148"/>
-      <c r="C66" s="84" t="s">
-        <v>251</v>
-      </c>
-      <c r="D66" s="87" t="s">
-        <v>252</v>
-      </c>
-      <c r="E66" s="136" t="s">
-        <v>253</v>
-      </c>
-      <c r="F66" s="137"/>
-      <c r="G66" s="137"/>
-      <c r="H66" s="137"/>
-      <c r="I66" s="137"/>
-      <c r="J66" s="138"/>
+      <c r="F66" s="212"/>
+      <c r="G66" s="212"/>
+      <c r="H66" s="212"/>
+      <c r="I66" s="212"/>
+      <c r="J66" s="213"/>
     </row>
     <row r="67" spans="1:10" s="56" customFormat="1">
       <c r="A67" s="145">
         <v>5</v>
       </c>
-      <c r="B67" s="147" t="s">
+      <c r="B67" s="162" t="s">
+        <v>251</v>
+      </c>
+      <c r="C67" s="84" t="s">
+        <v>239</v>
+      </c>
+      <c r="D67" s="94"/>
+      <c r="E67" s="211" t="s">
+        <v>252</v>
+      </c>
+      <c r="F67" s="212"/>
+      <c r="G67" s="212"/>
+      <c r="H67" s="212"/>
+      <c r="I67" s="212"/>
+      <c r="J67" s="213"/>
+    </row>
+    <row r="68" spans="1:10" s="56" customFormat="1" ht="49.5">
+      <c r="A68" s="161"/>
+      <c r="B68" s="163"/>
+      <c r="C68" s="84" t="s">
+        <v>253</v>
+      </c>
+      <c r="D68" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="C67" s="84" t="s">
-        <v>242</v>
-      </c>
-      <c r="D67" s="94"/>
-      <c r="E67" s="136" t="s">
+      <c r="E68" s="211" t="s">
         <v>255</v>
       </c>
-      <c r="F67" s="137"/>
-      <c r="G67" s="137"/>
-      <c r="H67" s="137"/>
-      <c r="I67" s="137"/>
-      <c r="J67" s="138"/>
-    </row>
-    <row r="68" spans="1:10" s="56" customFormat="1" ht="49.5">
-      <c r="A68" s="146"/>
-      <c r="B68" s="148"/>
-      <c r="C68" s="84" t="s">
-        <v>256</v>
-      </c>
-      <c r="D68" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="E68" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="F68" s="137"/>
-      <c r="G68" s="137"/>
-      <c r="H68" s="137"/>
-      <c r="I68" s="137"/>
-      <c r="J68" s="138"/>
+      <c r="F68" s="212"/>
+      <c r="G68" s="212"/>
+      <c r="H68" s="212"/>
+      <c r="I68" s="212"/>
+      <c r="J68" s="213"/>
     </row>
     <row r="69" spans="1:10" s="56" customFormat="1">
       <c r="A69" s="71"/>
-      <c r="B69" s="139"/>
-      <c r="C69" s="139"/>
-      <c r="D69" s="139"/>
-      <c r="E69" s="139"/>
-      <c r="F69" s="139"/>
-      <c r="G69" s="139"/>
-      <c r="H69" s="139"/>
-      <c r="I69" s="139"/>
+      <c r="B69" s="144"/>
+      <c r="C69" s="144"/>
+      <c r="D69" s="144"/>
+      <c r="E69" s="144"/>
+      <c r="F69" s="144"/>
+      <c r="G69" s="144"/>
+      <c r="H69" s="144"/>
+      <c r="I69" s="144"/>
       <c r="J69" s="140"/>
     </row>
     <row r="70" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A70" s="214" t="s">
+      <c r="A70" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="215"/>
-      <c r="C70" s="215"/>
-      <c r="D70" s="215"/>
-      <c r="E70" s="215"/>
-      <c r="F70" s="215"/>
-      <c r="G70" s="215"/>
-      <c r="H70" s="215"/>
-      <c r="I70" s="215"/>
-      <c r="J70" s="216"/>
+      <c r="B70" s="151"/>
+      <c r="C70" s="151"/>
+      <c r="D70" s="151"/>
+      <c r="E70" s="151"/>
+      <c r="F70" s="151"/>
+      <c r="G70" s="151"/>
+      <c r="H70" s="151"/>
+      <c r="I70" s="151"/>
+      <c r="J70" s="152"/>
     </row>
     <row r="71" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="212" t="s">
+      <c r="B71" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="213"/>
-      <c r="D71" s="141" t="s">
+      <c r="C71" s="149"/>
+      <c r="D71" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="121"/>
-      <c r="F71" s="121"/>
-      <c r="G71" s="121"/>
-      <c r="H71" s="121"/>
-      <c r="I71" s="121"/>
-      <c r="J71" s="122"/>
+      <c r="E71" s="120"/>
+      <c r="F71" s="120"/>
+      <c r="G71" s="120"/>
+      <c r="H71" s="120"/>
+      <c r="I71" s="120"/>
+      <c r="J71" s="121"/>
     </row>
     <row r="72" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A72" s="209"/>
-      <c r="B72" s="210"/>
-      <c r="C72" s="210"/>
-      <c r="D72" s="210"/>
-      <c r="E72" s="210"/>
-      <c r="F72" s="210"/>
-      <c r="G72" s="210"/>
-      <c r="H72" s="210"/>
-      <c r="I72" s="210"/>
-      <c r="J72" s="211"/>
+      <c r="A72" s="141"/>
+      <c r="B72" s="142"/>
+      <c r="C72" s="142"/>
+      <c r="D72" s="142"/>
+      <c r="E72" s="142"/>
+      <c r="F72" s="142"/>
+      <c r="G72" s="142"/>
+      <c r="H72" s="142"/>
+      <c r="I72" s="142"/>
+      <c r="J72" s="143"/>
     </row>
     <row r="73" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="69"/>
-      <c r="B73" s="169"/>
+      <c r="B73" s="139"/>
       <c r="C73" s="140"/>
-      <c r="D73" s="141"/>
-      <c r="E73" s="205"/>
-      <c r="F73" s="205"/>
-      <c r="G73" s="205"/>
-      <c r="H73" s="205"/>
-      <c r="I73" s="205"/>
-      <c r="J73" s="206"/>
+      <c r="D73" s="136"/>
+      <c r="E73" s="137"/>
+      <c r="F73" s="137"/>
+      <c r="G73" s="137"/>
+      <c r="H73" s="137"/>
+      <c r="I73" s="137"/>
+      <c r="J73" s="138"/>
     </row>
     <row r="74" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="69"/>
-      <c r="B74" s="169"/>
+      <c r="B74" s="139"/>
       <c r="C74" s="140"/>
-      <c r="D74" s="141"/>
-      <c r="E74" s="205"/>
-      <c r="F74" s="205"/>
-      <c r="G74" s="205"/>
-      <c r="H74" s="205"/>
-      <c r="I74" s="205"/>
-      <c r="J74" s="206"/>
+      <c r="D74" s="136"/>
+      <c r="E74" s="137"/>
+      <c r="F74" s="137"/>
+      <c r="G74" s="137"/>
+      <c r="H74" s="137"/>
+      <c r="I74" s="137"/>
+      <c r="J74" s="138"/>
     </row>
     <row r="75" spans="1:10" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A75" s="209"/>
-      <c r="B75" s="210"/>
-      <c r="C75" s="210"/>
-      <c r="D75" s="210"/>
-      <c r="E75" s="210"/>
-      <c r="F75" s="210"/>
-      <c r="G75" s="210"/>
-      <c r="H75" s="210"/>
-      <c r="I75" s="210"/>
-      <c r="J75" s="211"/>
+      <c r="A75" s="141"/>
+      <c r="B75" s="142"/>
+      <c r="C75" s="142"/>
+      <c r="D75" s="142"/>
+      <c r="E75" s="142"/>
+      <c r="F75" s="142"/>
+      <c r="G75" s="142"/>
+      <c r="H75" s="142"/>
+      <c r="I75" s="142"/>
+      <c r="J75" s="143"/>
     </row>
     <row r="76" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A76" s="69"/>
-      <c r="B76" s="169"/>
+      <c r="B76" s="139"/>
       <c r="C76" s="140"/>
-      <c r="D76" s="141"/>
-      <c r="E76" s="205"/>
-      <c r="F76" s="205"/>
-      <c r="G76" s="205"/>
-      <c r="H76" s="205"/>
-      <c r="I76" s="205"/>
-      <c r="J76" s="206"/>
+      <c r="D76" s="136"/>
+      <c r="E76" s="137"/>
+      <c r="F76" s="137"/>
+      <c r="G76" s="137"/>
+      <c r="H76" s="137"/>
+      <c r="I76" s="137"/>
+      <c r="J76" s="138"/>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="72" t="s">
@@ -11360,14 +11358,14 @@
       <c r="B78" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="169"/>
-      <c r="D78" s="121"/>
-      <c r="E78" s="121"/>
-      <c r="F78" s="121"/>
-      <c r="G78" s="121"/>
-      <c r="H78" s="121"/>
-      <c r="I78" s="121"/>
-      <c r="J78" s="122"/>
+      <c r="C78" s="139"/>
+      <c r="D78" s="120"/>
+      <c r="E78" s="120"/>
+      <c r="F78" s="120"/>
+      <c r="G78" s="120"/>
+      <c r="H78" s="120"/>
+      <c r="I78" s="120"/>
+      <c r="J78" s="121"/>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="69">
@@ -11376,22 +11374,82 @@
       <c r="B79" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="188"/>
-      <c r="D79" s="188"/>
-      <c r="E79" s="188"/>
-      <c r="F79" s="188"/>
-      <c r="G79" s="188"/>
-      <c r="H79" s="188"/>
-      <c r="I79" s="188"/>
-      <c r="J79" s="188"/>
+      <c r="C79" s="156"/>
+      <c r="D79" s="156"/>
+      <c r="E79" s="156"/>
+      <c r="F79" s="156"/>
+      <c r="G79" s="156"/>
+      <c r="H79" s="156"/>
+      <c r="I79" s="156"/>
+      <c r="J79" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="D76:J76"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="A75:J75"/>
-    <mergeCell ref="D74:J74"/>
-    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="E63:J63"/>
+    <mergeCell ref="B59:J59"/>
+    <mergeCell ref="E64:J64"/>
+    <mergeCell ref="E50:J50"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="E68:J68"/>
+    <mergeCell ref="E58:J58"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="A60:J60"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="E62:J62"/>
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="E56:J56"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="C37:J37"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="D73:J73"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="D71:J71"/>
     <mergeCell ref="B69:J69"/>
     <mergeCell ref="A44:A47"/>
     <mergeCell ref="A72:J72"/>
@@ -11408,71 +11466,11 @@
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="E65:J65"/>
-    <mergeCell ref="C79:J79"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="D73:J73"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="D71:J71"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="C37:J37"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="E62:J62"/>
-    <mergeCell ref="E51:J51"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="E56:J56"/>
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="E63:J63"/>
-    <mergeCell ref="B59:J59"/>
-    <mergeCell ref="E64:J64"/>
-    <mergeCell ref="E50:J50"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="E68:J68"/>
-    <mergeCell ref="E58:J58"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="D76:J76"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="D74:J74"/>
+    <mergeCell ref="B74:C74"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -11525,7 +11523,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="189" t="s">
+      <c r="K1" s="167" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="39"/>
@@ -11552,7 +11550,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="190"/>
+      <c r="K2" s="168"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -11570,7 +11568,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="190"/>
+      <c r="K3" s="168"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -11891,10 +11889,10 @@
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="43" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="J18" s="46" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -12044,8 +12042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:J17"/>
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12074,7 +12072,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="189" t="s">
+      <c r="K1" s="167" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="54"/>
@@ -12095,7 +12093,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="190"/>
+      <c r="K2" s="168"/>
     </row>
     <row r="3" spans="1:17" s="55" customFormat="1">
       <c r="A3" s="47"/>
@@ -12108,7 +12106,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="190"/>
+      <c r="K3" s="168"/>
     </row>
     <row r="4" spans="1:17" s="55" customFormat="1">
       <c r="A4" s="47"/>
@@ -12123,7 +12121,7 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="172" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="118"/>
@@ -12137,57 +12135,57 @@
       <c r="J5" s="119"/>
     </row>
     <row r="6" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="133"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="135"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="124"/>
     </row>
     <row r="7" spans="1:17" s="56" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="195"/>
-      <c r="B7" s="196"/>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="198"/>
+      <c r="A7" s="173"/>
+      <c r="B7" s="174"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="176"/>
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:17" s="56" customFormat="1">
-      <c r="A8" s="195"/>
-      <c r="B8" s="196"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="197"/>
-      <c r="J8" s="198"/>
+      <c r="A8" s="173"/>
+      <c r="B8" s="174"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="176"/>
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:17" s="56" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="199"/>
-      <c r="B9" s="200"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="200"/>
-      <c r="F9" s="200"/>
-      <c r="G9" s="200"/>
-      <c r="H9" s="200"/>
-      <c r="I9" s="200"/>
-      <c r="J9" s="201"/>
+      <c r="A9" s="177"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="179"/>
     </row>
     <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="194" t="s">
+      <c r="A10" s="172" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="118"/>
@@ -12201,21 +12199,21 @@
       <c r="J10" s="119"/>
     </row>
     <row r="11" spans="1:17" s="58" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="202" t="s">
+      <c r="A11" s="180" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="122"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="121"/>
     </row>
     <row r="12" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="194" t="s">
+      <c r="A12" s="172" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="118"/>
@@ -12229,21 +12227,21 @@
       <c r="J12" s="119"/>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="202" t="s">
+      <c r="A13" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="122"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="194" t="s">
+      <c r="A14" s="172" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="118"/>
@@ -12257,18 +12255,18 @@
       <c r="J14" s="119"/>
     </row>
     <row r="15" spans="1:17" s="56" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A15" s="176" t="s">
+      <c r="A15" s="185" t="s">
         <v>137</v>
       </c>
-      <c r="B15" s="185"/>
-      <c r="C15" s="185"/>
-      <c r="D15" s="185"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="186"/>
+      <c r="B15" s="186"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="187"/>
     </row>
     <row r="16" spans="1:17" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="59" t="s">
@@ -12277,16 +12275,16 @@
       <c r="B16" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="170" t="s">
+      <c r="C16" s="188" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="171"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="172"/>
+      <c r="D16" s="189"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="190"/>
     </row>
     <row r="17" spans="1:10" s="56" customFormat="1" ht="73.5" customHeight="1">
       <c r="A17" s="59">
@@ -12295,16 +12293,16 @@
       <c r="B17" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="187" t="s">
-        <v>261</v>
-      </c>
-      <c r="D17" s="174"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="174"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="175"/>
+      <c r="C17" s="191" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="192"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="193"/>
     </row>
     <row r="18" spans="1:10" s="56" customFormat="1" ht="65.25" customHeight="1">
       <c r="A18" s="59">
@@ -12313,16 +12311,16 @@
       <c r="B18" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="187" t="s">
-        <v>262</v>
-      </c>
-      <c r="D18" s="174"/>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="175"/>
+      <c r="C18" s="191" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="193"/>
     </row>
     <row r="19" spans="1:10" s="56" customFormat="1">
       <c r="A19" s="59">
@@ -12331,16 +12329,16 @@
       <c r="B19" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="173" t="s">
+      <c r="C19" s="196" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="174"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="174"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="175"/>
+      <c r="D19" s="192"/>
+      <c r="E19" s="192"/>
+      <c r="F19" s="192"/>
+      <c r="G19" s="192"/>
+      <c r="H19" s="192"/>
+      <c r="I19" s="192"/>
+      <c r="J19" s="193"/>
     </row>
     <row r="20" spans="1:10" s="56" customFormat="1">
       <c r="A20" s="59">
@@ -12349,16 +12347,16 @@
       <c r="B20" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="173" t="s">
+      <c r="C20" s="196" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="174"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="174"/>
-      <c r="H20" s="174"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="175"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="192"/>
+      <c r="F20" s="192"/>
+      <c r="G20" s="192"/>
+      <c r="H20" s="192"/>
+      <c r="I20" s="192"/>
+      <c r="J20" s="193"/>
     </row>
     <row r="21" spans="1:10" s="56" customFormat="1">
       <c r="A21" s="59">
@@ -12367,56 +12365,56 @@
       <c r="B21" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="173" t="s">
+      <c r="C21" s="196" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="174"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="174"/>
-      <c r="G21" s="174"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="174"/>
-      <c r="J21" s="175"/>
+      <c r="D21" s="192"/>
+      <c r="E21" s="192"/>
+      <c r="F21" s="192"/>
+      <c r="G21" s="192"/>
+      <c r="H21" s="192"/>
+      <c r="I21" s="192"/>
+      <c r="J21" s="193"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1">
-      <c r="A22" s="191"/>
-      <c r="B22" s="192"/>
-      <c r="C22" s="192"/>
-      <c r="D22" s="192"/>
-      <c r="E22" s="192"/>
-      <c r="F22" s="192"/>
-      <c r="G22" s="192"/>
-      <c r="H22" s="192"/>
-      <c r="I22" s="192"/>
-      <c r="J22" s="193"/>
+      <c r="A22" s="169"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="171"/>
     </row>
     <row r="23" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="164" t="s">
+      <c r="A23" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="203"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="203"/>
-      <c r="E23" s="203"/>
-      <c r="F23" s="203"/>
-      <c r="G23" s="203"/>
-      <c r="H23" s="203"/>
-      <c r="I23" s="203"/>
-      <c r="J23" s="204"/>
+      <c r="B23" s="182"/>
+      <c r="C23" s="182"/>
+      <c r="D23" s="182"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="182"/>
+      <c r="G23" s="182"/>
+      <c r="H23" s="182"/>
+      <c r="I23" s="182"/>
+      <c r="J23" s="183"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1" ht="36" customHeight="1">
-      <c r="A24" s="176" t="s">
+      <c r="A24" s="185" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="185"/>
-      <c r="C24" s="185"/>
-      <c r="D24" s="185"/>
-      <c r="E24" s="185"/>
-      <c r="F24" s="185"/>
-      <c r="G24" s="185"/>
-      <c r="H24" s="185"/>
-      <c r="I24" s="185"/>
-      <c r="J24" s="186"/>
+      <c r="B24" s="186"/>
+      <c r="C24" s="186"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="186"/>
+      <c r="F24" s="186"/>
+      <c r="G24" s="186"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="186"/>
+      <c r="J24" s="187"/>
     </row>
     <row r="25" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A25" s="59" t="s">
@@ -12425,16 +12423,16 @@
       <c r="B25" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="170" t="s">
+      <c r="C25" s="188" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="171"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="172"/>
+      <c r="D25" s="189"/>
+      <c r="E25" s="189"/>
+      <c r="F25" s="189"/>
+      <c r="G25" s="189"/>
+      <c r="H25" s="189"/>
+      <c r="I25" s="189"/>
+      <c r="J25" s="190"/>
     </row>
     <row r="26" spans="1:10" s="56" customFormat="1" ht="33" customHeight="1">
       <c r="A26" s="59">
@@ -12443,16 +12441,16 @@
       <c r="B26" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="187" t="s">
-        <v>321</v>
-      </c>
-      <c r="D26" s="174"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="174"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="175"/>
+      <c r="C26" s="191" t="s">
+        <v>319</v>
+      </c>
+      <c r="D26" s="192"/>
+      <c r="E26" s="192"/>
+      <c r="F26" s="192"/>
+      <c r="G26" s="192"/>
+      <c r="H26" s="192"/>
+      <c r="I26" s="192"/>
+      <c r="J26" s="193"/>
     </row>
     <row r="27" spans="1:10" s="56" customFormat="1" ht="32.25" customHeight="1">
       <c r="A27" s="59">
@@ -12461,16 +12459,16 @@
       <c r="B27" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="187" t="s">
-        <v>210</v>
-      </c>
-      <c r="D27" s="174"/>
-      <c r="E27" s="174"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="174"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="175"/>
+      <c r="C27" s="191" t="s">
+        <v>320</v>
+      </c>
+      <c r="D27" s="192"/>
+      <c r="E27" s="192"/>
+      <c r="F27" s="192"/>
+      <c r="G27" s="192"/>
+      <c r="H27" s="192"/>
+      <c r="I27" s="192"/>
+      <c r="J27" s="193"/>
     </row>
     <row r="28" spans="1:10" s="56" customFormat="1">
       <c r="A28" s="59">
@@ -12479,16 +12477,16 @@
       <c r="B28" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="173" t="s">
+      <c r="C28" s="196" t="s">
         <v>122</v>
       </c>
-      <c r="D28" s="174"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="174"/>
-      <c r="H28" s="174"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="175"/>
+      <c r="D28" s="192"/>
+      <c r="E28" s="192"/>
+      <c r="F28" s="192"/>
+      <c r="G28" s="192"/>
+      <c r="H28" s="192"/>
+      <c r="I28" s="192"/>
+      <c r="J28" s="193"/>
     </row>
     <row r="29" spans="1:10" s="56" customFormat="1">
       <c r="A29" s="59">
@@ -12497,16 +12495,16 @@
       <c r="B29" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="173" t="s">
+      <c r="C29" s="196" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="174"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="174"/>
-      <c r="G29" s="174"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="175"/>
+      <c r="D29" s="192"/>
+      <c r="E29" s="192"/>
+      <c r="F29" s="192"/>
+      <c r="G29" s="192"/>
+      <c r="H29" s="192"/>
+      <c r="I29" s="192"/>
+      <c r="J29" s="193"/>
     </row>
     <row r="30" spans="1:10" s="56" customFormat="1">
       <c r="A30" s="59">
@@ -12515,42 +12513,42 @@
       <c r="B30" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="173" t="s">
+      <c r="C30" s="196" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="174"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="174"/>
-      <c r="G30" s="174"/>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="175"/>
+      <c r="D30" s="192"/>
+      <c r="E30" s="192"/>
+      <c r="F30" s="192"/>
+      <c r="G30" s="192"/>
+      <c r="H30" s="192"/>
+      <c r="I30" s="192"/>
+      <c r="J30" s="193"/>
     </row>
     <row r="31" spans="1:10" s="56" customFormat="1">
-      <c r="A31" s="191"/>
-      <c r="B31" s="241"/>
-      <c r="C31" s="241"/>
-      <c r="D31" s="241"/>
-      <c r="E31" s="241"/>
-      <c r="F31" s="241"/>
-      <c r="G31" s="241"/>
-      <c r="H31" s="241"/>
-      <c r="I31" s="241"/>
-      <c r="J31" s="242"/>
+      <c r="A31" s="169"/>
+      <c r="B31" s="227"/>
+      <c r="C31" s="227"/>
+      <c r="D31" s="227"/>
+      <c r="E31" s="227"/>
+      <c r="F31" s="227"/>
+      <c r="G31" s="227"/>
+      <c r="H31" s="227"/>
+      <c r="I31" s="227"/>
+      <c r="J31" s="228"/>
     </row>
     <row r="32" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A32" s="164" t="s">
+      <c r="A32" s="181" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="203"/>
-      <c r="C32" s="203"/>
-      <c r="D32" s="203"/>
-      <c r="E32" s="203"/>
-      <c r="F32" s="203"/>
-      <c r="G32" s="203"/>
-      <c r="H32" s="203"/>
-      <c r="I32" s="203"/>
-      <c r="J32" s="204"/>
+      <c r="B32" s="182"/>
+      <c r="C32" s="182"/>
+      <c r="D32" s="182"/>
+      <c r="E32" s="182"/>
+      <c r="F32" s="182"/>
+      <c r="G32" s="182"/>
+      <c r="H32" s="182"/>
+      <c r="I32" s="182"/>
+      <c r="J32" s="183"/>
     </row>
     <row r="33" spans="1:12" s="77" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="60" t="s">
@@ -12565,14 +12563,14 @@
       <c r="D33" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="E33" s="236" t="s">
+      <c r="E33" s="231" t="s">
         <v>181</v>
       </c>
-      <c r="F33" s="237"/>
-      <c r="G33" s="237"/>
-      <c r="H33" s="237"/>
-      <c r="I33" s="237"/>
-      <c r="J33" s="238"/>
+      <c r="F33" s="232"/>
+      <c r="G33" s="232"/>
+      <c r="H33" s="232"/>
+      <c r="I33" s="232"/>
+      <c r="J33" s="233"/>
       <c r="K33" s="56"/>
       <c r="L33" s="56"/>
     </row>
@@ -12584,217 +12582,217 @@
         <v>191</v>
       </c>
       <c r="C34" s="83" t="s">
+        <v>260</v>
+      </c>
+      <c r="D34" s="98"/>
+      <c r="E34" s="184" t="s">
+        <v>192</v>
+      </c>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+    </row>
+    <row r="35" spans="1:12" s="58" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A35" s="146"/>
+      <c r="B35" s="146"/>
+      <c r="C35" s="97" t="s">
+        <v>261</v>
+      </c>
+      <c r="D35" s="99" t="s">
+        <v>262</v>
+      </c>
+      <c r="E35" s="153" t="s">
         <v>263</v>
       </c>
-      <c r="D34" s="98"/>
-      <c r="E34" s="144" t="s">
-        <v>192</v>
-      </c>
-      <c r="F34" s="130"/>
-      <c r="G34" s="130"/>
-      <c r="H34" s="130"/>
-      <c r="I34" s="130"/>
-      <c r="J34" s="130"/>
-    </row>
-    <row r="35" spans="1:12" s="58" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A35" s="207"/>
-      <c r="B35" s="207"/>
-      <c r="C35" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="D35" s="99" t="s">
-        <v>265</v>
-      </c>
-      <c r="E35" s="217" t="s">
-        <v>266</v>
-      </c>
-      <c r="F35" s="218"/>
-      <c r="G35" s="218"/>
-      <c r="H35" s="218"/>
-      <c r="I35" s="218"/>
-      <c r="J35" s="219"/>
+      <c r="F35" s="154"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="154"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="155"/>
       <c r="K35" s="56"/>
       <c r="L35" s="56"/>
     </row>
     <row r="36" spans="1:12" s="56" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A36" s="207"/>
-      <c r="B36" s="207"/>
+      <c r="A36" s="146"/>
+      <c r="B36" s="146"/>
       <c r="C36" s="97" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D36" s="69"/>
-      <c r="E36" s="217" t="s">
-        <v>268</v>
-      </c>
-      <c r="F36" s="218"/>
-      <c r="G36" s="218"/>
-      <c r="H36" s="218"/>
-      <c r="I36" s="218"/>
-      <c r="J36" s="219"/>
+      <c r="E36" s="153" t="s">
+        <v>265</v>
+      </c>
+      <c r="F36" s="154"/>
+      <c r="G36" s="154"/>
+      <c r="H36" s="154"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="155"/>
     </row>
     <row r="37" spans="1:12" s="56" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A37" s="208"/>
-      <c r="B37" s="208"/>
+      <c r="A37" s="147"/>
+      <c r="B37" s="147"/>
       <c r="C37" s="97" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D37" s="97" t="s">
         <v>193</v>
       </c>
-      <c r="E37" s="188" t="s">
-        <v>270</v>
-      </c>
-      <c r="F37" s="220"/>
-      <c r="G37" s="220"/>
-      <c r="H37" s="220"/>
-      <c r="I37" s="220"/>
-      <c r="J37" s="220"/>
+      <c r="E37" s="156" t="s">
+        <v>267</v>
+      </c>
+      <c r="F37" s="157"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="157"/>
+      <c r="I37" s="157"/>
+      <c r="J37" s="157"/>
     </row>
     <row r="38" spans="1:12" s="56" customFormat="1">
-      <c r="A38" s="221" t="s">
+      <c r="A38" s="158" t="s">
         <v>194</v>
       </c>
-      <c r="B38" s="222"/>
-      <c r="C38" s="222"/>
-      <c r="D38" s="222"/>
-      <c r="E38" s="222"/>
-      <c r="F38" s="222"/>
-      <c r="G38" s="222"/>
-      <c r="H38" s="222"/>
-      <c r="I38" s="222"/>
-      <c r="J38" s="223"/>
+      <c r="B38" s="159"/>
+      <c r="C38" s="159"/>
+      <c r="D38" s="159"/>
+      <c r="E38" s="159"/>
+      <c r="F38" s="159"/>
+      <c r="G38" s="159"/>
+      <c r="H38" s="159"/>
+      <c r="I38" s="159"/>
+      <c r="J38" s="160"/>
     </row>
     <row r="39" spans="1:12" s="56" customFormat="1" ht="37.5" customHeight="1">
       <c r="A39" s="145">
         <v>1</v>
       </c>
-      <c r="B39" s="147" t="s">
+      <c r="B39" s="162" t="s">
         <v>195</v>
       </c>
       <c r="C39" s="93" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D39" s="97"/>
-      <c r="E39" s="144" t="s">
-        <v>271</v>
-      </c>
-      <c r="F39" s="130"/>
-      <c r="G39" s="130"/>
-      <c r="H39" s="130"/>
-      <c r="I39" s="130"/>
-      <c r="J39" s="130"/>
+      <c r="E39" s="184" t="s">
+        <v>268</v>
+      </c>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="116"/>
     </row>
     <row r="40" spans="1:12" s="56" customFormat="1" ht="49.5">
-      <c r="A40" s="146"/>
-      <c r="B40" s="148"/>
+      <c r="A40" s="161"/>
+      <c r="B40" s="163"/>
       <c r="C40" s="85" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D40" s="99" t="s">
-        <v>265</v>
-      </c>
-      <c r="E40" s="160" t="s">
-        <v>273</v>
-      </c>
-      <c r="F40" s="231"/>
-      <c r="G40" s="231"/>
-      <c r="H40" s="231"/>
-      <c r="I40" s="231"/>
-      <c r="J40" s="232"/>
+        <v>262</v>
+      </c>
+      <c r="E40" s="207" t="s">
+        <v>270</v>
+      </c>
+      <c r="F40" s="238"/>
+      <c r="G40" s="238"/>
+      <c r="H40" s="238"/>
+      <c r="I40" s="238"/>
+      <c r="J40" s="239"/>
     </row>
     <row r="41" spans="1:12" s="56" customFormat="1" ht="37.5" customHeight="1">
       <c r="A41" s="67">
         <v>2</v>
       </c>
       <c r="B41" s="68" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C41" s="93" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D41" s="99"/>
-      <c r="E41" s="233" t="s">
-        <v>276</v>
-      </c>
-      <c r="F41" s="234"/>
-      <c r="G41" s="234"/>
-      <c r="H41" s="234"/>
-      <c r="I41" s="234"/>
-      <c r="J41" s="235"/>
+      <c r="E41" s="240" t="s">
+        <v>273</v>
+      </c>
+      <c r="F41" s="241"/>
+      <c r="G41" s="241"/>
+      <c r="H41" s="241"/>
+      <c r="I41" s="241"/>
+      <c r="J41" s="242"/>
     </row>
     <row r="42" spans="1:12" s="56" customFormat="1" ht="99" customHeight="1">
       <c r="A42" s="67"/>
       <c r="B42" s="68"/>
       <c r="C42" s="97" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D42" s="97" t="s">
-        <v>265</v>
-      </c>
-      <c r="E42" s="227" t="s">
-        <v>278</v>
-      </c>
-      <c r="F42" s="228"/>
-      <c r="G42" s="228"/>
-      <c r="H42" s="228"/>
-      <c r="I42" s="228"/>
-      <c r="J42" s="228"/>
+        <v>262</v>
+      </c>
+      <c r="E42" s="234" t="s">
+        <v>275</v>
+      </c>
+      <c r="F42" s="235"/>
+      <c r="G42" s="235"/>
+      <c r="H42" s="235"/>
+      <c r="I42" s="235"/>
+      <c r="J42" s="235"/>
     </row>
     <row r="43" spans="1:12" s="56" customFormat="1" ht="37.5" customHeight="1">
       <c r="A43" s="67"/>
       <c r="B43" s="68"/>
       <c r="C43" s="97" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D43" s="92" t="s">
-        <v>280</v>
-      </c>
-      <c r="E43" s="141" t="s">
-        <v>281</v>
-      </c>
-      <c r="F43" s="229"/>
-      <c r="G43" s="229"/>
-      <c r="H43" s="229"/>
-      <c r="I43" s="229"/>
-      <c r="J43" s="230"/>
+        <v>277</v>
+      </c>
+      <c r="E43" s="136" t="s">
+        <v>278</v>
+      </c>
+      <c r="F43" s="236"/>
+      <c r="G43" s="236"/>
+      <c r="H43" s="236"/>
+      <c r="I43" s="236"/>
+      <c r="J43" s="237"/>
     </row>
     <row r="44" spans="1:12" s="56" customFormat="1" ht="91.5" customHeight="1">
       <c r="A44" s="67"/>
       <c r="B44" s="68"/>
       <c r="C44" s="97" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D44" s="92" t="s">
-        <v>283</v>
-      </c>
-      <c r="E44" s="141" t="s">
-        <v>284</v>
-      </c>
-      <c r="F44" s="229"/>
-      <c r="G44" s="229"/>
-      <c r="H44" s="229"/>
-      <c r="I44" s="229"/>
-      <c r="J44" s="230"/>
+        <v>280</v>
+      </c>
+      <c r="E44" s="136" t="s">
+        <v>281</v>
+      </c>
+      <c r="F44" s="236"/>
+      <c r="G44" s="236"/>
+      <c r="H44" s="236"/>
+      <c r="I44" s="236"/>
+      <c r="J44" s="237"/>
     </row>
     <row r="45" spans="1:12" s="56" customFormat="1" ht="105.75" customHeight="1">
       <c r="A45" s="69">
         <v>3</v>
       </c>
       <c r="B45" s="100" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C45" s="93" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D45" s="92"/>
-      <c r="E45" s="141" t="s">
-        <v>319</v>
-      </c>
-      <c r="F45" s="121"/>
-      <c r="G45" s="121"/>
-      <c r="H45" s="121"/>
-      <c r="I45" s="121"/>
-      <c r="J45" s="122"/>
+      <c r="E45" s="136" t="s">
+        <v>321</v>
+      </c>
+      <c r="F45" s="120"/>
+      <c r="G45" s="120"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="120"/>
+      <c r="J45" s="121"/>
     </row>
     <row r="46" spans="1:12" s="56" customFormat="1">
       <c r="A46" s="101"/>
@@ -12809,96 +12807,96 @@
       <c r="J46" s="96"/>
     </row>
     <row r="47" spans="1:12" s="56" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A47" s="214" t="s">
+      <c r="A47" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="215"/>
-      <c r="C47" s="215"/>
-      <c r="D47" s="215"/>
-      <c r="E47" s="215"/>
-      <c r="F47" s="215"/>
-      <c r="G47" s="215"/>
-      <c r="H47" s="215"/>
-      <c r="I47" s="215"/>
-      <c r="J47" s="216"/>
+      <c r="B47" s="151"/>
+      <c r="C47" s="151"/>
+      <c r="D47" s="151"/>
+      <c r="E47" s="151"/>
+      <c r="F47" s="151"/>
+      <c r="G47" s="151"/>
+      <c r="H47" s="151"/>
+      <c r="I47" s="151"/>
+      <c r="J47" s="152"/>
     </row>
     <row r="48" spans="1:12" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="212" t="s">
+      <c r="B48" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="213"/>
-      <c r="D48" s="141" t="s">
+      <c r="C48" s="149"/>
+      <c r="D48" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="121"/>
-      <c r="F48" s="121"/>
-      <c r="G48" s="121"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="121"/>
-      <c r="J48" s="122"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="120"/>
+      <c r="G48" s="120"/>
+      <c r="H48" s="120"/>
+      <c r="I48" s="120"/>
+      <c r="J48" s="121"/>
     </row>
     <row r="49" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A49" s="209"/>
-      <c r="B49" s="239"/>
-      <c r="C49" s="239"/>
-      <c r="D49" s="239"/>
-      <c r="E49" s="239"/>
-      <c r="F49" s="239"/>
-      <c r="G49" s="239"/>
-      <c r="H49" s="239"/>
-      <c r="I49" s="239"/>
-      <c r="J49" s="240"/>
+      <c r="A49" s="141"/>
+      <c r="B49" s="229"/>
+      <c r="C49" s="229"/>
+      <c r="D49" s="229"/>
+      <c r="E49" s="229"/>
+      <c r="F49" s="229"/>
+      <c r="G49" s="229"/>
+      <c r="H49" s="229"/>
+      <c r="I49" s="229"/>
+      <c r="J49" s="230"/>
     </row>
     <row r="50" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="69"/>
-      <c r="B50" s="169"/>
+      <c r="B50" s="139"/>
       <c r="C50" s="140"/>
-      <c r="D50" s="141"/>
-      <c r="E50" s="121"/>
-      <c r="F50" s="121"/>
-      <c r="G50" s="121"/>
-      <c r="H50" s="121"/>
-      <c r="I50" s="121"/>
-      <c r="J50" s="122"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="120"/>
+      <c r="G50" s="120"/>
+      <c r="H50" s="120"/>
+      <c r="I50" s="120"/>
+      <c r="J50" s="121"/>
     </row>
     <row r="51" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="69"/>
-      <c r="B51" s="169"/>
+      <c r="B51" s="139"/>
       <c r="C51" s="140"/>
-      <c r="D51" s="141"/>
-      <c r="E51" s="121"/>
-      <c r="F51" s="121"/>
-      <c r="G51" s="121"/>
-      <c r="H51" s="121"/>
-      <c r="I51" s="121"/>
-      <c r="J51" s="122"/>
+      <c r="D51" s="136"/>
+      <c r="E51" s="120"/>
+      <c r="F51" s="120"/>
+      <c r="G51" s="120"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="121"/>
     </row>
     <row r="52" spans="1:10" s="58" customFormat="1" ht="15" customHeight="1">
-      <c r="A52" s="209"/>
-      <c r="B52" s="239"/>
-      <c r="C52" s="239"/>
-      <c r="D52" s="239"/>
-      <c r="E52" s="239"/>
-      <c r="F52" s="239"/>
-      <c r="G52" s="239"/>
-      <c r="H52" s="239"/>
-      <c r="I52" s="239"/>
-      <c r="J52" s="240"/>
+      <c r="A52" s="141"/>
+      <c r="B52" s="229"/>
+      <c r="C52" s="229"/>
+      <c r="D52" s="229"/>
+      <c r="E52" s="229"/>
+      <c r="F52" s="229"/>
+      <c r="G52" s="229"/>
+      <c r="H52" s="229"/>
+      <c r="I52" s="229"/>
+      <c r="J52" s="230"/>
     </row>
     <row r="53" spans="1:10" s="56" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="69"/>
-      <c r="B53" s="169"/>
+      <c r="B53" s="139"/>
       <c r="C53" s="140"/>
-      <c r="D53" s="141"/>
-      <c r="E53" s="121"/>
-      <c r="F53" s="121"/>
-      <c r="G53" s="121"/>
-      <c r="H53" s="121"/>
-      <c r="I53" s="121"/>
-      <c r="J53" s="122"/>
+      <c r="D53" s="136"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
+      <c r="I53" s="120"/>
+      <c r="J53" s="121"/>
     </row>
     <row r="54" spans="1:10" s="56" customFormat="1" ht="17.25" customHeight="1">
       <c r="A54" s="72" t="s">
@@ -12921,14 +12919,14 @@
       <c r="B55" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="169"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="121"/>
-      <c r="F55" s="121"/>
-      <c r="G55" s="121"/>
-      <c r="H55" s="121"/>
-      <c r="I55" s="121"/>
-      <c r="J55" s="122"/>
+      <c r="C55" s="139"/>
+      <c r="D55" s="120"/>
+      <c r="E55" s="120"/>
+      <c r="F55" s="120"/>
+      <c r="G55" s="120"/>
+      <c r="H55" s="120"/>
+      <c r="I55" s="120"/>
+      <c r="J55" s="121"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="69">
@@ -12937,36 +12935,38 @@
       <c r="B56" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="188"/>
-      <c r="D56" s="188"/>
-      <c r="E56" s="188"/>
-      <c r="F56" s="188"/>
-      <c r="G56" s="188"/>
-      <c r="H56" s="188"/>
-      <c r="I56" s="188"/>
-      <c r="J56" s="188"/>
+      <c r="C56" s="156"/>
+      <c r="D56" s="156"/>
+      <c r="E56" s="156"/>
+      <c r="F56" s="156"/>
+      <c r="G56" s="156"/>
+      <c r="H56" s="156"/>
+      <c r="I56" s="156"/>
+      <c r="J56" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E43:J43"/>
+    <mergeCell ref="E44:J44"/>
+    <mergeCell ref="E45:J45"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E33:J33"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="D53:J53"/>
@@ -12983,27 +12983,25 @@
     <mergeCell ref="A47:J47"/>
     <mergeCell ref="E34:J34"/>
     <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E43:J43"/>
-    <mergeCell ref="E44:J44"/>
-    <mergeCell ref="E45:J45"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -13055,7 +13053,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="189" t="s">
+      <c r="K1" s="167" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="39"/>
@@ -13082,7 +13080,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="190"/>
+      <c r="K2" s="168"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -13100,7 +13098,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="190"/>
+      <c r="K3" s="168"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -13439,8 +13437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13469,7 +13467,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="189" t="s">
+      <c r="K1" s="167" t="s">
         <v>50</v>
       </c>
       <c r="L1" s="54"/>
@@ -13490,7 +13488,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="190"/>
+      <c r="K2" s="168"/>
     </row>
     <row r="3" spans="1:17" s="55" customFormat="1">
       <c r="A3" s="47"/>
@@ -13503,7 +13501,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="190"/>
+      <c r="K3" s="168"/>
     </row>
     <row r="4" spans="1:17" s="55" customFormat="1">
       <c r="A4" s="47"/>
@@ -13518,7 +13516,7 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="55" customFormat="1">
-      <c r="A5" s="194" t="s">
+      <c r="A5" s="172" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="118"/>
@@ -13532,57 +13530,57 @@
       <c r="J5" s="119"/>
     </row>
     <row r="6" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="133"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="135"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="124"/>
     </row>
     <row r="7" spans="1:17" s="56" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="195"/>
-      <c r="B7" s="196"/>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="198"/>
+      <c r="A7" s="173"/>
+      <c r="B7" s="174"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="176"/>
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:17" s="56" customFormat="1">
-      <c r="A8" s="195"/>
-      <c r="B8" s="196"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="197"/>
-      <c r="J8" s="198"/>
+      <c r="A8" s="173"/>
+      <c r="B8" s="174"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="176"/>
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:17" s="56" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="199"/>
-      <c r="B9" s="200"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="200"/>
-      <c r="F9" s="200"/>
-      <c r="G9" s="200"/>
-      <c r="H9" s="200"/>
-      <c r="I9" s="200"/>
-      <c r="J9" s="201"/>
+      <c r="A9" s="177"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="179"/>
     </row>
     <row r="10" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="194" t="s">
+      <c r="A10" s="172" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="118"/>
@@ -13596,21 +13594,21 @@
       <c r="J10" s="119"/>
     </row>
     <row r="11" spans="1:17" s="58" customFormat="1" ht="129" customHeight="1">
-      <c r="A11" s="202" t="s">
+      <c r="A11" s="180" t="s">
         <v>172</v>
       </c>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="122"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="121"/>
     </row>
     <row r="12" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="194" t="s">
+      <c r="A12" s="172" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="118"/>
@@ -13624,21 +13622,21 @@
       <c r="J12" s="119"/>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="202" t="s">
+      <c r="A13" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="122"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
     </row>
     <row r="14" spans="1:17" s="56" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="194" t="s">
+      <c r="A14" s="172" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="118"/>
@@ -13652,18 +13650,18 @@
       <c r="J14" s="119"/>
     </row>
     <row r="15" spans="1:17" s="56" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A15" s="176" t="s">
+      <c r="A15" s="185" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="185"/>
-      <c r="C15" s="185"/>
-      <c r="D15" s="185"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="186"/>
+      <c r="B15" s="186"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="186"/>
+      <c r="J15" s="187"/>
     </row>
     <row r="16" spans="1:17" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="59" t="s">
@@ -13672,16 +13670,16 @@
       <c r="B16" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="170" t="s">
+      <c r="C16" s="188" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="171"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="172"/>
+      <c r="D16" s="189"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="190"/>
     </row>
     <row r="17" spans="1:10" s="56" customFormat="1" ht="74.25" customHeight="1">
       <c r="A17" s="59">
@@ -13690,16 +13688,16 @@
       <c r="B17" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="187" t="s">
-        <v>261</v>
-      </c>
-      <c r="D17" s="174"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="174"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="175"/>
+      <c r="C17" s="191" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="192"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="193"/>
     </row>
     <row r="18" spans="1:10" s="56" customFormat="1" ht="67.5" customHeight="1">
       <c r="A18" s="59">
@@ -13708,16 +13706,16 @@
       <c r="B18" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="187" t="s">
-        <v>262</v>
-      </c>
-      <c r="D18" s="174"/>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="175"/>
+      <c r="C18" s="191" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="193"/>
     </row>
     <row r="19" spans="1:10" s="56" customFormat="1">
       <c r="A19" s="59">
@@ -13726,16 +13724,16 @@
       <c r="B19" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="173" t="s">
+      <c r="C19" s="196" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="174"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="174"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="175"/>
+      <c r="D19" s="192"/>
+      <c r="E19" s="192"/>
+      <c r="F19" s="192"/>
+      <c r="G19" s="192"/>
+      <c r="H19" s="192"/>
+      <c r="I19" s="192"/>
+      <c r="J19" s="193"/>
     </row>
     <row r="20" spans="1:10" s="56" customFormat="1">
       <c r="A20" s="59">
@@ -13744,16 +13742,16 @@
       <c r="B20" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="173" t="s">
+      <c r="C20" s="196" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="174"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="174"/>
-      <c r="H20" s="174"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="175"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="192"/>
+      <c r="F20" s="192"/>
+      <c r="G20" s="192"/>
+      <c r="H20" s="192"/>
+      <c r="I20" s="192"/>
+      <c r="J20" s="193"/>
     </row>
     <row r="21" spans="1:10" s="56" customFormat="1">
       <c r="A21" s="59">
@@ -13762,84 +13760,84 @@
       <c r="B21" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="173" t="s">
+      <c r="C21" s="196" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="174"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="174"/>
-      <c r="G21" s="174"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="174"/>
-      <c r="J21" s="175"/>
+      <c r="D21" s="192"/>
+      <c r="E21" s="192"/>
+      <c r="F21" s="192"/>
+      <c r="G21" s="192"/>
+      <c r="H21" s="192"/>
+      <c r="I21" s="192"/>
+      <c r="J21" s="193"/>
     </row>
     <row r="22" spans="1:10" s="56" customFormat="1">
-      <c r="A22" s="169"/>
-      <c r="B22" s="139"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="139"/>
+      <c r="A22" s="139"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="144"/>
+      <c r="I22" s="144"/>
       <c r="J22" s="140"/>
     </row>
     <row r="23" spans="1:10" s="56" customFormat="1">
-      <c r="A23" s="176" t="s">
+      <c r="A23" s="185" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="185"/>
-      <c r="C23" s="185"/>
-      <c r="D23" s="185"/>
-      <c r="E23" s="185"/>
-      <c r="F23" s="185"/>
-      <c r="G23" s="185"/>
-      <c r="H23" s="185"/>
-      <c r="I23" s="185"/>
-      <c r="J23" s="186"/>
+      <c r="B23" s="186"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="186"/>
+      <c r="F23" s="186"/>
+      <c r="G23" s="186"/>
+      <c r="H23" s="186"/>
+      <c r="I23" s="186"/>
+      <c r="J23" s="187"/>
     </row>
     <row r="24" spans="1:10" s="56" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A24" s="249" t="s">
+      <c r="A24" s="243" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="192"/>
-      <c r="C24" s="192"/>
-      <c r="D24" s="192"/>
-      <c r="E24" s="192"/>
-      <c r="F24" s="192"/>
-      <c r="G24" s="192"/>
-      <c r="H24" s="192"/>
-      <c r="I24" s="192"/>
-      <c r="J24" s="193"/>
+      <c r="B24" s="170"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="170"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="171"/>
     </row>
     <row r="25" spans="1:10" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="164" t="s">
+      <c r="A25" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="203"/>
-      <c r="C25" s="203"/>
-      <c r="D25" s="203"/>
-      <c r="E25" s="203"/>
-      <c r="F25" s="203"/>
-      <c r="G25" s="203"/>
-      <c r="H25" s="203"/>
-      <c r="I25" s="203"/>
-      <c r="J25" s="204"/>
+      <c r="B25" s="182"/>
+      <c r="C25" s="182"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="182"/>
+      <c r="G25" s="182"/>
+      <c r="H25" s="182"/>
+      <c r="I25" s="182"/>
+      <c r="J25" s="183"/>
     </row>
     <row r="26" spans="1:10" s="56" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A26" s="176" t="s">
+      <c r="A26" s="185" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="185"/>
-      <c r="C26" s="185"/>
-      <c r="D26" s="185"/>
-      <c r="E26" s="185"/>
-      <c r="F26" s="185"/>
-      <c r="G26" s="185"/>
-      <c r="H26" s="185"/>
-      <c r="I26" s="185"/>
-      <c r="J26" s="186"/>
+      <c r="B26" s="186"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="186"/>
+      <c r="J26" s="187"/>
     </row>
     <row r="27" spans="1:10" s="56" customFormat="1" ht="13.5" customHeight="1">
       <c r="A27" s="59" t="s">
@@ -13848,16 +13846,16 @@
       <c r="B27" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="170" t="s">
+      <c r="C27" s="188" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="171"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="171"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="172"/>
+      <c r="D27" s="189"/>
+      <c r="E27" s="189"/>
+      <c r="F27" s="189"/>
+      <c r="G27" s="189"/>
+      <c r="H27" s="189"/>
+      <c r="I27" s="189"/>
+      <c r="J27" s="190"/>
     </row>
     <row r="28" spans="1:10" s="56" customFormat="1" ht="33" customHeight="1">
       <c r="A28" s="59">
@@ -13866,16 +13864,16 @@
       <c r="B28" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="187" t="s">
-        <v>211</v>
-      </c>
-      <c r="D28" s="174"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="174"/>
-      <c r="H28" s="174"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="175"/>
+      <c r="C28" s="191" t="s">
+        <v>322</v>
+      </c>
+      <c r="D28" s="192"/>
+      <c r="E28" s="192"/>
+      <c r="F28" s="192"/>
+      <c r="G28" s="192"/>
+      <c r="H28" s="192"/>
+      <c r="I28" s="192"/>
+      <c r="J28" s="193"/>
     </row>
     <row r="29" spans="1:10" s="56" customFormat="1" ht="32.25" customHeight="1">
       <c r="A29" s="59">
@@ -13884,16 +13882,16 @@
       <c r="B29" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="187" t="s">
-        <v>212</v>
-      </c>
-      <c r="D29" s="174"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="174"/>
-      <c r="G29" s="174"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="175"/>
+      <c r="C29" s="191" t="s">
+        <v>323</v>
+      </c>
+      <c r="D29" s="192"/>
+      <c r="E29" s="192"/>
+      <c r="F29" s="192"/>
+      <c r="G29" s="192"/>
+      <c r="H29" s="192"/>
+      <c r="I29" s="192"/>
+      <c r="J29" s="193"/>
     </row>
     <row r="30" spans="1:10" s="56" customFormat="1">
       <c r="A30" s="59">
@@ -13902,16 +13900,16 @@
       <c r="B30" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="173" t="s">
+      <c r="C30" s="196" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="174"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="174"/>
-      <c r="G30" s="174"/>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="175"/>
+      <c r="D30" s="192"/>
+      <c r="E30" s="192"/>
+      <c r="F30" s="192"/>
+      <c r="G30" s="192"/>
+      <c r="H30" s="192"/>
+      <c r="I30" s="192"/>
+      <c r="J30" s="193"/>
     </row>
     <row r="31" spans="1:10" s="56" customFormat="1">
       <c r="A31" s="59">
@@ -13920,16 +13918,16 @@
       <c r="B31" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="173" t="s">
+      <c r="C31" s="196" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="174"/>
-      <c r="E31" s="174"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="174"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="175"/>
+      <c r="D31" s="192"/>
+      <c r="E31" s="192"/>
+      <c r="F31" s="192"/>
+      <c r="G31" s="192"/>
+      <c r="H31" s="192"/>
+      <c r="I31" s="192"/>
+      <c r="J31" s="193"/>
     </row>
     <row r="32" spans="1:10" s="56" customFormat="1">
       <c r="A32" s="59">
@@ -13938,70 +13936,70 @@
       <c r="B32" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="173" t="s">
+      <c r="C32" s="196" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="174"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="174"/>
-      <c r="G32" s="174"/>
-      <c r="H32" s="174"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="175"/>
+      <c r="D32" s="192"/>
+      <c r="E32" s="192"/>
+      <c r="F32" s="192"/>
+      <c r="G32" s="192"/>
+      <c r="H32" s="192"/>
+      <c r="I32" s="192"/>
+      <c r="J32" s="193"/>
     </row>
     <row r="33" spans="1:12" s="56" customFormat="1">
-      <c r="A33" s="191"/>
-      <c r="B33" s="241"/>
-      <c r="C33" s="241"/>
-      <c r="D33" s="241"/>
-      <c r="E33" s="241"/>
-      <c r="F33" s="241"/>
-      <c r="G33" s="241"/>
-      <c r="H33" s="241"/>
-      <c r="I33" s="241"/>
-      <c r="J33" s="242"/>
+      <c r="A33" s="169"/>
+      <c r="B33" s="227"/>
+      <c r="C33" s="227"/>
+      <c r="D33" s="227"/>
+      <c r="E33" s="227"/>
+      <c r="F33" s="227"/>
+      <c r="G33" s="227"/>
+      <c r="H33" s="227"/>
+      <c r="I33" s="227"/>
+      <c r="J33" s="228"/>
     </row>
     <row r="34" spans="1:12" s="56" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A34" s="176" t="s">
+      <c r="A34" s="185" t="s">
         <v>196</v>
       </c>
-      <c r="B34" s="185"/>
-      <c r="C34" s="185"/>
-      <c r="D34" s="185"/>
-      <c r="E34" s="185"/>
-      <c r="F34" s="185"/>
-      <c r="G34" s="185"/>
-      <c r="H34" s="185"/>
-      <c r="I34" s="185"/>
-      <c r="J34" s="186"/>
+      <c r="B34" s="186"/>
+      <c r="C34" s="186"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="186"/>
+      <c r="F34" s="186"/>
+      <c r="G34" s="186"/>
+      <c r="H34" s="186"/>
+      <c r="I34" s="186"/>
+      <c r="J34" s="187"/>
     </row>
     <row r="35" spans="1:12" s="56" customFormat="1" ht="27" customHeight="1">
-      <c r="A35" s="246" t="s">
+      <c r="A35" s="248" t="s">
         <v>197</v>
       </c>
-      <c r="B35" s="130"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="130"/>
-      <c r="J35" s="247"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c 